--- a/System_2.1.8.xlsx
+++ b/System_2.1.8.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Work_For_\Work\Running AppS\System_Work_RW\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ACA4959-2DCF-43B9-A633-2760651FFEFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C4029E6-810F-477A-A8CF-BE0545B2F283}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1129" uniqueCount="633">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1129" uniqueCount="634">
   <si>
     <t>Zone</t>
   </si>
@@ -1938,6 +1938,9 @@
   </si>
   <si>
     <t xml:space="preserve"> WL F Police</t>
+  </si>
+  <si>
+    <t>France 24 ES</t>
   </si>
 </sst>
 </file>
@@ -4946,6 +4949,18 @@
     <xf numFmtId="0" fontId="4" fillId="53" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4994,6 +5009,288 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="49" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="49" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="49" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="73" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="27" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="27" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="36" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="36" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="36" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="36" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="36" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
     <xf numFmtId="0" fontId="32" fillId="27" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -5033,269 +5330,71 @@
     <xf numFmtId="0" fontId="3" fillId="36" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="43" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="43" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="43" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="36" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="36" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="36" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="73" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="13" fillId="27" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="13" fillId="27" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="40" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="40" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="40" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="52" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="52" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="36" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="36" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="49" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="49" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="49" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="14" fontId="5" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="14" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="14" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5309,130 +5408,25 @@
     <xf numFmtId="0" fontId="3" fillId="35" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="43" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="43" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="43" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="40" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="40" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="40" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="52" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="52" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="14" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="14" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5510,38 +5504,47 @@
     <xf numFmtId="0" fontId="3" fillId="21" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5892,10 +5895,10 @@
       <c r="I2" s="412" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="588" t="s">
+      <c r="J2" s="592" t="s">
         <v>7</v>
       </c>
-      <c r="K2" s="589"/>
+      <c r="K2" s="593"/>
       <c r="L2" s="1" t="s">
         <v>8</v>
       </c>
@@ -5905,14 +5908,14 @@
       <c r="N2" s="358" t="s">
         <v>10</v>
       </c>
-      <c r="O2" s="590" t="s">
+      <c r="O2" s="594" t="s">
         <v>382</v>
       </c>
-      <c r="P2" s="591"/>
-      <c r="Q2" s="592"/>
-      <c r="R2" s="592"/>
-      <c r="S2" s="592"/>
-      <c r="T2" s="593" t="s">
+      <c r="P2" s="595"/>
+      <c r="Q2" s="596"/>
+      <c r="R2" s="596"/>
+      <c r="S2" s="596"/>
+      <c r="T2" s="597" t="s">
         <v>383</v>
       </c>
       <c r="V2" s="2" t="s">
@@ -5926,7 +5929,7 @@
       <c r="C3" s="168" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="585"/>
+      <c r="D3" s="589"/>
       <c r="E3" s="346"/>
       <c r="F3" s="270" t="s">
         <v>69</v>
@@ -5962,7 +5965,7 @@
       <c r="S3" s="24">
         <v>1</v>
       </c>
-      <c r="T3" s="594"/>
+      <c r="T3" s="598"/>
       <c r="U3" s="19" t="s">
         <v>577</v>
       </c>
@@ -5978,7 +5981,7 @@
       <c r="C4" s="168" t="s">
         <v>360</v>
       </c>
-      <c r="D4" s="586"/>
+      <c r="D4" s="590"/>
       <c r="E4" s="61"/>
       <c r="F4" s="368" t="s">
         <v>42</v>
@@ -5995,7 +5998,7 @@
       </c>
       <c r="O4" s="6"/>
       <c r="P4" s="319"/>
-      <c r="T4" s="594"/>
+      <c r="T4" s="598"/>
     </row>
     <row r="5" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="2" t="s">
@@ -6004,7 +6007,7 @@
       <c r="C5" s="168" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="587"/>
+      <c r="D5" s="591"/>
       <c r="F5" s="372" t="s">
         <v>42</v>
       </c>
@@ -6023,7 +6026,7 @@
         <v>512</v>
       </c>
       <c r="P5" s="319"/>
-      <c r="T5" s="594"/>
+      <c r="T5" s="598"/>
       <c r="U5" s="208" t="s">
         <v>227</v>
       </c>
@@ -6062,7 +6065,7 @@
       <c r="P6" s="319"/>
       <c r="Q6" s="16"/>
       <c r="R6" s="6"/>
-      <c r="T6" s="594"/>
+      <c r="T6" s="598"/>
     </row>
     <row r="7" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="213" t="s">
@@ -6100,7 +6103,7 @@
       <c r="S7" s="24">
         <v>1</v>
       </c>
-      <c r="T7" s="594"/>
+      <c r="T7" s="598"/>
     </row>
     <row r="8" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="2" t="s">
@@ -6129,7 +6132,7 @@
       <c r="P8" s="319"/>
       <c r="Q8" s="16"/>
       <c r="R8" s="6"/>
-      <c r="T8" s="594"/>
+      <c r="T8" s="598"/>
     </row>
     <row r="9" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="3" t="s">
@@ -6174,7 +6177,7 @@
       <c r="S9" s="24">
         <v>1</v>
       </c>
-      <c r="T9" s="594"/>
+      <c r="T9" s="598"/>
     </row>
     <row r="10" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="2" t="s">
@@ -6206,7 +6209,7 @@
         <v>512</v>
       </c>
       <c r="P10" s="319"/>
-      <c r="T10" s="594"/>
+      <c r="T10" s="598"/>
     </row>
     <row r="11" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="2" t="s">
@@ -6248,7 +6251,7 @@
       <c r="S11" s="24">
         <v>1</v>
       </c>
-      <c r="T11" s="594"/>
+      <c r="T11" s="598"/>
       <c r="U11" s="208" t="s">
         <v>226</v>
       </c>
@@ -6281,7 +6284,7 @@
       <c r="P12" s="319"/>
       <c r="Q12" s="16"/>
       <c r="R12" s="142"/>
-      <c r="T12" s="594"/>
+      <c r="T12" s="598"/>
     </row>
     <row r="13" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="260" t="s">
@@ -6313,7 +6316,7 @@
       </c>
       <c r="P13" s="319"/>
       <c r="R13" s="142"/>
-      <c r="T13" s="594"/>
+      <c r="T13" s="598"/>
       <c r="U13" s="2" t="s">
         <v>601</v>
       </c>
@@ -6323,7 +6326,7 @@
     </row>
     <row r="14" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="P14" s="319"/>
-      <c r="T14" s="594"/>
+      <c r="T14" s="598"/>
     </row>
     <row r="15" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="2" t="s">
@@ -6349,10 +6352,10 @@
       <c r="L15" s="137" t="s">
         <v>15</v>
       </c>
-      <c r="M15" s="582">
+      <c r="M15" s="586">
         <v>45275</v>
       </c>
-      <c r="N15" s="585" t="s">
+      <c r="N15" s="589" t="s">
         <v>22</v>
       </c>
       <c r="O15" s="496" t="s">
@@ -6370,7 +6373,7 @@
       <c r="S15" s="24">
         <v>1</v>
       </c>
-      <c r="T15" s="594"/>
+      <c r="T15" s="598"/>
     </row>
     <row r="16" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="483" t="s">
@@ -6396,8 +6399,8 @@
       <c r="L16" s="198" t="s">
         <v>15</v>
       </c>
-      <c r="M16" s="583"/>
-      <c r="N16" s="586"/>
+      <c r="M16" s="587"/>
+      <c r="N16" s="590"/>
       <c r="P16" s="319">
         <v>1</v>
       </c>
@@ -6410,7 +6413,7 @@
       <c r="S16" s="112">
         <v>1</v>
       </c>
-      <c r="T16" s="594"/>
+      <c r="T16" s="598"/>
     </row>
     <row r="17" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="2"/>
@@ -6436,8 +6439,8 @@
       <c r="L17" s="135" t="s">
         <v>15</v>
       </c>
-      <c r="M17" s="584"/>
-      <c r="N17" s="587"/>
+      <c r="M17" s="588"/>
+      <c r="N17" s="591"/>
       <c r="O17" s="496" t="s">
         <v>44</v>
       </c>
@@ -6453,11 +6456,11 @@
       <c r="S17" s="24">
         <v>1</v>
       </c>
-      <c r="T17" s="594"/>
+      <c r="T17" s="598"/>
     </row>
     <row r="18" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="P18" s="319"/>
-      <c r="T18" s="594"/>
+      <c r="T18" s="598"/>
     </row>
     <row r="19" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19" s="2" t="s">
@@ -6483,14 +6486,14 @@
       <c r="L19" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="M19" s="582">
+      <c r="M19" s="586">
         <v>45275</v>
       </c>
       <c r="N19" s="411" t="s">
         <v>512</v>
       </c>
       <c r="P19" s="319"/>
-      <c r="T19" s="594"/>
+      <c r="T19" s="598"/>
     </row>
     <row r="20" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B20" s="245" t="s">
@@ -6516,7 +6519,7 @@
       <c r="L20" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="M20" s="583"/>
+      <c r="M20" s="587"/>
       <c r="N20" s="401" t="s">
         <v>26</v>
       </c>
@@ -6532,7 +6535,7 @@
       <c r="S20" s="24">
         <v>1</v>
       </c>
-      <c r="T20" s="594"/>
+      <c r="T20" s="598"/>
     </row>
     <row r="21" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B21" s="245" t="s">
@@ -6558,7 +6561,7 @@
       <c r="L21" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="M21" s="583"/>
+      <c r="M21" s="587"/>
       <c r="N21" s="401" t="s">
         <v>18</v>
       </c>
@@ -6574,11 +6577,11 @@
       <c r="S21" s="24">
         <v>1</v>
       </c>
-      <c r="T21" s="594"/>
-      <c r="U21" s="580" t="s">
+      <c r="T21" s="598"/>
+      <c r="U21" s="584" t="s">
         <v>225</v>
       </c>
-      <c r="V21" s="581"/>
+      <c r="V21" s="585"/>
     </row>
     <row r="22" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="275" t="s">
@@ -6602,12 +6605,12 @@
       <c r="L22" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="M22" s="583"/>
+      <c r="M22" s="587"/>
       <c r="N22" s="381" t="s">
         <v>26</v>
       </c>
       <c r="P22" s="319"/>
-      <c r="T22" s="594"/>
+      <c r="T22" s="598"/>
       <c r="X22" s="19" t="s">
         <v>620</v>
       </c>
@@ -6634,12 +6637,12 @@
       <c r="L23" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="M23" s="583"/>
+      <c r="M23" s="587"/>
       <c r="N23" s="61" t="s">
         <v>513</v>
       </c>
       <c r="P23" s="319"/>
-      <c r="T23" s="594"/>
+      <c r="T23" s="598"/>
       <c r="U23" s="2" t="s">
         <v>610</v>
       </c>
@@ -6672,7 +6675,7 @@
       <c r="L24" s="135" t="s">
         <v>32</v>
       </c>
-      <c r="M24" s="583"/>
+      <c r="M24" s="587"/>
       <c r="N24" s="61" t="s">
         <v>26</v>
       </c>
@@ -6681,7 +6684,7 @@
       </c>
       <c r="P24" s="541"/>
       <c r="S24" s="80"/>
-      <c r="T24" s="594"/>
+      <c r="T24" s="598"/>
     </row>
     <row r="25" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B25" s="3" t="s">
@@ -6707,7 +6710,7 @@
       <c r="L25" s="135" t="s">
         <v>35</v>
       </c>
-      <c r="M25" s="583"/>
+      <c r="M25" s="587"/>
       <c r="N25" s="61" t="s">
         <v>26</v>
       </c>
@@ -6723,7 +6726,7 @@
       <c r="S25" s="21">
         <v>1</v>
       </c>
-      <c r="T25" s="594"/>
+      <c r="T25" s="598"/>
       <c r="V25" s="19"/>
     </row>
     <row r="26" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6750,12 +6753,12 @@
       <c r="L26" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="M26" s="583"/>
+      <c r="M26" s="587"/>
       <c r="N26" s="61" t="s">
         <v>514</v>
       </c>
       <c r="P26" s="319"/>
-      <c r="T26" s="594"/>
+      <c r="T26" s="598"/>
       <c r="V26" s="542" t="s">
         <v>619</v>
       </c>
@@ -6780,7 +6783,7 @@
       <c r="J27" s="408"/>
       <c r="K27" s="409"/>
       <c r="L27" s="410"/>
-      <c r="M27" s="583"/>
+      <c r="M27" s="587"/>
       <c r="N27" s="61"/>
       <c r="P27" s="319">
         <v>1</v>
@@ -6794,7 +6797,7 @@
       <c r="S27" s="24">
         <v>1</v>
       </c>
-      <c r="T27" s="594"/>
+      <c r="T27" s="598"/>
       <c r="W27" s="2" t="s">
         <v>593</v>
       </c>
@@ -6823,7 +6826,7 @@
       <c r="L28" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="M28" s="584"/>
+      <c r="M28" s="588"/>
       <c r="N28" s="61" t="s">
         <v>514</v>
       </c>
@@ -6839,7 +6842,7 @@
       <c r="S28" s="21">
         <v>1</v>
       </c>
-      <c r="T28" s="595"/>
+      <c r="T28" s="599"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -6927,7 +6930,7 @@
       <c r="H1" s="97" t="s">
         <v>349</v>
       </c>
-      <c r="I1" s="611" t="s">
+      <c r="I1" s="604" t="s">
         <v>375</v>
       </c>
       <c r="J1" s="2" t="s">
@@ -6963,7 +6966,7 @@
       <c r="X1" s="451" t="s">
         <v>156</v>
       </c>
-      <c r="Y1" s="670" t="s">
+      <c r="Y1" s="648" t="s">
         <v>539</v>
       </c>
       <c r="Z1" s="427">
@@ -6988,7 +6991,7 @@
         <v>507</v>
       </c>
       <c r="AM1" s="423"/>
-      <c r="AN1" s="652"/>
+      <c r="AN1" s="631"/>
       <c r="AO1" s="347" t="s">
         <v>478</v>
       </c>
@@ -6997,23 +7000,23 @@
       </c>
     </row>
     <row r="2" spans="1:43" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="634">
+      <c r="A2" s="657">
         <f ca="1">TODAY()</f>
         <v>45282</v>
       </c>
-      <c r="B2" s="636" t="s">
+      <c r="B2" s="659" t="s">
         <v>376</v>
       </c>
-      <c r="C2" s="613" t="s">
+      <c r="C2" s="636" t="s">
         <v>363</v>
       </c>
-      <c r="D2" s="638" t="s">
+      <c r="D2" s="661" t="s">
         <v>361</v>
       </c>
-      <c r="E2" s="682" t="s">
+      <c r="E2" s="600" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="657" t="s">
+      <c r="F2" s="610" t="s">
         <v>103</v>
       </c>
       <c r="G2" s="414" t="s">
@@ -7022,31 +7025,31 @@
       <c r="H2" s="80" t="s">
         <v>33</v>
       </c>
-      <c r="I2" s="612"/>
+      <c r="I2" s="605"/>
       <c r="J2" s="81" t="s">
         <v>77</v>
       </c>
-      <c r="K2" s="684" t="s">
+      <c r="K2" s="602" t="s">
         <v>348</v>
       </c>
-      <c r="L2" s="685"/>
-      <c r="M2" s="657" t="s">
+      <c r="L2" s="603"/>
+      <c r="M2" s="610" t="s">
         <v>103</v>
       </c>
       <c r="N2" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="O2" s="661" t="s">
+      <c r="O2" s="640" t="s">
         <v>103</v>
       </c>
       <c r="P2" s="85" t="s">
         <v>148</v>
       </c>
-      <c r="Q2" s="613" t="s">
+      <c r="Q2" s="636" t="s">
         <v>144</v>
       </c>
-      <c r="R2" s="585"/>
-      <c r="S2" s="674" t="s">
+      <c r="R2" s="589"/>
+      <c r="S2" s="625" t="s">
         <v>149</v>
       </c>
       <c r="T2" s="89"/>
@@ -7056,7 +7059,7 @@
       <c r="X2" s="452" t="s">
         <v>157</v>
       </c>
-      <c r="Y2" s="671"/>
+      <c r="Y2" s="649"/>
       <c r="Z2" s="428">
         <v>1</v>
       </c>
@@ -7079,15 +7082,15 @@
         <v>472</v>
       </c>
       <c r="AM2" s="449"/>
-      <c r="AN2" s="653"/>
+      <c r="AN2" s="632"/>
     </row>
     <row r="3" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="635"/>
-      <c r="B3" s="637"/>
-      <c r="C3" s="614"/>
-      <c r="D3" s="639"/>
-      <c r="E3" s="683"/>
-      <c r="F3" s="658"/>
+      <c r="A3" s="658"/>
+      <c r="B3" s="660"/>
+      <c r="C3" s="637"/>
+      <c r="D3" s="662"/>
+      <c r="E3" s="601"/>
+      <c r="F3" s="611"/>
       <c r="G3" s="415" t="s">
         <v>28</v>
       </c>
@@ -7106,17 +7109,17 @@
       <c r="L3" s="205" t="s">
         <v>108</v>
       </c>
-      <c r="M3" s="658"/>
+      <c r="M3" s="611"/>
       <c r="N3" s="69" t="s">
         <v>147</v>
       </c>
-      <c r="O3" s="662"/>
+      <c r="O3" s="641"/>
       <c r="P3" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="Q3" s="614"/>
-      <c r="R3" s="587"/>
-      <c r="S3" s="675"/>
+      <c r="Q3" s="637"/>
+      <c r="R3" s="591"/>
+      <c r="S3" s="627"/>
       <c r="T3" s="89"/>
       <c r="U3" s="124"/>
       <c r="V3" s="120"/>
@@ -7124,7 +7127,7 @@
       <c r="X3" s="452" t="s">
         <v>158</v>
       </c>
-      <c r="Y3" s="671"/>
+      <c r="Y3" s="649"/>
       <c r="Z3" s="429">
         <v>1</v>
       </c>
@@ -7133,7 +7136,7 @@
       <c r="AC3" s="100" t="s">
         <v>489</v>
       </c>
-      <c r="AD3" s="673" t="s">
+      <c r="AD3" s="622" t="s">
         <v>464</v>
       </c>
       <c r="AE3" s="261"/>
@@ -7145,16 +7148,16 @@
       <c r="AK3" s="261"/>
       <c r="AL3" s="16"/>
       <c r="AM3" s="449"/>
-      <c r="AN3" s="653"/>
+      <c r="AN3" s="632"/>
     </row>
     <row r="4" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="242" t="s">
         <v>184</v>
       </c>
-      <c r="B4" s="650" t="s">
+      <c r="B4" s="673" t="s">
         <v>379</v>
       </c>
-      <c r="C4" s="613" t="s">
+      <c r="C4" s="636" t="s">
         <v>155</v>
       </c>
       <c r="D4" s="356" t="s">
@@ -7163,7 +7166,7 @@
       <c r="E4" s="393">
         <v>2</v>
       </c>
-      <c r="F4" s="658"/>
+      <c r="F4" s="611"/>
       <c r="G4" s="397" t="s">
         <v>203</v>
       </c>
@@ -7180,11 +7183,11 @@
         <v>151</v>
       </c>
       <c r="L4" s="208"/>
-      <c r="M4" s="658"/>
+      <c r="M4" s="611"/>
       <c r="N4" s="178" t="s">
         <v>70</v>
       </c>
-      <c r="O4" s="662"/>
+      <c r="O4" s="641"/>
       <c r="P4" s="2" t="s">
         <v>192</v>
       </c>
@@ -7206,12 +7209,12 @@
       <c r="X4" s="452" t="s">
         <v>159</v>
       </c>
-      <c r="Y4" s="671"/>
+      <c r="Y4" s="649"/>
       <c r="Z4" s="430"/>
       <c r="AA4" s="312"/>
       <c r="AB4" s="213"/>
       <c r="AC4" s="16"/>
-      <c r="AD4" s="673"/>
+      <c r="AD4" s="622"/>
       <c r="AE4" s="261"/>
       <c r="AF4" s="261"/>
       <c r="AG4" s="16"/>
@@ -7221,37 +7224,37 @@
       <c r="AK4" s="261"/>
       <c r="AL4" s="16"/>
       <c r="AM4" s="449"/>
-      <c r="AN4" s="653"/>
+      <c r="AN4" s="632"/>
       <c r="AO4" s="347" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="611" t="s">
+      <c r="A5" s="604" t="s">
         <v>427</v>
       </c>
-      <c r="B5" s="651"/>
-      <c r="C5" s="614"/>
+      <c r="B5" s="674"/>
+      <c r="C5" s="637"/>
       <c r="D5" s="61" t="s">
         <v>154</v>
       </c>
       <c r="E5" s="394">
         <v>1</v>
       </c>
-      <c r="F5" s="658"/>
-      <c r="G5" s="642" t="s">
+      <c r="F5" s="611"/>
+      <c r="G5" s="665" t="s">
         <v>193</v>
       </c>
-      <c r="H5" s="642"/>
-      <c r="I5" s="642"/>
-      <c r="J5" s="642"/>
-      <c r="K5" s="642"/>
-      <c r="L5" s="643"/>
-      <c r="M5" s="658"/>
+      <c r="H5" s="665"/>
+      <c r="I5" s="665"/>
+      <c r="J5" s="665"/>
+      <c r="K5" s="665"/>
+      <c r="L5" s="666"/>
+      <c r="M5" s="611"/>
       <c r="N5" s="21">
         <v>8</v>
       </c>
-      <c r="O5" s="662"/>
+      <c r="O5" s="641"/>
       <c r="T5" s="89"/>
       <c r="U5" s="124"/>
       <c r="V5" s="120"/>
@@ -7259,7 +7262,7 @@
       <c r="X5" s="452" t="s">
         <v>160</v>
       </c>
-      <c r="Y5" s="671"/>
+      <c r="Y5" s="649"/>
       <c r="Z5" s="430">
         <v>1</v>
       </c>
@@ -7282,24 +7285,24 @@
       <c r="AK5" s="261"/>
       <c r="AL5" s="80"/>
       <c r="AM5" s="449"/>
-      <c r="AN5" s="653"/>
+      <c r="AN5" s="632"/>
     </row>
     <row r="6" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="612"/>
-      <c r="B6" s="648" t="s">
+      <c r="A6" s="605"/>
+      <c r="B6" s="671" t="s">
         <v>178</v>
       </c>
-      <c r="C6" s="609"/>
-      <c r="D6" s="610"/>
-      <c r="F6" s="658"/>
-      <c r="G6" s="644"/>
-      <c r="H6" s="644"/>
-      <c r="I6" s="644"/>
-      <c r="J6" s="644"/>
-      <c r="K6" s="644"/>
-      <c r="L6" s="645"/>
-      <c r="M6" s="658"/>
-      <c r="O6" s="662"/>
+      <c r="C6" s="619"/>
+      <c r="D6" s="620"/>
+      <c r="F6" s="611"/>
+      <c r="G6" s="667"/>
+      <c r="H6" s="667"/>
+      <c r="I6" s="667"/>
+      <c r="J6" s="667"/>
+      <c r="K6" s="667"/>
+      <c r="L6" s="668"/>
+      <c r="M6" s="611"/>
+      <c r="O6" s="641"/>
       <c r="T6" s="89"/>
       <c r="U6" s="124"/>
       <c r="V6" s="98" t="s">
@@ -7309,7 +7312,7 @@
       <c r="X6" s="452" t="s">
         <v>161</v>
       </c>
-      <c r="Y6" s="671"/>
+      <c r="Y6" s="649"/>
       <c r="Z6" s="428">
         <v>1</v>
       </c>
@@ -7323,16 +7326,16 @@
       <c r="AF6" s="261"/>
       <c r="AG6" s="261"/>
       <c r="AH6" s="261"/>
-      <c r="AI6" s="667"/>
+      <c r="AI6" s="621"/>
       <c r="AJ6" s="462" t="s">
         <v>467</v>
       </c>
-      <c r="AK6" s="667" t="s">
+      <c r="AK6" s="621" t="s">
         <v>255</v>
       </c>
       <c r="AL6" s="261"/>
       <c r="AM6" s="449"/>
-      <c r="AN6" s="653"/>
+      <c r="AN6" s="632"/>
       <c r="AO6" s="347" t="s">
         <v>479</v>
       </c>
@@ -7341,7 +7344,7 @@
       <c r="A7" s="236" t="s">
         <v>584</v>
       </c>
-      <c r="B7" s="649"/>
+      <c r="B7" s="672"/>
       <c r="C7" s="206" t="s">
         <v>380</v>
       </c>
@@ -7351,7 +7354,7 @@
       <c r="E7" s="270">
         <v>3</v>
       </c>
-      <c r="F7" s="658"/>
+      <c r="F7" s="611"/>
       <c r="G7" s="416">
         <v>0</v>
       </c>
@@ -7364,14 +7367,14 @@
       <c r="J7" s="30">
         <v>0</v>
       </c>
-      <c r="K7" s="585">
+      <c r="K7" s="589">
         <v>0</v>
       </c>
       <c r="L7" s="216">
         <v>0</v>
       </c>
-      <c r="M7" s="658"/>
-      <c r="O7" s="662"/>
+      <c r="M7" s="611"/>
+      <c r="O7" s="641"/>
       <c r="R7" s="99" t="s">
         <v>44</v>
       </c>
@@ -7385,7 +7388,7 @@
       <c r="X7" s="452" t="s">
         <v>162</v>
       </c>
-      <c r="Y7" s="671"/>
+      <c r="Y7" s="649"/>
       <c r="Z7" s="428">
         <v>1</v>
       </c>
@@ -7395,18 +7398,18 @@
       <c r="AD7" s="16"/>
       <c r="AE7" s="261"/>
       <c r="AF7" s="261"/>
-      <c r="AG7" s="673" t="s">
+      <c r="AG7" s="622" t="s">
         <v>463</v>
       </c>
       <c r="AH7" s="261"/>
-      <c r="AI7" s="667"/>
+      <c r="AI7" s="621"/>
       <c r="AJ7" s="261"/>
-      <c r="AK7" s="667"/>
+      <c r="AK7" s="621"/>
       <c r="AL7" s="80" t="s">
         <v>505</v>
       </c>
       <c r="AM7" s="449"/>
-      <c r="AN7" s="653"/>
+      <c r="AN7" s="632"/>
       <c r="AP7" s="76" t="s">
         <v>480</v>
       </c>
@@ -7423,27 +7426,27 @@
         <f>SUM(G7:N9)</f>
         <v>15</v>
       </c>
-      <c r="F8" s="658"/>
-      <c r="G8" s="643">
-        <v>0</v>
-      </c>
-      <c r="H8" s="640" t="s">
+      <c r="F8" s="611"/>
+      <c r="G8" s="666">
+        <v>0</v>
+      </c>
+      <c r="H8" s="663" t="s">
         <v>105</v>
       </c>
-      <c r="I8" s="585">
-        <v>0</v>
-      </c>
-      <c r="J8" s="640" t="s">
+      <c r="I8" s="589">
+        <v>0</v>
+      </c>
+      <c r="J8" s="663" t="s">
         <v>105</v>
       </c>
-      <c r="K8" s="646"/>
-      <c r="L8" s="676"/>
-      <c r="M8" s="659"/>
-      <c r="N8" s="679">
+      <c r="K8" s="669"/>
+      <c r="L8" s="623"/>
+      <c r="M8" s="638"/>
+      <c r="N8" s="628">
         <f>N5+N11</f>
         <v>15</v>
       </c>
-      <c r="O8" s="662"/>
+      <c r="O8" s="641"/>
       <c r="T8" s="103" t="s">
         <v>44</v>
       </c>
@@ -7453,7 +7456,7 @@
       <c r="X8" s="452" t="s">
         <v>163</v>
       </c>
-      <c r="Y8" s="671"/>
+      <c r="Y8" s="649"/>
       <c r="Z8" s="430"/>
       <c r="AA8" s="312"/>
       <c r="AB8" s="213"/>
@@ -7461,14 +7464,14 @@
       <c r="AD8" s="16"/>
       <c r="AE8" s="261"/>
       <c r="AF8" s="261"/>
-      <c r="AG8" s="673"/>
+      <c r="AG8" s="622"/>
       <c r="AH8" s="261"/>
-      <c r="AI8" s="667"/>
+      <c r="AI8" s="621"/>
       <c r="AJ8" s="261"/>
       <c r="AK8" s="261"/>
       <c r="AL8" s="261"/>
       <c r="AM8" s="449"/>
-      <c r="AN8" s="653"/>
+      <c r="AN8" s="632"/>
     </row>
     <row r="9" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="236" t="s">
@@ -7483,17 +7486,17 @@
       <c r="D9" s="357" t="s">
         <v>285</v>
       </c>
-      <c r="F9" s="658"/>
-      <c r="G9" s="645"/>
-      <c r="H9" s="641"/>
-      <c r="I9" s="587"/>
-      <c r="J9" s="641"/>
-      <c r="K9" s="647"/>
-      <c r="L9" s="677"/>
-      <c r="M9" s="660"/>
-      <c r="N9" s="680"/>
-      <c r="O9" s="663"/>
-      <c r="S9" s="674" t="s">
+      <c r="F9" s="611"/>
+      <c r="G9" s="668"/>
+      <c r="H9" s="664"/>
+      <c r="I9" s="591"/>
+      <c r="J9" s="664"/>
+      <c r="K9" s="670"/>
+      <c r="L9" s="624"/>
+      <c r="M9" s="639"/>
+      <c r="N9" s="629"/>
+      <c r="O9" s="642"/>
+      <c r="S9" s="625" t="s">
         <v>62</v>
       </c>
       <c r="T9" s="89"/>
@@ -7505,7 +7508,7 @@
       <c r="X9" s="452" t="s">
         <v>164</v>
       </c>
-      <c r="Y9" s="671"/>
+      <c r="Y9" s="649"/>
       <c r="Z9" s="431"/>
       <c r="AA9" s="312"/>
       <c r="AB9" s="213"/>
@@ -7515,16 +7518,16 @@
       </c>
       <c r="AE9" s="261"/>
       <c r="AF9" s="261"/>
-      <c r="AG9" s="673"/>
+      <c r="AG9" s="622"/>
       <c r="AH9" s="261"/>
-      <c r="AI9" s="667"/>
+      <c r="AI9" s="621"/>
       <c r="AJ9" s="80"/>
-      <c r="AK9" s="667" t="s">
+      <c r="AK9" s="621" t="s">
         <v>255</v>
       </c>
       <c r="AL9" s="261"/>
       <c r="AM9" s="449"/>
-      <c r="AN9" s="653"/>
+      <c r="AN9" s="632"/>
       <c r="AP9" s="2" t="s">
         <v>517</v>
       </c>
@@ -7541,20 +7544,20 @@
         <f>Boat!W8</f>
         <v>37</v>
       </c>
-      <c r="F10" s="658"/>
+      <c r="F10" s="611"/>
       <c r="N10" s="439" t="s">
         <v>403</v>
       </c>
-      <c r="O10" s="691" t="s">
+      <c r="O10" s="613" t="s">
         <v>103</v>
       </c>
-      <c r="P10" s="664" t="s">
+      <c r="P10" s="643" t="s">
         <v>407</v>
       </c>
       <c r="R10" s="74" t="s">
         <v>44</v>
       </c>
-      <c r="S10" s="678"/>
+      <c r="S10" s="626"/>
       <c r="T10" s="89"/>
       <c r="U10" s="123" t="s">
         <v>177</v>
@@ -7566,7 +7569,7 @@
       <c r="X10" s="452" t="s">
         <v>165</v>
       </c>
-      <c r="Y10" s="671"/>
+      <c r="Y10" s="649"/>
       <c r="Z10" s="430">
         <v>0</v>
       </c>
@@ -7584,16 +7587,16 @@
       <c r="AF10" s="242" t="s">
         <v>317</v>
       </c>
-      <c r="AG10" s="673"/>
+      <c r="AG10" s="622"/>
       <c r="AH10" s="80"/>
-      <c r="AI10" s="667"/>
+      <c r="AI10" s="621"/>
       <c r="AJ10" s="261"/>
-      <c r="AK10" s="667"/>
+      <c r="AK10" s="621"/>
       <c r="AL10" s="261"/>
       <c r="AM10" s="463" t="s">
         <v>324</v>
       </c>
-      <c r="AN10" s="653"/>
+      <c r="AN10" s="632"/>
       <c r="AO10" s="208" t="s">
         <v>95</v>
       </c>
@@ -7602,7 +7605,7 @@
       <c r="A11" s="227" t="s">
         <v>289</v>
       </c>
-      <c r="B11" s="585" t="s">
+      <c r="B11" s="589" t="s">
         <v>287</v>
       </c>
       <c r="C11" s="478" t="s">
@@ -7611,18 +7614,18 @@
       <c r="D11" s="174" t="s">
         <v>361</v>
       </c>
-      <c r="F11" s="658"/>
+      <c r="F11" s="611"/>
       <c r="M11" s="6"/>
       <c r="N11" s="117">
         <v>7</v>
       </c>
-      <c r="O11" s="692"/>
-      <c r="P11" s="665"/>
+      <c r="O11" s="614"/>
+      <c r="P11" s="644"/>
       <c r="Q11" s="65"/>
       <c r="R11" s="120" t="s">
         <v>222</v>
       </c>
-      <c r="S11" s="678"/>
+      <c r="S11" s="626"/>
       <c r="T11" s="102" t="s">
         <v>44</v>
       </c>
@@ -7632,7 +7635,7 @@
       <c r="X11" s="452" t="s">
         <v>166</v>
       </c>
-      <c r="Y11" s="671"/>
+      <c r="Y11" s="649"/>
       <c r="Z11" s="430"/>
       <c r="AA11" s="312">
         <v>1</v>
@@ -7646,14 +7649,14 @@
       <c r="AF11" s="261" t="s">
         <v>485</v>
       </c>
-      <c r="AG11" s="673"/>
+      <c r="AG11" s="622"/>
       <c r="AH11" s="261"/>
       <c r="AI11" s="70"/>
       <c r="AJ11" s="261"/>
       <c r="AK11" s="261"/>
       <c r="AL11" s="261"/>
       <c r="AM11" s="449"/>
-      <c r="AN11" s="653"/>
+      <c r="AN11" s="632"/>
       <c r="AP11" s="76" t="s">
         <v>493</v>
       </c>
@@ -7662,7 +7665,7 @@
       <c r="A12" s="231" t="s">
         <v>390</v>
       </c>
-      <c r="B12" s="587"/>
+      <c r="B12" s="591"/>
       <c r="C12" s="479" t="s">
         <v>391</v>
       </c>
@@ -7672,25 +7675,25 @@
       <c r="E12" s="228">
         <v>3</v>
       </c>
-      <c r="F12" s="658"/>
+      <c r="F12" s="611"/>
       <c r="G12" s="346" t="s">
         <v>407</v>
       </c>
-      <c r="H12" s="590" t="s">
+      <c r="H12" s="594" t="s">
         <v>438</v>
       </c>
-      <c r="I12" s="592"/>
-      <c r="J12" s="592"/>
-      <c r="K12" s="696"/>
+      <c r="I12" s="596"/>
+      <c r="J12" s="596"/>
+      <c r="K12" s="618"/>
       <c r="L12" s="207"/>
       <c r="M12" s="207"/>
       <c r="N12" s="207"/>
-      <c r="O12" s="692"/>
-      <c r="P12" s="665"/>
+      <c r="O12" s="614"/>
+      <c r="P12" s="644"/>
       <c r="R12" s="122" t="s">
         <v>181</v>
       </c>
-      <c r="S12" s="675"/>
+      <c r="S12" s="627"/>
       <c r="T12" s="101" t="s">
         <v>44</v>
       </c>
@@ -7700,7 +7703,7 @@
       <c r="X12" s="452" t="s">
         <v>167</v>
       </c>
-      <c r="Y12" s="671"/>
+      <c r="Y12" s="649"/>
       <c r="Z12" s="428">
         <v>1</v>
       </c>
@@ -7711,16 +7714,16 @@
       <c r="AC12" s="100" t="s">
         <v>490</v>
       </c>
-      <c r="AD12" s="681" t="s">
+      <c r="AD12" s="630" t="s">
         <v>244</v>
       </c>
       <c r="AE12" s="462" t="s">
         <v>243</v>
       </c>
-      <c r="AF12" s="673" t="s">
+      <c r="AF12" s="622" t="s">
         <v>230</v>
       </c>
-      <c r="AG12" s="673"/>
+      <c r="AG12" s="622"/>
       <c r="AH12" s="242" t="s">
         <v>263</v>
       </c>
@@ -7730,10 +7733,10 @@
       <c r="AJ12" s="261"/>
       <c r="AK12" s="261"/>
       <c r="AL12" s="261"/>
-      <c r="AM12" s="668" t="s">
+      <c r="AM12" s="646" t="s">
         <v>253</v>
       </c>
-      <c r="AN12" s="653"/>
+      <c r="AN12" s="632"/>
       <c r="AO12" s="347" t="s">
         <v>97</v>
       </c>
@@ -7745,17 +7748,17 @@
       <c r="E13" s="469">
         <v>-3</v>
       </c>
-      <c r="F13" s="658"/>
-      <c r="G13" s="592" t="s">
+      <c r="F13" s="611"/>
+      <c r="G13" s="596" t="s">
         <v>439</v>
       </c>
-      <c r="H13" s="592"/>
-      <c r="I13" s="592"/>
-      <c r="J13" s="696"/>
+      <c r="H13" s="596"/>
+      <c r="I13" s="596"/>
+      <c r="J13" s="618"/>
       <c r="M13" s="6"/>
       <c r="N13" s="6"/>
-      <c r="O13" s="692"/>
-      <c r="P13" s="666"/>
+      <c r="O13" s="614"/>
+      <c r="P13" s="645"/>
       <c r="T13" s="105" t="s">
         <v>44</v>
       </c>
@@ -7765,7 +7768,7 @@
       <c r="X13" s="452" t="s">
         <v>168</v>
       </c>
-      <c r="Y13" s="671"/>
+      <c r="Y13" s="649"/>
       <c r="Z13" s="428">
         <v>1</v>
       </c>
@@ -7776,8 +7779,8 @@
         <v>509</v>
       </c>
       <c r="AC13" s="16"/>
-      <c r="AD13" s="681"/>
-      <c r="AF13" s="673"/>
+      <c r="AD13" s="630"/>
+      <c r="AF13" s="622"/>
       <c r="AG13" s="80"/>
       <c r="AH13" s="242" t="s">
         <v>313</v>
@@ -7788,8 +7791,8 @@
       <c r="AJ13" s="80"/>
       <c r="AK13" s="261"/>
       <c r="AL13" s="261"/>
-      <c r="AM13" s="668"/>
-      <c r="AN13" s="653"/>
+      <c r="AM13" s="646"/>
+      <c r="AN13" s="632"/>
     </row>
     <row r="14" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="471"/>
@@ -7797,18 +7800,18 @@
       <c r="C14" s="480"/>
       <c r="D14" s="473"/>
       <c r="E14" s="474"/>
-      <c r="F14" s="658"/>
-      <c r="G14" s="592" t="s">
+      <c r="F14" s="611"/>
+      <c r="G14" s="596" t="s">
         <v>438</v>
       </c>
-      <c r="H14" s="592"/>
-      <c r="I14" s="592"/>
-      <c r="J14" s="696"/>
+      <c r="H14" s="596"/>
+      <c r="I14" s="596"/>
+      <c r="J14" s="618"/>
       <c r="K14" s="2">
         <v>12</v>
       </c>
       <c r="N14" s="6"/>
-      <c r="O14" s="692"/>
+      <c r="O14" s="614"/>
       <c r="Q14" s="61" t="s">
         <v>543</v>
       </c>
@@ -7822,34 +7825,34 @@
       <c r="X14" s="452" t="s">
         <v>169</v>
       </c>
-      <c r="Y14" s="671"/>
+      <c r="Y14" s="649"/>
       <c r="Z14" s="428">
         <v>1</v>
       </c>
       <c r="AA14" s="312"/>
       <c r="AB14" s="213"/>
       <c r="AC14" s="16"/>
-      <c r="AD14" s="681"/>
+      <c r="AD14" s="630"/>
       <c r="AE14" s="261"/>
-      <c r="AF14" s="673"/>
+      <c r="AF14" s="622"/>
       <c r="AG14" s="261"/>
       <c r="AH14" s="261"/>
       <c r="AI14" s="70"/>
       <c r="AJ14" s="261"/>
       <c r="AK14" s="261"/>
       <c r="AL14" s="261"/>
-      <c r="AM14" s="668"/>
-      <c r="AN14" s="653"/>
+      <c r="AM14" s="646"/>
+      <c r="AN14" s="632"/>
     </row>
     <row r="15" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="470" t="s">
         <v>515</v>
       </c>
-      <c r="C15" s="585" t="s">
+      <c r="C15" s="589" t="s">
         <v>379</v>
       </c>
-      <c r="F15" s="658"/>
-      <c r="O15" s="692"/>
+      <c r="F15" s="611"/>
+      <c r="O15" s="614"/>
       <c r="R15" s="99" t="s">
         <v>44</v>
       </c>
@@ -7862,7 +7865,7 @@
       <c r="X15" s="452" t="s">
         <v>170</v>
       </c>
-      <c r="Y15" s="671"/>
+      <c r="Y15" s="649"/>
       <c r="Z15" s="430">
         <v>1</v>
       </c>
@@ -7871,8 +7874,8 @@
       <c r="AC15" s="76" t="s">
         <v>488</v>
       </c>
-      <c r="AD15" s="681"/>
-      <c r="AF15" s="673"/>
+      <c r="AD15" s="630"/>
+      <c r="AF15" s="622"/>
       <c r="AG15" s="80"/>
       <c r="AH15" s="242" t="s">
         <v>457</v>
@@ -7885,8 +7888,8 @@
       </c>
       <c r="AK15" s="261"/>
       <c r="AL15" s="261"/>
-      <c r="AM15" s="668"/>
-      <c r="AN15" s="653"/>
+      <c r="AM15" s="646"/>
+      <c r="AN15" s="632"/>
       <c r="AP15" s="76" t="s">
         <v>74</v>
       </c>
@@ -7901,20 +7904,20 @@
       <c r="B16" s="21" t="s">
         <v>413</v>
       </c>
-      <c r="C16" s="587"/>
+      <c r="C16" s="591"/>
       <c r="D16" s="61" t="s">
         <v>502</v>
       </c>
       <c r="E16" s="228">
         <v>1</v>
       </c>
-      <c r="F16" s="658"/>
+      <c r="F16" s="611"/>
       <c r="G16" s="346" t="s">
         <v>497</v>
       </c>
       <c r="I16" s="491"/>
       <c r="J16" s="20"/>
-      <c r="O16" s="692"/>
+      <c r="O16" s="614"/>
       <c r="R16" s="456" t="s">
         <v>185</v>
       </c>
@@ -7925,7 +7928,7 @@
       <c r="X16" s="452" t="s">
         <v>171</v>
       </c>
-      <c r="Y16" s="671"/>
+      <c r="Y16" s="649"/>
       <c r="Z16" s="428">
         <v>1</v>
       </c>
@@ -7946,18 +7949,18 @@
       <c r="AM16" s="449" t="s">
         <v>323</v>
       </c>
-      <c r="AN16" s="653"/>
+      <c r="AN16" s="632"/>
       <c r="AP16" s="76" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="17" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="80"/>
-      <c r="F17" s="658"/>
+      <c r="F17" s="611"/>
       <c r="I17" s="492"/>
       <c r="J17" s="20"/>
       <c r="N17" s="6"/>
-      <c r="O17" s="692"/>
+      <c r="O17" s="614"/>
       <c r="Q17" s="21" t="s">
         <v>541</v>
       </c>
@@ -7977,7 +7980,7 @@
       <c r="X17" s="452" t="s">
         <v>172</v>
       </c>
-      <c r="Y17" s="671"/>
+      <c r="Y17" s="649"/>
       <c r="Z17" s="430"/>
       <c r="AA17" s="312"/>
       <c r="AB17" s="213"/>
@@ -8002,7 +8005,7 @@
       <c r="AK17" s="261"/>
       <c r="AL17" s="80"/>
       <c r="AM17" s="449"/>
-      <c r="AN17" s="653"/>
+      <c r="AN17" s="632"/>
       <c r="AO17" s="208" t="s">
         <v>506</v>
       </c>
@@ -8026,21 +8029,21 @@
       <c r="E18" s="99" t="s">
         <v>44</v>
       </c>
-      <c r="F18" s="658"/>
+      <c r="F18" s="611"/>
       <c r="G18" s="346" t="s">
         <v>538</v>
       </c>
       <c r="I18" s="24"/>
       <c r="J18" s="20"/>
-      <c r="O18" s="692"/>
+      <c r="O18" s="614"/>
       <c r="Q18" s="112"/>
-      <c r="R18" s="686" t="s">
+      <c r="R18" s="606" t="s">
         <v>546</v>
       </c>
       <c r="T18" s="100" t="s">
         <v>44</v>
       </c>
-      <c r="U18" s="631" t="s">
+      <c r="U18" s="654" t="s">
         <v>44</v>
       </c>
       <c r="V18" s="120"/>
@@ -8050,7 +8053,7 @@
       <c r="X18" s="452" t="s">
         <v>173</v>
       </c>
-      <c r="Y18" s="671"/>
+      <c r="Y18" s="649"/>
       <c r="Z18" s="430">
         <v>1</v>
       </c>
@@ -8061,38 +8064,38 @@
       <c r="AC18" s="16"/>
       <c r="AD18" s="16"/>
       <c r="AE18" s="261"/>
-      <c r="AF18" s="667" t="s">
+      <c r="AF18" s="621" t="s">
         <v>484</v>
       </c>
       <c r="AG18" s="261"/>
       <c r="AH18" s="70"/>
       <c r="AI18" s="70"/>
-      <c r="AJ18" s="669" t="s">
+      <c r="AJ18" s="647" t="s">
         <v>321</v>
       </c>
       <c r="AK18" s="261"/>
       <c r="AL18" s="80"/>
       <c r="AM18" s="449"/>
-      <c r="AN18" s="653"/>
+      <c r="AN18" s="632"/>
       <c r="AP18" s="76" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="19" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F19" s="658"/>
+      <c r="F19" s="611"/>
       <c r="I19" s="223"/>
-      <c r="O19" s="692"/>
-      <c r="R19" s="687"/>
+      <c r="O19" s="614"/>
+      <c r="R19" s="607"/>
       <c r="S19" s="30" t="s">
         <v>544</v>
       </c>
-      <c r="U19" s="632"/>
+      <c r="U19" s="655"/>
       <c r="V19" s="146"/>
       <c r="W19" s="146"/>
       <c r="X19" s="452" t="s">
         <v>174</v>
       </c>
-      <c r="Y19" s="671"/>
+      <c r="Y19" s="649"/>
       <c r="Z19" s="428">
         <v>1</v>
       </c>
@@ -8101,17 +8104,17 @@
       <c r="AC19" s="16"/>
       <c r="AD19" s="16"/>
       <c r="AE19" s="261"/>
-      <c r="AF19" s="667"/>
+      <c r="AF19" s="621"/>
       <c r="AG19" s="261"/>
       <c r="AH19" s="261"/>
       <c r="AI19" s="70"/>
-      <c r="AJ19" s="669"/>
+      <c r="AJ19" s="647"/>
       <c r="AK19" s="481" t="s">
         <v>255</v>
       </c>
       <c r="AL19" s="80"/>
       <c r="AM19" s="449"/>
-      <c r="AN19" s="653"/>
+      <c r="AN19" s="632"/>
       <c r="AP19" s="76" t="s">
         <v>477</v>
       </c>
@@ -8132,24 +8135,24 @@
       <c r="E20" s="458">
         <v>-1</v>
       </c>
-      <c r="F20" s="658"/>
+      <c r="F20" s="611"/>
       <c r="G20" s="346" t="s">
         <v>500</v>
       </c>
       <c r="I20" s="223"/>
-      <c r="O20" s="692"/>
-      <c r="Q20" s="694" t="s">
+      <c r="O20" s="614"/>
+      <c r="Q20" s="616" t="s">
         <v>48</v>
       </c>
       <c r="T20" s="425" t="s">
         <v>44</v>
       </c>
-      <c r="U20" s="633"/>
+      <c r="U20" s="656"/>
       <c r="W20" s="426"/>
       <c r="X20" s="453" t="s">
         <v>175</v>
       </c>
-      <c r="Y20" s="671"/>
+      <c r="Y20" s="649"/>
       <c r="Z20" s="432">
         <v>1</v>
       </c>
@@ -8174,7 +8177,7 @@
       <c r="AM20" s="397" t="s">
         <v>253</v>
       </c>
-      <c r="AN20" s="653"/>
+      <c r="AN20" s="632"/>
       <c r="AO20" s="347" t="s">
         <v>469</v>
       </c>
@@ -8195,20 +8198,20 @@
       <c r="E21" s="270">
         <v>0</v>
       </c>
-      <c r="F21" s="658"/>
+      <c r="F21" s="611"/>
       <c r="I21" s="223"/>
-      <c r="O21" s="692"/>
-      <c r="Q21" s="695"/>
+      <c r="O21" s="614"/>
+      <c r="Q21" s="617"/>
       <c r="T21" s="443"/>
       <c r="U21" s="14"/>
-      <c r="V21" s="628"/>
+      <c r="V21" s="651"/>
       <c r="W21" s="447" t="s">
         <v>176</v>
       </c>
       <c r="X21" s="450" t="s">
         <v>187</v>
       </c>
-      <c r="Y21" s="671"/>
+      <c r="Y21" s="649"/>
       <c r="Z21" s="466">
         <v>3</v>
       </c>
@@ -8239,15 +8242,15 @@
       <c r="AM21" s="449" t="s">
         <v>555</v>
       </c>
-      <c r="AN21" s="653"/>
+      <c r="AN21" s="632"/>
     </row>
     <row r="22" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F22" s="658"/>
+      <c r="F22" s="611"/>
       <c r="G22" s="346" t="s">
         <v>498</v>
       </c>
       <c r="I22" s="223"/>
-      <c r="O22" s="692"/>
+      <c r="O22" s="614"/>
       <c r="R22" s="455" t="s">
         <v>44</v>
       </c>
@@ -8255,14 +8258,14 @@
         <v>44</v>
       </c>
       <c r="U22" s="15"/>
-      <c r="V22" s="629"/>
+      <c r="V22" s="652"/>
       <c r="W22" s="447" t="s">
         <v>176</v>
       </c>
       <c r="X22" s="450" t="s">
         <v>188</v>
       </c>
-      <c r="Y22" s="671"/>
+      <c r="Y22" s="649"/>
       <c r="Z22" s="436"/>
       <c r="AA22" s="10"/>
       <c r="AB22" s="436"/>
@@ -8273,7 +8276,7 @@
       <c r="AG22" s="6"/>
       <c r="AH22" s="6"/>
       <c r="AI22" s="6"/>
-      <c r="AJ22" s="667" t="s">
+      <c r="AJ22" s="621" t="s">
         <v>481</v>
       </c>
       <c r="AK22" s="261"/>
@@ -8281,7 +8284,7 @@
         <v>487</v>
       </c>
       <c r="AM22" s="305"/>
-      <c r="AN22" s="653"/>
+      <c r="AN22" s="632"/>
     </row>
     <row r="23" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="235" t="s">
@@ -8299,22 +8302,22 @@
       <c r="E23" s="229">
         <v>1</v>
       </c>
-      <c r="F23" s="658"/>
+      <c r="F23" s="611"/>
       <c r="I23" s="223"/>
-      <c r="O23" s="692"/>
-      <c r="Q23" s="694" t="s">
+      <c r="O23" s="614"/>
+      <c r="Q23" s="616" t="s">
         <v>145</v>
       </c>
       <c r="T23" s="17"/>
       <c r="U23" s="441" t="s">
         <v>44</v>
       </c>
-      <c r="V23" s="629"/>
+      <c r="V23" s="652"/>
       <c r="W23" s="148"/>
       <c r="X23" s="450" t="s">
         <v>189</v>
       </c>
-      <c r="Y23" s="671"/>
+      <c r="Y23" s="649"/>
       <c r="Z23" s="17"/>
       <c r="AA23" s="10"/>
       <c r="AB23" s="436"/>
@@ -8325,13 +8328,13 @@
       <c r="AG23" s="6"/>
       <c r="AH23" s="6"/>
       <c r="AI23" s="6"/>
-      <c r="AJ23" s="667"/>
+      <c r="AJ23" s="621"/>
       <c r="AK23" s="261"/>
       <c r="AL23" s="80" t="s">
         <v>516</v>
       </c>
       <c r="AM23" s="305"/>
-      <c r="AN23" s="653"/>
+      <c r="AN23" s="632"/>
     </row>
     <row r="24" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="461" t="s">
@@ -8349,23 +8352,23 @@
       <c r="E24" s="457">
         <v>1</v>
       </c>
-      <c r="F24" s="658"/>
+      <c r="F24" s="611"/>
       <c r="G24" s="61" t="s">
         <v>499</v>
       </c>
       <c r="I24" s="223"/>
-      <c r="O24" s="692"/>
-      <c r="Q24" s="695"/>
+      <c r="O24" s="614"/>
+      <c r="Q24" s="617"/>
       <c r="T24" s="17"/>
       <c r="U24" s="231" t="s">
         <v>44</v>
       </c>
-      <c r="V24" s="629"/>
+      <c r="V24" s="652"/>
       <c r="W24" s="148"/>
       <c r="X24" s="450" t="s">
         <v>186</v>
       </c>
-      <c r="Y24" s="671"/>
+      <c r="Y24" s="649"/>
       <c r="Z24" s="17"/>
       <c r="AA24" s="10"/>
       <c r="AB24" s="436"/>
@@ -8384,12 +8387,12 @@
         <v>472</v>
       </c>
       <c r="AM24" s="305"/>
-      <c r="AN24" s="653"/>
+      <c r="AN24" s="632"/>
     </row>
     <row r="25" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F25" s="658"/>
+      <c r="F25" s="611"/>
       <c r="I25" s="223"/>
-      <c r="O25" s="692"/>
+      <c r="O25" s="614"/>
       <c r="P25" s="208" t="s">
         <v>284</v>
       </c>
@@ -8402,12 +8405,12 @@
       <c r="U25" s="421" t="s">
         <v>44</v>
       </c>
-      <c r="V25" s="630"/>
+      <c r="V25" s="653"/>
       <c r="W25" s="148"/>
       <c r="X25" s="450" t="s">
         <v>190</v>
       </c>
-      <c r="Y25" s="671"/>
+      <c r="Y25" s="649"/>
       <c r="Z25" s="17"/>
       <c r="AA25" s="10"/>
       <c r="AB25" s="436"/>
@@ -8424,7 +8427,7 @@
       <c r="AK25" s="142"/>
       <c r="AL25" s="6"/>
       <c r="AM25" s="305"/>
-      <c r="AN25" s="653"/>
+      <c r="AN25" s="632"/>
     </row>
     <row r="26" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="235" t="s">
@@ -8442,17 +8445,17 @@
       <c r="E26" s="395">
         <v>1</v>
       </c>
-      <c r="F26" s="658"/>
+      <c r="F26" s="611"/>
       <c r="G26" s="346" t="s">
         <v>496</v>
       </c>
       <c r="I26" s="223"/>
-      <c r="O26" s="692"/>
-      <c r="P26" s="655" t="s">
+      <c r="O26" s="614"/>
+      <c r="P26" s="634" t="s">
         <v>536</v>
       </c>
-      <c r="Q26" s="656"/>
-      <c r="R26" s="688" t="s">
+      <c r="Q26" s="635"/>
+      <c r="R26" s="608" t="s">
         <v>545</v>
       </c>
       <c r="T26" s="182"/>
@@ -8464,7 +8467,7 @@
       <c r="X26" s="450" t="s">
         <v>182</v>
       </c>
-      <c r="Y26" s="671"/>
+      <c r="Y26" s="649"/>
       <c r="Z26" s="17"/>
       <c r="AA26" s="10"/>
       <c r="AB26" s="436"/>
@@ -8491,7 +8494,7 @@
       <c r="AM26" s="463" t="s">
         <v>465</v>
       </c>
-      <c r="AN26" s="653"/>
+      <c r="AN26" s="632"/>
     </row>
     <row r="27" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B27" s="21" t="s">
@@ -8503,13 +8506,13 @@
       <c r="E27" s="270" t="s">
         <v>44</v>
       </c>
-      <c r="F27" s="690"/>
+      <c r="F27" s="612"/>
       <c r="G27" s="61" t="s">
         <v>554</v>
       </c>
       <c r="I27" s="224"/>
-      <c r="O27" s="693"/>
-      <c r="R27" s="689"/>
+      <c r="O27" s="615"/>
+      <c r="R27" s="609"/>
       <c r="S27" s="442" t="s">
         <v>54</v>
       </c>
@@ -8522,7 +8525,7 @@
       <c r="X27" s="450" t="s">
         <v>540</v>
       </c>
-      <c r="Y27" s="672"/>
+      <c r="Y27" s="650"/>
       <c r="Z27" s="163"/>
       <c r="AA27" s="13"/>
       <c r="AB27" s="437"/>
@@ -8539,32 +8542,26 @@
       <c r="AM27" s="397" t="s">
         <v>325</v>
       </c>
-      <c r="AN27" s="654"/>
+      <c r="AN27" s="633"/>
     </row>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="R18:R19"/>
-    <mergeCell ref="R26:R27"/>
-    <mergeCell ref="F2:F27"/>
-    <mergeCell ref="O10:O27"/>
-    <mergeCell ref="Q20:Q21"/>
-    <mergeCell ref="Q23:Q24"/>
-    <mergeCell ref="G14:J14"/>
-    <mergeCell ref="G13:J13"/>
-    <mergeCell ref="H12:K12"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="AI6:AI10"/>
-    <mergeCell ref="AF12:AF15"/>
-    <mergeCell ref="AG7:AG12"/>
-    <mergeCell ref="L8:L9"/>
-    <mergeCell ref="S9:S12"/>
-    <mergeCell ref="N8:N9"/>
-    <mergeCell ref="AD12:AD15"/>
-    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="V21:V25"/>
+    <mergeCell ref="U18:U20"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="G5:L6"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="K7:K9"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B4:B5"/>
     <mergeCell ref="AN1:AN27"/>
     <mergeCell ref="P26:Q26"/>
     <mergeCell ref="Q2:Q3"/>
@@ -8581,22 +8578,28 @@
     <mergeCell ref="AD3:AD4"/>
     <mergeCell ref="S2:S3"/>
     <mergeCell ref="R2:R3"/>
-    <mergeCell ref="V21:V25"/>
-    <mergeCell ref="U18:U20"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="J8:J9"/>
-    <mergeCell ref="G5:L6"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="K7:K9"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="AI6:AI10"/>
+    <mergeCell ref="AF12:AF15"/>
+    <mergeCell ref="AG7:AG12"/>
+    <mergeCell ref="L8:L9"/>
+    <mergeCell ref="S9:S12"/>
+    <mergeCell ref="N8:N9"/>
+    <mergeCell ref="AD12:AD15"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="R18:R19"/>
+    <mergeCell ref="R26:R27"/>
+    <mergeCell ref="F2:F27"/>
+    <mergeCell ref="O10:O27"/>
+    <mergeCell ref="Q20:Q21"/>
+    <mergeCell ref="Q23:Q24"/>
+    <mergeCell ref="G14:J14"/>
+    <mergeCell ref="G13:J13"/>
+    <mergeCell ref="H12:K12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8630,15 +8633,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="590" t="s">
+      <c r="B1" s="594" t="s">
         <v>316</v>
       </c>
-      <c r="C1" s="696"/>
+      <c r="C1" s="618"/>
       <c r="D1" s="208"/>
-      <c r="J1" s="590" t="s">
+      <c r="J1" s="594" t="s">
         <v>70</v>
       </c>
-      <c r="K1" s="696"/>
+      <c r="K1" s="618"/>
       <c r="L1" s="199" t="s">
         <v>336</v>
       </c>
@@ -8676,13 +8679,13 @@
         <v>34</v>
       </c>
       <c r="L2" s="200"/>
-      <c r="M2" s="723"/>
+      <c r="M2" s="675"/>
       <c r="N2" s="154">
         <v>2</v>
       </c>
       <c r="O2" s="155"/>
       <c r="P2" s="5"/>
-      <c r="Q2" s="726" t="s">
+      <c r="Q2" s="678" t="s">
         <v>44</v>
       </c>
       <c r="R2" s="19">
@@ -8705,13 +8708,13 @@
       <c r="K3" s="6" t="s">
         <v>333</v>
       </c>
-      <c r="M3" s="724"/>
+      <c r="M3" s="676"/>
       <c r="N3" s="17">
         <v>1</v>
       </c>
       <c r="O3" s="15"/>
       <c r="P3" s="10"/>
-      <c r="Q3" s="727"/>
+      <c r="Q3" s="679"/>
       <c r="R3" s="223"/>
     </row>
     <row r="4" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8730,13 +8733,13 @@
       <c r="K4" s="6" t="s">
         <v>334</v>
       </c>
-      <c r="M4" s="724"/>
+      <c r="M4" s="676"/>
       <c r="N4" s="17"/>
       <c r="O4" s="15">
         <v>1</v>
       </c>
       <c r="P4" s="10"/>
-      <c r="Q4" s="727"/>
+      <c r="Q4" s="679"/>
       <c r="R4" s="223"/>
     </row>
     <row r="5" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8756,13 +8759,13 @@
         <v>13</v>
       </c>
       <c r="L5" s="200"/>
-      <c r="M5" s="724"/>
+      <c r="M5" s="676"/>
       <c r="N5" s="17">
         <v>1</v>
       </c>
       <c r="O5" s="15"/>
       <c r="P5" s="10"/>
-      <c r="Q5" s="727"/>
+      <c r="Q5" s="679"/>
       <c r="R5" s="19">
         <v>-1</v>
       </c>
@@ -8783,13 +8786,13 @@
       <c r="K6" s="6" t="s">
         <v>332</v>
       </c>
-      <c r="M6" s="724"/>
+      <c r="M6" s="676"/>
       <c r="N6" s="17">
         <v>1</v>
       </c>
       <c r="O6" s="15"/>
       <c r="P6" s="10"/>
-      <c r="Q6" s="727"/>
+      <c r="Q6" s="679"/>
       <c r="R6" s="223"/>
     </row>
     <row r="7" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8809,13 +8812,13 @@
         <v>333</v>
       </c>
       <c r="L7" s="202"/>
-      <c r="M7" s="724"/>
+      <c r="M7" s="676"/>
       <c r="N7" s="17">
         <v>1</v>
       </c>
       <c r="O7" s="15"/>
       <c r="P7" s="10"/>
-      <c r="Q7" s="727"/>
+      <c r="Q7" s="679"/>
       <c r="R7" s="19">
         <v>-1</v>
       </c>
@@ -8836,13 +8839,13 @@
       <c r="K8" s="6" t="s">
         <v>331</v>
       </c>
-      <c r="M8" s="724"/>
+      <c r="M8" s="676"/>
       <c r="N8" s="17">
         <v>1</v>
       </c>
       <c r="O8" s="15"/>
       <c r="P8" s="10"/>
-      <c r="Q8" s="727"/>
+      <c r="Q8" s="679"/>
       <c r="R8" s="223"/>
     </row>
     <row r="9" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8862,13 +8865,13 @@
         <v>335</v>
       </c>
       <c r="L9" s="185"/>
-      <c r="M9" s="725"/>
+      <c r="M9" s="677"/>
       <c r="N9" s="163"/>
       <c r="O9" s="18"/>
       <c r="P9" s="13">
         <v>1</v>
       </c>
-      <c r="Q9" s="728"/>
+      <c r="Q9" s="680"/>
       <c r="R9" s="224"/>
     </row>
     <row r="10" spans="2:18" x14ac:dyDescent="0.25">
@@ -8973,7 +8976,7 @@
   <dimension ref="A1:AK31"/>
   <sheetViews>
     <sheetView topLeftCell="N12" workbookViewId="0">
-      <selection activeCell="AA26" sqref="AA26"/>
+      <selection activeCell="X28" sqref="X28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9040,7 +9043,7 @@
       <c r="P1" s="419" t="s">
         <v>404</v>
       </c>
-      <c r="Q1" s="618" t="s">
+      <c r="Q1" s="684" t="s">
         <v>181</v>
       </c>
       <c r="R1" s="100" t="s">
@@ -9064,7 +9067,7 @@
       <c r="AA1" s="546" t="s">
         <v>446</v>
       </c>
-      <c r="AB1" s="625" t="s">
+      <c r="AB1" s="691" t="s">
         <v>608</v>
       </c>
       <c r="AC1" s="99" t="s">
@@ -9085,32 +9088,32 @@
       </c>
     </row>
     <row r="2" spans="1:37" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="599">
+      <c r="A2" s="697">
         <f ca="1">TODAY()</f>
         <v>45282</v>
       </c>
-      <c r="B2" s="601" t="s">
+      <c r="B2" s="699" t="s">
         <v>386</v>
       </c>
-      <c r="C2" s="613" t="s">
+      <c r="C2" s="636" t="s">
         <v>363</v>
       </c>
-      <c r="D2" s="603" t="s">
+      <c r="D2" s="701" t="s">
         <v>103</v>
       </c>
-      <c r="E2" s="605" t="s">
+      <c r="E2" s="703" t="s">
         <v>65</v>
       </c>
       <c r="F2" s="195" t="s">
         <v>220</v>
       </c>
-      <c r="G2" s="611" t="s">
+      <c r="G2" s="604" t="s">
         <v>378</v>
       </c>
       <c r="H2" s="210" t="s">
         <v>220</v>
       </c>
-      <c r="I2" s="622" t="s">
+      <c r="I2" s="688" t="s">
         <v>103</v>
       </c>
       <c r="J2" s="417" t="s">
@@ -9134,7 +9137,7 @@
       <c r="P2" s="420">
         <v>40</v>
       </c>
-      <c r="Q2" s="619"/>
+      <c r="Q2" s="685"/>
       <c r="R2" s="21">
         <f>R7+R20</f>
         <v>1</v>
@@ -9159,7 +9162,7 @@
         <f>IF((Z2+T2)&gt;0,0,-1)</f>
         <v>0</v>
       </c>
-      <c r="AB2" s="626"/>
+      <c r="AB2" s="692"/>
       <c r="AC2" s="35"/>
       <c r="AH2" s="6" t="s">
         <v>617</v>
@@ -9175,14 +9178,14 @@
       </c>
     </row>
     <row r="3" spans="1:37" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="600"/>
-      <c r="B3" s="602"/>
-      <c r="C3" s="614"/>
-      <c r="D3" s="604"/>
-      <c r="E3" s="606"/>
-      <c r="G3" s="612"/>
+      <c r="A3" s="698"/>
+      <c r="B3" s="700"/>
+      <c r="C3" s="637"/>
+      <c r="D3" s="702"/>
+      <c r="E3" s="704"/>
+      <c r="G3" s="605"/>
       <c r="H3" s="6"/>
-      <c r="I3" s="623"/>
+      <c r="I3" s="689"/>
       <c r="K3" s="24">
         <v>2</v>
       </c>
@@ -9197,7 +9200,7 @@
       <c r="V3" s="492"/>
       <c r="W3" s="6"/>
       <c r="X3" s="492"/>
-      <c r="AB3" s="626"/>
+      <c r="AB3" s="692"/>
       <c r="AC3" s="35"/>
       <c r="AE3" s="100" t="s">
         <v>603</v>
@@ -9225,10 +9228,10 @@
         <v>387</v>
       </c>
       <c r="B4" s="247"/>
-      <c r="C4" s="607" t="s">
+      <c r="C4" s="705" t="s">
         <v>178</v>
       </c>
-      <c r="I4" s="623"/>
+      <c r="I4" s="689"/>
       <c r="R4" s="493" t="s">
         <v>603</v>
       </c>
@@ -9240,7 +9243,7 @@
       <c r="V4" s="492"/>
       <c r="W4" s="6"/>
       <c r="X4" s="492"/>
-      <c r="AB4" s="626"/>
+      <c r="AB4" s="692"/>
       <c r="AC4" s="35"/>
       <c r="AE4" s="20"/>
       <c r="AF4" s="100" t="s">
@@ -9270,7 +9273,7 @@
       <c r="B5" s="100" t="s">
         <v>363</v>
       </c>
-      <c r="C5" s="608"/>
+      <c r="C5" s="706"/>
       <c r="D5" s="226" t="s">
         <v>103</v>
       </c>
@@ -9280,13 +9283,13 @@
       <c r="F5" s="210" t="s">
         <v>220</v>
       </c>
-      <c r="G5" s="585" t="s">
+      <c r="G5" s="589" t="s">
         <v>275</v>
       </c>
       <c r="H5" s="210" t="s">
         <v>220</v>
       </c>
-      <c r="I5" s="623"/>
+      <c r="I5" s="689"/>
       <c r="J5" s="418" t="s">
         <v>272</v>
       </c>
@@ -9313,7 +9316,7 @@
       <c r="V5" s="490"/>
       <c r="W5" s="6"/>
       <c r="X5" s="490"/>
-      <c r="AB5" s="626"/>
+      <c r="AB5" s="692"/>
       <c r="AC5" s="2" t="s">
         <v>606</v>
       </c>
@@ -9326,19 +9329,19 @@
       <c r="AK5" s="490"/>
     </row>
     <row r="6" spans="1:37" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="596" t="s">
+      <c r="A6" s="694" t="s">
         <v>289</v>
       </c>
       <c r="B6" s="105" t="s">
         <v>199</v>
       </c>
-      <c r="C6" s="609"/>
-      <c r="D6" s="610"/>
+      <c r="C6" s="619"/>
+      <c r="D6" s="620"/>
       <c r="E6" s="96">
         <v>1</v>
       </c>
-      <c r="G6" s="586"/>
-      <c r="I6" s="623"/>
+      <c r="G6" s="590"/>
+      <c r="I6" s="689"/>
       <c r="P6" s="61" t="s">
         <v>606</v>
       </c>
@@ -9350,7 +9353,7 @@
         <f>S7-S12-SUM(V2:V10)</f>
         <v>0</v>
       </c>
-      <c r="AB6" s="626"/>
+      <c r="AB6" s="692"/>
       <c r="AC6" s="35"/>
       <c r="AE6" s="64">
         <f>AE7-SUM(AI1:AI10)+AE11</f>
@@ -9365,7 +9368,7 @@
       <c r="AK6" s="554"/>
     </row>
     <row r="7" spans="1:37" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="597"/>
+      <c r="A7" s="695"/>
       <c r="B7" s="100" t="s">
         <v>155</v>
       </c>
@@ -9375,8 +9378,8 @@
       <c r="D7" s="30" t="s">
         <v>136</v>
       </c>
-      <c r="G7" s="586"/>
-      <c r="I7" s="623"/>
+      <c r="G7" s="590"/>
+      <c r="I7" s="689"/>
       <c r="M7" s="16" t="s">
         <v>353</v>
       </c>
@@ -9408,7 +9411,7 @@
       <c r="X7" s="491">
         <v>1</v>
       </c>
-      <c r="AB7" s="626"/>
+      <c r="AB7" s="692"/>
       <c r="AC7" s="99" t="s">
         <v>607</v>
       </c>
@@ -9433,7 +9436,7 @@
       <c r="AK7" s="491"/>
     </row>
     <row r="8" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="598"/>
+      <c r="A8" s="696"/>
       <c r="B8" s="216" t="s">
         <v>28</v>
       </c>
@@ -9441,14 +9444,14 @@
       <c r="E8" s="30">
         <v>3</v>
       </c>
-      <c r="G8" s="586"/>
-      <c r="I8" s="623"/>
+      <c r="G8" s="590"/>
+      <c r="I8" s="689"/>
       <c r="N8" s="80"/>
       <c r="U8" s="6"/>
       <c r="V8" s="24"/>
       <c r="W8" s="6"/>
       <c r="X8" s="489"/>
-      <c r="AB8" s="626"/>
+      <c r="AB8" s="692"/>
       <c r="AC8" s="544"/>
       <c r="AH8" s="6"/>
       <c r="AI8" s="578"/>
@@ -9472,9 +9475,9 @@
       <c r="D9" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="G9" s="586"/>
+      <c r="G9" s="590"/>
       <c r="H9" s="6"/>
-      <c r="I9" s="623"/>
+      <c r="I9" s="689"/>
       <c r="M9" s="19" t="s">
         <v>535</v>
       </c>
@@ -9482,7 +9485,7 @@
       <c r="U9" s="6"/>
       <c r="V9" s="24"/>
       <c r="X9" s="489"/>
-      <c r="AB9" s="626"/>
+      <c r="AB9" s="692"/>
       <c r="AC9" s="544"/>
       <c r="AE9" s="20"/>
       <c r="AF9" s="20"/>
@@ -9512,8 +9515,8 @@
         <f>Boat!W8</f>
         <v>37</v>
       </c>
-      <c r="G10" s="586"/>
-      <c r="I10" s="623"/>
+      <c r="G10" s="590"/>
+      <c r="I10" s="689"/>
       <c r="J10" s="24" t="s">
         <v>378</v>
       </c>
@@ -9528,7 +9531,7 @@
       <c r="V10" s="492"/>
       <c r="W10" s="6"/>
       <c r="X10" s="489"/>
-      <c r="AB10" s="626"/>
+      <c r="AB10" s="692"/>
       <c r="AC10" s="544"/>
       <c r="AE10" s="20"/>
       <c r="AF10" s="20"/>
@@ -9549,7 +9552,7 @@
       <c r="A11" s="99" t="s">
         <v>184</v>
       </c>
-      <c r="B11" s="585" t="s">
+      <c r="B11" s="589" t="s">
         <v>389</v>
       </c>
       <c r="C11" s="175" t="s">
@@ -9558,8 +9561,8 @@
       <c r="D11" s="221" t="s">
         <v>269</v>
       </c>
-      <c r="G11" s="586"/>
-      <c r="I11" s="623"/>
+      <c r="G11" s="590"/>
+      <c r="I11" s="689"/>
       <c r="J11" s="24" t="s">
         <v>195</v>
       </c>
@@ -9585,13 +9588,13 @@
       <c r="S11" s="24">
         <v>3</v>
       </c>
-      <c r="U11" s="615" t="s">
+      <c r="U11" s="681" t="s">
         <v>569</v>
       </c>
-      <c r="V11" s="616"/>
-      <c r="W11" s="616"/>
-      <c r="X11" s="617"/>
-      <c r="AB11" s="627"/>
+      <c r="V11" s="682"/>
+      <c r="W11" s="682"/>
+      <c r="X11" s="683"/>
+      <c r="AB11" s="693"/>
       <c r="AC11" s="99" t="s">
         <v>609</v>
       </c>
@@ -9605,23 +9608,23 @@
         <v>2</v>
       </c>
       <c r="AG11" s="435"/>
-      <c r="AH11" s="615" t="s">
+      <c r="AH11" s="681" t="s">
         <v>628</v>
       </c>
-      <c r="AI11" s="616"/>
-      <c r="AJ11" s="616"/>
-      <c r="AK11" s="617"/>
+      <c r="AI11" s="682"/>
+      <c r="AJ11" s="682"/>
+      <c r="AK11" s="683"/>
     </row>
     <row r="12" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="231" t="s">
         <v>390</v>
       </c>
-      <c r="B12" s="587"/>
+      <c r="B12" s="591"/>
       <c r="E12" s="233">
         <v>3</v>
       </c>
-      <c r="G12" s="586"/>
-      <c r="I12" s="623"/>
+      <c r="G12" s="590"/>
+      <c r="I12" s="689"/>
       <c r="J12" s="24" t="s">
         <v>526</v>
       </c>
@@ -9649,12 +9652,12 @@
       <c r="B13" s="220" t="s">
         <v>329</v>
       </c>
-      <c r="C13" s="585" t="s">
+      <c r="C13" s="589" t="s">
         <v>195</v>
       </c>
       <c r="D13" s="20"/>
-      <c r="G13" s="586"/>
-      <c r="I13" s="623"/>
+      <c r="G13" s="590"/>
+      <c r="I13" s="689"/>
       <c r="J13" s="108" t="s">
         <v>559</v>
       </c>
@@ -9684,7 +9687,7 @@
       <c r="B14" s="177" t="s">
         <v>150</v>
       </c>
-      <c r="C14" s="587"/>
+      <c r="C14" s="591"/>
       <c r="D14" s="208" t="s">
         <v>154</v>
       </c>
@@ -9694,11 +9697,11 @@
       <c r="F14" s="210" t="s">
         <v>220</v>
       </c>
-      <c r="G14" s="587"/>
+      <c r="G14" s="591"/>
       <c r="H14" s="210" t="s">
         <v>220</v>
       </c>
-      <c r="I14" s="623"/>
+      <c r="I14" s="689"/>
       <c r="U14" s="67" t="s">
         <v>81</v>
       </c>
@@ -9725,7 +9728,7 @@
       <c r="H15" s="276">
         <v>0</v>
       </c>
-      <c r="I15" s="623"/>
+      <c r="I15" s="689"/>
       <c r="J15" s="108" t="s">
         <v>154</v>
       </c>
@@ -9756,7 +9759,7 @@
       <c r="D16" s="2" t="s">
         <v>501</v>
       </c>
-      <c r="I16" s="623"/>
+      <c r="I16" s="689"/>
       <c r="K16" s="100" t="s">
         <v>44</v>
       </c>
@@ -9800,7 +9803,7 @@
       <c r="G17" s="2" t="s">
         <v>432</v>
       </c>
-      <c r="I17" s="623"/>
+      <c r="I17" s="689"/>
       <c r="L17" s="2" t="s">
         <v>435</v>
       </c>
@@ -9818,13 +9821,13 @@
     </row>
     <row r="18" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G18" s="16"/>
-      <c r="I18" s="623"/>
+      <c r="I18" s="689"/>
       <c r="L18" s="16"/>
       <c r="M18" s="21"/>
-      <c r="O18" s="620" t="s">
+      <c r="O18" s="686" t="s">
         <v>527</v>
       </c>
-      <c r="P18" s="621"/>
+      <c r="P18" s="687"/>
       <c r="Q18" s="127" t="s">
         <v>44</v>
       </c>
@@ -9850,7 +9853,7 @@
       </c>
     </row>
     <row r="19" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I19" s="623"/>
+      <c r="I19" s="689"/>
       <c r="M19" s="21" t="s">
         <v>434</v>
       </c>
@@ -9886,7 +9889,7 @@
       <c r="G20" s="2" t="s">
         <v>432</v>
       </c>
-      <c r="I20" s="623"/>
+      <c r="I20" s="689"/>
       <c r="K20" s="19" t="s">
         <v>431</v>
       </c>
@@ -9921,7 +9924,7 @@
       </c>
     </row>
     <row r="21" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I21" s="623"/>
+      <c r="I21" s="689"/>
       <c r="M21" s="220" t="s">
         <v>418</v>
       </c>
@@ -9955,7 +9958,7 @@
       <c r="G22" s="2" t="s">
         <v>432</v>
       </c>
-      <c r="I22" s="623"/>
+      <c r="I22" s="689"/>
       <c r="P22" s="99" t="s">
         <v>605</v>
       </c>
@@ -9970,7 +9973,7 @@
       <c r="E23" s="288" t="s">
         <v>44</v>
       </c>
-      <c r="I23" s="623"/>
+      <c r="I23" s="689"/>
       <c r="Q23" s="24">
         <f>SUM(V23:V31)</f>
         <v>5</v>
@@ -9987,7 +9990,7 @@
       </c>
     </row>
     <row r="24" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I24" s="623"/>
+      <c r="I24" s="689"/>
       <c r="U24" s="35"/>
       <c r="V24" s="533">
         <v>0</v>
@@ -10015,7 +10018,7 @@
       <c r="H25" s="195" t="s">
         <v>270</v>
       </c>
-      <c r="I25" s="623"/>
+      <c r="I25" s="689"/>
       <c r="J25" s="418" t="s">
         <v>273</v>
       </c>
@@ -10060,7 +10063,7 @@
       <c r="H26" s="19" t="s">
         <v>220</v>
       </c>
-      <c r="I26" s="623"/>
+      <c r="I26" s="689"/>
       <c r="K26" s="24">
         <v>15</v>
       </c>
@@ -10095,7 +10098,7 @@
       </c>
     </row>
     <row r="27" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I27" s="623"/>
+      <c r="I27" s="689"/>
       <c r="O27" s="2" t="s">
         <v>99</v>
       </c>
@@ -10122,7 +10125,7 @@
       <c r="E28" s="219">
         <v>2</v>
       </c>
-      <c r="I28" s="623"/>
+      <c r="I28" s="689"/>
       <c r="Q28" s="6"/>
       <c r="R28" s="112"/>
       <c r="T28" s="142"/>
@@ -10144,7 +10147,7 @@
       <c r="H29" s="195" t="s">
         <v>271</v>
       </c>
-      <c r="I29" s="624"/>
+      <c r="I29" s="690"/>
       <c r="J29" s="330"/>
       <c r="L29" s="96" t="s">
         <v>277</v>
@@ -10202,12 +10205,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="AH11:AK11"/>
-    <mergeCell ref="Q1:Q2"/>
-    <mergeCell ref="U11:X11"/>
-    <mergeCell ref="O18:P18"/>
-    <mergeCell ref="I2:I29"/>
-    <mergeCell ref="AB1:AB11"/>
     <mergeCell ref="C13:C14"/>
     <mergeCell ref="A6:A8"/>
     <mergeCell ref="G5:G14"/>
@@ -10220,6 +10217,12 @@
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="G2:G3"/>
     <mergeCell ref="C2:C3"/>
+    <mergeCell ref="AH11:AK11"/>
+    <mergeCell ref="Q1:Q2"/>
+    <mergeCell ref="U11:X11"/>
+    <mergeCell ref="O18:P18"/>
+    <mergeCell ref="I2:I29"/>
+    <mergeCell ref="AB1:AB11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10229,8 +10232,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2029A93E-B53C-4201-9F17-439C144F3CF1}">
   <dimension ref="A1:AP37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="X13" sqref="X13"/>
+    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="AP11" sqref="AP11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10326,14 +10329,14 @@
         <f ca="1">TODAY()</f>
         <v>45282</v>
       </c>
-      <c r="T1" s="720"/>
+      <c r="T1" s="726"/>
       <c r="U1" s="142"/>
       <c r="V1" s="142"/>
       <c r="W1" s="6"/>
-      <c r="X1" s="704" t="s">
+      <c r="X1" s="710" t="s">
         <v>450</v>
       </c>
-      <c r="Y1" s="705"/>
+      <c r="Y1" s="711"/>
       <c r="Z1" s="311">
         <f>68-(W8+Y3+X3+U3)</f>
         <v>0</v>
@@ -10349,21 +10352,21 @@
       <c r="AD1" s="307" t="s">
         <v>44</v>
       </c>
-      <c r="AE1" s="706" t="s">
+      <c r="AE1" s="712" t="s">
         <v>191</v>
       </c>
-      <c r="AF1" s="707"/>
-      <c r="AG1" s="708"/>
-      <c r="AH1" s="709" t="s">
+      <c r="AF1" s="713"/>
+      <c r="AG1" s="714"/>
+      <c r="AH1" s="715" t="s">
         <v>297</v>
       </c>
-      <c r="AI1" s="710"/>
-      <c r="AJ1" s="711"/>
-      <c r="AK1" s="701" t="s">
+      <c r="AI1" s="716"/>
+      <c r="AJ1" s="717"/>
+      <c r="AK1" s="707" t="s">
         <v>453</v>
       </c>
-      <c r="AL1" s="702"/>
-      <c r="AM1" s="703"/>
+      <c r="AL1" s="708"/>
+      <c r="AM1" s="709"/>
       <c r="AP1" s="142"/>
     </row>
     <row r="2" spans="1:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10384,19 +10387,19 @@
       <c r="L2" s="324">
         <v>-3</v>
       </c>
-      <c r="M2" s="712">
+      <c r="M2" s="718">
         <f>SUM(M5:M30)</f>
         <v>1</v>
       </c>
-      <c r="N2" s="714">
+      <c r="N2" s="720">
         <f>SUM(N4:N29)</f>
         <v>10</v>
       </c>
-      <c r="O2" s="716">
+      <c r="O2" s="722">
         <f>SUM(O4:O29)</f>
-        <v>8</v>
-      </c>
-      <c r="P2" s="679">
+        <v>9</v>
+      </c>
+      <c r="P2" s="628">
         <f>SUM(N30:N37)* (-1)</f>
         <v>-3</v>
       </c>
@@ -10409,14 +10412,14 @@
       <c r="S2" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="T2" s="721"/>
+      <c r="T2" s="727"/>
       <c r="U2" s="566" t="s">
         <v>266</v>
       </c>
       <c r="V2" s="505" t="s">
         <v>221</v>
       </c>
-      <c r="W2" s="718" t="s">
+      <c r="W2" s="724" t="s">
         <v>238</v>
       </c>
       <c r="X2" s="506" t="s">
@@ -10485,10 +10488,10 @@
         <f>V3+X3+Y3+U3</f>
         <v>68</v>
       </c>
-      <c r="M3" s="713"/>
-      <c r="N3" s="715"/>
-      <c r="O3" s="717"/>
-      <c r="P3" s="680"/>
+      <c r="M3" s="719"/>
+      <c r="N3" s="721"/>
+      <c r="O3" s="723"/>
+      <c r="P3" s="629"/>
       <c r="Q3" s="176">
         <f>(M2+N2)-Y3</f>
         <v>0</v>
@@ -10496,7 +10499,7 @@
       <c r="S3" s="161" t="s">
         <v>248</v>
       </c>
-      <c r="T3" s="722"/>
+      <c r="T3" s="728"/>
       <c r="U3" s="567">
         <f>SUM(U4:U29)</f>
         <v>12</v>
@@ -10505,7 +10508,7 @@
         <f>SUM(V4:V29)</f>
         <v>37</v>
       </c>
-      <c r="W3" s="719"/>
+      <c r="W3" s="725"/>
       <c r="X3" s="508">
         <f t="shared" ref="X3:AC3" si="0">SUM(X4:X29)</f>
         <v>8</v>
@@ -10520,15 +10523,15 @@
       </c>
       <c r="AA3" s="66">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AB3" s="66">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AC3" s="66">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AD3" s="66">
         <f t="shared" ref="AD3:AM3" si="1">SUM(AD4:AD29)</f>
@@ -10536,7 +10539,7 @@
       </c>
       <c r="AE3" s="66">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AF3" s="66">
         <f t="shared" si="1"/>
@@ -10548,7 +10551,7 @@
       </c>
       <c r="AH3" s="66">
         <f>SUM(AH4:AH29)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AI3" s="383">
         <f t="shared" si="1"/>
@@ -10560,15 +10563,15 @@
       </c>
       <c r="AK3" s="100">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AL3" s="316">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AM3" s="317">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AP3" s="142"/>
     </row>
@@ -10605,7 +10608,7 @@
         <f>AC4</f>
         <v>0</v>
       </c>
-      <c r="P4" s="698" t="s">
+      <c r="P4" s="730" t="s">
         <v>200</v>
       </c>
       <c r="Q4" s="20"/>
@@ -10687,7 +10690,7 @@
         <f>AC5</f>
         <v>0</v>
       </c>
-      <c r="P5" s="699"/>
+      <c r="P5" s="731"/>
       <c r="Q5" s="20"/>
       <c r="R5" s="2" t="s">
         <v>346</v>
@@ -10777,7 +10780,7 @@
         <f>AC6</f>
         <v>0</v>
       </c>
-      <c r="P6" s="699"/>
+      <c r="P6" s="731"/>
       <c r="Q6" s="19" t="s">
         <v>341</v>
       </c>
@@ -10857,7 +10860,7 @@
         <v>0</v>
       </c>
       <c r="H7" s="273"/>
-      <c r="I7" s="776"/>
+      <c r="I7" s="581"/>
       <c r="J7" s="117"/>
       <c r="K7" s="111" t="s">
         <v>425</v>
@@ -10875,7 +10878,7 @@
         <f t="shared" ref="O7:O37" si="10">AC7</f>
         <v>0</v>
       </c>
-      <c r="P7" s="699"/>
+      <c r="P7" s="731"/>
       <c r="Q7" s="20"/>
       <c r="R7" s="2" t="s">
         <v>341</v>
@@ -10987,7 +10990,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="P8" s="699"/>
+      <c r="P8" s="731"/>
       <c r="Q8" s="21" t="s">
         <v>237</v>
       </c>
@@ -11074,7 +11077,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="P9" s="699"/>
+      <c r="P9" s="731"/>
       <c r="Q9" s="21" t="s">
         <v>341</v>
       </c>
@@ -11176,7 +11179,7 @@
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="P10" s="699"/>
+      <c r="P10" s="731"/>
       <c r="Q10" s="20"/>
       <c r="R10" s="2" t="s">
         <v>346</v>
@@ -11262,7 +11265,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="P11" s="699"/>
+      <c r="P11" s="731"/>
       <c r="Q11" s="21" t="s">
         <v>341</v>
       </c>
@@ -11325,7 +11328,7 @@
       <c r="AP11" s="142"/>
     </row>
     <row r="12" spans="1:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="643" t="s">
+      <c r="A12" s="666" t="s">
         <v>55</v>
       </c>
       <c r="B12" s="30">
@@ -11334,7 +11337,7 @@
       <c r="C12" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="E12" s="694" t="s">
+      <c r="E12" s="616" t="s">
         <v>57</v>
       </c>
       <c r="G12" s="266"/>
@@ -11356,7 +11359,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="P12" s="699"/>
+      <c r="P12" s="731"/>
       <c r="Q12" s="21" t="s">
         <v>341</v>
       </c>
@@ -11431,14 +11434,14 @@
       </c>
     </row>
     <row r="13" spans="1:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="645"/>
+      <c r="A13" s="668"/>
       <c r="B13" s="153">
         <v>12</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="E13" s="695"/>
+      <c r="E13" s="617"/>
       <c r="F13" s="176">
         <v>0</v>
       </c>
@@ -11462,7 +11465,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="P13" s="699"/>
+      <c r="P13" s="731"/>
       <c r="Q13" s="21" t="s">
         <v>341</v>
       </c>
@@ -11531,7 +11534,7 @@
       <c r="H14" s="42">
         <v>-1</v>
       </c>
-      <c r="I14" s="777"/>
+      <c r="I14" s="582"/>
       <c r="K14" s="267"/>
       <c r="L14" s="400"/>
       <c r="M14" s="335"/>
@@ -11540,9 +11543,9 @@
       </c>
       <c r="O14" s="298">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="P14" s="699"/>
+        <v>1</v>
+      </c>
+      <c r="P14" s="731"/>
       <c r="Q14" s="20"/>
       <c r="R14" s="204" t="s">
         <v>345</v>
@@ -11562,47 +11565,47 @@
       </c>
       <c r="X14" s="519"/>
       <c r="Y14" s="513">
-        <f t="shared" si="2"/>
+        <f>SUM(M14:N14)</f>
         <v>0</v>
       </c>
       <c r="Z14" s="301"/>
       <c r="AA14" s="117">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB14" s="295">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC14" s="295">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD14" s="295">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AE14" s="299">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF14" s="305"/>
       <c r="AG14" s="301"/>
       <c r="AH14" s="301">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI14" s="345"/>
       <c r="AJ14" s="158"/>
       <c r="AK14" s="313">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL14" s="314">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM14" s="315">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN14" s="6" t="s">
         <v>570</v>
@@ -11611,7 +11614,7 @@
         <v>573</v>
       </c>
       <c r="AP14" s="142" t="s">
-        <v>479</v>
+        <v>633</v>
       </c>
     </row>
     <row r="15" spans="1:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11641,7 +11644,7 @@
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="P15" s="699"/>
+      <c r="P15" s="731"/>
       <c r="Q15" s="20"/>
       <c r="R15" s="204" t="s">
         <v>345</v>
@@ -11731,7 +11734,7 @@
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="P16" s="699"/>
+      <c r="P16" s="731"/>
       <c r="Q16" s="21" t="s">
         <v>341</v>
       </c>
@@ -11820,7 +11823,7 @@
       <c r="H17" s="273">
         <v>-1</v>
       </c>
-      <c r="I17" s="778"/>
+      <c r="I17" s="583"/>
       <c r="J17" s="6"/>
       <c r="L17" s="402" t="s">
         <v>315</v>
@@ -11833,7 +11836,7 @@
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="P17" s="699"/>
+      <c r="P17" s="731"/>
       <c r="Q17" s="20"/>
       <c r="R17" s="2" t="s">
         <v>347</v>
@@ -11932,7 +11935,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="P18" s="699"/>
+      <c r="P18" s="731"/>
       <c r="Q18" s="21" t="s">
         <v>341</v>
       </c>
@@ -12005,7 +12008,7 @@
       <c r="H19" s="273">
         <v>-2</v>
       </c>
-      <c r="I19" s="778"/>
+      <c r="I19" s="583"/>
       <c r="L19" s="402" t="s">
         <v>308</v>
       </c>
@@ -12019,7 +12022,7 @@
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="P19" s="699"/>
+      <c r="P19" s="731"/>
       <c r="Q19" s="20"/>
       <c r="R19" s="2" t="s">
         <v>340</v>
@@ -12107,7 +12110,7 @@
       <c r="H20" s="42">
         <v>-2</v>
       </c>
-      <c r="I20" s="777"/>
+      <c r="I20" s="582"/>
       <c r="J20" s="80"/>
       <c r="K20" s="112" t="s">
         <v>354</v>
@@ -12123,11 +12126,11 @@
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="P20" s="700"/>
-      <c r="Q20" s="590" t="s">
+      <c r="P20" s="732"/>
+      <c r="Q20" s="594" t="s">
         <v>341</v>
       </c>
-      <c r="R20" s="696"/>
+      <c r="R20" s="618"/>
       <c r="S20" s="563" t="s">
         <v>86</v>
       </c>
@@ -12373,7 +12376,7 @@
     </row>
     <row r="23" spans="1:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B23" s="24"/>
-      <c r="E23" s="650" t="s">
+      <c r="E23" s="673" t="s">
         <v>293</v>
       </c>
       <c r="F23" s="184"/>
@@ -12475,12 +12478,12 @@
       <c r="C24" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="E24" s="651"/>
+      <c r="E24" s="674"/>
       <c r="F24" s="176"/>
       <c r="H24" s="42">
         <v>-1</v>
       </c>
-      <c r="I24" s="777"/>
+      <c r="I24" s="582"/>
       <c r="L24" s="400" t="s">
         <v>300</v>
       </c>
@@ -12494,10 +12497,10 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="Q24" s="590" t="s">
+      <c r="Q24" s="594" t="s">
         <v>341</v>
       </c>
-      <c r="R24" s="696"/>
+      <c r="R24" s="618"/>
       <c r="S24" s="563" t="s">
         <v>253</v>
       </c>
@@ -12607,7 +12610,7 @@
       <c r="W25" s="555">
         <v>-2</v>
       </c>
-      <c r="X25" s="775">
+      <c r="X25" s="580">
         <v>1</v>
       </c>
       <c r="Y25" s="557">
@@ -13124,10 +13127,10 @@
         <v>-1</v>
       </c>
       <c r="I32"/>
-      <c r="J32" s="646" t="s">
+      <c r="J32" s="669" t="s">
         <v>599</v>
       </c>
-      <c r="K32" s="697"/>
+      <c r="K32" s="729"/>
       <c r="L32" s="403"/>
       <c r="M32" s="537">
         <v>0</v>
@@ -13291,7 +13294,7 @@
       <c r="H34" s="42">
         <v>-2</v>
       </c>
-      <c r="I34" s="777"/>
+      <c r="I34" s="582"/>
       <c r="L34" s="400" t="s">
         <v>304</v>
       </c>
@@ -13638,6 +13641,13 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="Q20:R20"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="Q24:R24"/>
+    <mergeCell ref="P4:P20"/>
     <mergeCell ref="AK1:AM1"/>
     <mergeCell ref="X1:Y1"/>
     <mergeCell ref="AE1:AG1"/>
@@ -13648,13 +13658,6 @@
     <mergeCell ref="P2:P3"/>
     <mergeCell ref="W2:W3"/>
     <mergeCell ref="T1:T3"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="Q20:R20"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="Q24:R24"/>
-    <mergeCell ref="P4:P20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -13719,10 +13722,10 @@
         <f ca="1">TODAY()</f>
         <v>45282</v>
       </c>
-      <c r="V1" s="590" t="s">
+      <c r="V1" s="594" t="s">
         <v>71</v>
       </c>
-      <c r="W1" s="696"/>
+      <c r="W1" s="618"/>
       <c r="X1" s="62" t="s">
         <v>102</v>
       </c>
@@ -13741,7 +13744,7 @@
       <c r="AC1" s="116" t="s">
         <v>191</v>
       </c>
-      <c r="AD1" s="743" t="s">
+      <c r="AD1" s="740" t="s">
         <v>213</v>
       </c>
       <c r="AE1" s="116" t="s">
@@ -13758,10 +13761,10 @@
       <c r="E2" s="39" t="s">
         <v>74</v>
       </c>
-      <c r="F2" s="774" t="s">
+      <c r="F2" s="739" t="s">
         <v>75</v>
       </c>
-      <c r="G2" s="731" t="s">
+      <c r="G2" s="767" t="s">
         <v>44</v>
       </c>
       <c r="H2" s="40" t="s">
@@ -13789,10 +13792,10 @@
       <c r="U2" s="60" t="s">
         <v>106</v>
       </c>
-      <c r="V2" s="704" t="s">
+      <c r="V2" s="710" t="s">
         <v>121</v>
       </c>
-      <c r="W2" s="705"/>
+      <c r="W2" s="711"/>
       <c r="X2" s="64" t="s">
         <v>110</v>
       </c>
@@ -13811,7 +13814,7 @@
       <c r="AC2" s="117" t="s">
         <v>99</v>
       </c>
-      <c r="AD2" s="744"/>
+      <c r="AD2" s="741"/>
       <c r="AE2" s="64" t="s">
         <v>99</v>
       </c>
@@ -13830,8 +13833,8 @@
       <c r="E3" s="39" t="s">
         <v>80</v>
       </c>
-      <c r="F3" s="647"/>
-      <c r="G3" s="732"/>
+      <c r="F3" s="670"/>
+      <c r="G3" s="768"/>
       <c r="H3" s="40" t="s">
         <v>81</v>
       </c>
@@ -13842,13 +13845,13 @@
         <v>82</v>
       </c>
       <c r="N3" s="44"/>
-      <c r="O3" s="741" t="s">
+      <c r="O3" s="777" t="s">
         <v>44</v>
       </c>
-      <c r="P3" s="762" t="s">
+      <c r="P3" s="759" t="s">
         <v>219</v>
       </c>
-      <c r="Q3" s="763"/>
+      <c r="Q3" s="760"/>
       <c r="S3" s="57" t="s">
         <v>220</v>
       </c>
@@ -13858,15 +13861,15 @@
       <c r="W3" s="59" t="s">
         <v>105</v>
       </c>
-      <c r="AD3" s="744"/>
+      <c r="AD3" s="741"/>
     </row>
     <row r="4" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G4" s="732"/>
+      <c r="G4" s="768"/>
       <c r="H4" s="6"/>
-      <c r="L4" s="726" t="s">
+      <c r="L4" s="678" t="s">
         <v>83</v>
       </c>
-      <c r="O4" s="742"/>
+      <c r="O4" s="778"/>
       <c r="T4" s="55" t="s">
         <v>98</v>
       </c>
@@ -13876,12 +13879,12 @@
       <c r="X4" s="67" t="s">
         <v>223</v>
       </c>
-      <c r="Y4" s="590" t="s">
+      <c r="Y4" s="594" t="s">
         <v>195</v>
       </c>
-      <c r="Z4" s="592"/>
-      <c r="AA4" s="696"/>
-      <c r="AD4" s="744"/>
+      <c r="Z4" s="596"/>
+      <c r="AA4" s="618"/>
+      <c r="AD4" s="741"/>
     </row>
     <row r="5" spans="1:31" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C5" s="52" t="s">
@@ -13896,21 +13899,21 @@
       <c r="F5" s="66" t="s">
         <v>85</v>
       </c>
-      <c r="G5" s="732"/>
+      <c r="G5" s="768"/>
       <c r="H5" s="46" t="s">
         <v>76</v>
       </c>
-      <c r="K5" s="749" t="s">
+      <c r="K5" s="746" t="s">
         <v>217</v>
       </c>
-      <c r="L5" s="764"/>
+      <c r="L5" s="761"/>
       <c r="M5" s="2" t="s">
         <v>215</v>
       </c>
       <c r="N5" s="61" t="s">
         <v>214</v>
       </c>
-      <c r="O5" s="742"/>
+      <c r="O5" s="778"/>
       <c r="P5" s="108" t="s">
         <v>216</v>
       </c>
@@ -13926,11 +13929,11 @@
       <c r="U5" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="Y5" s="752" t="s">
+      <c r="Y5" s="749" t="s">
         <v>286</v>
       </c>
-      <c r="Z5" s="753"/>
-      <c r="AD5" s="744"/>
+      <c r="Z5" s="750"/>
+      <c r="AD5" s="741"/>
     </row>
     <row r="6" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C6" s="109"/>
@@ -13940,16 +13943,16 @@
       <c r="E6" s="45" t="s">
         <v>86</v>
       </c>
-      <c r="G6" s="732"/>
+      <c r="G6" s="768"/>
       <c r="H6" s="46" t="s">
         <v>81</v>
       </c>
       <c r="I6" s="23">
         <v>15</v>
       </c>
-      <c r="K6" s="750"/>
-      <c r="L6" s="764"/>
-      <c r="O6" s="742"/>
+      <c r="K6" s="747"/>
+      <c r="L6" s="761"/>
+      <c r="O6" s="778"/>
       <c r="T6" s="2" t="s">
         <v>101</v>
       </c>
@@ -13959,23 +13962,23 @@
       <c r="V6" s="21">
         <v>-1</v>
       </c>
-      <c r="AD6" s="744"/>
+      <c r="AD6" s="741"/>
     </row>
     <row r="7" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C7" s="110"/>
-      <c r="G7" s="732"/>
+      <c r="G7" s="768"/>
       <c r="H7" s="6"/>
-      <c r="K7" s="750"/>
-      <c r="L7" s="764"/>
+      <c r="K7" s="747"/>
+      <c r="L7" s="761"/>
       <c r="N7" s="21" t="s">
         <v>120</v>
       </c>
-      <c r="O7" s="742"/>
+      <c r="O7" s="778"/>
       <c r="P7" s="73"/>
       <c r="U7" s="104" t="s">
         <v>20</v>
       </c>
-      <c r="AD7" s="744"/>
+      <c r="AD7" s="741"/>
     </row>
     <row r="8" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C8" s="130"/>
@@ -13988,7 +13991,7 @@
       <c r="F8" s="66" t="s">
         <v>87</v>
       </c>
-      <c r="G8" s="732"/>
+      <c r="G8" s="768"/>
       <c r="H8" s="50" t="s">
         <v>76</v>
       </c>
@@ -13998,41 +14001,41 @@
       <c r="J8" s="111">
         <v>115</v>
       </c>
-      <c r="K8" s="750"/>
-      <c r="L8" s="764"/>
-      <c r="O8" s="742"/>
+      <c r="K8" s="747"/>
+      <c r="L8" s="761"/>
+      <c r="O8" s="778"/>
       <c r="P8" s="49"/>
-      <c r="S8" s="746" t="s">
+      <c r="S8" s="743" t="s">
         <v>212</v>
       </c>
-      <c r="T8" s="747"/>
-      <c r="U8" s="747"/>
-      <c r="V8" s="747"/>
-      <c r="W8" s="747"/>
-      <c r="X8" s="747"/>
-      <c r="Y8" s="747"/>
-      <c r="Z8" s="747"/>
-      <c r="AA8" s="747"/>
-      <c r="AB8" s="747"/>
-      <c r="AC8" s="748"/>
-      <c r="AD8" s="744"/>
+      <c r="T8" s="744"/>
+      <c r="U8" s="744"/>
+      <c r="V8" s="744"/>
+      <c r="W8" s="744"/>
+      <c r="X8" s="744"/>
+      <c r="Y8" s="744"/>
+      <c r="Z8" s="744"/>
+      <c r="AA8" s="744"/>
+      <c r="AB8" s="744"/>
+      <c r="AC8" s="745"/>
+      <c r="AD8" s="741"/>
     </row>
     <row r="9" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C9" s="768"/>
-      <c r="G9" s="732"/>
+      <c r="C9" s="733"/>
+      <c r="G9" s="768"/>
       <c r="H9" s="6"/>
-      <c r="K9" s="750"/>
-      <c r="L9" s="735" t="s">
+      <c r="K9" s="747"/>
+      <c r="L9" s="771" t="s">
         <v>218</v>
       </c>
-      <c r="M9" s="736"/>
-      <c r="N9" s="737"/>
-      <c r="O9" s="742"/>
+      <c r="M9" s="772"/>
+      <c r="N9" s="773"/>
+      <c r="O9" s="778"/>
       <c r="P9" s="75"/>
-      <c r="AD9" s="744"/>
+      <c r="AD9" s="741"/>
     </row>
     <row r="10" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C10" s="769"/>
+      <c r="C10" s="734"/>
       <c r="D10" s="23"/>
       <c r="E10" s="45" t="s">
         <v>88</v>
@@ -14040,7 +14043,7 @@
       <c r="F10" s="66" t="s">
         <v>89</v>
       </c>
-      <c r="G10" s="732"/>
+      <c r="G10" s="768"/>
       <c r="H10" s="51"/>
       <c r="I10" s="21" t="s">
         <v>81</v>
@@ -14048,33 +14051,33 @@
       <c r="J10" s="3">
         <v>15</v>
       </c>
-      <c r="K10" s="750"/>
-      <c r="M10" s="771" t="s">
+      <c r="K10" s="747"/>
+      <c r="M10" s="736" t="s">
         <v>90</v>
       </c>
-      <c r="N10" s="772"/>
-      <c r="O10" s="772"/>
-      <c r="P10" s="772"/>
-      <c r="Q10" s="772"/>
-      <c r="R10" s="772"/>
-      <c r="S10" s="772"/>
-      <c r="T10" s="772"/>
-      <c r="U10" s="772"/>
-      <c r="V10" s="772"/>
-      <c r="W10" s="772"/>
-      <c r="X10" s="772"/>
-      <c r="Y10" s="772"/>
-      <c r="Z10" s="772"/>
-      <c r="AA10" s="772"/>
-      <c r="AB10" s="772"/>
-      <c r="AC10" s="773"/>
-      <c r="AD10" s="744"/>
+      <c r="N10" s="737"/>
+      <c r="O10" s="737"/>
+      <c r="P10" s="737"/>
+      <c r="Q10" s="737"/>
+      <c r="R10" s="737"/>
+      <c r="S10" s="737"/>
+      <c r="T10" s="737"/>
+      <c r="U10" s="737"/>
+      <c r="V10" s="737"/>
+      <c r="W10" s="737"/>
+      <c r="X10" s="737"/>
+      <c r="Y10" s="737"/>
+      <c r="Z10" s="737"/>
+      <c r="AA10" s="737"/>
+      <c r="AB10" s="737"/>
+      <c r="AC10" s="738"/>
+      <c r="AD10" s="741"/>
     </row>
     <row r="11" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C11" s="770"/>
-      <c r="G11" s="732"/>
+      <c r="C11" s="735"/>
+      <c r="G11" s="768"/>
       <c r="H11" s="6"/>
-      <c r="K11" s="750"/>
+      <c r="K11" s="747"/>
       <c r="R11" s="52" t="s">
         <v>44</v>
       </c>
@@ -14082,17 +14085,17 @@
       <c r="Y11" s="68" t="s">
         <v>121</v>
       </c>
-      <c r="Z11" s="760" t="s">
+      <c r="Z11" s="757" t="s">
         <v>121</v>
       </c>
-      <c r="AA11" s="761"/>
+      <c r="AA11" s="758"/>
       <c r="AB11" s="52" t="s">
         <v>44</v>
       </c>
       <c r="AC11" s="118" t="s">
         <v>121</v>
       </c>
-      <c r="AD11" s="744"/>
+      <c r="AD11" s="741"/>
     </row>
     <row r="12" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C12" s="129"/>
@@ -14105,7 +14108,7 @@
       <c r="F12" s="66" t="s">
         <v>92</v>
       </c>
-      <c r="G12" s="732"/>
+      <c r="G12" s="768"/>
       <c r="H12" s="128"/>
       <c r="I12" s="19" t="s">
         <v>81</v>
@@ -14113,8 +14116,8 @@
       <c r="J12" s="3">
         <v>15</v>
       </c>
-      <c r="K12" s="750"/>
-      <c r="L12" s="765" t="s">
+      <c r="K12" s="747"/>
+      <c r="L12" s="762" t="s">
         <v>93</v>
       </c>
       <c r="M12" s="21" t="s">
@@ -14129,7 +14132,7 @@
       <c r="Q12" s="113" t="s">
         <v>44</v>
       </c>
-      <c r="S12" s="585" t="s">
+      <c r="S12" s="589" t="s">
         <v>107</v>
       </c>
       <c r="T12" s="2" t="s">
@@ -14145,26 +14148,26 @@
         <v>116</v>
       </c>
       <c r="Y12" s="6"/>
-      <c r="AA12" s="754" t="s">
+      <c r="AA12" s="751" t="s">
         <v>126</v>
       </c>
-      <c r="AB12" s="755"/>
+      <c r="AB12" s="752"/>
       <c r="AC12" s="21" t="s">
         <v>232</v>
       </c>
-      <c r="AD12" s="744"/>
+      <c r="AD12" s="741"/>
     </row>
     <row r="13" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C13" s="768"/>
-      <c r="G13" s="732"/>
-      <c r="K13" s="750"/>
-      <c r="L13" s="766"/>
+      <c r="C13" s="733"/>
+      <c r="G13" s="768"/>
+      <c r="K13" s="747"/>
+      <c r="L13" s="763"/>
       <c r="M13" s="47"/>
-      <c r="Q13" s="734" t="s">
+      <c r="Q13" s="770" t="s">
         <v>210</v>
       </c>
-      <c r="R13" s="656"/>
-      <c r="S13" s="586"/>
+      <c r="R13" s="635"/>
+      <c r="S13" s="590"/>
       <c r="T13" s="6"/>
       <c r="U13" s="96" t="s">
         <v>132</v>
@@ -14172,17 +14175,17 @@
       <c r="X13" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="AA13" s="756"/>
-      <c r="AB13" s="757"/>
-      <c r="AD13" s="744"/>
+      <c r="AA13" s="753"/>
+      <c r="AB13" s="754"/>
+      <c r="AD13" s="741"/>
     </row>
     <row r="14" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="C14" s="770"/>
+      <c r="C14" s="735"/>
       <c r="D14" s="23"/>
-      <c r="G14" s="732"/>
+      <c r="G14" s="768"/>
       <c r="H14" s="125"/>
       <c r="I14" s="99" t="s">
         <v>44</v>
@@ -14190,8 +14193,8 @@
       <c r="J14" s="111">
         <v>115</v>
       </c>
-      <c r="K14" s="750"/>
-      <c r="L14" s="766"/>
+      <c r="K14" s="747"/>
+      <c r="L14" s="763"/>
       <c r="M14" s="21" t="s">
         <v>111</v>
       </c>
@@ -14201,7 +14204,7 @@
       <c r="R14" s="115" t="s">
         <v>44</v>
       </c>
-      <c r="S14" s="586"/>
+      <c r="S14" s="590"/>
       <c r="T14" s="77" t="s">
         <v>130</v>
       </c>
@@ -14212,9 +14215,9 @@
       <c r="Y14" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="AA14" s="756"/>
-      <c r="AB14" s="757"/>
-      <c r="AD14" s="744"/>
+      <c r="AA14" s="753"/>
+      <c r="AB14" s="754"/>
+      <c r="AD14" s="741"/>
     </row>
     <row r="15" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C15" s="130" t="s">
@@ -14229,20 +14232,20 @@
       <c r="F15" s="66" t="s">
         <v>94</v>
       </c>
-      <c r="G15" s="732"/>
+      <c r="G15" s="768"/>
       <c r="H15" s="2" t="s">
         <v>81</v>
       </c>
       <c r="I15" s="53" t="s">
         <v>81</v>
       </c>
-      <c r="K15" s="750"/>
-      <c r="L15" s="767"/>
-      <c r="Q15" s="734" t="s">
+      <c r="K15" s="747"/>
+      <c r="L15" s="764"/>
+      <c r="Q15" s="770" t="s">
         <v>211</v>
       </c>
-      <c r="R15" s="656"/>
-      <c r="S15" s="586"/>
+      <c r="R15" s="635"/>
+      <c r="S15" s="590"/>
       <c r="T15" s="6"/>
       <c r="V15" s="68" t="s">
         <v>44</v>
@@ -14250,14 +14253,14 @@
       <c r="X15" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="AA15" s="756"/>
-      <c r="AB15" s="757"/>
-      <c r="AD15" s="744"/>
+      <c r="AA15" s="753"/>
+      <c r="AB15" s="754"/>
+      <c r="AD15" s="741"/>
     </row>
     <row r="16" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C16" s="132"/>
-      <c r="G16" s="732"/>
-      <c r="K16" s="750"/>
+      <c r="G16" s="768"/>
+      <c r="K16" s="747"/>
       <c r="N16" s="47"/>
       <c r="O16" s="61" t="s">
         <v>109</v>
@@ -14265,7 +14268,7 @@
       <c r="R16" s="114" t="s">
         <v>44</v>
       </c>
-      <c r="S16" s="586"/>
+      <c r="S16" s="590"/>
       <c r="T16" s="76" t="s">
         <v>129</v>
       </c>
@@ -14276,34 +14279,34 @@
       <c r="Z16" s="76" t="s">
         <v>127</v>
       </c>
-      <c r="AA16" s="756"/>
-      <c r="AB16" s="757"/>
-      <c r="AD16" s="744"/>
+      <c r="AA16" s="753"/>
+      <c r="AB16" s="754"/>
+      <c r="AD16" s="741"/>
     </row>
     <row r="17" spans="3:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C17" s="109"/>
       <c r="E17" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="F17" s="729" t="s">
+      <c r="F17" s="765" t="s">
         <v>96</v>
       </c>
-      <c r="G17" s="732"/>
+      <c r="G17" s="768"/>
       <c r="H17" s="54"/>
       <c r="I17" s="133" t="s">
         <v>81</v>
       </c>
-      <c r="K17" s="750"/>
-      <c r="S17" s="586"/>
+      <c r="K17" s="747"/>
+      <c r="S17" s="590"/>
       <c r="V17" s="68" t="s">
         <v>44</v>
       </c>
       <c r="X17" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="AA17" s="756"/>
-      <c r="AB17" s="757"/>
-      <c r="AD17" s="744"/>
+      <c r="AA17" s="753"/>
+      <c r="AB17" s="754"/>
+      <c r="AD17" s="741"/>
     </row>
     <row r="18" spans="3:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C18" s="130"/>
@@ -14313,58 +14316,61 @@
       <c r="E18" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="F18" s="730"/>
-      <c r="G18" s="732"/>
+      <c r="F18" s="766"/>
+      <c r="G18" s="768"/>
       <c r="H18" s="108" t="s">
         <v>76</v>
       </c>
       <c r="I18" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="K18" s="750"/>
+      <c r="K18" s="747"/>
       <c r="O18" s="64" t="s">
         <v>115</v>
       </c>
-      <c r="S18" s="586"/>
+      <c r="S18" s="590"/>
       <c r="U18" s="76" t="s">
         <v>133</v>
       </c>
       <c r="X18" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="AA18" s="758"/>
-      <c r="AB18" s="759"/>
-      <c r="AD18" s="744"/>
+      <c r="AA18" s="755"/>
+      <c r="AB18" s="756"/>
+      <c r="AD18" s="741"/>
     </row>
     <row r="19" spans="3:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F19" s="64" t="s">
         <v>209</v>
       </c>
-      <c r="G19" s="733"/>
-      <c r="K19" s="751"/>
+      <c r="G19" s="769"/>
+      <c r="K19" s="748"/>
       <c r="Q19" s="68" t="s">
         <v>44</v>
       </c>
-      <c r="R19" s="738" t="s">
+      <c r="R19" s="774" t="s">
         <v>124</v>
       </c>
-      <c r="S19" s="739"/>
-      <c r="T19" s="740"/>
+      <c r="S19" s="775"/>
+      <c r="T19" s="776"/>
       <c r="V19" s="77" t="s">
         <v>115</v>
       </c>
       <c r="Y19" s="19" t="s">
         <v>125</v>
       </c>
-      <c r="AD19" s="745"/>
+      <c r="AD19" s="742"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="C9:C11"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="V2:W2"/>
-    <mergeCell ref="M10:AC10"/>
-    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="G2:G19"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="L9:N9"/>
+    <mergeCell ref="R19:T19"/>
+    <mergeCell ref="S12:S18"/>
+    <mergeCell ref="O3:O9"/>
     <mergeCell ref="AD1:AD19"/>
     <mergeCell ref="S8:AC8"/>
     <mergeCell ref="K5:K19"/>
@@ -14376,14 +14382,11 @@
     <mergeCell ref="P3:Q3"/>
     <mergeCell ref="L4:L8"/>
     <mergeCell ref="L12:L15"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="G2:G19"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="L9:N9"/>
-    <mergeCell ref="R19:T19"/>
-    <mergeCell ref="S12:S18"/>
-    <mergeCell ref="O3:O9"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="V2:W2"/>
+    <mergeCell ref="M10:AC10"/>
+    <mergeCell ref="F2:F3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/System_2.1.8.xlsx
+++ b/System_2.1.8.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Work_For_\Work\Running AppS\System_Work_RW\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C4029E6-810F-477A-A8CF-BE0545B2F283}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A729B76F-4DA0-4770-B79C-1D79F36E2C0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BoardRW" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1129" uniqueCount="634">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1131" uniqueCount="634">
   <si>
     <t>Zone</t>
   </si>
@@ -5009,6 +5009,186 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="73" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="27" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="27" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="36" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="36" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="49" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="49" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="49" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="19" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5021,12 +5201,6 @@
     <xf numFmtId="0" fontId="17" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5038,12 +5212,6 @@
     </xf>
     <xf numFmtId="0" fontId="38" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
@@ -5066,190 +5234,61 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="27" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="27" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="27" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="27" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="13" fillId="27" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="27" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="27" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="49" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="49" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="49" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="73" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="13" fillId="27" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="13" fillId="27" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="36" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="36" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5291,44 +5330,17 @@
     <xf numFmtId="0" fontId="3" fillId="36" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="27" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="27" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="27" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="13" fillId="27" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="13" fillId="27" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="27" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="27" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="36" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="36" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="43" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5396,37 +5408,46 @@
     <xf numFmtId="14" fontId="5" fillId="14" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="35" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="35" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="35" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5504,46 +5525,25 @@
     <xf numFmtId="0" fontId="3" fillId="21" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -6930,7 +6930,7 @@
       <c r="H1" s="97" t="s">
         <v>349</v>
       </c>
-      <c r="I1" s="604" t="s">
+      <c r="I1" s="650" t="s">
         <v>375</v>
       </c>
       <c r="J1" s="2" t="s">
@@ -6966,7 +6966,7 @@
       <c r="X1" s="451" t="s">
         <v>156</v>
       </c>
-      <c r="Y1" s="648" t="s">
+      <c r="Y1" s="644" t="s">
         <v>539</v>
       </c>
       <c r="Z1" s="427">
@@ -6991,7 +6991,7 @@
         <v>507</v>
       </c>
       <c r="AM1" s="423"/>
-      <c r="AN1" s="631"/>
+      <c r="AN1" s="626"/>
       <c r="AO1" s="347" t="s">
         <v>478</v>
       </c>
@@ -7000,23 +7000,23 @@
       </c>
     </row>
     <row r="2" spans="1:43" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="657">
+      <c r="A2" s="608">
         <f ca="1">TODAY()</f>
         <v>45282</v>
       </c>
-      <c r="B2" s="659" t="s">
+      <c r="B2" s="610" t="s">
         <v>376</v>
       </c>
-      <c r="C2" s="636" t="s">
+      <c r="C2" s="606" t="s">
         <v>363</v>
       </c>
-      <c r="D2" s="661" t="s">
+      <c r="D2" s="612" t="s">
         <v>361</v>
       </c>
-      <c r="E2" s="600" t="s">
+      <c r="E2" s="660" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="610" t="s">
+      <c r="F2" s="631" t="s">
         <v>103</v>
       </c>
       <c r="G2" s="414" t="s">
@@ -7025,31 +7025,31 @@
       <c r="H2" s="80" t="s">
         <v>33</v>
       </c>
-      <c r="I2" s="605"/>
+      <c r="I2" s="651"/>
       <c r="J2" s="81" t="s">
         <v>77</v>
       </c>
-      <c r="K2" s="602" t="s">
+      <c r="K2" s="662" t="s">
         <v>348</v>
       </c>
-      <c r="L2" s="603"/>
-      <c r="M2" s="610" t="s">
+      <c r="L2" s="663"/>
+      <c r="M2" s="631" t="s">
         <v>103</v>
       </c>
       <c r="N2" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="O2" s="640" t="s">
+      <c r="O2" s="635" t="s">
         <v>103</v>
       </c>
       <c r="P2" s="85" t="s">
         <v>148</v>
       </c>
-      <c r="Q2" s="636" t="s">
+      <c r="Q2" s="606" t="s">
         <v>144</v>
       </c>
       <c r="R2" s="589"/>
-      <c r="S2" s="625" t="s">
+      <c r="S2" s="648" t="s">
         <v>149</v>
       </c>
       <c r="T2" s="89"/>
@@ -7059,7 +7059,7 @@
       <c r="X2" s="452" t="s">
         <v>157</v>
       </c>
-      <c r="Y2" s="649"/>
+      <c r="Y2" s="645"/>
       <c r="Z2" s="428">
         <v>1</v>
       </c>
@@ -7082,15 +7082,15 @@
         <v>472</v>
       </c>
       <c r="AM2" s="449"/>
-      <c r="AN2" s="632"/>
+      <c r="AN2" s="627"/>
     </row>
     <row r="3" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="658"/>
-      <c r="B3" s="660"/>
-      <c r="C3" s="637"/>
-      <c r="D3" s="662"/>
-      <c r="E3" s="601"/>
-      <c r="F3" s="611"/>
+      <c r="A3" s="609"/>
+      <c r="B3" s="611"/>
+      <c r="C3" s="607"/>
+      <c r="D3" s="613"/>
+      <c r="E3" s="661"/>
+      <c r="F3" s="632"/>
       <c r="G3" s="415" t="s">
         <v>28</v>
       </c>
@@ -7109,17 +7109,17 @@
       <c r="L3" s="205" t="s">
         <v>108</v>
       </c>
-      <c r="M3" s="611"/>
+      <c r="M3" s="632"/>
       <c r="N3" s="69" t="s">
         <v>147</v>
       </c>
-      <c r="O3" s="641"/>
+      <c r="O3" s="636"/>
       <c r="P3" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="Q3" s="637"/>
+      <c r="Q3" s="607"/>
       <c r="R3" s="591"/>
-      <c r="S3" s="627"/>
+      <c r="S3" s="649"/>
       <c r="T3" s="89"/>
       <c r="U3" s="124"/>
       <c r="V3" s="120"/>
@@ -7127,7 +7127,7 @@
       <c r="X3" s="452" t="s">
         <v>158</v>
       </c>
-      <c r="Y3" s="649"/>
+      <c r="Y3" s="645"/>
       <c r="Z3" s="429">
         <v>1</v>
       </c>
@@ -7136,7 +7136,7 @@
       <c r="AC3" s="100" t="s">
         <v>489</v>
       </c>
-      <c r="AD3" s="622" t="s">
+      <c r="AD3" s="647" t="s">
         <v>464</v>
       </c>
       <c r="AE3" s="261"/>
@@ -7148,16 +7148,16 @@
       <c r="AK3" s="261"/>
       <c r="AL3" s="16"/>
       <c r="AM3" s="449"/>
-      <c r="AN3" s="632"/>
+      <c r="AN3" s="627"/>
     </row>
     <row r="4" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="242" t="s">
         <v>184</v>
       </c>
-      <c r="B4" s="673" t="s">
+      <c r="B4" s="624" t="s">
         <v>379</v>
       </c>
-      <c r="C4" s="636" t="s">
+      <c r="C4" s="606" t="s">
         <v>155</v>
       </c>
       <c r="D4" s="356" t="s">
@@ -7166,7 +7166,7 @@
       <c r="E4" s="393">
         <v>2</v>
       </c>
-      <c r="F4" s="611"/>
+      <c r="F4" s="632"/>
       <c r="G4" s="397" t="s">
         <v>203</v>
       </c>
@@ -7183,11 +7183,11 @@
         <v>151</v>
       </c>
       <c r="L4" s="208"/>
-      <c r="M4" s="611"/>
+      <c r="M4" s="632"/>
       <c r="N4" s="178" t="s">
         <v>70</v>
       </c>
-      <c r="O4" s="641"/>
+      <c r="O4" s="636"/>
       <c r="P4" s="2" t="s">
         <v>192</v>
       </c>
@@ -7209,12 +7209,12 @@
       <c r="X4" s="452" t="s">
         <v>159</v>
       </c>
-      <c r="Y4" s="649"/>
+      <c r="Y4" s="645"/>
       <c r="Z4" s="430"/>
       <c r="AA4" s="312"/>
       <c r="AB4" s="213"/>
       <c r="AC4" s="16"/>
-      <c r="AD4" s="622"/>
+      <c r="AD4" s="647"/>
       <c r="AE4" s="261"/>
       <c r="AF4" s="261"/>
       <c r="AG4" s="16"/>
@@ -7224,37 +7224,37 @@
       <c r="AK4" s="261"/>
       <c r="AL4" s="16"/>
       <c r="AM4" s="449"/>
-      <c r="AN4" s="632"/>
+      <c r="AN4" s="627"/>
       <c r="AO4" s="347" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="604" t="s">
+      <c r="A5" s="650" t="s">
         <v>427</v>
       </c>
-      <c r="B5" s="674"/>
-      <c r="C5" s="637"/>
+      <c r="B5" s="625"/>
+      <c r="C5" s="607"/>
       <c r="D5" s="61" t="s">
         <v>154</v>
       </c>
       <c r="E5" s="394">
         <v>1</v>
       </c>
-      <c r="F5" s="611"/>
-      <c r="G5" s="665" t="s">
+      <c r="F5" s="632"/>
+      <c r="G5" s="616" t="s">
         <v>193</v>
       </c>
-      <c r="H5" s="665"/>
-      <c r="I5" s="665"/>
-      <c r="J5" s="665"/>
-      <c r="K5" s="665"/>
-      <c r="L5" s="666"/>
-      <c r="M5" s="611"/>
+      <c r="H5" s="616"/>
+      <c r="I5" s="616"/>
+      <c r="J5" s="616"/>
+      <c r="K5" s="616"/>
+      <c r="L5" s="617"/>
+      <c r="M5" s="632"/>
       <c r="N5" s="21">
         <v>8</v>
       </c>
-      <c r="O5" s="641"/>
+      <c r="O5" s="636"/>
       <c r="T5" s="89"/>
       <c r="U5" s="124"/>
       <c r="V5" s="120"/>
@@ -7262,7 +7262,7 @@
       <c r="X5" s="452" t="s">
         <v>160</v>
       </c>
-      <c r="Y5" s="649"/>
+      <c r="Y5" s="645"/>
       <c r="Z5" s="430">
         <v>1</v>
       </c>
@@ -7285,24 +7285,24 @@
       <c r="AK5" s="261"/>
       <c r="AL5" s="80"/>
       <c r="AM5" s="449"/>
-      <c r="AN5" s="632"/>
+      <c r="AN5" s="627"/>
     </row>
     <row r="6" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="605"/>
-      <c r="B6" s="671" t="s">
+      <c r="A6" s="651"/>
+      <c r="B6" s="622" t="s">
         <v>178</v>
       </c>
-      <c r="C6" s="619"/>
-      <c r="D6" s="620"/>
-      <c r="F6" s="611"/>
-      <c r="G6" s="667"/>
-      <c r="H6" s="667"/>
-      <c r="I6" s="667"/>
-      <c r="J6" s="667"/>
-      <c r="K6" s="667"/>
-      <c r="L6" s="668"/>
-      <c r="M6" s="611"/>
-      <c r="O6" s="641"/>
+      <c r="C6" s="652"/>
+      <c r="D6" s="653"/>
+      <c r="F6" s="632"/>
+      <c r="G6" s="618"/>
+      <c r="H6" s="618"/>
+      <c r="I6" s="618"/>
+      <c r="J6" s="618"/>
+      <c r="K6" s="618"/>
+      <c r="L6" s="619"/>
+      <c r="M6" s="632"/>
+      <c r="O6" s="636"/>
       <c r="T6" s="89"/>
       <c r="U6" s="124"/>
       <c r="V6" s="98" t="s">
@@ -7312,7 +7312,7 @@
       <c r="X6" s="452" t="s">
         <v>161</v>
       </c>
-      <c r="Y6" s="649"/>
+      <c r="Y6" s="645"/>
       <c r="Z6" s="428">
         <v>1</v>
       </c>
@@ -7326,16 +7326,16 @@
       <c r="AF6" s="261"/>
       <c r="AG6" s="261"/>
       <c r="AH6" s="261"/>
-      <c r="AI6" s="621"/>
+      <c r="AI6" s="641"/>
       <c r="AJ6" s="462" t="s">
         <v>467</v>
       </c>
-      <c r="AK6" s="621" t="s">
+      <c r="AK6" s="641" t="s">
         <v>255</v>
       </c>
       <c r="AL6" s="261"/>
       <c r="AM6" s="449"/>
-      <c r="AN6" s="632"/>
+      <c r="AN6" s="627"/>
       <c r="AO6" s="347" t="s">
         <v>479</v>
       </c>
@@ -7344,7 +7344,7 @@
       <c r="A7" s="236" t="s">
         <v>584</v>
       </c>
-      <c r="B7" s="672"/>
+      <c r="B7" s="623"/>
       <c r="C7" s="206" t="s">
         <v>380</v>
       </c>
@@ -7354,7 +7354,7 @@
       <c r="E7" s="270">
         <v>3</v>
       </c>
-      <c r="F7" s="611"/>
+      <c r="F7" s="632"/>
       <c r="G7" s="416">
         <v>0</v>
       </c>
@@ -7373,8 +7373,8 @@
       <c r="L7" s="216">
         <v>0</v>
       </c>
-      <c r="M7" s="611"/>
-      <c r="O7" s="641"/>
+      <c r="M7" s="632"/>
+      <c r="O7" s="636"/>
       <c r="R7" s="99" t="s">
         <v>44</v>
       </c>
@@ -7388,7 +7388,7 @@
       <c r="X7" s="452" t="s">
         <v>162</v>
       </c>
-      <c r="Y7" s="649"/>
+      <c r="Y7" s="645"/>
       <c r="Z7" s="428">
         <v>1</v>
       </c>
@@ -7398,18 +7398,18 @@
       <c r="AD7" s="16"/>
       <c r="AE7" s="261"/>
       <c r="AF7" s="261"/>
-      <c r="AG7" s="622" t="s">
+      <c r="AG7" s="647" t="s">
         <v>463</v>
       </c>
       <c r="AH7" s="261"/>
-      <c r="AI7" s="621"/>
+      <c r="AI7" s="641"/>
       <c r="AJ7" s="261"/>
-      <c r="AK7" s="621"/>
+      <c r="AK7" s="641"/>
       <c r="AL7" s="80" t="s">
         <v>505</v>
       </c>
       <c r="AM7" s="449"/>
-      <c r="AN7" s="632"/>
+      <c r="AN7" s="627"/>
       <c r="AP7" s="76" t="s">
         <v>480</v>
       </c>
@@ -7426,27 +7426,27 @@
         <f>SUM(G7:N9)</f>
         <v>15</v>
       </c>
-      <c r="F8" s="611"/>
-      <c r="G8" s="666">
-        <v>0</v>
-      </c>
-      <c r="H8" s="663" t="s">
+      <c r="F8" s="632"/>
+      <c r="G8" s="617">
+        <v>0</v>
+      </c>
+      <c r="H8" s="614" t="s">
         <v>105</v>
       </c>
       <c r="I8" s="589">
         <v>0</v>
       </c>
-      <c r="J8" s="663" t="s">
+      <c r="J8" s="614" t="s">
         <v>105</v>
       </c>
-      <c r="K8" s="669"/>
-      <c r="L8" s="623"/>
-      <c r="M8" s="638"/>
-      <c r="N8" s="628">
+      <c r="K8" s="620"/>
+      <c r="L8" s="654"/>
+      <c r="M8" s="633"/>
+      <c r="N8" s="657">
         <f>N5+N11</f>
         <v>15</v>
       </c>
-      <c r="O8" s="641"/>
+      <c r="O8" s="636"/>
       <c r="T8" s="103" t="s">
         <v>44</v>
       </c>
@@ -7456,7 +7456,7 @@
       <c r="X8" s="452" t="s">
         <v>163</v>
       </c>
-      <c r="Y8" s="649"/>
+      <c r="Y8" s="645"/>
       <c r="Z8" s="430"/>
       <c r="AA8" s="312"/>
       <c r="AB8" s="213"/>
@@ -7464,14 +7464,14 @@
       <c r="AD8" s="16"/>
       <c r="AE8" s="261"/>
       <c r="AF8" s="261"/>
-      <c r="AG8" s="622"/>
+      <c r="AG8" s="647"/>
       <c r="AH8" s="261"/>
-      <c r="AI8" s="621"/>
+      <c r="AI8" s="641"/>
       <c r="AJ8" s="261"/>
       <c r="AK8" s="261"/>
       <c r="AL8" s="261"/>
       <c r="AM8" s="449"/>
-      <c r="AN8" s="632"/>
+      <c r="AN8" s="627"/>
     </row>
     <row r="9" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="236" t="s">
@@ -7486,17 +7486,17 @@
       <c r="D9" s="357" t="s">
         <v>285</v>
       </c>
-      <c r="F9" s="611"/>
-      <c r="G9" s="668"/>
-      <c r="H9" s="664"/>
+      <c r="F9" s="632"/>
+      <c r="G9" s="619"/>
+      <c r="H9" s="615"/>
       <c r="I9" s="591"/>
-      <c r="J9" s="664"/>
-      <c r="K9" s="670"/>
-      <c r="L9" s="624"/>
-      <c r="M9" s="639"/>
-      <c r="N9" s="629"/>
-      <c r="O9" s="642"/>
-      <c r="S9" s="625" t="s">
+      <c r="J9" s="615"/>
+      <c r="K9" s="621"/>
+      <c r="L9" s="655"/>
+      <c r="M9" s="634"/>
+      <c r="N9" s="658"/>
+      <c r="O9" s="637"/>
+      <c r="S9" s="648" t="s">
         <v>62</v>
       </c>
       <c r="T9" s="89"/>
@@ -7508,7 +7508,7 @@
       <c r="X9" s="452" t="s">
         <v>164</v>
       </c>
-      <c r="Y9" s="649"/>
+      <c r="Y9" s="645"/>
       <c r="Z9" s="431"/>
       <c r="AA9" s="312"/>
       <c r="AB9" s="213"/>
@@ -7518,16 +7518,16 @@
       </c>
       <c r="AE9" s="261"/>
       <c r="AF9" s="261"/>
-      <c r="AG9" s="622"/>
+      <c r="AG9" s="647"/>
       <c r="AH9" s="261"/>
-      <c r="AI9" s="621"/>
+      <c r="AI9" s="641"/>
       <c r="AJ9" s="80"/>
-      <c r="AK9" s="621" t="s">
+      <c r="AK9" s="641" t="s">
         <v>255</v>
       </c>
       <c r="AL9" s="261"/>
       <c r="AM9" s="449"/>
-      <c r="AN9" s="632"/>
+      <c r="AN9" s="627"/>
       <c r="AP9" s="2" t="s">
         <v>517</v>
       </c>
@@ -7544,20 +7544,20 @@
         <f>Boat!W8</f>
         <v>37</v>
       </c>
-      <c r="F10" s="611"/>
+      <c r="F10" s="632"/>
       <c r="N10" s="439" t="s">
         <v>403</v>
       </c>
-      <c r="O10" s="613" t="s">
+      <c r="O10" s="669" t="s">
         <v>103</v>
       </c>
-      <c r="P10" s="643" t="s">
+      <c r="P10" s="638" t="s">
         <v>407</v>
       </c>
       <c r="R10" s="74" t="s">
         <v>44</v>
       </c>
-      <c r="S10" s="626"/>
+      <c r="S10" s="656"/>
       <c r="T10" s="89"/>
       <c r="U10" s="123" t="s">
         <v>177</v>
@@ -7569,7 +7569,7 @@
       <c r="X10" s="452" t="s">
         <v>165</v>
       </c>
-      <c r="Y10" s="649"/>
+      <c r="Y10" s="645"/>
       <c r="Z10" s="430">
         <v>0</v>
       </c>
@@ -7587,16 +7587,16 @@
       <c r="AF10" s="242" t="s">
         <v>317</v>
       </c>
-      <c r="AG10" s="622"/>
+      <c r="AG10" s="647"/>
       <c r="AH10" s="80"/>
-      <c r="AI10" s="621"/>
+      <c r="AI10" s="641"/>
       <c r="AJ10" s="261"/>
-      <c r="AK10" s="621"/>
+      <c r="AK10" s="641"/>
       <c r="AL10" s="261"/>
       <c r="AM10" s="463" t="s">
         <v>324</v>
       </c>
-      <c r="AN10" s="632"/>
+      <c r="AN10" s="627"/>
       <c r="AO10" s="208" t="s">
         <v>95</v>
       </c>
@@ -7614,18 +7614,18 @@
       <c r="D11" s="174" t="s">
         <v>361</v>
       </c>
-      <c r="F11" s="611"/>
+      <c r="F11" s="632"/>
       <c r="M11" s="6"/>
       <c r="N11" s="117">
         <v>7</v>
       </c>
-      <c r="O11" s="614"/>
-      <c r="P11" s="644"/>
+      <c r="O11" s="670"/>
+      <c r="P11" s="639"/>
       <c r="Q11" s="65"/>
       <c r="R11" s="120" t="s">
         <v>222</v>
       </c>
-      <c r="S11" s="626"/>
+      <c r="S11" s="656"/>
       <c r="T11" s="102" t="s">
         <v>44</v>
       </c>
@@ -7635,7 +7635,7 @@
       <c r="X11" s="452" t="s">
         <v>166</v>
       </c>
-      <c r="Y11" s="649"/>
+      <c r="Y11" s="645"/>
       <c r="Z11" s="430"/>
       <c r="AA11" s="312">
         <v>1</v>
@@ -7649,14 +7649,14 @@
       <c r="AF11" s="261" t="s">
         <v>485</v>
       </c>
-      <c r="AG11" s="622"/>
+      <c r="AG11" s="647"/>
       <c r="AH11" s="261"/>
       <c r="AI11" s="70"/>
       <c r="AJ11" s="261"/>
       <c r="AK11" s="261"/>
       <c r="AL11" s="261"/>
       <c r="AM11" s="449"/>
-      <c r="AN11" s="632"/>
+      <c r="AN11" s="627"/>
       <c r="AP11" s="76" t="s">
         <v>493</v>
       </c>
@@ -7675,7 +7675,7 @@
       <c r="E12" s="228">
         <v>3</v>
       </c>
-      <c r="F12" s="611"/>
+      <c r="F12" s="632"/>
       <c r="G12" s="346" t="s">
         <v>407</v>
       </c>
@@ -7684,16 +7684,16 @@
       </c>
       <c r="I12" s="596"/>
       <c r="J12" s="596"/>
-      <c r="K12" s="618"/>
+      <c r="K12" s="674"/>
       <c r="L12" s="207"/>
       <c r="M12" s="207"/>
       <c r="N12" s="207"/>
-      <c r="O12" s="614"/>
-      <c r="P12" s="644"/>
+      <c r="O12" s="670"/>
+      <c r="P12" s="639"/>
       <c r="R12" s="122" t="s">
         <v>181</v>
       </c>
-      <c r="S12" s="627"/>
+      <c r="S12" s="649"/>
       <c r="T12" s="101" t="s">
         <v>44</v>
       </c>
@@ -7703,7 +7703,7 @@
       <c r="X12" s="452" t="s">
         <v>167</v>
       </c>
-      <c r="Y12" s="649"/>
+      <c r="Y12" s="645"/>
       <c r="Z12" s="428">
         <v>1</v>
       </c>
@@ -7714,16 +7714,16 @@
       <c r="AC12" s="100" t="s">
         <v>490</v>
       </c>
-      <c r="AD12" s="630" t="s">
+      <c r="AD12" s="659" t="s">
         <v>244</v>
       </c>
       <c r="AE12" s="462" t="s">
         <v>243</v>
       </c>
-      <c r="AF12" s="622" t="s">
+      <c r="AF12" s="647" t="s">
         <v>230</v>
       </c>
-      <c r="AG12" s="622"/>
+      <c r="AG12" s="647"/>
       <c r="AH12" s="242" t="s">
         <v>263</v>
       </c>
@@ -7733,10 +7733,10 @@
       <c r="AJ12" s="261"/>
       <c r="AK12" s="261"/>
       <c r="AL12" s="261"/>
-      <c r="AM12" s="646" t="s">
+      <c r="AM12" s="642" t="s">
         <v>253</v>
       </c>
-      <c r="AN12" s="632"/>
+      <c r="AN12" s="627"/>
       <c r="AO12" s="347" t="s">
         <v>97</v>
       </c>
@@ -7748,17 +7748,17 @@
       <c r="E13" s="469">
         <v>-3</v>
       </c>
-      <c r="F13" s="611"/>
+      <c r="F13" s="632"/>
       <c r="G13" s="596" t="s">
         <v>439</v>
       </c>
       <c r="H13" s="596"/>
       <c r="I13" s="596"/>
-      <c r="J13" s="618"/>
+      <c r="J13" s="674"/>
       <c r="M13" s="6"/>
       <c r="N13" s="6"/>
-      <c r="O13" s="614"/>
-      <c r="P13" s="645"/>
+      <c r="O13" s="670"/>
+      <c r="P13" s="640"/>
       <c r="T13" s="105" t="s">
         <v>44</v>
       </c>
@@ -7768,7 +7768,7 @@
       <c r="X13" s="452" t="s">
         <v>168</v>
       </c>
-      <c r="Y13" s="649"/>
+      <c r="Y13" s="645"/>
       <c r="Z13" s="428">
         <v>1</v>
       </c>
@@ -7779,8 +7779,8 @@
         <v>509</v>
       </c>
       <c r="AC13" s="16"/>
-      <c r="AD13" s="630"/>
-      <c r="AF13" s="622"/>
+      <c r="AD13" s="659"/>
+      <c r="AF13" s="647"/>
       <c r="AG13" s="80"/>
       <c r="AH13" s="242" t="s">
         <v>313</v>
@@ -7791,8 +7791,8 @@
       <c r="AJ13" s="80"/>
       <c r="AK13" s="261"/>
       <c r="AL13" s="261"/>
-      <c r="AM13" s="646"/>
-      <c r="AN13" s="632"/>
+      <c r="AM13" s="642"/>
+      <c r="AN13" s="627"/>
     </row>
     <row r="14" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="471"/>
@@ -7800,18 +7800,18 @@
       <c r="C14" s="480"/>
       <c r="D14" s="473"/>
       <c r="E14" s="474"/>
-      <c r="F14" s="611"/>
+      <c r="F14" s="632"/>
       <c r="G14" s="596" t="s">
         <v>438</v>
       </c>
       <c r="H14" s="596"/>
       <c r="I14" s="596"/>
-      <c r="J14" s="618"/>
+      <c r="J14" s="674"/>
       <c r="K14" s="2">
         <v>12</v>
       </c>
       <c r="N14" s="6"/>
-      <c r="O14" s="614"/>
+      <c r="O14" s="670"/>
       <c r="Q14" s="61" t="s">
         <v>543</v>
       </c>
@@ -7825,24 +7825,24 @@
       <c r="X14" s="452" t="s">
         <v>169</v>
       </c>
-      <c r="Y14" s="649"/>
+      <c r="Y14" s="645"/>
       <c r="Z14" s="428">
         <v>1</v>
       </c>
       <c r="AA14" s="312"/>
       <c r="AB14" s="213"/>
       <c r="AC14" s="16"/>
-      <c r="AD14" s="630"/>
+      <c r="AD14" s="659"/>
       <c r="AE14" s="261"/>
-      <c r="AF14" s="622"/>
+      <c r="AF14" s="647"/>
       <c r="AG14" s="261"/>
       <c r="AH14" s="261"/>
       <c r="AI14" s="70"/>
       <c r="AJ14" s="261"/>
       <c r="AK14" s="261"/>
       <c r="AL14" s="261"/>
-      <c r="AM14" s="646"/>
-      <c r="AN14" s="632"/>
+      <c r="AM14" s="642"/>
+      <c r="AN14" s="627"/>
     </row>
     <row r="15" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="470" t="s">
@@ -7851,8 +7851,8 @@
       <c r="C15" s="589" t="s">
         <v>379</v>
       </c>
-      <c r="F15" s="611"/>
-      <c r="O15" s="614"/>
+      <c r="F15" s="632"/>
+      <c r="O15" s="670"/>
       <c r="R15" s="99" t="s">
         <v>44</v>
       </c>
@@ -7865,7 +7865,7 @@
       <c r="X15" s="452" t="s">
         <v>170</v>
       </c>
-      <c r="Y15" s="649"/>
+      <c r="Y15" s="645"/>
       <c r="Z15" s="430">
         <v>1</v>
       </c>
@@ -7874,8 +7874,8 @@
       <c r="AC15" s="76" t="s">
         <v>488</v>
       </c>
-      <c r="AD15" s="630"/>
-      <c r="AF15" s="622"/>
+      <c r="AD15" s="659"/>
+      <c r="AF15" s="647"/>
       <c r="AG15" s="80"/>
       <c r="AH15" s="242" t="s">
         <v>457</v>
@@ -7888,8 +7888,8 @@
       </c>
       <c r="AK15" s="261"/>
       <c r="AL15" s="261"/>
-      <c r="AM15" s="646"/>
-      <c r="AN15" s="632"/>
+      <c r="AM15" s="642"/>
+      <c r="AN15" s="627"/>
       <c r="AP15" s="76" t="s">
         <v>74</v>
       </c>
@@ -7911,13 +7911,13 @@
       <c r="E16" s="228">
         <v>1</v>
       </c>
-      <c r="F16" s="611"/>
+      <c r="F16" s="632"/>
       <c r="G16" s="346" t="s">
         <v>497</v>
       </c>
       <c r="I16" s="491"/>
       <c r="J16" s="20"/>
-      <c r="O16" s="614"/>
+      <c r="O16" s="670"/>
       <c r="R16" s="456" t="s">
         <v>185</v>
       </c>
@@ -7928,7 +7928,7 @@
       <c r="X16" s="452" t="s">
         <v>171</v>
       </c>
-      <c r="Y16" s="649"/>
+      <c r="Y16" s="645"/>
       <c r="Z16" s="428">
         <v>1</v>
       </c>
@@ -7949,18 +7949,18 @@
       <c r="AM16" s="449" t="s">
         <v>323</v>
       </c>
-      <c r="AN16" s="632"/>
+      <c r="AN16" s="627"/>
       <c r="AP16" s="76" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="17" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="80"/>
-      <c r="F17" s="611"/>
+      <c r="F17" s="632"/>
       <c r="I17" s="492"/>
       <c r="J17" s="20"/>
       <c r="N17" s="6"/>
-      <c r="O17" s="614"/>
+      <c r="O17" s="670"/>
       <c r="Q17" s="21" t="s">
         <v>541</v>
       </c>
@@ -7980,7 +7980,7 @@
       <c r="X17" s="452" t="s">
         <v>172</v>
       </c>
-      <c r="Y17" s="649"/>
+      <c r="Y17" s="645"/>
       <c r="Z17" s="430"/>
       <c r="AA17" s="312"/>
       <c r="AB17" s="213"/>
@@ -8005,7 +8005,7 @@
       <c r="AK17" s="261"/>
       <c r="AL17" s="80"/>
       <c r="AM17" s="449"/>
-      <c r="AN17" s="632"/>
+      <c r="AN17" s="627"/>
       <c r="AO17" s="208" t="s">
         <v>506</v>
       </c>
@@ -8029,21 +8029,21 @@
       <c r="E18" s="99" t="s">
         <v>44</v>
       </c>
-      <c r="F18" s="611"/>
+      <c r="F18" s="632"/>
       <c r="G18" s="346" t="s">
         <v>538</v>
       </c>
       <c r="I18" s="24"/>
       <c r="J18" s="20"/>
-      <c r="O18" s="614"/>
+      <c r="O18" s="670"/>
       <c r="Q18" s="112"/>
-      <c r="R18" s="606" t="s">
+      <c r="R18" s="664" t="s">
         <v>546</v>
       </c>
       <c r="T18" s="100" t="s">
         <v>44</v>
       </c>
-      <c r="U18" s="654" t="s">
+      <c r="U18" s="603" t="s">
         <v>44</v>
       </c>
       <c r="V18" s="120"/>
@@ -8053,7 +8053,7 @@
       <c r="X18" s="452" t="s">
         <v>173</v>
       </c>
-      <c r="Y18" s="649"/>
+      <c r="Y18" s="645"/>
       <c r="Z18" s="430">
         <v>1</v>
       </c>
@@ -8064,38 +8064,38 @@
       <c r="AC18" s="16"/>
       <c r="AD18" s="16"/>
       <c r="AE18" s="261"/>
-      <c r="AF18" s="621" t="s">
+      <c r="AF18" s="641" t="s">
         <v>484</v>
       </c>
       <c r="AG18" s="261"/>
       <c r="AH18" s="70"/>
       <c r="AI18" s="70"/>
-      <c r="AJ18" s="647" t="s">
+      <c r="AJ18" s="643" t="s">
         <v>321</v>
       </c>
       <c r="AK18" s="261"/>
       <c r="AL18" s="80"/>
       <c r="AM18" s="449"/>
-      <c r="AN18" s="632"/>
+      <c r="AN18" s="627"/>
       <c r="AP18" s="76" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="19" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F19" s="611"/>
+      <c r="F19" s="632"/>
       <c r="I19" s="223"/>
-      <c r="O19" s="614"/>
-      <c r="R19" s="607"/>
+      <c r="O19" s="670"/>
+      <c r="R19" s="665"/>
       <c r="S19" s="30" t="s">
         <v>544</v>
       </c>
-      <c r="U19" s="655"/>
+      <c r="U19" s="604"/>
       <c r="V19" s="146"/>
       <c r="W19" s="146"/>
       <c r="X19" s="452" t="s">
         <v>174</v>
       </c>
-      <c r="Y19" s="649"/>
+      <c r="Y19" s="645"/>
       <c r="Z19" s="428">
         <v>1</v>
       </c>
@@ -8104,17 +8104,17 @@
       <c r="AC19" s="16"/>
       <c r="AD19" s="16"/>
       <c r="AE19" s="261"/>
-      <c r="AF19" s="621"/>
+      <c r="AF19" s="641"/>
       <c r="AG19" s="261"/>
       <c r="AH19" s="261"/>
       <c r="AI19" s="70"/>
-      <c r="AJ19" s="647"/>
+      <c r="AJ19" s="643"/>
       <c r="AK19" s="481" t="s">
         <v>255</v>
       </c>
       <c r="AL19" s="80"/>
       <c r="AM19" s="449"/>
-      <c r="AN19" s="632"/>
+      <c r="AN19" s="627"/>
       <c r="AP19" s="76" t="s">
         <v>477</v>
       </c>
@@ -8135,24 +8135,24 @@
       <c r="E20" s="458">
         <v>-1</v>
       </c>
-      <c r="F20" s="611"/>
+      <c r="F20" s="632"/>
       <c r="G20" s="346" t="s">
         <v>500</v>
       </c>
       <c r="I20" s="223"/>
-      <c r="O20" s="614"/>
-      <c r="Q20" s="616" t="s">
+      <c r="O20" s="670"/>
+      <c r="Q20" s="672" t="s">
         <v>48</v>
       </c>
       <c r="T20" s="425" t="s">
         <v>44</v>
       </c>
-      <c r="U20" s="656"/>
+      <c r="U20" s="605"/>
       <c r="W20" s="426"/>
       <c r="X20" s="453" t="s">
         <v>175</v>
       </c>
-      <c r="Y20" s="649"/>
+      <c r="Y20" s="645"/>
       <c r="Z20" s="432">
         <v>1</v>
       </c>
@@ -8177,7 +8177,7 @@
       <c r="AM20" s="397" t="s">
         <v>253</v>
       </c>
-      <c r="AN20" s="632"/>
+      <c r="AN20" s="627"/>
       <c r="AO20" s="347" t="s">
         <v>469</v>
       </c>
@@ -8198,20 +8198,20 @@
       <c r="E21" s="270">
         <v>0</v>
       </c>
-      <c r="F21" s="611"/>
+      <c r="F21" s="632"/>
       <c r="I21" s="223"/>
-      <c r="O21" s="614"/>
-      <c r="Q21" s="617"/>
+      <c r="O21" s="670"/>
+      <c r="Q21" s="673"/>
       <c r="T21" s="443"/>
       <c r="U21" s="14"/>
-      <c r="V21" s="651"/>
+      <c r="V21" s="600"/>
       <c r="W21" s="447" t="s">
         <v>176</v>
       </c>
       <c r="X21" s="450" t="s">
         <v>187</v>
       </c>
-      <c r="Y21" s="649"/>
+      <c r="Y21" s="645"/>
       <c r="Z21" s="466">
         <v>3</v>
       </c>
@@ -8242,15 +8242,15 @@
       <c r="AM21" s="449" t="s">
         <v>555</v>
       </c>
-      <c r="AN21" s="632"/>
+      <c r="AN21" s="627"/>
     </row>
     <row r="22" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F22" s="611"/>
+      <c r="F22" s="632"/>
       <c r="G22" s="346" t="s">
         <v>498</v>
       </c>
       <c r="I22" s="223"/>
-      <c r="O22" s="614"/>
+      <c r="O22" s="670"/>
       <c r="R22" s="455" t="s">
         <v>44</v>
       </c>
@@ -8258,14 +8258,14 @@
         <v>44</v>
       </c>
       <c r="U22" s="15"/>
-      <c r="V22" s="652"/>
+      <c r="V22" s="601"/>
       <c r="W22" s="447" t="s">
         <v>176</v>
       </c>
       <c r="X22" s="450" t="s">
         <v>188</v>
       </c>
-      <c r="Y22" s="649"/>
+      <c r="Y22" s="645"/>
       <c r="Z22" s="436"/>
       <c r="AA22" s="10"/>
       <c r="AB22" s="436"/>
@@ -8276,7 +8276,7 @@
       <c r="AG22" s="6"/>
       <c r="AH22" s="6"/>
       <c r="AI22" s="6"/>
-      <c r="AJ22" s="621" t="s">
+      <c r="AJ22" s="641" t="s">
         <v>481</v>
       </c>
       <c r="AK22" s="261"/>
@@ -8284,7 +8284,7 @@
         <v>487</v>
       </c>
       <c r="AM22" s="305"/>
-      <c r="AN22" s="632"/>
+      <c r="AN22" s="627"/>
     </row>
     <row r="23" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="235" t="s">
@@ -8302,22 +8302,22 @@
       <c r="E23" s="229">
         <v>1</v>
       </c>
-      <c r="F23" s="611"/>
+      <c r="F23" s="632"/>
       <c r="I23" s="223"/>
-      <c r="O23" s="614"/>
-      <c r="Q23" s="616" t="s">
+      <c r="O23" s="670"/>
+      <c r="Q23" s="672" t="s">
         <v>145</v>
       </c>
       <c r="T23" s="17"/>
       <c r="U23" s="441" t="s">
         <v>44</v>
       </c>
-      <c r="V23" s="652"/>
+      <c r="V23" s="601"/>
       <c r="W23" s="148"/>
       <c r="X23" s="450" t="s">
         <v>189</v>
       </c>
-      <c r="Y23" s="649"/>
+      <c r="Y23" s="645"/>
       <c r="Z23" s="17"/>
       <c r="AA23" s="10"/>
       <c r="AB23" s="436"/>
@@ -8328,13 +8328,13 @@
       <c r="AG23" s="6"/>
       <c r="AH23" s="6"/>
       <c r="AI23" s="6"/>
-      <c r="AJ23" s="621"/>
+      <c r="AJ23" s="641"/>
       <c r="AK23" s="261"/>
       <c r="AL23" s="80" t="s">
         <v>516</v>
       </c>
       <c r="AM23" s="305"/>
-      <c r="AN23" s="632"/>
+      <c r="AN23" s="627"/>
     </row>
     <row r="24" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="461" t="s">
@@ -8352,23 +8352,23 @@
       <c r="E24" s="457">
         <v>1</v>
       </c>
-      <c r="F24" s="611"/>
+      <c r="F24" s="632"/>
       <c r="G24" s="61" t="s">
         <v>499</v>
       </c>
       <c r="I24" s="223"/>
-      <c r="O24" s="614"/>
-      <c r="Q24" s="617"/>
+      <c r="O24" s="670"/>
+      <c r="Q24" s="673"/>
       <c r="T24" s="17"/>
       <c r="U24" s="231" t="s">
         <v>44</v>
       </c>
-      <c r="V24" s="652"/>
+      <c r="V24" s="601"/>
       <c r="W24" s="148"/>
       <c r="X24" s="450" t="s">
         <v>186</v>
       </c>
-      <c r="Y24" s="649"/>
+      <c r="Y24" s="645"/>
       <c r="Z24" s="17"/>
       <c r="AA24" s="10"/>
       <c r="AB24" s="436"/>
@@ -8387,12 +8387,12 @@
         <v>472</v>
       </c>
       <c r="AM24" s="305"/>
-      <c r="AN24" s="632"/>
+      <c r="AN24" s="627"/>
     </row>
     <row r="25" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F25" s="611"/>
+      <c r="F25" s="632"/>
       <c r="I25" s="223"/>
-      <c r="O25" s="614"/>
+      <c r="O25" s="670"/>
       <c r="P25" s="208" t="s">
         <v>284</v>
       </c>
@@ -8405,12 +8405,12 @@
       <c r="U25" s="421" t="s">
         <v>44</v>
       </c>
-      <c r="V25" s="653"/>
+      <c r="V25" s="602"/>
       <c r="W25" s="148"/>
       <c r="X25" s="450" t="s">
         <v>190</v>
       </c>
-      <c r="Y25" s="649"/>
+      <c r="Y25" s="645"/>
       <c r="Z25" s="17"/>
       <c r="AA25" s="10"/>
       <c r="AB25" s="436"/>
@@ -8427,7 +8427,7 @@
       <c r="AK25" s="142"/>
       <c r="AL25" s="6"/>
       <c r="AM25" s="305"/>
-      <c r="AN25" s="632"/>
+      <c r="AN25" s="627"/>
     </row>
     <row r="26" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="235" t="s">
@@ -8445,17 +8445,17 @@
       <c r="E26" s="395">
         <v>1</v>
       </c>
-      <c r="F26" s="611"/>
+      <c r="F26" s="632"/>
       <c r="G26" s="346" t="s">
         <v>496</v>
       </c>
       <c r="I26" s="223"/>
-      <c r="O26" s="614"/>
-      <c r="P26" s="634" t="s">
+      <c r="O26" s="670"/>
+      <c r="P26" s="629" t="s">
         <v>536</v>
       </c>
-      <c r="Q26" s="635"/>
-      <c r="R26" s="608" t="s">
+      <c r="Q26" s="630"/>
+      <c r="R26" s="666" t="s">
         <v>545</v>
       </c>
       <c r="T26" s="182"/>
@@ -8467,7 +8467,7 @@
       <c r="X26" s="450" t="s">
         <v>182</v>
       </c>
-      <c r="Y26" s="649"/>
+      <c r="Y26" s="645"/>
       <c r="Z26" s="17"/>
       <c r="AA26" s="10"/>
       <c r="AB26" s="436"/>
@@ -8494,7 +8494,7 @@
       <c r="AM26" s="463" t="s">
         <v>465</v>
       </c>
-      <c r="AN26" s="632"/>
+      <c r="AN26" s="627"/>
     </row>
     <row r="27" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B27" s="21" t="s">
@@ -8506,13 +8506,13 @@
       <c r="E27" s="270" t="s">
         <v>44</v>
       </c>
-      <c r="F27" s="612"/>
+      <c r="F27" s="668"/>
       <c r="G27" s="61" t="s">
         <v>554</v>
       </c>
       <c r="I27" s="224"/>
-      <c r="O27" s="615"/>
-      <c r="R27" s="609"/>
+      <c r="O27" s="671"/>
+      <c r="R27" s="667"/>
       <c r="S27" s="442" t="s">
         <v>54</v>
       </c>
@@ -8525,7 +8525,7 @@
       <c r="X27" s="450" t="s">
         <v>540</v>
       </c>
-      <c r="Y27" s="650"/>
+      <c r="Y27" s="646"/>
       <c r="Z27" s="163"/>
       <c r="AA27" s="13"/>
       <c r="AB27" s="437"/>
@@ -8542,10 +8542,48 @@
       <c r="AM27" s="397" t="s">
         <v>325</v>
       </c>
-      <c r="AN27" s="633"/>
+      <c r="AN27" s="628"/>
     </row>
   </sheetData>
   <mergeCells count="54">
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="R18:R19"/>
+    <mergeCell ref="R26:R27"/>
+    <mergeCell ref="F2:F27"/>
+    <mergeCell ref="O10:O27"/>
+    <mergeCell ref="Q20:Q21"/>
+    <mergeCell ref="Q23:Q24"/>
+    <mergeCell ref="G14:J14"/>
+    <mergeCell ref="G13:J13"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="AI6:AI10"/>
+    <mergeCell ref="AF12:AF15"/>
+    <mergeCell ref="AG7:AG12"/>
+    <mergeCell ref="L8:L9"/>
+    <mergeCell ref="S9:S12"/>
+    <mergeCell ref="N8:N9"/>
+    <mergeCell ref="AD12:AD15"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="AN1:AN27"/>
+    <mergeCell ref="P26:Q26"/>
+    <mergeCell ref="Q2:Q3"/>
+    <mergeCell ref="M2:M9"/>
+    <mergeCell ref="O2:O9"/>
+    <mergeCell ref="P10:P13"/>
+    <mergeCell ref="AK6:AK7"/>
+    <mergeCell ref="AM12:AM15"/>
+    <mergeCell ref="AF18:AF19"/>
+    <mergeCell ref="AJ18:AJ19"/>
+    <mergeCell ref="Y1:Y27"/>
+    <mergeCell ref="AJ22:AJ23"/>
+    <mergeCell ref="AK9:AK10"/>
+    <mergeCell ref="AD3:AD4"/>
+    <mergeCell ref="S2:S3"/>
+    <mergeCell ref="R2:R3"/>
     <mergeCell ref="V21:V25"/>
     <mergeCell ref="U18:U20"/>
     <mergeCell ref="C2:C3"/>
@@ -8562,44 +8600,6 @@
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="B4:B5"/>
-    <mergeCell ref="AN1:AN27"/>
-    <mergeCell ref="P26:Q26"/>
-    <mergeCell ref="Q2:Q3"/>
-    <mergeCell ref="M2:M9"/>
-    <mergeCell ref="O2:O9"/>
-    <mergeCell ref="P10:P13"/>
-    <mergeCell ref="AK6:AK7"/>
-    <mergeCell ref="AM12:AM15"/>
-    <mergeCell ref="AF18:AF19"/>
-    <mergeCell ref="AJ18:AJ19"/>
-    <mergeCell ref="Y1:Y27"/>
-    <mergeCell ref="AJ22:AJ23"/>
-    <mergeCell ref="AK9:AK10"/>
-    <mergeCell ref="AD3:AD4"/>
-    <mergeCell ref="S2:S3"/>
-    <mergeCell ref="R2:R3"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="AI6:AI10"/>
-    <mergeCell ref="AF12:AF15"/>
-    <mergeCell ref="AG7:AG12"/>
-    <mergeCell ref="L8:L9"/>
-    <mergeCell ref="S9:S12"/>
-    <mergeCell ref="N8:N9"/>
-    <mergeCell ref="AD12:AD15"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="R18:R19"/>
-    <mergeCell ref="R26:R27"/>
-    <mergeCell ref="F2:F27"/>
-    <mergeCell ref="O10:O27"/>
-    <mergeCell ref="Q20:Q21"/>
-    <mergeCell ref="Q23:Q24"/>
-    <mergeCell ref="G14:J14"/>
-    <mergeCell ref="G13:J13"/>
-    <mergeCell ref="H12:K12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8636,12 +8636,12 @@
       <c r="B1" s="594" t="s">
         <v>316</v>
       </c>
-      <c r="C1" s="618"/>
+      <c r="C1" s="674"/>
       <c r="D1" s="208"/>
       <c r="J1" s="594" t="s">
         <v>70</v>
       </c>
-      <c r="K1" s="618"/>
+      <c r="K1" s="674"/>
       <c r="L1" s="199" t="s">
         <v>336</v>
       </c>
@@ -8975,8 +8975,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB54FD83-008D-4F8B-87AC-83E7F70047CB}">
   <dimension ref="A1:AK31"/>
   <sheetViews>
-    <sheetView topLeftCell="N12" workbookViewId="0">
-      <selection activeCell="X28" sqref="X28"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="AH17" sqref="AH17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9043,7 +9043,7 @@
       <c r="P1" s="419" t="s">
         <v>404</v>
       </c>
-      <c r="Q1" s="684" t="s">
+      <c r="Q1" s="697" t="s">
         <v>181</v>
       </c>
       <c r="R1" s="100" t="s">
@@ -9067,7 +9067,7 @@
       <c r="AA1" s="546" t="s">
         <v>446</v>
       </c>
-      <c r="AB1" s="691" t="s">
+      <c r="AB1" s="704" t="s">
         <v>608</v>
       </c>
       <c r="AC1" s="99" t="s">
@@ -9088,32 +9088,32 @@
       </c>
     </row>
     <row r="2" spans="1:37" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="697">
+      <c r="A2" s="684">
         <f ca="1">TODAY()</f>
         <v>45282</v>
       </c>
-      <c r="B2" s="699" t="s">
+      <c r="B2" s="686" t="s">
         <v>386</v>
       </c>
-      <c r="C2" s="636" t="s">
+      <c r="C2" s="606" t="s">
         <v>363</v>
       </c>
-      <c r="D2" s="701" t="s">
+      <c r="D2" s="688" t="s">
         <v>103</v>
       </c>
-      <c r="E2" s="703" t="s">
+      <c r="E2" s="690" t="s">
         <v>65</v>
       </c>
       <c r="F2" s="195" t="s">
         <v>220</v>
       </c>
-      <c r="G2" s="604" t="s">
+      <c r="G2" s="650" t="s">
         <v>378</v>
       </c>
       <c r="H2" s="210" t="s">
         <v>220</v>
       </c>
-      <c r="I2" s="688" t="s">
+      <c r="I2" s="701" t="s">
         <v>103</v>
       </c>
       <c r="J2" s="417" t="s">
@@ -9137,14 +9137,14 @@
       <c r="P2" s="420">
         <v>40</v>
       </c>
-      <c r="Q2" s="685"/>
+      <c r="Q2" s="698"/>
       <c r="R2" s="21">
         <f>R7+R20</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S2" s="21">
         <f>S7+S20</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T2" s="176">
         <f>SUM(T4:T16)</f>
@@ -9162,7 +9162,7 @@
         <f>IF((Z2+T2)&gt;0,0,-1)</f>
         <v>0</v>
       </c>
-      <c r="AB2" s="692"/>
+      <c r="AB2" s="705"/>
       <c r="AC2" s="35"/>
       <c r="AH2" s="6" t="s">
         <v>617</v>
@@ -9178,14 +9178,14 @@
       </c>
     </row>
     <row r="3" spans="1:37" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="698"/>
-      <c r="B3" s="700"/>
-      <c r="C3" s="637"/>
-      <c r="D3" s="702"/>
-      <c r="E3" s="704"/>
-      <c r="G3" s="605"/>
+      <c r="A3" s="685"/>
+      <c r="B3" s="687"/>
+      <c r="C3" s="607"/>
+      <c r="D3" s="689"/>
+      <c r="E3" s="691"/>
+      <c r="G3" s="651"/>
       <c r="H3" s="6"/>
-      <c r="I3" s="689"/>
+      <c r="I3" s="702"/>
       <c r="K3" s="24">
         <v>2</v>
       </c>
@@ -9200,7 +9200,7 @@
       <c r="V3" s="492"/>
       <c r="W3" s="6"/>
       <c r="X3" s="492"/>
-      <c r="AB3" s="692"/>
+      <c r="AB3" s="705"/>
       <c r="AC3" s="35"/>
       <c r="AE3" s="100" t="s">
         <v>603</v>
@@ -9228,10 +9228,10 @@
         <v>387</v>
       </c>
       <c r="B4" s="247"/>
-      <c r="C4" s="705" t="s">
+      <c r="C4" s="692" t="s">
         <v>178</v>
       </c>
-      <c r="I4" s="689"/>
+      <c r="I4" s="702"/>
       <c r="R4" s="493" t="s">
         <v>603</v>
       </c>
@@ -9243,7 +9243,7 @@
       <c r="V4" s="492"/>
       <c r="W4" s="6"/>
       <c r="X4" s="492"/>
-      <c r="AB4" s="692"/>
+      <c r="AB4" s="705"/>
       <c r="AC4" s="35"/>
       <c r="AE4" s="20"/>
       <c r="AF4" s="100" t="s">
@@ -9273,7 +9273,7 @@
       <c r="B5" s="100" t="s">
         <v>363</v>
       </c>
-      <c r="C5" s="706"/>
+      <c r="C5" s="693"/>
       <c r="D5" s="226" t="s">
         <v>103</v>
       </c>
@@ -9289,7 +9289,7 @@
       <c r="H5" s="210" t="s">
         <v>220</v>
       </c>
-      <c r="I5" s="689"/>
+      <c r="I5" s="702"/>
       <c r="J5" s="418" t="s">
         <v>272</v>
       </c>
@@ -9316,7 +9316,7 @@
       <c r="V5" s="490"/>
       <c r="W5" s="6"/>
       <c r="X5" s="490"/>
-      <c r="AB5" s="692"/>
+      <c r="AB5" s="705"/>
       <c r="AC5" s="2" t="s">
         <v>606</v>
       </c>
@@ -9329,31 +9329,31 @@
       <c r="AK5" s="490"/>
     </row>
     <row r="6" spans="1:37" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="694" t="s">
+      <c r="A6" s="681" t="s">
         <v>289</v>
       </c>
       <c r="B6" s="105" t="s">
         <v>199</v>
       </c>
-      <c r="C6" s="619"/>
-      <c r="D6" s="620"/>
+      <c r="C6" s="652"/>
+      <c r="D6" s="653"/>
       <c r="E6" s="96">
         <v>1</v>
       </c>
       <c r="G6" s="590"/>
-      <c r="I6" s="689"/>
+      <c r="I6" s="702"/>
       <c r="P6" s="61" t="s">
         <v>606</v>
       </c>
       <c r="R6" s="64">
         <f>R7-SUM(X2:X10)+R11</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S6" s="64">
         <f>S7-S12-SUM(V2:V10)</f>
         <v>0</v>
       </c>
-      <c r="AB6" s="692"/>
+      <c r="AB6" s="705"/>
       <c r="AC6" s="35"/>
       <c r="AE6" s="64">
         <f>AE7-SUM(AI1:AI10)+AE11</f>
@@ -9361,14 +9361,14 @@
       </c>
       <c r="AF6" s="64">
         <f>AF7-SUM(AK2:AK10)+AF11</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AI6" s="112"/>
       <c r="AJ6" s="6"/>
       <c r="AK6" s="554"/>
     </row>
     <row r="7" spans="1:37" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="695"/>
+      <c r="A7" s="682"/>
       <c r="B7" s="100" t="s">
         <v>155</v>
       </c>
@@ -9379,7 +9379,7 @@
         <v>136</v>
       </c>
       <c r="G7" s="590"/>
-      <c r="I7" s="689"/>
+      <c r="I7" s="702"/>
       <c r="M7" s="16" t="s">
         <v>353</v>
       </c>
@@ -9397,21 +9397,21 @@
       </c>
       <c r="R7" s="24">
         <f>3-R11</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S7" s="24">
         <f>3-S11</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U7" s="6"/>
       <c r="V7" s="491"/>
       <c r="W7" s="6" t="s">
-        <v>518</v>
+        <v>483</v>
       </c>
       <c r="X7" s="491">
         <v>1</v>
       </c>
-      <c r="AB7" s="692"/>
+      <c r="AB7" s="705"/>
       <c r="AC7" s="99" t="s">
         <v>607</v>
       </c>
@@ -9424,7 +9424,7 @@
       </c>
       <c r="AF7" s="300">
         <f>8-AF11</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AH7" s="6" t="s">
         <v>246</v>
@@ -9436,7 +9436,7 @@
       <c r="AK7" s="491"/>
     </row>
     <row r="8" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="696"/>
+      <c r="A8" s="683"/>
       <c r="B8" s="216" t="s">
         <v>28</v>
       </c>
@@ -9445,13 +9445,21 @@
         <v>3</v>
       </c>
       <c r="G8" s="590"/>
-      <c r="I8" s="689"/>
+      <c r="I8" s="702"/>
       <c r="N8" s="80"/>
-      <c r="U8" s="6"/>
-      <c r="V8" s="24"/>
-      <c r="W8" s="6"/>
-      <c r="X8" s="489"/>
-      <c r="AB8" s="692"/>
+      <c r="U8" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="V8" s="24">
+        <v>1</v>
+      </c>
+      <c r="W8" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="X8" s="492">
+        <v>1</v>
+      </c>
+      <c r="AB8" s="705"/>
       <c r="AC8" s="544"/>
       <c r="AH8" s="6"/>
       <c r="AI8" s="578"/>
@@ -9477,7 +9485,7 @@
       </c>
       <c r="G9" s="590"/>
       <c r="H9" s="6"/>
-      <c r="I9" s="689"/>
+      <c r="I9" s="702"/>
       <c r="M9" s="19" t="s">
         <v>535</v>
       </c>
@@ -9485,7 +9493,7 @@
       <c r="U9" s="6"/>
       <c r="V9" s="24"/>
       <c r="X9" s="489"/>
-      <c r="AB9" s="692"/>
+      <c r="AB9" s="705"/>
       <c r="AC9" s="544"/>
       <c r="AE9" s="20"/>
       <c r="AF9" s="20"/>
@@ -9516,7 +9524,7 @@
         <v>37</v>
       </c>
       <c r="G10" s="590"/>
-      <c r="I10" s="689"/>
+      <c r="I10" s="702"/>
       <c r="J10" s="24" t="s">
         <v>378</v>
       </c>
@@ -9531,7 +9539,7 @@
       <c r="V10" s="492"/>
       <c r="W10" s="6"/>
       <c r="X10" s="489"/>
-      <c r="AB10" s="692"/>
+      <c r="AB10" s="705"/>
       <c r="AC10" s="544"/>
       <c r="AE10" s="20"/>
       <c r="AF10" s="20"/>
@@ -9541,12 +9549,8 @@
       <c r="AI10" s="579">
         <v>2</v>
       </c>
-      <c r="AJ10" s="6" t="s">
-        <v>253</v>
-      </c>
-      <c r="AK10" s="492">
-        <v>1</v>
-      </c>
+      <c r="AJ10" s="6"/>
+      <c r="AK10" s="492"/>
     </row>
     <row r="11" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="99" t="s">
@@ -9562,7 +9566,7 @@
         <v>269</v>
       </c>
       <c r="G11" s="590"/>
-      <c r="I11" s="689"/>
+      <c r="I11" s="702"/>
       <c r="J11" s="24" t="s">
         <v>195</v>
       </c>
@@ -9583,18 +9587,18 @@
         <v>44</v>
       </c>
       <c r="R11" s="24">
+        <v>1</v>
+      </c>
+      <c r="S11" s="24">
         <v>2</v>
       </c>
-      <c r="S11" s="24">
-        <v>3</v>
-      </c>
-      <c r="U11" s="681" t="s">
+      <c r="U11" s="694" t="s">
         <v>569</v>
       </c>
-      <c r="V11" s="682"/>
-      <c r="W11" s="682"/>
-      <c r="X11" s="683"/>
-      <c r="AB11" s="693"/>
+      <c r="V11" s="695"/>
+      <c r="W11" s="695"/>
+      <c r="X11" s="696"/>
+      <c r="AB11" s="706"/>
       <c r="AC11" s="99" t="s">
         <v>609</v>
       </c>
@@ -9605,15 +9609,15 @@
         <v>1</v>
       </c>
       <c r="AF11" s="24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AG11" s="435"/>
-      <c r="AH11" s="681" t="s">
+      <c r="AH11" s="694" t="s">
         <v>628</v>
       </c>
-      <c r="AI11" s="682"/>
-      <c r="AJ11" s="682"/>
-      <c r="AK11" s="683"/>
+      <c r="AI11" s="695"/>
+      <c r="AJ11" s="695"/>
+      <c r="AK11" s="696"/>
     </row>
     <row r="12" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="231" t="s">
@@ -9624,7 +9628,7 @@
         <v>3</v>
       </c>
       <c r="G12" s="590"/>
-      <c r="I12" s="689"/>
+      <c r="I12" s="702"/>
       <c r="J12" s="24" t="s">
         <v>526</v>
       </c>
@@ -9657,7 +9661,7 @@
       </c>
       <c r="D13" s="20"/>
       <c r="G13" s="590"/>
-      <c r="I13" s="689"/>
+      <c r="I13" s="702"/>
       <c r="J13" s="108" t="s">
         <v>559</v>
       </c>
@@ -9701,7 +9705,7 @@
       <c r="H14" s="210" t="s">
         <v>220</v>
       </c>
-      <c r="I14" s="689"/>
+      <c r="I14" s="702"/>
       <c r="U14" s="67" t="s">
         <v>81</v>
       </c>
@@ -9728,7 +9732,7 @@
       <c r="H15" s="276">
         <v>0</v>
       </c>
-      <c r="I15" s="689"/>
+      <c r="I15" s="702"/>
       <c r="J15" s="108" t="s">
         <v>154</v>
       </c>
@@ -9759,7 +9763,7 @@
       <c r="D16" s="2" t="s">
         <v>501</v>
       </c>
-      <c r="I16" s="689"/>
+      <c r="I16" s="702"/>
       <c r="K16" s="100" t="s">
         <v>44</v>
       </c>
@@ -9803,7 +9807,7 @@
       <c r="G17" s="2" t="s">
         <v>432</v>
       </c>
-      <c r="I17" s="689"/>
+      <c r="I17" s="702"/>
       <c r="L17" s="2" t="s">
         <v>435</v>
       </c>
@@ -9821,13 +9825,13 @@
     </row>
     <row r="18" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G18" s="16"/>
-      <c r="I18" s="689"/>
+      <c r="I18" s="702"/>
       <c r="L18" s="16"/>
       <c r="M18" s="21"/>
-      <c r="O18" s="686" t="s">
+      <c r="O18" s="699" t="s">
         <v>527</v>
       </c>
-      <c r="P18" s="687"/>
+      <c r="P18" s="700"/>
       <c r="Q18" s="127" t="s">
         <v>44</v>
       </c>
@@ -9853,7 +9857,7 @@
       </c>
     </row>
     <row r="19" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I19" s="689"/>
+      <c r="I19" s="702"/>
       <c r="M19" s="21" t="s">
         <v>434</v>
       </c>
@@ -9889,7 +9893,7 @@
       <c r="G20" s="2" t="s">
         <v>432</v>
       </c>
-      <c r="I20" s="689"/>
+      <c r="I20" s="702"/>
       <c r="K20" s="19" t="s">
         <v>431</v>
       </c>
@@ -9924,7 +9928,7 @@
       </c>
     </row>
     <row r="21" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I21" s="689"/>
+      <c r="I21" s="702"/>
       <c r="M21" s="220" t="s">
         <v>418</v>
       </c>
@@ -9958,7 +9962,7 @@
       <c r="G22" s="2" t="s">
         <v>432</v>
       </c>
-      <c r="I22" s="689"/>
+      <c r="I22" s="702"/>
       <c r="P22" s="99" t="s">
         <v>605</v>
       </c>
@@ -9973,7 +9977,7 @@
       <c r="E23" s="288" t="s">
         <v>44</v>
       </c>
-      <c r="I23" s="689"/>
+      <c r="I23" s="702"/>
       <c r="Q23" s="24">
         <f>SUM(V23:V31)</f>
         <v>5</v>
@@ -9990,7 +9994,7 @@
       </c>
     </row>
     <row r="24" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I24" s="689"/>
+      <c r="I24" s="702"/>
       <c r="U24" s="35"/>
       <c r="V24" s="533">
         <v>0</v>
@@ -10018,7 +10022,7 @@
       <c r="H25" s="195" t="s">
         <v>270</v>
       </c>
-      <c r="I25" s="689"/>
+      <c r="I25" s="702"/>
       <c r="J25" s="418" t="s">
         <v>273</v>
       </c>
@@ -10063,7 +10067,7 @@
       <c r="H26" s="19" t="s">
         <v>220</v>
       </c>
-      <c r="I26" s="689"/>
+      <c r="I26" s="702"/>
       <c r="K26" s="24">
         <v>15</v>
       </c>
@@ -10098,7 +10102,7 @@
       </c>
     </row>
     <row r="27" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I27" s="689"/>
+      <c r="I27" s="702"/>
       <c r="O27" s="2" t="s">
         <v>99</v>
       </c>
@@ -10125,7 +10129,7 @@
       <c r="E28" s="219">
         <v>2</v>
       </c>
-      <c r="I28" s="689"/>
+      <c r="I28" s="702"/>
       <c r="Q28" s="6"/>
       <c r="R28" s="112"/>
       <c r="T28" s="142"/>
@@ -10147,7 +10151,7 @@
       <c r="H29" s="195" t="s">
         <v>271</v>
       </c>
-      <c r="I29" s="690"/>
+      <c r="I29" s="703"/>
       <c r="J29" s="330"/>
       <c r="L29" s="96" t="s">
         <v>277</v>
@@ -10205,6 +10209,12 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="AH11:AK11"/>
+    <mergeCell ref="Q1:Q2"/>
+    <mergeCell ref="U11:X11"/>
+    <mergeCell ref="O18:P18"/>
+    <mergeCell ref="I2:I29"/>
+    <mergeCell ref="AB1:AB11"/>
     <mergeCell ref="C13:C14"/>
     <mergeCell ref="A6:A8"/>
     <mergeCell ref="G5:G14"/>
@@ -10217,12 +10227,6 @@
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="G2:G3"/>
     <mergeCell ref="C2:C3"/>
-    <mergeCell ref="AH11:AK11"/>
-    <mergeCell ref="Q1:Q2"/>
-    <mergeCell ref="U11:X11"/>
-    <mergeCell ref="O18:P18"/>
-    <mergeCell ref="I2:I29"/>
-    <mergeCell ref="AB1:AB11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10232,8 +10236,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2029A93E-B53C-4201-9F17-439C144F3CF1}">
   <dimension ref="A1:AP37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="AP11" sqref="AP11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10329,14 +10333,14 @@
         <f ca="1">TODAY()</f>
         <v>45282</v>
       </c>
-      <c r="T1" s="726"/>
+      <c r="T1" s="730"/>
       <c r="U1" s="142"/>
       <c r="V1" s="142"/>
       <c r="W1" s="6"/>
-      <c r="X1" s="710" t="s">
+      <c r="X1" s="714" t="s">
         <v>450</v>
       </c>
-      <c r="Y1" s="711"/>
+      <c r="Y1" s="715"/>
       <c r="Z1" s="311">
         <f>68-(W8+Y3+X3+U3)</f>
         <v>0</v>
@@ -10352,21 +10356,21 @@
       <c r="AD1" s="307" t="s">
         <v>44</v>
       </c>
-      <c r="AE1" s="712" t="s">
+      <c r="AE1" s="716" t="s">
         <v>191</v>
       </c>
-      <c r="AF1" s="713"/>
-      <c r="AG1" s="714"/>
-      <c r="AH1" s="715" t="s">
+      <c r="AF1" s="717"/>
+      <c r="AG1" s="718"/>
+      <c r="AH1" s="719" t="s">
         <v>297</v>
       </c>
-      <c r="AI1" s="716"/>
-      <c r="AJ1" s="717"/>
-      <c r="AK1" s="707" t="s">
+      <c r="AI1" s="720"/>
+      <c r="AJ1" s="721"/>
+      <c r="AK1" s="711" t="s">
         <v>453</v>
       </c>
-      <c r="AL1" s="708"/>
-      <c r="AM1" s="709"/>
+      <c r="AL1" s="712"/>
+      <c r="AM1" s="713"/>
       <c r="AP1" s="142"/>
     </row>
     <row r="2" spans="1:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10379,7 +10383,7 @@
       </c>
       <c r="I2" s="531">
         <f>B31-SUM(I4:I37)</f>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="K2" s="16" t="s">
         <v>235</v>
@@ -10387,19 +10391,19 @@
       <c r="L2" s="324">
         <v>-3</v>
       </c>
-      <c r="M2" s="718">
+      <c r="M2" s="722">
         <f>SUM(M5:M30)</f>
-        <v>1</v>
-      </c>
-      <c r="N2" s="720">
+        <v>2</v>
+      </c>
+      <c r="N2" s="724">
         <f>SUM(N4:N29)</f>
         <v>10</v>
       </c>
-      <c r="O2" s="722">
+      <c r="O2" s="726">
         <f>SUM(O4:O29)</f>
-        <v>9</v>
-      </c>
-      <c r="P2" s="628">
+        <v>11</v>
+      </c>
+      <c r="P2" s="657">
         <f>SUM(N30:N37)* (-1)</f>
         <v>-3</v>
       </c>
@@ -10412,14 +10416,14 @@
       <c r="S2" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="T2" s="727"/>
+      <c r="T2" s="731"/>
       <c r="U2" s="566" t="s">
         <v>266</v>
       </c>
       <c r="V2" s="505" t="s">
         <v>221</v>
       </c>
-      <c r="W2" s="724" t="s">
+      <c r="W2" s="728" t="s">
         <v>238</v>
       </c>
       <c r="X2" s="506" t="s">
@@ -10488,10 +10492,10 @@
         <f>V3+X3+Y3+U3</f>
         <v>68</v>
       </c>
-      <c r="M3" s="719"/>
-      <c r="N3" s="721"/>
-      <c r="O3" s="723"/>
-      <c r="P3" s="629"/>
+      <c r="M3" s="723"/>
+      <c r="N3" s="725"/>
+      <c r="O3" s="727"/>
+      <c r="P3" s="658"/>
       <c r="Q3" s="176">
         <f>(M2+N2)-Y3</f>
         <v>0</v>
@@ -10499,23 +10503,23 @@
       <c r="S3" s="161" t="s">
         <v>248</v>
       </c>
-      <c r="T3" s="728"/>
+      <c r="T3" s="732"/>
       <c r="U3" s="567">
         <f>SUM(U4:U29)</f>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="V3" s="507">
         <f>SUM(V4:V29)</f>
         <v>37</v>
       </c>
-      <c r="W3" s="725"/>
+      <c r="W3" s="729"/>
       <c r="X3" s="508">
         <f t="shared" ref="X3:AC3" si="0">SUM(X4:X29)</f>
         <v>8</v>
       </c>
       <c r="Y3" s="508">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Z3" s="59">
         <f t="shared" si="0"/>
@@ -10523,15 +10527,15 @@
       </c>
       <c r="AA3" s="66">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AB3" s="66">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AC3" s="66">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AD3" s="66">
         <f t="shared" ref="AD3:AM3" si="1">SUM(AD4:AD29)</f>
@@ -10539,7 +10543,7 @@
       </c>
       <c r="AE3" s="66">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AF3" s="66">
         <f t="shared" si="1"/>
@@ -10551,7 +10555,7 @@
       </c>
       <c r="AH3" s="66">
         <f>SUM(AH4:AH29)</f>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AI3" s="383">
         <f t="shared" si="1"/>
@@ -10559,19 +10563,19 @@
       </c>
       <c r="AJ3" s="100">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AK3" s="100">
         <f t="shared" si="1"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AL3" s="316">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AM3" s="317">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AP3" s="142"/>
     </row>
@@ -10608,7 +10612,7 @@
         <f>AC4</f>
         <v>0</v>
       </c>
-      <c r="P4" s="730" t="s">
+      <c r="P4" s="708" t="s">
         <v>200</v>
       </c>
       <c r="Q4" s="20"/>
@@ -10690,7 +10694,7 @@
         <f>AC5</f>
         <v>0</v>
       </c>
-      <c r="P5" s="731"/>
+      <c r="P5" s="709"/>
       <c r="Q5" s="20"/>
       <c r="R5" s="2" t="s">
         <v>346</v>
@@ -10766,6 +10770,9 @@
         <v>49</v>
       </c>
       <c r="G6" s="203"/>
+      <c r="I6" s="24">
+        <v>1</v>
+      </c>
       <c r="J6" s="112"/>
       <c r="L6" s="402" t="s">
         <v>311</v>
@@ -10778,9 +10785,9 @@
       </c>
       <c r="O6" s="298">
         <f>AC6</f>
-        <v>0</v>
-      </c>
-      <c r="P6" s="731"/>
+        <v>1</v>
+      </c>
+      <c r="P6" s="709"/>
       <c r="Q6" s="19" t="s">
         <v>341</v>
       </c>
@@ -10809,27 +10816,27 @@
       <c r="Z6" s="301"/>
       <c r="AA6" s="117">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB6" s="295">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC6" s="295">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD6" s="295">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AE6" s="299">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF6" s="305"/>
       <c r="AG6" s="301"/>
       <c r="AH6" s="301">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI6" s="345">
         <v>0</v>
@@ -10837,17 +10844,19 @@
       <c r="AJ6" s="158"/>
       <c r="AK6" s="313">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL6" s="314">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM6" s="315">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AN6" s="6"/>
+        <v>1</v>
+      </c>
+      <c r="AN6" s="6" t="s">
+        <v>483</v>
+      </c>
       <c r="AO6" s="533" t="s">
         <v>571</v>
       </c>
@@ -10878,7 +10887,7 @@
         <f t="shared" ref="O7:O37" si="10">AC7</f>
         <v>0</v>
       </c>
-      <c r="P7" s="731"/>
+      <c r="P7" s="709"/>
       <c r="Q7" s="20"/>
       <c r="R7" s="2" t="s">
         <v>341</v>
@@ -10990,7 +10999,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="P8" s="731"/>
+      <c r="P8" s="709"/>
       <c r="Q8" s="21" t="s">
         <v>237</v>
       </c>
@@ -11077,7 +11086,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="P9" s="731"/>
+      <c r="P9" s="709"/>
       <c r="Q9" s="21" t="s">
         <v>341</v>
       </c>
@@ -11179,7 +11188,7 @@
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="P10" s="731"/>
+      <c r="P10" s="709"/>
       <c r="Q10" s="20"/>
       <c r="R10" s="2" t="s">
         <v>346</v>
@@ -11265,7 +11274,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="P11" s="731"/>
+      <c r="P11" s="709"/>
       <c r="Q11" s="21" t="s">
         <v>341</v>
       </c>
@@ -11328,7 +11337,7 @@
       <c r="AP11" s="142"/>
     </row>
     <row r="12" spans="1:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="666" t="s">
+      <c r="A12" s="617" t="s">
         <v>55</v>
       </c>
       <c r="B12" s="30">
@@ -11337,7 +11346,7 @@
       <c r="C12" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="E12" s="616" t="s">
+      <c r="E12" s="672" t="s">
         <v>57</v>
       </c>
       <c r="G12" s="266"/>
@@ -11359,7 +11368,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="P12" s="731"/>
+      <c r="P12" s="709"/>
       <c r="Q12" s="21" t="s">
         <v>341</v>
       </c>
@@ -11434,14 +11443,14 @@
       </c>
     </row>
     <row r="13" spans="1:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="668"/>
+      <c r="A13" s="619"/>
       <c r="B13" s="153">
         <v>12</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="E13" s="617"/>
+      <c r="E13" s="673"/>
       <c r="F13" s="176">
         <v>0</v>
       </c>
@@ -11465,7 +11474,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="P13" s="731"/>
+      <c r="P13" s="709"/>
       <c r="Q13" s="21" t="s">
         <v>341</v>
       </c>
@@ -11545,7 +11554,7 @@
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="P14" s="731"/>
+      <c r="P14" s="709"/>
       <c r="Q14" s="20"/>
       <c r="R14" s="204" t="s">
         <v>345</v>
@@ -11644,7 +11653,7 @@
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="P15" s="731"/>
+      <c r="P15" s="709"/>
       <c r="Q15" s="20"/>
       <c r="R15" s="204" t="s">
         <v>345</v>
@@ -11734,7 +11743,7 @@
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="P16" s="731"/>
+      <c r="P16" s="709"/>
       <c r="Q16" s="21" t="s">
         <v>341</v>
       </c>
@@ -11836,7 +11845,7 @@
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="P17" s="731"/>
+      <c r="P17" s="709"/>
       <c r="Q17" s="20"/>
       <c r="R17" s="2" t="s">
         <v>347</v>
@@ -11935,7 +11944,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="P18" s="731"/>
+      <c r="P18" s="709"/>
       <c r="Q18" s="21" t="s">
         <v>341</v>
       </c>
@@ -12022,7 +12031,7 @@
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="P19" s="731"/>
+      <c r="P19" s="709"/>
       <c r="Q19" s="20"/>
       <c r="R19" s="2" t="s">
         <v>340</v>
@@ -12126,11 +12135,11 @@
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="P20" s="732"/>
+      <c r="P20" s="710"/>
       <c r="Q20" s="594" t="s">
         <v>341</v>
       </c>
-      <c r="R20" s="618"/>
+      <c r="R20" s="674"/>
       <c r="S20" s="563" t="s">
         <v>86</v>
       </c>
@@ -12376,7 +12385,7 @@
     </row>
     <row r="23" spans="1:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B23" s="24"/>
-      <c r="E23" s="673" t="s">
+      <c r="E23" s="624" t="s">
         <v>293</v>
       </c>
       <c r="F23" s="184"/>
@@ -12478,29 +12487,31 @@
       <c r="C24" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="E24" s="674"/>
+      <c r="E24" s="625"/>
       <c r="F24" s="176"/>
       <c r="H24" s="42">
         <v>-1</v>
       </c>
-      <c r="I24" s="582"/>
+      <c r="I24" s="42">
+        <v>2</v>
+      </c>
       <c r="L24" s="400" t="s">
         <v>300</v>
       </c>
       <c r="M24" s="333">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N24" s="107">
         <v>0</v>
       </c>
       <c r="O24" s="298">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q24" s="594" t="s">
         <v>341</v>
       </c>
-      <c r="R24" s="618"/>
+      <c r="R24" s="674"/>
       <c r="S24" s="563" t="s">
         <v>253</v>
       </c>
@@ -12508,7 +12519,7 @@
         <v>4</v>
       </c>
       <c r="U24" s="526">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V24" s="515">
         <v>2</v>
@@ -12519,25 +12530,27 @@
       <c r="X24" s="26"/>
       <c r="Y24" s="577">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z24" s="301"/>
       <c r="AA24" s="117">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB24" s="295">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AC24" s="295">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD24" s="295">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AE24" s="299"/>
+      <c r="AE24" s="299">
+        <v>1</v>
+      </c>
       <c r="AF24" s="107">
         <v>0</v>
       </c>
@@ -12546,21 +12559,23 @@
       </c>
       <c r="AH24" s="301">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI24" s="345"/>
-      <c r="AJ24" s="158"/>
+      <c r="AJ24" s="158">
+        <v>1</v>
+      </c>
       <c r="AK24" s="313">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL24" s="314">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM24" s="315">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN24" s="6" t="s">
         <v>518</v>
@@ -13127,10 +13142,10 @@
         <v>-1</v>
       </c>
       <c r="I32"/>
-      <c r="J32" s="669" t="s">
+      <c r="J32" s="620" t="s">
         <v>599</v>
       </c>
-      <c r="K32" s="729"/>
+      <c r="K32" s="707"/>
       <c r="L32" s="403"/>
       <c r="M32" s="537">
         <v>0</v>
@@ -13641,13 +13656,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="Q20:R20"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="Q24:R24"/>
-    <mergeCell ref="P4:P20"/>
     <mergeCell ref="AK1:AM1"/>
     <mergeCell ref="X1:Y1"/>
     <mergeCell ref="AE1:AG1"/>
@@ -13658,6 +13666,13 @@
     <mergeCell ref="P2:P3"/>
     <mergeCell ref="W2:W3"/>
     <mergeCell ref="T1:T3"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="Q20:R20"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="Q24:R24"/>
+    <mergeCell ref="P4:P20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -13725,7 +13740,7 @@
       <c r="V1" s="594" t="s">
         <v>71</v>
       </c>
-      <c r="W1" s="618"/>
+      <c r="W1" s="674"/>
       <c r="X1" s="62" t="s">
         <v>102</v>
       </c>
@@ -13744,7 +13759,7 @@
       <c r="AC1" s="116" t="s">
         <v>191</v>
       </c>
-      <c r="AD1" s="740" t="s">
+      <c r="AD1" s="747" t="s">
         <v>213</v>
       </c>
       <c r="AE1" s="116" t="s">
@@ -13761,10 +13776,10 @@
       <c r="E2" s="39" t="s">
         <v>74</v>
       </c>
-      <c r="F2" s="739" t="s">
+      <c r="F2" s="778" t="s">
         <v>75</v>
       </c>
-      <c r="G2" s="767" t="s">
+      <c r="G2" s="735" t="s">
         <v>44</v>
       </c>
       <c r="H2" s="40" t="s">
@@ -13792,10 +13807,10 @@
       <c r="U2" s="60" t="s">
         <v>106</v>
       </c>
-      <c r="V2" s="710" t="s">
+      <c r="V2" s="714" t="s">
         <v>121</v>
       </c>
-      <c r="W2" s="711"/>
+      <c r="W2" s="715"/>
       <c r="X2" s="64" t="s">
         <v>110</v>
       </c>
@@ -13814,7 +13829,7 @@
       <c r="AC2" s="117" t="s">
         <v>99</v>
       </c>
-      <c r="AD2" s="741"/>
+      <c r="AD2" s="748"/>
       <c r="AE2" s="64" t="s">
         <v>99</v>
       </c>
@@ -13833,8 +13848,8 @@
       <c r="E3" s="39" t="s">
         <v>80</v>
       </c>
-      <c r="F3" s="670"/>
-      <c r="G3" s="768"/>
+      <c r="F3" s="621"/>
+      <c r="G3" s="736"/>
       <c r="H3" s="40" t="s">
         <v>81</v>
       </c>
@@ -13845,13 +13860,13 @@
         <v>82</v>
       </c>
       <c r="N3" s="44"/>
-      <c r="O3" s="777" t="s">
+      <c r="O3" s="745" t="s">
         <v>44</v>
       </c>
-      <c r="P3" s="759" t="s">
+      <c r="P3" s="766" t="s">
         <v>219</v>
       </c>
-      <c r="Q3" s="760"/>
+      <c r="Q3" s="767"/>
       <c r="S3" s="57" t="s">
         <v>220</v>
       </c>
@@ -13861,15 +13876,15 @@
       <c r="W3" s="59" t="s">
         <v>105</v>
       </c>
-      <c r="AD3" s="741"/>
+      <c r="AD3" s="748"/>
     </row>
     <row r="4" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G4" s="768"/>
+      <c r="G4" s="736"/>
       <c r="H4" s="6"/>
       <c r="L4" s="678" t="s">
         <v>83</v>
       </c>
-      <c r="O4" s="778"/>
+      <c r="O4" s="746"/>
       <c r="T4" s="55" t="s">
         <v>98</v>
       </c>
@@ -13883,8 +13898,8 @@
         <v>195</v>
       </c>
       <c r="Z4" s="596"/>
-      <c r="AA4" s="618"/>
-      <c r="AD4" s="741"/>
+      <c r="AA4" s="674"/>
+      <c r="AD4" s="748"/>
     </row>
     <row r="5" spans="1:31" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C5" s="52" t="s">
@@ -13899,21 +13914,21 @@
       <c r="F5" s="66" t="s">
         <v>85</v>
       </c>
-      <c r="G5" s="768"/>
+      <c r="G5" s="736"/>
       <c r="H5" s="46" t="s">
         <v>76</v>
       </c>
-      <c r="K5" s="746" t="s">
+      <c r="K5" s="753" t="s">
         <v>217</v>
       </c>
-      <c r="L5" s="761"/>
+      <c r="L5" s="768"/>
       <c r="M5" s="2" t="s">
         <v>215</v>
       </c>
       <c r="N5" s="61" t="s">
         <v>214</v>
       </c>
-      <c r="O5" s="778"/>
+      <c r="O5" s="746"/>
       <c r="P5" s="108" t="s">
         <v>216</v>
       </c>
@@ -13929,11 +13944,11 @@
       <c r="U5" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="Y5" s="749" t="s">
+      <c r="Y5" s="756" t="s">
         <v>286</v>
       </c>
-      <c r="Z5" s="750"/>
-      <c r="AD5" s="741"/>
+      <c r="Z5" s="757"/>
+      <c r="AD5" s="748"/>
     </row>
     <row r="6" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C6" s="109"/>
@@ -13943,16 +13958,16 @@
       <c r="E6" s="45" t="s">
         <v>86</v>
       </c>
-      <c r="G6" s="768"/>
+      <c r="G6" s="736"/>
       <c r="H6" s="46" t="s">
         <v>81</v>
       </c>
       <c r="I6" s="23">
         <v>15</v>
       </c>
-      <c r="K6" s="747"/>
-      <c r="L6" s="761"/>
-      <c r="O6" s="778"/>
+      <c r="K6" s="754"/>
+      <c r="L6" s="768"/>
+      <c r="O6" s="746"/>
       <c r="T6" s="2" t="s">
         <v>101</v>
       </c>
@@ -13962,23 +13977,23 @@
       <c r="V6" s="21">
         <v>-1</v>
       </c>
-      <c r="AD6" s="741"/>
+      <c r="AD6" s="748"/>
     </row>
     <row r="7" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C7" s="110"/>
-      <c r="G7" s="768"/>
+      <c r="G7" s="736"/>
       <c r="H7" s="6"/>
-      <c r="K7" s="747"/>
-      <c r="L7" s="761"/>
+      <c r="K7" s="754"/>
+      <c r="L7" s="768"/>
       <c r="N7" s="21" t="s">
         <v>120</v>
       </c>
-      <c r="O7" s="778"/>
+      <c r="O7" s="746"/>
       <c r="P7" s="73"/>
       <c r="U7" s="104" t="s">
         <v>20</v>
       </c>
-      <c r="AD7" s="741"/>
+      <c r="AD7" s="748"/>
     </row>
     <row r="8" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C8" s="130"/>
@@ -13991,7 +14006,7 @@
       <c r="F8" s="66" t="s">
         <v>87</v>
       </c>
-      <c r="G8" s="768"/>
+      <c r="G8" s="736"/>
       <c r="H8" s="50" t="s">
         <v>76</v>
       </c>
@@ -14001,41 +14016,41 @@
       <c r="J8" s="111">
         <v>115</v>
       </c>
-      <c r="K8" s="747"/>
-      <c r="L8" s="761"/>
-      <c r="O8" s="778"/>
+      <c r="K8" s="754"/>
+      <c r="L8" s="768"/>
+      <c r="O8" s="746"/>
       <c r="P8" s="49"/>
-      <c r="S8" s="743" t="s">
+      <c r="S8" s="750" t="s">
         <v>212</v>
       </c>
-      <c r="T8" s="744"/>
-      <c r="U8" s="744"/>
-      <c r="V8" s="744"/>
-      <c r="W8" s="744"/>
-      <c r="X8" s="744"/>
-      <c r="Y8" s="744"/>
-      <c r="Z8" s="744"/>
-      <c r="AA8" s="744"/>
-      <c r="AB8" s="744"/>
-      <c r="AC8" s="745"/>
-      <c r="AD8" s="741"/>
+      <c r="T8" s="751"/>
+      <c r="U8" s="751"/>
+      <c r="V8" s="751"/>
+      <c r="W8" s="751"/>
+      <c r="X8" s="751"/>
+      <c r="Y8" s="751"/>
+      <c r="Z8" s="751"/>
+      <c r="AA8" s="751"/>
+      <c r="AB8" s="751"/>
+      <c r="AC8" s="752"/>
+      <c r="AD8" s="748"/>
     </row>
     <row r="9" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C9" s="733"/>
-      <c r="G9" s="768"/>
+      <c r="C9" s="772"/>
+      <c r="G9" s="736"/>
       <c r="H9" s="6"/>
-      <c r="K9" s="747"/>
-      <c r="L9" s="771" t="s">
+      <c r="K9" s="754"/>
+      <c r="L9" s="739" t="s">
         <v>218</v>
       </c>
-      <c r="M9" s="772"/>
-      <c r="N9" s="773"/>
-      <c r="O9" s="778"/>
+      <c r="M9" s="740"/>
+      <c r="N9" s="741"/>
+      <c r="O9" s="746"/>
       <c r="P9" s="75"/>
-      <c r="AD9" s="741"/>
+      <c r="AD9" s="748"/>
     </row>
     <row r="10" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C10" s="734"/>
+      <c r="C10" s="773"/>
       <c r="D10" s="23"/>
       <c r="E10" s="45" t="s">
         <v>88</v>
@@ -14043,7 +14058,7 @@
       <c r="F10" s="66" t="s">
         <v>89</v>
       </c>
-      <c r="G10" s="768"/>
+      <c r="G10" s="736"/>
       <c r="H10" s="51"/>
       <c r="I10" s="21" t="s">
         <v>81</v>
@@ -14051,33 +14066,33 @@
       <c r="J10" s="3">
         <v>15</v>
       </c>
-      <c r="K10" s="747"/>
-      <c r="M10" s="736" t="s">
+      <c r="K10" s="754"/>
+      <c r="M10" s="775" t="s">
         <v>90</v>
       </c>
-      <c r="N10" s="737"/>
-      <c r="O10" s="737"/>
-      <c r="P10" s="737"/>
-      <c r="Q10" s="737"/>
-      <c r="R10" s="737"/>
-      <c r="S10" s="737"/>
-      <c r="T10" s="737"/>
-      <c r="U10" s="737"/>
-      <c r="V10" s="737"/>
-      <c r="W10" s="737"/>
-      <c r="X10" s="737"/>
-      <c r="Y10" s="737"/>
-      <c r="Z10" s="737"/>
-      <c r="AA10" s="737"/>
-      <c r="AB10" s="737"/>
-      <c r="AC10" s="738"/>
-      <c r="AD10" s="741"/>
+      <c r="N10" s="776"/>
+      <c r="O10" s="776"/>
+      <c r="P10" s="776"/>
+      <c r="Q10" s="776"/>
+      <c r="R10" s="776"/>
+      <c r="S10" s="776"/>
+      <c r="T10" s="776"/>
+      <c r="U10" s="776"/>
+      <c r="V10" s="776"/>
+      <c r="W10" s="776"/>
+      <c r="X10" s="776"/>
+      <c r="Y10" s="776"/>
+      <c r="Z10" s="776"/>
+      <c r="AA10" s="776"/>
+      <c r="AB10" s="776"/>
+      <c r="AC10" s="777"/>
+      <c r="AD10" s="748"/>
     </row>
     <row r="11" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C11" s="735"/>
-      <c r="G11" s="768"/>
+      <c r="C11" s="774"/>
+      <c r="G11" s="736"/>
       <c r="H11" s="6"/>
-      <c r="K11" s="747"/>
+      <c r="K11" s="754"/>
       <c r="R11" s="52" t="s">
         <v>44</v>
       </c>
@@ -14085,17 +14100,17 @@
       <c r="Y11" s="68" t="s">
         <v>121</v>
       </c>
-      <c r="Z11" s="757" t="s">
+      <c r="Z11" s="764" t="s">
         <v>121</v>
       </c>
-      <c r="AA11" s="758"/>
+      <c r="AA11" s="765"/>
       <c r="AB11" s="52" t="s">
         <v>44</v>
       </c>
       <c r="AC11" s="118" t="s">
         <v>121</v>
       </c>
-      <c r="AD11" s="741"/>
+      <c r="AD11" s="748"/>
     </row>
     <row r="12" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C12" s="129"/>
@@ -14108,7 +14123,7 @@
       <c r="F12" s="66" t="s">
         <v>92</v>
       </c>
-      <c r="G12" s="768"/>
+      <c r="G12" s="736"/>
       <c r="H12" s="128"/>
       <c r="I12" s="19" t="s">
         <v>81</v>
@@ -14116,8 +14131,8 @@
       <c r="J12" s="3">
         <v>15</v>
       </c>
-      <c r="K12" s="747"/>
-      <c r="L12" s="762" t="s">
+      <c r="K12" s="754"/>
+      <c r="L12" s="769" t="s">
         <v>93</v>
       </c>
       <c r="M12" s="21" t="s">
@@ -14148,25 +14163,25 @@
         <v>116</v>
       </c>
       <c r="Y12" s="6"/>
-      <c r="AA12" s="751" t="s">
+      <c r="AA12" s="758" t="s">
         <v>126</v>
       </c>
-      <c r="AB12" s="752"/>
+      <c r="AB12" s="759"/>
       <c r="AC12" s="21" t="s">
         <v>232</v>
       </c>
-      <c r="AD12" s="741"/>
+      <c r="AD12" s="748"/>
     </row>
     <row r="13" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C13" s="733"/>
-      <c r="G13" s="768"/>
-      <c r="K13" s="747"/>
-      <c r="L13" s="763"/>
+      <c r="C13" s="772"/>
+      <c r="G13" s="736"/>
+      <c r="K13" s="754"/>
+      <c r="L13" s="770"/>
       <c r="M13" s="47"/>
-      <c r="Q13" s="770" t="s">
+      <c r="Q13" s="738" t="s">
         <v>210</v>
       </c>
-      <c r="R13" s="635"/>
+      <c r="R13" s="630"/>
       <c r="S13" s="590"/>
       <c r="T13" s="6"/>
       <c r="U13" s="96" t="s">
@@ -14175,17 +14190,17 @@
       <c r="X13" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="AA13" s="753"/>
-      <c r="AB13" s="754"/>
-      <c r="AD13" s="741"/>
+      <c r="AA13" s="760"/>
+      <c r="AB13" s="761"/>
+      <c r="AD13" s="748"/>
     </row>
     <row r="14" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="C14" s="735"/>
+      <c r="C14" s="774"/>
       <c r="D14" s="23"/>
-      <c r="G14" s="768"/>
+      <c r="G14" s="736"/>
       <c r="H14" s="125"/>
       <c r="I14" s="99" t="s">
         <v>44</v>
@@ -14193,8 +14208,8 @@
       <c r="J14" s="111">
         <v>115</v>
       </c>
-      <c r="K14" s="747"/>
-      <c r="L14" s="763"/>
+      <c r="K14" s="754"/>
+      <c r="L14" s="770"/>
       <c r="M14" s="21" t="s">
         <v>111</v>
       </c>
@@ -14215,9 +14230,9 @@
       <c r="Y14" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="AA14" s="753"/>
-      <c r="AB14" s="754"/>
-      <c r="AD14" s="741"/>
+      <c r="AA14" s="760"/>
+      <c r="AB14" s="761"/>
+      <c r="AD14" s="748"/>
     </row>
     <row r="15" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C15" s="130" t="s">
@@ -14232,19 +14247,19 @@
       <c r="F15" s="66" t="s">
         <v>94</v>
       </c>
-      <c r="G15" s="768"/>
+      <c r="G15" s="736"/>
       <c r="H15" s="2" t="s">
         <v>81</v>
       </c>
       <c r="I15" s="53" t="s">
         <v>81</v>
       </c>
-      <c r="K15" s="747"/>
-      <c r="L15" s="764"/>
-      <c r="Q15" s="770" t="s">
+      <c r="K15" s="754"/>
+      <c r="L15" s="771"/>
+      <c r="Q15" s="738" t="s">
         <v>211</v>
       </c>
-      <c r="R15" s="635"/>
+      <c r="R15" s="630"/>
       <c r="S15" s="590"/>
       <c r="T15" s="6"/>
       <c r="V15" s="68" t="s">
@@ -14253,14 +14268,14 @@
       <c r="X15" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="AA15" s="753"/>
-      <c r="AB15" s="754"/>
-      <c r="AD15" s="741"/>
+      <c r="AA15" s="760"/>
+      <c r="AB15" s="761"/>
+      <c r="AD15" s="748"/>
     </row>
     <row r="16" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C16" s="132"/>
-      <c r="G16" s="768"/>
-      <c r="K16" s="747"/>
+      <c r="G16" s="736"/>
+      <c r="K16" s="754"/>
       <c r="N16" s="47"/>
       <c r="O16" s="61" t="s">
         <v>109</v>
@@ -14279,24 +14294,24 @@
       <c r="Z16" s="76" t="s">
         <v>127</v>
       </c>
-      <c r="AA16" s="753"/>
-      <c r="AB16" s="754"/>
-      <c r="AD16" s="741"/>
+      <c r="AA16" s="760"/>
+      <c r="AB16" s="761"/>
+      <c r="AD16" s="748"/>
     </row>
     <row r="17" spans="3:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C17" s="109"/>
       <c r="E17" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="F17" s="765" t="s">
+      <c r="F17" s="733" t="s">
         <v>96</v>
       </c>
-      <c r="G17" s="768"/>
+      <c r="G17" s="736"/>
       <c r="H17" s="54"/>
       <c r="I17" s="133" t="s">
         <v>81</v>
       </c>
-      <c r="K17" s="747"/>
+      <c r="K17" s="754"/>
       <c r="S17" s="590"/>
       <c r="V17" s="68" t="s">
         <v>44</v>
@@ -14304,9 +14319,9 @@
       <c r="X17" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="AA17" s="753"/>
-      <c r="AB17" s="754"/>
-      <c r="AD17" s="741"/>
+      <c r="AA17" s="760"/>
+      <c r="AB17" s="761"/>
+      <c r="AD17" s="748"/>
     </row>
     <row r="18" spans="3:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C18" s="130"/>
@@ -14316,15 +14331,15 @@
       <c r="E18" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="F18" s="766"/>
-      <c r="G18" s="768"/>
+      <c r="F18" s="734"/>
+      <c r="G18" s="736"/>
       <c r="H18" s="108" t="s">
         <v>76</v>
       </c>
       <c r="I18" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="K18" s="747"/>
+      <c r="K18" s="754"/>
       <c r="O18" s="64" t="s">
         <v>115</v>
       </c>
@@ -14335,42 +14350,39 @@
       <c r="X18" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="AA18" s="755"/>
-      <c r="AB18" s="756"/>
-      <c r="AD18" s="741"/>
+      <c r="AA18" s="762"/>
+      <c r="AB18" s="763"/>
+      <c r="AD18" s="748"/>
     </row>
     <row r="19" spans="3:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F19" s="64" t="s">
         <v>209</v>
       </c>
-      <c r="G19" s="769"/>
-      <c r="K19" s="748"/>
+      <c r="G19" s="737"/>
+      <c r="K19" s="755"/>
       <c r="Q19" s="68" t="s">
         <v>44</v>
       </c>
-      <c r="R19" s="774" t="s">
+      <c r="R19" s="742" t="s">
         <v>124</v>
       </c>
-      <c r="S19" s="775"/>
-      <c r="T19" s="776"/>
+      <c r="S19" s="743"/>
+      <c r="T19" s="744"/>
       <c r="V19" s="77" t="s">
         <v>115</v>
       </c>
       <c r="Y19" s="19" t="s">
         <v>125</v>
       </c>
-      <c r="AD19" s="742"/>
+      <c r="AD19" s="749"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="G2:G19"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="L9:N9"/>
-    <mergeCell ref="R19:T19"/>
-    <mergeCell ref="S12:S18"/>
-    <mergeCell ref="O3:O9"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="V2:W2"/>
+    <mergeCell ref="M10:AC10"/>
+    <mergeCell ref="F2:F3"/>
     <mergeCell ref="AD1:AD19"/>
     <mergeCell ref="S8:AC8"/>
     <mergeCell ref="K5:K19"/>
@@ -14382,11 +14394,14 @@
     <mergeCell ref="P3:Q3"/>
     <mergeCell ref="L4:L8"/>
     <mergeCell ref="L12:L15"/>
-    <mergeCell ref="C9:C11"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="V2:W2"/>
-    <mergeCell ref="M10:AC10"/>
-    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="G2:G19"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="L9:N9"/>
+    <mergeCell ref="R19:T19"/>
+    <mergeCell ref="S12:S18"/>
+    <mergeCell ref="O3:O9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/System_2.1.8.xlsx
+++ b/System_2.1.8.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Work_For_\Work\Running AppS\System_Work_RW\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED2E2440-78F0-45AE-85D2-CB6ECCB64A57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1612D891-DFB6-41A7-A7AD-FD20FB593B33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1126" uniqueCount="627">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1127" uniqueCount="628">
   <si>
     <t>Zone</t>
   </si>
@@ -1920,6 +1920,9 @@
   </si>
   <si>
     <t>AT - CT_WLFJN_X_N-10_X_Left</t>
+  </si>
+  <si>
+    <t>bharat24</t>
   </si>
 </sst>
 </file>
@@ -5060,6 +5063,186 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="73" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="27" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="27" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="36" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="36" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="49" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="49" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="49" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="19" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5072,12 +5255,6 @@
     <xf numFmtId="0" fontId="17" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5089,12 +5266,6 @@
     </xf>
     <xf numFmtId="0" fontId="38" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
@@ -5117,190 +5288,61 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="27" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="27" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="27" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="27" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="13" fillId="27" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="27" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="27" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="49" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="49" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="49" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="73" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="13" fillId="27" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="13" fillId="27" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="36" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="36" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5342,44 +5384,14 @@
     <xf numFmtId="0" fontId="39" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="27" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="27" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="27" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="13" fillId="27" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="13" fillId="27" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="27" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="27" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="36" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="36" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5459,34 +5471,46 @@
     <xf numFmtId="14" fontId="5" fillId="14" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="35" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="35" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="35" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5564,46 +5588,25 @@
     <xf numFmtId="0" fontId="3" fillId="21" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -6994,7 +6997,7 @@
       <c r="H1" s="97" t="s">
         <v>344</v>
       </c>
-      <c r="I1" s="619" t="s">
+      <c r="I1" s="665" t="s">
         <v>370</v>
       </c>
       <c r="J1" s="2" t="s">
@@ -7030,7 +7033,7 @@
       <c r="X1" s="434" t="s">
         <v>155</v>
       </c>
-      <c r="Y1" s="663" t="s">
+      <c r="Y1" s="659" t="s">
         <v>530</v>
       </c>
       <c r="Z1" s="410">
@@ -7055,7 +7058,7 @@
         <v>499</v>
       </c>
       <c r="AM1" s="406"/>
-      <c r="AN1" s="646"/>
+      <c r="AN1" s="641"/>
       <c r="AO1" s="341" t="s">
         <v>470</v>
       </c>
@@ -7064,23 +7067,23 @@
       </c>
     </row>
     <row r="2" spans="1:43" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="672">
+      <c r="A2" s="623">
         <f ca="1">TODAY()</f>
-        <v>45282</v>
-      </c>
-      <c r="B2" s="674" t="s">
+        <v>45283</v>
+      </c>
+      <c r="B2" s="625" t="s">
         <v>371</v>
       </c>
-      <c r="C2" s="651" t="s">
+      <c r="C2" s="621" t="s">
         <v>358</v>
       </c>
-      <c r="D2" s="676" t="s">
+      <c r="D2" s="627" t="s">
         <v>356</v>
       </c>
-      <c r="E2" s="615" t="s">
+      <c r="E2" s="675" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="625" t="s">
+      <c r="F2" s="646" t="s">
         <v>102</v>
       </c>
       <c r="G2" s="397" t="s">
@@ -7089,31 +7092,31 @@
       <c r="H2" s="80" t="s">
         <v>33</v>
       </c>
-      <c r="I2" s="620"/>
+      <c r="I2" s="666"/>
       <c r="J2" s="81" t="s">
         <v>76</v>
       </c>
-      <c r="K2" s="617" t="s">
+      <c r="K2" s="677" t="s">
         <v>343</v>
       </c>
-      <c r="L2" s="618"/>
-      <c r="M2" s="625" t="s">
+      <c r="L2" s="678"/>
+      <c r="M2" s="646" t="s">
         <v>102</v>
       </c>
       <c r="N2" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="O2" s="655" t="s">
+      <c r="O2" s="650" t="s">
         <v>102</v>
       </c>
       <c r="P2" s="85" t="s">
         <v>147</v>
       </c>
-      <c r="Q2" s="651" t="s">
+      <c r="Q2" s="621" t="s">
         <v>143</v>
       </c>
       <c r="R2" s="604"/>
-      <c r="S2" s="640" t="s">
+      <c r="S2" s="663" t="s">
         <v>148</v>
       </c>
       <c r="T2" s="89"/>
@@ -7123,7 +7126,7 @@
       <c r="X2" s="435" t="s">
         <v>156</v>
       </c>
-      <c r="Y2" s="664"/>
+      <c r="Y2" s="660"/>
       <c r="Z2" s="411">
         <v>1</v>
       </c>
@@ -7146,15 +7149,15 @@
         <v>464</v>
       </c>
       <c r="AM2" s="432"/>
-      <c r="AN2" s="647"/>
+      <c r="AN2" s="642"/>
     </row>
     <row r="3" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="673"/>
-      <c r="B3" s="675"/>
-      <c r="C3" s="652"/>
-      <c r="D3" s="677"/>
-      <c r="E3" s="616"/>
-      <c r="F3" s="626"/>
+      <c r="A3" s="624"/>
+      <c r="B3" s="626"/>
+      <c r="C3" s="622"/>
+      <c r="D3" s="628"/>
+      <c r="E3" s="676"/>
+      <c r="F3" s="647"/>
       <c r="G3" s="398" t="s">
         <v>28</v>
       </c>
@@ -7173,17 +7176,17 @@
       <c r="L3" s="203" t="s">
         <v>107</v>
       </c>
-      <c r="M3" s="626"/>
+      <c r="M3" s="647"/>
       <c r="N3" s="69" t="s">
         <v>146</v>
       </c>
-      <c r="O3" s="656"/>
+      <c r="O3" s="651"/>
       <c r="P3" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="Q3" s="652"/>
+      <c r="Q3" s="622"/>
       <c r="R3" s="606"/>
-      <c r="S3" s="642"/>
+      <c r="S3" s="664"/>
       <c r="T3" s="89"/>
       <c r="U3" s="124"/>
       <c r="V3" s="120"/>
@@ -7191,7 +7194,7 @@
       <c r="X3" s="435" t="s">
         <v>157</v>
       </c>
-      <c r="Y3" s="664"/>
+      <c r="Y3" s="660"/>
       <c r="Z3" s="412">
         <v>1</v>
       </c>
@@ -7200,7 +7203,7 @@
       <c r="AC3" s="100" t="s">
         <v>481</v>
       </c>
-      <c r="AD3" s="637" t="s">
+      <c r="AD3" s="662" t="s">
         <v>456</v>
       </c>
       <c r="AE3" s="259"/>
@@ -7212,16 +7215,16 @@
       <c r="AK3" s="259"/>
       <c r="AL3" s="16"/>
       <c r="AM3" s="432"/>
-      <c r="AN3" s="647"/>
+      <c r="AN3" s="642"/>
     </row>
     <row r="4" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="240" t="s">
         <v>183</v>
       </c>
-      <c r="B4" s="688" t="s">
+      <c r="B4" s="639" t="s">
         <v>374</v>
       </c>
-      <c r="C4" s="651" t="s">
+      <c r="C4" s="621" t="s">
         <v>154</v>
       </c>
       <c r="D4" s="350" t="s">
@@ -7230,7 +7233,7 @@
       <c r="E4" s="381">
         <v>2</v>
       </c>
-      <c r="F4" s="626"/>
+      <c r="F4" s="647"/>
       <c r="G4" s="384" t="s">
         <v>202</v>
       </c>
@@ -7247,11 +7250,11 @@
         <v>150</v>
       </c>
       <c r="L4" s="206"/>
-      <c r="M4" s="626"/>
+      <c r="M4" s="647"/>
       <c r="N4" s="176" t="s">
         <v>69</v>
       </c>
-      <c r="O4" s="656"/>
+      <c r="O4" s="651"/>
       <c r="P4" s="2" t="s">
         <v>191</v>
       </c>
@@ -7273,12 +7276,12 @@
       <c r="X4" s="435" t="s">
         <v>158</v>
       </c>
-      <c r="Y4" s="664"/>
+      <c r="Y4" s="660"/>
       <c r="Z4" s="413"/>
       <c r="AA4" s="309"/>
       <c r="AB4" s="211"/>
       <c r="AC4" s="16"/>
-      <c r="AD4" s="637"/>
+      <c r="AD4" s="662"/>
       <c r="AE4" s="259"/>
       <c r="AF4" s="259"/>
       <c r="AG4" s="16"/>
@@ -7288,37 +7291,37 @@
       <c r="AK4" s="259"/>
       <c r="AL4" s="16"/>
       <c r="AM4" s="432"/>
-      <c r="AN4" s="647"/>
+      <c r="AN4" s="642"/>
       <c r="AO4" s="341" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="619" t="s">
+      <c r="A5" s="665" t="s">
         <v>419</v>
       </c>
-      <c r="B5" s="689"/>
-      <c r="C5" s="652"/>
+      <c r="B5" s="640"/>
+      <c r="C5" s="622"/>
       <c r="D5" s="61" t="s">
         <v>153</v>
       </c>
       <c r="E5" s="382">
         <v>1</v>
       </c>
-      <c r="F5" s="626"/>
-      <c r="G5" s="680" t="s">
+      <c r="F5" s="647"/>
+      <c r="G5" s="631" t="s">
         <v>192</v>
       </c>
-      <c r="H5" s="680"/>
-      <c r="I5" s="680"/>
-      <c r="J5" s="680"/>
-      <c r="K5" s="680"/>
-      <c r="L5" s="681"/>
-      <c r="M5" s="626"/>
+      <c r="H5" s="631"/>
+      <c r="I5" s="631"/>
+      <c r="J5" s="631"/>
+      <c r="K5" s="631"/>
+      <c r="L5" s="632"/>
+      <c r="M5" s="647"/>
       <c r="N5" s="21">
         <v>8</v>
       </c>
-      <c r="O5" s="656"/>
+      <c r="O5" s="651"/>
       <c r="T5" s="89"/>
       <c r="U5" s="124"/>
       <c r="V5" s="120"/>
@@ -7326,7 +7329,7 @@
       <c r="X5" s="435" t="s">
         <v>159</v>
       </c>
-      <c r="Y5" s="664"/>
+      <c r="Y5" s="660"/>
       <c r="Z5" s="413">
         <v>1</v>
       </c>
@@ -7349,24 +7352,24 @@
       <c r="AK5" s="259"/>
       <c r="AL5" s="80"/>
       <c r="AM5" s="432"/>
-      <c r="AN5" s="647"/>
+      <c r="AN5" s="642"/>
     </row>
     <row r="6" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="620"/>
-      <c r="B6" s="686" t="s">
+      <c r="A6" s="666"/>
+      <c r="B6" s="637" t="s">
         <v>177</v>
       </c>
-      <c r="C6" s="634"/>
-      <c r="D6" s="635"/>
-      <c r="F6" s="626"/>
-      <c r="G6" s="682"/>
-      <c r="H6" s="682"/>
-      <c r="I6" s="682"/>
-      <c r="J6" s="682"/>
-      <c r="K6" s="682"/>
-      <c r="L6" s="683"/>
-      <c r="M6" s="626"/>
-      <c r="O6" s="656"/>
+      <c r="C6" s="667"/>
+      <c r="D6" s="668"/>
+      <c r="F6" s="647"/>
+      <c r="G6" s="633"/>
+      <c r="H6" s="633"/>
+      <c r="I6" s="633"/>
+      <c r="J6" s="633"/>
+      <c r="K6" s="633"/>
+      <c r="L6" s="634"/>
+      <c r="M6" s="647"/>
+      <c r="O6" s="651"/>
       <c r="T6" s="89"/>
       <c r="U6" s="124"/>
       <c r="V6" s="98" t="s">
@@ -7376,7 +7379,7 @@
       <c r="X6" s="435" t="s">
         <v>160</v>
       </c>
-      <c r="Y6" s="664"/>
+      <c r="Y6" s="660"/>
       <c r="Z6" s="411">
         <v>1</v>
       </c>
@@ -7390,16 +7393,16 @@
       <c r="AF6" s="259"/>
       <c r="AG6" s="259"/>
       <c r="AH6" s="259"/>
-      <c r="AI6" s="636"/>
+      <c r="AI6" s="656"/>
       <c r="AJ6" s="445" t="s">
         <v>459</v>
       </c>
-      <c r="AK6" s="636" t="s">
+      <c r="AK6" s="656" t="s">
         <v>252</v>
       </c>
       <c r="AL6" s="259"/>
       <c r="AM6" s="432"/>
-      <c r="AN6" s="647"/>
+      <c r="AN6" s="642"/>
       <c r="AO6" s="341" t="s">
         <v>471</v>
       </c>
@@ -7408,7 +7411,7 @@
       <c r="A7" s="234" t="s">
         <v>574</v>
       </c>
-      <c r="B7" s="687"/>
+      <c r="B7" s="638"/>
       <c r="C7" s="204" t="s">
         <v>375</v>
       </c>
@@ -7418,7 +7421,7 @@
       <c r="E7" s="267">
         <v>3</v>
       </c>
-      <c r="F7" s="626"/>
+      <c r="F7" s="647"/>
       <c r="G7" s="399">
         <v>0</v>
       </c>
@@ -7437,8 +7440,8 @@
       <c r="L7" s="214">
         <v>0</v>
       </c>
-      <c r="M7" s="626"/>
-      <c r="O7" s="656"/>
+      <c r="M7" s="647"/>
+      <c r="O7" s="651"/>
       <c r="R7" s="99" t="s">
         <v>44</v>
       </c>
@@ -7452,7 +7455,7 @@
       <c r="X7" s="435" t="s">
         <v>161</v>
       </c>
-      <c r="Y7" s="664"/>
+      <c r="Y7" s="660"/>
       <c r="Z7" s="411">
         <v>1</v>
       </c>
@@ -7462,18 +7465,18 @@
       <c r="AD7" s="16"/>
       <c r="AE7" s="259"/>
       <c r="AF7" s="259"/>
-      <c r="AG7" s="637" t="s">
+      <c r="AG7" s="662" t="s">
         <v>455</v>
       </c>
       <c r="AH7" s="259"/>
-      <c r="AI7" s="636"/>
+      <c r="AI7" s="656"/>
       <c r="AJ7" s="259"/>
-      <c r="AK7" s="636"/>
+      <c r="AK7" s="656"/>
       <c r="AL7" s="80" t="s">
         <v>497</v>
       </c>
       <c r="AM7" s="432"/>
-      <c r="AN7" s="647"/>
+      <c r="AN7" s="642"/>
       <c r="AP7" s="76" t="s">
         <v>472</v>
       </c>
@@ -7490,27 +7493,27 @@
         <f>SUM(G7:N9)</f>
         <v>15</v>
       </c>
-      <c r="F8" s="626"/>
-      <c r="G8" s="681">
-        <v>0</v>
-      </c>
-      <c r="H8" s="678" t="s">
+      <c r="F8" s="647"/>
+      <c r="G8" s="632">
+        <v>0</v>
+      </c>
+      <c r="H8" s="629" t="s">
         <v>104</v>
       </c>
       <c r="I8" s="604">
         <v>0</v>
       </c>
-      <c r="J8" s="678" t="s">
+      <c r="J8" s="629" t="s">
         <v>104</v>
       </c>
-      <c r="K8" s="684"/>
-      <c r="L8" s="638"/>
-      <c r="M8" s="653"/>
-      <c r="N8" s="643">
+      <c r="K8" s="635"/>
+      <c r="L8" s="669"/>
+      <c r="M8" s="648"/>
+      <c r="N8" s="672">
         <f>N5+N11</f>
         <v>15</v>
       </c>
-      <c r="O8" s="656"/>
+      <c r="O8" s="651"/>
       <c r="T8" s="103" t="s">
         <v>44</v>
       </c>
@@ -7520,7 +7523,7 @@
       <c r="X8" s="435" t="s">
         <v>162</v>
       </c>
-      <c r="Y8" s="664"/>
+      <c r="Y8" s="660"/>
       <c r="Z8" s="413"/>
       <c r="AA8" s="309"/>
       <c r="AB8" s="211"/>
@@ -7528,14 +7531,14 @@
       <c r="AD8" s="16"/>
       <c r="AE8" s="259"/>
       <c r="AF8" s="259"/>
-      <c r="AG8" s="637"/>
+      <c r="AG8" s="662"/>
       <c r="AH8" s="259"/>
-      <c r="AI8" s="636"/>
+      <c r="AI8" s="656"/>
       <c r="AJ8" s="259"/>
       <c r="AK8" s="259"/>
       <c r="AL8" s="259"/>
       <c r="AM8" s="432"/>
-      <c r="AN8" s="647"/>
+      <c r="AN8" s="642"/>
     </row>
     <row r="9" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="234" t="s">
@@ -7550,17 +7553,17 @@
       <c r="D9" s="351" t="s">
         <v>282</v>
       </c>
-      <c r="F9" s="626"/>
-      <c r="G9" s="683"/>
-      <c r="H9" s="679"/>
+      <c r="F9" s="647"/>
+      <c r="G9" s="634"/>
+      <c r="H9" s="630"/>
       <c r="I9" s="606"/>
-      <c r="J9" s="679"/>
-      <c r="K9" s="685"/>
-      <c r="L9" s="639"/>
-      <c r="M9" s="654"/>
-      <c r="N9" s="644"/>
-      <c r="O9" s="657"/>
-      <c r="S9" s="640" t="s">
+      <c r="J9" s="630"/>
+      <c r="K9" s="636"/>
+      <c r="L9" s="670"/>
+      <c r="M9" s="649"/>
+      <c r="N9" s="673"/>
+      <c r="O9" s="652"/>
+      <c r="S9" s="663" t="s">
         <v>61</v>
       </c>
       <c r="T9" s="89"/>
@@ -7572,7 +7575,7 @@
       <c r="X9" s="435" t="s">
         <v>163</v>
       </c>
-      <c r="Y9" s="664"/>
+      <c r="Y9" s="660"/>
       <c r="Z9" s="414"/>
       <c r="AA9" s="309"/>
       <c r="AB9" s="211"/>
@@ -7582,16 +7585,16 @@
       </c>
       <c r="AE9" s="259"/>
       <c r="AF9" s="259"/>
-      <c r="AG9" s="637"/>
+      <c r="AG9" s="662"/>
       <c r="AH9" s="259"/>
-      <c r="AI9" s="636"/>
+      <c r="AI9" s="656"/>
       <c r="AJ9" s="80"/>
-      <c r="AK9" s="636" t="s">
+      <c r="AK9" s="656" t="s">
         <v>252</v>
       </c>
       <c r="AL9" s="259"/>
       <c r="AM9" s="432"/>
-      <c r="AN9" s="647"/>
+      <c r="AN9" s="642"/>
       <c r="AP9" s="2" t="s">
         <v>509</v>
       </c>
@@ -7606,22 +7609,22 @@
       <c r="D10" s="142"/>
       <c r="E10" s="239">
         <f>Boat!W8</f>
-        <v>37</v>
-      </c>
-      <c r="F10" s="626"/>
+        <v>36</v>
+      </c>
+      <c r="F10" s="647"/>
       <c r="N10" s="422" t="s">
         <v>397</v>
       </c>
-      <c r="O10" s="628" t="s">
+      <c r="O10" s="684" t="s">
         <v>102</v>
       </c>
-      <c r="P10" s="658" t="s">
+      <c r="P10" s="653" t="s">
         <v>401</v>
       </c>
       <c r="R10" s="74" t="s">
         <v>44</v>
       </c>
-      <c r="S10" s="641"/>
+      <c r="S10" s="671"/>
       <c r="T10" s="89"/>
       <c r="U10" s="123" t="s">
         <v>176</v>
@@ -7633,7 +7636,7 @@
       <c r="X10" s="435" t="s">
         <v>164</v>
       </c>
-      <c r="Y10" s="664"/>
+      <c r="Y10" s="660"/>
       <c r="Z10" s="413">
         <v>0</v>
       </c>
@@ -7651,16 +7654,16 @@
       <c r="AF10" s="240" t="s">
         <v>312</v>
       </c>
-      <c r="AG10" s="637"/>
+      <c r="AG10" s="662"/>
       <c r="AH10" s="80"/>
-      <c r="AI10" s="636"/>
+      <c r="AI10" s="656"/>
       <c r="AJ10" s="259"/>
-      <c r="AK10" s="636"/>
+      <c r="AK10" s="656"/>
       <c r="AL10" s="259"/>
       <c r="AM10" s="446" t="s">
         <v>319</v>
       </c>
-      <c r="AN10" s="647"/>
+      <c r="AN10" s="642"/>
       <c r="AO10" s="206" t="s">
         <v>94</v>
       </c>
@@ -7678,18 +7681,18 @@
       <c r="D11" s="172" t="s">
         <v>356</v>
       </c>
-      <c r="F11" s="626"/>
+      <c r="F11" s="647"/>
       <c r="M11" s="6"/>
       <c r="N11" s="117">
         <v>7</v>
       </c>
-      <c r="O11" s="629"/>
-      <c r="P11" s="659"/>
+      <c r="O11" s="685"/>
+      <c r="P11" s="654"/>
       <c r="Q11" s="65"/>
       <c r="R11" s="120" t="s">
         <v>221</v>
       </c>
-      <c r="S11" s="641"/>
+      <c r="S11" s="671"/>
       <c r="T11" s="102" t="s">
         <v>44</v>
       </c>
@@ -7699,7 +7702,7 @@
       <c r="X11" s="435" t="s">
         <v>165</v>
       </c>
-      <c r="Y11" s="664"/>
+      <c r="Y11" s="660"/>
       <c r="Z11" s="413"/>
       <c r="AA11" s="309">
         <v>1</v>
@@ -7713,14 +7716,14 @@
       <c r="AF11" s="259" t="s">
         <v>477</v>
       </c>
-      <c r="AG11" s="637"/>
+      <c r="AG11" s="662"/>
       <c r="AH11" s="259"/>
       <c r="AI11" s="70"/>
       <c r="AJ11" s="259"/>
       <c r="AK11" s="259"/>
       <c r="AL11" s="259"/>
       <c r="AM11" s="432"/>
-      <c r="AN11" s="647"/>
+      <c r="AN11" s="642"/>
       <c r="AP11" s="76" t="s">
         <v>485</v>
       </c>
@@ -7739,7 +7742,7 @@
       <c r="E12" s="226">
         <v>3</v>
       </c>
-      <c r="F12" s="626"/>
+      <c r="F12" s="647"/>
       <c r="G12" s="340" t="s">
         <v>401</v>
       </c>
@@ -7748,16 +7751,16 @@
       </c>
       <c r="I12" s="611"/>
       <c r="J12" s="611"/>
-      <c r="K12" s="633"/>
+      <c r="K12" s="689"/>
       <c r="L12" s="205"/>
       <c r="M12" s="205"/>
       <c r="N12" s="205"/>
-      <c r="O12" s="629"/>
-      <c r="P12" s="659"/>
+      <c r="O12" s="685"/>
+      <c r="P12" s="654"/>
       <c r="R12" s="122" t="s">
         <v>180</v>
       </c>
-      <c r="S12" s="642"/>
+      <c r="S12" s="664"/>
       <c r="T12" s="101" t="s">
         <v>44</v>
       </c>
@@ -7767,7 +7770,7 @@
       <c r="X12" s="435" t="s">
         <v>166</v>
       </c>
-      <c r="Y12" s="664"/>
+      <c r="Y12" s="660"/>
       <c r="Z12" s="411">
         <v>1</v>
       </c>
@@ -7778,16 +7781,16 @@
       <c r="AC12" s="100" t="s">
         <v>482</v>
       </c>
-      <c r="AD12" s="645" t="s">
+      <c r="AD12" s="674" t="s">
         <v>241</v>
       </c>
       <c r="AE12" s="445" t="s">
         <v>240</v>
       </c>
-      <c r="AF12" s="637" t="s">
+      <c r="AF12" s="662" t="s">
         <v>229</v>
       </c>
-      <c r="AG12" s="637"/>
+      <c r="AG12" s="662"/>
       <c r="AH12" s="240" t="s">
         <v>260</v>
       </c>
@@ -7797,10 +7800,10 @@
       <c r="AJ12" s="259"/>
       <c r="AK12" s="259"/>
       <c r="AL12" s="259"/>
-      <c r="AM12" s="661" t="s">
+      <c r="AM12" s="657" t="s">
         <v>250</v>
       </c>
-      <c r="AN12" s="647"/>
+      <c r="AN12" s="642"/>
       <c r="AO12" s="341" t="s">
         <v>96</v>
       </c>
@@ -7812,17 +7815,17 @@
       <c r="E13" s="452">
         <v>-3</v>
       </c>
-      <c r="F13" s="626"/>
+      <c r="F13" s="647"/>
       <c r="G13" s="611" t="s">
         <v>431</v>
       </c>
       <c r="H13" s="611"/>
       <c r="I13" s="611"/>
-      <c r="J13" s="633"/>
+      <c r="J13" s="689"/>
       <c r="M13" s="6"/>
       <c r="N13" s="6"/>
-      <c r="O13" s="629"/>
-      <c r="P13" s="660"/>
+      <c r="O13" s="685"/>
+      <c r="P13" s="655"/>
       <c r="T13" s="105" t="s">
         <v>44</v>
       </c>
@@ -7832,7 +7835,7 @@
       <c r="X13" s="435" t="s">
         <v>167</v>
       </c>
-      <c r="Y13" s="664"/>
+      <c r="Y13" s="660"/>
       <c r="Z13" s="411">
         <v>1</v>
       </c>
@@ -7843,8 +7846,8 @@
         <v>501</v>
       </c>
       <c r="AC13" s="16"/>
-      <c r="AD13" s="645"/>
-      <c r="AF13" s="637"/>
+      <c r="AD13" s="674"/>
+      <c r="AF13" s="662"/>
       <c r="AG13" s="80"/>
       <c r="AH13" s="240" t="s">
         <v>309</v>
@@ -7855,8 +7858,8 @@
       <c r="AJ13" s="80"/>
       <c r="AK13" s="259"/>
       <c r="AL13" s="259"/>
-      <c r="AM13" s="661"/>
-      <c r="AN13" s="647"/>
+      <c r="AM13" s="657"/>
+      <c r="AN13" s="642"/>
     </row>
     <row r="14" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="454"/>
@@ -7864,18 +7867,18 @@
       <c r="C14" s="463"/>
       <c r="D14" s="456"/>
       <c r="E14" s="457"/>
-      <c r="F14" s="626"/>
+      <c r="F14" s="647"/>
       <c r="G14" s="611" t="s">
         <v>430</v>
       </c>
       <c r="H14" s="611"/>
       <c r="I14" s="611"/>
-      <c r="J14" s="633"/>
+      <c r="J14" s="689"/>
       <c r="K14" s="2">
         <v>12</v>
       </c>
       <c r="N14" s="6"/>
-      <c r="O14" s="629"/>
+      <c r="O14" s="685"/>
       <c r="Q14" s="61" t="s">
         <v>534</v>
       </c>
@@ -7889,24 +7892,24 @@
       <c r="X14" s="435" t="s">
         <v>168</v>
       </c>
-      <c r="Y14" s="664"/>
+      <c r="Y14" s="660"/>
       <c r="Z14" s="411">
         <v>1</v>
       </c>
       <c r="AA14" s="309"/>
       <c r="AB14" s="211"/>
       <c r="AC14" s="16"/>
-      <c r="AD14" s="645"/>
+      <c r="AD14" s="674"/>
       <c r="AE14" s="259"/>
-      <c r="AF14" s="637"/>
+      <c r="AF14" s="662"/>
       <c r="AG14" s="259"/>
       <c r="AH14" s="259"/>
       <c r="AI14" s="70"/>
       <c r="AJ14" s="259"/>
       <c r="AK14" s="259"/>
       <c r="AL14" s="259"/>
-      <c r="AM14" s="661"/>
-      <c r="AN14" s="647"/>
+      <c r="AM14" s="657"/>
+      <c r="AN14" s="642"/>
     </row>
     <row r="15" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="453" t="s">
@@ -7915,8 +7918,8 @@
       <c r="C15" s="604" t="s">
         <v>374</v>
       </c>
-      <c r="F15" s="626"/>
-      <c r="O15" s="629"/>
+      <c r="F15" s="647"/>
+      <c r="O15" s="685"/>
       <c r="R15" s="99" t="s">
         <v>44</v>
       </c>
@@ -7929,7 +7932,7 @@
       <c r="X15" s="435" t="s">
         <v>169</v>
       </c>
-      <c r="Y15" s="664"/>
+      <c r="Y15" s="660"/>
       <c r="Z15" s="413">
         <v>1</v>
       </c>
@@ -7938,8 +7941,8 @@
       <c r="AC15" s="76" t="s">
         <v>480</v>
       </c>
-      <c r="AD15" s="645"/>
-      <c r="AF15" s="637"/>
+      <c r="AD15" s="674"/>
+      <c r="AF15" s="662"/>
       <c r="AG15" s="80"/>
       <c r="AH15" s="240" t="s">
         <v>449</v>
@@ -7952,8 +7955,8 @@
       </c>
       <c r="AK15" s="259"/>
       <c r="AL15" s="259"/>
-      <c r="AM15" s="661"/>
-      <c r="AN15" s="647"/>
+      <c r="AM15" s="657"/>
+      <c r="AN15" s="642"/>
       <c r="AP15" s="76" t="s">
         <v>73</v>
       </c>
@@ -7975,13 +7978,13 @@
       <c r="E16" s="226">
         <v>1</v>
       </c>
-      <c r="F16" s="626"/>
+      <c r="F16" s="647"/>
       <c r="G16" s="340" t="s">
         <v>489</v>
       </c>
       <c r="I16" s="474"/>
       <c r="J16" s="20"/>
-      <c r="O16" s="629"/>
+      <c r="O16" s="685"/>
       <c r="R16" s="439" t="s">
         <v>184</v>
       </c>
@@ -7992,7 +7995,7 @@
       <c r="X16" s="435" t="s">
         <v>170</v>
       </c>
-      <c r="Y16" s="664"/>
+      <c r="Y16" s="660"/>
       <c r="Z16" s="411">
         <v>1</v>
       </c>
@@ -8013,18 +8016,18 @@
       <c r="AM16" s="432" t="s">
         <v>318</v>
       </c>
-      <c r="AN16" s="647"/>
+      <c r="AN16" s="642"/>
       <c r="AP16" s="76" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="17" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="80"/>
-      <c r="F17" s="626"/>
+      <c r="F17" s="647"/>
       <c r="I17" s="475"/>
       <c r="J17" s="20"/>
       <c r="N17" s="6"/>
-      <c r="O17" s="629"/>
+      <c r="O17" s="685"/>
       <c r="Q17" s="21" t="s">
         <v>532</v>
       </c>
@@ -8044,7 +8047,7 @@
       <c r="X17" s="435" t="s">
         <v>171</v>
       </c>
-      <c r="Y17" s="664"/>
+      <c r="Y17" s="660"/>
       <c r="Z17" s="413"/>
       <c r="AA17" s="309"/>
       <c r="AB17" s="211"/>
@@ -8069,7 +8072,7 @@
       <c r="AK17" s="259"/>
       <c r="AL17" s="80"/>
       <c r="AM17" s="432"/>
-      <c r="AN17" s="647"/>
+      <c r="AN17" s="642"/>
       <c r="AO17" s="206" t="s">
         <v>498</v>
       </c>
@@ -8093,21 +8096,21 @@
       <c r="E18" s="99" t="s">
         <v>44</v>
       </c>
-      <c r="F18" s="626"/>
+      <c r="F18" s="647"/>
       <c r="G18" s="340" t="s">
         <v>529</v>
       </c>
       <c r="I18" s="24"/>
       <c r="J18" s="20"/>
-      <c r="O18" s="629"/>
+      <c r="O18" s="685"/>
       <c r="Q18" s="112"/>
-      <c r="R18" s="621" t="s">
+      <c r="R18" s="679" t="s">
         <v>537</v>
       </c>
       <c r="T18" s="100" t="s">
         <v>44</v>
       </c>
-      <c r="U18" s="669" t="s">
+      <c r="U18" s="618" t="s">
         <v>44</v>
       </c>
       <c r="V18" s="120"/>
@@ -8117,7 +8120,7 @@
       <c r="X18" s="435" t="s">
         <v>172</v>
       </c>
-      <c r="Y18" s="664"/>
+      <c r="Y18" s="660"/>
       <c r="Z18" s="413">
         <v>1</v>
       </c>
@@ -8128,38 +8131,38 @@
       <c r="AC18" s="16"/>
       <c r="AD18" s="16"/>
       <c r="AE18" s="259"/>
-      <c r="AF18" s="636" t="s">
+      <c r="AF18" s="656" t="s">
         <v>476</v>
       </c>
       <c r="AG18" s="259"/>
       <c r="AH18" s="70"/>
       <c r="AI18" s="70"/>
-      <c r="AJ18" s="662" t="s">
+      <c r="AJ18" s="658" t="s">
         <v>316</v>
       </c>
       <c r="AK18" s="259"/>
       <c r="AL18" s="80"/>
       <c r="AM18" s="432"/>
-      <c r="AN18" s="647"/>
+      <c r="AN18" s="642"/>
       <c r="AP18" s="76" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="19" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F19" s="626"/>
+      <c r="F19" s="647"/>
       <c r="I19" s="221"/>
-      <c r="O19" s="629"/>
-      <c r="R19" s="622"/>
+      <c r="O19" s="685"/>
+      <c r="R19" s="680"/>
       <c r="S19" s="30" t="s">
         <v>535</v>
       </c>
-      <c r="U19" s="670"/>
+      <c r="U19" s="619"/>
       <c r="V19" s="146"/>
       <c r="W19" s="146"/>
       <c r="X19" s="435" t="s">
         <v>173</v>
       </c>
-      <c r="Y19" s="664"/>
+      <c r="Y19" s="660"/>
       <c r="Z19" s="411">
         <v>1</v>
       </c>
@@ -8168,17 +8171,17 @@
       <c r="AC19" s="16"/>
       <c r="AD19" s="16"/>
       <c r="AE19" s="259"/>
-      <c r="AF19" s="636"/>
+      <c r="AF19" s="656"/>
       <c r="AG19" s="259"/>
       <c r="AH19" s="259"/>
       <c r="AI19" s="70"/>
-      <c r="AJ19" s="662"/>
+      <c r="AJ19" s="658"/>
       <c r="AK19" s="464" t="s">
         <v>252</v>
       </c>
       <c r="AL19" s="80"/>
       <c r="AM19" s="432"/>
-      <c r="AN19" s="647"/>
+      <c r="AN19" s="642"/>
       <c r="AP19" s="76" t="s">
         <v>469</v>
       </c>
@@ -8199,24 +8202,24 @@
       <c r="E20" s="441">
         <v>-1</v>
       </c>
-      <c r="F20" s="626"/>
+      <c r="F20" s="647"/>
       <c r="G20" s="340" t="s">
         <v>492</v>
       </c>
       <c r="I20" s="221"/>
-      <c r="O20" s="629"/>
-      <c r="Q20" s="631" t="s">
+      <c r="O20" s="685"/>
+      <c r="Q20" s="687" t="s">
         <v>48</v>
       </c>
       <c r="T20" s="408" t="s">
         <v>44</v>
       </c>
-      <c r="U20" s="671"/>
+      <c r="U20" s="620"/>
       <c r="W20" s="409"/>
       <c r="X20" s="436" t="s">
         <v>174</v>
       </c>
-      <c r="Y20" s="664"/>
+      <c r="Y20" s="660"/>
       <c r="Z20" s="415">
         <v>1</v>
       </c>
@@ -8241,7 +8244,7 @@
       <c r="AM20" s="384" t="s">
         <v>250</v>
       </c>
-      <c r="AN20" s="647"/>
+      <c r="AN20" s="642"/>
       <c r="AO20" s="341" t="s">
         <v>461</v>
       </c>
@@ -8262,20 +8265,20 @@
       <c r="E21" s="267">
         <v>0</v>
       </c>
-      <c r="F21" s="626"/>
+      <c r="F21" s="647"/>
       <c r="I21" s="221"/>
-      <c r="O21" s="629"/>
-      <c r="Q21" s="632"/>
+      <c r="O21" s="685"/>
+      <c r="Q21" s="688"/>
       <c r="T21" s="426"/>
       <c r="U21" s="14"/>
-      <c r="V21" s="666"/>
+      <c r="V21" s="615"/>
       <c r="W21" s="430" t="s">
         <v>175</v>
       </c>
       <c r="X21" s="433" t="s">
         <v>186</v>
       </c>
-      <c r="Y21" s="664"/>
+      <c r="Y21" s="660"/>
       <c r="Z21" s="449">
         <v>3</v>
       </c>
@@ -8306,15 +8309,15 @@
       <c r="AM21" s="432" t="s">
         <v>546</v>
       </c>
-      <c r="AN21" s="647"/>
+      <c r="AN21" s="642"/>
     </row>
     <row r="22" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F22" s="626"/>
+      <c r="F22" s="647"/>
       <c r="G22" s="340" t="s">
         <v>490</v>
       </c>
       <c r="I22" s="221"/>
-      <c r="O22" s="629"/>
+      <c r="O22" s="685"/>
       <c r="R22" s="438" t="s">
         <v>44</v>
       </c>
@@ -8322,14 +8325,14 @@
         <v>44</v>
       </c>
       <c r="U22" s="15"/>
-      <c r="V22" s="667"/>
+      <c r="V22" s="616"/>
       <c r="W22" s="430" t="s">
         <v>175</v>
       </c>
       <c r="X22" s="433" t="s">
         <v>187</v>
       </c>
-      <c r="Y22" s="664"/>
+      <c r="Y22" s="660"/>
       <c r="Z22" s="419"/>
       <c r="AA22" s="10"/>
       <c r="AB22" s="419"/>
@@ -8340,7 +8343,7 @@
       <c r="AG22" s="6"/>
       <c r="AH22" s="6"/>
       <c r="AI22" s="6"/>
-      <c r="AJ22" s="636" t="s">
+      <c r="AJ22" s="656" t="s">
         <v>473</v>
       </c>
       <c r="AK22" s="259"/>
@@ -8348,7 +8351,7 @@
         <v>479</v>
       </c>
       <c r="AM22" s="302"/>
-      <c r="AN22" s="647"/>
+      <c r="AN22" s="642"/>
     </row>
     <row r="23" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="233" t="s">
@@ -8366,22 +8369,22 @@
       <c r="E23" s="227">
         <v>1</v>
       </c>
-      <c r="F23" s="626"/>
+      <c r="F23" s="647"/>
       <c r="I23" s="221"/>
-      <c r="O23" s="629"/>
-      <c r="Q23" s="631" t="s">
+      <c r="O23" s="685"/>
+      <c r="Q23" s="687" t="s">
         <v>144</v>
       </c>
       <c r="T23" s="17"/>
       <c r="U23" s="424" t="s">
         <v>44</v>
       </c>
-      <c r="V23" s="667"/>
+      <c r="V23" s="616"/>
       <c r="W23" s="148"/>
       <c r="X23" s="433" t="s">
         <v>188</v>
       </c>
-      <c r="Y23" s="664"/>
+      <c r="Y23" s="660"/>
       <c r="Z23" s="17"/>
       <c r="AA23" s="10"/>
       <c r="AB23" s="419"/>
@@ -8392,13 +8395,13 @@
       <c r="AG23" s="6"/>
       <c r="AH23" s="6"/>
       <c r="AI23" s="6"/>
-      <c r="AJ23" s="636"/>
+      <c r="AJ23" s="656"/>
       <c r="AK23" s="259"/>
       <c r="AL23" s="80" t="s">
         <v>508</v>
       </c>
       <c r="AM23" s="302"/>
-      <c r="AN23" s="647"/>
+      <c r="AN23" s="642"/>
     </row>
     <row r="24" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="444" t="s">
@@ -8416,23 +8419,23 @@
       <c r="E24" s="440">
         <v>1</v>
       </c>
-      <c r="F24" s="626"/>
+      <c r="F24" s="647"/>
       <c r="G24" s="61" t="s">
         <v>491</v>
       </c>
       <c r="I24" s="221"/>
-      <c r="O24" s="629"/>
-      <c r="Q24" s="632"/>
+      <c r="O24" s="685"/>
+      <c r="Q24" s="688"/>
       <c r="T24" s="17"/>
       <c r="U24" s="229" t="s">
         <v>44</v>
       </c>
-      <c r="V24" s="667"/>
+      <c r="V24" s="616"/>
       <c r="W24" s="148"/>
       <c r="X24" s="433" t="s">
         <v>185</v>
       </c>
-      <c r="Y24" s="664"/>
+      <c r="Y24" s="660"/>
       <c r="Z24" s="17"/>
       <c r="AA24" s="10"/>
       <c r="AB24" s="419"/>
@@ -8451,12 +8454,12 @@
         <v>464</v>
       </c>
       <c r="AM24" s="302"/>
-      <c r="AN24" s="647"/>
+      <c r="AN24" s="642"/>
     </row>
     <row r="25" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F25" s="626"/>
+      <c r="F25" s="647"/>
       <c r="I25" s="221"/>
-      <c r="O25" s="629"/>
+      <c r="O25" s="685"/>
       <c r="P25" s="206" t="s">
         <v>281</v>
       </c>
@@ -8469,12 +8472,12 @@
       <c r="U25" s="404" t="s">
         <v>44</v>
       </c>
-      <c r="V25" s="668"/>
+      <c r="V25" s="617"/>
       <c r="W25" s="148"/>
       <c r="X25" s="433" t="s">
         <v>189</v>
       </c>
-      <c r="Y25" s="664"/>
+      <c r="Y25" s="660"/>
       <c r="Z25" s="17"/>
       <c r="AA25" s="10"/>
       <c r="AB25" s="419"/>
@@ -8491,7 +8494,7 @@
       <c r="AK25" s="142"/>
       <c r="AL25" s="6"/>
       <c r="AM25" s="302"/>
-      <c r="AN25" s="647"/>
+      <c r="AN25" s="642"/>
     </row>
     <row r="26" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="233" t="s">
@@ -8509,17 +8512,17 @@
       <c r="E26" s="383">
         <v>1</v>
       </c>
-      <c r="F26" s="626"/>
+      <c r="F26" s="647"/>
       <c r="G26" s="340" t="s">
         <v>488</v>
       </c>
       <c r="I26" s="221"/>
-      <c r="O26" s="629"/>
-      <c r="P26" s="649" t="s">
+      <c r="O26" s="685"/>
+      <c r="P26" s="644" t="s">
         <v>527</v>
       </c>
-      <c r="Q26" s="650"/>
-      <c r="R26" s="623" t="s">
+      <c r="Q26" s="645"/>
+      <c r="R26" s="681" t="s">
         <v>536</v>
       </c>
       <c r="T26" s="180"/>
@@ -8531,7 +8534,7 @@
       <c r="X26" s="433" t="s">
         <v>181</v>
       </c>
-      <c r="Y26" s="664"/>
+      <c r="Y26" s="660"/>
       <c r="Z26" s="17"/>
       <c r="AA26" s="10"/>
       <c r="AB26" s="419"/>
@@ -8558,7 +8561,7 @@
       <c r="AM26" s="446" t="s">
         <v>457</v>
       </c>
-      <c r="AN26" s="647"/>
+      <c r="AN26" s="642"/>
     </row>
     <row r="27" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B27" s="21" t="s">
@@ -8570,13 +8573,13 @@
       <c r="E27" s="267" t="s">
         <v>44</v>
       </c>
-      <c r="F27" s="627"/>
+      <c r="F27" s="683"/>
       <c r="G27" s="61" t="s">
         <v>545</v>
       </c>
       <c r="I27" s="222"/>
-      <c r="O27" s="630"/>
-      <c r="R27" s="624"/>
+      <c r="O27" s="686"/>
+      <c r="R27" s="682"/>
       <c r="S27" s="425" t="s">
         <v>54</v>
       </c>
@@ -8589,7 +8592,7 @@
       <c r="X27" s="433" t="s">
         <v>531</v>
       </c>
-      <c r="Y27" s="665"/>
+      <c r="Y27" s="661"/>
       <c r="Z27" s="161"/>
       <c r="AA27" s="13"/>
       <c r="AB27" s="420"/>
@@ -8606,10 +8609,48 @@
       <c r="AM27" s="384" t="s">
         <v>320</v>
       </c>
-      <c r="AN27" s="648"/>
+      <c r="AN27" s="643"/>
     </row>
   </sheetData>
   <mergeCells count="54">
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="R18:R19"/>
+    <mergeCell ref="R26:R27"/>
+    <mergeCell ref="F2:F27"/>
+    <mergeCell ref="O10:O27"/>
+    <mergeCell ref="Q20:Q21"/>
+    <mergeCell ref="Q23:Q24"/>
+    <mergeCell ref="G14:J14"/>
+    <mergeCell ref="G13:J13"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="AI6:AI10"/>
+    <mergeCell ref="AF12:AF15"/>
+    <mergeCell ref="AG7:AG12"/>
+    <mergeCell ref="L8:L9"/>
+    <mergeCell ref="S9:S12"/>
+    <mergeCell ref="N8:N9"/>
+    <mergeCell ref="AD12:AD15"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="AN1:AN27"/>
+    <mergeCell ref="P26:Q26"/>
+    <mergeCell ref="Q2:Q3"/>
+    <mergeCell ref="M2:M9"/>
+    <mergeCell ref="O2:O9"/>
+    <mergeCell ref="P10:P13"/>
+    <mergeCell ref="AK6:AK7"/>
+    <mergeCell ref="AM12:AM15"/>
+    <mergeCell ref="AF18:AF19"/>
+    <mergeCell ref="AJ18:AJ19"/>
+    <mergeCell ref="Y1:Y27"/>
+    <mergeCell ref="AJ22:AJ23"/>
+    <mergeCell ref="AK9:AK10"/>
+    <mergeCell ref="AD3:AD4"/>
+    <mergeCell ref="S2:S3"/>
+    <mergeCell ref="R2:R3"/>
     <mergeCell ref="V21:V25"/>
     <mergeCell ref="U18:U20"/>
     <mergeCell ref="C2:C3"/>
@@ -8626,44 +8667,6 @@
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="B4:B5"/>
-    <mergeCell ref="AN1:AN27"/>
-    <mergeCell ref="P26:Q26"/>
-    <mergeCell ref="Q2:Q3"/>
-    <mergeCell ref="M2:M9"/>
-    <mergeCell ref="O2:O9"/>
-    <mergeCell ref="P10:P13"/>
-    <mergeCell ref="AK6:AK7"/>
-    <mergeCell ref="AM12:AM15"/>
-    <mergeCell ref="AF18:AF19"/>
-    <mergeCell ref="AJ18:AJ19"/>
-    <mergeCell ref="Y1:Y27"/>
-    <mergeCell ref="AJ22:AJ23"/>
-    <mergeCell ref="AK9:AK10"/>
-    <mergeCell ref="AD3:AD4"/>
-    <mergeCell ref="S2:S3"/>
-    <mergeCell ref="R2:R3"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="AI6:AI10"/>
-    <mergeCell ref="AF12:AF15"/>
-    <mergeCell ref="AG7:AG12"/>
-    <mergeCell ref="L8:L9"/>
-    <mergeCell ref="S9:S12"/>
-    <mergeCell ref="N8:N9"/>
-    <mergeCell ref="AD12:AD15"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="R18:R19"/>
-    <mergeCell ref="R26:R27"/>
-    <mergeCell ref="F2:F27"/>
-    <mergeCell ref="O10:O27"/>
-    <mergeCell ref="Q20:Q21"/>
-    <mergeCell ref="Q23:Q24"/>
-    <mergeCell ref="G14:J14"/>
-    <mergeCell ref="G13:J13"/>
-    <mergeCell ref="H12:K12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8700,12 +8703,12 @@
       <c r="B1" s="609" t="s">
         <v>311</v>
       </c>
-      <c r="C1" s="633"/>
+      <c r="C1" s="689"/>
       <c r="D1" s="206"/>
       <c r="J1" s="609" t="s">
         <v>69</v>
       </c>
-      <c r="K1" s="633"/>
+      <c r="K1" s="689"/>
       <c r="L1" s="197" t="s">
         <v>331</v>
       </c>
@@ -9040,7 +9043,7 @@
   <dimension ref="A1:AL31"/>
   <sheetViews>
     <sheetView topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="AI14" sqref="AI14"/>
+      <selection activeCell="AH14" sqref="AH14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9108,7 +9111,7 @@
       <c r="P1" s="402" t="s">
         <v>398</v>
       </c>
-      <c r="Q1" s="707" t="s">
+      <c r="Q1" s="720" t="s">
         <v>180</v>
       </c>
       <c r="R1" s="100" t="s">
@@ -9132,7 +9135,7 @@
       <c r="AA1" s="523" t="s">
         <v>438</v>
       </c>
-      <c r="AB1" s="701" t="s">
+      <c r="AB1" s="714" t="s">
         <v>596</v>
       </c>
       <c r="AC1" s="99" t="s">
@@ -9154,32 +9157,32 @@
       </c>
     </row>
     <row r="2" spans="1:38" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="712">
+      <c r="A2" s="699">
         <f ca="1">TODAY()</f>
-        <v>45282</v>
-      </c>
-      <c r="B2" s="714" t="s">
+        <v>45283</v>
+      </c>
+      <c r="B2" s="701" t="s">
         <v>380</v>
       </c>
-      <c r="C2" s="651" t="s">
+      <c r="C2" s="621" t="s">
         <v>358</v>
       </c>
-      <c r="D2" s="716" t="s">
+      <c r="D2" s="703" t="s">
         <v>102</v>
       </c>
-      <c r="E2" s="718" t="s">
+      <c r="E2" s="705" t="s">
         <v>64</v>
       </c>
       <c r="F2" s="193" t="s">
         <v>219</v>
       </c>
-      <c r="G2" s="619" t="s">
+      <c r="G2" s="665" t="s">
         <v>373</v>
       </c>
       <c r="H2" s="208" t="s">
         <v>219</v>
       </c>
-      <c r="I2" s="698" t="s">
+      <c r="I2" s="711" t="s">
         <v>102</v>
       </c>
       <c r="J2" s="400" t="s">
@@ -9203,7 +9206,7 @@
       <c r="P2" s="403">
         <v>40</v>
       </c>
-      <c r="Q2" s="708"/>
+      <c r="Q2" s="721"/>
       <c r="R2" s="21">
         <f>R7+R20</f>
         <v>2</v>
@@ -9228,7 +9231,7 @@
         <f>IF((Z2+T2)&gt;0,0,-1)</f>
         <v>0</v>
       </c>
-      <c r="AB2" s="702"/>
+      <c r="AB2" s="715"/>
       <c r="AC2" s="35"/>
       <c r="AH2" s="6" t="s">
         <v>453</v>
@@ -9245,14 +9248,14 @@
       </c>
     </row>
     <row r="3" spans="1:38" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="713"/>
-      <c r="B3" s="715"/>
-      <c r="C3" s="652"/>
-      <c r="D3" s="717"/>
-      <c r="E3" s="719"/>
-      <c r="G3" s="620"/>
+      <c r="A3" s="700"/>
+      <c r="B3" s="702"/>
+      <c r="C3" s="622"/>
+      <c r="D3" s="704"/>
+      <c r="E3" s="706"/>
+      <c r="G3" s="666"/>
       <c r="H3" s="6"/>
-      <c r="I3" s="699"/>
+      <c r="I3" s="712"/>
       <c r="K3" s="24">
         <v>2</v>
       </c>
@@ -9267,7 +9270,7 @@
       <c r="V3" s="475"/>
       <c r="W3" s="6"/>
       <c r="X3" s="475"/>
-      <c r="AB3" s="702"/>
+      <c r="AB3" s="715"/>
       <c r="AC3" s="35"/>
       <c r="AE3" s="100" t="s">
         <v>591</v>
@@ -9296,10 +9299,10 @@
         <v>381</v>
       </c>
       <c r="B4" s="245"/>
-      <c r="C4" s="720" t="s">
+      <c r="C4" s="707" t="s">
         <v>177</v>
       </c>
-      <c r="I4" s="699"/>
+      <c r="I4" s="712"/>
       <c r="R4" s="476" t="s">
         <v>591</v>
       </c>
@@ -9311,7 +9314,7 @@
       <c r="V4" s="475"/>
       <c r="W4" s="6"/>
       <c r="X4" s="475"/>
-      <c r="AB4" s="702"/>
+      <c r="AB4" s="715"/>
       <c r="AC4" s="35"/>
       <c r="AE4" s="20"/>
       <c r="AF4" s="100" t="s">
@@ -9342,7 +9345,7 @@
       <c r="B5" s="100" t="s">
         <v>358</v>
       </c>
-      <c r="C5" s="721"/>
+      <c r="C5" s="708"/>
       <c r="D5" s="224" t="s">
         <v>102</v>
       </c>
@@ -9358,7 +9361,7 @@
       <c r="H5" s="208" t="s">
         <v>219</v>
       </c>
-      <c r="I5" s="699"/>
+      <c r="I5" s="712"/>
       <c r="J5" s="401" t="s">
         <v>269</v>
       </c>
@@ -9385,7 +9388,7 @@
       <c r="V5" s="473"/>
       <c r="W5" s="6"/>
       <c r="X5" s="473"/>
-      <c r="AB5" s="702"/>
+      <c r="AB5" s="715"/>
       <c r="AC5" s="2" t="s">
         <v>594</v>
       </c>
@@ -9399,19 +9402,19 @@
       <c r="AL5" s="473"/>
     </row>
     <row r="6" spans="1:38" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="709" t="s">
+      <c r="A6" s="696" t="s">
         <v>286</v>
       </c>
       <c r="B6" s="105" t="s">
         <v>198</v>
       </c>
-      <c r="C6" s="634"/>
-      <c r="D6" s="635"/>
+      <c r="C6" s="667"/>
+      <c r="D6" s="668"/>
       <c r="E6" s="96">
         <v>1</v>
       </c>
       <c r="G6" s="605"/>
-      <c r="I6" s="699"/>
+      <c r="I6" s="712"/>
       <c r="P6" s="61" t="s">
         <v>594</v>
       </c>
@@ -9423,11 +9426,11 @@
         <f>S7-S12-SUM(V2:V10)</f>
         <v>0</v>
       </c>
-      <c r="AB6" s="702"/>
+      <c r="AB6" s="715"/>
       <c r="AC6" s="35"/>
       <c r="AE6" s="64">
         <f>AE7-SUM(AL2:AL10)+AE11</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF6" s="64">
         <f>AF7-SUM(AI2:AI10)+AF11</f>
@@ -9439,7 +9442,7 @@
       <c r="AL6" s="112"/>
     </row>
     <row r="7" spans="1:38" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="710"/>
+      <c r="A7" s="697"/>
       <c r="B7" s="100" t="s">
         <v>154</v>
       </c>
@@ -9450,7 +9453,7 @@
         <v>135</v>
       </c>
       <c r="G7" s="605"/>
-      <c r="I7" s="699"/>
+      <c r="I7" s="712"/>
       <c r="M7" s="16" t="s">
         <v>348</v>
       </c>
@@ -9482,7 +9485,7 @@
       <c r="X7" s="474">
         <v>1</v>
       </c>
-      <c r="AB7" s="702"/>
+      <c r="AB7" s="715"/>
       <c r="AC7" s="99" t="s">
         <v>595</v>
       </c>
@@ -9491,7 +9494,7 @@
       </c>
       <c r="AE7" s="24">
         <f>8-AE11</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AF7" s="297">
         <f>8-AF11</f>
@@ -9508,7 +9511,7 @@
       </c>
     </row>
     <row r="8" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="711"/>
+      <c r="A8" s="698"/>
       <c r="B8" s="214" t="s">
         <v>28</v>
       </c>
@@ -9517,7 +9520,7 @@
         <v>3</v>
       </c>
       <c r="G8" s="605"/>
-      <c r="I8" s="699"/>
+      <c r="I8" s="712"/>
       <c r="N8" s="80"/>
       <c r="U8" s="6" t="s">
         <v>250</v>
@@ -9531,7 +9534,7 @@
       <c r="X8" s="475">
         <v>1</v>
       </c>
-      <c r="AB8" s="702"/>
+      <c r="AB8" s="715"/>
       <c r="AC8" s="521"/>
       <c r="AH8" s="6" t="s">
         <v>600</v>
@@ -9540,8 +9543,12 @@
         <v>1</v>
       </c>
       <c r="AJ8" s="561"/>
-      <c r="AK8" s="6"/>
-      <c r="AL8" s="555"/>
+      <c r="AK8" s="6" t="s">
+        <v>627</v>
+      </c>
+      <c r="AL8" s="555">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="233" t="s">
@@ -9558,7 +9565,7 @@
       </c>
       <c r="G9" s="605"/>
       <c r="H9" s="6"/>
-      <c r="I9" s="699"/>
+      <c r="I9" s="712"/>
       <c r="M9" s="19" t="s">
         <v>526</v>
       </c>
@@ -9569,7 +9576,7 @@
         <v>510</v>
       </c>
       <c r="X9" s="472"/>
-      <c r="AB9" s="702"/>
+      <c r="AB9" s="715"/>
       <c r="AC9" s="521"/>
       <c r="AE9" s="20"/>
       <c r="AF9" s="20"/>
@@ -9598,10 +9605,10 @@
       <c r="D10" s="108"/>
       <c r="E10" s="68">
         <f>Boat!W8</f>
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G10" s="605"/>
-      <c r="I10" s="699"/>
+      <c r="I10" s="712"/>
       <c r="J10" s="24" t="s">
         <v>373</v>
       </c>
@@ -9618,7 +9625,7 @@
         <v>602</v>
       </c>
       <c r="X10" s="472"/>
-      <c r="AB10" s="702"/>
+      <c r="AB10" s="715"/>
       <c r="AC10" s="521"/>
       <c r="AE10" s="20"/>
       <c r="AF10" s="20"/>
@@ -9646,7 +9653,7 @@
         <v>266</v>
       </c>
       <c r="G11" s="605"/>
-      <c r="I11" s="699"/>
+      <c r="I11" s="712"/>
       <c r="J11" s="24" t="s">
         <v>194</v>
       </c>
@@ -9672,13 +9679,13 @@
       <c r="S11" s="24">
         <v>2</v>
       </c>
-      <c r="U11" s="704" t="s">
+      <c r="U11" s="717" t="s">
         <v>559</v>
       </c>
-      <c r="V11" s="705"/>
-      <c r="W11" s="705"/>
-      <c r="X11" s="706"/>
-      <c r="AB11" s="703"/>
+      <c r="V11" s="718"/>
+      <c r="W11" s="718"/>
+      <c r="X11" s="719"/>
+      <c r="AB11" s="716"/>
       <c r="AC11" s="99" t="s">
         <v>597</v>
       </c>
@@ -9686,19 +9693,19 @@
         <v>44</v>
       </c>
       <c r="AE11" s="24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF11" s="24">
         <v>3</v>
       </c>
       <c r="AG11" s="418"/>
-      <c r="AH11" s="704" t="s">
+      <c r="AH11" s="717" t="s">
         <v>614</v>
       </c>
-      <c r="AI11" s="705"/>
-      <c r="AJ11" s="705"/>
-      <c r="AK11" s="705"/>
-      <c r="AL11" s="706"/>
+      <c r="AI11" s="718"/>
+      <c r="AJ11" s="718"/>
+      <c r="AK11" s="718"/>
+      <c r="AL11" s="719"/>
     </row>
     <row r="12" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="229" t="s">
@@ -9709,7 +9716,7 @@
         <v>3</v>
       </c>
       <c r="G12" s="605"/>
-      <c r="I12" s="699"/>
+      <c r="I12" s="712"/>
       <c r="J12" s="24" t="s">
         <v>517</v>
       </c>
@@ -9742,7 +9749,7 @@
       </c>
       <c r="D13" s="20"/>
       <c r="G13" s="605"/>
-      <c r="I13" s="699"/>
+      <c r="I13" s="712"/>
       <c r="J13" s="108" t="s">
         <v>549</v>
       </c>
@@ -9786,7 +9793,7 @@
       <c r="H14" s="208" t="s">
         <v>219</v>
       </c>
-      <c r="I14" s="699"/>
+      <c r="I14" s="712"/>
       <c r="U14" s="67" t="s">
         <v>80</v>
       </c>
@@ -9813,7 +9820,7 @@
       <c r="H15" s="273">
         <v>0</v>
       </c>
-      <c r="I15" s="699"/>
+      <c r="I15" s="712"/>
       <c r="J15" s="108" t="s">
         <v>153</v>
       </c>
@@ -9844,7 +9851,7 @@
       <c r="D16" s="2" t="s">
         <v>493</v>
       </c>
-      <c r="I16" s="699"/>
+      <c r="I16" s="712"/>
       <c r="K16" s="100" t="s">
         <v>44</v>
       </c>
@@ -9888,7 +9895,7 @@
       <c r="G17" s="2" t="s">
         <v>424</v>
       </c>
-      <c r="I17" s="699"/>
+      <c r="I17" s="712"/>
       <c r="L17" s="2" t="s">
         <v>427</v>
       </c>
@@ -9906,13 +9913,13 @@
     </row>
     <row r="18" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G18" s="16"/>
-      <c r="I18" s="699"/>
+      <c r="I18" s="712"/>
       <c r="L18" s="16"/>
       <c r="M18" s="21"/>
-      <c r="O18" s="696" t="s">
+      <c r="O18" s="709" t="s">
         <v>518</v>
       </c>
-      <c r="P18" s="697"/>
+      <c r="P18" s="710"/>
       <c r="Q18" s="127" t="s">
         <v>44</v>
       </c>
@@ -9938,7 +9945,7 @@
       </c>
     </row>
     <row r="19" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I19" s="699"/>
+      <c r="I19" s="712"/>
       <c r="M19" s="21" t="s">
         <v>426</v>
       </c>
@@ -9974,7 +9981,7 @@
       <c r="G20" s="2" t="s">
         <v>424</v>
       </c>
-      <c r="I20" s="699"/>
+      <c r="I20" s="712"/>
       <c r="K20" s="19" t="s">
         <v>423</v>
       </c>
@@ -10009,7 +10016,7 @@
       </c>
     </row>
     <row r="21" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I21" s="699"/>
+      <c r="I21" s="712"/>
       <c r="M21" s="218" t="s">
         <v>412</v>
       </c>
@@ -10043,7 +10050,7 @@
       <c r="G22" s="2" t="s">
         <v>424</v>
       </c>
-      <c r="I22" s="699"/>
+      <c r="I22" s="712"/>
       <c r="P22" s="99" t="s">
         <v>593</v>
       </c>
@@ -10058,7 +10065,7 @@
       <c r="E23" s="285" t="s">
         <v>44</v>
       </c>
-      <c r="I23" s="699"/>
+      <c r="I23" s="712"/>
       <c r="Q23" s="24">
         <f>SUM(V23:V31)</f>
         <v>5</v>
@@ -10075,7 +10082,7 @@
       </c>
     </row>
     <row r="24" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I24" s="699"/>
+      <c r="I24" s="712"/>
       <c r="U24" s="35"/>
       <c r="V24" s="514">
         <v>0</v>
@@ -10103,7 +10110,7 @@
       <c r="H25" s="193" t="s">
         <v>267</v>
       </c>
-      <c r="I25" s="699"/>
+      <c r="I25" s="712"/>
       <c r="J25" s="401" t="s">
         <v>270</v>
       </c>
@@ -10148,7 +10155,7 @@
       <c r="H26" s="19" t="s">
         <v>219</v>
       </c>
-      <c r="I26" s="699"/>
+      <c r="I26" s="712"/>
       <c r="K26" s="24">
         <v>15</v>
       </c>
@@ -10183,7 +10190,7 @@
       </c>
     </row>
     <row r="27" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I27" s="699"/>
+      <c r="I27" s="712"/>
       <c r="O27" s="2" t="s">
         <v>98</v>
       </c>
@@ -10210,7 +10217,7 @@
       <c r="E28" s="217">
         <v>2</v>
       </c>
-      <c r="I28" s="699"/>
+      <c r="I28" s="712"/>
       <c r="Q28" s="6"/>
       <c r="R28" s="112"/>
       <c r="T28" s="142"/>
@@ -10232,7 +10239,7 @@
       <c r="H29" s="193" t="s">
         <v>268</v>
       </c>
-      <c r="I29" s="700"/>
+      <c r="I29" s="713"/>
       <c r="J29" s="326"/>
       <c r="L29" s="96" t="s">
         <v>274</v>
@@ -10290,6 +10297,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="O18:P18"/>
+    <mergeCell ref="I2:I29"/>
+    <mergeCell ref="AB1:AB11"/>
+    <mergeCell ref="AH11:AL11"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="Q1:Q2"/>
+    <mergeCell ref="U11:X11"/>
     <mergeCell ref="A6:A8"/>
     <mergeCell ref="G5:G14"/>
     <mergeCell ref="A2:A3"/>
@@ -10301,13 +10315,6 @@
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="G2:G3"/>
     <mergeCell ref="C2:C3"/>
-    <mergeCell ref="O18:P18"/>
-    <mergeCell ref="I2:I29"/>
-    <mergeCell ref="AB1:AB11"/>
-    <mergeCell ref="AH11:AL11"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="Q1:Q2"/>
-    <mergeCell ref="U11:X11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10318,7 +10325,7 @@
   <dimension ref="A1:AT37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10416,16 +10423,16 @@
       </c>
       <c r="S1" s="151">
         <f ca="1">TODAY()</f>
-        <v>45282</v>
-      </c>
-      <c r="T1" s="745"/>
+        <v>45283</v>
+      </c>
+      <c r="T1" s="748"/>
       <c r="U1" s="142"/>
       <c r="V1" s="6"/>
       <c r="W1" s="6"/>
-      <c r="X1" s="729" t="s">
+      <c r="X1" s="732" t="s">
         <v>442</v>
       </c>
-      <c r="Y1" s="730"/>
+      <c r="Y1" s="733"/>
       <c r="Z1" s="308">
         <f>68-(W8+Y3+X3+U3)</f>
         <v>0</v>
@@ -10441,23 +10448,23 @@
       <c r="AD1" s="304" t="s">
         <v>44</v>
       </c>
-      <c r="AE1" s="731" t="s">
+      <c r="AE1" s="734" t="s">
         <v>190</v>
       </c>
-      <c r="AF1" s="732"/>
-      <c r="AG1" s="733"/>
-      <c r="AH1" s="734" t="s">
+      <c r="AF1" s="735"/>
+      <c r="AG1" s="736"/>
+      <c r="AH1" s="737" t="s">
         <v>294</v>
       </c>
-      <c r="AI1" s="735"/>
-      <c r="AJ1" s="736"/>
+      <c r="AI1" s="738"/>
+      <c r="AJ1" s="739"/>
       <c r="AK1" s="558"/>
       <c r="AL1" s="558"/>
-      <c r="AM1" s="726" t="s">
+      <c r="AM1" s="729" t="s">
         <v>445</v>
       </c>
-      <c r="AN1" s="727"/>
-      <c r="AO1" s="728"/>
+      <c r="AN1" s="730"/>
+      <c r="AO1" s="731"/>
       <c r="AR1" s="142"/>
     </row>
     <row r="2" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10470,29 +10477,29 @@
       </c>
       <c r="J2" s="320">
         <f>K2+L2</f>
-        <v>28</v>
-      </c>
-      <c r="K2" s="724">
+        <v>30</v>
+      </c>
+      <c r="K2" s="727">
         <f>SUM(K4:K29)</f>
         <v>12</v>
       </c>
-      <c r="L2" s="722">
+      <c r="L2" s="725">
         <f>SUM(L4:L37)</f>
-        <v>16</v>
-      </c>
-      <c r="M2" s="737">
+        <v>18</v>
+      </c>
+      <c r="M2" s="740">
         <f>SUM(M5:M30)</f>
         <v>1</v>
       </c>
-      <c r="N2" s="739">
+      <c r="N2" s="742">
         <f>SUM(N4:N29)</f>
+        <v>11</v>
+      </c>
+      <c r="O2" s="744">
+        <f>SUM(O4:O29)</f>
         <v>10</v>
       </c>
-      <c r="O2" s="741">
-        <f>SUM(O4:O29)</f>
-        <v>9</v>
-      </c>
-      <c r="P2" s="643">
+      <c r="P2" s="672">
         <f>SUM(N30:N37)* (-1)</f>
         <v>-3</v>
       </c>
@@ -10505,14 +10512,14 @@
       <c r="S2" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="T2" s="746"/>
+      <c r="T2" s="749"/>
       <c r="U2" s="543" t="s">
         <v>263</v>
       </c>
       <c r="V2" s="487" t="s">
         <v>220</v>
       </c>
-      <c r="W2" s="743" t="s">
+      <c r="W2" s="746" t="s">
         <v>235</v>
       </c>
       <c r="X2" s="488" t="s">
@@ -10584,12 +10591,12 @@
         <f>V3+X3+Y3+U3</f>
         <v>68</v>
       </c>
-      <c r="K3" s="725"/>
-      <c r="L3" s="723"/>
-      <c r="M3" s="738"/>
-      <c r="N3" s="740"/>
-      <c r="O3" s="742"/>
-      <c r="P3" s="644"/>
+      <c r="K3" s="728"/>
+      <c r="L3" s="726"/>
+      <c r="M3" s="741"/>
+      <c r="N3" s="743"/>
+      <c r="O3" s="745"/>
+      <c r="P3" s="673"/>
       <c r="Q3" s="174">
         <f>(M2+N2)-Y3</f>
         <v>0</v>
@@ -10597,23 +10604,23 @@
       <c r="S3" s="159" t="s">
         <v>245</v>
       </c>
-      <c r="T3" s="747"/>
+      <c r="T3" s="750"/>
       <c r="U3" s="544">
         <f>SUM(U4:U29)</f>
         <v>11</v>
       </c>
       <c r="V3" s="489">
         <f>SUM(V4:V29)</f>
-        <v>37</v>
-      </c>
-      <c r="W3" s="744"/>
+        <v>36</v>
+      </c>
+      <c r="W3" s="747"/>
       <c r="X3" s="490">
         <f t="shared" ref="X3:AC3" si="0">SUM(X4:X29)</f>
         <v>9</v>
       </c>
       <c r="Y3" s="490">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Z3" s="59">
         <f t="shared" si="0"/>
@@ -10621,15 +10628,15 @@
       </c>
       <c r="AA3" s="66">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AB3" s="66">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AC3" s="66">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AD3" s="66">
         <f t="shared" ref="AD3:AO3" si="1">SUM(AD4:AD29)</f>
@@ -10637,7 +10644,7 @@
       </c>
       <c r="AE3" s="66">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AF3" s="66">
         <f t="shared" si="1"/>
@@ -10649,7 +10656,7 @@
       </c>
       <c r="AH3" s="66">
         <f>SUM(AH4:AH29)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AI3" s="377">
         <f t="shared" si="1"/>
@@ -10663,15 +10670,15 @@
       <c r="AL3" s="408"/>
       <c r="AM3" s="100">
         <f t="shared" si="1"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AN3" s="312">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AO3" s="313">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AR3" s="142"/>
     </row>
@@ -10704,7 +10711,7 @@
         <f>AC4</f>
         <v>0</v>
       </c>
-      <c r="P4" s="748" t="s">
+      <c r="P4" s="722" t="s">
         <v>199</v>
       </c>
       <c r="Q4" s="20"/>
@@ -10790,7 +10797,7 @@
         <f>AC5</f>
         <v>0</v>
       </c>
-      <c r="P5" s="749"/>
+      <c r="P5" s="723"/>
       <c r="Q5" s="20"/>
       <c r="R5" s="2" t="s">
         <v>341</v>
@@ -10888,7 +10895,7 @@
         <f>AC6</f>
         <v>1</v>
       </c>
-      <c r="P6" s="749"/>
+      <c r="P6" s="723"/>
       <c r="Q6" s="19" t="s">
         <v>336</v>
       </c>
@@ -10978,18 +10985,20 @@
       <c r="K7" s="585">
         <v>3</v>
       </c>
-      <c r="L7" s="593"/>
+      <c r="L7" s="593">
+        <v>2</v>
+      </c>
       <c r="M7" s="328">
         <v>0</v>
       </c>
       <c r="N7" s="107">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O7" s="295">
         <f t="shared" ref="O7:O37" si="10">AC7</f>
-        <v>0</v>
-      </c>
-      <c r="P7" s="749"/>
+        <v>1</v>
+      </c>
+      <c r="P7" s="723"/>
       <c r="Q7" s="20"/>
       <c r="R7" s="2" t="s">
         <v>336</v>
@@ -11004,7 +11013,7 @@
         <v>1</v>
       </c>
       <c r="V7" s="530">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W7" s="316">
         <v>-2</v>
@@ -11014,26 +11023,26 @@
       </c>
       <c r="Y7" s="185">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z7" s="298"/>
       <c r="AA7" s="117">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB7" s="292">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AC7" s="292">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD7" s="292">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AE7" s="296">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF7" s="107">
         <v>0</v>
@@ -11043,7 +11052,7 @@
       </c>
       <c r="AH7" s="298">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI7" s="378"/>
       <c r="AJ7" s="514"/>
@@ -11051,15 +11060,15 @@
       <c r="AL7" s="319"/>
       <c r="AM7" s="339">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN7" s="310">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO7" s="311">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP7" s="6" t="s">
         <v>241</v>
@@ -11103,7 +11112,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="P8" s="749"/>
+      <c r="P8" s="723"/>
       <c r="Q8" s="21" t="s">
         <v>234</v>
       </c>
@@ -11124,7 +11133,7 @@
       </c>
       <c r="W8" s="24">
         <f>V3</f>
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="X8" s="502">
         <v>0</v>
@@ -11194,7 +11203,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="P9" s="749"/>
+      <c r="P9" s="723"/>
       <c r="Q9" s="21" t="s">
         <v>336</v>
       </c>
@@ -11299,7 +11308,7 @@
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="P10" s="749"/>
+      <c r="P10" s="723"/>
       <c r="Q10" s="20"/>
       <c r="R10" s="2" t="s">
         <v>341</v>
@@ -11389,7 +11398,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="P11" s="749"/>
+      <c r="P11" s="723"/>
       <c r="Q11" s="21" t="s">
         <v>336</v>
       </c>
@@ -11454,14 +11463,14 @@
       <c r="AR11" s="513"/>
     </row>
     <row r="12" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="681" t="s">
+      <c r="A12" s="632" t="s">
         <v>55</v>
       </c>
       <c r="B12" s="30">
         <v>13</v>
       </c>
       <c r="C12" s="2"/>
-      <c r="E12" s="631" t="s">
+      <c r="E12" s="687" t="s">
         <v>56</v>
       </c>
       <c r="G12" s="264"/>
@@ -11486,7 +11495,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="P12" s="749"/>
+      <c r="P12" s="723"/>
       <c r="Q12" s="21" t="s">
         <v>336</v>
       </c>
@@ -11563,14 +11572,14 @@
       </c>
     </row>
     <row r="13" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="683"/>
+      <c r="A13" s="634"/>
       <c r="B13" s="597">
         <v>12</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="E13" s="632"/>
+      <c r="E13" s="688"/>
       <c r="F13" s="174">
         <v>0</v>
       </c>
@@ -11594,7 +11603,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="P13" s="749"/>
+      <c r="P13" s="723"/>
       <c r="Q13" s="21" t="s">
         <v>336</v>
       </c>
@@ -11676,7 +11685,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="P14" s="749"/>
+      <c r="P14" s="723"/>
       <c r="Q14" s="20"/>
       <c r="R14" s="202" t="s">
         <v>340</v>
@@ -11779,7 +11788,7 @@
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="P15" s="749"/>
+      <c r="P15" s="723"/>
       <c r="Q15" s="20"/>
       <c r="R15" s="202" t="s">
         <v>340</v>
@@ -11873,7 +11882,7 @@
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="P16" s="749"/>
+      <c r="P16" s="723"/>
       <c r="Q16" s="21" t="s">
         <v>336</v>
       </c>
@@ -11978,7 +11987,7 @@
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="P17" s="749"/>
+      <c r="P17" s="723"/>
       <c r="Q17" s="20"/>
       <c r="R17" s="2" t="s">
         <v>342</v>
@@ -12080,7 +12089,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="P18" s="749"/>
+      <c r="P18" s="723"/>
       <c r="Q18" s="21" t="s">
         <v>336</v>
       </c>
@@ -12168,7 +12177,7 @@
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="P19" s="749"/>
+      <c r="P19" s="723"/>
       <c r="Q19" s="20"/>
       <c r="R19" s="2" t="s">
         <v>335</v>
@@ -12278,11 +12287,11 @@
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="P20" s="750"/>
+      <c r="P20" s="724"/>
       <c r="Q20" s="609" t="s">
         <v>336</v>
       </c>
-      <c r="R20" s="633"/>
+      <c r="R20" s="689"/>
       <c r="S20" s="540" t="s">
         <v>85</v>
       </c>
@@ -12546,7 +12555,7 @@
     </row>
     <row r="23" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B23" s="24"/>
-      <c r="E23" s="688" t="s">
+      <c r="E23" s="639" t="s">
         <v>290</v>
       </c>
       <c r="F23" s="182"/>
@@ -12649,7 +12658,7 @@
       <c r="C24" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="E24" s="689"/>
+      <c r="E24" s="640"/>
       <c r="F24" s="174"/>
       <c r="H24" s="42"/>
       <c r="J24" s="581" t="s">
@@ -12672,7 +12681,7 @@
       <c r="Q24" s="609" t="s">
         <v>336</v>
       </c>
-      <c r="R24" s="633"/>
+      <c r="R24" s="689"/>
       <c r="S24" s="540" t="s">
         <v>250</v>
       </c>
@@ -13323,8 +13332,8 @@
       <c r="AR31" s="513"/>
     </row>
     <row r="32" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="636"/>
-      <c r="B32" s="636"/>
+      <c r="A32" s="656"/>
+      <c r="B32" s="656"/>
       <c r="J32" s="582" t="s">
         <v>310</v>
       </c>
@@ -13667,7 +13676,7 @@
     </row>
     <row r="36" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B36" s="24">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="F36" s="261" t="s">
         <v>44</v>
@@ -13858,12 +13867,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="Q24:R24"/>
-    <mergeCell ref="P4:P20"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="K2:K3"/>
     <mergeCell ref="AM1:AO1"/>
     <mergeCell ref="X1:Y1"/>
     <mergeCell ref="AE1:AG1"/>
@@ -13874,6 +13877,12 @@
     <mergeCell ref="P2:P3"/>
     <mergeCell ref="W2:W3"/>
     <mergeCell ref="T1:T3"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="Q24:R24"/>
+    <mergeCell ref="P4:P20"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="K2:K3"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="E12:E13"/>
     <mergeCell ref="Q20:R20"/>
@@ -13939,12 +13948,12 @@
       <c r="P1" s="38"/>
       <c r="S1" s="58">
         <f ca="1">TODAY()</f>
-        <v>45282</v>
+        <v>45283</v>
       </c>
       <c r="V1" s="609" t="s">
         <v>70</v>
       </c>
-      <c r="W1" s="633"/>
+      <c r="W1" s="689"/>
       <c r="X1" s="62" t="s">
         <v>101</v>
       </c>
@@ -13963,7 +13972,7 @@
       <c r="AC1" s="116" t="s">
         <v>190</v>
       </c>
-      <c r="AD1" s="758" t="s">
+      <c r="AD1" s="765" t="s">
         <v>212</v>
       </c>
       <c r="AE1" s="116" t="s">
@@ -13980,10 +13989,10 @@
       <c r="E2" s="39" t="s">
         <v>73</v>
       </c>
-      <c r="F2" s="757" t="s">
+      <c r="F2" s="796" t="s">
         <v>74</v>
       </c>
-      <c r="G2" s="785" t="s">
+      <c r="G2" s="753" t="s">
         <v>44</v>
       </c>
       <c r="H2" s="40" t="s">
@@ -14011,10 +14020,10 @@
       <c r="U2" s="60" t="s">
         <v>105</v>
       </c>
-      <c r="V2" s="729" t="s">
+      <c r="V2" s="732" t="s">
         <v>120</v>
       </c>
-      <c r="W2" s="730"/>
+      <c r="W2" s="733"/>
       <c r="X2" s="64" t="s">
         <v>109</v>
       </c>
@@ -14033,7 +14042,7 @@
       <c r="AC2" s="117" t="s">
         <v>98</v>
       </c>
-      <c r="AD2" s="759"/>
+      <c r="AD2" s="766"/>
       <c r="AE2" s="64" t="s">
         <v>98</v>
       </c>
@@ -14052,8 +14061,8 @@
       <c r="E3" s="39" t="s">
         <v>79</v>
       </c>
-      <c r="F3" s="685"/>
-      <c r="G3" s="786"/>
+      <c r="F3" s="636"/>
+      <c r="G3" s="754"/>
       <c r="H3" s="40" t="s">
         <v>80</v>
       </c>
@@ -14064,13 +14073,13 @@
         <v>81</v>
       </c>
       <c r="N3" s="44"/>
-      <c r="O3" s="795" t="s">
+      <c r="O3" s="763" t="s">
         <v>44</v>
       </c>
-      <c r="P3" s="777" t="s">
+      <c r="P3" s="784" t="s">
         <v>218</v>
       </c>
-      <c r="Q3" s="778"/>
+      <c r="Q3" s="785"/>
       <c r="S3" s="57" t="s">
         <v>219</v>
       </c>
@@ -14080,15 +14089,15 @@
       <c r="W3" s="59" t="s">
         <v>104</v>
       </c>
-      <c r="AD3" s="759"/>
+      <c r="AD3" s="766"/>
     </row>
     <row r="4" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G4" s="786"/>
+      <c r="G4" s="754"/>
       <c r="H4" s="6"/>
       <c r="L4" s="693" t="s">
         <v>82</v>
       </c>
-      <c r="O4" s="796"/>
+      <c r="O4" s="764"/>
       <c r="T4" s="55" t="s">
         <v>97</v>
       </c>
@@ -14102,8 +14111,8 @@
         <v>194</v>
       </c>
       <c r="Z4" s="611"/>
-      <c r="AA4" s="633"/>
-      <c r="AD4" s="759"/>
+      <c r="AA4" s="689"/>
+      <c r="AD4" s="766"/>
     </row>
     <row r="5" spans="1:31" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C5" s="52" t="s">
@@ -14118,21 +14127,21 @@
       <c r="F5" s="66" t="s">
         <v>84</v>
       </c>
-      <c r="G5" s="786"/>
+      <c r="G5" s="754"/>
       <c r="H5" s="46" t="s">
         <v>75</v>
       </c>
-      <c r="K5" s="764" t="s">
+      <c r="K5" s="771" t="s">
         <v>216</v>
       </c>
-      <c r="L5" s="779"/>
+      <c r="L5" s="786"/>
       <c r="M5" s="2" t="s">
         <v>214</v>
       </c>
       <c r="N5" s="61" t="s">
         <v>213</v>
       </c>
-      <c r="O5" s="796"/>
+      <c r="O5" s="764"/>
       <c r="P5" s="108" t="s">
         <v>215</v>
       </c>
@@ -14148,11 +14157,11 @@
       <c r="U5" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="Y5" s="767" t="s">
+      <c r="Y5" s="774" t="s">
         <v>283</v>
       </c>
-      <c r="Z5" s="768"/>
-      <c r="AD5" s="759"/>
+      <c r="Z5" s="775"/>
+      <c r="AD5" s="766"/>
     </row>
     <row r="6" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C6" s="109"/>
@@ -14162,16 +14171,16 @@
       <c r="E6" s="45" t="s">
         <v>85</v>
       </c>
-      <c r="G6" s="786"/>
+      <c r="G6" s="754"/>
       <c r="H6" s="46" t="s">
         <v>80</v>
       </c>
       <c r="I6" s="23">
         <v>15</v>
       </c>
-      <c r="K6" s="765"/>
-      <c r="L6" s="779"/>
-      <c r="O6" s="796"/>
+      <c r="K6" s="772"/>
+      <c r="L6" s="786"/>
+      <c r="O6" s="764"/>
       <c r="T6" s="2" t="s">
         <v>100</v>
       </c>
@@ -14181,23 +14190,23 @@
       <c r="V6" s="21">
         <v>-1</v>
       </c>
-      <c r="AD6" s="759"/>
+      <c r="AD6" s="766"/>
     </row>
     <row r="7" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C7" s="110"/>
-      <c r="G7" s="786"/>
+      <c r="G7" s="754"/>
       <c r="H7" s="6"/>
-      <c r="K7" s="765"/>
-      <c r="L7" s="779"/>
+      <c r="K7" s="772"/>
+      <c r="L7" s="786"/>
       <c r="N7" s="21" t="s">
         <v>119</v>
       </c>
-      <c r="O7" s="796"/>
+      <c r="O7" s="764"/>
       <c r="P7" s="73"/>
       <c r="U7" s="104" t="s">
         <v>20</v>
       </c>
-      <c r="AD7" s="759"/>
+      <c r="AD7" s="766"/>
     </row>
     <row r="8" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C8" s="130"/>
@@ -14210,7 +14219,7 @@
       <c r="F8" s="66" t="s">
         <v>86</v>
       </c>
-      <c r="G8" s="786"/>
+      <c r="G8" s="754"/>
       <c r="H8" s="50" t="s">
         <v>75</v>
       </c>
@@ -14220,41 +14229,41 @@
       <c r="J8" s="111">
         <v>115</v>
       </c>
-      <c r="K8" s="765"/>
-      <c r="L8" s="779"/>
-      <c r="O8" s="796"/>
+      <c r="K8" s="772"/>
+      <c r="L8" s="786"/>
+      <c r="O8" s="764"/>
       <c r="P8" s="49"/>
-      <c r="S8" s="761" t="s">
+      <c r="S8" s="768" t="s">
         <v>211</v>
       </c>
-      <c r="T8" s="762"/>
-      <c r="U8" s="762"/>
-      <c r="V8" s="762"/>
-      <c r="W8" s="762"/>
-      <c r="X8" s="762"/>
-      <c r="Y8" s="762"/>
-      <c r="Z8" s="762"/>
-      <c r="AA8" s="762"/>
-      <c r="AB8" s="762"/>
-      <c r="AC8" s="763"/>
-      <c r="AD8" s="759"/>
+      <c r="T8" s="769"/>
+      <c r="U8" s="769"/>
+      <c r="V8" s="769"/>
+      <c r="W8" s="769"/>
+      <c r="X8" s="769"/>
+      <c r="Y8" s="769"/>
+      <c r="Z8" s="769"/>
+      <c r="AA8" s="769"/>
+      <c r="AB8" s="769"/>
+      <c r="AC8" s="770"/>
+      <c r="AD8" s="766"/>
     </row>
     <row r="9" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C9" s="751"/>
-      <c r="G9" s="786"/>
+      <c r="C9" s="790"/>
+      <c r="G9" s="754"/>
       <c r="H9" s="6"/>
-      <c r="K9" s="765"/>
-      <c r="L9" s="789" t="s">
+      <c r="K9" s="772"/>
+      <c r="L9" s="757" t="s">
         <v>217</v>
       </c>
-      <c r="M9" s="790"/>
-      <c r="N9" s="791"/>
-      <c r="O9" s="796"/>
+      <c r="M9" s="758"/>
+      <c r="N9" s="759"/>
+      <c r="O9" s="764"/>
       <c r="P9" s="75"/>
-      <c r="AD9" s="759"/>
+      <c r="AD9" s="766"/>
     </row>
     <row r="10" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C10" s="752"/>
+      <c r="C10" s="791"/>
       <c r="D10" s="23"/>
       <c r="E10" s="45" t="s">
         <v>87</v>
@@ -14262,7 +14271,7 @@
       <c r="F10" s="66" t="s">
         <v>88</v>
       </c>
-      <c r="G10" s="786"/>
+      <c r="G10" s="754"/>
       <c r="H10" s="51"/>
       <c r="I10" s="21" t="s">
         <v>80</v>
@@ -14270,33 +14279,33 @@
       <c r="J10" s="3">
         <v>15</v>
       </c>
-      <c r="K10" s="765"/>
-      <c r="M10" s="754" t="s">
+      <c r="K10" s="772"/>
+      <c r="M10" s="793" t="s">
         <v>89</v>
       </c>
-      <c r="N10" s="755"/>
-      <c r="O10" s="755"/>
-      <c r="P10" s="755"/>
-      <c r="Q10" s="755"/>
-      <c r="R10" s="755"/>
-      <c r="S10" s="755"/>
-      <c r="T10" s="755"/>
-      <c r="U10" s="755"/>
-      <c r="V10" s="755"/>
-      <c r="W10" s="755"/>
-      <c r="X10" s="755"/>
-      <c r="Y10" s="755"/>
-      <c r="Z10" s="755"/>
-      <c r="AA10" s="755"/>
-      <c r="AB10" s="755"/>
-      <c r="AC10" s="756"/>
-      <c r="AD10" s="759"/>
+      <c r="N10" s="794"/>
+      <c r="O10" s="794"/>
+      <c r="P10" s="794"/>
+      <c r="Q10" s="794"/>
+      <c r="R10" s="794"/>
+      <c r="S10" s="794"/>
+      <c r="T10" s="794"/>
+      <c r="U10" s="794"/>
+      <c r="V10" s="794"/>
+      <c r="W10" s="794"/>
+      <c r="X10" s="794"/>
+      <c r="Y10" s="794"/>
+      <c r="Z10" s="794"/>
+      <c r="AA10" s="794"/>
+      <c r="AB10" s="794"/>
+      <c r="AC10" s="795"/>
+      <c r="AD10" s="766"/>
     </row>
     <row r="11" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C11" s="753"/>
-      <c r="G11" s="786"/>
+      <c r="C11" s="792"/>
+      <c r="G11" s="754"/>
       <c r="H11" s="6"/>
-      <c r="K11" s="765"/>
+      <c r="K11" s="772"/>
       <c r="R11" s="52" t="s">
         <v>44</v>
       </c>
@@ -14304,17 +14313,17 @@
       <c r="Y11" s="68" t="s">
         <v>120</v>
       </c>
-      <c r="Z11" s="775" t="s">
+      <c r="Z11" s="782" t="s">
         <v>120</v>
       </c>
-      <c r="AA11" s="776"/>
+      <c r="AA11" s="783"/>
       <c r="AB11" s="52" t="s">
         <v>44</v>
       </c>
       <c r="AC11" s="118" t="s">
         <v>120</v>
       </c>
-      <c r="AD11" s="759"/>
+      <c r="AD11" s="766"/>
     </row>
     <row r="12" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C12" s="129"/>
@@ -14327,7 +14336,7 @@
       <c r="F12" s="66" t="s">
         <v>91</v>
       </c>
-      <c r="G12" s="786"/>
+      <c r="G12" s="754"/>
       <c r="H12" s="128"/>
       <c r="I12" s="19" t="s">
         <v>80</v>
@@ -14335,8 +14344,8 @@
       <c r="J12" s="3">
         <v>15</v>
       </c>
-      <c r="K12" s="765"/>
-      <c r="L12" s="780" t="s">
+      <c r="K12" s="772"/>
+      <c r="L12" s="787" t="s">
         <v>92</v>
       </c>
       <c r="M12" s="21" t="s">
@@ -14367,25 +14376,25 @@
         <v>115</v>
       </c>
       <c r="Y12" s="6"/>
-      <c r="AA12" s="769" t="s">
+      <c r="AA12" s="776" t="s">
         <v>125</v>
       </c>
-      <c r="AB12" s="770"/>
+      <c r="AB12" s="777"/>
       <c r="AC12" s="21" t="s">
         <v>231</v>
       </c>
-      <c r="AD12" s="759"/>
+      <c r="AD12" s="766"/>
     </row>
     <row r="13" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C13" s="751"/>
-      <c r="G13" s="786"/>
-      <c r="K13" s="765"/>
-      <c r="L13" s="781"/>
+      <c r="C13" s="790"/>
+      <c r="G13" s="754"/>
+      <c r="K13" s="772"/>
+      <c r="L13" s="788"/>
       <c r="M13" s="47"/>
-      <c r="Q13" s="788" t="s">
+      <c r="Q13" s="756" t="s">
         <v>209</v>
       </c>
-      <c r="R13" s="650"/>
+      <c r="R13" s="645"/>
       <c r="S13" s="605"/>
       <c r="T13" s="6"/>
       <c r="U13" s="96" t="s">
@@ -14394,17 +14403,17 @@
       <c r="X13" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="AA13" s="771"/>
-      <c r="AB13" s="772"/>
-      <c r="AD13" s="759"/>
+      <c r="AA13" s="778"/>
+      <c r="AB13" s="779"/>
+      <c r="AD13" s="766"/>
     </row>
     <row r="14" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="C14" s="753"/>
+      <c r="C14" s="792"/>
       <c r="D14" s="23"/>
-      <c r="G14" s="786"/>
+      <c r="G14" s="754"/>
       <c r="H14" s="125"/>
       <c r="I14" s="99" t="s">
         <v>44</v>
@@ -14412,8 +14421,8 @@
       <c r="J14" s="111">
         <v>115</v>
       </c>
-      <c r="K14" s="765"/>
-      <c r="L14" s="781"/>
+      <c r="K14" s="772"/>
+      <c r="L14" s="788"/>
       <c r="M14" s="21" t="s">
         <v>110</v>
       </c>
@@ -14434,9 +14443,9 @@
       <c r="Y14" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="AA14" s="771"/>
-      <c r="AB14" s="772"/>
-      <c r="AD14" s="759"/>
+      <c r="AA14" s="778"/>
+      <c r="AB14" s="779"/>
+      <c r="AD14" s="766"/>
     </row>
     <row r="15" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C15" s="130" t="s">
@@ -14451,19 +14460,19 @@
       <c r="F15" s="66" t="s">
         <v>93</v>
       </c>
-      <c r="G15" s="786"/>
+      <c r="G15" s="754"/>
       <c r="H15" s="2" t="s">
         <v>80</v>
       </c>
       <c r="I15" s="53" t="s">
         <v>80</v>
       </c>
-      <c r="K15" s="765"/>
-      <c r="L15" s="782"/>
-      <c r="Q15" s="788" t="s">
+      <c r="K15" s="772"/>
+      <c r="L15" s="789"/>
+      <c r="Q15" s="756" t="s">
         <v>210</v>
       </c>
-      <c r="R15" s="650"/>
+      <c r="R15" s="645"/>
       <c r="S15" s="605"/>
       <c r="T15" s="6"/>
       <c r="V15" s="68" t="s">
@@ -14472,14 +14481,14 @@
       <c r="X15" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="AA15" s="771"/>
-      <c r="AB15" s="772"/>
-      <c r="AD15" s="759"/>
+      <c r="AA15" s="778"/>
+      <c r="AB15" s="779"/>
+      <c r="AD15" s="766"/>
     </row>
     <row r="16" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C16" s="132"/>
-      <c r="G16" s="786"/>
-      <c r="K16" s="765"/>
+      <c r="G16" s="754"/>
+      <c r="K16" s="772"/>
       <c r="N16" s="47"/>
       <c r="O16" s="61" t="s">
         <v>108</v>
@@ -14498,24 +14507,24 @@
       <c r="Z16" s="76" t="s">
         <v>126</v>
       </c>
-      <c r="AA16" s="771"/>
-      <c r="AB16" s="772"/>
-      <c r="AD16" s="759"/>
+      <c r="AA16" s="778"/>
+      <c r="AB16" s="779"/>
+      <c r="AD16" s="766"/>
     </row>
     <row r="17" spans="3:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C17" s="109"/>
       <c r="E17" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="F17" s="783" t="s">
+      <c r="F17" s="751" t="s">
         <v>95</v>
       </c>
-      <c r="G17" s="786"/>
+      <c r="G17" s="754"/>
       <c r="H17" s="54"/>
       <c r="I17" s="133" t="s">
         <v>80</v>
       </c>
-      <c r="K17" s="765"/>
+      <c r="K17" s="772"/>
       <c r="S17" s="605"/>
       <c r="V17" s="68" t="s">
         <v>44</v>
@@ -14523,9 +14532,9 @@
       <c r="X17" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="AA17" s="771"/>
-      <c r="AB17" s="772"/>
-      <c r="AD17" s="759"/>
+      <c r="AA17" s="778"/>
+      <c r="AB17" s="779"/>
+      <c r="AD17" s="766"/>
     </row>
     <row r="18" spans="3:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C18" s="130"/>
@@ -14535,15 +14544,15 @@
       <c r="E18" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="F18" s="784"/>
-      <c r="G18" s="786"/>
+      <c r="F18" s="752"/>
+      <c r="G18" s="754"/>
       <c r="H18" s="108" t="s">
         <v>75</v>
       </c>
       <c r="I18" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="K18" s="765"/>
+      <c r="K18" s="772"/>
       <c r="O18" s="64" t="s">
         <v>114</v>
       </c>
@@ -14554,42 +14563,39 @@
       <c r="X18" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="AA18" s="773"/>
-      <c r="AB18" s="774"/>
-      <c r="AD18" s="759"/>
+      <c r="AA18" s="780"/>
+      <c r="AB18" s="781"/>
+      <c r="AD18" s="766"/>
     </row>
     <row r="19" spans="3:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F19" s="64" t="s">
         <v>208</v>
       </c>
-      <c r="G19" s="787"/>
-      <c r="K19" s="766"/>
+      <c r="G19" s="755"/>
+      <c r="K19" s="773"/>
       <c r="Q19" s="68" t="s">
         <v>44</v>
       </c>
-      <c r="R19" s="792" t="s">
+      <c r="R19" s="760" t="s">
         <v>123</v>
       </c>
-      <c r="S19" s="793"/>
-      <c r="T19" s="794"/>
+      <c r="S19" s="761"/>
+      <c r="T19" s="762"/>
       <c r="V19" s="77" t="s">
         <v>114</v>
       </c>
       <c r="Y19" s="19" t="s">
         <v>124</v>
       </c>
-      <c r="AD19" s="760"/>
+      <c r="AD19" s="767"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="G2:G19"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="L9:N9"/>
-    <mergeCell ref="R19:T19"/>
-    <mergeCell ref="S12:S18"/>
-    <mergeCell ref="O3:O9"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="V2:W2"/>
+    <mergeCell ref="M10:AC10"/>
+    <mergeCell ref="F2:F3"/>
     <mergeCell ref="AD1:AD19"/>
     <mergeCell ref="S8:AC8"/>
     <mergeCell ref="K5:K19"/>
@@ -14601,11 +14607,14 @@
     <mergeCell ref="P3:Q3"/>
     <mergeCell ref="L4:L8"/>
     <mergeCell ref="L12:L15"/>
-    <mergeCell ref="C9:C11"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="V2:W2"/>
-    <mergeCell ref="M10:AC10"/>
-    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="G2:G19"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="L9:N9"/>
+    <mergeCell ref="R19:T19"/>
+    <mergeCell ref="S12:S18"/>
+    <mergeCell ref="O3:O9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/System_2.1.8.xlsx
+++ b/System_2.1.8.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Work_For_\Work\Running AppS\System_Work_RW\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1612D891-DFB6-41A7-A7AD-FD20FB593B33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{468B9EDE-E9D6-407A-A553-2461EECB0696}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5063,6 +5063,159 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="49" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="49" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="49" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -5081,12 +5234,6 @@
     <xf numFmtId="0" fontId="18" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="13" fillId="27" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5141,169 +5288,61 @@
     <xf numFmtId="0" fontId="3" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="36" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="36" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="36" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="49" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="49" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="49" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="27" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5345,43 +5384,70 @@
     <xf numFmtId="0" fontId="3" fillId="36" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="36" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="36" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="36" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    <xf numFmtId="0" fontId="3" fillId="43" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="43" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="43" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="40" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="40" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="40" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="52" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="52" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="14" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="14" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="35" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5405,112 +5471,25 @@
     <xf numFmtId="0" fontId="29" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="43" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="43" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="43" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="40" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="40" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="40" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="52" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="52" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="14" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="14" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5588,25 +5567,46 @@
     <xf numFmtId="0" fontId="3" fillId="21" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -6997,7 +6997,7 @@
       <c r="H1" s="97" t="s">
         <v>344</v>
       </c>
-      <c r="I1" s="665" t="s">
+      <c r="I1" s="619" t="s">
         <v>370</v>
       </c>
       <c r="J1" s="2" t="s">
@@ -7033,7 +7033,7 @@
       <c r="X1" s="434" t="s">
         <v>155</v>
       </c>
-      <c r="Y1" s="659" t="s">
+      <c r="Y1" s="663" t="s">
         <v>530</v>
       </c>
       <c r="Z1" s="410">
@@ -7058,7 +7058,7 @@
         <v>499</v>
       </c>
       <c r="AM1" s="406"/>
-      <c r="AN1" s="641"/>
+      <c r="AN1" s="646"/>
       <c r="AO1" s="341" t="s">
         <v>470</v>
       </c>
@@ -7067,23 +7067,23 @@
       </c>
     </row>
     <row r="2" spans="1:43" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="623">
+      <c r="A2" s="672">
         <f ca="1">TODAY()</f>
         <v>45283</v>
       </c>
-      <c r="B2" s="625" t="s">
+      <c r="B2" s="674" t="s">
         <v>371</v>
       </c>
-      <c r="C2" s="621" t="s">
+      <c r="C2" s="651" t="s">
         <v>358</v>
       </c>
-      <c r="D2" s="627" t="s">
+      <c r="D2" s="676" t="s">
         <v>356</v>
       </c>
-      <c r="E2" s="675" t="s">
+      <c r="E2" s="615" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="646" t="s">
+      <c r="F2" s="625" t="s">
         <v>102</v>
       </c>
       <c r="G2" s="397" t="s">
@@ -7092,31 +7092,31 @@
       <c r="H2" s="80" t="s">
         <v>33</v>
       </c>
-      <c r="I2" s="666"/>
+      <c r="I2" s="620"/>
       <c r="J2" s="81" t="s">
         <v>76</v>
       </c>
-      <c r="K2" s="677" t="s">
+      <c r="K2" s="617" t="s">
         <v>343</v>
       </c>
-      <c r="L2" s="678"/>
-      <c r="M2" s="646" t="s">
+      <c r="L2" s="618"/>
+      <c r="M2" s="625" t="s">
         <v>102</v>
       </c>
       <c r="N2" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="O2" s="650" t="s">
+      <c r="O2" s="655" t="s">
         <v>102</v>
       </c>
       <c r="P2" s="85" t="s">
         <v>147</v>
       </c>
-      <c r="Q2" s="621" t="s">
+      <c r="Q2" s="651" t="s">
         <v>143</v>
       </c>
       <c r="R2" s="604"/>
-      <c r="S2" s="663" t="s">
+      <c r="S2" s="640" t="s">
         <v>148</v>
       </c>
       <c r="T2" s="89"/>
@@ -7126,7 +7126,7 @@
       <c r="X2" s="435" t="s">
         <v>156</v>
       </c>
-      <c r="Y2" s="660"/>
+      <c r="Y2" s="664"/>
       <c r="Z2" s="411">
         <v>1</v>
       </c>
@@ -7149,15 +7149,15 @@
         <v>464</v>
       </c>
       <c r="AM2" s="432"/>
-      <c r="AN2" s="642"/>
+      <c r="AN2" s="647"/>
     </row>
     <row r="3" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="624"/>
-      <c r="B3" s="626"/>
-      <c r="C3" s="622"/>
-      <c r="D3" s="628"/>
-      <c r="E3" s="676"/>
-      <c r="F3" s="647"/>
+      <c r="A3" s="673"/>
+      <c r="B3" s="675"/>
+      <c r="C3" s="652"/>
+      <c r="D3" s="677"/>
+      <c r="E3" s="616"/>
+      <c r="F3" s="626"/>
       <c r="G3" s="398" t="s">
         <v>28</v>
       </c>
@@ -7176,17 +7176,17 @@
       <c r="L3" s="203" t="s">
         <v>107</v>
       </c>
-      <c r="M3" s="647"/>
+      <c r="M3" s="626"/>
       <c r="N3" s="69" t="s">
         <v>146</v>
       </c>
-      <c r="O3" s="651"/>
+      <c r="O3" s="656"/>
       <c r="P3" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="Q3" s="622"/>
+      <c r="Q3" s="652"/>
       <c r="R3" s="606"/>
-      <c r="S3" s="664"/>
+      <c r="S3" s="642"/>
       <c r="T3" s="89"/>
       <c r="U3" s="124"/>
       <c r="V3" s="120"/>
@@ -7194,7 +7194,7 @@
       <c r="X3" s="435" t="s">
         <v>157</v>
       </c>
-      <c r="Y3" s="660"/>
+      <c r="Y3" s="664"/>
       <c r="Z3" s="412">
         <v>1</v>
       </c>
@@ -7203,7 +7203,7 @@
       <c r="AC3" s="100" t="s">
         <v>481</v>
       </c>
-      <c r="AD3" s="662" t="s">
+      <c r="AD3" s="637" t="s">
         <v>456</v>
       </c>
       <c r="AE3" s="259"/>
@@ -7215,16 +7215,16 @@
       <c r="AK3" s="259"/>
       <c r="AL3" s="16"/>
       <c r="AM3" s="432"/>
-      <c r="AN3" s="642"/>
+      <c r="AN3" s="647"/>
     </row>
     <row r="4" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="240" t="s">
         <v>183</v>
       </c>
-      <c r="B4" s="639" t="s">
+      <c r="B4" s="688" t="s">
         <v>374</v>
       </c>
-      <c r="C4" s="621" t="s">
+      <c r="C4" s="651" t="s">
         <v>154</v>
       </c>
       <c r="D4" s="350" t="s">
@@ -7233,7 +7233,7 @@
       <c r="E4" s="381">
         <v>2</v>
       </c>
-      <c r="F4" s="647"/>
+      <c r="F4" s="626"/>
       <c r="G4" s="384" t="s">
         <v>202</v>
       </c>
@@ -7250,11 +7250,11 @@
         <v>150</v>
       </c>
       <c r="L4" s="206"/>
-      <c r="M4" s="647"/>
+      <c r="M4" s="626"/>
       <c r="N4" s="176" t="s">
         <v>69</v>
       </c>
-      <c r="O4" s="651"/>
+      <c r="O4" s="656"/>
       <c r="P4" s="2" t="s">
         <v>191</v>
       </c>
@@ -7276,12 +7276,12 @@
       <c r="X4" s="435" t="s">
         <v>158</v>
       </c>
-      <c r="Y4" s="660"/>
+      <c r="Y4" s="664"/>
       <c r="Z4" s="413"/>
       <c r="AA4" s="309"/>
       <c r="AB4" s="211"/>
       <c r="AC4" s="16"/>
-      <c r="AD4" s="662"/>
+      <c r="AD4" s="637"/>
       <c r="AE4" s="259"/>
       <c r="AF4" s="259"/>
       <c r="AG4" s="16"/>
@@ -7291,37 +7291,37 @@
       <c r="AK4" s="259"/>
       <c r="AL4" s="16"/>
       <c r="AM4" s="432"/>
-      <c r="AN4" s="642"/>
+      <c r="AN4" s="647"/>
       <c r="AO4" s="341" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="665" t="s">
+      <c r="A5" s="619" t="s">
         <v>419</v>
       </c>
-      <c r="B5" s="640"/>
-      <c r="C5" s="622"/>
+      <c r="B5" s="689"/>
+      <c r="C5" s="652"/>
       <c r="D5" s="61" t="s">
         <v>153</v>
       </c>
       <c r="E5" s="382">
         <v>1</v>
       </c>
-      <c r="F5" s="647"/>
-      <c r="G5" s="631" t="s">
+      <c r="F5" s="626"/>
+      <c r="G5" s="680" t="s">
         <v>192</v>
       </c>
-      <c r="H5" s="631"/>
-      <c r="I5" s="631"/>
-      <c r="J5" s="631"/>
-      <c r="K5" s="631"/>
-      <c r="L5" s="632"/>
-      <c r="M5" s="647"/>
+      <c r="H5" s="680"/>
+      <c r="I5" s="680"/>
+      <c r="J5" s="680"/>
+      <c r="K5" s="680"/>
+      <c r="L5" s="681"/>
+      <c r="M5" s="626"/>
       <c r="N5" s="21">
         <v>8</v>
       </c>
-      <c r="O5" s="651"/>
+      <c r="O5" s="656"/>
       <c r="T5" s="89"/>
       <c r="U5" s="124"/>
       <c r="V5" s="120"/>
@@ -7329,7 +7329,7 @@
       <c r="X5" s="435" t="s">
         <v>159</v>
       </c>
-      <c r="Y5" s="660"/>
+      <c r="Y5" s="664"/>
       <c r="Z5" s="413">
         <v>1</v>
       </c>
@@ -7352,24 +7352,24 @@
       <c r="AK5" s="259"/>
       <c r="AL5" s="80"/>
       <c r="AM5" s="432"/>
-      <c r="AN5" s="642"/>
+      <c r="AN5" s="647"/>
     </row>
     <row r="6" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="666"/>
-      <c r="B6" s="637" t="s">
+      <c r="A6" s="620"/>
+      <c r="B6" s="686" t="s">
         <v>177</v>
       </c>
-      <c r="C6" s="667"/>
-      <c r="D6" s="668"/>
-      <c r="F6" s="647"/>
-      <c r="G6" s="633"/>
-      <c r="H6" s="633"/>
-      <c r="I6" s="633"/>
-      <c r="J6" s="633"/>
-      <c r="K6" s="633"/>
-      <c r="L6" s="634"/>
-      <c r="M6" s="647"/>
-      <c r="O6" s="651"/>
+      <c r="C6" s="634"/>
+      <c r="D6" s="635"/>
+      <c r="F6" s="626"/>
+      <c r="G6" s="682"/>
+      <c r="H6" s="682"/>
+      <c r="I6" s="682"/>
+      <c r="J6" s="682"/>
+      <c r="K6" s="682"/>
+      <c r="L6" s="683"/>
+      <c r="M6" s="626"/>
+      <c r="O6" s="656"/>
       <c r="T6" s="89"/>
       <c r="U6" s="124"/>
       <c r="V6" s="98" t="s">
@@ -7379,7 +7379,7 @@
       <c r="X6" s="435" t="s">
         <v>160</v>
       </c>
-      <c r="Y6" s="660"/>
+      <c r="Y6" s="664"/>
       <c r="Z6" s="411">
         <v>1</v>
       </c>
@@ -7393,16 +7393,16 @@
       <c r="AF6" s="259"/>
       <c r="AG6" s="259"/>
       <c r="AH6" s="259"/>
-      <c r="AI6" s="656"/>
+      <c r="AI6" s="636"/>
       <c r="AJ6" s="445" t="s">
         <v>459</v>
       </c>
-      <c r="AK6" s="656" t="s">
+      <c r="AK6" s="636" t="s">
         <v>252</v>
       </c>
       <c r="AL6" s="259"/>
       <c r="AM6" s="432"/>
-      <c r="AN6" s="642"/>
+      <c r="AN6" s="647"/>
       <c r="AO6" s="341" t="s">
         <v>471</v>
       </c>
@@ -7411,7 +7411,7 @@
       <c r="A7" s="234" t="s">
         <v>574</v>
       </c>
-      <c r="B7" s="638"/>
+      <c r="B7" s="687"/>
       <c r="C7" s="204" t="s">
         <v>375</v>
       </c>
@@ -7421,7 +7421,7 @@
       <c r="E7" s="267">
         <v>3</v>
       </c>
-      <c r="F7" s="647"/>
+      <c r="F7" s="626"/>
       <c r="G7" s="399">
         <v>0</v>
       </c>
@@ -7440,8 +7440,8 @@
       <c r="L7" s="214">
         <v>0</v>
       </c>
-      <c r="M7" s="647"/>
-      <c r="O7" s="651"/>
+      <c r="M7" s="626"/>
+      <c r="O7" s="656"/>
       <c r="R7" s="99" t="s">
         <v>44</v>
       </c>
@@ -7455,7 +7455,7 @@
       <c r="X7" s="435" t="s">
         <v>161</v>
       </c>
-      <c r="Y7" s="660"/>
+      <c r="Y7" s="664"/>
       <c r="Z7" s="411">
         <v>1</v>
       </c>
@@ -7465,18 +7465,18 @@
       <c r="AD7" s="16"/>
       <c r="AE7" s="259"/>
       <c r="AF7" s="259"/>
-      <c r="AG7" s="662" t="s">
+      <c r="AG7" s="637" t="s">
         <v>455</v>
       </c>
       <c r="AH7" s="259"/>
-      <c r="AI7" s="656"/>
+      <c r="AI7" s="636"/>
       <c r="AJ7" s="259"/>
-      <c r="AK7" s="656"/>
+      <c r="AK7" s="636"/>
       <c r="AL7" s="80" t="s">
         <v>497</v>
       </c>
       <c r="AM7" s="432"/>
-      <c r="AN7" s="642"/>
+      <c r="AN7" s="647"/>
       <c r="AP7" s="76" t="s">
         <v>472</v>
       </c>
@@ -7493,27 +7493,27 @@
         <f>SUM(G7:N9)</f>
         <v>15</v>
       </c>
-      <c r="F8" s="647"/>
-      <c r="G8" s="632">
-        <v>0</v>
-      </c>
-      <c r="H8" s="629" t="s">
+      <c r="F8" s="626"/>
+      <c r="G8" s="681">
+        <v>0</v>
+      </c>
+      <c r="H8" s="678" t="s">
         <v>104</v>
       </c>
       <c r="I8" s="604">
         <v>0</v>
       </c>
-      <c r="J8" s="629" t="s">
+      <c r="J8" s="678" t="s">
         <v>104</v>
       </c>
-      <c r="K8" s="635"/>
-      <c r="L8" s="669"/>
-      <c r="M8" s="648"/>
-      <c r="N8" s="672">
+      <c r="K8" s="684"/>
+      <c r="L8" s="638"/>
+      <c r="M8" s="653"/>
+      <c r="N8" s="643">
         <f>N5+N11</f>
         <v>15</v>
       </c>
-      <c r="O8" s="651"/>
+      <c r="O8" s="656"/>
       <c r="T8" s="103" t="s">
         <v>44</v>
       </c>
@@ -7523,7 +7523,7 @@
       <c r="X8" s="435" t="s">
         <v>162</v>
       </c>
-      <c r="Y8" s="660"/>
+      <c r="Y8" s="664"/>
       <c r="Z8" s="413"/>
       <c r="AA8" s="309"/>
       <c r="AB8" s="211"/>
@@ -7531,14 +7531,14 @@
       <c r="AD8" s="16"/>
       <c r="AE8" s="259"/>
       <c r="AF8" s="259"/>
-      <c r="AG8" s="662"/>
+      <c r="AG8" s="637"/>
       <c r="AH8" s="259"/>
-      <c r="AI8" s="656"/>
+      <c r="AI8" s="636"/>
       <c r="AJ8" s="259"/>
       <c r="AK8" s="259"/>
       <c r="AL8" s="259"/>
       <c r="AM8" s="432"/>
-      <c r="AN8" s="642"/>
+      <c r="AN8" s="647"/>
     </row>
     <row r="9" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="234" t="s">
@@ -7553,17 +7553,17 @@
       <c r="D9" s="351" t="s">
         <v>282</v>
       </c>
-      <c r="F9" s="647"/>
-      <c r="G9" s="634"/>
-      <c r="H9" s="630"/>
+      <c r="F9" s="626"/>
+      <c r="G9" s="683"/>
+      <c r="H9" s="679"/>
       <c r="I9" s="606"/>
-      <c r="J9" s="630"/>
-      <c r="K9" s="636"/>
-      <c r="L9" s="670"/>
-      <c r="M9" s="649"/>
-      <c r="N9" s="673"/>
-      <c r="O9" s="652"/>
-      <c r="S9" s="663" t="s">
+      <c r="J9" s="679"/>
+      <c r="K9" s="685"/>
+      <c r="L9" s="639"/>
+      <c r="M9" s="654"/>
+      <c r="N9" s="644"/>
+      <c r="O9" s="657"/>
+      <c r="S9" s="640" t="s">
         <v>61</v>
       </c>
       <c r="T9" s="89"/>
@@ -7575,7 +7575,7 @@
       <c r="X9" s="435" t="s">
         <v>163</v>
       </c>
-      <c r="Y9" s="660"/>
+      <c r="Y9" s="664"/>
       <c r="Z9" s="414"/>
       <c r="AA9" s="309"/>
       <c r="AB9" s="211"/>
@@ -7585,16 +7585,16 @@
       </c>
       <c r="AE9" s="259"/>
       <c r="AF9" s="259"/>
-      <c r="AG9" s="662"/>
+      <c r="AG9" s="637"/>
       <c r="AH9" s="259"/>
-      <c r="AI9" s="656"/>
+      <c r="AI9" s="636"/>
       <c r="AJ9" s="80"/>
-      <c r="AK9" s="656" t="s">
+      <c r="AK9" s="636" t="s">
         <v>252</v>
       </c>
       <c r="AL9" s="259"/>
       <c r="AM9" s="432"/>
-      <c r="AN9" s="642"/>
+      <c r="AN9" s="647"/>
       <c r="AP9" s="2" t="s">
         <v>509</v>
       </c>
@@ -7611,20 +7611,20 @@
         <f>Boat!W8</f>
         <v>36</v>
       </c>
-      <c r="F10" s="647"/>
+      <c r="F10" s="626"/>
       <c r="N10" s="422" t="s">
         <v>397</v>
       </c>
-      <c r="O10" s="684" t="s">
+      <c r="O10" s="628" t="s">
         <v>102</v>
       </c>
-      <c r="P10" s="653" t="s">
+      <c r="P10" s="658" t="s">
         <v>401</v>
       </c>
       <c r="R10" s="74" t="s">
         <v>44</v>
       </c>
-      <c r="S10" s="671"/>
+      <c r="S10" s="641"/>
       <c r="T10" s="89"/>
       <c r="U10" s="123" t="s">
         <v>176</v>
@@ -7636,7 +7636,7 @@
       <c r="X10" s="435" t="s">
         <v>164</v>
       </c>
-      <c r="Y10" s="660"/>
+      <c r="Y10" s="664"/>
       <c r="Z10" s="413">
         <v>0</v>
       </c>
@@ -7654,16 +7654,16 @@
       <c r="AF10" s="240" t="s">
         <v>312</v>
       </c>
-      <c r="AG10" s="662"/>
+      <c r="AG10" s="637"/>
       <c r="AH10" s="80"/>
-      <c r="AI10" s="656"/>
+      <c r="AI10" s="636"/>
       <c r="AJ10" s="259"/>
-      <c r="AK10" s="656"/>
+      <c r="AK10" s="636"/>
       <c r="AL10" s="259"/>
       <c r="AM10" s="446" t="s">
         <v>319</v>
       </c>
-      <c r="AN10" s="642"/>
+      <c r="AN10" s="647"/>
       <c r="AO10" s="206" t="s">
         <v>94</v>
       </c>
@@ -7681,18 +7681,18 @@
       <c r="D11" s="172" t="s">
         <v>356</v>
       </c>
-      <c r="F11" s="647"/>
+      <c r="F11" s="626"/>
       <c r="M11" s="6"/>
       <c r="N11" s="117">
         <v>7</v>
       </c>
-      <c r="O11" s="685"/>
-      <c r="P11" s="654"/>
+      <c r="O11" s="629"/>
+      <c r="P11" s="659"/>
       <c r="Q11" s="65"/>
       <c r="R11" s="120" t="s">
         <v>221</v>
       </c>
-      <c r="S11" s="671"/>
+      <c r="S11" s="641"/>
       <c r="T11" s="102" t="s">
         <v>44</v>
       </c>
@@ -7702,7 +7702,7 @@
       <c r="X11" s="435" t="s">
         <v>165</v>
       </c>
-      <c r="Y11" s="660"/>
+      <c r="Y11" s="664"/>
       <c r="Z11" s="413"/>
       <c r="AA11" s="309">
         <v>1</v>
@@ -7716,14 +7716,14 @@
       <c r="AF11" s="259" t="s">
         <v>477</v>
       </c>
-      <c r="AG11" s="662"/>
+      <c r="AG11" s="637"/>
       <c r="AH11" s="259"/>
       <c r="AI11" s="70"/>
       <c r="AJ11" s="259"/>
       <c r="AK11" s="259"/>
       <c r="AL11" s="259"/>
       <c r="AM11" s="432"/>
-      <c r="AN11" s="642"/>
+      <c r="AN11" s="647"/>
       <c r="AP11" s="76" t="s">
         <v>485</v>
       </c>
@@ -7742,7 +7742,7 @@
       <c r="E12" s="226">
         <v>3</v>
       </c>
-      <c r="F12" s="647"/>
+      <c r="F12" s="626"/>
       <c r="G12" s="340" t="s">
         <v>401</v>
       </c>
@@ -7751,16 +7751,16 @@
       </c>
       <c r="I12" s="611"/>
       <c r="J12" s="611"/>
-      <c r="K12" s="689"/>
+      <c r="K12" s="633"/>
       <c r="L12" s="205"/>
       <c r="M12" s="205"/>
       <c r="N12" s="205"/>
-      <c r="O12" s="685"/>
-      <c r="P12" s="654"/>
+      <c r="O12" s="629"/>
+      <c r="P12" s="659"/>
       <c r="R12" s="122" t="s">
         <v>180</v>
       </c>
-      <c r="S12" s="664"/>
+      <c r="S12" s="642"/>
       <c r="T12" s="101" t="s">
         <v>44</v>
       </c>
@@ -7770,7 +7770,7 @@
       <c r="X12" s="435" t="s">
         <v>166</v>
       </c>
-      <c r="Y12" s="660"/>
+      <c r="Y12" s="664"/>
       <c r="Z12" s="411">
         <v>1</v>
       </c>
@@ -7781,16 +7781,16 @@
       <c r="AC12" s="100" t="s">
         <v>482</v>
       </c>
-      <c r="AD12" s="674" t="s">
+      <c r="AD12" s="645" t="s">
         <v>241</v>
       </c>
       <c r="AE12" s="445" t="s">
         <v>240</v>
       </c>
-      <c r="AF12" s="662" t="s">
+      <c r="AF12" s="637" t="s">
         <v>229</v>
       </c>
-      <c r="AG12" s="662"/>
+      <c r="AG12" s="637"/>
       <c r="AH12" s="240" t="s">
         <v>260</v>
       </c>
@@ -7800,10 +7800,10 @@
       <c r="AJ12" s="259"/>
       <c r="AK12" s="259"/>
       <c r="AL12" s="259"/>
-      <c r="AM12" s="657" t="s">
+      <c r="AM12" s="661" t="s">
         <v>250</v>
       </c>
-      <c r="AN12" s="642"/>
+      <c r="AN12" s="647"/>
       <c r="AO12" s="341" t="s">
         <v>96</v>
       </c>
@@ -7815,17 +7815,17 @@
       <c r="E13" s="452">
         <v>-3</v>
       </c>
-      <c r="F13" s="647"/>
+      <c r="F13" s="626"/>
       <c r="G13" s="611" t="s">
         <v>431</v>
       </c>
       <c r="H13" s="611"/>
       <c r="I13" s="611"/>
-      <c r="J13" s="689"/>
+      <c r="J13" s="633"/>
       <c r="M13" s="6"/>
       <c r="N13" s="6"/>
-      <c r="O13" s="685"/>
-      <c r="P13" s="655"/>
+      <c r="O13" s="629"/>
+      <c r="P13" s="660"/>
       <c r="T13" s="105" t="s">
         <v>44</v>
       </c>
@@ -7835,7 +7835,7 @@
       <c r="X13" s="435" t="s">
         <v>167</v>
       </c>
-      <c r="Y13" s="660"/>
+      <c r="Y13" s="664"/>
       <c r="Z13" s="411">
         <v>1</v>
       </c>
@@ -7846,8 +7846,8 @@
         <v>501</v>
       </c>
       <c r="AC13" s="16"/>
-      <c r="AD13" s="674"/>
-      <c r="AF13" s="662"/>
+      <c r="AD13" s="645"/>
+      <c r="AF13" s="637"/>
       <c r="AG13" s="80"/>
       <c r="AH13" s="240" t="s">
         <v>309</v>
@@ -7858,8 +7858,8 @@
       <c r="AJ13" s="80"/>
       <c r="AK13" s="259"/>
       <c r="AL13" s="259"/>
-      <c r="AM13" s="657"/>
-      <c r="AN13" s="642"/>
+      <c r="AM13" s="661"/>
+      <c r="AN13" s="647"/>
     </row>
     <row r="14" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="454"/>
@@ -7867,18 +7867,18 @@
       <c r="C14" s="463"/>
       <c r="D14" s="456"/>
       <c r="E14" s="457"/>
-      <c r="F14" s="647"/>
+      <c r="F14" s="626"/>
       <c r="G14" s="611" t="s">
         <v>430</v>
       </c>
       <c r="H14" s="611"/>
       <c r="I14" s="611"/>
-      <c r="J14" s="689"/>
+      <c r="J14" s="633"/>
       <c r="K14" s="2">
         <v>12</v>
       </c>
       <c r="N14" s="6"/>
-      <c r="O14" s="685"/>
+      <c r="O14" s="629"/>
       <c r="Q14" s="61" t="s">
         <v>534</v>
       </c>
@@ -7892,24 +7892,24 @@
       <c r="X14" s="435" t="s">
         <v>168</v>
       </c>
-      <c r="Y14" s="660"/>
+      <c r="Y14" s="664"/>
       <c r="Z14" s="411">
         <v>1</v>
       </c>
       <c r="AA14" s="309"/>
       <c r="AB14" s="211"/>
       <c r="AC14" s="16"/>
-      <c r="AD14" s="674"/>
+      <c r="AD14" s="645"/>
       <c r="AE14" s="259"/>
-      <c r="AF14" s="662"/>
+      <c r="AF14" s="637"/>
       <c r="AG14" s="259"/>
       <c r="AH14" s="259"/>
       <c r="AI14" s="70"/>
       <c r="AJ14" s="259"/>
       <c r="AK14" s="259"/>
       <c r="AL14" s="259"/>
-      <c r="AM14" s="657"/>
-      <c r="AN14" s="642"/>
+      <c r="AM14" s="661"/>
+      <c r="AN14" s="647"/>
     </row>
     <row r="15" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="453" t="s">
@@ -7918,8 +7918,8 @@
       <c r="C15" s="604" t="s">
         <v>374</v>
       </c>
-      <c r="F15" s="647"/>
-      <c r="O15" s="685"/>
+      <c r="F15" s="626"/>
+      <c r="O15" s="629"/>
       <c r="R15" s="99" t="s">
         <v>44</v>
       </c>
@@ -7932,7 +7932,7 @@
       <c r="X15" s="435" t="s">
         <v>169</v>
       </c>
-      <c r="Y15" s="660"/>
+      <c r="Y15" s="664"/>
       <c r="Z15" s="413">
         <v>1</v>
       </c>
@@ -7941,8 +7941,8 @@
       <c r="AC15" s="76" t="s">
         <v>480</v>
       </c>
-      <c r="AD15" s="674"/>
-      <c r="AF15" s="662"/>
+      <c r="AD15" s="645"/>
+      <c r="AF15" s="637"/>
       <c r="AG15" s="80"/>
       <c r="AH15" s="240" t="s">
         <v>449</v>
@@ -7955,8 +7955,8 @@
       </c>
       <c r="AK15" s="259"/>
       <c r="AL15" s="259"/>
-      <c r="AM15" s="657"/>
-      <c r="AN15" s="642"/>
+      <c r="AM15" s="661"/>
+      <c r="AN15" s="647"/>
       <c r="AP15" s="76" t="s">
         <v>73</v>
       </c>
@@ -7978,13 +7978,13 @@
       <c r="E16" s="226">
         <v>1</v>
       </c>
-      <c r="F16" s="647"/>
+      <c r="F16" s="626"/>
       <c r="G16" s="340" t="s">
         <v>489</v>
       </c>
       <c r="I16" s="474"/>
       <c r="J16" s="20"/>
-      <c r="O16" s="685"/>
+      <c r="O16" s="629"/>
       <c r="R16" s="439" t="s">
         <v>184</v>
       </c>
@@ -7995,7 +7995,7 @@
       <c r="X16" s="435" t="s">
         <v>170</v>
       </c>
-      <c r="Y16" s="660"/>
+      <c r="Y16" s="664"/>
       <c r="Z16" s="411">
         <v>1</v>
       </c>
@@ -8016,18 +8016,18 @@
       <c r="AM16" s="432" t="s">
         <v>318</v>
       </c>
-      <c r="AN16" s="642"/>
+      <c r="AN16" s="647"/>
       <c r="AP16" s="76" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="17" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="80"/>
-      <c r="F17" s="647"/>
+      <c r="F17" s="626"/>
       <c r="I17" s="475"/>
       <c r="J17" s="20"/>
       <c r="N17" s="6"/>
-      <c r="O17" s="685"/>
+      <c r="O17" s="629"/>
       <c r="Q17" s="21" t="s">
         <v>532</v>
       </c>
@@ -8047,7 +8047,7 @@
       <c r="X17" s="435" t="s">
         <v>171</v>
       </c>
-      <c r="Y17" s="660"/>
+      <c r="Y17" s="664"/>
       <c r="Z17" s="413"/>
       <c r="AA17" s="309"/>
       <c r="AB17" s="211"/>
@@ -8072,7 +8072,7 @@
       <c r="AK17" s="259"/>
       <c r="AL17" s="80"/>
       <c r="AM17" s="432"/>
-      <c r="AN17" s="642"/>
+      <c r="AN17" s="647"/>
       <c r="AO17" s="206" t="s">
         <v>498</v>
       </c>
@@ -8096,21 +8096,21 @@
       <c r="E18" s="99" t="s">
         <v>44</v>
       </c>
-      <c r="F18" s="647"/>
+      <c r="F18" s="626"/>
       <c r="G18" s="340" t="s">
         <v>529</v>
       </c>
       <c r="I18" s="24"/>
       <c r="J18" s="20"/>
-      <c r="O18" s="685"/>
+      <c r="O18" s="629"/>
       <c r="Q18" s="112"/>
-      <c r="R18" s="679" t="s">
+      <c r="R18" s="621" t="s">
         <v>537</v>
       </c>
       <c r="T18" s="100" t="s">
         <v>44</v>
       </c>
-      <c r="U18" s="618" t="s">
+      <c r="U18" s="669" t="s">
         <v>44</v>
       </c>
       <c r="V18" s="120"/>
@@ -8120,7 +8120,7 @@
       <c r="X18" s="435" t="s">
         <v>172</v>
       </c>
-      <c r="Y18" s="660"/>
+      <c r="Y18" s="664"/>
       <c r="Z18" s="413">
         <v>1</v>
       </c>
@@ -8131,38 +8131,38 @@
       <c r="AC18" s="16"/>
       <c r="AD18" s="16"/>
       <c r="AE18" s="259"/>
-      <c r="AF18" s="656" t="s">
+      <c r="AF18" s="636" t="s">
         <v>476</v>
       </c>
       <c r="AG18" s="259"/>
       <c r="AH18" s="70"/>
       <c r="AI18" s="70"/>
-      <c r="AJ18" s="658" t="s">
+      <c r="AJ18" s="662" t="s">
         <v>316</v>
       </c>
       <c r="AK18" s="259"/>
       <c r="AL18" s="80"/>
       <c r="AM18" s="432"/>
-      <c r="AN18" s="642"/>
+      <c r="AN18" s="647"/>
       <c r="AP18" s="76" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="19" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F19" s="647"/>
+      <c r="F19" s="626"/>
       <c r="I19" s="221"/>
-      <c r="O19" s="685"/>
-      <c r="R19" s="680"/>
+      <c r="O19" s="629"/>
+      <c r="R19" s="622"/>
       <c r="S19" s="30" t="s">
         <v>535</v>
       </c>
-      <c r="U19" s="619"/>
+      <c r="U19" s="670"/>
       <c r="V19" s="146"/>
       <c r="W19" s="146"/>
       <c r="X19" s="435" t="s">
         <v>173</v>
       </c>
-      <c r="Y19" s="660"/>
+      <c r="Y19" s="664"/>
       <c r="Z19" s="411">
         <v>1</v>
       </c>
@@ -8171,17 +8171,17 @@
       <c r="AC19" s="16"/>
       <c r="AD19" s="16"/>
       <c r="AE19" s="259"/>
-      <c r="AF19" s="656"/>
+      <c r="AF19" s="636"/>
       <c r="AG19" s="259"/>
       <c r="AH19" s="259"/>
       <c r="AI19" s="70"/>
-      <c r="AJ19" s="658"/>
+      <c r="AJ19" s="662"/>
       <c r="AK19" s="464" t="s">
         <v>252</v>
       </c>
       <c r="AL19" s="80"/>
       <c r="AM19" s="432"/>
-      <c r="AN19" s="642"/>
+      <c r="AN19" s="647"/>
       <c r="AP19" s="76" t="s">
         <v>469</v>
       </c>
@@ -8202,24 +8202,24 @@
       <c r="E20" s="441">
         <v>-1</v>
       </c>
-      <c r="F20" s="647"/>
+      <c r="F20" s="626"/>
       <c r="G20" s="340" t="s">
         <v>492</v>
       </c>
       <c r="I20" s="221"/>
-      <c r="O20" s="685"/>
-      <c r="Q20" s="687" t="s">
+      <c r="O20" s="629"/>
+      <c r="Q20" s="631" t="s">
         <v>48</v>
       </c>
       <c r="T20" s="408" t="s">
         <v>44</v>
       </c>
-      <c r="U20" s="620"/>
+      <c r="U20" s="671"/>
       <c r="W20" s="409"/>
       <c r="X20" s="436" t="s">
         <v>174</v>
       </c>
-      <c r="Y20" s="660"/>
+      <c r="Y20" s="664"/>
       <c r="Z20" s="415">
         <v>1</v>
       </c>
@@ -8244,7 +8244,7 @@
       <c r="AM20" s="384" t="s">
         <v>250</v>
       </c>
-      <c r="AN20" s="642"/>
+      <c r="AN20" s="647"/>
       <c r="AO20" s="341" t="s">
         <v>461</v>
       </c>
@@ -8265,20 +8265,20 @@
       <c r="E21" s="267">
         <v>0</v>
       </c>
-      <c r="F21" s="647"/>
+      <c r="F21" s="626"/>
       <c r="I21" s="221"/>
-      <c r="O21" s="685"/>
-      <c r="Q21" s="688"/>
+      <c r="O21" s="629"/>
+      <c r="Q21" s="632"/>
       <c r="T21" s="426"/>
       <c r="U21" s="14"/>
-      <c r="V21" s="615"/>
+      <c r="V21" s="666"/>
       <c r="W21" s="430" t="s">
         <v>175</v>
       </c>
       <c r="X21" s="433" t="s">
         <v>186</v>
       </c>
-      <c r="Y21" s="660"/>
+      <c r="Y21" s="664"/>
       <c r="Z21" s="449">
         <v>3</v>
       </c>
@@ -8309,15 +8309,15 @@
       <c r="AM21" s="432" t="s">
         <v>546</v>
       </c>
-      <c r="AN21" s="642"/>
+      <c r="AN21" s="647"/>
     </row>
     <row r="22" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F22" s="647"/>
+      <c r="F22" s="626"/>
       <c r="G22" s="340" t="s">
         <v>490</v>
       </c>
       <c r="I22" s="221"/>
-      <c r="O22" s="685"/>
+      <c r="O22" s="629"/>
       <c r="R22" s="438" t="s">
         <v>44</v>
       </c>
@@ -8325,14 +8325,14 @@
         <v>44</v>
       </c>
       <c r="U22" s="15"/>
-      <c r="V22" s="616"/>
+      <c r="V22" s="667"/>
       <c r="W22" s="430" t="s">
         <v>175</v>
       </c>
       <c r="X22" s="433" t="s">
         <v>187</v>
       </c>
-      <c r="Y22" s="660"/>
+      <c r="Y22" s="664"/>
       <c r="Z22" s="419"/>
       <c r="AA22" s="10"/>
       <c r="AB22" s="419"/>
@@ -8343,7 +8343,7 @@
       <c r="AG22" s="6"/>
       <c r="AH22" s="6"/>
       <c r="AI22" s="6"/>
-      <c r="AJ22" s="656" t="s">
+      <c r="AJ22" s="636" t="s">
         <v>473</v>
       </c>
       <c r="AK22" s="259"/>
@@ -8351,7 +8351,7 @@
         <v>479</v>
       </c>
       <c r="AM22" s="302"/>
-      <c r="AN22" s="642"/>
+      <c r="AN22" s="647"/>
     </row>
     <row r="23" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="233" t="s">
@@ -8369,22 +8369,22 @@
       <c r="E23" s="227">
         <v>1</v>
       </c>
-      <c r="F23" s="647"/>
+      <c r="F23" s="626"/>
       <c r="I23" s="221"/>
-      <c r="O23" s="685"/>
-      <c r="Q23" s="687" t="s">
+      <c r="O23" s="629"/>
+      <c r="Q23" s="631" t="s">
         <v>144</v>
       </c>
       <c r="T23" s="17"/>
       <c r="U23" s="424" t="s">
         <v>44</v>
       </c>
-      <c r="V23" s="616"/>
+      <c r="V23" s="667"/>
       <c r="W23" s="148"/>
       <c r="X23" s="433" t="s">
         <v>188</v>
       </c>
-      <c r="Y23" s="660"/>
+      <c r="Y23" s="664"/>
       <c r="Z23" s="17"/>
       <c r="AA23" s="10"/>
       <c r="AB23" s="419"/>
@@ -8395,13 +8395,13 @@
       <c r="AG23" s="6"/>
       <c r="AH23" s="6"/>
       <c r="AI23" s="6"/>
-      <c r="AJ23" s="656"/>
+      <c r="AJ23" s="636"/>
       <c r="AK23" s="259"/>
       <c r="AL23" s="80" t="s">
         <v>508</v>
       </c>
       <c r="AM23" s="302"/>
-      <c r="AN23" s="642"/>
+      <c r="AN23" s="647"/>
     </row>
     <row r="24" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="444" t="s">
@@ -8419,23 +8419,23 @@
       <c r="E24" s="440">
         <v>1</v>
       </c>
-      <c r="F24" s="647"/>
+      <c r="F24" s="626"/>
       <c r="G24" s="61" t="s">
         <v>491</v>
       </c>
       <c r="I24" s="221"/>
-      <c r="O24" s="685"/>
-      <c r="Q24" s="688"/>
+      <c r="O24" s="629"/>
+      <c r="Q24" s="632"/>
       <c r="T24" s="17"/>
       <c r="U24" s="229" t="s">
         <v>44</v>
       </c>
-      <c r="V24" s="616"/>
+      <c r="V24" s="667"/>
       <c r="W24" s="148"/>
       <c r="X24" s="433" t="s">
         <v>185</v>
       </c>
-      <c r="Y24" s="660"/>
+      <c r="Y24" s="664"/>
       <c r="Z24" s="17"/>
       <c r="AA24" s="10"/>
       <c r="AB24" s="419"/>
@@ -8454,12 +8454,12 @@
         <v>464</v>
       </c>
       <c r="AM24" s="302"/>
-      <c r="AN24" s="642"/>
+      <c r="AN24" s="647"/>
     </row>
     <row r="25" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F25" s="647"/>
+      <c r="F25" s="626"/>
       <c r="I25" s="221"/>
-      <c r="O25" s="685"/>
+      <c r="O25" s="629"/>
       <c r="P25" s="206" t="s">
         <v>281</v>
       </c>
@@ -8472,12 +8472,12 @@
       <c r="U25" s="404" t="s">
         <v>44</v>
       </c>
-      <c r="V25" s="617"/>
+      <c r="V25" s="668"/>
       <c r="W25" s="148"/>
       <c r="X25" s="433" t="s">
         <v>189</v>
       </c>
-      <c r="Y25" s="660"/>
+      <c r="Y25" s="664"/>
       <c r="Z25" s="17"/>
       <c r="AA25" s="10"/>
       <c r="AB25" s="419"/>
@@ -8494,7 +8494,7 @@
       <c r="AK25" s="142"/>
       <c r="AL25" s="6"/>
       <c r="AM25" s="302"/>
-      <c r="AN25" s="642"/>
+      <c r="AN25" s="647"/>
     </row>
     <row r="26" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="233" t="s">
@@ -8512,17 +8512,17 @@
       <c r="E26" s="383">
         <v>1</v>
       </c>
-      <c r="F26" s="647"/>
+      <c r="F26" s="626"/>
       <c r="G26" s="340" t="s">
         <v>488</v>
       </c>
       <c r="I26" s="221"/>
-      <c r="O26" s="685"/>
-      <c r="P26" s="644" t="s">
+      <c r="O26" s="629"/>
+      <c r="P26" s="649" t="s">
         <v>527</v>
       </c>
-      <c r="Q26" s="645"/>
-      <c r="R26" s="681" t="s">
+      <c r="Q26" s="650"/>
+      <c r="R26" s="623" t="s">
         <v>536</v>
       </c>
       <c r="T26" s="180"/>
@@ -8534,7 +8534,7 @@
       <c r="X26" s="433" t="s">
         <v>181</v>
       </c>
-      <c r="Y26" s="660"/>
+      <c r="Y26" s="664"/>
       <c r="Z26" s="17"/>
       <c r="AA26" s="10"/>
       <c r="AB26" s="419"/>
@@ -8561,7 +8561,7 @@
       <c r="AM26" s="446" t="s">
         <v>457</v>
       </c>
-      <c r="AN26" s="642"/>
+      <c r="AN26" s="647"/>
     </row>
     <row r="27" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B27" s="21" t="s">
@@ -8573,13 +8573,13 @@
       <c r="E27" s="267" t="s">
         <v>44</v>
       </c>
-      <c r="F27" s="683"/>
+      <c r="F27" s="627"/>
       <c r="G27" s="61" t="s">
         <v>545</v>
       </c>
       <c r="I27" s="222"/>
-      <c r="O27" s="686"/>
-      <c r="R27" s="682"/>
+      <c r="O27" s="630"/>
+      <c r="R27" s="624"/>
       <c r="S27" s="425" t="s">
         <v>54</v>
       </c>
@@ -8592,7 +8592,7 @@
       <c r="X27" s="433" t="s">
         <v>531</v>
       </c>
-      <c r="Y27" s="661"/>
+      <c r="Y27" s="665"/>
       <c r="Z27" s="161"/>
       <c r="AA27" s="13"/>
       <c r="AB27" s="420"/>
@@ -8609,32 +8609,26 @@
       <c r="AM27" s="384" t="s">
         <v>320</v>
       </c>
-      <c r="AN27" s="643"/>
+      <c r="AN27" s="648"/>
     </row>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="R18:R19"/>
-    <mergeCell ref="R26:R27"/>
-    <mergeCell ref="F2:F27"/>
-    <mergeCell ref="O10:O27"/>
-    <mergeCell ref="Q20:Q21"/>
-    <mergeCell ref="Q23:Q24"/>
-    <mergeCell ref="G14:J14"/>
-    <mergeCell ref="G13:J13"/>
-    <mergeCell ref="H12:K12"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="AI6:AI10"/>
-    <mergeCell ref="AF12:AF15"/>
-    <mergeCell ref="AG7:AG12"/>
-    <mergeCell ref="L8:L9"/>
-    <mergeCell ref="S9:S12"/>
-    <mergeCell ref="N8:N9"/>
-    <mergeCell ref="AD12:AD15"/>
-    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="V21:V25"/>
+    <mergeCell ref="U18:U20"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="G5:L6"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="K7:K9"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B4:B5"/>
     <mergeCell ref="AN1:AN27"/>
     <mergeCell ref="P26:Q26"/>
     <mergeCell ref="Q2:Q3"/>
@@ -8651,22 +8645,28 @@
     <mergeCell ref="AD3:AD4"/>
     <mergeCell ref="S2:S3"/>
     <mergeCell ref="R2:R3"/>
-    <mergeCell ref="V21:V25"/>
-    <mergeCell ref="U18:U20"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="J8:J9"/>
-    <mergeCell ref="G5:L6"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="K7:K9"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="AI6:AI10"/>
+    <mergeCell ref="AF12:AF15"/>
+    <mergeCell ref="AG7:AG12"/>
+    <mergeCell ref="L8:L9"/>
+    <mergeCell ref="S9:S12"/>
+    <mergeCell ref="N8:N9"/>
+    <mergeCell ref="AD12:AD15"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="R18:R19"/>
+    <mergeCell ref="R26:R27"/>
+    <mergeCell ref="F2:F27"/>
+    <mergeCell ref="O10:O27"/>
+    <mergeCell ref="Q20:Q21"/>
+    <mergeCell ref="Q23:Q24"/>
+    <mergeCell ref="G14:J14"/>
+    <mergeCell ref="G13:J13"/>
+    <mergeCell ref="H12:K12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8703,12 +8703,12 @@
       <c r="B1" s="609" t="s">
         <v>311</v>
       </c>
-      <c r="C1" s="689"/>
+      <c r="C1" s="633"/>
       <c r="D1" s="206"/>
       <c r="J1" s="609" t="s">
         <v>69</v>
       </c>
-      <c r="K1" s="689"/>
+      <c r="K1" s="633"/>
       <c r="L1" s="197" t="s">
         <v>331</v>
       </c>
@@ -9111,7 +9111,7 @@
       <c r="P1" s="402" t="s">
         <v>398</v>
       </c>
-      <c r="Q1" s="720" t="s">
+      <c r="Q1" s="707" t="s">
         <v>180</v>
       </c>
       <c r="R1" s="100" t="s">
@@ -9135,7 +9135,7 @@
       <c r="AA1" s="523" t="s">
         <v>438</v>
       </c>
-      <c r="AB1" s="714" t="s">
+      <c r="AB1" s="701" t="s">
         <v>596</v>
       </c>
       <c r="AC1" s="99" t="s">
@@ -9157,32 +9157,32 @@
       </c>
     </row>
     <row r="2" spans="1:38" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="699">
+      <c r="A2" s="712">
         <f ca="1">TODAY()</f>
         <v>45283</v>
       </c>
-      <c r="B2" s="701" t="s">
+      <c r="B2" s="714" t="s">
         <v>380</v>
       </c>
-      <c r="C2" s="621" t="s">
+      <c r="C2" s="651" t="s">
         <v>358</v>
       </c>
-      <c r="D2" s="703" t="s">
+      <c r="D2" s="716" t="s">
         <v>102</v>
       </c>
-      <c r="E2" s="705" t="s">
+      <c r="E2" s="718" t="s">
         <v>64</v>
       </c>
       <c r="F2" s="193" t="s">
         <v>219</v>
       </c>
-      <c r="G2" s="665" t="s">
+      <c r="G2" s="619" t="s">
         <v>373</v>
       </c>
       <c r="H2" s="208" t="s">
         <v>219</v>
       </c>
-      <c r="I2" s="711" t="s">
+      <c r="I2" s="698" t="s">
         <v>102</v>
       </c>
       <c r="J2" s="400" t="s">
@@ -9206,7 +9206,7 @@
       <c r="P2" s="403">
         <v>40</v>
       </c>
-      <c r="Q2" s="721"/>
+      <c r="Q2" s="708"/>
       <c r="R2" s="21">
         <f>R7+R20</f>
         <v>2</v>
@@ -9231,7 +9231,7 @@
         <f>IF((Z2+T2)&gt;0,0,-1)</f>
         <v>0</v>
       </c>
-      <c r="AB2" s="715"/>
+      <c r="AB2" s="702"/>
       <c r="AC2" s="35"/>
       <c r="AH2" s="6" t="s">
         <v>453</v>
@@ -9248,14 +9248,14 @@
       </c>
     </row>
     <row r="3" spans="1:38" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="700"/>
-      <c r="B3" s="702"/>
-      <c r="C3" s="622"/>
-      <c r="D3" s="704"/>
-      <c r="E3" s="706"/>
-      <c r="G3" s="666"/>
+      <c r="A3" s="713"/>
+      <c r="B3" s="715"/>
+      <c r="C3" s="652"/>
+      <c r="D3" s="717"/>
+      <c r="E3" s="719"/>
+      <c r="G3" s="620"/>
       <c r="H3" s="6"/>
-      <c r="I3" s="712"/>
+      <c r="I3" s="699"/>
       <c r="K3" s="24">
         <v>2</v>
       </c>
@@ -9270,7 +9270,7 @@
       <c r="V3" s="475"/>
       <c r="W3" s="6"/>
       <c r="X3" s="475"/>
-      <c r="AB3" s="715"/>
+      <c r="AB3" s="702"/>
       <c r="AC3" s="35"/>
       <c r="AE3" s="100" t="s">
         <v>591</v>
@@ -9299,10 +9299,10 @@
         <v>381</v>
       </c>
       <c r="B4" s="245"/>
-      <c r="C4" s="707" t="s">
+      <c r="C4" s="720" t="s">
         <v>177</v>
       </c>
-      <c r="I4" s="712"/>
+      <c r="I4" s="699"/>
       <c r="R4" s="476" t="s">
         <v>591</v>
       </c>
@@ -9314,7 +9314,7 @@
       <c r="V4" s="475"/>
       <c r="W4" s="6"/>
       <c r="X4" s="475"/>
-      <c r="AB4" s="715"/>
+      <c r="AB4" s="702"/>
       <c r="AC4" s="35"/>
       <c r="AE4" s="20"/>
       <c r="AF4" s="100" t="s">
@@ -9345,7 +9345,7 @@
       <c r="B5" s="100" t="s">
         <v>358</v>
       </c>
-      <c r="C5" s="708"/>
+      <c r="C5" s="721"/>
       <c r="D5" s="224" t="s">
         <v>102</v>
       </c>
@@ -9361,7 +9361,7 @@
       <c r="H5" s="208" t="s">
         <v>219</v>
       </c>
-      <c r="I5" s="712"/>
+      <c r="I5" s="699"/>
       <c r="J5" s="401" t="s">
         <v>269</v>
       </c>
@@ -9388,7 +9388,7 @@
       <c r="V5" s="473"/>
       <c r="W5" s="6"/>
       <c r="X5" s="473"/>
-      <c r="AB5" s="715"/>
+      <c r="AB5" s="702"/>
       <c r="AC5" s="2" t="s">
         <v>594</v>
       </c>
@@ -9402,19 +9402,19 @@
       <c r="AL5" s="473"/>
     </row>
     <row r="6" spans="1:38" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="696" t="s">
+      <c r="A6" s="709" t="s">
         <v>286</v>
       </c>
       <c r="B6" s="105" t="s">
         <v>198</v>
       </c>
-      <c r="C6" s="667"/>
-      <c r="D6" s="668"/>
+      <c r="C6" s="634"/>
+      <c r="D6" s="635"/>
       <c r="E6" s="96">
         <v>1</v>
       </c>
       <c r="G6" s="605"/>
-      <c r="I6" s="712"/>
+      <c r="I6" s="699"/>
       <c r="P6" s="61" t="s">
         <v>594</v>
       </c>
@@ -9426,7 +9426,7 @@
         <f>S7-S12-SUM(V2:V10)</f>
         <v>0</v>
       </c>
-      <c r="AB6" s="715"/>
+      <c r="AB6" s="702"/>
       <c r="AC6" s="35"/>
       <c r="AE6" s="64">
         <f>AE7-SUM(AL2:AL10)+AE11</f>
@@ -9442,7 +9442,7 @@
       <c r="AL6" s="112"/>
     </row>
     <row r="7" spans="1:38" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="697"/>
+      <c r="A7" s="710"/>
       <c r="B7" s="100" t="s">
         <v>154</v>
       </c>
@@ -9453,7 +9453,7 @@
         <v>135</v>
       </c>
       <c r="G7" s="605"/>
-      <c r="I7" s="712"/>
+      <c r="I7" s="699"/>
       <c r="M7" s="16" t="s">
         <v>348</v>
       </c>
@@ -9485,7 +9485,7 @@
       <c r="X7" s="474">
         <v>1</v>
       </c>
-      <c r="AB7" s="715"/>
+      <c r="AB7" s="702"/>
       <c r="AC7" s="99" t="s">
         <v>595</v>
       </c>
@@ -9511,7 +9511,7 @@
       </c>
     </row>
     <row r="8" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="698"/>
+      <c r="A8" s="711"/>
       <c r="B8" s="214" t="s">
         <v>28</v>
       </c>
@@ -9520,7 +9520,7 @@
         <v>3</v>
       </c>
       <c r="G8" s="605"/>
-      <c r="I8" s="712"/>
+      <c r="I8" s="699"/>
       <c r="N8" s="80"/>
       <c r="U8" s="6" t="s">
         <v>250</v>
@@ -9534,7 +9534,7 @@
       <c r="X8" s="475">
         <v>1</v>
       </c>
-      <c r="AB8" s="715"/>
+      <c r="AB8" s="702"/>
       <c r="AC8" s="521"/>
       <c r="AH8" s="6" t="s">
         <v>600</v>
@@ -9565,7 +9565,7 @@
       </c>
       <c r="G9" s="605"/>
       <c r="H9" s="6"/>
-      <c r="I9" s="712"/>
+      <c r="I9" s="699"/>
       <c r="M9" s="19" t="s">
         <v>526</v>
       </c>
@@ -9576,7 +9576,7 @@
         <v>510</v>
       </c>
       <c r="X9" s="472"/>
-      <c r="AB9" s="715"/>
+      <c r="AB9" s="702"/>
       <c r="AC9" s="521"/>
       <c r="AE9" s="20"/>
       <c r="AF9" s="20"/>
@@ -9608,7 +9608,7 @@
         <v>36</v>
       </c>
       <c r="G10" s="605"/>
-      <c r="I10" s="712"/>
+      <c r="I10" s="699"/>
       <c r="J10" s="24" t="s">
         <v>373</v>
       </c>
@@ -9625,7 +9625,7 @@
         <v>602</v>
       </c>
       <c r="X10" s="472"/>
-      <c r="AB10" s="715"/>
+      <c r="AB10" s="702"/>
       <c r="AC10" s="521"/>
       <c r="AE10" s="20"/>
       <c r="AF10" s="20"/>
@@ -9653,7 +9653,7 @@
         <v>266</v>
       </c>
       <c r="G11" s="605"/>
-      <c r="I11" s="712"/>
+      <c r="I11" s="699"/>
       <c r="J11" s="24" t="s">
         <v>194</v>
       </c>
@@ -9679,13 +9679,13 @@
       <c r="S11" s="24">
         <v>2</v>
       </c>
-      <c r="U11" s="717" t="s">
+      <c r="U11" s="704" t="s">
         <v>559</v>
       </c>
-      <c r="V11" s="718"/>
-      <c r="W11" s="718"/>
-      <c r="X11" s="719"/>
-      <c r="AB11" s="716"/>
+      <c r="V11" s="705"/>
+      <c r="W11" s="705"/>
+      <c r="X11" s="706"/>
+      <c r="AB11" s="703"/>
       <c r="AC11" s="99" t="s">
         <v>597</v>
       </c>
@@ -9699,13 +9699,13 @@
         <v>3</v>
       </c>
       <c r="AG11" s="418"/>
-      <c r="AH11" s="717" t="s">
+      <c r="AH11" s="704" t="s">
         <v>614</v>
       </c>
-      <c r="AI11" s="718"/>
-      <c r="AJ11" s="718"/>
-      <c r="AK11" s="718"/>
-      <c r="AL11" s="719"/>
+      <c r="AI11" s="705"/>
+      <c r="AJ11" s="705"/>
+      <c r="AK11" s="705"/>
+      <c r="AL11" s="706"/>
     </row>
     <row r="12" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="229" t="s">
@@ -9716,7 +9716,7 @@
         <v>3</v>
       </c>
       <c r="G12" s="605"/>
-      <c r="I12" s="712"/>
+      <c r="I12" s="699"/>
       <c r="J12" s="24" t="s">
         <v>517</v>
       </c>
@@ -9749,7 +9749,7 @@
       </c>
       <c r="D13" s="20"/>
       <c r="G13" s="605"/>
-      <c r="I13" s="712"/>
+      <c r="I13" s="699"/>
       <c r="J13" s="108" t="s">
         <v>549</v>
       </c>
@@ -9793,7 +9793,7 @@
       <c r="H14" s="208" t="s">
         <v>219</v>
       </c>
-      <c r="I14" s="712"/>
+      <c r="I14" s="699"/>
       <c r="U14" s="67" t="s">
         <v>80</v>
       </c>
@@ -9820,7 +9820,7 @@
       <c r="H15" s="273">
         <v>0</v>
       </c>
-      <c r="I15" s="712"/>
+      <c r="I15" s="699"/>
       <c r="J15" s="108" t="s">
         <v>153</v>
       </c>
@@ -9851,7 +9851,7 @@
       <c r="D16" s="2" t="s">
         <v>493</v>
       </c>
-      <c r="I16" s="712"/>
+      <c r="I16" s="699"/>
       <c r="K16" s="100" t="s">
         <v>44</v>
       </c>
@@ -9895,7 +9895,7 @@
       <c r="G17" s="2" t="s">
         <v>424</v>
       </c>
-      <c r="I17" s="712"/>
+      <c r="I17" s="699"/>
       <c r="L17" s="2" t="s">
         <v>427</v>
       </c>
@@ -9913,13 +9913,13 @@
     </row>
     <row r="18" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G18" s="16"/>
-      <c r="I18" s="712"/>
+      <c r="I18" s="699"/>
       <c r="L18" s="16"/>
       <c r="M18" s="21"/>
-      <c r="O18" s="709" t="s">
+      <c r="O18" s="696" t="s">
         <v>518</v>
       </c>
-      <c r="P18" s="710"/>
+      <c r="P18" s="697"/>
       <c r="Q18" s="127" t="s">
         <v>44</v>
       </c>
@@ -9945,7 +9945,7 @@
       </c>
     </row>
     <row r="19" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I19" s="712"/>
+      <c r="I19" s="699"/>
       <c r="M19" s="21" t="s">
         <v>426</v>
       </c>
@@ -9981,7 +9981,7 @@
       <c r="G20" s="2" t="s">
         <v>424</v>
       </c>
-      <c r="I20" s="712"/>
+      <c r="I20" s="699"/>
       <c r="K20" s="19" t="s">
         <v>423</v>
       </c>
@@ -10016,7 +10016,7 @@
       </c>
     </row>
     <row r="21" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I21" s="712"/>
+      <c r="I21" s="699"/>
       <c r="M21" s="218" t="s">
         <v>412</v>
       </c>
@@ -10050,7 +10050,7 @@
       <c r="G22" s="2" t="s">
         <v>424</v>
       </c>
-      <c r="I22" s="712"/>
+      <c r="I22" s="699"/>
       <c r="P22" s="99" t="s">
         <v>593</v>
       </c>
@@ -10065,7 +10065,7 @@
       <c r="E23" s="285" t="s">
         <v>44</v>
       </c>
-      <c r="I23" s="712"/>
+      <c r="I23" s="699"/>
       <c r="Q23" s="24">
         <f>SUM(V23:V31)</f>
         <v>5</v>
@@ -10082,7 +10082,7 @@
       </c>
     </row>
     <row r="24" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I24" s="712"/>
+      <c r="I24" s="699"/>
       <c r="U24" s="35"/>
       <c r="V24" s="514">
         <v>0</v>
@@ -10110,7 +10110,7 @@
       <c r="H25" s="193" t="s">
         <v>267</v>
       </c>
-      <c r="I25" s="712"/>
+      <c r="I25" s="699"/>
       <c r="J25" s="401" t="s">
         <v>270</v>
       </c>
@@ -10155,7 +10155,7 @@
       <c r="H26" s="19" t="s">
         <v>219</v>
       </c>
-      <c r="I26" s="712"/>
+      <c r="I26" s="699"/>
       <c r="K26" s="24">
         <v>15</v>
       </c>
@@ -10190,7 +10190,7 @@
       </c>
     </row>
     <row r="27" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I27" s="712"/>
+      <c r="I27" s="699"/>
       <c r="O27" s="2" t="s">
         <v>98</v>
       </c>
@@ -10217,7 +10217,7 @@
       <c r="E28" s="217">
         <v>2</v>
       </c>
-      <c r="I28" s="712"/>
+      <c r="I28" s="699"/>
       <c r="Q28" s="6"/>
       <c r="R28" s="112"/>
       <c r="T28" s="142"/>
@@ -10239,7 +10239,7 @@
       <c r="H29" s="193" t="s">
         <v>268</v>
       </c>
-      <c r="I29" s="713"/>
+      <c r="I29" s="700"/>
       <c r="J29" s="326"/>
       <c r="L29" s="96" t="s">
         <v>274</v>
@@ -10297,13 +10297,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="O18:P18"/>
-    <mergeCell ref="I2:I29"/>
-    <mergeCell ref="AB1:AB11"/>
-    <mergeCell ref="AH11:AL11"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="Q1:Q2"/>
-    <mergeCell ref="U11:X11"/>
     <mergeCell ref="A6:A8"/>
     <mergeCell ref="G5:G14"/>
     <mergeCell ref="A2:A3"/>
@@ -10315,6 +10308,13 @@
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="G2:G3"/>
     <mergeCell ref="C2:C3"/>
+    <mergeCell ref="O18:P18"/>
+    <mergeCell ref="I2:I29"/>
+    <mergeCell ref="AB1:AB11"/>
+    <mergeCell ref="AH11:AL11"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="Q1:Q2"/>
+    <mergeCell ref="U11:X11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10324,8 +10324,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2029A93E-B53C-4201-9F17-439C144F3CF1}">
   <dimension ref="A1:AT37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="I29" sqref="I29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1:L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10425,14 +10425,14 @@
         <f ca="1">TODAY()</f>
         <v>45283</v>
       </c>
-      <c r="T1" s="748"/>
+      <c r="T1" s="741"/>
       <c r="U1" s="142"/>
       <c r="V1" s="6"/>
       <c r="W1" s="6"/>
-      <c r="X1" s="732" t="s">
+      <c r="X1" s="725" t="s">
         <v>442</v>
       </c>
-      <c r="Y1" s="733"/>
+      <c r="Y1" s="726"/>
       <c r="Z1" s="308">
         <f>68-(W8+Y3+X3+U3)</f>
         <v>0</v>
@@ -10448,23 +10448,23 @@
       <c r="AD1" s="304" t="s">
         <v>44</v>
       </c>
-      <c r="AE1" s="734" t="s">
+      <c r="AE1" s="727" t="s">
         <v>190</v>
       </c>
-      <c r="AF1" s="735"/>
-      <c r="AG1" s="736"/>
-      <c r="AH1" s="737" t="s">
+      <c r="AF1" s="728"/>
+      <c r="AG1" s="729"/>
+      <c r="AH1" s="730" t="s">
         <v>294</v>
       </c>
-      <c r="AI1" s="738"/>
-      <c r="AJ1" s="739"/>
+      <c r="AI1" s="731"/>
+      <c r="AJ1" s="732"/>
       <c r="AK1" s="558"/>
       <c r="AL1" s="558"/>
-      <c r="AM1" s="729" t="s">
+      <c r="AM1" s="722" t="s">
         <v>445</v>
       </c>
-      <c r="AN1" s="730"/>
-      <c r="AO1" s="731"/>
+      <c r="AN1" s="723"/>
+      <c r="AO1" s="724"/>
       <c r="AR1" s="142"/>
     </row>
     <row r="2" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10477,29 +10477,29 @@
       </c>
       <c r="J2" s="320">
         <f>K2+L2</f>
-        <v>30</v>
-      </c>
-      <c r="K2" s="727">
+        <v>27</v>
+      </c>
+      <c r="K2" s="749">
         <f>SUM(K4:K29)</f>
         <v>12</v>
       </c>
-      <c r="L2" s="725">
+      <c r="L2" s="747">
         <f>SUM(L4:L37)</f>
-        <v>18</v>
-      </c>
-      <c r="M2" s="740">
+        <v>15</v>
+      </c>
+      <c r="M2" s="733">
         <f>SUM(M5:M30)</f>
         <v>1</v>
       </c>
-      <c r="N2" s="742">
+      <c r="N2" s="735">
         <f>SUM(N4:N29)</f>
         <v>11</v>
       </c>
-      <c r="O2" s="744">
+      <c r="O2" s="737">
         <f>SUM(O4:O29)</f>
         <v>10</v>
       </c>
-      <c r="P2" s="672">
+      <c r="P2" s="643">
         <f>SUM(N30:N37)* (-1)</f>
         <v>-3</v>
       </c>
@@ -10512,14 +10512,14 @@
       <c r="S2" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="T2" s="749"/>
+      <c r="T2" s="742"/>
       <c r="U2" s="543" t="s">
         <v>263</v>
       </c>
       <c r="V2" s="487" t="s">
         <v>220</v>
       </c>
-      <c r="W2" s="746" t="s">
+      <c r="W2" s="739" t="s">
         <v>235</v>
       </c>
       <c r="X2" s="488" t="s">
@@ -10591,12 +10591,12 @@
         <f>V3+X3+Y3+U3</f>
         <v>68</v>
       </c>
-      <c r="K3" s="728"/>
-      <c r="L3" s="726"/>
-      <c r="M3" s="741"/>
-      <c r="N3" s="743"/>
-      <c r="O3" s="745"/>
-      <c r="P3" s="673"/>
+      <c r="K3" s="750"/>
+      <c r="L3" s="748"/>
+      <c r="M3" s="734"/>
+      <c r="N3" s="736"/>
+      <c r="O3" s="738"/>
+      <c r="P3" s="644"/>
       <c r="Q3" s="174">
         <f>(M2+N2)-Y3</f>
         <v>0</v>
@@ -10604,7 +10604,7 @@
       <c r="S3" s="159" t="s">
         <v>245</v>
       </c>
-      <c r="T3" s="750"/>
+      <c r="T3" s="743"/>
       <c r="U3" s="544">
         <f>SUM(U4:U29)</f>
         <v>11</v>
@@ -10613,7 +10613,7 @@
         <f>SUM(V4:V29)</f>
         <v>36</v>
       </c>
-      <c r="W3" s="747"/>
+      <c r="W3" s="740"/>
       <c r="X3" s="490">
         <f t="shared" ref="X3:AC3" si="0">SUM(X4:X29)</f>
         <v>9</v>
@@ -10711,7 +10711,7 @@
         <f>AC4</f>
         <v>0</v>
       </c>
-      <c r="P4" s="722" t="s">
+      <c r="P4" s="744" t="s">
         <v>199</v>
       </c>
       <c r="Q4" s="20"/>
@@ -10797,7 +10797,7 @@
         <f>AC5</f>
         <v>0</v>
       </c>
-      <c r="P5" s="723"/>
+      <c r="P5" s="745"/>
       <c r="Q5" s="20"/>
       <c r="R5" s="2" t="s">
         <v>341</v>
@@ -10882,9 +10882,7 @@
       <c r="K6" s="586">
         <v>2</v>
       </c>
-      <c r="L6" s="594">
-        <v>1</v>
-      </c>
+      <c r="L6" s="594"/>
       <c r="M6" s="328">
         <v>0</v>
       </c>
@@ -10895,7 +10893,7 @@
         <f>AC6</f>
         <v>1</v>
       </c>
-      <c r="P6" s="723"/>
+      <c r="P6" s="745"/>
       <c r="Q6" s="19" t="s">
         <v>336</v>
       </c>
@@ -10985,9 +10983,7 @@
       <c r="K7" s="585">
         <v>3</v>
       </c>
-      <c r="L7" s="593">
-        <v>2</v>
-      </c>
+      <c r="L7" s="593"/>
       <c r="M7" s="328">
         <v>0</v>
       </c>
@@ -10998,7 +10994,7 @@
         <f t="shared" ref="O7:O37" si="10">AC7</f>
         <v>1</v>
       </c>
-      <c r="P7" s="723"/>
+      <c r="P7" s="745"/>
       <c r="Q7" s="20"/>
       <c r="R7" s="2" t="s">
         <v>336</v>
@@ -11112,7 +11108,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="P8" s="723"/>
+      <c r="P8" s="745"/>
       <c r="Q8" s="21" t="s">
         <v>234</v>
       </c>
@@ -11203,7 +11199,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="P9" s="723"/>
+      <c r="P9" s="745"/>
       <c r="Q9" s="21" t="s">
         <v>336</v>
       </c>
@@ -11308,7 +11304,7 @@
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="P10" s="723"/>
+      <c r="P10" s="745"/>
       <c r="Q10" s="20"/>
       <c r="R10" s="2" t="s">
         <v>341</v>
@@ -11398,7 +11394,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="P11" s="723"/>
+      <c r="P11" s="745"/>
       <c r="Q11" s="21" t="s">
         <v>336</v>
       </c>
@@ -11463,14 +11459,14 @@
       <c r="AR11" s="513"/>
     </row>
     <row r="12" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="632" t="s">
+      <c r="A12" s="681" t="s">
         <v>55</v>
       </c>
       <c r="B12" s="30">
         <v>13</v>
       </c>
       <c r="C12" s="2"/>
-      <c r="E12" s="687" t="s">
+      <c r="E12" s="631" t="s">
         <v>56</v>
       </c>
       <c r="G12" s="264"/>
@@ -11495,7 +11491,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="P12" s="723"/>
+      <c r="P12" s="745"/>
       <c r="Q12" s="21" t="s">
         <v>336</v>
       </c>
@@ -11572,14 +11568,14 @@
       </c>
     </row>
     <row r="13" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="634"/>
+      <c r="A13" s="683"/>
       <c r="B13" s="597">
         <v>12</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="E13" s="688"/>
+      <c r="E13" s="632"/>
       <c r="F13" s="174">
         <v>0</v>
       </c>
@@ -11603,7 +11599,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="P13" s="723"/>
+      <c r="P13" s="745"/>
       <c r="Q13" s="21" t="s">
         <v>336</v>
       </c>
@@ -11685,7 +11681,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="P14" s="723"/>
+      <c r="P14" s="745"/>
       <c r="Q14" s="20"/>
       <c r="R14" s="202" t="s">
         <v>340</v>
@@ -11788,7 +11784,7 @@
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="P15" s="723"/>
+      <c r="P15" s="745"/>
       <c r="Q15" s="20"/>
       <c r="R15" s="202" t="s">
         <v>340</v>
@@ -11882,7 +11878,7 @@
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="P16" s="723"/>
+      <c r="P16" s="745"/>
       <c r="Q16" s="21" t="s">
         <v>336</v>
       </c>
@@ -11987,7 +11983,7 @@
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="P17" s="723"/>
+      <c r="P17" s="745"/>
       <c r="Q17" s="20"/>
       <c r="R17" s="2" t="s">
         <v>342</v>
@@ -12089,7 +12085,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="P18" s="723"/>
+      <c r="P18" s="745"/>
       <c r="Q18" s="21" t="s">
         <v>336</v>
       </c>
@@ -12177,7 +12173,7 @@
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="P19" s="723"/>
+      <c r="P19" s="745"/>
       <c r="Q19" s="20"/>
       <c r="R19" s="2" t="s">
         <v>335</v>
@@ -12287,11 +12283,11 @@
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="P20" s="724"/>
+      <c r="P20" s="746"/>
       <c r="Q20" s="609" t="s">
         <v>336</v>
       </c>
-      <c r="R20" s="689"/>
+      <c r="R20" s="633"/>
       <c r="S20" s="540" t="s">
         <v>85</v>
       </c>
@@ -12555,7 +12551,7 @@
     </row>
     <row r="23" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B23" s="24"/>
-      <c r="E23" s="639" t="s">
+      <c r="E23" s="688" t="s">
         <v>290</v>
       </c>
       <c r="F23" s="182"/>
@@ -12658,7 +12654,7 @@
       <c r="C24" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="E24" s="640"/>
+      <c r="E24" s="689"/>
       <c r="F24" s="174"/>
       <c r="H24" s="42"/>
       <c r="J24" s="581" t="s">
@@ -12681,7 +12677,7 @@
       <c r="Q24" s="609" t="s">
         <v>336</v>
       </c>
-      <c r="R24" s="689"/>
+      <c r="R24" s="633"/>
       <c r="S24" s="540" t="s">
         <v>250</v>
       </c>
@@ -13332,8 +13328,8 @@
       <c r="AR31" s="513"/>
     </row>
     <row r="32" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="656"/>
-      <c r="B32" s="656"/>
+      <c r="A32" s="636"/>
+      <c r="B32" s="636"/>
       <c r="J32" s="582" t="s">
         <v>310</v>
       </c>
@@ -13676,7 +13672,7 @@
     </row>
     <row r="36" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B36" s="24">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="F36" s="261" t="s">
         <v>44</v>
@@ -13867,6 +13863,15 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="Q24:R24"/>
+    <mergeCell ref="P4:P20"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="Q20:R20"/>
     <mergeCell ref="AM1:AO1"/>
     <mergeCell ref="X1:Y1"/>
     <mergeCell ref="AE1:AG1"/>
@@ -13877,15 +13882,6 @@
     <mergeCell ref="P2:P3"/>
     <mergeCell ref="W2:W3"/>
     <mergeCell ref="T1:T3"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="Q24:R24"/>
-    <mergeCell ref="P4:P20"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="Q20:R20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -13953,7 +13949,7 @@
       <c r="V1" s="609" t="s">
         <v>70</v>
       </c>
-      <c r="W1" s="689"/>
+      <c r="W1" s="633"/>
       <c r="X1" s="62" t="s">
         <v>101</v>
       </c>
@@ -13972,7 +13968,7 @@
       <c r="AC1" s="116" t="s">
         <v>190</v>
       </c>
-      <c r="AD1" s="765" t="s">
+      <c r="AD1" s="758" t="s">
         <v>212</v>
       </c>
       <c r="AE1" s="116" t="s">
@@ -13989,10 +13985,10 @@
       <c r="E2" s="39" t="s">
         <v>73</v>
       </c>
-      <c r="F2" s="796" t="s">
+      <c r="F2" s="757" t="s">
         <v>74</v>
       </c>
-      <c r="G2" s="753" t="s">
+      <c r="G2" s="785" t="s">
         <v>44</v>
       </c>
       <c r="H2" s="40" t="s">
@@ -14020,10 +14016,10 @@
       <c r="U2" s="60" t="s">
         <v>105</v>
       </c>
-      <c r="V2" s="732" t="s">
+      <c r="V2" s="725" t="s">
         <v>120</v>
       </c>
-      <c r="W2" s="733"/>
+      <c r="W2" s="726"/>
       <c r="X2" s="64" t="s">
         <v>109</v>
       </c>
@@ -14042,7 +14038,7 @@
       <c r="AC2" s="117" t="s">
         <v>98</v>
       </c>
-      <c r="AD2" s="766"/>
+      <c r="AD2" s="759"/>
       <c r="AE2" s="64" t="s">
         <v>98</v>
       </c>
@@ -14061,8 +14057,8 @@
       <c r="E3" s="39" t="s">
         <v>79</v>
       </c>
-      <c r="F3" s="636"/>
-      <c r="G3" s="754"/>
+      <c r="F3" s="685"/>
+      <c r="G3" s="786"/>
       <c r="H3" s="40" t="s">
         <v>80</v>
       </c>
@@ -14073,13 +14069,13 @@
         <v>81</v>
       </c>
       <c r="N3" s="44"/>
-      <c r="O3" s="763" t="s">
+      <c r="O3" s="795" t="s">
         <v>44</v>
       </c>
-      <c r="P3" s="784" t="s">
+      <c r="P3" s="777" t="s">
         <v>218</v>
       </c>
-      <c r="Q3" s="785"/>
+      <c r="Q3" s="778"/>
       <c r="S3" s="57" t="s">
         <v>219</v>
       </c>
@@ -14089,15 +14085,15 @@
       <c r="W3" s="59" t="s">
         <v>104</v>
       </c>
-      <c r="AD3" s="766"/>
+      <c r="AD3" s="759"/>
     </row>
     <row r="4" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G4" s="754"/>
+      <c r="G4" s="786"/>
       <c r="H4" s="6"/>
       <c r="L4" s="693" t="s">
         <v>82</v>
       </c>
-      <c r="O4" s="764"/>
+      <c r="O4" s="796"/>
       <c r="T4" s="55" t="s">
         <v>97</v>
       </c>
@@ -14111,8 +14107,8 @@
         <v>194</v>
       </c>
       <c r="Z4" s="611"/>
-      <c r="AA4" s="689"/>
-      <c r="AD4" s="766"/>
+      <c r="AA4" s="633"/>
+      <c r="AD4" s="759"/>
     </row>
     <row r="5" spans="1:31" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C5" s="52" t="s">
@@ -14127,21 +14123,21 @@
       <c r="F5" s="66" t="s">
         <v>84</v>
       </c>
-      <c r="G5" s="754"/>
+      <c r="G5" s="786"/>
       <c r="H5" s="46" t="s">
         <v>75</v>
       </c>
-      <c r="K5" s="771" t="s">
+      <c r="K5" s="764" t="s">
         <v>216</v>
       </c>
-      <c r="L5" s="786"/>
+      <c r="L5" s="779"/>
       <c r="M5" s="2" t="s">
         <v>214</v>
       </c>
       <c r="N5" s="61" t="s">
         <v>213</v>
       </c>
-      <c r="O5" s="764"/>
+      <c r="O5" s="796"/>
       <c r="P5" s="108" t="s">
         <v>215</v>
       </c>
@@ -14157,11 +14153,11 @@
       <c r="U5" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="Y5" s="774" t="s">
+      <c r="Y5" s="767" t="s">
         <v>283</v>
       </c>
-      <c r="Z5" s="775"/>
-      <c r="AD5" s="766"/>
+      <c r="Z5" s="768"/>
+      <c r="AD5" s="759"/>
     </row>
     <row r="6" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C6" s="109"/>
@@ -14171,16 +14167,16 @@
       <c r="E6" s="45" t="s">
         <v>85</v>
       </c>
-      <c r="G6" s="754"/>
+      <c r="G6" s="786"/>
       <c r="H6" s="46" t="s">
         <v>80</v>
       </c>
       <c r="I6" s="23">
         <v>15</v>
       </c>
-      <c r="K6" s="772"/>
-      <c r="L6" s="786"/>
-      <c r="O6" s="764"/>
+      <c r="K6" s="765"/>
+      <c r="L6" s="779"/>
+      <c r="O6" s="796"/>
       <c r="T6" s="2" t="s">
         <v>100</v>
       </c>
@@ -14190,23 +14186,23 @@
       <c r="V6" s="21">
         <v>-1</v>
       </c>
-      <c r="AD6" s="766"/>
+      <c r="AD6" s="759"/>
     </row>
     <row r="7" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C7" s="110"/>
-      <c r="G7" s="754"/>
+      <c r="G7" s="786"/>
       <c r="H7" s="6"/>
-      <c r="K7" s="772"/>
-      <c r="L7" s="786"/>
+      <c r="K7" s="765"/>
+      <c r="L7" s="779"/>
       <c r="N7" s="21" t="s">
         <v>119</v>
       </c>
-      <c r="O7" s="764"/>
+      <c r="O7" s="796"/>
       <c r="P7" s="73"/>
       <c r="U7" s="104" t="s">
         <v>20</v>
       </c>
-      <c r="AD7" s="766"/>
+      <c r="AD7" s="759"/>
     </row>
     <row r="8" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C8" s="130"/>
@@ -14219,7 +14215,7 @@
       <c r="F8" s="66" t="s">
         <v>86</v>
       </c>
-      <c r="G8" s="754"/>
+      <c r="G8" s="786"/>
       <c r="H8" s="50" t="s">
         <v>75</v>
       </c>
@@ -14229,41 +14225,41 @@
       <c r="J8" s="111">
         <v>115</v>
       </c>
-      <c r="K8" s="772"/>
-      <c r="L8" s="786"/>
-      <c r="O8" s="764"/>
+      <c r="K8" s="765"/>
+      <c r="L8" s="779"/>
+      <c r="O8" s="796"/>
       <c r="P8" s="49"/>
-      <c r="S8" s="768" t="s">
+      <c r="S8" s="761" t="s">
         <v>211</v>
       </c>
-      <c r="T8" s="769"/>
-      <c r="U8" s="769"/>
-      <c r="V8" s="769"/>
-      <c r="W8" s="769"/>
-      <c r="X8" s="769"/>
-      <c r="Y8" s="769"/>
-      <c r="Z8" s="769"/>
-      <c r="AA8" s="769"/>
-      <c r="AB8" s="769"/>
-      <c r="AC8" s="770"/>
-      <c r="AD8" s="766"/>
+      <c r="T8" s="762"/>
+      <c r="U8" s="762"/>
+      <c r="V8" s="762"/>
+      <c r="W8" s="762"/>
+      <c r="X8" s="762"/>
+      <c r="Y8" s="762"/>
+      <c r="Z8" s="762"/>
+      <c r="AA8" s="762"/>
+      <c r="AB8" s="762"/>
+      <c r="AC8" s="763"/>
+      <c r="AD8" s="759"/>
     </row>
     <row r="9" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C9" s="790"/>
-      <c r="G9" s="754"/>
+      <c r="C9" s="751"/>
+      <c r="G9" s="786"/>
       <c r="H9" s="6"/>
-      <c r="K9" s="772"/>
-      <c r="L9" s="757" t="s">
+      <c r="K9" s="765"/>
+      <c r="L9" s="789" t="s">
         <v>217</v>
       </c>
-      <c r="M9" s="758"/>
-      <c r="N9" s="759"/>
-      <c r="O9" s="764"/>
+      <c r="M9" s="790"/>
+      <c r="N9" s="791"/>
+      <c r="O9" s="796"/>
       <c r="P9" s="75"/>
-      <c r="AD9" s="766"/>
+      <c r="AD9" s="759"/>
     </row>
     <row r="10" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C10" s="791"/>
+      <c r="C10" s="752"/>
       <c r="D10" s="23"/>
       <c r="E10" s="45" t="s">
         <v>87</v>
@@ -14271,7 +14267,7 @@
       <c r="F10" s="66" t="s">
         <v>88</v>
       </c>
-      <c r="G10" s="754"/>
+      <c r="G10" s="786"/>
       <c r="H10" s="51"/>
       <c r="I10" s="21" t="s">
         <v>80</v>
@@ -14279,33 +14275,33 @@
       <c r="J10" s="3">
         <v>15</v>
       </c>
-      <c r="K10" s="772"/>
-      <c r="M10" s="793" t="s">
+      <c r="K10" s="765"/>
+      <c r="M10" s="754" t="s">
         <v>89</v>
       </c>
-      <c r="N10" s="794"/>
-      <c r="O10" s="794"/>
-      <c r="P10" s="794"/>
-      <c r="Q10" s="794"/>
-      <c r="R10" s="794"/>
-      <c r="S10" s="794"/>
-      <c r="T10" s="794"/>
-      <c r="U10" s="794"/>
-      <c r="V10" s="794"/>
-      <c r="W10" s="794"/>
-      <c r="X10" s="794"/>
-      <c r="Y10" s="794"/>
-      <c r="Z10" s="794"/>
-      <c r="AA10" s="794"/>
-      <c r="AB10" s="794"/>
-      <c r="AC10" s="795"/>
-      <c r="AD10" s="766"/>
+      <c r="N10" s="755"/>
+      <c r="O10" s="755"/>
+      <c r="P10" s="755"/>
+      <c r="Q10" s="755"/>
+      <c r="R10" s="755"/>
+      <c r="S10" s="755"/>
+      <c r="T10" s="755"/>
+      <c r="U10" s="755"/>
+      <c r="V10" s="755"/>
+      <c r="W10" s="755"/>
+      <c r="X10" s="755"/>
+      <c r="Y10" s="755"/>
+      <c r="Z10" s="755"/>
+      <c r="AA10" s="755"/>
+      <c r="AB10" s="755"/>
+      <c r="AC10" s="756"/>
+      <c r="AD10" s="759"/>
     </row>
     <row r="11" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C11" s="792"/>
-      <c r="G11" s="754"/>
+      <c r="C11" s="753"/>
+      <c r="G11" s="786"/>
       <c r="H11" s="6"/>
-      <c r="K11" s="772"/>
+      <c r="K11" s="765"/>
       <c r="R11" s="52" t="s">
         <v>44</v>
       </c>
@@ -14313,17 +14309,17 @@
       <c r="Y11" s="68" t="s">
         <v>120</v>
       </c>
-      <c r="Z11" s="782" t="s">
+      <c r="Z11" s="775" t="s">
         <v>120</v>
       </c>
-      <c r="AA11" s="783"/>
+      <c r="AA11" s="776"/>
       <c r="AB11" s="52" t="s">
         <v>44</v>
       </c>
       <c r="AC11" s="118" t="s">
         <v>120</v>
       </c>
-      <c r="AD11" s="766"/>
+      <c r="AD11" s="759"/>
     </row>
     <row r="12" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C12" s="129"/>
@@ -14336,7 +14332,7 @@
       <c r="F12" s="66" t="s">
         <v>91</v>
       </c>
-      <c r="G12" s="754"/>
+      <c r="G12" s="786"/>
       <c r="H12" s="128"/>
       <c r="I12" s="19" t="s">
         <v>80</v>
@@ -14344,8 +14340,8 @@
       <c r="J12" s="3">
         <v>15</v>
       </c>
-      <c r="K12" s="772"/>
-      <c r="L12" s="787" t="s">
+      <c r="K12" s="765"/>
+      <c r="L12" s="780" t="s">
         <v>92</v>
       </c>
       <c r="M12" s="21" t="s">
@@ -14376,25 +14372,25 @@
         <v>115</v>
       </c>
       <c r="Y12" s="6"/>
-      <c r="AA12" s="776" t="s">
+      <c r="AA12" s="769" t="s">
         <v>125</v>
       </c>
-      <c r="AB12" s="777"/>
+      <c r="AB12" s="770"/>
       <c r="AC12" s="21" t="s">
         <v>231</v>
       </c>
-      <c r="AD12" s="766"/>
+      <c r="AD12" s="759"/>
     </row>
     <row r="13" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C13" s="790"/>
-      <c r="G13" s="754"/>
-      <c r="K13" s="772"/>
-      <c r="L13" s="788"/>
+      <c r="C13" s="751"/>
+      <c r="G13" s="786"/>
+      <c r="K13" s="765"/>
+      <c r="L13" s="781"/>
       <c r="M13" s="47"/>
-      <c r="Q13" s="756" t="s">
+      <c r="Q13" s="788" t="s">
         <v>209</v>
       </c>
-      <c r="R13" s="645"/>
+      <c r="R13" s="650"/>
       <c r="S13" s="605"/>
       <c r="T13" s="6"/>
       <c r="U13" s="96" t="s">
@@ -14403,17 +14399,17 @@
       <c r="X13" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="AA13" s="778"/>
-      <c r="AB13" s="779"/>
-      <c r="AD13" s="766"/>
+      <c r="AA13" s="771"/>
+      <c r="AB13" s="772"/>
+      <c r="AD13" s="759"/>
     </row>
     <row r="14" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="C14" s="792"/>
+      <c r="C14" s="753"/>
       <c r="D14" s="23"/>
-      <c r="G14" s="754"/>
+      <c r="G14" s="786"/>
       <c r="H14" s="125"/>
       <c r="I14" s="99" t="s">
         <v>44</v>
@@ -14421,8 +14417,8 @@
       <c r="J14" s="111">
         <v>115</v>
       </c>
-      <c r="K14" s="772"/>
-      <c r="L14" s="788"/>
+      <c r="K14" s="765"/>
+      <c r="L14" s="781"/>
       <c r="M14" s="21" t="s">
         <v>110</v>
       </c>
@@ -14443,9 +14439,9 @@
       <c r="Y14" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="AA14" s="778"/>
-      <c r="AB14" s="779"/>
-      <c r="AD14" s="766"/>
+      <c r="AA14" s="771"/>
+      <c r="AB14" s="772"/>
+      <c r="AD14" s="759"/>
     </row>
     <row r="15" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C15" s="130" t="s">
@@ -14460,19 +14456,19 @@
       <c r="F15" s="66" t="s">
         <v>93</v>
       </c>
-      <c r="G15" s="754"/>
+      <c r="G15" s="786"/>
       <c r="H15" s="2" t="s">
         <v>80</v>
       </c>
       <c r="I15" s="53" t="s">
         <v>80</v>
       </c>
-      <c r="K15" s="772"/>
-      <c r="L15" s="789"/>
-      <c r="Q15" s="756" t="s">
+      <c r="K15" s="765"/>
+      <c r="L15" s="782"/>
+      <c r="Q15" s="788" t="s">
         <v>210</v>
       </c>
-      <c r="R15" s="645"/>
+      <c r="R15" s="650"/>
       <c r="S15" s="605"/>
       <c r="T15" s="6"/>
       <c r="V15" s="68" t="s">
@@ -14481,14 +14477,14 @@
       <c r="X15" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="AA15" s="778"/>
-      <c r="AB15" s="779"/>
-      <c r="AD15" s="766"/>
+      <c r="AA15" s="771"/>
+      <c r="AB15" s="772"/>
+      <c r="AD15" s="759"/>
     </row>
     <row r="16" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C16" s="132"/>
-      <c r="G16" s="754"/>
-      <c r="K16" s="772"/>
+      <c r="G16" s="786"/>
+      <c r="K16" s="765"/>
       <c r="N16" s="47"/>
       <c r="O16" s="61" t="s">
         <v>108</v>
@@ -14507,24 +14503,24 @@
       <c r="Z16" s="76" t="s">
         <v>126</v>
       </c>
-      <c r="AA16" s="778"/>
-      <c r="AB16" s="779"/>
-      <c r="AD16" s="766"/>
+      <c r="AA16" s="771"/>
+      <c r="AB16" s="772"/>
+      <c r="AD16" s="759"/>
     </row>
     <row r="17" spans="3:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C17" s="109"/>
       <c r="E17" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="F17" s="751" t="s">
+      <c r="F17" s="783" t="s">
         <v>95</v>
       </c>
-      <c r="G17" s="754"/>
+      <c r="G17" s="786"/>
       <c r="H17" s="54"/>
       <c r="I17" s="133" t="s">
         <v>80</v>
       </c>
-      <c r="K17" s="772"/>
+      <c r="K17" s="765"/>
       <c r="S17" s="605"/>
       <c r="V17" s="68" t="s">
         <v>44</v>
@@ -14532,9 +14528,9 @@
       <c r="X17" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="AA17" s="778"/>
-      <c r="AB17" s="779"/>
-      <c r="AD17" s="766"/>
+      <c r="AA17" s="771"/>
+      <c r="AB17" s="772"/>
+      <c r="AD17" s="759"/>
     </row>
     <row r="18" spans="3:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C18" s="130"/>
@@ -14544,15 +14540,15 @@
       <c r="E18" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="F18" s="752"/>
-      <c r="G18" s="754"/>
+      <c r="F18" s="784"/>
+      <c r="G18" s="786"/>
       <c r="H18" s="108" t="s">
         <v>75</v>
       </c>
       <c r="I18" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="K18" s="772"/>
+      <c r="K18" s="765"/>
       <c r="O18" s="64" t="s">
         <v>114</v>
       </c>
@@ -14563,39 +14559,42 @@
       <c r="X18" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="AA18" s="780"/>
-      <c r="AB18" s="781"/>
-      <c r="AD18" s="766"/>
+      <c r="AA18" s="773"/>
+      <c r="AB18" s="774"/>
+      <c r="AD18" s="759"/>
     </row>
     <row r="19" spans="3:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F19" s="64" t="s">
         <v>208</v>
       </c>
-      <c r="G19" s="755"/>
-      <c r="K19" s="773"/>
+      <c r="G19" s="787"/>
+      <c r="K19" s="766"/>
       <c r="Q19" s="68" t="s">
         <v>44</v>
       </c>
-      <c r="R19" s="760" t="s">
+      <c r="R19" s="792" t="s">
         <v>123</v>
       </c>
-      <c r="S19" s="761"/>
-      <c r="T19" s="762"/>
+      <c r="S19" s="793"/>
+      <c r="T19" s="794"/>
       <c r="V19" s="77" t="s">
         <v>114</v>
       </c>
       <c r="Y19" s="19" t="s">
         <v>124</v>
       </c>
-      <c r="AD19" s="767"/>
+      <c r="AD19" s="760"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="C9:C11"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="V2:W2"/>
-    <mergeCell ref="M10:AC10"/>
-    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="G2:G19"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="L9:N9"/>
+    <mergeCell ref="R19:T19"/>
+    <mergeCell ref="S12:S18"/>
+    <mergeCell ref="O3:O9"/>
     <mergeCell ref="AD1:AD19"/>
     <mergeCell ref="S8:AC8"/>
     <mergeCell ref="K5:K19"/>
@@ -14607,14 +14606,11 @@
     <mergeCell ref="P3:Q3"/>
     <mergeCell ref="L4:L8"/>
     <mergeCell ref="L12:L15"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="G2:G19"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="L9:N9"/>
-    <mergeCell ref="R19:T19"/>
-    <mergeCell ref="S12:S18"/>
-    <mergeCell ref="O3:O9"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="V2:W2"/>
+    <mergeCell ref="M10:AC10"/>
+    <mergeCell ref="F2:F3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/System_2.1.8.xlsx
+++ b/System_2.1.8.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Work_For_\Work\Running AppS\System_Work_RW\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{468B9EDE-E9D6-407A-A553-2461EECB0696}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE475F5D-84F7-4880-9741-8E4A244AB290}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5063,6 +5063,186 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="73" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="27" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="27" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="36" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="36" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="49" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="49" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="49" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="19" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5075,12 +5255,6 @@
     <xf numFmtId="0" fontId="17" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5092,12 +5266,6 @@
     </xf>
     <xf numFmtId="0" fontId="38" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
@@ -5120,190 +5288,61 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="27" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="27" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="27" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="27" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="13" fillId="27" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="27" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="27" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="49" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="49" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="49" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="73" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="13" fillId="27" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="13" fillId="27" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="36" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="36" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5345,43 +5384,25 @@
     <xf numFmtId="0" fontId="39" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="27" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="27" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="27" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="13" fillId="27" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="13" fillId="27" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="27" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="27" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="36" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="36" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="43" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5450,46 +5471,46 @@
     <xf numFmtId="14" fontId="5" fillId="14" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="35" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="35" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="35" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5567,46 +5588,25 @@
     <xf numFmtId="0" fontId="3" fillId="21" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -6997,7 +6997,7 @@
       <c r="H1" s="97" t="s">
         <v>344</v>
       </c>
-      <c r="I1" s="619" t="s">
+      <c r="I1" s="665" t="s">
         <v>370</v>
       </c>
       <c r="J1" s="2" t="s">
@@ -7033,7 +7033,7 @@
       <c r="X1" s="434" t="s">
         <v>155</v>
       </c>
-      <c r="Y1" s="663" t="s">
+      <c r="Y1" s="659" t="s">
         <v>530</v>
       </c>
       <c r="Z1" s="410">
@@ -7058,7 +7058,7 @@
         <v>499</v>
       </c>
       <c r="AM1" s="406"/>
-      <c r="AN1" s="646"/>
+      <c r="AN1" s="641"/>
       <c r="AO1" s="341" t="s">
         <v>470</v>
       </c>
@@ -7067,23 +7067,23 @@
       </c>
     </row>
     <row r="2" spans="1:43" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="672">
+      <c r="A2" s="623">
         <f ca="1">TODAY()</f>
         <v>45283</v>
       </c>
-      <c r="B2" s="674" t="s">
+      <c r="B2" s="625" t="s">
         <v>371</v>
       </c>
-      <c r="C2" s="651" t="s">
+      <c r="C2" s="621" t="s">
         <v>358</v>
       </c>
-      <c r="D2" s="676" t="s">
+      <c r="D2" s="627" t="s">
         <v>356</v>
       </c>
-      <c r="E2" s="615" t="s">
+      <c r="E2" s="675" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="625" t="s">
+      <c r="F2" s="646" t="s">
         <v>102</v>
       </c>
       <c r="G2" s="397" t="s">
@@ -7092,31 +7092,31 @@
       <c r="H2" s="80" t="s">
         <v>33</v>
       </c>
-      <c r="I2" s="620"/>
+      <c r="I2" s="666"/>
       <c r="J2" s="81" t="s">
         <v>76</v>
       </c>
-      <c r="K2" s="617" t="s">
+      <c r="K2" s="677" t="s">
         <v>343</v>
       </c>
-      <c r="L2" s="618"/>
-      <c r="M2" s="625" t="s">
+      <c r="L2" s="678"/>
+      <c r="M2" s="646" t="s">
         <v>102</v>
       </c>
       <c r="N2" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="O2" s="655" t="s">
+      <c r="O2" s="650" t="s">
         <v>102</v>
       </c>
       <c r="P2" s="85" t="s">
         <v>147</v>
       </c>
-      <c r="Q2" s="651" t="s">
+      <c r="Q2" s="621" t="s">
         <v>143</v>
       </c>
       <c r="R2" s="604"/>
-      <c r="S2" s="640" t="s">
+      <c r="S2" s="663" t="s">
         <v>148</v>
       </c>
       <c r="T2" s="89"/>
@@ -7126,7 +7126,7 @@
       <c r="X2" s="435" t="s">
         <v>156</v>
       </c>
-      <c r="Y2" s="664"/>
+      <c r="Y2" s="660"/>
       <c r="Z2" s="411">
         <v>1</v>
       </c>
@@ -7149,15 +7149,15 @@
         <v>464</v>
       </c>
       <c r="AM2" s="432"/>
-      <c r="AN2" s="647"/>
+      <c r="AN2" s="642"/>
     </row>
     <row r="3" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="673"/>
-      <c r="B3" s="675"/>
-      <c r="C3" s="652"/>
-      <c r="D3" s="677"/>
-      <c r="E3" s="616"/>
-      <c r="F3" s="626"/>
+      <c r="A3" s="624"/>
+      <c r="B3" s="626"/>
+      <c r="C3" s="622"/>
+      <c r="D3" s="628"/>
+      <c r="E3" s="676"/>
+      <c r="F3" s="647"/>
       <c r="G3" s="398" t="s">
         <v>28</v>
       </c>
@@ -7176,17 +7176,17 @@
       <c r="L3" s="203" t="s">
         <v>107</v>
       </c>
-      <c r="M3" s="626"/>
+      <c r="M3" s="647"/>
       <c r="N3" s="69" t="s">
         <v>146</v>
       </c>
-      <c r="O3" s="656"/>
+      <c r="O3" s="651"/>
       <c r="P3" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="Q3" s="652"/>
+      <c r="Q3" s="622"/>
       <c r="R3" s="606"/>
-      <c r="S3" s="642"/>
+      <c r="S3" s="664"/>
       <c r="T3" s="89"/>
       <c r="U3" s="124"/>
       <c r="V3" s="120"/>
@@ -7194,7 +7194,7 @@
       <c r="X3" s="435" t="s">
         <v>157</v>
       </c>
-      <c r="Y3" s="664"/>
+      <c r="Y3" s="660"/>
       <c r="Z3" s="412">
         <v>1</v>
       </c>
@@ -7203,7 +7203,7 @@
       <c r="AC3" s="100" t="s">
         <v>481</v>
       </c>
-      <c r="AD3" s="637" t="s">
+      <c r="AD3" s="662" t="s">
         <v>456</v>
       </c>
       <c r="AE3" s="259"/>
@@ -7215,16 +7215,16 @@
       <c r="AK3" s="259"/>
       <c r="AL3" s="16"/>
       <c r="AM3" s="432"/>
-      <c r="AN3" s="647"/>
+      <c r="AN3" s="642"/>
     </row>
     <row r="4" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="240" t="s">
         <v>183</v>
       </c>
-      <c r="B4" s="688" t="s">
+      <c r="B4" s="639" t="s">
         <v>374</v>
       </c>
-      <c r="C4" s="651" t="s">
+      <c r="C4" s="621" t="s">
         <v>154</v>
       </c>
       <c r="D4" s="350" t="s">
@@ -7233,7 +7233,7 @@
       <c r="E4" s="381">
         <v>2</v>
       </c>
-      <c r="F4" s="626"/>
+      <c r="F4" s="647"/>
       <c r="G4" s="384" t="s">
         <v>202</v>
       </c>
@@ -7250,11 +7250,11 @@
         <v>150</v>
       </c>
       <c r="L4" s="206"/>
-      <c r="M4" s="626"/>
+      <c r="M4" s="647"/>
       <c r="N4" s="176" t="s">
         <v>69</v>
       </c>
-      <c r="O4" s="656"/>
+      <c r="O4" s="651"/>
       <c r="P4" s="2" t="s">
         <v>191</v>
       </c>
@@ -7276,12 +7276,12 @@
       <c r="X4" s="435" t="s">
         <v>158</v>
       </c>
-      <c r="Y4" s="664"/>
+      <c r="Y4" s="660"/>
       <c r="Z4" s="413"/>
       <c r="AA4" s="309"/>
       <c r="AB4" s="211"/>
       <c r="AC4" s="16"/>
-      <c r="AD4" s="637"/>
+      <c r="AD4" s="662"/>
       <c r="AE4" s="259"/>
       <c r="AF4" s="259"/>
       <c r="AG4" s="16"/>
@@ -7291,37 +7291,37 @@
       <c r="AK4" s="259"/>
       <c r="AL4" s="16"/>
       <c r="AM4" s="432"/>
-      <c r="AN4" s="647"/>
+      <c r="AN4" s="642"/>
       <c r="AO4" s="341" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="619" t="s">
+      <c r="A5" s="665" t="s">
         <v>419</v>
       </c>
-      <c r="B5" s="689"/>
-      <c r="C5" s="652"/>
+      <c r="B5" s="640"/>
+      <c r="C5" s="622"/>
       <c r="D5" s="61" t="s">
         <v>153</v>
       </c>
       <c r="E5" s="382">
         <v>1</v>
       </c>
-      <c r="F5" s="626"/>
-      <c r="G5" s="680" t="s">
+      <c r="F5" s="647"/>
+      <c r="G5" s="631" t="s">
         <v>192</v>
       </c>
-      <c r="H5" s="680"/>
-      <c r="I5" s="680"/>
-      <c r="J5" s="680"/>
-      <c r="K5" s="680"/>
-      <c r="L5" s="681"/>
-      <c r="M5" s="626"/>
+      <c r="H5" s="631"/>
+      <c r="I5" s="631"/>
+      <c r="J5" s="631"/>
+      <c r="K5" s="631"/>
+      <c r="L5" s="632"/>
+      <c r="M5" s="647"/>
       <c r="N5" s="21">
         <v>8</v>
       </c>
-      <c r="O5" s="656"/>
+      <c r="O5" s="651"/>
       <c r="T5" s="89"/>
       <c r="U5" s="124"/>
       <c r="V5" s="120"/>
@@ -7329,7 +7329,7 @@
       <c r="X5" s="435" t="s">
         <v>159</v>
       </c>
-      <c r="Y5" s="664"/>
+      <c r="Y5" s="660"/>
       <c r="Z5" s="413">
         <v>1</v>
       </c>
@@ -7352,24 +7352,24 @@
       <c r="AK5" s="259"/>
       <c r="AL5" s="80"/>
       <c r="AM5" s="432"/>
-      <c r="AN5" s="647"/>
+      <c r="AN5" s="642"/>
     </row>
     <row r="6" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="620"/>
-      <c r="B6" s="686" t="s">
+      <c r="A6" s="666"/>
+      <c r="B6" s="637" t="s">
         <v>177</v>
       </c>
-      <c r="C6" s="634"/>
-      <c r="D6" s="635"/>
-      <c r="F6" s="626"/>
-      <c r="G6" s="682"/>
-      <c r="H6" s="682"/>
-      <c r="I6" s="682"/>
-      <c r="J6" s="682"/>
-      <c r="K6" s="682"/>
-      <c r="L6" s="683"/>
-      <c r="M6" s="626"/>
-      <c r="O6" s="656"/>
+      <c r="C6" s="667"/>
+      <c r="D6" s="668"/>
+      <c r="F6" s="647"/>
+      <c r="G6" s="633"/>
+      <c r="H6" s="633"/>
+      <c r="I6" s="633"/>
+      <c r="J6" s="633"/>
+      <c r="K6" s="633"/>
+      <c r="L6" s="634"/>
+      <c r="M6" s="647"/>
+      <c r="O6" s="651"/>
       <c r="T6" s="89"/>
       <c r="U6" s="124"/>
       <c r="V6" s="98" t="s">
@@ -7379,7 +7379,7 @@
       <c r="X6" s="435" t="s">
         <v>160</v>
       </c>
-      <c r="Y6" s="664"/>
+      <c r="Y6" s="660"/>
       <c r="Z6" s="411">
         <v>1</v>
       </c>
@@ -7393,16 +7393,16 @@
       <c r="AF6" s="259"/>
       <c r="AG6" s="259"/>
       <c r="AH6" s="259"/>
-      <c r="AI6" s="636"/>
+      <c r="AI6" s="656"/>
       <c r="AJ6" s="445" t="s">
         <v>459</v>
       </c>
-      <c r="AK6" s="636" t="s">
+      <c r="AK6" s="656" t="s">
         <v>252</v>
       </c>
       <c r="AL6" s="259"/>
       <c r="AM6" s="432"/>
-      <c r="AN6" s="647"/>
+      <c r="AN6" s="642"/>
       <c r="AO6" s="341" t="s">
         <v>471</v>
       </c>
@@ -7411,7 +7411,7 @@
       <c r="A7" s="234" t="s">
         <v>574</v>
       </c>
-      <c r="B7" s="687"/>
+      <c r="B7" s="638"/>
       <c r="C7" s="204" t="s">
         <v>375</v>
       </c>
@@ -7421,7 +7421,7 @@
       <c r="E7" s="267">
         <v>3</v>
       </c>
-      <c r="F7" s="626"/>
+      <c r="F7" s="647"/>
       <c r="G7" s="399">
         <v>0</v>
       </c>
@@ -7440,8 +7440,8 @@
       <c r="L7" s="214">
         <v>0</v>
       </c>
-      <c r="M7" s="626"/>
-      <c r="O7" s="656"/>
+      <c r="M7" s="647"/>
+      <c r="O7" s="651"/>
       <c r="R7" s="99" t="s">
         <v>44</v>
       </c>
@@ -7455,7 +7455,7 @@
       <c r="X7" s="435" t="s">
         <v>161</v>
       </c>
-      <c r="Y7" s="664"/>
+      <c r="Y7" s="660"/>
       <c r="Z7" s="411">
         <v>1</v>
       </c>
@@ -7465,18 +7465,18 @@
       <c r="AD7" s="16"/>
       <c r="AE7" s="259"/>
       <c r="AF7" s="259"/>
-      <c r="AG7" s="637" t="s">
+      <c r="AG7" s="662" t="s">
         <v>455</v>
       </c>
       <c r="AH7" s="259"/>
-      <c r="AI7" s="636"/>
+      <c r="AI7" s="656"/>
       <c r="AJ7" s="259"/>
-      <c r="AK7" s="636"/>
+      <c r="AK7" s="656"/>
       <c r="AL7" s="80" t="s">
         <v>497</v>
       </c>
       <c r="AM7" s="432"/>
-      <c r="AN7" s="647"/>
+      <c r="AN7" s="642"/>
       <c r="AP7" s="76" t="s">
         <v>472</v>
       </c>
@@ -7493,27 +7493,27 @@
         <f>SUM(G7:N9)</f>
         <v>15</v>
       </c>
-      <c r="F8" s="626"/>
-      <c r="G8" s="681">
-        <v>0</v>
-      </c>
-      <c r="H8" s="678" t="s">
+      <c r="F8" s="647"/>
+      <c r="G8" s="632">
+        <v>0</v>
+      </c>
+      <c r="H8" s="629" t="s">
         <v>104</v>
       </c>
       <c r="I8" s="604">
         <v>0</v>
       </c>
-      <c r="J8" s="678" t="s">
+      <c r="J8" s="629" t="s">
         <v>104</v>
       </c>
-      <c r="K8" s="684"/>
-      <c r="L8" s="638"/>
-      <c r="M8" s="653"/>
-      <c r="N8" s="643">
+      <c r="K8" s="635"/>
+      <c r="L8" s="669"/>
+      <c r="M8" s="648"/>
+      <c r="N8" s="672">
         <f>N5+N11</f>
         <v>15</v>
       </c>
-      <c r="O8" s="656"/>
+      <c r="O8" s="651"/>
       <c r="T8" s="103" t="s">
         <v>44</v>
       </c>
@@ -7523,7 +7523,7 @@
       <c r="X8" s="435" t="s">
         <v>162</v>
       </c>
-      <c r="Y8" s="664"/>
+      <c r="Y8" s="660"/>
       <c r="Z8" s="413"/>
       <c r="AA8" s="309"/>
       <c r="AB8" s="211"/>
@@ -7531,14 +7531,14 @@
       <c r="AD8" s="16"/>
       <c r="AE8" s="259"/>
       <c r="AF8" s="259"/>
-      <c r="AG8" s="637"/>
+      <c r="AG8" s="662"/>
       <c r="AH8" s="259"/>
-      <c r="AI8" s="636"/>
+      <c r="AI8" s="656"/>
       <c r="AJ8" s="259"/>
       <c r="AK8" s="259"/>
       <c r="AL8" s="259"/>
       <c r="AM8" s="432"/>
-      <c r="AN8" s="647"/>
+      <c r="AN8" s="642"/>
     </row>
     <row r="9" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="234" t="s">
@@ -7553,17 +7553,17 @@
       <c r="D9" s="351" t="s">
         <v>282</v>
       </c>
-      <c r="F9" s="626"/>
-      <c r="G9" s="683"/>
-      <c r="H9" s="679"/>
+      <c r="F9" s="647"/>
+      <c r="G9" s="634"/>
+      <c r="H9" s="630"/>
       <c r="I9" s="606"/>
-      <c r="J9" s="679"/>
-      <c r="K9" s="685"/>
-      <c r="L9" s="639"/>
-      <c r="M9" s="654"/>
-      <c r="N9" s="644"/>
-      <c r="O9" s="657"/>
-      <c r="S9" s="640" t="s">
+      <c r="J9" s="630"/>
+      <c r="K9" s="636"/>
+      <c r="L9" s="670"/>
+      <c r="M9" s="649"/>
+      <c r="N9" s="673"/>
+      <c r="O9" s="652"/>
+      <c r="S9" s="663" t="s">
         <v>61</v>
       </c>
       <c r="T9" s="89"/>
@@ -7575,7 +7575,7 @@
       <c r="X9" s="435" t="s">
         <v>163</v>
       </c>
-      <c r="Y9" s="664"/>
+      <c r="Y9" s="660"/>
       <c r="Z9" s="414"/>
       <c r="AA9" s="309"/>
       <c r="AB9" s="211"/>
@@ -7585,16 +7585,16 @@
       </c>
       <c r="AE9" s="259"/>
       <c r="AF9" s="259"/>
-      <c r="AG9" s="637"/>
+      <c r="AG9" s="662"/>
       <c r="AH9" s="259"/>
-      <c r="AI9" s="636"/>
+      <c r="AI9" s="656"/>
       <c r="AJ9" s="80"/>
-      <c r="AK9" s="636" t="s">
+      <c r="AK9" s="656" t="s">
         <v>252</v>
       </c>
       <c r="AL9" s="259"/>
       <c r="AM9" s="432"/>
-      <c r="AN9" s="647"/>
+      <c r="AN9" s="642"/>
       <c r="AP9" s="2" t="s">
         <v>509</v>
       </c>
@@ -7611,20 +7611,20 @@
         <f>Boat!W8</f>
         <v>36</v>
       </c>
-      <c r="F10" s="626"/>
+      <c r="F10" s="647"/>
       <c r="N10" s="422" t="s">
         <v>397</v>
       </c>
-      <c r="O10" s="628" t="s">
+      <c r="O10" s="684" t="s">
         <v>102</v>
       </c>
-      <c r="P10" s="658" t="s">
+      <c r="P10" s="653" t="s">
         <v>401</v>
       </c>
       <c r="R10" s="74" t="s">
         <v>44</v>
       </c>
-      <c r="S10" s="641"/>
+      <c r="S10" s="671"/>
       <c r="T10" s="89"/>
       <c r="U10" s="123" t="s">
         <v>176</v>
@@ -7636,7 +7636,7 @@
       <c r="X10" s="435" t="s">
         <v>164</v>
       </c>
-      <c r="Y10" s="664"/>
+      <c r="Y10" s="660"/>
       <c r="Z10" s="413">
         <v>0</v>
       </c>
@@ -7654,16 +7654,16 @@
       <c r="AF10" s="240" t="s">
         <v>312</v>
       </c>
-      <c r="AG10" s="637"/>
+      <c r="AG10" s="662"/>
       <c r="AH10" s="80"/>
-      <c r="AI10" s="636"/>
+      <c r="AI10" s="656"/>
       <c r="AJ10" s="259"/>
-      <c r="AK10" s="636"/>
+      <c r="AK10" s="656"/>
       <c r="AL10" s="259"/>
       <c r="AM10" s="446" t="s">
         <v>319</v>
       </c>
-      <c r="AN10" s="647"/>
+      <c r="AN10" s="642"/>
       <c r="AO10" s="206" t="s">
         <v>94</v>
       </c>
@@ -7681,18 +7681,18 @@
       <c r="D11" s="172" t="s">
         <v>356</v>
       </c>
-      <c r="F11" s="626"/>
+      <c r="F11" s="647"/>
       <c r="M11" s="6"/>
       <c r="N11" s="117">
         <v>7</v>
       </c>
-      <c r="O11" s="629"/>
-      <c r="P11" s="659"/>
+      <c r="O11" s="685"/>
+      <c r="P11" s="654"/>
       <c r="Q11" s="65"/>
       <c r="R11" s="120" t="s">
         <v>221</v>
       </c>
-      <c r="S11" s="641"/>
+      <c r="S11" s="671"/>
       <c r="T11" s="102" t="s">
         <v>44</v>
       </c>
@@ -7702,7 +7702,7 @@
       <c r="X11" s="435" t="s">
         <v>165</v>
       </c>
-      <c r="Y11" s="664"/>
+      <c r="Y11" s="660"/>
       <c r="Z11" s="413"/>
       <c r="AA11" s="309">
         <v>1</v>
@@ -7716,14 +7716,14 @@
       <c r="AF11" s="259" t="s">
         <v>477</v>
       </c>
-      <c r="AG11" s="637"/>
+      <c r="AG11" s="662"/>
       <c r="AH11" s="259"/>
       <c r="AI11" s="70"/>
       <c r="AJ11" s="259"/>
       <c r="AK11" s="259"/>
       <c r="AL11" s="259"/>
       <c r="AM11" s="432"/>
-      <c r="AN11" s="647"/>
+      <c r="AN11" s="642"/>
       <c r="AP11" s="76" t="s">
         <v>485</v>
       </c>
@@ -7742,7 +7742,7 @@
       <c r="E12" s="226">
         <v>3</v>
       </c>
-      <c r="F12" s="626"/>
+      <c r="F12" s="647"/>
       <c r="G12" s="340" t="s">
         <v>401</v>
       </c>
@@ -7751,16 +7751,16 @@
       </c>
       <c r="I12" s="611"/>
       <c r="J12" s="611"/>
-      <c r="K12" s="633"/>
+      <c r="K12" s="689"/>
       <c r="L12" s="205"/>
       <c r="M12" s="205"/>
       <c r="N12" s="205"/>
-      <c r="O12" s="629"/>
-      <c r="P12" s="659"/>
+      <c r="O12" s="685"/>
+      <c r="P12" s="654"/>
       <c r="R12" s="122" t="s">
         <v>180</v>
       </c>
-      <c r="S12" s="642"/>
+      <c r="S12" s="664"/>
       <c r="T12" s="101" t="s">
         <v>44</v>
       </c>
@@ -7770,7 +7770,7 @@
       <c r="X12" s="435" t="s">
         <v>166</v>
       </c>
-      <c r="Y12" s="664"/>
+      <c r="Y12" s="660"/>
       <c r="Z12" s="411">
         <v>1</v>
       </c>
@@ -7781,16 +7781,16 @@
       <c r="AC12" s="100" t="s">
         <v>482</v>
       </c>
-      <c r="AD12" s="645" t="s">
+      <c r="AD12" s="674" t="s">
         <v>241</v>
       </c>
       <c r="AE12" s="445" t="s">
         <v>240</v>
       </c>
-      <c r="AF12" s="637" t="s">
+      <c r="AF12" s="662" t="s">
         <v>229</v>
       </c>
-      <c r="AG12" s="637"/>
+      <c r="AG12" s="662"/>
       <c r="AH12" s="240" t="s">
         <v>260</v>
       </c>
@@ -7800,10 +7800,10 @@
       <c r="AJ12" s="259"/>
       <c r="AK12" s="259"/>
       <c r="AL12" s="259"/>
-      <c r="AM12" s="661" t="s">
+      <c r="AM12" s="657" t="s">
         <v>250</v>
       </c>
-      <c r="AN12" s="647"/>
+      <c r="AN12" s="642"/>
       <c r="AO12" s="341" t="s">
         <v>96</v>
       </c>
@@ -7815,17 +7815,17 @@
       <c r="E13" s="452">
         <v>-3</v>
       </c>
-      <c r="F13" s="626"/>
+      <c r="F13" s="647"/>
       <c r="G13" s="611" t="s">
         <v>431</v>
       </c>
       <c r="H13" s="611"/>
       <c r="I13" s="611"/>
-      <c r="J13" s="633"/>
+      <c r="J13" s="689"/>
       <c r="M13" s="6"/>
       <c r="N13" s="6"/>
-      <c r="O13" s="629"/>
-      <c r="P13" s="660"/>
+      <c r="O13" s="685"/>
+      <c r="P13" s="655"/>
       <c r="T13" s="105" t="s">
         <v>44</v>
       </c>
@@ -7835,7 +7835,7 @@
       <c r="X13" s="435" t="s">
         <v>167</v>
       </c>
-      <c r="Y13" s="664"/>
+      <c r="Y13" s="660"/>
       <c r="Z13" s="411">
         <v>1</v>
       </c>
@@ -7846,8 +7846,8 @@
         <v>501</v>
       </c>
       <c r="AC13" s="16"/>
-      <c r="AD13" s="645"/>
-      <c r="AF13" s="637"/>
+      <c r="AD13" s="674"/>
+      <c r="AF13" s="662"/>
       <c r="AG13" s="80"/>
       <c r="AH13" s="240" t="s">
         <v>309</v>
@@ -7858,8 +7858,8 @@
       <c r="AJ13" s="80"/>
       <c r="AK13" s="259"/>
       <c r="AL13" s="259"/>
-      <c r="AM13" s="661"/>
-      <c r="AN13" s="647"/>
+      <c r="AM13" s="657"/>
+      <c r="AN13" s="642"/>
     </row>
     <row r="14" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="454"/>
@@ -7867,18 +7867,18 @@
       <c r="C14" s="463"/>
       <c r="D14" s="456"/>
       <c r="E14" s="457"/>
-      <c r="F14" s="626"/>
+      <c r="F14" s="647"/>
       <c r="G14" s="611" t="s">
         <v>430</v>
       </c>
       <c r="H14" s="611"/>
       <c r="I14" s="611"/>
-      <c r="J14" s="633"/>
+      <c r="J14" s="689"/>
       <c r="K14" s="2">
         <v>12</v>
       </c>
       <c r="N14" s="6"/>
-      <c r="O14" s="629"/>
+      <c r="O14" s="685"/>
       <c r="Q14" s="61" t="s">
         <v>534</v>
       </c>
@@ -7892,24 +7892,24 @@
       <c r="X14" s="435" t="s">
         <v>168</v>
       </c>
-      <c r="Y14" s="664"/>
+      <c r="Y14" s="660"/>
       <c r="Z14" s="411">
         <v>1</v>
       </c>
       <c r="AA14" s="309"/>
       <c r="AB14" s="211"/>
       <c r="AC14" s="16"/>
-      <c r="AD14" s="645"/>
+      <c r="AD14" s="674"/>
       <c r="AE14" s="259"/>
-      <c r="AF14" s="637"/>
+      <c r="AF14" s="662"/>
       <c r="AG14" s="259"/>
       <c r="AH14" s="259"/>
       <c r="AI14" s="70"/>
       <c r="AJ14" s="259"/>
       <c r="AK14" s="259"/>
       <c r="AL14" s="259"/>
-      <c r="AM14" s="661"/>
-      <c r="AN14" s="647"/>
+      <c r="AM14" s="657"/>
+      <c r="AN14" s="642"/>
     </row>
     <row r="15" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="453" t="s">
@@ -7918,8 +7918,8 @@
       <c r="C15" s="604" t="s">
         <v>374</v>
       </c>
-      <c r="F15" s="626"/>
-      <c r="O15" s="629"/>
+      <c r="F15" s="647"/>
+      <c r="O15" s="685"/>
       <c r="R15" s="99" t="s">
         <v>44</v>
       </c>
@@ -7932,7 +7932,7 @@
       <c r="X15" s="435" t="s">
         <v>169</v>
       </c>
-      <c r="Y15" s="664"/>
+      <c r="Y15" s="660"/>
       <c r="Z15" s="413">
         <v>1</v>
       </c>
@@ -7941,8 +7941,8 @@
       <c r="AC15" s="76" t="s">
         <v>480</v>
       </c>
-      <c r="AD15" s="645"/>
-      <c r="AF15" s="637"/>
+      <c r="AD15" s="674"/>
+      <c r="AF15" s="662"/>
       <c r="AG15" s="80"/>
       <c r="AH15" s="240" t="s">
         <v>449</v>
@@ -7955,8 +7955,8 @@
       </c>
       <c r="AK15" s="259"/>
       <c r="AL15" s="259"/>
-      <c r="AM15" s="661"/>
-      <c r="AN15" s="647"/>
+      <c r="AM15" s="657"/>
+      <c r="AN15" s="642"/>
       <c r="AP15" s="76" t="s">
         <v>73</v>
       </c>
@@ -7978,13 +7978,13 @@
       <c r="E16" s="226">
         <v>1</v>
       </c>
-      <c r="F16" s="626"/>
+      <c r="F16" s="647"/>
       <c r="G16" s="340" t="s">
         <v>489</v>
       </c>
       <c r="I16" s="474"/>
       <c r="J16" s="20"/>
-      <c r="O16" s="629"/>
+      <c r="O16" s="685"/>
       <c r="R16" s="439" t="s">
         <v>184</v>
       </c>
@@ -7995,7 +7995,7 @@
       <c r="X16" s="435" t="s">
         <v>170</v>
       </c>
-      <c r="Y16" s="664"/>
+      <c r="Y16" s="660"/>
       <c r="Z16" s="411">
         <v>1</v>
       </c>
@@ -8016,18 +8016,18 @@
       <c r="AM16" s="432" t="s">
         <v>318</v>
       </c>
-      <c r="AN16" s="647"/>
+      <c r="AN16" s="642"/>
       <c r="AP16" s="76" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="17" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="80"/>
-      <c r="F17" s="626"/>
+      <c r="F17" s="647"/>
       <c r="I17" s="475"/>
       <c r="J17" s="20"/>
       <c r="N17" s="6"/>
-      <c r="O17" s="629"/>
+      <c r="O17" s="685"/>
       <c r="Q17" s="21" t="s">
         <v>532</v>
       </c>
@@ -8047,7 +8047,7 @@
       <c r="X17" s="435" t="s">
         <v>171</v>
       </c>
-      <c r="Y17" s="664"/>
+      <c r="Y17" s="660"/>
       <c r="Z17" s="413"/>
       <c r="AA17" s="309"/>
       <c r="AB17" s="211"/>
@@ -8072,7 +8072,7 @@
       <c r="AK17" s="259"/>
       <c r="AL17" s="80"/>
       <c r="AM17" s="432"/>
-      <c r="AN17" s="647"/>
+      <c r="AN17" s="642"/>
       <c r="AO17" s="206" t="s">
         <v>498</v>
       </c>
@@ -8096,21 +8096,21 @@
       <c r="E18" s="99" t="s">
         <v>44</v>
       </c>
-      <c r="F18" s="626"/>
+      <c r="F18" s="647"/>
       <c r="G18" s="340" t="s">
         <v>529</v>
       </c>
       <c r="I18" s="24"/>
       <c r="J18" s="20"/>
-      <c r="O18" s="629"/>
+      <c r="O18" s="685"/>
       <c r="Q18" s="112"/>
-      <c r="R18" s="621" t="s">
+      <c r="R18" s="679" t="s">
         <v>537</v>
       </c>
       <c r="T18" s="100" t="s">
         <v>44</v>
       </c>
-      <c r="U18" s="669" t="s">
+      <c r="U18" s="618" t="s">
         <v>44</v>
       </c>
       <c r="V18" s="120"/>
@@ -8120,7 +8120,7 @@
       <c r="X18" s="435" t="s">
         <v>172</v>
       </c>
-      <c r="Y18" s="664"/>
+      <c r="Y18" s="660"/>
       <c r="Z18" s="413">
         <v>1</v>
       </c>
@@ -8131,38 +8131,38 @@
       <c r="AC18" s="16"/>
       <c r="AD18" s="16"/>
       <c r="AE18" s="259"/>
-      <c r="AF18" s="636" t="s">
+      <c r="AF18" s="656" t="s">
         <v>476</v>
       </c>
       <c r="AG18" s="259"/>
       <c r="AH18" s="70"/>
       <c r="AI18" s="70"/>
-      <c r="AJ18" s="662" t="s">
+      <c r="AJ18" s="658" t="s">
         <v>316</v>
       </c>
       <c r="AK18" s="259"/>
       <c r="AL18" s="80"/>
       <c r="AM18" s="432"/>
-      <c r="AN18" s="647"/>
+      <c r="AN18" s="642"/>
       <c r="AP18" s="76" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="19" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F19" s="626"/>
+      <c r="F19" s="647"/>
       <c r="I19" s="221"/>
-      <c r="O19" s="629"/>
-      <c r="R19" s="622"/>
+      <c r="O19" s="685"/>
+      <c r="R19" s="680"/>
       <c r="S19" s="30" t="s">
         <v>535</v>
       </c>
-      <c r="U19" s="670"/>
+      <c r="U19" s="619"/>
       <c r="V19" s="146"/>
       <c r="W19" s="146"/>
       <c r="X19" s="435" t="s">
         <v>173</v>
       </c>
-      <c r="Y19" s="664"/>
+      <c r="Y19" s="660"/>
       <c r="Z19" s="411">
         <v>1</v>
       </c>
@@ -8171,17 +8171,17 @@
       <c r="AC19" s="16"/>
       <c r="AD19" s="16"/>
       <c r="AE19" s="259"/>
-      <c r="AF19" s="636"/>
+      <c r="AF19" s="656"/>
       <c r="AG19" s="259"/>
       <c r="AH19" s="259"/>
       <c r="AI19" s="70"/>
-      <c r="AJ19" s="662"/>
+      <c r="AJ19" s="658"/>
       <c r="AK19" s="464" t="s">
         <v>252</v>
       </c>
       <c r="AL19" s="80"/>
       <c r="AM19" s="432"/>
-      <c r="AN19" s="647"/>
+      <c r="AN19" s="642"/>
       <c r="AP19" s="76" t="s">
         <v>469</v>
       </c>
@@ -8202,24 +8202,24 @@
       <c r="E20" s="441">
         <v>-1</v>
       </c>
-      <c r="F20" s="626"/>
+      <c r="F20" s="647"/>
       <c r="G20" s="340" t="s">
         <v>492</v>
       </c>
       <c r="I20" s="221"/>
-      <c r="O20" s="629"/>
-      <c r="Q20" s="631" t="s">
+      <c r="O20" s="685"/>
+      <c r="Q20" s="687" t="s">
         <v>48</v>
       </c>
       <c r="T20" s="408" t="s">
         <v>44</v>
       </c>
-      <c r="U20" s="671"/>
+      <c r="U20" s="620"/>
       <c r="W20" s="409"/>
       <c r="X20" s="436" t="s">
         <v>174</v>
       </c>
-      <c r="Y20" s="664"/>
+      <c r="Y20" s="660"/>
       <c r="Z20" s="415">
         <v>1</v>
       </c>
@@ -8244,7 +8244,7 @@
       <c r="AM20" s="384" t="s">
         <v>250</v>
       </c>
-      <c r="AN20" s="647"/>
+      <c r="AN20" s="642"/>
       <c r="AO20" s="341" t="s">
         <v>461</v>
       </c>
@@ -8265,20 +8265,20 @@
       <c r="E21" s="267">
         <v>0</v>
       </c>
-      <c r="F21" s="626"/>
+      <c r="F21" s="647"/>
       <c r="I21" s="221"/>
-      <c r="O21" s="629"/>
-      <c r="Q21" s="632"/>
+      <c r="O21" s="685"/>
+      <c r="Q21" s="688"/>
       <c r="T21" s="426"/>
       <c r="U21" s="14"/>
-      <c r="V21" s="666"/>
+      <c r="V21" s="615"/>
       <c r="W21" s="430" t="s">
         <v>175</v>
       </c>
       <c r="X21" s="433" t="s">
         <v>186</v>
       </c>
-      <c r="Y21" s="664"/>
+      <c r="Y21" s="660"/>
       <c r="Z21" s="449">
         <v>3</v>
       </c>
@@ -8309,15 +8309,15 @@
       <c r="AM21" s="432" t="s">
         <v>546</v>
       </c>
-      <c r="AN21" s="647"/>
+      <c r="AN21" s="642"/>
     </row>
     <row r="22" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F22" s="626"/>
+      <c r="F22" s="647"/>
       <c r="G22" s="340" t="s">
         <v>490</v>
       </c>
       <c r="I22" s="221"/>
-      <c r="O22" s="629"/>
+      <c r="O22" s="685"/>
       <c r="R22" s="438" t="s">
         <v>44</v>
       </c>
@@ -8325,14 +8325,14 @@
         <v>44</v>
       </c>
       <c r="U22" s="15"/>
-      <c r="V22" s="667"/>
+      <c r="V22" s="616"/>
       <c r="W22" s="430" t="s">
         <v>175</v>
       </c>
       <c r="X22" s="433" t="s">
         <v>187</v>
       </c>
-      <c r="Y22" s="664"/>
+      <c r="Y22" s="660"/>
       <c r="Z22" s="419"/>
       <c r="AA22" s="10"/>
       <c r="AB22" s="419"/>
@@ -8343,7 +8343,7 @@
       <c r="AG22" s="6"/>
       <c r="AH22" s="6"/>
       <c r="AI22" s="6"/>
-      <c r="AJ22" s="636" t="s">
+      <c r="AJ22" s="656" t="s">
         <v>473</v>
       </c>
       <c r="AK22" s="259"/>
@@ -8351,7 +8351,7 @@
         <v>479</v>
       </c>
       <c r="AM22" s="302"/>
-      <c r="AN22" s="647"/>
+      <c r="AN22" s="642"/>
     </row>
     <row r="23" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="233" t="s">
@@ -8369,22 +8369,22 @@
       <c r="E23" s="227">
         <v>1</v>
       </c>
-      <c r="F23" s="626"/>
+      <c r="F23" s="647"/>
       <c r="I23" s="221"/>
-      <c r="O23" s="629"/>
-      <c r="Q23" s="631" t="s">
+      <c r="O23" s="685"/>
+      <c r="Q23" s="687" t="s">
         <v>144</v>
       </c>
       <c r="T23" s="17"/>
       <c r="U23" s="424" t="s">
         <v>44</v>
       </c>
-      <c r="V23" s="667"/>
+      <c r="V23" s="616"/>
       <c r="W23" s="148"/>
       <c r="X23" s="433" t="s">
         <v>188</v>
       </c>
-      <c r="Y23" s="664"/>
+      <c r="Y23" s="660"/>
       <c r="Z23" s="17"/>
       <c r="AA23" s="10"/>
       <c r="AB23" s="419"/>
@@ -8395,13 +8395,13 @@
       <c r="AG23" s="6"/>
       <c r="AH23" s="6"/>
       <c r="AI23" s="6"/>
-      <c r="AJ23" s="636"/>
+      <c r="AJ23" s="656"/>
       <c r="AK23" s="259"/>
       <c r="AL23" s="80" t="s">
         <v>508</v>
       </c>
       <c r="AM23" s="302"/>
-      <c r="AN23" s="647"/>
+      <c r="AN23" s="642"/>
     </row>
     <row r="24" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="444" t="s">
@@ -8419,23 +8419,23 @@
       <c r="E24" s="440">
         <v>1</v>
       </c>
-      <c r="F24" s="626"/>
+      <c r="F24" s="647"/>
       <c r="G24" s="61" t="s">
         <v>491</v>
       </c>
       <c r="I24" s="221"/>
-      <c r="O24" s="629"/>
-      <c r="Q24" s="632"/>
+      <c r="O24" s="685"/>
+      <c r="Q24" s="688"/>
       <c r="T24" s="17"/>
       <c r="U24" s="229" t="s">
         <v>44</v>
       </c>
-      <c r="V24" s="667"/>
+      <c r="V24" s="616"/>
       <c r="W24" s="148"/>
       <c r="X24" s="433" t="s">
         <v>185</v>
       </c>
-      <c r="Y24" s="664"/>
+      <c r="Y24" s="660"/>
       <c r="Z24" s="17"/>
       <c r="AA24" s="10"/>
       <c r="AB24" s="419"/>
@@ -8454,12 +8454,12 @@
         <v>464</v>
       </c>
       <c r="AM24" s="302"/>
-      <c r="AN24" s="647"/>
+      <c r="AN24" s="642"/>
     </row>
     <row r="25" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F25" s="626"/>
+      <c r="F25" s="647"/>
       <c r="I25" s="221"/>
-      <c r="O25" s="629"/>
+      <c r="O25" s="685"/>
       <c r="P25" s="206" t="s">
         <v>281</v>
       </c>
@@ -8472,12 +8472,12 @@
       <c r="U25" s="404" t="s">
         <v>44</v>
       </c>
-      <c r="V25" s="668"/>
+      <c r="V25" s="617"/>
       <c r="W25" s="148"/>
       <c r="X25" s="433" t="s">
         <v>189</v>
       </c>
-      <c r="Y25" s="664"/>
+      <c r="Y25" s="660"/>
       <c r="Z25" s="17"/>
       <c r="AA25" s="10"/>
       <c r="AB25" s="419"/>
@@ -8494,7 +8494,7 @@
       <c r="AK25" s="142"/>
       <c r="AL25" s="6"/>
       <c r="AM25" s="302"/>
-      <c r="AN25" s="647"/>
+      <c r="AN25" s="642"/>
     </row>
     <row r="26" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="233" t="s">
@@ -8512,17 +8512,17 @@
       <c r="E26" s="383">
         <v>1</v>
       </c>
-      <c r="F26" s="626"/>
+      <c r="F26" s="647"/>
       <c r="G26" s="340" t="s">
         <v>488</v>
       </c>
       <c r="I26" s="221"/>
-      <c r="O26" s="629"/>
-      <c r="P26" s="649" t="s">
+      <c r="O26" s="685"/>
+      <c r="P26" s="644" t="s">
         <v>527</v>
       </c>
-      <c r="Q26" s="650"/>
-      <c r="R26" s="623" t="s">
+      <c r="Q26" s="645"/>
+      <c r="R26" s="681" t="s">
         <v>536</v>
       </c>
       <c r="T26" s="180"/>
@@ -8534,7 +8534,7 @@
       <c r="X26" s="433" t="s">
         <v>181</v>
       </c>
-      <c r="Y26" s="664"/>
+      <c r="Y26" s="660"/>
       <c r="Z26" s="17"/>
       <c r="AA26" s="10"/>
       <c r="AB26" s="419"/>
@@ -8561,7 +8561,7 @@
       <c r="AM26" s="446" t="s">
         <v>457</v>
       </c>
-      <c r="AN26" s="647"/>
+      <c r="AN26" s="642"/>
     </row>
     <row r="27" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B27" s="21" t="s">
@@ -8573,13 +8573,13 @@
       <c r="E27" s="267" t="s">
         <v>44</v>
       </c>
-      <c r="F27" s="627"/>
+      <c r="F27" s="683"/>
       <c r="G27" s="61" t="s">
         <v>545</v>
       </c>
       <c r="I27" s="222"/>
-      <c r="O27" s="630"/>
-      <c r="R27" s="624"/>
+      <c r="O27" s="686"/>
+      <c r="R27" s="682"/>
       <c r="S27" s="425" t="s">
         <v>54</v>
       </c>
@@ -8592,7 +8592,7 @@
       <c r="X27" s="433" t="s">
         <v>531</v>
       </c>
-      <c r="Y27" s="665"/>
+      <c r="Y27" s="661"/>
       <c r="Z27" s="161"/>
       <c r="AA27" s="13"/>
       <c r="AB27" s="420"/>
@@ -8609,10 +8609,48 @@
       <c r="AM27" s="384" t="s">
         <v>320</v>
       </c>
-      <c r="AN27" s="648"/>
+      <c r="AN27" s="643"/>
     </row>
   </sheetData>
   <mergeCells count="54">
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="R18:R19"/>
+    <mergeCell ref="R26:R27"/>
+    <mergeCell ref="F2:F27"/>
+    <mergeCell ref="O10:O27"/>
+    <mergeCell ref="Q20:Q21"/>
+    <mergeCell ref="Q23:Q24"/>
+    <mergeCell ref="G14:J14"/>
+    <mergeCell ref="G13:J13"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="AI6:AI10"/>
+    <mergeCell ref="AF12:AF15"/>
+    <mergeCell ref="AG7:AG12"/>
+    <mergeCell ref="L8:L9"/>
+    <mergeCell ref="S9:S12"/>
+    <mergeCell ref="N8:N9"/>
+    <mergeCell ref="AD12:AD15"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="AN1:AN27"/>
+    <mergeCell ref="P26:Q26"/>
+    <mergeCell ref="Q2:Q3"/>
+    <mergeCell ref="M2:M9"/>
+    <mergeCell ref="O2:O9"/>
+    <mergeCell ref="P10:P13"/>
+    <mergeCell ref="AK6:AK7"/>
+    <mergeCell ref="AM12:AM15"/>
+    <mergeCell ref="AF18:AF19"/>
+    <mergeCell ref="AJ18:AJ19"/>
+    <mergeCell ref="Y1:Y27"/>
+    <mergeCell ref="AJ22:AJ23"/>
+    <mergeCell ref="AK9:AK10"/>
+    <mergeCell ref="AD3:AD4"/>
+    <mergeCell ref="S2:S3"/>
+    <mergeCell ref="R2:R3"/>
     <mergeCell ref="V21:V25"/>
     <mergeCell ref="U18:U20"/>
     <mergeCell ref="C2:C3"/>
@@ -8629,44 +8667,6 @@
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="B4:B5"/>
-    <mergeCell ref="AN1:AN27"/>
-    <mergeCell ref="P26:Q26"/>
-    <mergeCell ref="Q2:Q3"/>
-    <mergeCell ref="M2:M9"/>
-    <mergeCell ref="O2:O9"/>
-    <mergeCell ref="P10:P13"/>
-    <mergeCell ref="AK6:AK7"/>
-    <mergeCell ref="AM12:AM15"/>
-    <mergeCell ref="AF18:AF19"/>
-    <mergeCell ref="AJ18:AJ19"/>
-    <mergeCell ref="Y1:Y27"/>
-    <mergeCell ref="AJ22:AJ23"/>
-    <mergeCell ref="AK9:AK10"/>
-    <mergeCell ref="AD3:AD4"/>
-    <mergeCell ref="S2:S3"/>
-    <mergeCell ref="R2:R3"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="AI6:AI10"/>
-    <mergeCell ref="AF12:AF15"/>
-    <mergeCell ref="AG7:AG12"/>
-    <mergeCell ref="L8:L9"/>
-    <mergeCell ref="S9:S12"/>
-    <mergeCell ref="N8:N9"/>
-    <mergeCell ref="AD12:AD15"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="R18:R19"/>
-    <mergeCell ref="R26:R27"/>
-    <mergeCell ref="F2:F27"/>
-    <mergeCell ref="O10:O27"/>
-    <mergeCell ref="Q20:Q21"/>
-    <mergeCell ref="Q23:Q24"/>
-    <mergeCell ref="G14:J14"/>
-    <mergeCell ref="G13:J13"/>
-    <mergeCell ref="H12:K12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8703,12 +8703,12 @@
       <c r="B1" s="609" t="s">
         <v>311</v>
       </c>
-      <c r="C1" s="633"/>
+      <c r="C1" s="689"/>
       <c r="D1" s="206"/>
       <c r="J1" s="609" t="s">
         <v>69</v>
       </c>
-      <c r="K1" s="633"/>
+      <c r="K1" s="689"/>
       <c r="L1" s="197" t="s">
         <v>331</v>
       </c>
@@ -9111,7 +9111,7 @@
       <c r="P1" s="402" t="s">
         <v>398</v>
       </c>
-      <c r="Q1" s="707" t="s">
+      <c r="Q1" s="720" t="s">
         <v>180</v>
       </c>
       <c r="R1" s="100" t="s">
@@ -9135,7 +9135,7 @@
       <c r="AA1" s="523" t="s">
         <v>438</v>
       </c>
-      <c r="AB1" s="701" t="s">
+      <c r="AB1" s="714" t="s">
         <v>596</v>
       </c>
       <c r="AC1" s="99" t="s">
@@ -9157,32 +9157,32 @@
       </c>
     </row>
     <row r="2" spans="1:38" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="712">
+      <c r="A2" s="699">
         <f ca="1">TODAY()</f>
         <v>45283</v>
       </c>
-      <c r="B2" s="714" t="s">
+      <c r="B2" s="701" t="s">
         <v>380</v>
       </c>
-      <c r="C2" s="651" t="s">
+      <c r="C2" s="621" t="s">
         <v>358</v>
       </c>
-      <c r="D2" s="716" t="s">
+      <c r="D2" s="703" t="s">
         <v>102</v>
       </c>
-      <c r="E2" s="718" t="s">
+      <c r="E2" s="705" t="s">
         <v>64</v>
       </c>
       <c r="F2" s="193" t="s">
         <v>219</v>
       </c>
-      <c r="G2" s="619" t="s">
+      <c r="G2" s="665" t="s">
         <v>373</v>
       </c>
       <c r="H2" s="208" t="s">
         <v>219</v>
       </c>
-      <c r="I2" s="698" t="s">
+      <c r="I2" s="711" t="s">
         <v>102</v>
       </c>
       <c r="J2" s="400" t="s">
@@ -9206,7 +9206,7 @@
       <c r="P2" s="403">
         <v>40</v>
       </c>
-      <c r="Q2" s="708"/>
+      <c r="Q2" s="721"/>
       <c r="R2" s="21">
         <f>R7+R20</f>
         <v>2</v>
@@ -9231,7 +9231,7 @@
         <f>IF((Z2+T2)&gt;0,0,-1)</f>
         <v>0</v>
       </c>
-      <c r="AB2" s="702"/>
+      <c r="AB2" s="715"/>
       <c r="AC2" s="35"/>
       <c r="AH2" s="6" t="s">
         <v>453</v>
@@ -9248,14 +9248,14 @@
       </c>
     </row>
     <row r="3" spans="1:38" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="713"/>
-      <c r="B3" s="715"/>
-      <c r="C3" s="652"/>
-      <c r="D3" s="717"/>
-      <c r="E3" s="719"/>
-      <c r="G3" s="620"/>
+      <c r="A3" s="700"/>
+      <c r="B3" s="702"/>
+      <c r="C3" s="622"/>
+      <c r="D3" s="704"/>
+      <c r="E3" s="706"/>
+      <c r="G3" s="666"/>
       <c r="H3" s="6"/>
-      <c r="I3" s="699"/>
+      <c r="I3" s="712"/>
       <c r="K3" s="24">
         <v>2</v>
       </c>
@@ -9270,7 +9270,7 @@
       <c r="V3" s="475"/>
       <c r="W3" s="6"/>
       <c r="X3" s="475"/>
-      <c r="AB3" s="702"/>
+      <c r="AB3" s="715"/>
       <c r="AC3" s="35"/>
       <c r="AE3" s="100" t="s">
         <v>591</v>
@@ -9299,10 +9299,10 @@
         <v>381</v>
       </c>
       <c r="B4" s="245"/>
-      <c r="C4" s="720" t="s">
+      <c r="C4" s="707" t="s">
         <v>177</v>
       </c>
-      <c r="I4" s="699"/>
+      <c r="I4" s="712"/>
       <c r="R4" s="476" t="s">
         <v>591</v>
       </c>
@@ -9314,7 +9314,7 @@
       <c r="V4" s="475"/>
       <c r="W4" s="6"/>
       <c r="X4" s="475"/>
-      <c r="AB4" s="702"/>
+      <c r="AB4" s="715"/>
       <c r="AC4" s="35"/>
       <c r="AE4" s="20"/>
       <c r="AF4" s="100" t="s">
@@ -9345,7 +9345,7 @@
       <c r="B5" s="100" t="s">
         <v>358</v>
       </c>
-      <c r="C5" s="721"/>
+      <c r="C5" s="708"/>
       <c r="D5" s="224" t="s">
         <v>102</v>
       </c>
@@ -9361,7 +9361,7 @@
       <c r="H5" s="208" t="s">
         <v>219</v>
       </c>
-      <c r="I5" s="699"/>
+      <c r="I5" s="712"/>
       <c r="J5" s="401" t="s">
         <v>269</v>
       </c>
@@ -9388,7 +9388,7 @@
       <c r="V5" s="473"/>
       <c r="W5" s="6"/>
       <c r="X5" s="473"/>
-      <c r="AB5" s="702"/>
+      <c r="AB5" s="715"/>
       <c r="AC5" s="2" t="s">
         <v>594</v>
       </c>
@@ -9402,19 +9402,19 @@
       <c r="AL5" s="473"/>
     </row>
     <row r="6" spans="1:38" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="709" t="s">
+      <c r="A6" s="696" t="s">
         <v>286</v>
       </c>
       <c r="B6" s="105" t="s">
         <v>198</v>
       </c>
-      <c r="C6" s="634"/>
-      <c r="D6" s="635"/>
+      <c r="C6" s="667"/>
+      <c r="D6" s="668"/>
       <c r="E6" s="96">
         <v>1</v>
       </c>
       <c r="G6" s="605"/>
-      <c r="I6" s="699"/>
+      <c r="I6" s="712"/>
       <c r="P6" s="61" t="s">
         <v>594</v>
       </c>
@@ -9426,7 +9426,7 @@
         <f>S7-S12-SUM(V2:V10)</f>
         <v>0</v>
       </c>
-      <c r="AB6" s="702"/>
+      <c r="AB6" s="715"/>
       <c r="AC6" s="35"/>
       <c r="AE6" s="64">
         <f>AE7-SUM(AL2:AL10)+AE11</f>
@@ -9442,7 +9442,7 @@
       <c r="AL6" s="112"/>
     </row>
     <row r="7" spans="1:38" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="710"/>
+      <c r="A7" s="697"/>
       <c r="B7" s="100" t="s">
         <v>154</v>
       </c>
@@ -9453,7 +9453,7 @@
         <v>135</v>
       </c>
       <c r="G7" s="605"/>
-      <c r="I7" s="699"/>
+      <c r="I7" s="712"/>
       <c r="M7" s="16" t="s">
         <v>348</v>
       </c>
@@ -9485,7 +9485,7 @@
       <c r="X7" s="474">
         <v>1</v>
       </c>
-      <c r="AB7" s="702"/>
+      <c r="AB7" s="715"/>
       <c r="AC7" s="99" t="s">
         <v>595</v>
       </c>
@@ -9511,7 +9511,7 @@
       </c>
     </row>
     <row r="8" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="711"/>
+      <c r="A8" s="698"/>
       <c r="B8" s="214" t="s">
         <v>28</v>
       </c>
@@ -9520,7 +9520,7 @@
         <v>3</v>
       </c>
       <c r="G8" s="605"/>
-      <c r="I8" s="699"/>
+      <c r="I8" s="712"/>
       <c r="N8" s="80"/>
       <c r="U8" s="6" t="s">
         <v>250</v>
@@ -9534,7 +9534,7 @@
       <c r="X8" s="475">
         <v>1</v>
       </c>
-      <c r="AB8" s="702"/>
+      <c r="AB8" s="715"/>
       <c r="AC8" s="521"/>
       <c r="AH8" s="6" t="s">
         <v>600</v>
@@ -9565,7 +9565,7 @@
       </c>
       <c r="G9" s="605"/>
       <c r="H9" s="6"/>
-      <c r="I9" s="699"/>
+      <c r="I9" s="712"/>
       <c r="M9" s="19" t="s">
         <v>526</v>
       </c>
@@ -9576,7 +9576,7 @@
         <v>510</v>
       </c>
       <c r="X9" s="472"/>
-      <c r="AB9" s="702"/>
+      <c r="AB9" s="715"/>
       <c r="AC9" s="521"/>
       <c r="AE9" s="20"/>
       <c r="AF9" s="20"/>
@@ -9608,7 +9608,7 @@
         <v>36</v>
       </c>
       <c r="G10" s="605"/>
-      <c r="I10" s="699"/>
+      <c r="I10" s="712"/>
       <c r="J10" s="24" t="s">
         <v>373</v>
       </c>
@@ -9625,7 +9625,7 @@
         <v>602</v>
       </c>
       <c r="X10" s="472"/>
-      <c r="AB10" s="702"/>
+      <c r="AB10" s="715"/>
       <c r="AC10" s="521"/>
       <c r="AE10" s="20"/>
       <c r="AF10" s="20"/>
@@ -9653,7 +9653,7 @@
         <v>266</v>
       </c>
       <c r="G11" s="605"/>
-      <c r="I11" s="699"/>
+      <c r="I11" s="712"/>
       <c r="J11" s="24" t="s">
         <v>194</v>
       </c>
@@ -9679,13 +9679,13 @@
       <c r="S11" s="24">
         <v>2</v>
       </c>
-      <c r="U11" s="704" t="s">
+      <c r="U11" s="717" t="s">
         <v>559</v>
       </c>
-      <c r="V11" s="705"/>
-      <c r="W11" s="705"/>
-      <c r="X11" s="706"/>
-      <c r="AB11" s="703"/>
+      <c r="V11" s="718"/>
+      <c r="W11" s="718"/>
+      <c r="X11" s="719"/>
+      <c r="AB11" s="716"/>
       <c r="AC11" s="99" t="s">
         <v>597</v>
       </c>
@@ -9699,13 +9699,13 @@
         <v>3</v>
       </c>
       <c r="AG11" s="418"/>
-      <c r="AH11" s="704" t="s">
+      <c r="AH11" s="717" t="s">
         <v>614</v>
       </c>
-      <c r="AI11" s="705"/>
-      <c r="AJ11" s="705"/>
-      <c r="AK11" s="705"/>
-      <c r="AL11" s="706"/>
+      <c r="AI11" s="718"/>
+      <c r="AJ11" s="718"/>
+      <c r="AK11" s="718"/>
+      <c r="AL11" s="719"/>
     </row>
     <row r="12" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="229" t="s">
@@ -9716,7 +9716,7 @@
         <v>3</v>
       </c>
       <c r="G12" s="605"/>
-      <c r="I12" s="699"/>
+      <c r="I12" s="712"/>
       <c r="J12" s="24" t="s">
         <v>517</v>
       </c>
@@ -9749,7 +9749,7 @@
       </c>
       <c r="D13" s="20"/>
       <c r="G13" s="605"/>
-      <c r="I13" s="699"/>
+      <c r="I13" s="712"/>
       <c r="J13" s="108" t="s">
         <v>549</v>
       </c>
@@ -9793,7 +9793,7 @@
       <c r="H14" s="208" t="s">
         <v>219</v>
       </c>
-      <c r="I14" s="699"/>
+      <c r="I14" s="712"/>
       <c r="U14" s="67" t="s">
         <v>80</v>
       </c>
@@ -9820,7 +9820,7 @@
       <c r="H15" s="273">
         <v>0</v>
       </c>
-      <c r="I15" s="699"/>
+      <c r="I15" s="712"/>
       <c r="J15" s="108" t="s">
         <v>153</v>
       </c>
@@ -9851,7 +9851,7 @@
       <c r="D16" s="2" t="s">
         <v>493</v>
       </c>
-      <c r="I16" s="699"/>
+      <c r="I16" s="712"/>
       <c r="K16" s="100" t="s">
         <v>44</v>
       </c>
@@ -9895,7 +9895,7 @@
       <c r="G17" s="2" t="s">
         <v>424</v>
       </c>
-      <c r="I17" s="699"/>
+      <c r="I17" s="712"/>
       <c r="L17" s="2" t="s">
         <v>427</v>
       </c>
@@ -9913,13 +9913,13 @@
     </row>
     <row r="18" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G18" s="16"/>
-      <c r="I18" s="699"/>
+      <c r="I18" s="712"/>
       <c r="L18" s="16"/>
       <c r="M18" s="21"/>
-      <c r="O18" s="696" t="s">
+      <c r="O18" s="709" t="s">
         <v>518</v>
       </c>
-      <c r="P18" s="697"/>
+      <c r="P18" s="710"/>
       <c r="Q18" s="127" t="s">
         <v>44</v>
       </c>
@@ -9945,7 +9945,7 @@
       </c>
     </row>
     <row r="19" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I19" s="699"/>
+      <c r="I19" s="712"/>
       <c r="M19" s="21" t="s">
         <v>426</v>
       </c>
@@ -9981,7 +9981,7 @@
       <c r="G20" s="2" t="s">
         <v>424</v>
       </c>
-      <c r="I20" s="699"/>
+      <c r="I20" s="712"/>
       <c r="K20" s="19" t="s">
         <v>423</v>
       </c>
@@ -10016,7 +10016,7 @@
       </c>
     </row>
     <row r="21" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I21" s="699"/>
+      <c r="I21" s="712"/>
       <c r="M21" s="218" t="s">
         <v>412</v>
       </c>
@@ -10050,7 +10050,7 @@
       <c r="G22" s="2" t="s">
         <v>424</v>
       </c>
-      <c r="I22" s="699"/>
+      <c r="I22" s="712"/>
       <c r="P22" s="99" t="s">
         <v>593</v>
       </c>
@@ -10065,7 +10065,7 @@
       <c r="E23" s="285" t="s">
         <v>44</v>
       </c>
-      <c r="I23" s="699"/>
+      <c r="I23" s="712"/>
       <c r="Q23" s="24">
         <f>SUM(V23:V31)</f>
         <v>5</v>
@@ -10082,7 +10082,7 @@
       </c>
     </row>
     <row r="24" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I24" s="699"/>
+      <c r="I24" s="712"/>
       <c r="U24" s="35"/>
       <c r="V24" s="514">
         <v>0</v>
@@ -10110,7 +10110,7 @@
       <c r="H25" s="193" t="s">
         <v>267</v>
       </c>
-      <c r="I25" s="699"/>
+      <c r="I25" s="712"/>
       <c r="J25" s="401" t="s">
         <v>270</v>
       </c>
@@ -10155,7 +10155,7 @@
       <c r="H26" s="19" t="s">
         <v>219</v>
       </c>
-      <c r="I26" s="699"/>
+      <c r="I26" s="712"/>
       <c r="K26" s="24">
         <v>15</v>
       </c>
@@ -10190,7 +10190,7 @@
       </c>
     </row>
     <row r="27" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I27" s="699"/>
+      <c r="I27" s="712"/>
       <c r="O27" s="2" t="s">
         <v>98</v>
       </c>
@@ -10217,7 +10217,7 @@
       <c r="E28" s="217">
         <v>2</v>
       </c>
-      <c r="I28" s="699"/>
+      <c r="I28" s="712"/>
       <c r="Q28" s="6"/>
       <c r="R28" s="112"/>
       <c r="T28" s="142"/>
@@ -10239,7 +10239,7 @@
       <c r="H29" s="193" t="s">
         <v>268</v>
       </c>
-      <c r="I29" s="700"/>
+      <c r="I29" s="713"/>
       <c r="J29" s="326"/>
       <c r="L29" s="96" t="s">
         <v>274</v>
@@ -10297,6 +10297,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="O18:P18"/>
+    <mergeCell ref="I2:I29"/>
+    <mergeCell ref="AB1:AB11"/>
+    <mergeCell ref="AH11:AL11"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="Q1:Q2"/>
+    <mergeCell ref="U11:X11"/>
     <mergeCell ref="A6:A8"/>
     <mergeCell ref="G5:G14"/>
     <mergeCell ref="A2:A3"/>
@@ -10308,13 +10315,6 @@
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="G2:G3"/>
     <mergeCell ref="C2:C3"/>
-    <mergeCell ref="O18:P18"/>
-    <mergeCell ref="I2:I29"/>
-    <mergeCell ref="AB1:AB11"/>
-    <mergeCell ref="AH11:AL11"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="Q1:Q2"/>
-    <mergeCell ref="U11:X11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10324,8 +10324,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2029A93E-B53C-4201-9F17-439C144F3CF1}">
   <dimension ref="A1:AT37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1:L3"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="AG10" sqref="AG10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10425,21 +10425,21 @@
         <f ca="1">TODAY()</f>
         <v>45283</v>
       </c>
-      <c r="T1" s="741"/>
+      <c r="T1" s="748"/>
       <c r="U1" s="142"/>
       <c r="V1" s="6"/>
       <c r="W1" s="6"/>
-      <c r="X1" s="725" t="s">
+      <c r="X1" s="732" t="s">
         <v>442</v>
       </c>
-      <c r="Y1" s="726"/>
+      <c r="Y1" s="733"/>
       <c r="Z1" s="308">
         <f>68-(W8+Y3+X3+U3)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA1" s="102">
         <f>Z1+Z3</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB1" s="102" t="s">
         <v>441</v>
@@ -10448,23 +10448,23 @@
       <c r="AD1" s="304" t="s">
         <v>44</v>
       </c>
-      <c r="AE1" s="727" t="s">
+      <c r="AE1" s="734" t="s">
         <v>190</v>
       </c>
-      <c r="AF1" s="728"/>
-      <c r="AG1" s="729"/>
-      <c r="AH1" s="730" t="s">
+      <c r="AF1" s="735"/>
+      <c r="AG1" s="736"/>
+      <c r="AH1" s="737" t="s">
         <v>294</v>
       </c>
-      <c r="AI1" s="731"/>
-      <c r="AJ1" s="732"/>
+      <c r="AI1" s="738"/>
+      <c r="AJ1" s="739"/>
       <c r="AK1" s="558"/>
       <c r="AL1" s="558"/>
-      <c r="AM1" s="722" t="s">
+      <c r="AM1" s="729" t="s">
         <v>445</v>
       </c>
-      <c r="AN1" s="723"/>
-      <c r="AO1" s="724"/>
+      <c r="AN1" s="730"/>
+      <c r="AO1" s="731"/>
       <c r="AR1" s="142"/>
     </row>
     <row r="2" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10479,27 +10479,27 @@
         <f>K2+L2</f>
         <v>27</v>
       </c>
-      <c r="K2" s="749">
+      <c r="K2" s="727">
         <f>SUM(K4:K29)</f>
         <v>12</v>
       </c>
-      <c r="L2" s="747">
+      <c r="L2" s="725">
         <f>SUM(L4:L37)</f>
         <v>15</v>
       </c>
-      <c r="M2" s="733">
+      <c r="M2" s="740">
         <f>SUM(M5:M30)</f>
         <v>1</v>
       </c>
-      <c r="N2" s="735">
+      <c r="N2" s="742">
         <f>SUM(N4:N29)</f>
-        <v>11</v>
-      </c>
-      <c r="O2" s="737">
+        <v>10</v>
+      </c>
+      <c r="O2" s="744">
         <f>SUM(O4:O29)</f>
-        <v>10</v>
-      </c>
-      <c r="P2" s="643">
+        <v>9</v>
+      </c>
+      <c r="P2" s="672">
         <f>SUM(N30:N37)* (-1)</f>
         <v>-3</v>
       </c>
@@ -10512,14 +10512,14 @@
       <c r="S2" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="T2" s="742"/>
+      <c r="T2" s="749"/>
       <c r="U2" s="543" t="s">
         <v>263</v>
       </c>
       <c r="V2" s="487" t="s">
         <v>220</v>
       </c>
-      <c r="W2" s="739" t="s">
+      <c r="W2" s="746" t="s">
         <v>235</v>
       </c>
       <c r="X2" s="488" t="s">
@@ -10589,14 +10589,14 @@
     <row r="3" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="J3" s="314">
         <f>V3+X3+Y3+U3</f>
-        <v>68</v>
-      </c>
-      <c r="K3" s="750"/>
-      <c r="L3" s="748"/>
-      <c r="M3" s="734"/>
-      <c r="N3" s="736"/>
-      <c r="O3" s="738"/>
-      <c r="P3" s="644"/>
+        <v>67</v>
+      </c>
+      <c r="K3" s="728"/>
+      <c r="L3" s="726"/>
+      <c r="M3" s="741"/>
+      <c r="N3" s="743"/>
+      <c r="O3" s="745"/>
+      <c r="P3" s="673"/>
       <c r="Q3" s="174">
         <f>(M2+N2)-Y3</f>
         <v>0</v>
@@ -10604,7 +10604,7 @@
       <c r="S3" s="159" t="s">
         <v>245</v>
       </c>
-      <c r="T3" s="743"/>
+      <c r="T3" s="750"/>
       <c r="U3" s="544">
         <f>SUM(U4:U29)</f>
         <v>11</v>
@@ -10613,14 +10613,14 @@
         <f>SUM(V4:V29)</f>
         <v>36</v>
       </c>
-      <c r="W3" s="740"/>
+      <c r="W3" s="747"/>
       <c r="X3" s="490">
         <f t="shared" ref="X3:AC3" si="0">SUM(X4:X29)</f>
         <v>9</v>
       </c>
       <c r="Y3" s="490">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Z3" s="59">
         <f t="shared" si="0"/>
@@ -10628,15 +10628,15 @@
       </c>
       <c r="AA3" s="66">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AB3" s="66">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AC3" s="66">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AD3" s="66">
         <f t="shared" ref="AD3:AO3" si="1">SUM(AD4:AD29)</f>
@@ -10656,7 +10656,7 @@
       </c>
       <c r="AH3" s="66">
         <f>SUM(AH4:AH29)</f>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AI3" s="377">
         <f t="shared" si="1"/>
@@ -10670,15 +10670,15 @@
       <c r="AL3" s="408"/>
       <c r="AM3" s="100">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AN3" s="312">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AO3" s="313">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AR3" s="142"/>
     </row>
@@ -10711,7 +10711,7 @@
         <f>AC4</f>
         <v>0</v>
       </c>
-      <c r="P4" s="744" t="s">
+      <c r="P4" s="722" t="s">
         <v>199</v>
       </c>
       <c r="Q4" s="20"/>
@@ -10797,7 +10797,7 @@
         <f>AC5</f>
         <v>0</v>
       </c>
-      <c r="P5" s="745"/>
+      <c r="P5" s="723"/>
       <c r="Q5" s="20"/>
       <c r="R5" s="2" t="s">
         <v>341</v>
@@ -10893,7 +10893,7 @@
         <f>AC6</f>
         <v>1</v>
       </c>
-      <c r="P6" s="745"/>
+      <c r="P6" s="723"/>
       <c r="Q6" s="19" t="s">
         <v>336</v>
       </c>
@@ -10988,13 +10988,13 @@
         <v>0</v>
       </c>
       <c r="N7" s="107">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O7" s="295">
-        <f t="shared" ref="O7:O37" si="10">AC7</f>
-        <v>1</v>
-      </c>
-      <c r="P7" s="745"/>
+        <f>AC7</f>
+        <v>0</v>
+      </c>
+      <c r="P7" s="723"/>
       <c r="Q7" s="20"/>
       <c r="R7" s="2" t="s">
         <v>336</v>
@@ -11019,19 +11019,19 @@
       </c>
       <c r="Y7" s="185">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="298"/>
       <c r="AA7" s="117">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB7" s="292">
         <f t="shared" si="8"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AC7" s="292">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD7" s="292">
         <f t="shared" si="4"/>
@@ -11048,7 +11048,7 @@
       </c>
       <c r="AH7" s="298">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI7" s="378"/>
       <c r="AJ7" s="514"/>
@@ -11056,15 +11056,15 @@
       <c r="AL7" s="319"/>
       <c r="AM7" s="339">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN7" s="310">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="311">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP7" s="6" t="s">
         <v>241</v>
@@ -11105,10 +11105,10 @@
         <v>0</v>
       </c>
       <c r="O8" s="295">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="P8" s="745"/>
+        <f t="shared" ref="O7:O37" si="10">AC8</f>
+        <v>0</v>
+      </c>
+      <c r="P8" s="723"/>
       <c r="Q8" s="21" t="s">
         <v>234</v>
       </c>
@@ -11199,7 +11199,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="P9" s="745"/>
+      <c r="P9" s="723"/>
       <c r="Q9" s="21" t="s">
         <v>336</v>
       </c>
@@ -11304,7 +11304,7 @@
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="P10" s="745"/>
+      <c r="P10" s="723"/>
       <c r="Q10" s="20"/>
       <c r="R10" s="2" t="s">
         <v>341</v>
@@ -11394,7 +11394,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="P11" s="745"/>
+      <c r="P11" s="723"/>
       <c r="Q11" s="21" t="s">
         <v>336</v>
       </c>
@@ -11459,14 +11459,14 @@
       <c r="AR11" s="513"/>
     </row>
     <row r="12" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="681" t="s">
+      <c r="A12" s="632" t="s">
         <v>55</v>
       </c>
       <c r="B12" s="30">
         <v>13</v>
       </c>
       <c r="C12" s="2"/>
-      <c r="E12" s="631" t="s">
+      <c r="E12" s="687" t="s">
         <v>56</v>
       </c>
       <c r="G12" s="264"/>
@@ -11491,7 +11491,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="P12" s="745"/>
+      <c r="P12" s="723"/>
       <c r="Q12" s="21" t="s">
         <v>336</v>
       </c>
@@ -11568,14 +11568,14 @@
       </c>
     </row>
     <row r="13" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="683"/>
+      <c r="A13" s="634"/>
       <c r="B13" s="597">
         <v>12</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="E13" s="632"/>
+      <c r="E13" s="688"/>
       <c r="F13" s="174">
         <v>0</v>
       </c>
@@ -11599,7 +11599,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="P13" s="745"/>
+      <c r="P13" s="723"/>
       <c r="Q13" s="21" t="s">
         <v>336</v>
       </c>
@@ -11681,7 +11681,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="P14" s="745"/>
+      <c r="P14" s="723"/>
       <c r="Q14" s="20"/>
       <c r="R14" s="202" t="s">
         <v>340</v>
@@ -11784,7 +11784,7 @@
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="P15" s="745"/>
+      <c r="P15" s="723"/>
       <c r="Q15" s="20"/>
       <c r="R15" s="202" t="s">
         <v>340</v>
@@ -11878,7 +11878,7 @@
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="P16" s="745"/>
+      <c r="P16" s="723"/>
       <c r="Q16" s="21" t="s">
         <v>336</v>
       </c>
@@ -11983,7 +11983,7 @@
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="P17" s="745"/>
+      <c r="P17" s="723"/>
       <c r="Q17" s="20"/>
       <c r="R17" s="2" t="s">
         <v>342</v>
@@ -12085,7 +12085,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="P18" s="745"/>
+      <c r="P18" s="723"/>
       <c r="Q18" s="21" t="s">
         <v>336</v>
       </c>
@@ -12173,7 +12173,7 @@
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="P19" s="745"/>
+      <c r="P19" s="723"/>
       <c r="Q19" s="20"/>
       <c r="R19" s="2" t="s">
         <v>335</v>
@@ -12283,11 +12283,11 @@
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="P20" s="746"/>
+      <c r="P20" s="724"/>
       <c r="Q20" s="609" t="s">
         <v>336</v>
       </c>
-      <c r="R20" s="633"/>
+      <c r="R20" s="689"/>
       <c r="S20" s="540" t="s">
         <v>85</v>
       </c>
@@ -12551,7 +12551,7 @@
     </row>
     <row r="23" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B23" s="24"/>
-      <c r="E23" s="688" t="s">
+      <c r="E23" s="639" t="s">
         <v>290</v>
       </c>
       <c r="F23" s="182"/>
@@ -12654,7 +12654,7 @@
       <c r="C24" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="E24" s="689"/>
+      <c r="E24" s="640"/>
       <c r="F24" s="174"/>
       <c r="H24" s="42"/>
       <c r="J24" s="581" t="s">
@@ -12677,7 +12677,7 @@
       <c r="Q24" s="609" t="s">
         <v>336</v>
       </c>
-      <c r="R24" s="633"/>
+      <c r="R24" s="689"/>
       <c r="S24" s="540" t="s">
         <v>250</v>
       </c>
@@ -13328,8 +13328,8 @@
       <c r="AR31" s="513"/>
     </row>
     <row r="32" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="636"/>
-      <c r="B32" s="636"/>
+      <c r="A32" s="656"/>
+      <c r="B32" s="656"/>
       <c r="J32" s="582" t="s">
         <v>310</v>
       </c>
@@ -13863,15 +13863,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="Q24:R24"/>
-    <mergeCell ref="P4:P20"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="Q20:R20"/>
     <mergeCell ref="AM1:AO1"/>
     <mergeCell ref="X1:Y1"/>
     <mergeCell ref="AE1:AG1"/>
@@ -13882,6 +13873,15 @@
     <mergeCell ref="P2:P3"/>
     <mergeCell ref="W2:W3"/>
     <mergeCell ref="T1:T3"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="Q24:R24"/>
+    <mergeCell ref="P4:P20"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="Q20:R20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -13949,7 +13949,7 @@
       <c r="V1" s="609" t="s">
         <v>70</v>
       </c>
-      <c r="W1" s="633"/>
+      <c r="W1" s="689"/>
       <c r="X1" s="62" t="s">
         <v>101</v>
       </c>
@@ -13968,7 +13968,7 @@
       <c r="AC1" s="116" t="s">
         <v>190</v>
       </c>
-      <c r="AD1" s="758" t="s">
+      <c r="AD1" s="765" t="s">
         <v>212</v>
       </c>
       <c r="AE1" s="116" t="s">
@@ -13985,10 +13985,10 @@
       <c r="E2" s="39" t="s">
         <v>73</v>
       </c>
-      <c r="F2" s="757" t="s">
+      <c r="F2" s="796" t="s">
         <v>74</v>
       </c>
-      <c r="G2" s="785" t="s">
+      <c r="G2" s="753" t="s">
         <v>44</v>
       </c>
       <c r="H2" s="40" t="s">
@@ -14016,10 +14016,10 @@
       <c r="U2" s="60" t="s">
         <v>105</v>
       </c>
-      <c r="V2" s="725" t="s">
+      <c r="V2" s="732" t="s">
         <v>120</v>
       </c>
-      <c r="W2" s="726"/>
+      <c r="W2" s="733"/>
       <c r="X2" s="64" t="s">
         <v>109</v>
       </c>
@@ -14038,7 +14038,7 @@
       <c r="AC2" s="117" t="s">
         <v>98</v>
       </c>
-      <c r="AD2" s="759"/>
+      <c r="AD2" s="766"/>
       <c r="AE2" s="64" t="s">
         <v>98</v>
       </c>
@@ -14057,8 +14057,8 @@
       <c r="E3" s="39" t="s">
         <v>79</v>
       </c>
-      <c r="F3" s="685"/>
-      <c r="G3" s="786"/>
+      <c r="F3" s="636"/>
+      <c r="G3" s="754"/>
       <c r="H3" s="40" t="s">
         <v>80</v>
       </c>
@@ -14069,13 +14069,13 @@
         <v>81</v>
       </c>
       <c r="N3" s="44"/>
-      <c r="O3" s="795" t="s">
+      <c r="O3" s="763" t="s">
         <v>44</v>
       </c>
-      <c r="P3" s="777" t="s">
+      <c r="P3" s="784" t="s">
         <v>218</v>
       </c>
-      <c r="Q3" s="778"/>
+      <c r="Q3" s="785"/>
       <c r="S3" s="57" t="s">
         <v>219</v>
       </c>
@@ -14085,15 +14085,15 @@
       <c r="W3" s="59" t="s">
         <v>104</v>
       </c>
-      <c r="AD3" s="759"/>
+      <c r="AD3" s="766"/>
     </row>
     <row r="4" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G4" s="786"/>
+      <c r="G4" s="754"/>
       <c r="H4" s="6"/>
       <c r="L4" s="693" t="s">
         <v>82</v>
       </c>
-      <c r="O4" s="796"/>
+      <c r="O4" s="764"/>
       <c r="T4" s="55" t="s">
         <v>97</v>
       </c>
@@ -14107,8 +14107,8 @@
         <v>194</v>
       </c>
       <c r="Z4" s="611"/>
-      <c r="AA4" s="633"/>
-      <c r="AD4" s="759"/>
+      <c r="AA4" s="689"/>
+      <c r="AD4" s="766"/>
     </row>
     <row r="5" spans="1:31" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C5" s="52" t="s">
@@ -14123,21 +14123,21 @@
       <c r="F5" s="66" t="s">
         <v>84</v>
       </c>
-      <c r="G5" s="786"/>
+      <c r="G5" s="754"/>
       <c r="H5" s="46" t="s">
         <v>75</v>
       </c>
-      <c r="K5" s="764" t="s">
+      <c r="K5" s="771" t="s">
         <v>216</v>
       </c>
-      <c r="L5" s="779"/>
+      <c r="L5" s="786"/>
       <c r="M5" s="2" t="s">
         <v>214</v>
       </c>
       <c r="N5" s="61" t="s">
         <v>213</v>
       </c>
-      <c r="O5" s="796"/>
+      <c r="O5" s="764"/>
       <c r="P5" s="108" t="s">
         <v>215</v>
       </c>
@@ -14153,11 +14153,11 @@
       <c r="U5" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="Y5" s="767" t="s">
+      <c r="Y5" s="774" t="s">
         <v>283</v>
       </c>
-      <c r="Z5" s="768"/>
-      <c r="AD5" s="759"/>
+      <c r="Z5" s="775"/>
+      <c r="AD5" s="766"/>
     </row>
     <row r="6" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C6" s="109"/>
@@ -14167,16 +14167,16 @@
       <c r="E6" s="45" t="s">
         <v>85</v>
       </c>
-      <c r="G6" s="786"/>
+      <c r="G6" s="754"/>
       <c r="H6" s="46" t="s">
         <v>80</v>
       </c>
       <c r="I6" s="23">
         <v>15</v>
       </c>
-      <c r="K6" s="765"/>
-      <c r="L6" s="779"/>
-      <c r="O6" s="796"/>
+      <c r="K6" s="772"/>
+      <c r="L6" s="786"/>
+      <c r="O6" s="764"/>
       <c r="T6" s="2" t="s">
         <v>100</v>
       </c>
@@ -14186,23 +14186,23 @@
       <c r="V6" s="21">
         <v>-1</v>
       </c>
-      <c r="AD6" s="759"/>
+      <c r="AD6" s="766"/>
     </row>
     <row r="7" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C7" s="110"/>
-      <c r="G7" s="786"/>
+      <c r="G7" s="754"/>
       <c r="H7" s="6"/>
-      <c r="K7" s="765"/>
-      <c r="L7" s="779"/>
+      <c r="K7" s="772"/>
+      <c r="L7" s="786"/>
       <c r="N7" s="21" t="s">
         <v>119</v>
       </c>
-      <c r="O7" s="796"/>
+      <c r="O7" s="764"/>
       <c r="P7" s="73"/>
       <c r="U7" s="104" t="s">
         <v>20</v>
       </c>
-      <c r="AD7" s="759"/>
+      <c r="AD7" s="766"/>
     </row>
     <row r="8" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C8" s="130"/>
@@ -14215,7 +14215,7 @@
       <c r="F8" s="66" t="s">
         <v>86</v>
       </c>
-      <c r="G8" s="786"/>
+      <c r="G8" s="754"/>
       <c r="H8" s="50" t="s">
         <v>75</v>
       </c>
@@ -14225,41 +14225,41 @@
       <c r="J8" s="111">
         <v>115</v>
       </c>
-      <c r="K8" s="765"/>
-      <c r="L8" s="779"/>
-      <c r="O8" s="796"/>
+      <c r="K8" s="772"/>
+      <c r="L8" s="786"/>
+      <c r="O8" s="764"/>
       <c r="P8" s="49"/>
-      <c r="S8" s="761" t="s">
+      <c r="S8" s="768" t="s">
         <v>211</v>
       </c>
-      <c r="T8" s="762"/>
-      <c r="U8" s="762"/>
-      <c r="V8" s="762"/>
-      <c r="W8" s="762"/>
-      <c r="X8" s="762"/>
-      <c r="Y8" s="762"/>
-      <c r="Z8" s="762"/>
-      <c r="AA8" s="762"/>
-      <c r="AB8" s="762"/>
-      <c r="AC8" s="763"/>
-      <c r="AD8" s="759"/>
+      <c r="T8" s="769"/>
+      <c r="U8" s="769"/>
+      <c r="V8" s="769"/>
+      <c r="W8" s="769"/>
+      <c r="X8" s="769"/>
+      <c r="Y8" s="769"/>
+      <c r="Z8" s="769"/>
+      <c r="AA8" s="769"/>
+      <c r="AB8" s="769"/>
+      <c r="AC8" s="770"/>
+      <c r="AD8" s="766"/>
     </row>
     <row r="9" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C9" s="751"/>
-      <c r="G9" s="786"/>
+      <c r="C9" s="790"/>
+      <c r="G9" s="754"/>
       <c r="H9" s="6"/>
-      <c r="K9" s="765"/>
-      <c r="L9" s="789" t="s">
+      <c r="K9" s="772"/>
+      <c r="L9" s="757" t="s">
         <v>217</v>
       </c>
-      <c r="M9" s="790"/>
-      <c r="N9" s="791"/>
-      <c r="O9" s="796"/>
+      <c r="M9" s="758"/>
+      <c r="N9" s="759"/>
+      <c r="O9" s="764"/>
       <c r="P9" s="75"/>
-      <c r="AD9" s="759"/>
+      <c r="AD9" s="766"/>
     </row>
     <row r="10" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C10" s="752"/>
+      <c r="C10" s="791"/>
       <c r="D10" s="23"/>
       <c r="E10" s="45" t="s">
         <v>87</v>
@@ -14267,7 +14267,7 @@
       <c r="F10" s="66" t="s">
         <v>88</v>
       </c>
-      <c r="G10" s="786"/>
+      <c r="G10" s="754"/>
       <c r="H10" s="51"/>
       <c r="I10" s="21" t="s">
         <v>80</v>
@@ -14275,33 +14275,33 @@
       <c r="J10" s="3">
         <v>15</v>
       </c>
-      <c r="K10" s="765"/>
-      <c r="M10" s="754" t="s">
+      <c r="K10" s="772"/>
+      <c r="M10" s="793" t="s">
         <v>89</v>
       </c>
-      <c r="N10" s="755"/>
-      <c r="O10" s="755"/>
-      <c r="P10" s="755"/>
-      <c r="Q10" s="755"/>
-      <c r="R10" s="755"/>
-      <c r="S10" s="755"/>
-      <c r="T10" s="755"/>
-      <c r="U10" s="755"/>
-      <c r="V10" s="755"/>
-      <c r="W10" s="755"/>
-      <c r="X10" s="755"/>
-      <c r="Y10" s="755"/>
-      <c r="Z10" s="755"/>
-      <c r="AA10" s="755"/>
-      <c r="AB10" s="755"/>
-      <c r="AC10" s="756"/>
-      <c r="AD10" s="759"/>
+      <c r="N10" s="794"/>
+      <c r="O10" s="794"/>
+      <c r="P10" s="794"/>
+      <c r="Q10" s="794"/>
+      <c r="R10" s="794"/>
+      <c r="S10" s="794"/>
+      <c r="T10" s="794"/>
+      <c r="U10" s="794"/>
+      <c r="V10" s="794"/>
+      <c r="W10" s="794"/>
+      <c r="X10" s="794"/>
+      <c r="Y10" s="794"/>
+      <c r="Z10" s="794"/>
+      <c r="AA10" s="794"/>
+      <c r="AB10" s="794"/>
+      <c r="AC10" s="795"/>
+      <c r="AD10" s="766"/>
     </row>
     <row r="11" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C11" s="753"/>
-      <c r="G11" s="786"/>
+      <c r="C11" s="792"/>
+      <c r="G11" s="754"/>
       <c r="H11" s="6"/>
-      <c r="K11" s="765"/>
+      <c r="K11" s="772"/>
       <c r="R11" s="52" t="s">
         <v>44</v>
       </c>
@@ -14309,17 +14309,17 @@
       <c r="Y11" s="68" t="s">
         <v>120</v>
       </c>
-      <c r="Z11" s="775" t="s">
+      <c r="Z11" s="782" t="s">
         <v>120</v>
       </c>
-      <c r="AA11" s="776"/>
+      <c r="AA11" s="783"/>
       <c r="AB11" s="52" t="s">
         <v>44</v>
       </c>
       <c r="AC11" s="118" t="s">
         <v>120</v>
       </c>
-      <c r="AD11" s="759"/>
+      <c r="AD11" s="766"/>
     </row>
     <row r="12" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C12" s="129"/>
@@ -14332,7 +14332,7 @@
       <c r="F12" s="66" t="s">
         <v>91</v>
       </c>
-      <c r="G12" s="786"/>
+      <c r="G12" s="754"/>
       <c r="H12" s="128"/>
       <c r="I12" s="19" t="s">
         <v>80</v>
@@ -14340,8 +14340,8 @@
       <c r="J12" s="3">
         <v>15</v>
       </c>
-      <c r="K12" s="765"/>
-      <c r="L12" s="780" t="s">
+      <c r="K12" s="772"/>
+      <c r="L12" s="787" t="s">
         <v>92</v>
       </c>
       <c r="M12" s="21" t="s">
@@ -14372,25 +14372,25 @@
         <v>115</v>
       </c>
       <c r="Y12" s="6"/>
-      <c r="AA12" s="769" t="s">
+      <c r="AA12" s="776" t="s">
         <v>125</v>
       </c>
-      <c r="AB12" s="770"/>
+      <c r="AB12" s="777"/>
       <c r="AC12" s="21" t="s">
         <v>231</v>
       </c>
-      <c r="AD12" s="759"/>
+      <c r="AD12" s="766"/>
     </row>
     <row r="13" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C13" s="751"/>
-      <c r="G13" s="786"/>
-      <c r="K13" s="765"/>
-      <c r="L13" s="781"/>
+      <c r="C13" s="790"/>
+      <c r="G13" s="754"/>
+      <c r="K13" s="772"/>
+      <c r="L13" s="788"/>
       <c r="M13" s="47"/>
-      <c r="Q13" s="788" t="s">
+      <c r="Q13" s="756" t="s">
         <v>209</v>
       </c>
-      <c r="R13" s="650"/>
+      <c r="R13" s="645"/>
       <c r="S13" s="605"/>
       <c r="T13" s="6"/>
       <c r="U13" s="96" t="s">
@@ -14399,17 +14399,17 @@
       <c r="X13" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="AA13" s="771"/>
-      <c r="AB13" s="772"/>
-      <c r="AD13" s="759"/>
+      <c r="AA13" s="778"/>
+      <c r="AB13" s="779"/>
+      <c r="AD13" s="766"/>
     </row>
     <row r="14" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="C14" s="753"/>
+      <c r="C14" s="792"/>
       <c r="D14" s="23"/>
-      <c r="G14" s="786"/>
+      <c r="G14" s="754"/>
       <c r="H14" s="125"/>
       <c r="I14" s="99" t="s">
         <v>44</v>
@@ -14417,8 +14417,8 @@
       <c r="J14" s="111">
         <v>115</v>
       </c>
-      <c r="K14" s="765"/>
-      <c r="L14" s="781"/>
+      <c r="K14" s="772"/>
+      <c r="L14" s="788"/>
       <c r="M14" s="21" t="s">
         <v>110</v>
       </c>
@@ -14439,9 +14439,9 @@
       <c r="Y14" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="AA14" s="771"/>
-      <c r="AB14" s="772"/>
-      <c r="AD14" s="759"/>
+      <c r="AA14" s="778"/>
+      <c r="AB14" s="779"/>
+      <c r="AD14" s="766"/>
     </row>
     <row r="15" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C15" s="130" t="s">
@@ -14456,19 +14456,19 @@
       <c r="F15" s="66" t="s">
         <v>93</v>
       </c>
-      <c r="G15" s="786"/>
+      <c r="G15" s="754"/>
       <c r="H15" s="2" t="s">
         <v>80</v>
       </c>
       <c r="I15" s="53" t="s">
         <v>80</v>
       </c>
-      <c r="K15" s="765"/>
-      <c r="L15" s="782"/>
-      <c r="Q15" s="788" t="s">
+      <c r="K15" s="772"/>
+      <c r="L15" s="789"/>
+      <c r="Q15" s="756" t="s">
         <v>210</v>
       </c>
-      <c r="R15" s="650"/>
+      <c r="R15" s="645"/>
       <c r="S15" s="605"/>
       <c r="T15" s="6"/>
       <c r="V15" s="68" t="s">
@@ -14477,14 +14477,14 @@
       <c r="X15" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="AA15" s="771"/>
-      <c r="AB15" s="772"/>
-      <c r="AD15" s="759"/>
+      <c r="AA15" s="778"/>
+      <c r="AB15" s="779"/>
+      <c r="AD15" s="766"/>
     </row>
     <row r="16" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C16" s="132"/>
-      <c r="G16" s="786"/>
-      <c r="K16" s="765"/>
+      <c r="G16" s="754"/>
+      <c r="K16" s="772"/>
       <c r="N16" s="47"/>
       <c r="O16" s="61" t="s">
         <v>108</v>
@@ -14503,24 +14503,24 @@
       <c r="Z16" s="76" t="s">
         <v>126</v>
       </c>
-      <c r="AA16" s="771"/>
-      <c r="AB16" s="772"/>
-      <c r="AD16" s="759"/>
+      <c r="AA16" s="778"/>
+      <c r="AB16" s="779"/>
+      <c r="AD16" s="766"/>
     </row>
     <row r="17" spans="3:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C17" s="109"/>
       <c r="E17" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="F17" s="783" t="s">
+      <c r="F17" s="751" t="s">
         <v>95</v>
       </c>
-      <c r="G17" s="786"/>
+      <c r="G17" s="754"/>
       <c r="H17" s="54"/>
       <c r="I17" s="133" t="s">
         <v>80</v>
       </c>
-      <c r="K17" s="765"/>
+      <c r="K17" s="772"/>
       <c r="S17" s="605"/>
       <c r="V17" s="68" t="s">
         <v>44</v>
@@ -14528,9 +14528,9 @@
       <c r="X17" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="AA17" s="771"/>
-      <c r="AB17" s="772"/>
-      <c r="AD17" s="759"/>
+      <c r="AA17" s="778"/>
+      <c r="AB17" s="779"/>
+      <c r="AD17" s="766"/>
     </row>
     <row r="18" spans="3:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C18" s="130"/>
@@ -14540,15 +14540,15 @@
       <c r="E18" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="F18" s="784"/>
-      <c r="G18" s="786"/>
+      <c r="F18" s="752"/>
+      <c r="G18" s="754"/>
       <c r="H18" s="108" t="s">
         <v>75</v>
       </c>
       <c r="I18" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="K18" s="765"/>
+      <c r="K18" s="772"/>
       <c r="O18" s="64" t="s">
         <v>114</v>
       </c>
@@ -14559,42 +14559,39 @@
       <c r="X18" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="AA18" s="773"/>
-      <c r="AB18" s="774"/>
-      <c r="AD18" s="759"/>
+      <c r="AA18" s="780"/>
+      <c r="AB18" s="781"/>
+      <c r="AD18" s="766"/>
     </row>
     <row r="19" spans="3:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F19" s="64" t="s">
         <v>208</v>
       </c>
-      <c r="G19" s="787"/>
-      <c r="K19" s="766"/>
+      <c r="G19" s="755"/>
+      <c r="K19" s="773"/>
       <c r="Q19" s="68" t="s">
         <v>44</v>
       </c>
-      <c r="R19" s="792" t="s">
+      <c r="R19" s="760" t="s">
         <v>123</v>
       </c>
-      <c r="S19" s="793"/>
-      <c r="T19" s="794"/>
+      <c r="S19" s="761"/>
+      <c r="T19" s="762"/>
       <c r="V19" s="77" t="s">
         <v>114</v>
       </c>
       <c r="Y19" s="19" t="s">
         <v>124</v>
       </c>
-      <c r="AD19" s="760"/>
+      <c r="AD19" s="767"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="G2:G19"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="L9:N9"/>
-    <mergeCell ref="R19:T19"/>
-    <mergeCell ref="S12:S18"/>
-    <mergeCell ref="O3:O9"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="V2:W2"/>
+    <mergeCell ref="M10:AC10"/>
+    <mergeCell ref="F2:F3"/>
     <mergeCell ref="AD1:AD19"/>
     <mergeCell ref="S8:AC8"/>
     <mergeCell ref="K5:K19"/>
@@ -14606,11 +14603,14 @@
     <mergeCell ref="P3:Q3"/>
     <mergeCell ref="L4:L8"/>
     <mergeCell ref="L12:L15"/>
-    <mergeCell ref="C9:C11"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="V2:W2"/>
-    <mergeCell ref="M10:AC10"/>
-    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="G2:G19"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="L9:N9"/>
+    <mergeCell ref="R19:T19"/>
+    <mergeCell ref="S12:S18"/>
+    <mergeCell ref="O3:O9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/System_2.1.8.xlsx
+++ b/System_2.1.8.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Work_For_\Work\Running AppS\System_Work_RW\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE475F5D-84F7-4880-9741-8E4A244AB290}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E9604C3-3847-477D-B005-28759C025E61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1127" uniqueCount="628">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1126" uniqueCount="627">
   <si>
     <t>Zone</t>
   </si>
@@ -1920,9 +1920,6 @@
   </si>
   <si>
     <t>AT - CT_WLFJN_X_N-10_X_Left</t>
-  </si>
-  <si>
-    <t>bharat24</t>
   </si>
 </sst>
 </file>
@@ -5063,6 +5060,159 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="49" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="49" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="49" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -5081,12 +5231,6 @@
     <xf numFmtId="0" fontId="18" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="13" fillId="27" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5141,169 +5285,61 @@
     <xf numFmtId="0" fontId="3" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="36" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="36" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="36" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="49" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="49" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="49" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="27" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5345,43 +5381,70 @@
     <xf numFmtId="0" fontId="3" fillId="36" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="36" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="36" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="36" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    <xf numFmtId="0" fontId="3" fillId="43" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="43" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="43" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="40" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="40" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="40" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="52" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="52" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="14" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="14" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="35" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5405,112 +5468,25 @@
     <xf numFmtId="0" fontId="29" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="43" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="43" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="43" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="40" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="40" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="40" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="52" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="52" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="14" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="14" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5588,25 +5564,46 @@
     <xf numFmtId="0" fontId="3" fillId="21" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -6997,7 +6994,7 @@
       <c r="H1" s="97" t="s">
         <v>344</v>
       </c>
-      <c r="I1" s="665" t="s">
+      <c r="I1" s="619" t="s">
         <v>370</v>
       </c>
       <c r="J1" s="2" t="s">
@@ -7033,7 +7030,7 @@
       <c r="X1" s="434" t="s">
         <v>155</v>
       </c>
-      <c r="Y1" s="659" t="s">
+      <c r="Y1" s="663" t="s">
         <v>530</v>
       </c>
       <c r="Z1" s="410">
@@ -7058,7 +7055,7 @@
         <v>499</v>
       </c>
       <c r="AM1" s="406"/>
-      <c r="AN1" s="641"/>
+      <c r="AN1" s="646"/>
       <c r="AO1" s="341" t="s">
         <v>470</v>
       </c>
@@ -7067,23 +7064,23 @@
       </c>
     </row>
     <row r="2" spans="1:43" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="623">
+      <c r="A2" s="672">
         <f ca="1">TODAY()</f>
         <v>45283</v>
       </c>
-      <c r="B2" s="625" t="s">
+      <c r="B2" s="674" t="s">
         <v>371</v>
       </c>
-      <c r="C2" s="621" t="s">
+      <c r="C2" s="651" t="s">
         <v>358</v>
       </c>
-      <c r="D2" s="627" t="s">
+      <c r="D2" s="676" t="s">
         <v>356</v>
       </c>
-      <c r="E2" s="675" t="s">
+      <c r="E2" s="615" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="646" t="s">
+      <c r="F2" s="625" t="s">
         <v>102</v>
       </c>
       <c r="G2" s="397" t="s">
@@ -7092,31 +7089,31 @@
       <c r="H2" s="80" t="s">
         <v>33</v>
       </c>
-      <c r="I2" s="666"/>
+      <c r="I2" s="620"/>
       <c r="J2" s="81" t="s">
         <v>76</v>
       </c>
-      <c r="K2" s="677" t="s">
+      <c r="K2" s="617" t="s">
         <v>343</v>
       </c>
-      <c r="L2" s="678"/>
-      <c r="M2" s="646" t="s">
+      <c r="L2" s="618"/>
+      <c r="M2" s="625" t="s">
         <v>102</v>
       </c>
       <c r="N2" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="O2" s="650" t="s">
+      <c r="O2" s="655" t="s">
         <v>102</v>
       </c>
       <c r="P2" s="85" t="s">
         <v>147</v>
       </c>
-      <c r="Q2" s="621" t="s">
+      <c r="Q2" s="651" t="s">
         <v>143</v>
       </c>
       <c r="R2" s="604"/>
-      <c r="S2" s="663" t="s">
+      <c r="S2" s="640" t="s">
         <v>148</v>
       </c>
       <c r="T2" s="89"/>
@@ -7126,7 +7123,7 @@
       <c r="X2" s="435" t="s">
         <v>156</v>
       </c>
-      <c r="Y2" s="660"/>
+      <c r="Y2" s="664"/>
       <c r="Z2" s="411">
         <v>1</v>
       </c>
@@ -7149,15 +7146,15 @@
         <v>464</v>
       </c>
       <c r="AM2" s="432"/>
-      <c r="AN2" s="642"/>
+      <c r="AN2" s="647"/>
     </row>
     <row r="3" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="624"/>
-      <c r="B3" s="626"/>
-      <c r="C3" s="622"/>
-      <c r="D3" s="628"/>
-      <c r="E3" s="676"/>
-      <c r="F3" s="647"/>
+      <c r="A3" s="673"/>
+      <c r="B3" s="675"/>
+      <c r="C3" s="652"/>
+      <c r="D3" s="677"/>
+      <c r="E3" s="616"/>
+      <c r="F3" s="626"/>
       <c r="G3" s="398" t="s">
         <v>28</v>
       </c>
@@ -7176,17 +7173,17 @@
       <c r="L3" s="203" t="s">
         <v>107</v>
       </c>
-      <c r="M3" s="647"/>
+      <c r="M3" s="626"/>
       <c r="N3" s="69" t="s">
         <v>146</v>
       </c>
-      <c r="O3" s="651"/>
+      <c r="O3" s="656"/>
       <c r="P3" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="Q3" s="622"/>
+      <c r="Q3" s="652"/>
       <c r="R3" s="606"/>
-      <c r="S3" s="664"/>
+      <c r="S3" s="642"/>
       <c r="T3" s="89"/>
       <c r="U3" s="124"/>
       <c r="V3" s="120"/>
@@ -7194,7 +7191,7 @@
       <c r="X3" s="435" t="s">
         <v>157</v>
       </c>
-      <c r="Y3" s="660"/>
+      <c r="Y3" s="664"/>
       <c r="Z3" s="412">
         <v>1</v>
       </c>
@@ -7203,7 +7200,7 @@
       <c r="AC3" s="100" t="s">
         <v>481</v>
       </c>
-      <c r="AD3" s="662" t="s">
+      <c r="AD3" s="637" t="s">
         <v>456</v>
       </c>
       <c r="AE3" s="259"/>
@@ -7215,16 +7212,16 @@
       <c r="AK3" s="259"/>
       <c r="AL3" s="16"/>
       <c r="AM3" s="432"/>
-      <c r="AN3" s="642"/>
+      <c r="AN3" s="647"/>
     </row>
     <row r="4" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="240" t="s">
         <v>183</v>
       </c>
-      <c r="B4" s="639" t="s">
+      <c r="B4" s="688" t="s">
         <v>374</v>
       </c>
-      <c r="C4" s="621" t="s">
+      <c r="C4" s="651" t="s">
         <v>154</v>
       </c>
       <c r="D4" s="350" t="s">
@@ -7233,7 +7230,7 @@
       <c r="E4" s="381">
         <v>2</v>
       </c>
-      <c r="F4" s="647"/>
+      <c r="F4" s="626"/>
       <c r="G4" s="384" t="s">
         <v>202</v>
       </c>
@@ -7250,11 +7247,11 @@
         <v>150</v>
       </c>
       <c r="L4" s="206"/>
-      <c r="M4" s="647"/>
+      <c r="M4" s="626"/>
       <c r="N4" s="176" t="s">
         <v>69</v>
       </c>
-      <c r="O4" s="651"/>
+      <c r="O4" s="656"/>
       <c r="P4" s="2" t="s">
         <v>191</v>
       </c>
@@ -7276,12 +7273,12 @@
       <c r="X4" s="435" t="s">
         <v>158</v>
       </c>
-      <c r="Y4" s="660"/>
+      <c r="Y4" s="664"/>
       <c r="Z4" s="413"/>
       <c r="AA4" s="309"/>
       <c r="AB4" s="211"/>
       <c r="AC4" s="16"/>
-      <c r="AD4" s="662"/>
+      <c r="AD4" s="637"/>
       <c r="AE4" s="259"/>
       <c r="AF4" s="259"/>
       <c r="AG4" s="16"/>
@@ -7291,37 +7288,37 @@
       <c r="AK4" s="259"/>
       <c r="AL4" s="16"/>
       <c r="AM4" s="432"/>
-      <c r="AN4" s="642"/>
+      <c r="AN4" s="647"/>
       <c r="AO4" s="341" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="665" t="s">
+      <c r="A5" s="619" t="s">
         <v>419</v>
       </c>
-      <c r="B5" s="640"/>
-      <c r="C5" s="622"/>
+      <c r="B5" s="689"/>
+      <c r="C5" s="652"/>
       <c r="D5" s="61" t="s">
         <v>153</v>
       </c>
       <c r="E5" s="382">
         <v>1</v>
       </c>
-      <c r="F5" s="647"/>
-      <c r="G5" s="631" t="s">
+      <c r="F5" s="626"/>
+      <c r="G5" s="680" t="s">
         <v>192</v>
       </c>
-      <c r="H5" s="631"/>
-      <c r="I5" s="631"/>
-      <c r="J5" s="631"/>
-      <c r="K5" s="631"/>
-      <c r="L5" s="632"/>
-      <c r="M5" s="647"/>
+      <c r="H5" s="680"/>
+      <c r="I5" s="680"/>
+      <c r="J5" s="680"/>
+      <c r="K5" s="680"/>
+      <c r="L5" s="681"/>
+      <c r="M5" s="626"/>
       <c r="N5" s="21">
         <v>8</v>
       </c>
-      <c r="O5" s="651"/>
+      <c r="O5" s="656"/>
       <c r="T5" s="89"/>
       <c r="U5" s="124"/>
       <c r="V5" s="120"/>
@@ -7329,7 +7326,7 @@
       <c r="X5" s="435" t="s">
         <v>159</v>
       </c>
-      <c r="Y5" s="660"/>
+      <c r="Y5" s="664"/>
       <c r="Z5" s="413">
         <v>1</v>
       </c>
@@ -7352,24 +7349,24 @@
       <c r="AK5" s="259"/>
       <c r="AL5" s="80"/>
       <c r="AM5" s="432"/>
-      <c r="AN5" s="642"/>
+      <c r="AN5" s="647"/>
     </row>
     <row r="6" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="666"/>
-      <c r="B6" s="637" t="s">
+      <c r="A6" s="620"/>
+      <c r="B6" s="686" t="s">
         <v>177</v>
       </c>
-      <c r="C6" s="667"/>
-      <c r="D6" s="668"/>
-      <c r="F6" s="647"/>
-      <c r="G6" s="633"/>
-      <c r="H6" s="633"/>
-      <c r="I6" s="633"/>
-      <c r="J6" s="633"/>
-      <c r="K6" s="633"/>
-      <c r="L6" s="634"/>
-      <c r="M6" s="647"/>
-      <c r="O6" s="651"/>
+      <c r="C6" s="634"/>
+      <c r="D6" s="635"/>
+      <c r="F6" s="626"/>
+      <c r="G6" s="682"/>
+      <c r="H6" s="682"/>
+      <c r="I6" s="682"/>
+      <c r="J6" s="682"/>
+      <c r="K6" s="682"/>
+      <c r="L6" s="683"/>
+      <c r="M6" s="626"/>
+      <c r="O6" s="656"/>
       <c r="T6" s="89"/>
       <c r="U6" s="124"/>
       <c r="V6" s="98" t="s">
@@ -7379,7 +7376,7 @@
       <c r="X6" s="435" t="s">
         <v>160</v>
       </c>
-      <c r="Y6" s="660"/>
+      <c r="Y6" s="664"/>
       <c r="Z6" s="411">
         <v>1</v>
       </c>
@@ -7393,16 +7390,16 @@
       <c r="AF6" s="259"/>
       <c r="AG6" s="259"/>
       <c r="AH6" s="259"/>
-      <c r="AI6" s="656"/>
+      <c r="AI6" s="636"/>
       <c r="AJ6" s="445" t="s">
         <v>459</v>
       </c>
-      <c r="AK6" s="656" t="s">
+      <c r="AK6" s="636" t="s">
         <v>252</v>
       </c>
       <c r="AL6" s="259"/>
       <c r="AM6" s="432"/>
-      <c r="AN6" s="642"/>
+      <c r="AN6" s="647"/>
       <c r="AO6" s="341" t="s">
         <v>471</v>
       </c>
@@ -7411,7 +7408,7 @@
       <c r="A7" s="234" t="s">
         <v>574</v>
       </c>
-      <c r="B7" s="638"/>
+      <c r="B7" s="687"/>
       <c r="C7" s="204" t="s">
         <v>375</v>
       </c>
@@ -7421,7 +7418,7 @@
       <c r="E7" s="267">
         <v>3</v>
       </c>
-      <c r="F7" s="647"/>
+      <c r="F7" s="626"/>
       <c r="G7" s="399">
         <v>0</v>
       </c>
@@ -7440,8 +7437,8 @@
       <c r="L7" s="214">
         <v>0</v>
       </c>
-      <c r="M7" s="647"/>
-      <c r="O7" s="651"/>
+      <c r="M7" s="626"/>
+      <c r="O7" s="656"/>
       <c r="R7" s="99" t="s">
         <v>44</v>
       </c>
@@ -7455,7 +7452,7 @@
       <c r="X7" s="435" t="s">
         <v>161</v>
       </c>
-      <c r="Y7" s="660"/>
+      <c r="Y7" s="664"/>
       <c r="Z7" s="411">
         <v>1</v>
       </c>
@@ -7465,18 +7462,18 @@
       <c r="AD7" s="16"/>
       <c r="AE7" s="259"/>
       <c r="AF7" s="259"/>
-      <c r="AG7" s="662" t="s">
+      <c r="AG7" s="637" t="s">
         <v>455</v>
       </c>
       <c r="AH7" s="259"/>
-      <c r="AI7" s="656"/>
+      <c r="AI7" s="636"/>
       <c r="AJ7" s="259"/>
-      <c r="AK7" s="656"/>
+      <c r="AK7" s="636"/>
       <c r="AL7" s="80" t="s">
         <v>497</v>
       </c>
       <c r="AM7" s="432"/>
-      <c r="AN7" s="642"/>
+      <c r="AN7" s="647"/>
       <c r="AP7" s="76" t="s">
         <v>472</v>
       </c>
@@ -7493,27 +7490,27 @@
         <f>SUM(G7:N9)</f>
         <v>15</v>
       </c>
-      <c r="F8" s="647"/>
-      <c r="G8" s="632">
-        <v>0</v>
-      </c>
-      <c r="H8" s="629" t="s">
+      <c r="F8" s="626"/>
+      <c r="G8" s="681">
+        <v>0</v>
+      </c>
+      <c r="H8" s="678" t="s">
         <v>104</v>
       </c>
       <c r="I8" s="604">
         <v>0</v>
       </c>
-      <c r="J8" s="629" t="s">
+      <c r="J8" s="678" t="s">
         <v>104</v>
       </c>
-      <c r="K8" s="635"/>
-      <c r="L8" s="669"/>
-      <c r="M8" s="648"/>
-      <c r="N8" s="672">
+      <c r="K8" s="684"/>
+      <c r="L8" s="638"/>
+      <c r="M8" s="653"/>
+      <c r="N8" s="643">
         <f>N5+N11</f>
         <v>15</v>
       </c>
-      <c r="O8" s="651"/>
+      <c r="O8" s="656"/>
       <c r="T8" s="103" t="s">
         <v>44</v>
       </c>
@@ -7523,7 +7520,7 @@
       <c r="X8" s="435" t="s">
         <v>162</v>
       </c>
-      <c r="Y8" s="660"/>
+      <c r="Y8" s="664"/>
       <c r="Z8" s="413"/>
       <c r="AA8" s="309"/>
       <c r="AB8" s="211"/>
@@ -7531,14 +7528,14 @@
       <c r="AD8" s="16"/>
       <c r="AE8" s="259"/>
       <c r="AF8" s="259"/>
-      <c r="AG8" s="662"/>
+      <c r="AG8" s="637"/>
       <c r="AH8" s="259"/>
-      <c r="AI8" s="656"/>
+      <c r="AI8" s="636"/>
       <c r="AJ8" s="259"/>
       <c r="AK8" s="259"/>
       <c r="AL8" s="259"/>
       <c r="AM8" s="432"/>
-      <c r="AN8" s="642"/>
+      <c r="AN8" s="647"/>
     </row>
     <row r="9" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="234" t="s">
@@ -7553,17 +7550,17 @@
       <c r="D9" s="351" t="s">
         <v>282</v>
       </c>
-      <c r="F9" s="647"/>
-      <c r="G9" s="634"/>
-      <c r="H9" s="630"/>
+      <c r="F9" s="626"/>
+      <c r="G9" s="683"/>
+      <c r="H9" s="679"/>
       <c r="I9" s="606"/>
-      <c r="J9" s="630"/>
-      <c r="K9" s="636"/>
-      <c r="L9" s="670"/>
-      <c r="M9" s="649"/>
-      <c r="N9" s="673"/>
-      <c r="O9" s="652"/>
-      <c r="S9" s="663" t="s">
+      <c r="J9" s="679"/>
+      <c r="K9" s="685"/>
+      <c r="L9" s="639"/>
+      <c r="M9" s="654"/>
+      <c r="N9" s="644"/>
+      <c r="O9" s="657"/>
+      <c r="S9" s="640" t="s">
         <v>61</v>
       </c>
       <c r="T9" s="89"/>
@@ -7575,7 +7572,7 @@
       <c r="X9" s="435" t="s">
         <v>163</v>
       </c>
-      <c r="Y9" s="660"/>
+      <c r="Y9" s="664"/>
       <c r="Z9" s="414"/>
       <c r="AA9" s="309"/>
       <c r="AB9" s="211"/>
@@ -7585,16 +7582,16 @@
       </c>
       <c r="AE9" s="259"/>
       <c r="AF9" s="259"/>
-      <c r="AG9" s="662"/>
+      <c r="AG9" s="637"/>
       <c r="AH9" s="259"/>
-      <c r="AI9" s="656"/>
+      <c r="AI9" s="636"/>
       <c r="AJ9" s="80"/>
-      <c r="AK9" s="656" t="s">
+      <c r="AK9" s="636" t="s">
         <v>252</v>
       </c>
       <c r="AL9" s="259"/>
       <c r="AM9" s="432"/>
-      <c r="AN9" s="642"/>
+      <c r="AN9" s="647"/>
       <c r="AP9" s="2" t="s">
         <v>509</v>
       </c>
@@ -7609,22 +7606,22 @@
       <c r="D10" s="142"/>
       <c r="E10" s="239">
         <f>Boat!W8</f>
-        <v>36</v>
-      </c>
-      <c r="F10" s="647"/>
+        <v>37</v>
+      </c>
+      <c r="F10" s="626"/>
       <c r="N10" s="422" t="s">
         <v>397</v>
       </c>
-      <c r="O10" s="684" t="s">
+      <c r="O10" s="628" t="s">
         <v>102</v>
       </c>
-      <c r="P10" s="653" t="s">
+      <c r="P10" s="658" t="s">
         <v>401</v>
       </c>
       <c r="R10" s="74" t="s">
         <v>44</v>
       </c>
-      <c r="S10" s="671"/>
+      <c r="S10" s="641"/>
       <c r="T10" s="89"/>
       <c r="U10" s="123" t="s">
         <v>176</v>
@@ -7636,7 +7633,7 @@
       <c r="X10" s="435" t="s">
         <v>164</v>
       </c>
-      <c r="Y10" s="660"/>
+      <c r="Y10" s="664"/>
       <c r="Z10" s="413">
         <v>0</v>
       </c>
@@ -7654,16 +7651,16 @@
       <c r="AF10" s="240" t="s">
         <v>312</v>
       </c>
-      <c r="AG10" s="662"/>
+      <c r="AG10" s="637"/>
       <c r="AH10" s="80"/>
-      <c r="AI10" s="656"/>
+      <c r="AI10" s="636"/>
       <c r="AJ10" s="259"/>
-      <c r="AK10" s="656"/>
+      <c r="AK10" s="636"/>
       <c r="AL10" s="259"/>
       <c r="AM10" s="446" t="s">
         <v>319</v>
       </c>
-      <c r="AN10" s="642"/>
+      <c r="AN10" s="647"/>
       <c r="AO10" s="206" t="s">
         <v>94</v>
       </c>
@@ -7681,18 +7678,18 @@
       <c r="D11" s="172" t="s">
         <v>356</v>
       </c>
-      <c r="F11" s="647"/>
+      <c r="F11" s="626"/>
       <c r="M11" s="6"/>
       <c r="N11" s="117">
         <v>7</v>
       </c>
-      <c r="O11" s="685"/>
-      <c r="P11" s="654"/>
+      <c r="O11" s="629"/>
+      <c r="P11" s="659"/>
       <c r="Q11" s="65"/>
       <c r="R11" s="120" t="s">
         <v>221</v>
       </c>
-      <c r="S11" s="671"/>
+      <c r="S11" s="641"/>
       <c r="T11" s="102" t="s">
         <v>44</v>
       </c>
@@ -7702,7 +7699,7 @@
       <c r="X11" s="435" t="s">
         <v>165</v>
       </c>
-      <c r="Y11" s="660"/>
+      <c r="Y11" s="664"/>
       <c r="Z11" s="413"/>
       <c r="AA11" s="309">
         <v>1</v>
@@ -7716,14 +7713,14 @@
       <c r="AF11" s="259" t="s">
         <v>477</v>
       </c>
-      <c r="AG11" s="662"/>
+      <c r="AG11" s="637"/>
       <c r="AH11" s="259"/>
       <c r="AI11" s="70"/>
       <c r="AJ11" s="259"/>
       <c r="AK11" s="259"/>
       <c r="AL11" s="259"/>
       <c r="AM11" s="432"/>
-      <c r="AN11" s="642"/>
+      <c r="AN11" s="647"/>
       <c r="AP11" s="76" t="s">
         <v>485</v>
       </c>
@@ -7742,7 +7739,7 @@
       <c r="E12" s="226">
         <v>3</v>
       </c>
-      <c r="F12" s="647"/>
+      <c r="F12" s="626"/>
       <c r="G12" s="340" t="s">
         <v>401</v>
       </c>
@@ -7751,16 +7748,16 @@
       </c>
       <c r="I12" s="611"/>
       <c r="J12" s="611"/>
-      <c r="K12" s="689"/>
+      <c r="K12" s="633"/>
       <c r="L12" s="205"/>
       <c r="M12" s="205"/>
       <c r="N12" s="205"/>
-      <c r="O12" s="685"/>
-      <c r="P12" s="654"/>
+      <c r="O12" s="629"/>
+      <c r="P12" s="659"/>
       <c r="R12" s="122" t="s">
         <v>180</v>
       </c>
-      <c r="S12" s="664"/>
+      <c r="S12" s="642"/>
       <c r="T12" s="101" t="s">
         <v>44</v>
       </c>
@@ -7770,7 +7767,7 @@
       <c r="X12" s="435" t="s">
         <v>166</v>
       </c>
-      <c r="Y12" s="660"/>
+      <c r="Y12" s="664"/>
       <c r="Z12" s="411">
         <v>1</v>
       </c>
@@ -7781,16 +7778,16 @@
       <c r="AC12" s="100" t="s">
         <v>482</v>
       </c>
-      <c r="AD12" s="674" t="s">
+      <c r="AD12" s="645" t="s">
         <v>241</v>
       </c>
       <c r="AE12" s="445" t="s">
         <v>240</v>
       </c>
-      <c r="AF12" s="662" t="s">
+      <c r="AF12" s="637" t="s">
         <v>229</v>
       </c>
-      <c r="AG12" s="662"/>
+      <c r="AG12" s="637"/>
       <c r="AH12" s="240" t="s">
         <v>260</v>
       </c>
@@ -7800,10 +7797,10 @@
       <c r="AJ12" s="259"/>
       <c r="AK12" s="259"/>
       <c r="AL12" s="259"/>
-      <c r="AM12" s="657" t="s">
+      <c r="AM12" s="661" t="s">
         <v>250</v>
       </c>
-      <c r="AN12" s="642"/>
+      <c r="AN12" s="647"/>
       <c r="AO12" s="341" t="s">
         <v>96</v>
       </c>
@@ -7815,17 +7812,17 @@
       <c r="E13" s="452">
         <v>-3</v>
       </c>
-      <c r="F13" s="647"/>
+      <c r="F13" s="626"/>
       <c r="G13" s="611" t="s">
         <v>431</v>
       </c>
       <c r="H13" s="611"/>
       <c r="I13" s="611"/>
-      <c r="J13" s="689"/>
+      <c r="J13" s="633"/>
       <c r="M13" s="6"/>
       <c r="N13" s="6"/>
-      <c r="O13" s="685"/>
-      <c r="P13" s="655"/>
+      <c r="O13" s="629"/>
+      <c r="P13" s="660"/>
       <c r="T13" s="105" t="s">
         <v>44</v>
       </c>
@@ -7835,7 +7832,7 @@
       <c r="X13" s="435" t="s">
         <v>167</v>
       </c>
-      <c r="Y13" s="660"/>
+      <c r="Y13" s="664"/>
       <c r="Z13" s="411">
         <v>1</v>
       </c>
@@ -7846,8 +7843,8 @@
         <v>501</v>
       </c>
       <c r="AC13" s="16"/>
-      <c r="AD13" s="674"/>
-      <c r="AF13" s="662"/>
+      <c r="AD13" s="645"/>
+      <c r="AF13" s="637"/>
       <c r="AG13" s="80"/>
       <c r="AH13" s="240" t="s">
         <v>309</v>
@@ -7858,8 +7855,8 @@
       <c r="AJ13" s="80"/>
       <c r="AK13" s="259"/>
       <c r="AL13" s="259"/>
-      <c r="AM13" s="657"/>
-      <c r="AN13" s="642"/>
+      <c r="AM13" s="661"/>
+      <c r="AN13" s="647"/>
     </row>
     <row r="14" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="454"/>
@@ -7867,18 +7864,18 @@
       <c r="C14" s="463"/>
       <c r="D14" s="456"/>
       <c r="E14" s="457"/>
-      <c r="F14" s="647"/>
+      <c r="F14" s="626"/>
       <c r="G14" s="611" t="s">
         <v>430</v>
       </c>
       <c r="H14" s="611"/>
       <c r="I14" s="611"/>
-      <c r="J14" s="689"/>
+      <c r="J14" s="633"/>
       <c r="K14" s="2">
         <v>12</v>
       </c>
       <c r="N14" s="6"/>
-      <c r="O14" s="685"/>
+      <c r="O14" s="629"/>
       <c r="Q14" s="61" t="s">
         <v>534</v>
       </c>
@@ -7892,24 +7889,24 @@
       <c r="X14" s="435" t="s">
         <v>168</v>
       </c>
-      <c r="Y14" s="660"/>
+      <c r="Y14" s="664"/>
       <c r="Z14" s="411">
         <v>1</v>
       </c>
       <c r="AA14" s="309"/>
       <c r="AB14" s="211"/>
       <c r="AC14" s="16"/>
-      <c r="AD14" s="674"/>
+      <c r="AD14" s="645"/>
       <c r="AE14" s="259"/>
-      <c r="AF14" s="662"/>
+      <c r="AF14" s="637"/>
       <c r="AG14" s="259"/>
       <c r="AH14" s="259"/>
       <c r="AI14" s="70"/>
       <c r="AJ14" s="259"/>
       <c r="AK14" s="259"/>
       <c r="AL14" s="259"/>
-      <c r="AM14" s="657"/>
-      <c r="AN14" s="642"/>
+      <c r="AM14" s="661"/>
+      <c r="AN14" s="647"/>
     </row>
     <row r="15" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="453" t="s">
@@ -7918,8 +7915,8 @@
       <c r="C15" s="604" t="s">
         <v>374</v>
       </c>
-      <c r="F15" s="647"/>
-      <c r="O15" s="685"/>
+      <c r="F15" s="626"/>
+      <c r="O15" s="629"/>
       <c r="R15" s="99" t="s">
         <v>44</v>
       </c>
@@ -7932,7 +7929,7 @@
       <c r="X15" s="435" t="s">
         <v>169</v>
       </c>
-      <c r="Y15" s="660"/>
+      <c r="Y15" s="664"/>
       <c r="Z15" s="413">
         <v>1</v>
       </c>
@@ -7941,8 +7938,8 @@
       <c r="AC15" s="76" t="s">
         <v>480</v>
       </c>
-      <c r="AD15" s="674"/>
-      <c r="AF15" s="662"/>
+      <c r="AD15" s="645"/>
+      <c r="AF15" s="637"/>
       <c r="AG15" s="80"/>
       <c r="AH15" s="240" t="s">
         <v>449</v>
@@ -7955,8 +7952,8 @@
       </c>
       <c r="AK15" s="259"/>
       <c r="AL15" s="259"/>
-      <c r="AM15" s="657"/>
-      <c r="AN15" s="642"/>
+      <c r="AM15" s="661"/>
+      <c r="AN15" s="647"/>
       <c r="AP15" s="76" t="s">
         <v>73</v>
       </c>
@@ -7978,13 +7975,13 @@
       <c r="E16" s="226">
         <v>1</v>
       </c>
-      <c r="F16" s="647"/>
+      <c r="F16" s="626"/>
       <c r="G16" s="340" t="s">
         <v>489</v>
       </c>
       <c r="I16" s="474"/>
       <c r="J16" s="20"/>
-      <c r="O16" s="685"/>
+      <c r="O16" s="629"/>
       <c r="R16" s="439" t="s">
         <v>184</v>
       </c>
@@ -7995,7 +7992,7 @@
       <c r="X16" s="435" t="s">
         <v>170</v>
       </c>
-      <c r="Y16" s="660"/>
+      <c r="Y16" s="664"/>
       <c r="Z16" s="411">
         <v>1</v>
       </c>
@@ -8016,18 +8013,18 @@
       <c r="AM16" s="432" t="s">
         <v>318</v>
       </c>
-      <c r="AN16" s="642"/>
+      <c r="AN16" s="647"/>
       <c r="AP16" s="76" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="17" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="80"/>
-      <c r="F17" s="647"/>
+      <c r="F17" s="626"/>
       <c r="I17" s="475"/>
       <c r="J17" s="20"/>
       <c r="N17" s="6"/>
-      <c r="O17" s="685"/>
+      <c r="O17" s="629"/>
       <c r="Q17" s="21" t="s">
         <v>532</v>
       </c>
@@ -8047,7 +8044,7 @@
       <c r="X17" s="435" t="s">
         <v>171</v>
       </c>
-      <c r="Y17" s="660"/>
+      <c r="Y17" s="664"/>
       <c r="Z17" s="413"/>
       <c r="AA17" s="309"/>
       <c r="AB17" s="211"/>
@@ -8072,7 +8069,7 @@
       <c r="AK17" s="259"/>
       <c r="AL17" s="80"/>
       <c r="AM17" s="432"/>
-      <c r="AN17" s="642"/>
+      <c r="AN17" s="647"/>
       <c r="AO17" s="206" t="s">
         <v>498</v>
       </c>
@@ -8096,21 +8093,21 @@
       <c r="E18" s="99" t="s">
         <v>44</v>
       </c>
-      <c r="F18" s="647"/>
+      <c r="F18" s="626"/>
       <c r="G18" s="340" t="s">
         <v>529</v>
       </c>
       <c r="I18" s="24"/>
       <c r="J18" s="20"/>
-      <c r="O18" s="685"/>
+      <c r="O18" s="629"/>
       <c r="Q18" s="112"/>
-      <c r="R18" s="679" t="s">
+      <c r="R18" s="621" t="s">
         <v>537</v>
       </c>
       <c r="T18" s="100" t="s">
         <v>44</v>
       </c>
-      <c r="U18" s="618" t="s">
+      <c r="U18" s="669" t="s">
         <v>44</v>
       </c>
       <c r="V18" s="120"/>
@@ -8120,7 +8117,7 @@
       <c r="X18" s="435" t="s">
         <v>172</v>
       </c>
-      <c r="Y18" s="660"/>
+      <c r="Y18" s="664"/>
       <c r="Z18" s="413">
         <v>1</v>
       </c>
@@ -8131,38 +8128,38 @@
       <c r="AC18" s="16"/>
       <c r="AD18" s="16"/>
       <c r="AE18" s="259"/>
-      <c r="AF18" s="656" t="s">
+      <c r="AF18" s="636" t="s">
         <v>476</v>
       </c>
       <c r="AG18" s="259"/>
       <c r="AH18" s="70"/>
       <c r="AI18" s="70"/>
-      <c r="AJ18" s="658" t="s">
+      <c r="AJ18" s="662" t="s">
         <v>316</v>
       </c>
       <c r="AK18" s="259"/>
       <c r="AL18" s="80"/>
       <c r="AM18" s="432"/>
-      <c r="AN18" s="642"/>
+      <c r="AN18" s="647"/>
       <c r="AP18" s="76" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="19" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F19" s="647"/>
+      <c r="F19" s="626"/>
       <c r="I19" s="221"/>
-      <c r="O19" s="685"/>
-      <c r="R19" s="680"/>
+      <c r="O19" s="629"/>
+      <c r="R19" s="622"/>
       <c r="S19" s="30" t="s">
         <v>535</v>
       </c>
-      <c r="U19" s="619"/>
+      <c r="U19" s="670"/>
       <c r="V19" s="146"/>
       <c r="W19" s="146"/>
       <c r="X19" s="435" t="s">
         <v>173</v>
       </c>
-      <c r="Y19" s="660"/>
+      <c r="Y19" s="664"/>
       <c r="Z19" s="411">
         <v>1</v>
       </c>
@@ -8171,17 +8168,17 @@
       <c r="AC19" s="16"/>
       <c r="AD19" s="16"/>
       <c r="AE19" s="259"/>
-      <c r="AF19" s="656"/>
+      <c r="AF19" s="636"/>
       <c r="AG19" s="259"/>
       <c r="AH19" s="259"/>
       <c r="AI19" s="70"/>
-      <c r="AJ19" s="658"/>
+      <c r="AJ19" s="662"/>
       <c r="AK19" s="464" t="s">
         <v>252</v>
       </c>
       <c r="AL19" s="80"/>
       <c r="AM19" s="432"/>
-      <c r="AN19" s="642"/>
+      <c r="AN19" s="647"/>
       <c r="AP19" s="76" t="s">
         <v>469</v>
       </c>
@@ -8202,24 +8199,24 @@
       <c r="E20" s="441">
         <v>-1</v>
       </c>
-      <c r="F20" s="647"/>
+      <c r="F20" s="626"/>
       <c r="G20" s="340" t="s">
         <v>492</v>
       </c>
       <c r="I20" s="221"/>
-      <c r="O20" s="685"/>
-      <c r="Q20" s="687" t="s">
+      <c r="O20" s="629"/>
+      <c r="Q20" s="631" t="s">
         <v>48</v>
       </c>
       <c r="T20" s="408" t="s">
         <v>44</v>
       </c>
-      <c r="U20" s="620"/>
+      <c r="U20" s="671"/>
       <c r="W20" s="409"/>
       <c r="X20" s="436" t="s">
         <v>174</v>
       </c>
-      <c r="Y20" s="660"/>
+      <c r="Y20" s="664"/>
       <c r="Z20" s="415">
         <v>1</v>
       </c>
@@ -8244,7 +8241,7 @@
       <c r="AM20" s="384" t="s">
         <v>250</v>
       </c>
-      <c r="AN20" s="642"/>
+      <c r="AN20" s="647"/>
       <c r="AO20" s="341" t="s">
         <v>461</v>
       </c>
@@ -8265,20 +8262,20 @@
       <c r="E21" s="267">
         <v>0</v>
       </c>
-      <c r="F21" s="647"/>
+      <c r="F21" s="626"/>
       <c r="I21" s="221"/>
-      <c r="O21" s="685"/>
-      <c r="Q21" s="688"/>
+      <c r="O21" s="629"/>
+      <c r="Q21" s="632"/>
       <c r="T21" s="426"/>
       <c r="U21" s="14"/>
-      <c r="V21" s="615"/>
+      <c r="V21" s="666"/>
       <c r="W21" s="430" t="s">
         <v>175</v>
       </c>
       <c r="X21" s="433" t="s">
         <v>186</v>
       </c>
-      <c r="Y21" s="660"/>
+      <c r="Y21" s="664"/>
       <c r="Z21" s="449">
         <v>3</v>
       </c>
@@ -8309,15 +8306,15 @@
       <c r="AM21" s="432" t="s">
         <v>546</v>
       </c>
-      <c r="AN21" s="642"/>
+      <c r="AN21" s="647"/>
     </row>
     <row r="22" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F22" s="647"/>
+      <c r="F22" s="626"/>
       <c r="G22" s="340" t="s">
         <v>490</v>
       </c>
       <c r="I22" s="221"/>
-      <c r="O22" s="685"/>
+      <c r="O22" s="629"/>
       <c r="R22" s="438" t="s">
         <v>44</v>
       </c>
@@ -8325,14 +8322,14 @@
         <v>44</v>
       </c>
       <c r="U22" s="15"/>
-      <c r="V22" s="616"/>
+      <c r="V22" s="667"/>
       <c r="W22" s="430" t="s">
         <v>175</v>
       </c>
       <c r="X22" s="433" t="s">
         <v>187</v>
       </c>
-      <c r="Y22" s="660"/>
+      <c r="Y22" s="664"/>
       <c r="Z22" s="419"/>
       <c r="AA22" s="10"/>
       <c r="AB22" s="419"/>
@@ -8343,7 +8340,7 @@
       <c r="AG22" s="6"/>
       <c r="AH22" s="6"/>
       <c r="AI22" s="6"/>
-      <c r="AJ22" s="656" t="s">
+      <c r="AJ22" s="636" t="s">
         <v>473</v>
       </c>
       <c r="AK22" s="259"/>
@@ -8351,7 +8348,7 @@
         <v>479</v>
       </c>
       <c r="AM22" s="302"/>
-      <c r="AN22" s="642"/>
+      <c r="AN22" s="647"/>
     </row>
     <row r="23" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="233" t="s">
@@ -8369,22 +8366,22 @@
       <c r="E23" s="227">
         <v>1</v>
       </c>
-      <c r="F23" s="647"/>
+      <c r="F23" s="626"/>
       <c r="I23" s="221"/>
-      <c r="O23" s="685"/>
-      <c r="Q23" s="687" t="s">
+      <c r="O23" s="629"/>
+      <c r="Q23" s="631" t="s">
         <v>144</v>
       </c>
       <c r="T23" s="17"/>
       <c r="U23" s="424" t="s">
         <v>44</v>
       </c>
-      <c r="V23" s="616"/>
+      <c r="V23" s="667"/>
       <c r="W23" s="148"/>
       <c r="X23" s="433" t="s">
         <v>188</v>
       </c>
-      <c r="Y23" s="660"/>
+      <c r="Y23" s="664"/>
       <c r="Z23" s="17"/>
       <c r="AA23" s="10"/>
       <c r="AB23" s="419"/>
@@ -8395,13 +8392,13 @@
       <c r="AG23" s="6"/>
       <c r="AH23" s="6"/>
       <c r="AI23" s="6"/>
-      <c r="AJ23" s="656"/>
+      <c r="AJ23" s="636"/>
       <c r="AK23" s="259"/>
       <c r="AL23" s="80" t="s">
         <v>508</v>
       </c>
       <c r="AM23" s="302"/>
-      <c r="AN23" s="642"/>
+      <c r="AN23" s="647"/>
     </row>
     <row r="24" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="444" t="s">
@@ -8419,23 +8416,23 @@
       <c r="E24" s="440">
         <v>1</v>
       </c>
-      <c r="F24" s="647"/>
+      <c r="F24" s="626"/>
       <c r="G24" s="61" t="s">
         <v>491</v>
       </c>
       <c r="I24" s="221"/>
-      <c r="O24" s="685"/>
-      <c r="Q24" s="688"/>
+      <c r="O24" s="629"/>
+      <c r="Q24" s="632"/>
       <c r="T24" s="17"/>
       <c r="U24" s="229" t="s">
         <v>44</v>
       </c>
-      <c r="V24" s="616"/>
+      <c r="V24" s="667"/>
       <c r="W24" s="148"/>
       <c r="X24" s="433" t="s">
         <v>185</v>
       </c>
-      <c r="Y24" s="660"/>
+      <c r="Y24" s="664"/>
       <c r="Z24" s="17"/>
       <c r="AA24" s="10"/>
       <c r="AB24" s="419"/>
@@ -8454,12 +8451,12 @@
         <v>464</v>
       </c>
       <c r="AM24" s="302"/>
-      <c r="AN24" s="642"/>
+      <c r="AN24" s="647"/>
     </row>
     <row r="25" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F25" s="647"/>
+      <c r="F25" s="626"/>
       <c r="I25" s="221"/>
-      <c r="O25" s="685"/>
+      <c r="O25" s="629"/>
       <c r="P25" s="206" t="s">
         <v>281</v>
       </c>
@@ -8472,12 +8469,12 @@
       <c r="U25" s="404" t="s">
         <v>44</v>
       </c>
-      <c r="V25" s="617"/>
+      <c r="V25" s="668"/>
       <c r="W25" s="148"/>
       <c r="X25" s="433" t="s">
         <v>189</v>
       </c>
-      <c r="Y25" s="660"/>
+      <c r="Y25" s="664"/>
       <c r="Z25" s="17"/>
       <c r="AA25" s="10"/>
       <c r="AB25" s="419"/>
@@ -8494,7 +8491,7 @@
       <c r="AK25" s="142"/>
       <c r="AL25" s="6"/>
       <c r="AM25" s="302"/>
-      <c r="AN25" s="642"/>
+      <c r="AN25" s="647"/>
     </row>
     <row r="26" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="233" t="s">
@@ -8512,17 +8509,17 @@
       <c r="E26" s="383">
         <v>1</v>
       </c>
-      <c r="F26" s="647"/>
+      <c r="F26" s="626"/>
       <c r="G26" s="340" t="s">
         <v>488</v>
       </c>
       <c r="I26" s="221"/>
-      <c r="O26" s="685"/>
-      <c r="P26" s="644" t="s">
+      <c r="O26" s="629"/>
+      <c r="P26" s="649" t="s">
         <v>527</v>
       </c>
-      <c r="Q26" s="645"/>
-      <c r="R26" s="681" t="s">
+      <c r="Q26" s="650"/>
+      <c r="R26" s="623" t="s">
         <v>536</v>
       </c>
       <c r="T26" s="180"/>
@@ -8534,7 +8531,7 @@
       <c r="X26" s="433" t="s">
         <v>181</v>
       </c>
-      <c r="Y26" s="660"/>
+      <c r="Y26" s="664"/>
       <c r="Z26" s="17"/>
       <c r="AA26" s="10"/>
       <c r="AB26" s="419"/>
@@ -8561,7 +8558,7 @@
       <c r="AM26" s="446" t="s">
         <v>457</v>
       </c>
-      <c r="AN26" s="642"/>
+      <c r="AN26" s="647"/>
     </row>
     <row r="27" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B27" s="21" t="s">
@@ -8573,13 +8570,13 @@
       <c r="E27" s="267" t="s">
         <v>44</v>
       </c>
-      <c r="F27" s="683"/>
+      <c r="F27" s="627"/>
       <c r="G27" s="61" t="s">
         <v>545</v>
       </c>
       <c r="I27" s="222"/>
-      <c r="O27" s="686"/>
-      <c r="R27" s="682"/>
+      <c r="O27" s="630"/>
+      <c r="R27" s="624"/>
       <c r="S27" s="425" t="s">
         <v>54</v>
       </c>
@@ -8592,7 +8589,7 @@
       <c r="X27" s="433" t="s">
         <v>531</v>
       </c>
-      <c r="Y27" s="661"/>
+      <c r="Y27" s="665"/>
       <c r="Z27" s="161"/>
       <c r="AA27" s="13"/>
       <c r="AB27" s="420"/>
@@ -8609,32 +8606,26 @@
       <c r="AM27" s="384" t="s">
         <v>320</v>
       </c>
-      <c r="AN27" s="643"/>
+      <c r="AN27" s="648"/>
     </row>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="R18:R19"/>
-    <mergeCell ref="R26:R27"/>
-    <mergeCell ref="F2:F27"/>
-    <mergeCell ref="O10:O27"/>
-    <mergeCell ref="Q20:Q21"/>
-    <mergeCell ref="Q23:Q24"/>
-    <mergeCell ref="G14:J14"/>
-    <mergeCell ref="G13:J13"/>
-    <mergeCell ref="H12:K12"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="AI6:AI10"/>
-    <mergeCell ref="AF12:AF15"/>
-    <mergeCell ref="AG7:AG12"/>
-    <mergeCell ref="L8:L9"/>
-    <mergeCell ref="S9:S12"/>
-    <mergeCell ref="N8:N9"/>
-    <mergeCell ref="AD12:AD15"/>
-    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="V21:V25"/>
+    <mergeCell ref="U18:U20"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="G5:L6"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="K7:K9"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B4:B5"/>
     <mergeCell ref="AN1:AN27"/>
     <mergeCell ref="P26:Q26"/>
     <mergeCell ref="Q2:Q3"/>
@@ -8651,22 +8642,28 @@
     <mergeCell ref="AD3:AD4"/>
     <mergeCell ref="S2:S3"/>
     <mergeCell ref="R2:R3"/>
-    <mergeCell ref="V21:V25"/>
-    <mergeCell ref="U18:U20"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="J8:J9"/>
-    <mergeCell ref="G5:L6"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="K7:K9"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="AI6:AI10"/>
+    <mergeCell ref="AF12:AF15"/>
+    <mergeCell ref="AG7:AG12"/>
+    <mergeCell ref="L8:L9"/>
+    <mergeCell ref="S9:S12"/>
+    <mergeCell ref="N8:N9"/>
+    <mergeCell ref="AD12:AD15"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="R18:R19"/>
+    <mergeCell ref="R26:R27"/>
+    <mergeCell ref="F2:F27"/>
+    <mergeCell ref="O10:O27"/>
+    <mergeCell ref="Q20:Q21"/>
+    <mergeCell ref="Q23:Q24"/>
+    <mergeCell ref="G14:J14"/>
+    <mergeCell ref="G13:J13"/>
+    <mergeCell ref="H12:K12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8703,12 +8700,12 @@
       <c r="B1" s="609" t="s">
         <v>311</v>
       </c>
-      <c r="C1" s="689"/>
+      <c r="C1" s="633"/>
       <c r="D1" s="206"/>
       <c r="J1" s="609" t="s">
         <v>69</v>
       </c>
-      <c r="K1" s="689"/>
+      <c r="K1" s="633"/>
       <c r="L1" s="197" t="s">
         <v>331</v>
       </c>
@@ -9043,7 +9040,7 @@
   <dimension ref="A1:AL31"/>
   <sheetViews>
     <sheetView topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="AH14" sqref="AH14"/>
+      <selection activeCell="AJ17" sqref="AJ17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9111,7 +9108,7 @@
       <c r="P1" s="402" t="s">
         <v>398</v>
       </c>
-      <c r="Q1" s="720" t="s">
+      <c r="Q1" s="707" t="s">
         <v>180</v>
       </c>
       <c r="R1" s="100" t="s">
@@ -9135,7 +9132,7 @@
       <c r="AA1" s="523" t="s">
         <v>438</v>
       </c>
-      <c r="AB1" s="714" t="s">
+      <c r="AB1" s="701" t="s">
         <v>596</v>
       </c>
       <c r="AC1" s="99" t="s">
@@ -9157,32 +9154,32 @@
       </c>
     </row>
     <row r="2" spans="1:38" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="699">
+      <c r="A2" s="712">
         <f ca="1">TODAY()</f>
         <v>45283</v>
       </c>
-      <c r="B2" s="701" t="s">
+      <c r="B2" s="714" t="s">
         <v>380</v>
       </c>
-      <c r="C2" s="621" t="s">
+      <c r="C2" s="651" t="s">
         <v>358</v>
       </c>
-      <c r="D2" s="703" t="s">
+      <c r="D2" s="716" t="s">
         <v>102</v>
       </c>
-      <c r="E2" s="705" t="s">
+      <c r="E2" s="718" t="s">
         <v>64</v>
       </c>
       <c r="F2" s="193" t="s">
         <v>219</v>
       </c>
-      <c r="G2" s="665" t="s">
+      <c r="G2" s="619" t="s">
         <v>373</v>
       </c>
       <c r="H2" s="208" t="s">
         <v>219</v>
       </c>
-      <c r="I2" s="711" t="s">
+      <c r="I2" s="698" t="s">
         <v>102</v>
       </c>
       <c r="J2" s="400" t="s">
@@ -9206,10 +9203,10 @@
       <c r="P2" s="403">
         <v>40</v>
       </c>
-      <c r="Q2" s="721"/>
+      <c r="Q2" s="708"/>
       <c r="R2" s="21">
         <f>R7+R20</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S2" s="21">
         <f>S7+S20</f>
@@ -9231,7 +9228,7 @@
         <f>IF((Z2+T2)&gt;0,0,-1)</f>
         <v>0</v>
       </c>
-      <c r="AB2" s="715"/>
+      <c r="AB2" s="702"/>
       <c r="AC2" s="35"/>
       <c r="AH2" s="6" t="s">
         <v>453</v>
@@ -9248,14 +9245,14 @@
       </c>
     </row>
     <row r="3" spans="1:38" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="700"/>
-      <c r="B3" s="702"/>
-      <c r="C3" s="622"/>
-      <c r="D3" s="704"/>
-      <c r="E3" s="706"/>
-      <c r="G3" s="666"/>
+      <c r="A3" s="713"/>
+      <c r="B3" s="715"/>
+      <c r="C3" s="652"/>
+      <c r="D3" s="717"/>
+      <c r="E3" s="719"/>
+      <c r="G3" s="620"/>
       <c r="H3" s="6"/>
-      <c r="I3" s="712"/>
+      <c r="I3" s="699"/>
       <c r="K3" s="24">
         <v>2</v>
       </c>
@@ -9270,7 +9267,7 @@
       <c r="V3" s="475"/>
       <c r="W3" s="6"/>
       <c r="X3" s="475"/>
-      <c r="AB3" s="715"/>
+      <c r="AB3" s="702"/>
       <c r="AC3" s="35"/>
       <c r="AE3" s="100" t="s">
         <v>591</v>
@@ -9299,10 +9296,10 @@
         <v>381</v>
       </c>
       <c r="B4" s="245"/>
-      <c r="C4" s="707" t="s">
+      <c r="C4" s="720" t="s">
         <v>177</v>
       </c>
-      <c r="I4" s="712"/>
+      <c r="I4" s="699"/>
       <c r="R4" s="476" t="s">
         <v>591</v>
       </c>
@@ -9314,7 +9311,7 @@
       <c r="V4" s="475"/>
       <c r="W4" s="6"/>
       <c r="X4" s="475"/>
-      <c r="AB4" s="715"/>
+      <c r="AB4" s="702"/>
       <c r="AC4" s="35"/>
       <c r="AE4" s="20"/>
       <c r="AF4" s="100" t="s">
@@ -9345,7 +9342,7 @@
       <c r="B5" s="100" t="s">
         <v>358</v>
       </c>
-      <c r="C5" s="708"/>
+      <c r="C5" s="721"/>
       <c r="D5" s="224" t="s">
         <v>102</v>
       </c>
@@ -9361,7 +9358,7 @@
       <c r="H5" s="208" t="s">
         <v>219</v>
       </c>
-      <c r="I5" s="712"/>
+      <c r="I5" s="699"/>
       <c r="J5" s="401" t="s">
         <v>269</v>
       </c>
@@ -9388,7 +9385,7 @@
       <c r="V5" s="473"/>
       <c r="W5" s="6"/>
       <c r="X5" s="473"/>
-      <c r="AB5" s="715"/>
+      <c r="AB5" s="702"/>
       <c r="AC5" s="2" t="s">
         <v>594</v>
       </c>
@@ -9402,35 +9399,35 @@
       <c r="AL5" s="473"/>
     </row>
     <row r="6" spans="1:38" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="696" t="s">
+      <c r="A6" s="709" t="s">
         <v>286</v>
       </c>
       <c r="B6" s="105" t="s">
         <v>198</v>
       </c>
-      <c r="C6" s="667"/>
-      <c r="D6" s="668"/>
+      <c r="C6" s="634"/>
+      <c r="D6" s="635"/>
       <c r="E6" s="96">
         <v>1</v>
       </c>
       <c r="G6" s="605"/>
-      <c r="I6" s="712"/>
+      <c r="I6" s="699"/>
       <c r="P6" s="61" t="s">
         <v>594</v>
       </c>
       <c r="R6" s="64">
         <f>R7-SUM(X2:X10)+R11</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S6" s="64">
         <f>S7-S12-SUM(V2:V10)</f>
         <v>0</v>
       </c>
-      <c r="AB6" s="715"/>
+      <c r="AB6" s="702"/>
       <c r="AC6" s="35"/>
       <c r="AE6" s="64">
         <f>AE7-SUM(AL2:AL10)+AE11</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF6" s="64">
         <f>AF7-SUM(AI2:AI10)+AF11</f>
@@ -9442,7 +9439,7 @@
       <c r="AL6" s="112"/>
     </row>
     <row r="7" spans="1:38" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="697"/>
+      <c r="A7" s="710"/>
       <c r="B7" s="100" t="s">
         <v>154</v>
       </c>
@@ -9453,7 +9450,7 @@
         <v>135</v>
       </c>
       <c r="G7" s="605"/>
-      <c r="I7" s="712"/>
+      <c r="I7" s="699"/>
       <c r="M7" s="16" t="s">
         <v>348</v>
       </c>
@@ -9471,7 +9468,7 @@
       </c>
       <c r="R7" s="24">
         <f>3-R11</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S7" s="24">
         <f>3-S11</f>
@@ -9485,7 +9482,7 @@
       <c r="X7" s="474">
         <v>1</v>
       </c>
-      <c r="AB7" s="715"/>
+      <c r="AB7" s="702"/>
       <c r="AC7" s="99" t="s">
         <v>595</v>
       </c>
@@ -9511,7 +9508,7 @@
       </c>
     </row>
     <row r="8" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="698"/>
+      <c r="A8" s="711"/>
       <c r="B8" s="214" t="s">
         <v>28</v>
       </c>
@@ -9520,7 +9517,7 @@
         <v>3</v>
       </c>
       <c r="G8" s="605"/>
-      <c r="I8" s="712"/>
+      <c r="I8" s="699"/>
       <c r="N8" s="80"/>
       <c r="U8" s="6" t="s">
         <v>250</v>
@@ -9534,7 +9531,7 @@
       <c r="X8" s="475">
         <v>1</v>
       </c>
-      <c r="AB8" s="715"/>
+      <c r="AB8" s="702"/>
       <c r="AC8" s="521"/>
       <c r="AH8" s="6" t="s">
         <v>600</v>
@@ -9543,12 +9540,8 @@
         <v>1</v>
       </c>
       <c r="AJ8" s="561"/>
-      <c r="AK8" s="6" t="s">
-        <v>627</v>
-      </c>
-      <c r="AL8" s="555">
-        <v>1</v>
-      </c>
+      <c r="AK8" s="6"/>
+      <c r="AL8" s="555"/>
     </row>
     <row r="9" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="233" t="s">
@@ -9565,7 +9558,7 @@
       </c>
       <c r="G9" s="605"/>
       <c r="H9" s="6"/>
-      <c r="I9" s="712"/>
+      <c r="I9" s="699"/>
       <c r="M9" s="19" t="s">
         <v>526</v>
       </c>
@@ -9576,7 +9569,7 @@
         <v>510</v>
       </c>
       <c r="X9" s="472"/>
-      <c r="AB9" s="715"/>
+      <c r="AB9" s="702"/>
       <c r="AC9" s="521"/>
       <c r="AE9" s="20"/>
       <c r="AF9" s="20"/>
@@ -9605,10 +9598,10 @@
       <c r="D10" s="108"/>
       <c r="E10" s="68">
         <f>Boat!W8</f>
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G10" s="605"/>
-      <c r="I10" s="712"/>
+      <c r="I10" s="699"/>
       <c r="J10" s="24" t="s">
         <v>373</v>
       </c>
@@ -9624,8 +9617,10 @@
       <c r="W10" s="6" t="s">
         <v>602</v>
       </c>
-      <c r="X10" s="472"/>
-      <c r="AB10" s="715"/>
+      <c r="X10" s="475">
+        <v>1</v>
+      </c>
+      <c r="AB10" s="702"/>
       <c r="AC10" s="521"/>
       <c r="AE10" s="20"/>
       <c r="AF10" s="20"/>
@@ -9653,7 +9648,7 @@
         <v>266</v>
       </c>
       <c r="G11" s="605"/>
-      <c r="I11" s="712"/>
+      <c r="I11" s="699"/>
       <c r="J11" s="24" t="s">
         <v>194</v>
       </c>
@@ -9674,18 +9669,18 @@
         <v>44</v>
       </c>
       <c r="R11" s="24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S11" s="24">
         <v>2</v>
       </c>
-      <c r="U11" s="717" t="s">
+      <c r="U11" s="704" t="s">
         <v>559</v>
       </c>
-      <c r="V11" s="718"/>
-      <c r="W11" s="718"/>
-      <c r="X11" s="719"/>
-      <c r="AB11" s="716"/>
+      <c r="V11" s="705"/>
+      <c r="W11" s="705"/>
+      <c r="X11" s="706"/>
+      <c r="AB11" s="703"/>
       <c r="AC11" s="99" t="s">
         <v>597</v>
       </c>
@@ -9699,13 +9694,13 @@
         <v>3</v>
       </c>
       <c r="AG11" s="418"/>
-      <c r="AH11" s="717" t="s">
+      <c r="AH11" s="704" t="s">
         <v>614</v>
       </c>
-      <c r="AI11" s="718"/>
-      <c r="AJ11" s="718"/>
-      <c r="AK11" s="718"/>
-      <c r="AL11" s="719"/>
+      <c r="AI11" s="705"/>
+      <c r="AJ11" s="705"/>
+      <c r="AK11" s="705"/>
+      <c r="AL11" s="706"/>
     </row>
     <row r="12" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="229" t="s">
@@ -9716,7 +9711,7 @@
         <v>3</v>
       </c>
       <c r="G12" s="605"/>
-      <c r="I12" s="712"/>
+      <c r="I12" s="699"/>
       <c r="J12" s="24" t="s">
         <v>517</v>
       </c>
@@ -9749,7 +9744,7 @@
       </c>
       <c r="D13" s="20"/>
       <c r="G13" s="605"/>
-      <c r="I13" s="712"/>
+      <c r="I13" s="699"/>
       <c r="J13" s="108" t="s">
         <v>549</v>
       </c>
@@ -9793,7 +9788,7 @@
       <c r="H14" s="208" t="s">
         <v>219</v>
       </c>
-      <c r="I14" s="712"/>
+      <c r="I14" s="699"/>
       <c r="U14" s="67" t="s">
         <v>80</v>
       </c>
@@ -9820,7 +9815,7 @@
       <c r="H15" s="273">
         <v>0</v>
       </c>
-      <c r="I15" s="712"/>
+      <c r="I15" s="699"/>
       <c r="J15" s="108" t="s">
         <v>153</v>
       </c>
@@ -9851,7 +9846,7 @@
       <c r="D16" s="2" t="s">
         <v>493</v>
       </c>
-      <c r="I16" s="712"/>
+      <c r="I16" s="699"/>
       <c r="K16" s="100" t="s">
         <v>44</v>
       </c>
@@ -9895,7 +9890,7 @@
       <c r="G17" s="2" t="s">
         <v>424</v>
       </c>
-      <c r="I17" s="712"/>
+      <c r="I17" s="699"/>
       <c r="L17" s="2" t="s">
         <v>427</v>
       </c>
@@ -9913,13 +9908,13 @@
     </row>
     <row r="18" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G18" s="16"/>
-      <c r="I18" s="712"/>
+      <c r="I18" s="699"/>
       <c r="L18" s="16"/>
       <c r="M18" s="21"/>
-      <c r="O18" s="709" t="s">
+      <c r="O18" s="696" t="s">
         <v>518</v>
       </c>
-      <c r="P18" s="710"/>
+      <c r="P18" s="697"/>
       <c r="Q18" s="127" t="s">
         <v>44</v>
       </c>
@@ -9945,7 +9940,7 @@
       </c>
     </row>
     <row r="19" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I19" s="712"/>
+      <c r="I19" s="699"/>
       <c r="M19" s="21" t="s">
         <v>426</v>
       </c>
@@ -9981,7 +9976,7 @@
       <c r="G20" s="2" t="s">
         <v>424</v>
       </c>
-      <c r="I20" s="712"/>
+      <c r="I20" s="699"/>
       <c r="K20" s="19" t="s">
         <v>423</v>
       </c>
@@ -10016,7 +10011,7 @@
       </c>
     </row>
     <row r="21" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I21" s="712"/>
+      <c r="I21" s="699"/>
       <c r="M21" s="218" t="s">
         <v>412</v>
       </c>
@@ -10050,7 +10045,7 @@
       <c r="G22" s="2" t="s">
         <v>424</v>
       </c>
-      <c r="I22" s="712"/>
+      <c r="I22" s="699"/>
       <c r="P22" s="99" t="s">
         <v>593</v>
       </c>
@@ -10065,7 +10060,7 @@
       <c r="E23" s="285" t="s">
         <v>44</v>
       </c>
-      <c r="I23" s="712"/>
+      <c r="I23" s="699"/>
       <c r="Q23" s="24">
         <f>SUM(V23:V31)</f>
         <v>5</v>
@@ -10082,7 +10077,7 @@
       </c>
     </row>
     <row r="24" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I24" s="712"/>
+      <c r="I24" s="699"/>
       <c r="U24" s="35"/>
       <c r="V24" s="514">
         <v>0</v>
@@ -10110,7 +10105,7 @@
       <c r="H25" s="193" t="s">
         <v>267</v>
       </c>
-      <c r="I25" s="712"/>
+      <c r="I25" s="699"/>
       <c r="J25" s="401" t="s">
         <v>270</v>
       </c>
@@ -10155,7 +10150,7 @@
       <c r="H26" s="19" t="s">
         <v>219</v>
       </c>
-      <c r="I26" s="712"/>
+      <c r="I26" s="699"/>
       <c r="K26" s="24">
         <v>15</v>
       </c>
@@ -10190,7 +10185,7 @@
       </c>
     </row>
     <row r="27" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I27" s="712"/>
+      <c r="I27" s="699"/>
       <c r="O27" s="2" t="s">
         <v>98</v>
       </c>
@@ -10217,7 +10212,7 @@
       <c r="E28" s="217">
         <v>2</v>
       </c>
-      <c r="I28" s="712"/>
+      <c r="I28" s="699"/>
       <c r="Q28" s="6"/>
       <c r="R28" s="112"/>
       <c r="T28" s="142"/>
@@ -10239,7 +10234,7 @@
       <c r="H29" s="193" t="s">
         <v>268</v>
       </c>
-      <c r="I29" s="713"/>
+      <c r="I29" s="700"/>
       <c r="J29" s="326"/>
       <c r="L29" s="96" t="s">
         <v>274</v>
@@ -10297,13 +10292,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="O18:P18"/>
-    <mergeCell ref="I2:I29"/>
-    <mergeCell ref="AB1:AB11"/>
-    <mergeCell ref="AH11:AL11"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="Q1:Q2"/>
-    <mergeCell ref="U11:X11"/>
     <mergeCell ref="A6:A8"/>
     <mergeCell ref="G5:G14"/>
     <mergeCell ref="A2:A3"/>
@@ -10315,8 +10303,16 @@
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="G2:G3"/>
     <mergeCell ref="C2:C3"/>
+    <mergeCell ref="O18:P18"/>
+    <mergeCell ref="I2:I29"/>
+    <mergeCell ref="AB1:AB11"/>
+    <mergeCell ref="AH11:AL11"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="Q1:Q2"/>
+    <mergeCell ref="U11:X11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -10324,8 +10320,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2029A93E-B53C-4201-9F17-439C144F3CF1}">
   <dimension ref="A1:AT37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="AG10" sqref="AG10"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="W9" sqref="W9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10425,21 +10421,21 @@
         <f ca="1">TODAY()</f>
         <v>45283</v>
       </c>
-      <c r="T1" s="748"/>
+      <c r="T1" s="741"/>
       <c r="U1" s="142"/>
       <c r="V1" s="6"/>
       <c r="W1" s="6"/>
-      <c r="X1" s="732" t="s">
+      <c r="X1" s="725" t="s">
         <v>442</v>
       </c>
-      <c r="Y1" s="733"/>
+      <c r="Y1" s="726"/>
       <c r="Z1" s="308">
         <f>68-(W8+Y3+X3+U3)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA1" s="102">
         <f>Z1+Z3</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB1" s="102" t="s">
         <v>441</v>
@@ -10448,23 +10444,23 @@
       <c r="AD1" s="304" t="s">
         <v>44</v>
       </c>
-      <c r="AE1" s="734" t="s">
+      <c r="AE1" s="727" t="s">
         <v>190</v>
       </c>
-      <c r="AF1" s="735"/>
-      <c r="AG1" s="736"/>
-      <c r="AH1" s="737" t="s">
+      <c r="AF1" s="728"/>
+      <c r="AG1" s="729"/>
+      <c r="AH1" s="730" t="s">
         <v>294</v>
       </c>
-      <c r="AI1" s="738"/>
-      <c r="AJ1" s="739"/>
+      <c r="AI1" s="731"/>
+      <c r="AJ1" s="732"/>
       <c r="AK1" s="558"/>
       <c r="AL1" s="558"/>
-      <c r="AM1" s="729" t="s">
+      <c r="AM1" s="722" t="s">
         <v>445</v>
       </c>
-      <c r="AN1" s="730"/>
-      <c r="AO1" s="731"/>
+      <c r="AN1" s="723"/>
+      <c r="AO1" s="724"/>
       <c r="AR1" s="142"/>
     </row>
     <row r="2" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10479,27 +10475,27 @@
         <f>K2+L2</f>
         <v>27</v>
       </c>
-      <c r="K2" s="727">
+      <c r="K2" s="749">
         <f>SUM(K4:K29)</f>
         <v>12</v>
       </c>
-      <c r="L2" s="725">
+      <c r="L2" s="747">
         <f>SUM(L4:L37)</f>
         <v>15</v>
       </c>
-      <c r="M2" s="740">
+      <c r="M2" s="733">
         <f>SUM(M5:M30)</f>
         <v>1</v>
       </c>
-      <c r="N2" s="742">
+      <c r="N2" s="735">
         <f>SUM(N4:N29)</f>
         <v>10</v>
       </c>
-      <c r="O2" s="744">
+      <c r="O2" s="737">
         <f>SUM(O4:O29)</f>
         <v>9</v>
       </c>
-      <c r="P2" s="672">
+      <c r="P2" s="643">
         <f>SUM(N30:N37)* (-1)</f>
         <v>-3</v>
       </c>
@@ -10512,14 +10508,14 @@
       <c r="S2" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="T2" s="749"/>
+      <c r="T2" s="742"/>
       <c r="U2" s="543" t="s">
         <v>263</v>
       </c>
       <c r="V2" s="487" t="s">
         <v>220</v>
       </c>
-      <c r="W2" s="746" t="s">
+      <c r="W2" s="739" t="s">
         <v>235</v>
       </c>
       <c r="X2" s="488" t="s">
@@ -10589,14 +10585,14 @@
     <row r="3" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="J3" s="314">
         <f>V3+X3+Y3+U3</f>
-        <v>67</v>
-      </c>
-      <c r="K3" s="728"/>
-      <c r="L3" s="726"/>
-      <c r="M3" s="741"/>
-      <c r="N3" s="743"/>
-      <c r="O3" s="745"/>
-      <c r="P3" s="673"/>
+        <v>68</v>
+      </c>
+      <c r="K3" s="750"/>
+      <c r="L3" s="748"/>
+      <c r="M3" s="734"/>
+      <c r="N3" s="736"/>
+      <c r="O3" s="738"/>
+      <c r="P3" s="644"/>
       <c r="Q3" s="174">
         <f>(M2+N2)-Y3</f>
         <v>0</v>
@@ -10604,16 +10600,16 @@
       <c r="S3" s="159" t="s">
         <v>245</v>
       </c>
-      <c r="T3" s="750"/>
+      <c r="T3" s="743"/>
       <c r="U3" s="544">
         <f>SUM(U4:U29)</f>
         <v>11</v>
       </c>
       <c r="V3" s="489">
         <f>SUM(V4:V29)</f>
-        <v>36</v>
-      </c>
-      <c r="W3" s="747"/>
+        <v>37</v>
+      </c>
+      <c r="W3" s="740"/>
       <c r="X3" s="490">
         <f t="shared" ref="X3:AC3" si="0">SUM(X4:X29)</f>
         <v>9</v>
@@ -10711,7 +10707,7 @@
         <f>AC4</f>
         <v>0</v>
       </c>
-      <c r="P4" s="722" t="s">
+      <c r="P4" s="744" t="s">
         <v>199</v>
       </c>
       <c r="Q4" s="20"/>
@@ -10797,7 +10793,7 @@
         <f>AC5</f>
         <v>0</v>
       </c>
-      <c r="P5" s="723"/>
+      <c r="P5" s="745"/>
       <c r="Q5" s="20"/>
       <c r="R5" s="2" t="s">
         <v>341</v>
@@ -10893,7 +10889,7 @@
         <f>AC6</f>
         <v>1</v>
       </c>
-      <c r="P6" s="723"/>
+      <c r="P6" s="745"/>
       <c r="Q6" s="19" t="s">
         <v>336</v>
       </c>
@@ -10994,7 +10990,7 @@
         <f>AC7</f>
         <v>0</v>
       </c>
-      <c r="P7" s="723"/>
+      <c r="P7" s="745"/>
       <c r="Q7" s="20"/>
       <c r="R7" s="2" t="s">
         <v>336</v>
@@ -11009,7 +11005,7 @@
         <v>1</v>
       </c>
       <c r="V7" s="530">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W7" s="316">
         <v>-2</v>
@@ -11105,10 +11101,10 @@
         <v>0</v>
       </c>
       <c r="O8" s="295">
-        <f t="shared" ref="O7:O37" si="10">AC8</f>
-        <v>0</v>
-      </c>
-      <c r="P8" s="723"/>
+        <f t="shared" ref="O8:O37" si="10">AC8</f>
+        <v>0</v>
+      </c>
+      <c r="P8" s="745"/>
       <c r="Q8" s="21" t="s">
         <v>234</v>
       </c>
@@ -11129,7 +11125,7 @@
       </c>
       <c r="W8" s="24">
         <f>V3</f>
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="X8" s="502">
         <v>0</v>
@@ -11199,7 +11195,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="P9" s="723"/>
+      <c r="P9" s="745"/>
       <c r="Q9" s="21" t="s">
         <v>336</v>
       </c>
@@ -11304,7 +11300,7 @@
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="P10" s="723"/>
+      <c r="P10" s="745"/>
       <c r="Q10" s="20"/>
       <c r="R10" s="2" t="s">
         <v>341</v>
@@ -11394,7 +11390,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="P11" s="723"/>
+      <c r="P11" s="745"/>
       <c r="Q11" s="21" t="s">
         <v>336</v>
       </c>
@@ -11459,14 +11455,14 @@
       <c r="AR11" s="513"/>
     </row>
     <row r="12" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="632" t="s">
+      <c r="A12" s="681" t="s">
         <v>55</v>
       </c>
       <c r="B12" s="30">
         <v>13</v>
       </c>
       <c r="C12" s="2"/>
-      <c r="E12" s="687" t="s">
+      <c r="E12" s="631" t="s">
         <v>56</v>
       </c>
       <c r="G12" s="264"/>
@@ -11491,7 +11487,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="P12" s="723"/>
+      <c r="P12" s="745"/>
       <c r="Q12" s="21" t="s">
         <v>336</v>
       </c>
@@ -11568,14 +11564,14 @@
       </c>
     </row>
     <row r="13" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="634"/>
+      <c r="A13" s="683"/>
       <c r="B13" s="597">
         <v>12</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="E13" s="688"/>
+      <c r="E13" s="632"/>
       <c r="F13" s="174">
         <v>0</v>
       </c>
@@ -11599,7 +11595,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="P13" s="723"/>
+      <c r="P13" s="745"/>
       <c r="Q13" s="21" t="s">
         <v>336</v>
       </c>
@@ -11681,7 +11677,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="P14" s="723"/>
+      <c r="P14" s="745"/>
       <c r="Q14" s="20"/>
       <c r="R14" s="202" t="s">
         <v>340</v>
@@ -11784,7 +11780,7 @@
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="P15" s="723"/>
+      <c r="P15" s="745"/>
       <c r="Q15" s="20"/>
       <c r="R15" s="202" t="s">
         <v>340</v>
@@ -11878,7 +11874,7 @@
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="P16" s="723"/>
+      <c r="P16" s="745"/>
       <c r="Q16" s="21" t="s">
         <v>336</v>
       </c>
@@ -11983,7 +11979,7 @@
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="P17" s="723"/>
+      <c r="P17" s="745"/>
       <c r="Q17" s="20"/>
       <c r="R17" s="2" t="s">
         <v>342</v>
@@ -12085,7 +12081,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="P18" s="723"/>
+      <c r="P18" s="745"/>
       <c r="Q18" s="21" t="s">
         <v>336</v>
       </c>
@@ -12173,7 +12169,7 @@
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="P19" s="723"/>
+      <c r="P19" s="745"/>
       <c r="Q19" s="20"/>
       <c r="R19" s="2" t="s">
         <v>335</v>
@@ -12283,11 +12279,11 @@
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="P20" s="724"/>
+      <c r="P20" s="746"/>
       <c r="Q20" s="609" t="s">
         <v>336</v>
       </c>
-      <c r="R20" s="689"/>
+      <c r="R20" s="633"/>
       <c r="S20" s="540" t="s">
         <v>85</v>
       </c>
@@ -12551,7 +12547,7 @@
     </row>
     <row r="23" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B23" s="24"/>
-      <c r="E23" s="639" t="s">
+      <c r="E23" s="688" t="s">
         <v>290</v>
       </c>
       <c r="F23" s="182"/>
@@ -12654,7 +12650,7 @@
       <c r="C24" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="E24" s="640"/>
+      <c r="E24" s="689"/>
       <c r="F24" s="174"/>
       <c r="H24" s="42"/>
       <c r="J24" s="581" t="s">
@@ -12677,7 +12673,7 @@
       <c r="Q24" s="609" t="s">
         <v>336</v>
       </c>
-      <c r="R24" s="689"/>
+      <c r="R24" s="633"/>
       <c r="S24" s="540" t="s">
         <v>250</v>
       </c>
@@ -13328,8 +13324,8 @@
       <c r="AR31" s="513"/>
     </row>
     <row r="32" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="656"/>
-      <c r="B32" s="656"/>
+      <c r="A32" s="636"/>
+      <c r="B32" s="636"/>
       <c r="J32" s="582" t="s">
         <v>310</v>
       </c>
@@ -13863,6 +13859,15 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="Q24:R24"/>
+    <mergeCell ref="P4:P20"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="Q20:R20"/>
     <mergeCell ref="AM1:AO1"/>
     <mergeCell ref="X1:Y1"/>
     <mergeCell ref="AE1:AG1"/>
@@ -13873,15 +13878,6 @@
     <mergeCell ref="P2:P3"/>
     <mergeCell ref="W2:W3"/>
     <mergeCell ref="T1:T3"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="Q24:R24"/>
-    <mergeCell ref="P4:P20"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="Q20:R20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -13949,7 +13945,7 @@
       <c r="V1" s="609" t="s">
         <v>70</v>
       </c>
-      <c r="W1" s="689"/>
+      <c r="W1" s="633"/>
       <c r="X1" s="62" t="s">
         <v>101</v>
       </c>
@@ -13968,7 +13964,7 @@
       <c r="AC1" s="116" t="s">
         <v>190</v>
       </c>
-      <c r="AD1" s="765" t="s">
+      <c r="AD1" s="758" t="s">
         <v>212</v>
       </c>
       <c r="AE1" s="116" t="s">
@@ -13985,10 +13981,10 @@
       <c r="E2" s="39" t="s">
         <v>73</v>
       </c>
-      <c r="F2" s="796" t="s">
+      <c r="F2" s="757" t="s">
         <v>74</v>
       </c>
-      <c r="G2" s="753" t="s">
+      <c r="G2" s="785" t="s">
         <v>44</v>
       </c>
       <c r="H2" s="40" t="s">
@@ -14016,10 +14012,10 @@
       <c r="U2" s="60" t="s">
         <v>105</v>
       </c>
-      <c r="V2" s="732" t="s">
+      <c r="V2" s="725" t="s">
         <v>120</v>
       </c>
-      <c r="W2" s="733"/>
+      <c r="W2" s="726"/>
       <c r="X2" s="64" t="s">
         <v>109</v>
       </c>
@@ -14038,7 +14034,7 @@
       <c r="AC2" s="117" t="s">
         <v>98</v>
       </c>
-      <c r="AD2" s="766"/>
+      <c r="AD2" s="759"/>
       <c r="AE2" s="64" t="s">
         <v>98</v>
       </c>
@@ -14057,8 +14053,8 @@
       <c r="E3" s="39" t="s">
         <v>79</v>
       </c>
-      <c r="F3" s="636"/>
-      <c r="G3" s="754"/>
+      <c r="F3" s="685"/>
+      <c r="G3" s="786"/>
       <c r="H3" s="40" t="s">
         <v>80</v>
       </c>
@@ -14069,13 +14065,13 @@
         <v>81</v>
       </c>
       <c r="N3" s="44"/>
-      <c r="O3" s="763" t="s">
+      <c r="O3" s="795" t="s">
         <v>44</v>
       </c>
-      <c r="P3" s="784" t="s">
+      <c r="P3" s="777" t="s">
         <v>218</v>
       </c>
-      <c r="Q3" s="785"/>
+      <c r="Q3" s="778"/>
       <c r="S3" s="57" t="s">
         <v>219</v>
       </c>
@@ -14085,15 +14081,15 @@
       <c r="W3" s="59" t="s">
         <v>104</v>
       </c>
-      <c r="AD3" s="766"/>
+      <c r="AD3" s="759"/>
     </row>
     <row r="4" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G4" s="754"/>
+      <c r="G4" s="786"/>
       <c r="H4" s="6"/>
       <c r="L4" s="693" t="s">
         <v>82</v>
       </c>
-      <c r="O4" s="764"/>
+      <c r="O4" s="796"/>
       <c r="T4" s="55" t="s">
         <v>97</v>
       </c>
@@ -14107,8 +14103,8 @@
         <v>194</v>
       </c>
       <c r="Z4" s="611"/>
-      <c r="AA4" s="689"/>
-      <c r="AD4" s="766"/>
+      <c r="AA4" s="633"/>
+      <c r="AD4" s="759"/>
     </row>
     <row r="5" spans="1:31" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C5" s="52" t="s">
@@ -14123,21 +14119,21 @@
       <c r="F5" s="66" t="s">
         <v>84</v>
       </c>
-      <c r="G5" s="754"/>
+      <c r="G5" s="786"/>
       <c r="H5" s="46" t="s">
         <v>75</v>
       </c>
-      <c r="K5" s="771" t="s">
+      <c r="K5" s="764" t="s">
         <v>216</v>
       </c>
-      <c r="L5" s="786"/>
+      <c r="L5" s="779"/>
       <c r="M5" s="2" t="s">
         <v>214</v>
       </c>
       <c r="N5" s="61" t="s">
         <v>213</v>
       </c>
-      <c r="O5" s="764"/>
+      <c r="O5" s="796"/>
       <c r="P5" s="108" t="s">
         <v>215</v>
       </c>
@@ -14153,11 +14149,11 @@
       <c r="U5" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="Y5" s="774" t="s">
+      <c r="Y5" s="767" t="s">
         <v>283</v>
       </c>
-      <c r="Z5" s="775"/>
-      <c r="AD5" s="766"/>
+      <c r="Z5" s="768"/>
+      <c r="AD5" s="759"/>
     </row>
     <row r="6" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C6" s="109"/>
@@ -14167,16 +14163,16 @@
       <c r="E6" s="45" t="s">
         <v>85</v>
       </c>
-      <c r="G6" s="754"/>
+      <c r="G6" s="786"/>
       <c r="H6" s="46" t="s">
         <v>80</v>
       </c>
       <c r="I6" s="23">
         <v>15</v>
       </c>
-      <c r="K6" s="772"/>
-      <c r="L6" s="786"/>
-      <c r="O6" s="764"/>
+      <c r="K6" s="765"/>
+      <c r="L6" s="779"/>
+      <c r="O6" s="796"/>
       <c r="T6" s="2" t="s">
         <v>100</v>
       </c>
@@ -14186,23 +14182,23 @@
       <c r="V6" s="21">
         <v>-1</v>
       </c>
-      <c r="AD6" s="766"/>
+      <c r="AD6" s="759"/>
     </row>
     <row r="7" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C7" s="110"/>
-      <c r="G7" s="754"/>
+      <c r="G7" s="786"/>
       <c r="H7" s="6"/>
-      <c r="K7" s="772"/>
-      <c r="L7" s="786"/>
+      <c r="K7" s="765"/>
+      <c r="L7" s="779"/>
       <c r="N7" s="21" t="s">
         <v>119</v>
       </c>
-      <c r="O7" s="764"/>
+      <c r="O7" s="796"/>
       <c r="P7" s="73"/>
       <c r="U7" s="104" t="s">
         <v>20</v>
       </c>
-      <c r="AD7" s="766"/>
+      <c r="AD7" s="759"/>
     </row>
     <row r="8" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C8" s="130"/>
@@ -14215,7 +14211,7 @@
       <c r="F8" s="66" t="s">
         <v>86</v>
       </c>
-      <c r="G8" s="754"/>
+      <c r="G8" s="786"/>
       <c r="H8" s="50" t="s">
         <v>75</v>
       </c>
@@ -14225,41 +14221,41 @@
       <c r="J8" s="111">
         <v>115</v>
       </c>
-      <c r="K8" s="772"/>
-      <c r="L8" s="786"/>
-      <c r="O8" s="764"/>
+      <c r="K8" s="765"/>
+      <c r="L8" s="779"/>
+      <c r="O8" s="796"/>
       <c r="P8" s="49"/>
-      <c r="S8" s="768" t="s">
+      <c r="S8" s="761" t="s">
         <v>211</v>
       </c>
-      <c r="T8" s="769"/>
-      <c r="U8" s="769"/>
-      <c r="V8" s="769"/>
-      <c r="W8" s="769"/>
-      <c r="X8" s="769"/>
-      <c r="Y8" s="769"/>
-      <c r="Z8" s="769"/>
-      <c r="AA8" s="769"/>
-      <c r="AB8" s="769"/>
-      <c r="AC8" s="770"/>
-      <c r="AD8" s="766"/>
+      <c r="T8" s="762"/>
+      <c r="U8" s="762"/>
+      <c r="V8" s="762"/>
+      <c r="W8" s="762"/>
+      <c r="X8" s="762"/>
+      <c r="Y8" s="762"/>
+      <c r="Z8" s="762"/>
+      <c r="AA8" s="762"/>
+      <c r="AB8" s="762"/>
+      <c r="AC8" s="763"/>
+      <c r="AD8" s="759"/>
     </row>
     <row r="9" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C9" s="790"/>
-      <c r="G9" s="754"/>
+      <c r="C9" s="751"/>
+      <c r="G9" s="786"/>
       <c r="H9" s="6"/>
-      <c r="K9" s="772"/>
-      <c r="L9" s="757" t="s">
+      <c r="K9" s="765"/>
+      <c r="L9" s="789" t="s">
         <v>217</v>
       </c>
-      <c r="M9" s="758"/>
-      <c r="N9" s="759"/>
-      <c r="O9" s="764"/>
+      <c r="M9" s="790"/>
+      <c r="N9" s="791"/>
+      <c r="O9" s="796"/>
       <c r="P9" s="75"/>
-      <c r="AD9" s="766"/>
+      <c r="AD9" s="759"/>
     </row>
     <row r="10" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C10" s="791"/>
+      <c r="C10" s="752"/>
       <c r="D10" s="23"/>
       <c r="E10" s="45" t="s">
         <v>87</v>
@@ -14267,7 +14263,7 @@
       <c r="F10" s="66" t="s">
         <v>88</v>
       </c>
-      <c r="G10" s="754"/>
+      <c r="G10" s="786"/>
       <c r="H10" s="51"/>
       <c r="I10" s="21" t="s">
         <v>80</v>
@@ -14275,33 +14271,33 @@
       <c r="J10" s="3">
         <v>15</v>
       </c>
-      <c r="K10" s="772"/>
-      <c r="M10" s="793" t="s">
+      <c r="K10" s="765"/>
+      <c r="M10" s="754" t="s">
         <v>89</v>
       </c>
-      <c r="N10" s="794"/>
-      <c r="O10" s="794"/>
-      <c r="P10" s="794"/>
-      <c r="Q10" s="794"/>
-      <c r="R10" s="794"/>
-      <c r="S10" s="794"/>
-      <c r="T10" s="794"/>
-      <c r="U10" s="794"/>
-      <c r="V10" s="794"/>
-      <c r="W10" s="794"/>
-      <c r="X10" s="794"/>
-      <c r="Y10" s="794"/>
-      <c r="Z10" s="794"/>
-      <c r="AA10" s="794"/>
-      <c r="AB10" s="794"/>
-      <c r="AC10" s="795"/>
-      <c r="AD10" s="766"/>
+      <c r="N10" s="755"/>
+      <c r="O10" s="755"/>
+      <c r="P10" s="755"/>
+      <c r="Q10" s="755"/>
+      <c r="R10" s="755"/>
+      <c r="S10" s="755"/>
+      <c r="T10" s="755"/>
+      <c r="U10" s="755"/>
+      <c r="V10" s="755"/>
+      <c r="W10" s="755"/>
+      <c r="X10" s="755"/>
+      <c r="Y10" s="755"/>
+      <c r="Z10" s="755"/>
+      <c r="AA10" s="755"/>
+      <c r="AB10" s="755"/>
+      <c r="AC10" s="756"/>
+      <c r="AD10" s="759"/>
     </row>
     <row r="11" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C11" s="792"/>
-      <c r="G11" s="754"/>
+      <c r="C11" s="753"/>
+      <c r="G11" s="786"/>
       <c r="H11" s="6"/>
-      <c r="K11" s="772"/>
+      <c r="K11" s="765"/>
       <c r="R11" s="52" t="s">
         <v>44</v>
       </c>
@@ -14309,17 +14305,17 @@
       <c r="Y11" s="68" t="s">
         <v>120</v>
       </c>
-      <c r="Z11" s="782" t="s">
+      <c r="Z11" s="775" t="s">
         <v>120</v>
       </c>
-      <c r="AA11" s="783"/>
+      <c r="AA11" s="776"/>
       <c r="AB11" s="52" t="s">
         <v>44</v>
       </c>
       <c r="AC11" s="118" t="s">
         <v>120</v>
       </c>
-      <c r="AD11" s="766"/>
+      <c r="AD11" s="759"/>
     </row>
     <row r="12" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C12" s="129"/>
@@ -14332,7 +14328,7 @@
       <c r="F12" s="66" t="s">
         <v>91</v>
       </c>
-      <c r="G12" s="754"/>
+      <c r="G12" s="786"/>
       <c r="H12" s="128"/>
       <c r="I12" s="19" t="s">
         <v>80</v>
@@ -14340,8 +14336,8 @@
       <c r="J12" s="3">
         <v>15</v>
       </c>
-      <c r="K12" s="772"/>
-      <c r="L12" s="787" t="s">
+      <c r="K12" s="765"/>
+      <c r="L12" s="780" t="s">
         <v>92</v>
       </c>
       <c r="M12" s="21" t="s">
@@ -14372,25 +14368,25 @@
         <v>115</v>
       </c>
       <c r="Y12" s="6"/>
-      <c r="AA12" s="776" t="s">
+      <c r="AA12" s="769" t="s">
         <v>125</v>
       </c>
-      <c r="AB12" s="777"/>
+      <c r="AB12" s="770"/>
       <c r="AC12" s="21" t="s">
         <v>231</v>
       </c>
-      <c r="AD12" s="766"/>
+      <c r="AD12" s="759"/>
     </row>
     <row r="13" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C13" s="790"/>
-      <c r="G13" s="754"/>
-      <c r="K13" s="772"/>
-      <c r="L13" s="788"/>
+      <c r="C13" s="751"/>
+      <c r="G13" s="786"/>
+      <c r="K13" s="765"/>
+      <c r="L13" s="781"/>
       <c r="M13" s="47"/>
-      <c r="Q13" s="756" t="s">
+      <c r="Q13" s="788" t="s">
         <v>209</v>
       </c>
-      <c r="R13" s="645"/>
+      <c r="R13" s="650"/>
       <c r="S13" s="605"/>
       <c r="T13" s="6"/>
       <c r="U13" s="96" t="s">
@@ -14399,17 +14395,17 @@
       <c r="X13" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="AA13" s="778"/>
-      <c r="AB13" s="779"/>
-      <c r="AD13" s="766"/>
+      <c r="AA13" s="771"/>
+      <c r="AB13" s="772"/>
+      <c r="AD13" s="759"/>
     </row>
     <row r="14" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="C14" s="792"/>
+      <c r="C14" s="753"/>
       <c r="D14" s="23"/>
-      <c r="G14" s="754"/>
+      <c r="G14" s="786"/>
       <c r="H14" s="125"/>
       <c r="I14" s="99" t="s">
         <v>44</v>
@@ -14417,8 +14413,8 @@
       <c r="J14" s="111">
         <v>115</v>
       </c>
-      <c r="K14" s="772"/>
-      <c r="L14" s="788"/>
+      <c r="K14" s="765"/>
+      <c r="L14" s="781"/>
       <c r="M14" s="21" t="s">
         <v>110</v>
       </c>
@@ -14439,9 +14435,9 @@
       <c r="Y14" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="AA14" s="778"/>
-      <c r="AB14" s="779"/>
-      <c r="AD14" s="766"/>
+      <c r="AA14" s="771"/>
+      <c r="AB14" s="772"/>
+      <c r="AD14" s="759"/>
     </row>
     <row r="15" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C15" s="130" t="s">
@@ -14456,19 +14452,19 @@
       <c r="F15" s="66" t="s">
         <v>93</v>
       </c>
-      <c r="G15" s="754"/>
+      <c r="G15" s="786"/>
       <c r="H15" s="2" t="s">
         <v>80</v>
       </c>
       <c r="I15" s="53" t="s">
         <v>80</v>
       </c>
-      <c r="K15" s="772"/>
-      <c r="L15" s="789"/>
-      <c r="Q15" s="756" t="s">
+      <c r="K15" s="765"/>
+      <c r="L15" s="782"/>
+      <c r="Q15" s="788" t="s">
         <v>210</v>
       </c>
-      <c r="R15" s="645"/>
+      <c r="R15" s="650"/>
       <c r="S15" s="605"/>
       <c r="T15" s="6"/>
       <c r="V15" s="68" t="s">
@@ -14477,14 +14473,14 @@
       <c r="X15" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="AA15" s="778"/>
-      <c r="AB15" s="779"/>
-      <c r="AD15" s="766"/>
+      <c r="AA15" s="771"/>
+      <c r="AB15" s="772"/>
+      <c r="AD15" s="759"/>
     </row>
     <row r="16" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C16" s="132"/>
-      <c r="G16" s="754"/>
-      <c r="K16" s="772"/>
+      <c r="G16" s="786"/>
+      <c r="K16" s="765"/>
       <c r="N16" s="47"/>
       <c r="O16" s="61" t="s">
         <v>108</v>
@@ -14503,24 +14499,24 @@
       <c r="Z16" s="76" t="s">
         <v>126</v>
       </c>
-      <c r="AA16" s="778"/>
-      <c r="AB16" s="779"/>
-      <c r="AD16" s="766"/>
+      <c r="AA16" s="771"/>
+      <c r="AB16" s="772"/>
+      <c r="AD16" s="759"/>
     </row>
     <row r="17" spans="3:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C17" s="109"/>
       <c r="E17" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="F17" s="751" t="s">
+      <c r="F17" s="783" t="s">
         <v>95</v>
       </c>
-      <c r="G17" s="754"/>
+      <c r="G17" s="786"/>
       <c r="H17" s="54"/>
       <c r="I17" s="133" t="s">
         <v>80</v>
       </c>
-      <c r="K17" s="772"/>
+      <c r="K17" s="765"/>
       <c r="S17" s="605"/>
       <c r="V17" s="68" t="s">
         <v>44</v>
@@ -14528,9 +14524,9 @@
       <c r="X17" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="AA17" s="778"/>
-      <c r="AB17" s="779"/>
-      <c r="AD17" s="766"/>
+      <c r="AA17" s="771"/>
+      <c r="AB17" s="772"/>
+      <c r="AD17" s="759"/>
     </row>
     <row r="18" spans="3:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C18" s="130"/>
@@ -14540,15 +14536,15 @@
       <c r="E18" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="F18" s="752"/>
-      <c r="G18" s="754"/>
+      <c r="F18" s="784"/>
+      <c r="G18" s="786"/>
       <c r="H18" s="108" t="s">
         <v>75</v>
       </c>
       <c r="I18" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="K18" s="772"/>
+      <c r="K18" s="765"/>
       <c r="O18" s="64" t="s">
         <v>114</v>
       </c>
@@ -14559,39 +14555,42 @@
       <c r="X18" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="AA18" s="780"/>
-      <c r="AB18" s="781"/>
-      <c r="AD18" s="766"/>
+      <c r="AA18" s="773"/>
+      <c r="AB18" s="774"/>
+      <c r="AD18" s="759"/>
     </row>
     <row r="19" spans="3:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F19" s="64" t="s">
         <v>208</v>
       </c>
-      <c r="G19" s="755"/>
-      <c r="K19" s="773"/>
+      <c r="G19" s="787"/>
+      <c r="K19" s="766"/>
       <c r="Q19" s="68" t="s">
         <v>44</v>
       </c>
-      <c r="R19" s="760" t="s">
+      <c r="R19" s="792" t="s">
         <v>123</v>
       </c>
-      <c r="S19" s="761"/>
-      <c r="T19" s="762"/>
+      <c r="S19" s="793"/>
+      <c r="T19" s="794"/>
       <c r="V19" s="77" t="s">
         <v>114</v>
       </c>
       <c r="Y19" s="19" t="s">
         <v>124</v>
       </c>
-      <c r="AD19" s="767"/>
+      <c r="AD19" s="760"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="C9:C11"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="V2:W2"/>
-    <mergeCell ref="M10:AC10"/>
-    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="G2:G19"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="L9:N9"/>
+    <mergeCell ref="R19:T19"/>
+    <mergeCell ref="S12:S18"/>
+    <mergeCell ref="O3:O9"/>
     <mergeCell ref="AD1:AD19"/>
     <mergeCell ref="S8:AC8"/>
     <mergeCell ref="K5:K19"/>
@@ -14603,14 +14602,11 @@
     <mergeCell ref="P3:Q3"/>
     <mergeCell ref="L4:L8"/>
     <mergeCell ref="L12:L15"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="G2:G19"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="L9:N9"/>
-    <mergeCell ref="R19:T19"/>
-    <mergeCell ref="S12:S18"/>
-    <mergeCell ref="O3:O9"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="V2:W2"/>
+    <mergeCell ref="M10:AC10"/>
+    <mergeCell ref="F2:F3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/System_2.1.8.xlsx
+++ b/System_2.1.8.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Work_For_\Work\Running AppS\System_Work_RW\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E9604C3-3847-477D-B005-28759C025E61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A7A3DB7-5811-4E54-B904-B4CB7D28FE50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BoardRW" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1126" uniqueCount="627">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1126" uniqueCount="628">
   <si>
     <t>Zone</t>
   </si>
@@ -1859,9 +1859,6 @@
     <t>nd tv 24*7</t>
   </si>
   <si>
-    <t>3M40F</t>
-  </si>
-  <si>
     <t>IT_X_Media</t>
   </si>
   <si>
@@ -1913,13 +1910,19 @@
     <t>NodeW</t>
   </si>
   <si>
-    <t xml:space="preserve">8F Reserved </t>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
     <t>AT - CT_WLFJN_X_N-10_X_Left</t>
+  </si>
+  <si>
+    <t>12F Wbt</t>
+  </si>
+  <si>
+    <t>14F Wbt</t>
+  </si>
+  <si>
+    <t>3M26F</t>
   </si>
 </sst>
 </file>
@@ -5901,8 +5904,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:X28"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="X8" sqref="X8"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="W17" sqref="W17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6094,7 +6097,7 @@
         <v>226</v>
       </c>
       <c r="V5" s="19">
-        <v>6540</v>
+        <v>6600</v>
       </c>
     </row>
     <row r="6" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6232,7 +6235,7 @@
         <v>1</v>
       </c>
       <c r="Q9" s="2" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="R9" s="34" t="s">
         <v>44</v>
@@ -6251,7 +6254,7 @@
       </c>
       <c r="D10" s="61"/>
       <c r="F10" s="362" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>21</v>
@@ -6319,7 +6322,7 @@
         <v>225</v>
       </c>
       <c r="V11" s="64">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="12" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6384,7 +6387,7 @@
         <v>589</v>
       </c>
       <c r="V13" s="24">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6674,7 +6677,9 @@
       </c>
       <c r="P22" s="315"/>
       <c r="T22" s="613"/>
-      <c r="X22" s="19"/>
+      <c r="X22" s="19" t="s">
+        <v>625</v>
+      </c>
     </row>
     <row r="23" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B23" s="2" t="s">
@@ -6687,7 +6692,7 @@
       <c r="E23" s="61"/>
       <c r="F23" s="100"/>
       <c r="G23" s="2" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="H23" s="2" t="s">
         <v>411</v>
@@ -6725,7 +6730,7 @@
       <c r="E24" s="468"/>
       <c r="F24" s="390"/>
       <c r="G24" s="241" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="H24" s="212" t="s">
         <v>393</v>
@@ -6747,7 +6752,7 @@
       <c r="S24" s="80"/>
       <c r="T24" s="613"/>
       <c r="X24" s="19" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
     </row>
     <row r="25" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6806,10 +6811,10 @@
       <c r="E26" s="396"/>
       <c r="F26" s="362"/>
       <c r="G26" s="2" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="I26" s="61"/>
       <c r="J26" s="244"/>
@@ -6824,7 +6829,7 @@
       <c r="P26" s="315"/>
       <c r="T26" s="613"/>
       <c r="V26" s="519" t="s">
-        <v>606</v>
+        <v>627</v>
       </c>
     </row>
     <row r="27" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6838,7 +6843,7 @@
       <c r="E27" s="396"/>
       <c r="F27" s="385"/>
       <c r="G27" s="2" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="H27" s="212" t="s">
         <v>515</v>
@@ -6879,7 +6884,7 @@
       <c r="E28" s="396"/>
       <c r="F28" s="387"/>
       <c r="G28" s="2" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="H28" s="212" t="s">
         <v>580</v>
@@ -9040,7 +9045,7 @@
   <dimension ref="A1:AL31"/>
   <sheetViews>
     <sheetView topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="AJ17" sqref="AJ17"/>
+      <selection activeCell="AG17" sqref="AG17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9206,7 +9211,7 @@
       <c r="Q2" s="708"/>
       <c r="R2" s="21">
         <f>R7+R20</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S2" s="21">
         <f>S7+S20</f>
@@ -9417,7 +9422,7 @@
       </c>
       <c r="R6" s="64">
         <f>R7-SUM(X2:X10)+R11</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S6" s="64">
         <f>S7-S12-SUM(V2:V10)</f>
@@ -9468,7 +9473,7 @@
       </c>
       <c r="R7" s="24">
         <f>3-R11</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S7" s="24">
         <f>3-S11</f>
@@ -9476,12 +9481,8 @@
       </c>
       <c r="U7" s="6"/>
       <c r="V7" s="474"/>
-      <c r="W7" s="6" t="s">
-        <v>475</v>
-      </c>
-      <c r="X7" s="474">
-        <v>1</v>
-      </c>
+      <c r="W7" s="6"/>
+      <c r="X7" s="474"/>
       <c r="AB7" s="702"/>
       <c r="AC7" s="99" t="s">
         <v>595</v>
@@ -9501,7 +9502,7 @@
       <c r="AI7" s="474"/>
       <c r="AJ7" s="561"/>
       <c r="AK7" s="6" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="AL7" s="474">
         <v>1</v>
@@ -9628,7 +9629,7 @@
       <c r="AI10" s="475"/>
       <c r="AJ10" s="562"/>
       <c r="AK10" s="6" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="AL10" s="556">
         <v>2</v>
@@ -9669,7 +9670,7 @@
         <v>44</v>
       </c>
       <c r="R11" s="24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S11" s="24">
         <v>2</v>
@@ -9695,7 +9696,7 @@
       </c>
       <c r="AG11" s="418"/>
       <c r="AH11" s="704" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="AI11" s="705"/>
       <c r="AJ11" s="705"/>
@@ -10320,8 +10321,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2029A93E-B53C-4201-9F17-439C144F3CF1}">
   <dimension ref="A1:AT37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="W9" sqref="W9"/>
+    <sheetView topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32:B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10388,7 +10389,7 @@
         <v>0</v>
       </c>
       <c r="H1" s="80" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="I1" s="95" t="s">
         <v>41</v>
@@ -10397,7 +10398,7 @@
         <v>200</v>
       </c>
       <c r="K1" s="72" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="L1" s="591" t="s">
         <v>577</v>
@@ -10473,7 +10474,7 @@
       </c>
       <c r="J2" s="320">
         <f>K2+L2</f>
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="K2" s="749">
         <f>SUM(K4:K29)</f>
@@ -10481,7 +10482,7 @@
       </c>
       <c r="L2" s="747">
         <f>SUM(L4:L37)</f>
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="M2" s="733">
         <f>SUM(M5:M30)</f>
@@ -10493,7 +10494,7 @@
       </c>
       <c r="O2" s="737">
         <f>SUM(O4:O29)</f>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="P2" s="643">
         <f>SUM(N30:N37)* (-1)</f>
@@ -10558,10 +10559,10 @@
         <v>289</v>
       </c>
       <c r="AK2" s="150" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="AL2" s="150" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="AM2" s="21" t="s">
         <v>444</v>
@@ -10624,15 +10625,15 @@
       </c>
       <c r="AA3" s="66">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AB3" s="66">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AC3" s="66">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AD3" s="66">
         <f t="shared" ref="AD3:AO3" si="1">SUM(AD4:AD29)</f>
@@ -10640,7 +10641,7 @@
       </c>
       <c r="AE3" s="66">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AF3" s="66">
         <f t="shared" si="1"/>
@@ -10652,7 +10653,7 @@
       </c>
       <c r="AH3" s="66">
         <f>SUM(AH4:AH29)</f>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AI3" s="377">
         <f t="shared" si="1"/>
@@ -10666,15 +10667,15 @@
       <c r="AL3" s="408"/>
       <c r="AM3" s="100">
         <f t="shared" si="1"/>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AN3" s="312">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AO3" s="313">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AR3" s="142"/>
     </row>
@@ -10887,7 +10888,7 @@
       </c>
       <c r="O6" s="295">
         <f>AC6</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P6" s="745"/>
       <c r="Q6" s="19" t="s">
@@ -10918,27 +10919,27 @@
       <c r="Z6" s="298"/>
       <c r="AA6" s="117">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB6" s="292">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC6" s="292">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD6" s="292">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AE6" s="296">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF6" s="302"/>
       <c r="AG6" s="298"/>
       <c r="AH6" s="298">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI6" s="378">
         <v>0</v>
@@ -10948,15 +10949,15 @@
       <c r="AL6" s="319"/>
       <c r="AM6" s="339">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN6" s="310">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="311">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP6" s="6" t="s">
         <v>475</v>
@@ -11283,15 +11284,13 @@
         <v>0</v>
       </c>
       <c r="I10" s="111" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="J10" s="581" t="s">
         <v>357</v>
       </c>
       <c r="K10" s="585"/>
-      <c r="L10" s="593">
-        <v>2</v>
-      </c>
+      <c r="L10" s="593"/>
       <c r="M10" s="330"/>
       <c r="N10" s="107">
         <v>1</v>
@@ -11470,7 +11469,7 @@
         <v>-1</v>
       </c>
       <c r="I12" s="61" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="J12" s="581" t="s">
         <v>298</v>
@@ -11580,7 +11579,7 @@
       </c>
       <c r="H13" s="273"/>
       <c r="I13" s="111" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="J13" s="582" t="s">
         <v>303</v>
@@ -11750,7 +11749,7 @@
         <v>563</v>
       </c>
       <c r="AR14" s="513" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="15" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11769,9 +11768,7 @@
         <v>194</v>
       </c>
       <c r="K15" s="586"/>
-      <c r="L15" s="594">
-        <v>1</v>
-      </c>
+      <c r="L15" s="594"/>
       <c r="M15" s="330"/>
       <c r="N15" s="293">
         <v>1</v>
@@ -11968,9 +11965,7 @@
         <v>310</v>
       </c>
       <c r="K17" s="586"/>
-      <c r="L17" s="594">
-        <v>1</v>
-      </c>
+      <c r="L17" s="594"/>
       <c r="M17" s="330"/>
       <c r="N17" s="107">
         <v>1</v>
@@ -12160,7 +12155,9 @@
       <c r="K19" s="586">
         <v>2</v>
       </c>
-      <c r="L19" s="594"/>
+      <c r="L19" s="594">
+        <v>1</v>
+      </c>
       <c r="M19" s="118"/>
       <c r="N19" s="107">
         <v>1</v>
@@ -12269,7 +12266,7 @@
       </c>
       <c r="K20" s="586"/>
       <c r="L20" s="594">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M20" s="329"/>
       <c r="N20" s="107">
@@ -12760,9 +12757,7 @@
         <v>296</v>
       </c>
       <c r="K25" s="585"/>
-      <c r="L25" s="593">
-        <v>1</v>
-      </c>
+      <c r="L25" s="593"/>
       <c r="M25" s="334"/>
       <c r="N25" s="107">
         <v>0</v>
@@ -13252,7 +13247,7 @@
       <c r="A31" s="80"/>
       <c r="B31" s="112"/>
       <c r="C31" s="21" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>361</v>
@@ -13330,9 +13325,7 @@
         <v>310</v>
       </c>
       <c r="K32" s="590"/>
-      <c r="L32" s="593">
-        <v>2</v>
-      </c>
+      <c r="L32" s="593"/>
       <c r="M32" s="515">
         <v>0</v>
       </c>
@@ -13497,7 +13490,7 @@
       </c>
       <c r="K34" s="513"/>
       <c r="L34" s="593">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M34" s="337"/>
       <c r="N34" s="250">
@@ -13667,9 +13660,7 @@
       <c r="AR35" s="513"/>
     </row>
     <row r="36" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="24">
-        <v>-1</v>
-      </c>
+      <c r="B36" s="24"/>
       <c r="F36" s="261" t="s">
         <v>44</v>
       </c>
@@ -13756,7 +13747,7 @@
     </row>
     <row r="37" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B37" s="24">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D37" s="385">
         <v>1</v>
@@ -13769,11 +13760,11 @@
       </c>
       <c r="I37" s="2"/>
       <c r="J37" s="2" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="K37" s="559"/>
       <c r="L37" s="596">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M37" s="338"/>
       <c r="N37" s="251">

--- a/System_2.1.8.xlsx
+++ b/System_2.1.8.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Work_For_\Work\Running AppS\System_Work_RW\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A7A3DB7-5811-4E54-B904-B4CB7D28FE50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B98B25C-F12F-4AE5-A8E6-6BB26B0BEE94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BoardRW" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1126" uniqueCount="628">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1125" uniqueCount="627">
   <si>
     <t>Zone</t>
   </si>
@@ -1916,13 +1916,10 @@
     <t>AT - CT_WLFJN_X_N-10_X_Left</t>
   </si>
   <si>
-    <t>12F Wbt</t>
-  </si>
-  <si>
-    <t>14F Wbt</t>
-  </si>
-  <si>
     <t>3M26F</t>
+  </si>
+  <si>
+    <t>14F Reserved</t>
   </si>
 </sst>
 </file>
@@ -5063,6 +5060,186 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="73" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="27" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="27" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="36" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="36" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="49" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="49" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="49" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="19" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5075,12 +5252,6 @@
     <xf numFmtId="0" fontId="17" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5092,12 +5263,6 @@
     </xf>
     <xf numFmtId="0" fontId="38" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
@@ -5120,190 +5285,61 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="27" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="27" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="27" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="27" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="13" fillId="27" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="27" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="27" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="49" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="49" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="49" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="73" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="13" fillId="27" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="13" fillId="27" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="36" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="36" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5345,43 +5381,25 @@
     <xf numFmtId="0" fontId="39" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="27" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="27" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="27" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="13" fillId="27" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="13" fillId="27" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="27" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="27" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="36" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="36" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="43" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5450,46 +5468,46 @@
     <xf numFmtId="14" fontId="5" fillId="14" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="35" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="35" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="35" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5567,46 +5585,25 @@
     <xf numFmtId="0" fontId="3" fillId="21" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -5904,8 +5901,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:X28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="W17" sqref="W17"/>
+    <sheetView topLeftCell="B9" workbookViewId="0">
+      <selection activeCell="X19" sqref="X19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6678,7 +6675,7 @@
       <c r="P22" s="315"/>
       <c r="T22" s="613"/>
       <c r="X22" s="19" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
     </row>
     <row r="23" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6751,9 +6748,7 @@
       <c r="P24" s="518"/>
       <c r="S24" s="80"/>
       <c r="T24" s="613"/>
-      <c r="X24" s="19" t="s">
-        <v>626</v>
-      </c>
+      <c r="X24" s="19"/>
     </row>
     <row r="25" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B25" s="3" t="s">
@@ -6829,7 +6824,7 @@
       <c r="P26" s="315"/>
       <c r="T26" s="613"/>
       <c r="V26" s="519" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
     </row>
     <row r="27" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6999,7 +6994,7 @@
       <c r="H1" s="97" t="s">
         <v>344</v>
       </c>
-      <c r="I1" s="619" t="s">
+      <c r="I1" s="665" t="s">
         <v>370</v>
       </c>
       <c r="J1" s="2" t="s">
@@ -7035,7 +7030,7 @@
       <c r="X1" s="434" t="s">
         <v>155</v>
       </c>
-      <c r="Y1" s="663" t="s">
+      <c r="Y1" s="659" t="s">
         <v>530</v>
       </c>
       <c r="Z1" s="410">
@@ -7060,7 +7055,7 @@
         <v>499</v>
       </c>
       <c r="AM1" s="406"/>
-      <c r="AN1" s="646"/>
+      <c r="AN1" s="641"/>
       <c r="AO1" s="341" t="s">
         <v>470</v>
       </c>
@@ -7069,23 +7064,23 @@
       </c>
     </row>
     <row r="2" spans="1:43" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="672">
+      <c r="A2" s="623">
         <f ca="1">TODAY()</f>
-        <v>45283</v>
-      </c>
-      <c r="B2" s="674" t="s">
+        <v>45284</v>
+      </c>
+      <c r="B2" s="625" t="s">
         <v>371</v>
       </c>
-      <c r="C2" s="651" t="s">
+      <c r="C2" s="621" t="s">
         <v>358</v>
       </c>
-      <c r="D2" s="676" t="s">
+      <c r="D2" s="627" t="s">
         <v>356</v>
       </c>
-      <c r="E2" s="615" t="s">
+      <c r="E2" s="675" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="625" t="s">
+      <c r="F2" s="646" t="s">
         <v>102</v>
       </c>
       <c r="G2" s="397" t="s">
@@ -7094,31 +7089,31 @@
       <c r="H2" s="80" t="s">
         <v>33</v>
       </c>
-      <c r="I2" s="620"/>
+      <c r="I2" s="666"/>
       <c r="J2" s="81" t="s">
         <v>76</v>
       </c>
-      <c r="K2" s="617" t="s">
+      <c r="K2" s="677" t="s">
         <v>343</v>
       </c>
-      <c r="L2" s="618"/>
-      <c r="M2" s="625" t="s">
+      <c r="L2" s="678"/>
+      <c r="M2" s="646" t="s">
         <v>102</v>
       </c>
       <c r="N2" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="O2" s="655" t="s">
+      <c r="O2" s="650" t="s">
         <v>102</v>
       </c>
       <c r="P2" s="85" t="s">
         <v>147</v>
       </c>
-      <c r="Q2" s="651" t="s">
+      <c r="Q2" s="621" t="s">
         <v>143</v>
       </c>
       <c r="R2" s="604"/>
-      <c r="S2" s="640" t="s">
+      <c r="S2" s="663" t="s">
         <v>148</v>
       </c>
       <c r="T2" s="89"/>
@@ -7128,7 +7123,7 @@
       <c r="X2" s="435" t="s">
         <v>156</v>
       </c>
-      <c r="Y2" s="664"/>
+      <c r="Y2" s="660"/>
       <c r="Z2" s="411">
         <v>1</v>
       </c>
@@ -7151,15 +7146,15 @@
         <v>464</v>
       </c>
       <c r="AM2" s="432"/>
-      <c r="AN2" s="647"/>
+      <c r="AN2" s="642"/>
     </row>
     <row r="3" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="673"/>
-      <c r="B3" s="675"/>
-      <c r="C3" s="652"/>
-      <c r="D3" s="677"/>
-      <c r="E3" s="616"/>
-      <c r="F3" s="626"/>
+      <c r="A3" s="624"/>
+      <c r="B3" s="626"/>
+      <c r="C3" s="622"/>
+      <c r="D3" s="628"/>
+      <c r="E3" s="676"/>
+      <c r="F3" s="647"/>
       <c r="G3" s="398" t="s">
         <v>28</v>
       </c>
@@ -7178,17 +7173,17 @@
       <c r="L3" s="203" t="s">
         <v>107</v>
       </c>
-      <c r="M3" s="626"/>
+      <c r="M3" s="647"/>
       <c r="N3" s="69" t="s">
         <v>146</v>
       </c>
-      <c r="O3" s="656"/>
+      <c r="O3" s="651"/>
       <c r="P3" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="Q3" s="652"/>
+      <c r="Q3" s="622"/>
       <c r="R3" s="606"/>
-      <c r="S3" s="642"/>
+      <c r="S3" s="664"/>
       <c r="T3" s="89"/>
       <c r="U3" s="124"/>
       <c r="V3" s="120"/>
@@ -7196,7 +7191,7 @@
       <c r="X3" s="435" t="s">
         <v>157</v>
       </c>
-      <c r="Y3" s="664"/>
+      <c r="Y3" s="660"/>
       <c r="Z3" s="412">
         <v>1</v>
       </c>
@@ -7205,7 +7200,7 @@
       <c r="AC3" s="100" t="s">
         <v>481</v>
       </c>
-      <c r="AD3" s="637" t="s">
+      <c r="AD3" s="662" t="s">
         <v>456</v>
       </c>
       <c r="AE3" s="259"/>
@@ -7217,16 +7212,16 @@
       <c r="AK3" s="259"/>
       <c r="AL3" s="16"/>
       <c r="AM3" s="432"/>
-      <c r="AN3" s="647"/>
+      <c r="AN3" s="642"/>
     </row>
     <row r="4" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="240" t="s">
         <v>183</v>
       </c>
-      <c r="B4" s="688" t="s">
+      <c r="B4" s="639" t="s">
         <v>374</v>
       </c>
-      <c r="C4" s="651" t="s">
+      <c r="C4" s="621" t="s">
         <v>154</v>
       </c>
       <c r="D4" s="350" t="s">
@@ -7235,7 +7230,7 @@
       <c r="E4" s="381">
         <v>2</v>
       </c>
-      <c r="F4" s="626"/>
+      <c r="F4" s="647"/>
       <c r="G4" s="384" t="s">
         <v>202</v>
       </c>
@@ -7252,11 +7247,11 @@
         <v>150</v>
       </c>
       <c r="L4" s="206"/>
-      <c r="M4" s="626"/>
+      <c r="M4" s="647"/>
       <c r="N4" s="176" t="s">
         <v>69</v>
       </c>
-      <c r="O4" s="656"/>
+      <c r="O4" s="651"/>
       <c r="P4" s="2" t="s">
         <v>191</v>
       </c>
@@ -7278,12 +7273,12 @@
       <c r="X4" s="435" t="s">
         <v>158</v>
       </c>
-      <c r="Y4" s="664"/>
+      <c r="Y4" s="660"/>
       <c r="Z4" s="413"/>
       <c r="AA4" s="309"/>
       <c r="AB4" s="211"/>
       <c r="AC4" s="16"/>
-      <c r="AD4" s="637"/>
+      <c r="AD4" s="662"/>
       <c r="AE4" s="259"/>
       <c r="AF4" s="259"/>
       <c r="AG4" s="16"/>
@@ -7293,37 +7288,37 @@
       <c r="AK4" s="259"/>
       <c r="AL4" s="16"/>
       <c r="AM4" s="432"/>
-      <c r="AN4" s="647"/>
+      <c r="AN4" s="642"/>
       <c r="AO4" s="341" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="619" t="s">
+      <c r="A5" s="665" t="s">
         <v>419</v>
       </c>
-      <c r="B5" s="689"/>
-      <c r="C5" s="652"/>
+      <c r="B5" s="640"/>
+      <c r="C5" s="622"/>
       <c r="D5" s="61" t="s">
         <v>153</v>
       </c>
       <c r="E5" s="382">
         <v>1</v>
       </c>
-      <c r="F5" s="626"/>
-      <c r="G5" s="680" t="s">
+      <c r="F5" s="647"/>
+      <c r="G5" s="631" t="s">
         <v>192</v>
       </c>
-      <c r="H5" s="680"/>
-      <c r="I5" s="680"/>
-      <c r="J5" s="680"/>
-      <c r="K5" s="680"/>
-      <c r="L5" s="681"/>
-      <c r="M5" s="626"/>
+      <c r="H5" s="631"/>
+      <c r="I5" s="631"/>
+      <c r="J5" s="631"/>
+      <c r="K5" s="631"/>
+      <c r="L5" s="632"/>
+      <c r="M5" s="647"/>
       <c r="N5" s="21">
         <v>8</v>
       </c>
-      <c r="O5" s="656"/>
+      <c r="O5" s="651"/>
       <c r="T5" s="89"/>
       <c r="U5" s="124"/>
       <c r="V5" s="120"/>
@@ -7331,7 +7326,7 @@
       <c r="X5" s="435" t="s">
         <v>159</v>
       </c>
-      <c r="Y5" s="664"/>
+      <c r="Y5" s="660"/>
       <c r="Z5" s="413">
         <v>1</v>
       </c>
@@ -7354,24 +7349,24 @@
       <c r="AK5" s="259"/>
       <c r="AL5" s="80"/>
       <c r="AM5" s="432"/>
-      <c r="AN5" s="647"/>
+      <c r="AN5" s="642"/>
     </row>
     <row r="6" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="620"/>
-      <c r="B6" s="686" t="s">
+      <c r="A6" s="666"/>
+      <c r="B6" s="637" t="s">
         <v>177</v>
       </c>
-      <c r="C6" s="634"/>
-      <c r="D6" s="635"/>
-      <c r="F6" s="626"/>
-      <c r="G6" s="682"/>
-      <c r="H6" s="682"/>
-      <c r="I6" s="682"/>
-      <c r="J6" s="682"/>
-      <c r="K6" s="682"/>
-      <c r="L6" s="683"/>
-      <c r="M6" s="626"/>
-      <c r="O6" s="656"/>
+      <c r="C6" s="667"/>
+      <c r="D6" s="668"/>
+      <c r="F6" s="647"/>
+      <c r="G6" s="633"/>
+      <c r="H6" s="633"/>
+      <c r="I6" s="633"/>
+      <c r="J6" s="633"/>
+      <c r="K6" s="633"/>
+      <c r="L6" s="634"/>
+      <c r="M6" s="647"/>
+      <c r="O6" s="651"/>
       <c r="T6" s="89"/>
       <c r="U6" s="124"/>
       <c r="V6" s="98" t="s">
@@ -7381,7 +7376,7 @@
       <c r="X6" s="435" t="s">
         <v>160</v>
       </c>
-      <c r="Y6" s="664"/>
+      <c r="Y6" s="660"/>
       <c r="Z6" s="411">
         <v>1</v>
       </c>
@@ -7395,16 +7390,16 @@
       <c r="AF6" s="259"/>
       <c r="AG6" s="259"/>
       <c r="AH6" s="259"/>
-      <c r="AI6" s="636"/>
+      <c r="AI6" s="656"/>
       <c r="AJ6" s="445" t="s">
         <v>459</v>
       </c>
-      <c r="AK6" s="636" t="s">
+      <c r="AK6" s="656" t="s">
         <v>252</v>
       </c>
       <c r="AL6" s="259"/>
       <c r="AM6" s="432"/>
-      <c r="AN6" s="647"/>
+      <c r="AN6" s="642"/>
       <c r="AO6" s="341" t="s">
         <v>471</v>
       </c>
@@ -7413,7 +7408,7 @@
       <c r="A7" s="234" t="s">
         <v>574</v>
       </c>
-      <c r="B7" s="687"/>
+      <c r="B7" s="638"/>
       <c r="C7" s="204" t="s">
         <v>375</v>
       </c>
@@ -7423,7 +7418,7 @@
       <c r="E7" s="267">
         <v>3</v>
       </c>
-      <c r="F7" s="626"/>
+      <c r="F7" s="647"/>
       <c r="G7" s="399">
         <v>0</v>
       </c>
@@ -7442,8 +7437,8 @@
       <c r="L7" s="214">
         <v>0</v>
       </c>
-      <c r="M7" s="626"/>
-      <c r="O7" s="656"/>
+      <c r="M7" s="647"/>
+      <c r="O7" s="651"/>
       <c r="R7" s="99" t="s">
         <v>44</v>
       </c>
@@ -7457,7 +7452,7 @@
       <c r="X7" s="435" t="s">
         <v>161</v>
       </c>
-      <c r="Y7" s="664"/>
+      <c r="Y7" s="660"/>
       <c r="Z7" s="411">
         <v>1</v>
       </c>
@@ -7467,18 +7462,18 @@
       <c r="AD7" s="16"/>
       <c r="AE7" s="259"/>
       <c r="AF7" s="259"/>
-      <c r="AG7" s="637" t="s">
+      <c r="AG7" s="662" t="s">
         <v>455</v>
       </c>
       <c r="AH7" s="259"/>
-      <c r="AI7" s="636"/>
+      <c r="AI7" s="656"/>
       <c r="AJ7" s="259"/>
-      <c r="AK7" s="636"/>
+      <c r="AK7" s="656"/>
       <c r="AL7" s="80" t="s">
         <v>497</v>
       </c>
       <c r="AM7" s="432"/>
-      <c r="AN7" s="647"/>
+      <c r="AN7" s="642"/>
       <c r="AP7" s="76" t="s">
         <v>472</v>
       </c>
@@ -7495,27 +7490,27 @@
         <f>SUM(G7:N9)</f>
         <v>15</v>
       </c>
-      <c r="F8" s="626"/>
-      <c r="G8" s="681">
-        <v>0</v>
-      </c>
-      <c r="H8" s="678" t="s">
+      <c r="F8" s="647"/>
+      <c r="G8" s="632">
+        <v>0</v>
+      </c>
+      <c r="H8" s="629" t="s">
         <v>104</v>
       </c>
       <c r="I8" s="604">
         <v>0</v>
       </c>
-      <c r="J8" s="678" t="s">
+      <c r="J8" s="629" t="s">
         <v>104</v>
       </c>
-      <c r="K8" s="684"/>
-      <c r="L8" s="638"/>
-      <c r="M8" s="653"/>
-      <c r="N8" s="643">
+      <c r="K8" s="635"/>
+      <c r="L8" s="669"/>
+      <c r="M8" s="648"/>
+      <c r="N8" s="672">
         <f>N5+N11</f>
         <v>15</v>
       </c>
-      <c r="O8" s="656"/>
+      <c r="O8" s="651"/>
       <c r="T8" s="103" t="s">
         <v>44</v>
       </c>
@@ -7525,7 +7520,7 @@
       <c r="X8" s="435" t="s">
         <v>162</v>
       </c>
-      <c r="Y8" s="664"/>
+      <c r="Y8" s="660"/>
       <c r="Z8" s="413"/>
       <c r="AA8" s="309"/>
       <c r="AB8" s="211"/>
@@ -7533,14 +7528,14 @@
       <c r="AD8" s="16"/>
       <c r="AE8" s="259"/>
       <c r="AF8" s="259"/>
-      <c r="AG8" s="637"/>
+      <c r="AG8" s="662"/>
       <c r="AH8" s="259"/>
-      <c r="AI8" s="636"/>
+      <c r="AI8" s="656"/>
       <c r="AJ8" s="259"/>
       <c r="AK8" s="259"/>
       <c r="AL8" s="259"/>
       <c r="AM8" s="432"/>
-      <c r="AN8" s="647"/>
+      <c r="AN8" s="642"/>
     </row>
     <row r="9" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="234" t="s">
@@ -7555,17 +7550,17 @@
       <c r="D9" s="351" t="s">
         <v>282</v>
       </c>
-      <c r="F9" s="626"/>
-      <c r="G9" s="683"/>
-      <c r="H9" s="679"/>
+      <c r="F9" s="647"/>
+      <c r="G9" s="634"/>
+      <c r="H9" s="630"/>
       <c r="I9" s="606"/>
-      <c r="J9" s="679"/>
-      <c r="K9" s="685"/>
-      <c r="L9" s="639"/>
-      <c r="M9" s="654"/>
-      <c r="N9" s="644"/>
-      <c r="O9" s="657"/>
-      <c r="S9" s="640" t="s">
+      <c r="J9" s="630"/>
+      <c r="K9" s="636"/>
+      <c r="L9" s="670"/>
+      <c r="M9" s="649"/>
+      <c r="N9" s="673"/>
+      <c r="O9" s="652"/>
+      <c r="S9" s="663" t="s">
         <v>61</v>
       </c>
       <c r="T9" s="89"/>
@@ -7577,7 +7572,7 @@
       <c r="X9" s="435" t="s">
         <v>163</v>
       </c>
-      <c r="Y9" s="664"/>
+      <c r="Y9" s="660"/>
       <c r="Z9" s="414"/>
       <c r="AA9" s="309"/>
       <c r="AB9" s="211"/>
@@ -7587,16 +7582,16 @@
       </c>
       <c r="AE9" s="259"/>
       <c r="AF9" s="259"/>
-      <c r="AG9" s="637"/>
+      <c r="AG9" s="662"/>
       <c r="AH9" s="259"/>
-      <c r="AI9" s="636"/>
+      <c r="AI9" s="656"/>
       <c r="AJ9" s="80"/>
-      <c r="AK9" s="636" t="s">
+      <c r="AK9" s="656" t="s">
         <v>252</v>
       </c>
       <c r="AL9" s="259"/>
       <c r="AM9" s="432"/>
-      <c r="AN9" s="647"/>
+      <c r="AN9" s="642"/>
       <c r="AP9" s="2" t="s">
         <v>509</v>
       </c>
@@ -7613,20 +7608,20 @@
         <f>Boat!W8</f>
         <v>37</v>
       </c>
-      <c r="F10" s="626"/>
+      <c r="F10" s="647"/>
       <c r="N10" s="422" t="s">
         <v>397</v>
       </c>
-      <c r="O10" s="628" t="s">
+      <c r="O10" s="684" t="s">
         <v>102</v>
       </c>
-      <c r="P10" s="658" t="s">
+      <c r="P10" s="653" t="s">
         <v>401</v>
       </c>
       <c r="R10" s="74" t="s">
         <v>44</v>
       </c>
-      <c r="S10" s="641"/>
+      <c r="S10" s="671"/>
       <c r="T10" s="89"/>
       <c r="U10" s="123" t="s">
         <v>176</v>
@@ -7638,7 +7633,7 @@
       <c r="X10" s="435" t="s">
         <v>164</v>
       </c>
-      <c r="Y10" s="664"/>
+      <c r="Y10" s="660"/>
       <c r="Z10" s="413">
         <v>0</v>
       </c>
@@ -7656,16 +7651,16 @@
       <c r="AF10" s="240" t="s">
         <v>312</v>
       </c>
-      <c r="AG10" s="637"/>
+      <c r="AG10" s="662"/>
       <c r="AH10" s="80"/>
-      <c r="AI10" s="636"/>
+      <c r="AI10" s="656"/>
       <c r="AJ10" s="259"/>
-      <c r="AK10" s="636"/>
+      <c r="AK10" s="656"/>
       <c r="AL10" s="259"/>
       <c r="AM10" s="446" t="s">
         <v>319</v>
       </c>
-      <c r="AN10" s="647"/>
+      <c r="AN10" s="642"/>
       <c r="AO10" s="206" t="s">
         <v>94</v>
       </c>
@@ -7683,18 +7678,18 @@
       <c r="D11" s="172" t="s">
         <v>356</v>
       </c>
-      <c r="F11" s="626"/>
+      <c r="F11" s="647"/>
       <c r="M11" s="6"/>
       <c r="N11" s="117">
         <v>7</v>
       </c>
-      <c r="O11" s="629"/>
-      <c r="P11" s="659"/>
+      <c r="O11" s="685"/>
+      <c r="P11" s="654"/>
       <c r="Q11" s="65"/>
       <c r="R11" s="120" t="s">
         <v>221</v>
       </c>
-      <c r="S11" s="641"/>
+      <c r="S11" s="671"/>
       <c r="T11" s="102" t="s">
         <v>44</v>
       </c>
@@ -7704,7 +7699,7 @@
       <c r="X11" s="435" t="s">
         <v>165</v>
       </c>
-      <c r="Y11" s="664"/>
+      <c r="Y11" s="660"/>
       <c r="Z11" s="413"/>
       <c r="AA11" s="309">
         <v>1</v>
@@ -7718,14 +7713,14 @@
       <c r="AF11" s="259" t="s">
         <v>477</v>
       </c>
-      <c r="AG11" s="637"/>
+      <c r="AG11" s="662"/>
       <c r="AH11" s="259"/>
       <c r="AI11" s="70"/>
       <c r="AJ11" s="259"/>
       <c r="AK11" s="259"/>
       <c r="AL11" s="259"/>
       <c r="AM11" s="432"/>
-      <c r="AN11" s="647"/>
+      <c r="AN11" s="642"/>
       <c r="AP11" s="76" t="s">
         <v>485</v>
       </c>
@@ -7744,7 +7739,7 @@
       <c r="E12" s="226">
         <v>3</v>
       </c>
-      <c r="F12" s="626"/>
+      <c r="F12" s="647"/>
       <c r="G12" s="340" t="s">
         <v>401</v>
       </c>
@@ -7753,16 +7748,16 @@
       </c>
       <c r="I12" s="611"/>
       <c r="J12" s="611"/>
-      <c r="K12" s="633"/>
+      <c r="K12" s="689"/>
       <c r="L12" s="205"/>
       <c r="M12" s="205"/>
       <c r="N12" s="205"/>
-      <c r="O12" s="629"/>
-      <c r="P12" s="659"/>
+      <c r="O12" s="685"/>
+      <c r="P12" s="654"/>
       <c r="R12" s="122" t="s">
         <v>180</v>
       </c>
-      <c r="S12" s="642"/>
+      <c r="S12" s="664"/>
       <c r="T12" s="101" t="s">
         <v>44</v>
       </c>
@@ -7772,7 +7767,7 @@
       <c r="X12" s="435" t="s">
         <v>166</v>
       </c>
-      <c r="Y12" s="664"/>
+      <c r="Y12" s="660"/>
       <c r="Z12" s="411">
         <v>1</v>
       </c>
@@ -7783,16 +7778,16 @@
       <c r="AC12" s="100" t="s">
         <v>482</v>
       </c>
-      <c r="AD12" s="645" t="s">
+      <c r="AD12" s="674" t="s">
         <v>241</v>
       </c>
       <c r="AE12" s="445" t="s">
         <v>240</v>
       </c>
-      <c r="AF12" s="637" t="s">
+      <c r="AF12" s="662" t="s">
         <v>229</v>
       </c>
-      <c r="AG12" s="637"/>
+      <c r="AG12" s="662"/>
       <c r="AH12" s="240" t="s">
         <v>260</v>
       </c>
@@ -7802,10 +7797,10 @@
       <c r="AJ12" s="259"/>
       <c r="AK12" s="259"/>
       <c r="AL12" s="259"/>
-      <c r="AM12" s="661" t="s">
+      <c r="AM12" s="657" t="s">
         <v>250</v>
       </c>
-      <c r="AN12" s="647"/>
+      <c r="AN12" s="642"/>
       <c r="AO12" s="341" t="s">
         <v>96</v>
       </c>
@@ -7817,17 +7812,17 @@
       <c r="E13" s="452">
         <v>-3</v>
       </c>
-      <c r="F13" s="626"/>
+      <c r="F13" s="647"/>
       <c r="G13" s="611" t="s">
         <v>431</v>
       </c>
       <c r="H13" s="611"/>
       <c r="I13" s="611"/>
-      <c r="J13" s="633"/>
+      <c r="J13" s="689"/>
       <c r="M13" s="6"/>
       <c r="N13" s="6"/>
-      <c r="O13" s="629"/>
-      <c r="P13" s="660"/>
+      <c r="O13" s="685"/>
+      <c r="P13" s="655"/>
       <c r="T13" s="105" t="s">
         <v>44</v>
       </c>
@@ -7837,7 +7832,7 @@
       <c r="X13" s="435" t="s">
         <v>167</v>
       </c>
-      <c r="Y13" s="664"/>
+      <c r="Y13" s="660"/>
       <c r="Z13" s="411">
         <v>1</v>
       </c>
@@ -7848,8 +7843,8 @@
         <v>501</v>
       </c>
       <c r="AC13" s="16"/>
-      <c r="AD13" s="645"/>
-      <c r="AF13" s="637"/>
+      <c r="AD13" s="674"/>
+      <c r="AF13" s="662"/>
       <c r="AG13" s="80"/>
       <c r="AH13" s="240" t="s">
         <v>309</v>
@@ -7860,8 +7855,8 @@
       <c r="AJ13" s="80"/>
       <c r="AK13" s="259"/>
       <c r="AL13" s="259"/>
-      <c r="AM13" s="661"/>
-      <c r="AN13" s="647"/>
+      <c r="AM13" s="657"/>
+      <c r="AN13" s="642"/>
     </row>
     <row r="14" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="454"/>
@@ -7869,18 +7864,18 @@
       <c r="C14" s="463"/>
       <c r="D14" s="456"/>
       <c r="E14" s="457"/>
-      <c r="F14" s="626"/>
+      <c r="F14" s="647"/>
       <c r="G14" s="611" t="s">
         <v>430</v>
       </c>
       <c r="H14" s="611"/>
       <c r="I14" s="611"/>
-      <c r="J14" s="633"/>
+      <c r="J14" s="689"/>
       <c r="K14" s="2">
         <v>12</v>
       </c>
       <c r="N14" s="6"/>
-      <c r="O14" s="629"/>
+      <c r="O14" s="685"/>
       <c r="Q14" s="61" t="s">
         <v>534</v>
       </c>
@@ -7894,24 +7889,24 @@
       <c r="X14" s="435" t="s">
         <v>168</v>
       </c>
-      <c r="Y14" s="664"/>
+      <c r="Y14" s="660"/>
       <c r="Z14" s="411">
         <v>1</v>
       </c>
       <c r="AA14" s="309"/>
       <c r="AB14" s="211"/>
       <c r="AC14" s="16"/>
-      <c r="AD14" s="645"/>
+      <c r="AD14" s="674"/>
       <c r="AE14" s="259"/>
-      <c r="AF14" s="637"/>
+      <c r="AF14" s="662"/>
       <c r="AG14" s="259"/>
       <c r="AH14" s="259"/>
       <c r="AI14" s="70"/>
       <c r="AJ14" s="259"/>
       <c r="AK14" s="259"/>
       <c r="AL14" s="259"/>
-      <c r="AM14" s="661"/>
-      <c r="AN14" s="647"/>
+      <c r="AM14" s="657"/>
+      <c r="AN14" s="642"/>
     </row>
     <row r="15" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="453" t="s">
@@ -7920,8 +7915,8 @@
       <c r="C15" s="604" t="s">
         <v>374</v>
       </c>
-      <c r="F15" s="626"/>
-      <c r="O15" s="629"/>
+      <c r="F15" s="647"/>
+      <c r="O15" s="685"/>
       <c r="R15" s="99" t="s">
         <v>44</v>
       </c>
@@ -7934,7 +7929,7 @@
       <c r="X15" s="435" t="s">
         <v>169</v>
       </c>
-      <c r="Y15" s="664"/>
+      <c r="Y15" s="660"/>
       <c r="Z15" s="413">
         <v>1</v>
       </c>
@@ -7943,8 +7938,8 @@
       <c r="AC15" s="76" t="s">
         <v>480</v>
       </c>
-      <c r="AD15" s="645"/>
-      <c r="AF15" s="637"/>
+      <c r="AD15" s="674"/>
+      <c r="AF15" s="662"/>
       <c r="AG15" s="80"/>
       <c r="AH15" s="240" t="s">
         <v>449</v>
@@ -7957,8 +7952,8 @@
       </c>
       <c r="AK15" s="259"/>
       <c r="AL15" s="259"/>
-      <c r="AM15" s="661"/>
-      <c r="AN15" s="647"/>
+      <c r="AM15" s="657"/>
+      <c r="AN15" s="642"/>
       <c r="AP15" s="76" t="s">
         <v>73</v>
       </c>
@@ -7980,13 +7975,13 @@
       <c r="E16" s="226">
         <v>1</v>
       </c>
-      <c r="F16" s="626"/>
+      <c r="F16" s="647"/>
       <c r="G16" s="340" t="s">
         <v>489</v>
       </c>
       <c r="I16" s="474"/>
       <c r="J16" s="20"/>
-      <c r="O16" s="629"/>
+      <c r="O16" s="685"/>
       <c r="R16" s="439" t="s">
         <v>184</v>
       </c>
@@ -7997,7 +7992,7 @@
       <c r="X16" s="435" t="s">
         <v>170</v>
       </c>
-      <c r="Y16" s="664"/>
+      <c r="Y16" s="660"/>
       <c r="Z16" s="411">
         <v>1</v>
       </c>
@@ -8018,18 +8013,18 @@
       <c r="AM16" s="432" t="s">
         <v>318</v>
       </c>
-      <c r="AN16" s="647"/>
+      <c r="AN16" s="642"/>
       <c r="AP16" s="76" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="17" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="80"/>
-      <c r="F17" s="626"/>
+      <c r="F17" s="647"/>
       <c r="I17" s="475"/>
       <c r="J17" s="20"/>
       <c r="N17" s="6"/>
-      <c r="O17" s="629"/>
+      <c r="O17" s="685"/>
       <c r="Q17" s="21" t="s">
         <v>532</v>
       </c>
@@ -8049,7 +8044,7 @@
       <c r="X17" s="435" t="s">
         <v>171</v>
       </c>
-      <c r="Y17" s="664"/>
+      <c r="Y17" s="660"/>
       <c r="Z17" s="413"/>
       <c r="AA17" s="309"/>
       <c r="AB17" s="211"/>
@@ -8074,7 +8069,7 @@
       <c r="AK17" s="259"/>
       <c r="AL17" s="80"/>
       <c r="AM17" s="432"/>
-      <c r="AN17" s="647"/>
+      <c r="AN17" s="642"/>
       <c r="AO17" s="206" t="s">
         <v>498</v>
       </c>
@@ -8098,21 +8093,21 @@
       <c r="E18" s="99" t="s">
         <v>44</v>
       </c>
-      <c r="F18" s="626"/>
+      <c r="F18" s="647"/>
       <c r="G18" s="340" t="s">
         <v>529</v>
       </c>
       <c r="I18" s="24"/>
       <c r="J18" s="20"/>
-      <c r="O18" s="629"/>
+      <c r="O18" s="685"/>
       <c r="Q18" s="112"/>
-      <c r="R18" s="621" t="s">
+      <c r="R18" s="679" t="s">
         <v>537</v>
       </c>
       <c r="T18" s="100" t="s">
         <v>44</v>
       </c>
-      <c r="U18" s="669" t="s">
+      <c r="U18" s="618" t="s">
         <v>44</v>
       </c>
       <c r="V18" s="120"/>
@@ -8122,7 +8117,7 @@
       <c r="X18" s="435" t="s">
         <v>172</v>
       </c>
-      <c r="Y18" s="664"/>
+      <c r="Y18" s="660"/>
       <c r="Z18" s="413">
         <v>1</v>
       </c>
@@ -8133,38 +8128,38 @@
       <c r="AC18" s="16"/>
       <c r="AD18" s="16"/>
       <c r="AE18" s="259"/>
-      <c r="AF18" s="636" t="s">
+      <c r="AF18" s="656" t="s">
         <v>476</v>
       </c>
       <c r="AG18" s="259"/>
       <c r="AH18" s="70"/>
       <c r="AI18" s="70"/>
-      <c r="AJ18" s="662" t="s">
+      <c r="AJ18" s="658" t="s">
         <v>316</v>
       </c>
       <c r="AK18" s="259"/>
       <c r="AL18" s="80"/>
       <c r="AM18" s="432"/>
-      <c r="AN18" s="647"/>
+      <c r="AN18" s="642"/>
       <c r="AP18" s="76" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="19" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F19" s="626"/>
+      <c r="F19" s="647"/>
       <c r="I19" s="221"/>
-      <c r="O19" s="629"/>
-      <c r="R19" s="622"/>
+      <c r="O19" s="685"/>
+      <c r="R19" s="680"/>
       <c r="S19" s="30" t="s">
         <v>535</v>
       </c>
-      <c r="U19" s="670"/>
+      <c r="U19" s="619"/>
       <c r="V19" s="146"/>
       <c r="W19" s="146"/>
       <c r="X19" s="435" t="s">
         <v>173</v>
       </c>
-      <c r="Y19" s="664"/>
+      <c r="Y19" s="660"/>
       <c r="Z19" s="411">
         <v>1</v>
       </c>
@@ -8173,17 +8168,17 @@
       <c r="AC19" s="16"/>
       <c r="AD19" s="16"/>
       <c r="AE19" s="259"/>
-      <c r="AF19" s="636"/>
+      <c r="AF19" s="656"/>
       <c r="AG19" s="259"/>
       <c r="AH19" s="259"/>
       <c r="AI19" s="70"/>
-      <c r="AJ19" s="662"/>
+      <c r="AJ19" s="658"/>
       <c r="AK19" s="464" t="s">
         <v>252</v>
       </c>
       <c r="AL19" s="80"/>
       <c r="AM19" s="432"/>
-      <c r="AN19" s="647"/>
+      <c r="AN19" s="642"/>
       <c r="AP19" s="76" t="s">
         <v>469</v>
       </c>
@@ -8204,24 +8199,24 @@
       <c r="E20" s="441">
         <v>-1</v>
       </c>
-      <c r="F20" s="626"/>
+      <c r="F20" s="647"/>
       <c r="G20" s="340" t="s">
         <v>492</v>
       </c>
       <c r="I20" s="221"/>
-      <c r="O20" s="629"/>
-      <c r="Q20" s="631" t="s">
+      <c r="O20" s="685"/>
+      <c r="Q20" s="687" t="s">
         <v>48</v>
       </c>
       <c r="T20" s="408" t="s">
         <v>44</v>
       </c>
-      <c r="U20" s="671"/>
+      <c r="U20" s="620"/>
       <c r="W20" s="409"/>
       <c r="X20" s="436" t="s">
         <v>174</v>
       </c>
-      <c r="Y20" s="664"/>
+      <c r="Y20" s="660"/>
       <c r="Z20" s="415">
         <v>1</v>
       </c>
@@ -8246,7 +8241,7 @@
       <c r="AM20" s="384" t="s">
         <v>250</v>
       </c>
-      <c r="AN20" s="647"/>
+      <c r="AN20" s="642"/>
       <c r="AO20" s="341" t="s">
         <v>461</v>
       </c>
@@ -8267,20 +8262,20 @@
       <c r="E21" s="267">
         <v>0</v>
       </c>
-      <c r="F21" s="626"/>
+      <c r="F21" s="647"/>
       <c r="I21" s="221"/>
-      <c r="O21" s="629"/>
-      <c r="Q21" s="632"/>
+      <c r="O21" s="685"/>
+      <c r="Q21" s="688"/>
       <c r="T21" s="426"/>
       <c r="U21" s="14"/>
-      <c r="V21" s="666"/>
+      <c r="V21" s="615"/>
       <c r="W21" s="430" t="s">
         <v>175</v>
       </c>
       <c r="X21" s="433" t="s">
         <v>186</v>
       </c>
-      <c r="Y21" s="664"/>
+      <c r="Y21" s="660"/>
       <c r="Z21" s="449">
         <v>3</v>
       </c>
@@ -8311,15 +8306,15 @@
       <c r="AM21" s="432" t="s">
         <v>546</v>
       </c>
-      <c r="AN21" s="647"/>
+      <c r="AN21" s="642"/>
     </row>
     <row r="22" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F22" s="626"/>
+      <c r="F22" s="647"/>
       <c r="G22" s="340" t="s">
         <v>490</v>
       </c>
       <c r="I22" s="221"/>
-      <c r="O22" s="629"/>
+      <c r="O22" s="685"/>
       <c r="R22" s="438" t="s">
         <v>44</v>
       </c>
@@ -8327,14 +8322,14 @@
         <v>44</v>
       </c>
       <c r="U22" s="15"/>
-      <c r="V22" s="667"/>
+      <c r="V22" s="616"/>
       <c r="W22" s="430" t="s">
         <v>175</v>
       </c>
       <c r="X22" s="433" t="s">
         <v>187</v>
       </c>
-      <c r="Y22" s="664"/>
+      <c r="Y22" s="660"/>
       <c r="Z22" s="419"/>
       <c r="AA22" s="10"/>
       <c r="AB22" s="419"/>
@@ -8345,7 +8340,7 @@
       <c r="AG22" s="6"/>
       <c r="AH22" s="6"/>
       <c r="AI22" s="6"/>
-      <c r="AJ22" s="636" t="s">
+      <c r="AJ22" s="656" t="s">
         <v>473</v>
       </c>
       <c r="AK22" s="259"/>
@@ -8353,7 +8348,7 @@
         <v>479</v>
       </c>
       <c r="AM22" s="302"/>
-      <c r="AN22" s="647"/>
+      <c r="AN22" s="642"/>
     </row>
     <row r="23" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="233" t="s">
@@ -8371,22 +8366,22 @@
       <c r="E23" s="227">
         <v>1</v>
       </c>
-      <c r="F23" s="626"/>
+      <c r="F23" s="647"/>
       <c r="I23" s="221"/>
-      <c r="O23" s="629"/>
-      <c r="Q23" s="631" t="s">
+      <c r="O23" s="685"/>
+      <c r="Q23" s="687" t="s">
         <v>144</v>
       </c>
       <c r="T23" s="17"/>
       <c r="U23" s="424" t="s">
         <v>44</v>
       </c>
-      <c r="V23" s="667"/>
+      <c r="V23" s="616"/>
       <c r="W23" s="148"/>
       <c r="X23" s="433" t="s">
         <v>188</v>
       </c>
-      <c r="Y23" s="664"/>
+      <c r="Y23" s="660"/>
       <c r="Z23" s="17"/>
       <c r="AA23" s="10"/>
       <c r="AB23" s="419"/>
@@ -8397,13 +8392,13 @@
       <c r="AG23" s="6"/>
       <c r="AH23" s="6"/>
       <c r="AI23" s="6"/>
-      <c r="AJ23" s="636"/>
+      <c r="AJ23" s="656"/>
       <c r="AK23" s="259"/>
       <c r="AL23" s="80" t="s">
         <v>508</v>
       </c>
       <c r="AM23" s="302"/>
-      <c r="AN23" s="647"/>
+      <c r="AN23" s="642"/>
     </row>
     <row r="24" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="444" t="s">
@@ -8421,23 +8416,23 @@
       <c r="E24" s="440">
         <v>1</v>
       </c>
-      <c r="F24" s="626"/>
+      <c r="F24" s="647"/>
       <c r="G24" s="61" t="s">
         <v>491</v>
       </c>
       <c r="I24" s="221"/>
-      <c r="O24" s="629"/>
-      <c r="Q24" s="632"/>
+      <c r="O24" s="685"/>
+      <c r="Q24" s="688"/>
       <c r="T24" s="17"/>
       <c r="U24" s="229" t="s">
         <v>44</v>
       </c>
-      <c r="V24" s="667"/>
+      <c r="V24" s="616"/>
       <c r="W24" s="148"/>
       <c r="X24" s="433" t="s">
         <v>185</v>
       </c>
-      <c r="Y24" s="664"/>
+      <c r="Y24" s="660"/>
       <c r="Z24" s="17"/>
       <c r="AA24" s="10"/>
       <c r="AB24" s="419"/>
@@ -8456,12 +8451,12 @@
         <v>464</v>
       </c>
       <c r="AM24" s="302"/>
-      <c r="AN24" s="647"/>
+      <c r="AN24" s="642"/>
     </row>
     <row r="25" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F25" s="626"/>
+      <c r="F25" s="647"/>
       <c r="I25" s="221"/>
-      <c r="O25" s="629"/>
+      <c r="O25" s="685"/>
       <c r="P25" s="206" t="s">
         <v>281</v>
       </c>
@@ -8474,12 +8469,12 @@
       <c r="U25" s="404" t="s">
         <v>44</v>
       </c>
-      <c r="V25" s="668"/>
+      <c r="V25" s="617"/>
       <c r="W25" s="148"/>
       <c r="X25" s="433" t="s">
         <v>189</v>
       </c>
-      <c r="Y25" s="664"/>
+      <c r="Y25" s="660"/>
       <c r="Z25" s="17"/>
       <c r="AA25" s="10"/>
       <c r="AB25" s="419"/>
@@ -8496,7 +8491,7 @@
       <c r="AK25" s="142"/>
       <c r="AL25" s="6"/>
       <c r="AM25" s="302"/>
-      <c r="AN25" s="647"/>
+      <c r="AN25" s="642"/>
     </row>
     <row r="26" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="233" t="s">
@@ -8514,17 +8509,17 @@
       <c r="E26" s="383">
         <v>1</v>
       </c>
-      <c r="F26" s="626"/>
+      <c r="F26" s="647"/>
       <c r="G26" s="340" t="s">
         <v>488</v>
       </c>
       <c r="I26" s="221"/>
-      <c r="O26" s="629"/>
-      <c r="P26" s="649" t="s">
+      <c r="O26" s="685"/>
+      <c r="P26" s="644" t="s">
         <v>527</v>
       </c>
-      <c r="Q26" s="650"/>
-      <c r="R26" s="623" t="s">
+      <c r="Q26" s="645"/>
+      <c r="R26" s="681" t="s">
         <v>536</v>
       </c>
       <c r="T26" s="180"/>
@@ -8536,7 +8531,7 @@
       <c r="X26" s="433" t="s">
         <v>181</v>
       </c>
-      <c r="Y26" s="664"/>
+      <c r="Y26" s="660"/>
       <c r="Z26" s="17"/>
       <c r="AA26" s="10"/>
       <c r="AB26" s="419"/>
@@ -8563,7 +8558,7 @@
       <c r="AM26" s="446" t="s">
         <v>457</v>
       </c>
-      <c r="AN26" s="647"/>
+      <c r="AN26" s="642"/>
     </row>
     <row r="27" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B27" s="21" t="s">
@@ -8575,13 +8570,13 @@
       <c r="E27" s="267" t="s">
         <v>44</v>
       </c>
-      <c r="F27" s="627"/>
+      <c r="F27" s="683"/>
       <c r="G27" s="61" t="s">
         <v>545</v>
       </c>
       <c r="I27" s="222"/>
-      <c r="O27" s="630"/>
-      <c r="R27" s="624"/>
+      <c r="O27" s="686"/>
+      <c r="R27" s="682"/>
       <c r="S27" s="425" t="s">
         <v>54</v>
       </c>
@@ -8594,7 +8589,7 @@
       <c r="X27" s="433" t="s">
         <v>531</v>
       </c>
-      <c r="Y27" s="665"/>
+      <c r="Y27" s="661"/>
       <c r="Z27" s="161"/>
       <c r="AA27" s="13"/>
       <c r="AB27" s="420"/>
@@ -8611,10 +8606,48 @@
       <c r="AM27" s="384" t="s">
         <v>320</v>
       </c>
-      <c r="AN27" s="648"/>
+      <c r="AN27" s="643"/>
     </row>
   </sheetData>
   <mergeCells count="54">
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="R18:R19"/>
+    <mergeCell ref="R26:R27"/>
+    <mergeCell ref="F2:F27"/>
+    <mergeCell ref="O10:O27"/>
+    <mergeCell ref="Q20:Q21"/>
+    <mergeCell ref="Q23:Q24"/>
+    <mergeCell ref="G14:J14"/>
+    <mergeCell ref="G13:J13"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="AI6:AI10"/>
+    <mergeCell ref="AF12:AF15"/>
+    <mergeCell ref="AG7:AG12"/>
+    <mergeCell ref="L8:L9"/>
+    <mergeCell ref="S9:S12"/>
+    <mergeCell ref="N8:N9"/>
+    <mergeCell ref="AD12:AD15"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="AN1:AN27"/>
+    <mergeCell ref="P26:Q26"/>
+    <mergeCell ref="Q2:Q3"/>
+    <mergeCell ref="M2:M9"/>
+    <mergeCell ref="O2:O9"/>
+    <mergeCell ref="P10:P13"/>
+    <mergeCell ref="AK6:AK7"/>
+    <mergeCell ref="AM12:AM15"/>
+    <mergeCell ref="AF18:AF19"/>
+    <mergeCell ref="AJ18:AJ19"/>
+    <mergeCell ref="Y1:Y27"/>
+    <mergeCell ref="AJ22:AJ23"/>
+    <mergeCell ref="AK9:AK10"/>
+    <mergeCell ref="AD3:AD4"/>
+    <mergeCell ref="S2:S3"/>
+    <mergeCell ref="R2:R3"/>
     <mergeCell ref="V21:V25"/>
     <mergeCell ref="U18:U20"/>
     <mergeCell ref="C2:C3"/>
@@ -8631,44 +8664,6 @@
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="B4:B5"/>
-    <mergeCell ref="AN1:AN27"/>
-    <mergeCell ref="P26:Q26"/>
-    <mergeCell ref="Q2:Q3"/>
-    <mergeCell ref="M2:M9"/>
-    <mergeCell ref="O2:O9"/>
-    <mergeCell ref="P10:P13"/>
-    <mergeCell ref="AK6:AK7"/>
-    <mergeCell ref="AM12:AM15"/>
-    <mergeCell ref="AF18:AF19"/>
-    <mergeCell ref="AJ18:AJ19"/>
-    <mergeCell ref="Y1:Y27"/>
-    <mergeCell ref="AJ22:AJ23"/>
-    <mergeCell ref="AK9:AK10"/>
-    <mergeCell ref="AD3:AD4"/>
-    <mergeCell ref="S2:S3"/>
-    <mergeCell ref="R2:R3"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="AI6:AI10"/>
-    <mergeCell ref="AF12:AF15"/>
-    <mergeCell ref="AG7:AG12"/>
-    <mergeCell ref="L8:L9"/>
-    <mergeCell ref="S9:S12"/>
-    <mergeCell ref="N8:N9"/>
-    <mergeCell ref="AD12:AD15"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="R18:R19"/>
-    <mergeCell ref="R26:R27"/>
-    <mergeCell ref="F2:F27"/>
-    <mergeCell ref="O10:O27"/>
-    <mergeCell ref="Q20:Q21"/>
-    <mergeCell ref="Q23:Q24"/>
-    <mergeCell ref="G14:J14"/>
-    <mergeCell ref="G13:J13"/>
-    <mergeCell ref="H12:K12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8705,12 +8700,12 @@
       <c r="B1" s="609" t="s">
         <v>311</v>
       </c>
-      <c r="C1" s="633"/>
+      <c r="C1" s="689"/>
       <c r="D1" s="206"/>
       <c r="J1" s="609" t="s">
         <v>69</v>
       </c>
-      <c r="K1" s="633"/>
+      <c r="K1" s="689"/>
       <c r="L1" s="197" t="s">
         <v>331</v>
       </c>
@@ -9113,7 +9108,7 @@
       <c r="P1" s="402" t="s">
         <v>398</v>
       </c>
-      <c r="Q1" s="707" t="s">
+      <c r="Q1" s="720" t="s">
         <v>180</v>
       </c>
       <c r="R1" s="100" t="s">
@@ -9137,7 +9132,7 @@
       <c r="AA1" s="523" t="s">
         <v>438</v>
       </c>
-      <c r="AB1" s="701" t="s">
+      <c r="AB1" s="714" t="s">
         <v>596</v>
       </c>
       <c r="AC1" s="99" t="s">
@@ -9159,32 +9154,32 @@
       </c>
     </row>
     <row r="2" spans="1:38" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="712">
+      <c r="A2" s="699">
         <f ca="1">TODAY()</f>
-        <v>45283</v>
-      </c>
-      <c r="B2" s="714" t="s">
+        <v>45284</v>
+      </c>
+      <c r="B2" s="701" t="s">
         <v>380</v>
       </c>
-      <c r="C2" s="651" t="s">
+      <c r="C2" s="621" t="s">
         <v>358</v>
       </c>
-      <c r="D2" s="716" t="s">
+      <c r="D2" s="703" t="s">
         <v>102</v>
       </c>
-      <c r="E2" s="718" t="s">
+      <c r="E2" s="705" t="s">
         <v>64</v>
       </c>
       <c r="F2" s="193" t="s">
         <v>219</v>
       </c>
-      <c r="G2" s="619" t="s">
+      <c r="G2" s="665" t="s">
         <v>373</v>
       </c>
       <c r="H2" s="208" t="s">
         <v>219</v>
       </c>
-      <c r="I2" s="698" t="s">
+      <c r="I2" s="711" t="s">
         <v>102</v>
       </c>
       <c r="J2" s="400" t="s">
@@ -9208,7 +9203,7 @@
       <c r="P2" s="403">
         <v>40</v>
       </c>
-      <c r="Q2" s="708"/>
+      <c r="Q2" s="721"/>
       <c r="R2" s="21">
         <f>R7+R20</f>
         <v>2</v>
@@ -9233,7 +9228,7 @@
         <f>IF((Z2+T2)&gt;0,0,-1)</f>
         <v>0</v>
       </c>
-      <c r="AB2" s="702"/>
+      <c r="AB2" s="715"/>
       <c r="AC2" s="35"/>
       <c r="AH2" s="6" t="s">
         <v>453</v>
@@ -9250,14 +9245,14 @@
       </c>
     </row>
     <row r="3" spans="1:38" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="713"/>
-      <c r="B3" s="715"/>
-      <c r="C3" s="652"/>
-      <c r="D3" s="717"/>
-      <c r="E3" s="719"/>
-      <c r="G3" s="620"/>
+      <c r="A3" s="700"/>
+      <c r="B3" s="702"/>
+      <c r="C3" s="622"/>
+      <c r="D3" s="704"/>
+      <c r="E3" s="706"/>
+      <c r="G3" s="666"/>
       <c r="H3" s="6"/>
-      <c r="I3" s="699"/>
+      <c r="I3" s="712"/>
       <c r="K3" s="24">
         <v>2</v>
       </c>
@@ -9272,7 +9267,7 @@
       <c r="V3" s="475"/>
       <c r="W3" s="6"/>
       <c r="X3" s="475"/>
-      <c r="AB3" s="702"/>
+      <c r="AB3" s="715"/>
       <c r="AC3" s="35"/>
       <c r="AE3" s="100" t="s">
         <v>591</v>
@@ -9301,10 +9296,10 @@
         <v>381</v>
       </c>
       <c r="B4" s="245"/>
-      <c r="C4" s="720" t="s">
+      <c r="C4" s="707" t="s">
         <v>177</v>
       </c>
-      <c r="I4" s="699"/>
+      <c r="I4" s="712"/>
       <c r="R4" s="476" t="s">
         <v>591</v>
       </c>
@@ -9316,7 +9311,7 @@
       <c r="V4" s="475"/>
       <c r="W4" s="6"/>
       <c r="X4" s="475"/>
-      <c r="AB4" s="702"/>
+      <c r="AB4" s="715"/>
       <c r="AC4" s="35"/>
       <c r="AE4" s="20"/>
       <c r="AF4" s="100" t="s">
@@ -9347,7 +9342,7 @@
       <c r="B5" s="100" t="s">
         <v>358</v>
       </c>
-      <c r="C5" s="721"/>
+      <c r="C5" s="708"/>
       <c r="D5" s="224" t="s">
         <v>102</v>
       </c>
@@ -9363,7 +9358,7 @@
       <c r="H5" s="208" t="s">
         <v>219</v>
       </c>
-      <c r="I5" s="699"/>
+      <c r="I5" s="712"/>
       <c r="J5" s="401" t="s">
         <v>269</v>
       </c>
@@ -9390,7 +9385,7 @@
       <c r="V5" s="473"/>
       <c r="W5" s="6"/>
       <c r="X5" s="473"/>
-      <c r="AB5" s="702"/>
+      <c r="AB5" s="715"/>
       <c r="AC5" s="2" t="s">
         <v>594</v>
       </c>
@@ -9404,19 +9399,19 @@
       <c r="AL5" s="473"/>
     </row>
     <row r="6" spans="1:38" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="709" t="s">
+      <c r="A6" s="696" t="s">
         <v>286</v>
       </c>
       <c r="B6" s="105" t="s">
         <v>198</v>
       </c>
-      <c r="C6" s="634"/>
-      <c r="D6" s="635"/>
+      <c r="C6" s="667"/>
+      <c r="D6" s="668"/>
       <c r="E6" s="96">
         <v>1</v>
       </c>
       <c r="G6" s="605"/>
-      <c r="I6" s="699"/>
+      <c r="I6" s="712"/>
       <c r="P6" s="61" t="s">
         <v>594</v>
       </c>
@@ -9428,7 +9423,7 @@
         <f>S7-S12-SUM(V2:V10)</f>
         <v>0</v>
       </c>
-      <c r="AB6" s="702"/>
+      <c r="AB6" s="715"/>
       <c r="AC6" s="35"/>
       <c r="AE6" s="64">
         <f>AE7-SUM(AL2:AL10)+AE11</f>
@@ -9444,7 +9439,7 @@
       <c r="AL6" s="112"/>
     </row>
     <row r="7" spans="1:38" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="710"/>
+      <c r="A7" s="697"/>
       <c r="B7" s="100" t="s">
         <v>154</v>
       </c>
@@ -9455,7 +9450,7 @@
         <v>135</v>
       </c>
       <c r="G7" s="605"/>
-      <c r="I7" s="699"/>
+      <c r="I7" s="712"/>
       <c r="M7" s="16" t="s">
         <v>348</v>
       </c>
@@ -9483,7 +9478,7 @@
       <c r="V7" s="474"/>
       <c r="W7" s="6"/>
       <c r="X7" s="474"/>
-      <c r="AB7" s="702"/>
+      <c r="AB7" s="715"/>
       <c r="AC7" s="99" t="s">
         <v>595</v>
       </c>
@@ -9509,7 +9504,7 @@
       </c>
     </row>
     <row r="8" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="711"/>
+      <c r="A8" s="698"/>
       <c r="B8" s="214" t="s">
         <v>28</v>
       </c>
@@ -9518,7 +9513,7 @@
         <v>3</v>
       </c>
       <c r="G8" s="605"/>
-      <c r="I8" s="699"/>
+      <c r="I8" s="712"/>
       <c r="N8" s="80"/>
       <c r="U8" s="6" t="s">
         <v>250</v>
@@ -9532,7 +9527,7 @@
       <c r="X8" s="475">
         <v>1</v>
       </c>
-      <c r="AB8" s="702"/>
+      <c r="AB8" s="715"/>
       <c r="AC8" s="521"/>
       <c r="AH8" s="6" t="s">
         <v>600</v>
@@ -9559,7 +9554,7 @@
       </c>
       <c r="G9" s="605"/>
       <c r="H9" s="6"/>
-      <c r="I9" s="699"/>
+      <c r="I9" s="712"/>
       <c r="M9" s="19" t="s">
         <v>526</v>
       </c>
@@ -9570,7 +9565,7 @@
         <v>510</v>
       </c>
       <c r="X9" s="472"/>
-      <c r="AB9" s="702"/>
+      <c r="AB9" s="715"/>
       <c r="AC9" s="521"/>
       <c r="AE9" s="20"/>
       <c r="AF9" s="20"/>
@@ -9602,7 +9597,7 @@
         <v>37</v>
       </c>
       <c r="G10" s="605"/>
-      <c r="I10" s="699"/>
+      <c r="I10" s="712"/>
       <c r="J10" s="24" t="s">
         <v>373</v>
       </c>
@@ -9621,7 +9616,7 @@
       <c r="X10" s="475">
         <v>1</v>
       </c>
-      <c r="AB10" s="702"/>
+      <c r="AB10" s="715"/>
       <c r="AC10" s="521"/>
       <c r="AE10" s="20"/>
       <c r="AF10" s="20"/>
@@ -9649,7 +9644,7 @@
         <v>266</v>
       </c>
       <c r="G11" s="605"/>
-      <c r="I11" s="699"/>
+      <c r="I11" s="712"/>
       <c r="J11" s="24" t="s">
         <v>194</v>
       </c>
@@ -9675,13 +9670,13 @@
       <c r="S11" s="24">
         <v>2</v>
       </c>
-      <c r="U11" s="704" t="s">
+      <c r="U11" s="717" t="s">
         <v>559</v>
       </c>
-      <c r="V11" s="705"/>
-      <c r="W11" s="705"/>
-      <c r="X11" s="706"/>
-      <c r="AB11" s="703"/>
+      <c r="V11" s="718"/>
+      <c r="W11" s="718"/>
+      <c r="X11" s="719"/>
+      <c r="AB11" s="716"/>
       <c r="AC11" s="99" t="s">
         <v>597</v>
       </c>
@@ -9695,13 +9690,13 @@
         <v>3</v>
       </c>
       <c r="AG11" s="418"/>
-      <c r="AH11" s="704" t="s">
+      <c r="AH11" s="717" t="s">
         <v>613</v>
       </c>
-      <c r="AI11" s="705"/>
-      <c r="AJ11" s="705"/>
-      <c r="AK11" s="705"/>
-      <c r="AL11" s="706"/>
+      <c r="AI11" s="718"/>
+      <c r="AJ11" s="718"/>
+      <c r="AK11" s="718"/>
+      <c r="AL11" s="719"/>
     </row>
     <row r="12" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="229" t="s">
@@ -9712,7 +9707,7 @@
         <v>3</v>
       </c>
       <c r="G12" s="605"/>
-      <c r="I12" s="699"/>
+      <c r="I12" s="712"/>
       <c r="J12" s="24" t="s">
         <v>517</v>
       </c>
@@ -9745,7 +9740,7 @@
       </c>
       <c r="D13" s="20"/>
       <c r="G13" s="605"/>
-      <c r="I13" s="699"/>
+      <c r="I13" s="712"/>
       <c r="J13" s="108" t="s">
         <v>549</v>
       </c>
@@ -9789,7 +9784,7 @@
       <c r="H14" s="208" t="s">
         <v>219</v>
       </c>
-      <c r="I14" s="699"/>
+      <c r="I14" s="712"/>
       <c r="U14" s="67" t="s">
         <v>80</v>
       </c>
@@ -9816,7 +9811,7 @@
       <c r="H15" s="273">
         <v>0</v>
       </c>
-      <c r="I15" s="699"/>
+      <c r="I15" s="712"/>
       <c r="J15" s="108" t="s">
         <v>153</v>
       </c>
@@ -9847,7 +9842,7 @@
       <c r="D16" s="2" t="s">
         <v>493</v>
       </c>
-      <c r="I16" s="699"/>
+      <c r="I16" s="712"/>
       <c r="K16" s="100" t="s">
         <v>44</v>
       </c>
@@ -9891,7 +9886,7 @@
       <c r="G17" s="2" t="s">
         <v>424</v>
       </c>
-      <c r="I17" s="699"/>
+      <c r="I17" s="712"/>
       <c r="L17" s="2" t="s">
         <v>427</v>
       </c>
@@ -9909,13 +9904,13 @@
     </row>
     <row r="18" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G18" s="16"/>
-      <c r="I18" s="699"/>
+      <c r="I18" s="712"/>
       <c r="L18" s="16"/>
       <c r="M18" s="21"/>
-      <c r="O18" s="696" t="s">
+      <c r="O18" s="709" t="s">
         <v>518</v>
       </c>
-      <c r="P18" s="697"/>
+      <c r="P18" s="710"/>
       <c r="Q18" s="127" t="s">
         <v>44</v>
       </c>
@@ -9941,7 +9936,7 @@
       </c>
     </row>
     <row r="19" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I19" s="699"/>
+      <c r="I19" s="712"/>
       <c r="M19" s="21" t="s">
         <v>426</v>
       </c>
@@ -9977,7 +9972,7 @@
       <c r="G20" s="2" t="s">
         <v>424</v>
       </c>
-      <c r="I20" s="699"/>
+      <c r="I20" s="712"/>
       <c r="K20" s="19" t="s">
         <v>423</v>
       </c>
@@ -10012,7 +10007,7 @@
       </c>
     </row>
     <row r="21" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I21" s="699"/>
+      <c r="I21" s="712"/>
       <c r="M21" s="218" t="s">
         <v>412</v>
       </c>
@@ -10046,7 +10041,7 @@
       <c r="G22" s="2" t="s">
         <v>424</v>
       </c>
-      <c r="I22" s="699"/>
+      <c r="I22" s="712"/>
       <c r="P22" s="99" t="s">
         <v>593</v>
       </c>
@@ -10061,7 +10056,7 @@
       <c r="E23" s="285" t="s">
         <v>44</v>
       </c>
-      <c r="I23" s="699"/>
+      <c r="I23" s="712"/>
       <c r="Q23" s="24">
         <f>SUM(V23:V31)</f>
         <v>5</v>
@@ -10078,7 +10073,7 @@
       </c>
     </row>
     <row r="24" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I24" s="699"/>
+      <c r="I24" s="712"/>
       <c r="U24" s="35"/>
       <c r="V24" s="514">
         <v>0</v>
@@ -10106,7 +10101,7 @@
       <c r="H25" s="193" t="s">
         <v>267</v>
       </c>
-      <c r="I25" s="699"/>
+      <c r="I25" s="712"/>
       <c r="J25" s="401" t="s">
         <v>270</v>
       </c>
@@ -10151,7 +10146,7 @@
       <c r="H26" s="19" t="s">
         <v>219</v>
       </c>
-      <c r="I26" s="699"/>
+      <c r="I26" s="712"/>
       <c r="K26" s="24">
         <v>15</v>
       </c>
@@ -10186,7 +10181,7 @@
       </c>
     </row>
     <row r="27" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I27" s="699"/>
+      <c r="I27" s="712"/>
       <c r="O27" s="2" t="s">
         <v>98</v>
       </c>
@@ -10213,7 +10208,7 @@
       <c r="E28" s="217">
         <v>2</v>
       </c>
-      <c r="I28" s="699"/>
+      <c r="I28" s="712"/>
       <c r="Q28" s="6"/>
       <c r="R28" s="112"/>
       <c r="T28" s="142"/>
@@ -10235,7 +10230,7 @@
       <c r="H29" s="193" t="s">
         <v>268</v>
       </c>
-      <c r="I29" s="700"/>
+      <c r="I29" s="713"/>
       <c r="J29" s="326"/>
       <c r="L29" s="96" t="s">
         <v>274</v>
@@ -10293,6 +10288,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="O18:P18"/>
+    <mergeCell ref="I2:I29"/>
+    <mergeCell ref="AB1:AB11"/>
+    <mergeCell ref="AH11:AL11"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="Q1:Q2"/>
+    <mergeCell ref="U11:X11"/>
     <mergeCell ref="A6:A8"/>
     <mergeCell ref="G5:G14"/>
     <mergeCell ref="A2:A3"/>
@@ -10304,13 +10306,6 @@
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="G2:G3"/>
     <mergeCell ref="C2:C3"/>
-    <mergeCell ref="O18:P18"/>
-    <mergeCell ref="I2:I29"/>
-    <mergeCell ref="AB1:AB11"/>
-    <mergeCell ref="AH11:AL11"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="Q1:Q2"/>
-    <mergeCell ref="U11:X11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -10321,7 +10316,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2029A93E-B53C-4201-9F17-439C144F3CF1}">
   <dimension ref="A1:AT37"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A32" sqref="A32:B32"/>
     </sheetView>
   </sheetViews>
@@ -10420,16 +10415,16 @@
       </c>
       <c r="S1" s="151">
         <f ca="1">TODAY()</f>
-        <v>45283</v>
-      </c>
-      <c r="T1" s="741"/>
+        <v>45284</v>
+      </c>
+      <c r="T1" s="748"/>
       <c r="U1" s="142"/>
       <c r="V1" s="6"/>
       <c r="W1" s="6"/>
-      <c r="X1" s="725" t="s">
+      <c r="X1" s="732" t="s">
         <v>442</v>
       </c>
-      <c r="Y1" s="726"/>
+      <c r="Y1" s="733"/>
       <c r="Z1" s="308">
         <f>68-(W8+Y3+X3+U3)</f>
         <v>0</v>
@@ -10445,23 +10440,23 @@
       <c r="AD1" s="304" t="s">
         <v>44</v>
       </c>
-      <c r="AE1" s="727" t="s">
+      <c r="AE1" s="734" t="s">
         <v>190</v>
       </c>
-      <c r="AF1" s="728"/>
-      <c r="AG1" s="729"/>
-      <c r="AH1" s="730" t="s">
+      <c r="AF1" s="735"/>
+      <c r="AG1" s="736"/>
+      <c r="AH1" s="737" t="s">
         <v>294</v>
       </c>
-      <c r="AI1" s="731"/>
-      <c r="AJ1" s="732"/>
+      <c r="AI1" s="738"/>
+      <c r="AJ1" s="739"/>
       <c r="AK1" s="558"/>
       <c r="AL1" s="558"/>
-      <c r="AM1" s="722" t="s">
+      <c r="AM1" s="729" t="s">
         <v>445</v>
       </c>
-      <c r="AN1" s="723"/>
-      <c r="AO1" s="724"/>
+      <c r="AN1" s="730"/>
+      <c r="AO1" s="731"/>
       <c r="AR1" s="142"/>
     </row>
     <row r="2" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10476,27 +10471,27 @@
         <f>K2+L2</f>
         <v>20</v>
       </c>
-      <c r="K2" s="749">
+      <c r="K2" s="727">
         <f>SUM(K4:K29)</f>
         <v>12</v>
       </c>
-      <c r="L2" s="747">
+      <c r="L2" s="725">
         <f>SUM(L4:L37)</f>
         <v>8</v>
       </c>
-      <c r="M2" s="733">
+      <c r="M2" s="740">
         <f>SUM(M5:M30)</f>
         <v>1</v>
       </c>
-      <c r="N2" s="735">
+      <c r="N2" s="742">
         <f>SUM(N4:N29)</f>
         <v>10</v>
       </c>
-      <c r="O2" s="737">
+      <c r="O2" s="744">
         <f>SUM(O4:O29)</f>
         <v>8</v>
       </c>
-      <c r="P2" s="643">
+      <c r="P2" s="672">
         <f>SUM(N30:N37)* (-1)</f>
         <v>-3</v>
       </c>
@@ -10509,14 +10504,14 @@
       <c r="S2" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="T2" s="742"/>
+      <c r="T2" s="749"/>
       <c r="U2" s="543" t="s">
         <v>263</v>
       </c>
       <c r="V2" s="487" t="s">
         <v>220</v>
       </c>
-      <c r="W2" s="739" t="s">
+      <c r="W2" s="746" t="s">
         <v>235</v>
       </c>
       <c r="X2" s="488" t="s">
@@ -10588,12 +10583,12 @@
         <f>V3+X3+Y3+U3</f>
         <v>68</v>
       </c>
-      <c r="K3" s="750"/>
-      <c r="L3" s="748"/>
-      <c r="M3" s="734"/>
-      <c r="N3" s="736"/>
-      <c r="O3" s="738"/>
-      <c r="P3" s="644"/>
+      <c r="K3" s="728"/>
+      <c r="L3" s="726"/>
+      <c r="M3" s="741"/>
+      <c r="N3" s="743"/>
+      <c r="O3" s="745"/>
+      <c r="P3" s="673"/>
       <c r="Q3" s="174">
         <f>(M2+N2)-Y3</f>
         <v>0</v>
@@ -10601,7 +10596,7 @@
       <c r="S3" s="159" t="s">
         <v>245</v>
       </c>
-      <c r="T3" s="743"/>
+      <c r="T3" s="750"/>
       <c r="U3" s="544">
         <f>SUM(U4:U29)</f>
         <v>11</v>
@@ -10610,7 +10605,7 @@
         <f>SUM(V4:V29)</f>
         <v>37</v>
       </c>
-      <c r="W3" s="740"/>
+      <c r="W3" s="747"/>
       <c r="X3" s="490">
         <f t="shared" ref="X3:AC3" si="0">SUM(X4:X29)</f>
         <v>9</v>
@@ -10708,7 +10703,7 @@
         <f>AC4</f>
         <v>0</v>
       </c>
-      <c r="P4" s="744" t="s">
+      <c r="P4" s="722" t="s">
         <v>199</v>
       </c>
       <c r="Q4" s="20"/>
@@ -10794,7 +10789,7 @@
         <f>AC5</f>
         <v>0</v>
       </c>
-      <c r="P5" s="745"/>
+      <c r="P5" s="723"/>
       <c r="Q5" s="20"/>
       <c r="R5" s="2" t="s">
         <v>341</v>
@@ -10890,7 +10885,7 @@
         <f>AC6</f>
         <v>0</v>
       </c>
-      <c r="P6" s="745"/>
+      <c r="P6" s="723"/>
       <c r="Q6" s="19" t="s">
         <v>336</v>
       </c>
@@ -10991,7 +10986,7 @@
         <f>AC7</f>
         <v>0</v>
       </c>
-      <c r="P7" s="745"/>
+      <c r="P7" s="723"/>
       <c r="Q7" s="20"/>
       <c r="R7" s="2" t="s">
         <v>336</v>
@@ -11105,7 +11100,7 @@
         <f t="shared" ref="O8:O37" si="10">AC8</f>
         <v>0</v>
       </c>
-      <c r="P8" s="745"/>
+      <c r="P8" s="723"/>
       <c r="Q8" s="21" t="s">
         <v>234</v>
       </c>
@@ -11196,7 +11191,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="P9" s="745"/>
+      <c r="P9" s="723"/>
       <c r="Q9" s="21" t="s">
         <v>336</v>
       </c>
@@ -11299,7 +11294,7 @@
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="P10" s="745"/>
+      <c r="P10" s="723"/>
       <c r="Q10" s="20"/>
       <c r="R10" s="2" t="s">
         <v>341</v>
@@ -11389,7 +11384,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="P11" s="745"/>
+      <c r="P11" s="723"/>
       <c r="Q11" s="21" t="s">
         <v>336</v>
       </c>
@@ -11454,14 +11449,14 @@
       <c r="AR11" s="513"/>
     </row>
     <row r="12" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="681" t="s">
+      <c r="A12" s="632" t="s">
         <v>55</v>
       </c>
       <c r="B12" s="30">
         <v>13</v>
       </c>
       <c r="C12" s="2"/>
-      <c r="E12" s="631" t="s">
+      <c r="E12" s="687" t="s">
         <v>56</v>
       </c>
       <c r="G12" s="264"/>
@@ -11486,7 +11481,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="P12" s="745"/>
+      <c r="P12" s="723"/>
       <c r="Q12" s="21" t="s">
         <v>336</v>
       </c>
@@ -11563,14 +11558,14 @@
       </c>
     </row>
     <row r="13" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="683"/>
+      <c r="A13" s="634"/>
       <c r="B13" s="597">
         <v>12</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="E13" s="632"/>
+      <c r="E13" s="688"/>
       <c r="F13" s="174">
         <v>0</v>
       </c>
@@ -11594,7 +11589,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="P13" s="745"/>
+      <c r="P13" s="723"/>
       <c r="Q13" s="21" t="s">
         <v>336</v>
       </c>
@@ -11676,7 +11671,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="P14" s="745"/>
+      <c r="P14" s="723"/>
       <c r="Q14" s="20"/>
       <c r="R14" s="202" t="s">
         <v>340</v>
@@ -11777,7 +11772,7 @@
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="P15" s="745"/>
+      <c r="P15" s="723"/>
       <c r="Q15" s="20"/>
       <c r="R15" s="202" t="s">
         <v>340</v>
@@ -11871,7 +11866,7 @@
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="P16" s="745"/>
+      <c r="P16" s="723"/>
       <c r="Q16" s="21" t="s">
         <v>336</v>
       </c>
@@ -11974,7 +11969,7 @@
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="P17" s="745"/>
+      <c r="P17" s="723"/>
       <c r="Q17" s="20"/>
       <c r="R17" s="2" t="s">
         <v>342</v>
@@ -12076,7 +12071,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="P18" s="745"/>
+      <c r="P18" s="723"/>
       <c r="Q18" s="21" t="s">
         <v>336</v>
       </c>
@@ -12166,7 +12161,7 @@
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="P19" s="745"/>
+      <c r="P19" s="723"/>
       <c r="Q19" s="20"/>
       <c r="R19" s="2" t="s">
         <v>335</v>
@@ -12276,11 +12271,11 @@
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="P20" s="746"/>
+      <c r="P20" s="724"/>
       <c r="Q20" s="609" t="s">
         <v>336</v>
       </c>
-      <c r="R20" s="633"/>
+      <c r="R20" s="689"/>
       <c r="S20" s="540" t="s">
         <v>85</v>
       </c>
@@ -12544,7 +12539,7 @@
     </row>
     <row r="23" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B23" s="24"/>
-      <c r="E23" s="688" t="s">
+      <c r="E23" s="639" t="s">
         <v>290</v>
       </c>
       <c r="F23" s="182"/>
@@ -12647,7 +12642,7 @@
       <c r="C24" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="E24" s="689"/>
+      <c r="E24" s="640"/>
       <c r="F24" s="174"/>
       <c r="H24" s="42"/>
       <c r="J24" s="581" t="s">
@@ -12670,7 +12665,7 @@
       <c r="Q24" s="609" t="s">
         <v>336</v>
       </c>
-      <c r="R24" s="633"/>
+      <c r="R24" s="689"/>
       <c r="S24" s="540" t="s">
         <v>250</v>
       </c>
@@ -13319,8 +13314,8 @@
       <c r="AR31" s="513"/>
     </row>
     <row r="32" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="636"/>
-      <c r="B32" s="636"/>
+      <c r="A32" s="656"/>
+      <c r="B32" s="656"/>
       <c r="J32" s="582" t="s">
         <v>310</v>
       </c>
@@ -13747,7 +13742,7 @@
     </row>
     <row r="37" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B37" s="24">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D37" s="385">
         <v>1</v>
@@ -13850,15 +13845,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="Q24:R24"/>
-    <mergeCell ref="P4:P20"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="Q20:R20"/>
     <mergeCell ref="AM1:AO1"/>
     <mergeCell ref="X1:Y1"/>
     <mergeCell ref="AE1:AG1"/>
@@ -13869,6 +13855,15 @@
     <mergeCell ref="P2:P3"/>
     <mergeCell ref="W2:W3"/>
     <mergeCell ref="T1:T3"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="Q24:R24"/>
+    <mergeCell ref="P4:P20"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="Q20:R20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -13931,12 +13926,12 @@
       <c r="P1" s="38"/>
       <c r="S1" s="58">
         <f ca="1">TODAY()</f>
-        <v>45283</v>
+        <v>45284</v>
       </c>
       <c r="V1" s="609" t="s">
         <v>70</v>
       </c>
-      <c r="W1" s="633"/>
+      <c r="W1" s="689"/>
       <c r="X1" s="62" t="s">
         <v>101</v>
       </c>
@@ -13955,7 +13950,7 @@
       <c r="AC1" s="116" t="s">
         <v>190</v>
       </c>
-      <c r="AD1" s="758" t="s">
+      <c r="AD1" s="765" t="s">
         <v>212</v>
       </c>
       <c r="AE1" s="116" t="s">
@@ -13972,10 +13967,10 @@
       <c r="E2" s="39" t="s">
         <v>73</v>
       </c>
-      <c r="F2" s="757" t="s">
+      <c r="F2" s="796" t="s">
         <v>74</v>
       </c>
-      <c r="G2" s="785" t="s">
+      <c r="G2" s="753" t="s">
         <v>44</v>
       </c>
       <c r="H2" s="40" t="s">
@@ -14003,10 +13998,10 @@
       <c r="U2" s="60" t="s">
         <v>105</v>
       </c>
-      <c r="V2" s="725" t="s">
+      <c r="V2" s="732" t="s">
         <v>120</v>
       </c>
-      <c r="W2" s="726"/>
+      <c r="W2" s="733"/>
       <c r="X2" s="64" t="s">
         <v>109</v>
       </c>
@@ -14025,7 +14020,7 @@
       <c r="AC2" s="117" t="s">
         <v>98</v>
       </c>
-      <c r="AD2" s="759"/>
+      <c r="AD2" s="766"/>
       <c r="AE2" s="64" t="s">
         <v>98</v>
       </c>
@@ -14044,8 +14039,8 @@
       <c r="E3" s="39" t="s">
         <v>79</v>
       </c>
-      <c r="F3" s="685"/>
-      <c r="G3" s="786"/>
+      <c r="F3" s="636"/>
+      <c r="G3" s="754"/>
       <c r="H3" s="40" t="s">
         <v>80</v>
       </c>
@@ -14056,13 +14051,13 @@
         <v>81</v>
       </c>
       <c r="N3" s="44"/>
-      <c r="O3" s="795" t="s">
+      <c r="O3" s="763" t="s">
         <v>44</v>
       </c>
-      <c r="P3" s="777" t="s">
+      <c r="P3" s="784" t="s">
         <v>218</v>
       </c>
-      <c r="Q3" s="778"/>
+      <c r="Q3" s="785"/>
       <c r="S3" s="57" t="s">
         <v>219</v>
       </c>
@@ -14072,15 +14067,15 @@
       <c r="W3" s="59" t="s">
         <v>104</v>
       </c>
-      <c r="AD3" s="759"/>
+      <c r="AD3" s="766"/>
     </row>
     <row r="4" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G4" s="786"/>
+      <c r="G4" s="754"/>
       <c r="H4" s="6"/>
       <c r="L4" s="693" t="s">
         <v>82</v>
       </c>
-      <c r="O4" s="796"/>
+      <c r="O4" s="764"/>
       <c r="T4" s="55" t="s">
         <v>97</v>
       </c>
@@ -14094,8 +14089,8 @@
         <v>194</v>
       </c>
       <c r="Z4" s="611"/>
-      <c r="AA4" s="633"/>
-      <c r="AD4" s="759"/>
+      <c r="AA4" s="689"/>
+      <c r="AD4" s="766"/>
     </row>
     <row r="5" spans="1:31" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C5" s="52" t="s">
@@ -14110,21 +14105,21 @@
       <c r="F5" s="66" t="s">
         <v>84</v>
       </c>
-      <c r="G5" s="786"/>
+      <c r="G5" s="754"/>
       <c r="H5" s="46" t="s">
         <v>75</v>
       </c>
-      <c r="K5" s="764" t="s">
+      <c r="K5" s="771" t="s">
         <v>216</v>
       </c>
-      <c r="L5" s="779"/>
+      <c r="L5" s="786"/>
       <c r="M5" s="2" t="s">
         <v>214</v>
       </c>
       <c r="N5" s="61" t="s">
         <v>213</v>
       </c>
-      <c r="O5" s="796"/>
+      <c r="O5" s="764"/>
       <c r="P5" s="108" t="s">
         <v>215</v>
       </c>
@@ -14140,11 +14135,11 @@
       <c r="U5" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="Y5" s="767" t="s">
+      <c r="Y5" s="774" t="s">
         <v>283</v>
       </c>
-      <c r="Z5" s="768"/>
-      <c r="AD5" s="759"/>
+      <c r="Z5" s="775"/>
+      <c r="AD5" s="766"/>
     </row>
     <row r="6" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C6" s="109"/>
@@ -14154,16 +14149,16 @@
       <c r="E6" s="45" t="s">
         <v>85</v>
       </c>
-      <c r="G6" s="786"/>
+      <c r="G6" s="754"/>
       <c r="H6" s="46" t="s">
         <v>80</v>
       </c>
       <c r="I6" s="23">
         <v>15</v>
       </c>
-      <c r="K6" s="765"/>
-      <c r="L6" s="779"/>
-      <c r="O6" s="796"/>
+      <c r="K6" s="772"/>
+      <c r="L6" s="786"/>
+      <c r="O6" s="764"/>
       <c r="T6" s="2" t="s">
         <v>100</v>
       </c>
@@ -14173,23 +14168,23 @@
       <c r="V6" s="21">
         <v>-1</v>
       </c>
-      <c r="AD6" s="759"/>
+      <c r="AD6" s="766"/>
     </row>
     <row r="7" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C7" s="110"/>
-      <c r="G7" s="786"/>
+      <c r="G7" s="754"/>
       <c r="H7" s="6"/>
-      <c r="K7" s="765"/>
-      <c r="L7" s="779"/>
+      <c r="K7" s="772"/>
+      <c r="L7" s="786"/>
       <c r="N7" s="21" t="s">
         <v>119</v>
       </c>
-      <c r="O7" s="796"/>
+      <c r="O7" s="764"/>
       <c r="P7" s="73"/>
       <c r="U7" s="104" t="s">
         <v>20</v>
       </c>
-      <c r="AD7" s="759"/>
+      <c r="AD7" s="766"/>
     </row>
     <row r="8" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C8" s="130"/>
@@ -14202,7 +14197,7 @@
       <c r="F8" s="66" t="s">
         <v>86</v>
       </c>
-      <c r="G8" s="786"/>
+      <c r="G8" s="754"/>
       <c r="H8" s="50" t="s">
         <v>75</v>
       </c>
@@ -14212,41 +14207,41 @@
       <c r="J8" s="111">
         <v>115</v>
       </c>
-      <c r="K8" s="765"/>
-      <c r="L8" s="779"/>
-      <c r="O8" s="796"/>
+      <c r="K8" s="772"/>
+      <c r="L8" s="786"/>
+      <c r="O8" s="764"/>
       <c r="P8" s="49"/>
-      <c r="S8" s="761" t="s">
+      <c r="S8" s="768" t="s">
         <v>211</v>
       </c>
-      <c r="T8" s="762"/>
-      <c r="U8" s="762"/>
-      <c r="V8" s="762"/>
-      <c r="W8" s="762"/>
-      <c r="X8" s="762"/>
-      <c r="Y8" s="762"/>
-      <c r="Z8" s="762"/>
-      <c r="AA8" s="762"/>
-      <c r="AB8" s="762"/>
-      <c r="AC8" s="763"/>
-      <c r="AD8" s="759"/>
+      <c r="T8" s="769"/>
+      <c r="U8" s="769"/>
+      <c r="V8" s="769"/>
+      <c r="W8" s="769"/>
+      <c r="X8" s="769"/>
+      <c r="Y8" s="769"/>
+      <c r="Z8" s="769"/>
+      <c r="AA8" s="769"/>
+      <c r="AB8" s="769"/>
+      <c r="AC8" s="770"/>
+      <c r="AD8" s="766"/>
     </row>
     <row r="9" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C9" s="751"/>
-      <c r="G9" s="786"/>
+      <c r="C9" s="790"/>
+      <c r="G9" s="754"/>
       <c r="H9" s="6"/>
-      <c r="K9" s="765"/>
-      <c r="L9" s="789" t="s">
+      <c r="K9" s="772"/>
+      <c r="L9" s="757" t="s">
         <v>217</v>
       </c>
-      <c r="M9" s="790"/>
-      <c r="N9" s="791"/>
-      <c r="O9" s="796"/>
+      <c r="M9" s="758"/>
+      <c r="N9" s="759"/>
+      <c r="O9" s="764"/>
       <c r="P9" s="75"/>
-      <c r="AD9" s="759"/>
+      <c r="AD9" s="766"/>
     </row>
     <row r="10" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C10" s="752"/>
+      <c r="C10" s="791"/>
       <c r="D10" s="23"/>
       <c r="E10" s="45" t="s">
         <v>87</v>
@@ -14254,7 +14249,7 @@
       <c r="F10" s="66" t="s">
         <v>88</v>
       </c>
-      <c r="G10" s="786"/>
+      <c r="G10" s="754"/>
       <c r="H10" s="51"/>
       <c r="I10" s="21" t="s">
         <v>80</v>
@@ -14262,33 +14257,33 @@
       <c r="J10" s="3">
         <v>15</v>
       </c>
-      <c r="K10" s="765"/>
-      <c r="M10" s="754" t="s">
+      <c r="K10" s="772"/>
+      <c r="M10" s="793" t="s">
         <v>89</v>
       </c>
-      <c r="N10" s="755"/>
-      <c r="O10" s="755"/>
-      <c r="P10" s="755"/>
-      <c r="Q10" s="755"/>
-      <c r="R10" s="755"/>
-      <c r="S10" s="755"/>
-      <c r="T10" s="755"/>
-      <c r="U10" s="755"/>
-      <c r="V10" s="755"/>
-      <c r="W10" s="755"/>
-      <c r="X10" s="755"/>
-      <c r="Y10" s="755"/>
-      <c r="Z10" s="755"/>
-      <c r="AA10" s="755"/>
-      <c r="AB10" s="755"/>
-      <c r="AC10" s="756"/>
-      <c r="AD10" s="759"/>
+      <c r="N10" s="794"/>
+      <c r="O10" s="794"/>
+      <c r="P10" s="794"/>
+      <c r="Q10" s="794"/>
+      <c r="R10" s="794"/>
+      <c r="S10" s="794"/>
+      <c r="T10" s="794"/>
+      <c r="U10" s="794"/>
+      <c r="V10" s="794"/>
+      <c r="W10" s="794"/>
+      <c r="X10" s="794"/>
+      <c r="Y10" s="794"/>
+      <c r="Z10" s="794"/>
+      <c r="AA10" s="794"/>
+      <c r="AB10" s="794"/>
+      <c r="AC10" s="795"/>
+      <c r="AD10" s="766"/>
     </row>
     <row r="11" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C11" s="753"/>
-      <c r="G11" s="786"/>
+      <c r="C11" s="792"/>
+      <c r="G11" s="754"/>
       <c r="H11" s="6"/>
-      <c r="K11" s="765"/>
+      <c r="K11" s="772"/>
       <c r="R11" s="52" t="s">
         <v>44</v>
       </c>
@@ -14296,17 +14291,17 @@
       <c r="Y11" s="68" t="s">
         <v>120</v>
       </c>
-      <c r="Z11" s="775" t="s">
+      <c r="Z11" s="782" t="s">
         <v>120</v>
       </c>
-      <c r="AA11" s="776"/>
+      <c r="AA11" s="783"/>
       <c r="AB11" s="52" t="s">
         <v>44</v>
       </c>
       <c r="AC11" s="118" t="s">
         <v>120</v>
       </c>
-      <c r="AD11" s="759"/>
+      <c r="AD11" s="766"/>
     </row>
     <row r="12" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C12" s="129"/>
@@ -14319,7 +14314,7 @@
       <c r="F12" s="66" t="s">
         <v>91</v>
       </c>
-      <c r="G12" s="786"/>
+      <c r="G12" s="754"/>
       <c r="H12" s="128"/>
       <c r="I12" s="19" t="s">
         <v>80</v>
@@ -14327,8 +14322,8 @@
       <c r="J12" s="3">
         <v>15</v>
       </c>
-      <c r="K12" s="765"/>
-      <c r="L12" s="780" t="s">
+      <c r="K12" s="772"/>
+      <c r="L12" s="787" t="s">
         <v>92</v>
       </c>
       <c r="M12" s="21" t="s">
@@ -14359,25 +14354,25 @@
         <v>115</v>
       </c>
       <c r="Y12" s="6"/>
-      <c r="AA12" s="769" t="s">
+      <c r="AA12" s="776" t="s">
         <v>125</v>
       </c>
-      <c r="AB12" s="770"/>
+      <c r="AB12" s="777"/>
       <c r="AC12" s="21" t="s">
         <v>231</v>
       </c>
-      <c r="AD12" s="759"/>
+      <c r="AD12" s="766"/>
     </row>
     <row r="13" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C13" s="751"/>
-      <c r="G13" s="786"/>
-      <c r="K13" s="765"/>
-      <c r="L13" s="781"/>
+      <c r="C13" s="790"/>
+      <c r="G13" s="754"/>
+      <c r="K13" s="772"/>
+      <c r="L13" s="788"/>
       <c r="M13" s="47"/>
-      <c r="Q13" s="788" t="s">
+      <c r="Q13" s="756" t="s">
         <v>209</v>
       </c>
-      <c r="R13" s="650"/>
+      <c r="R13" s="645"/>
       <c r="S13" s="605"/>
       <c r="T13" s="6"/>
       <c r="U13" s="96" t="s">
@@ -14386,17 +14381,17 @@
       <c r="X13" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="AA13" s="771"/>
-      <c r="AB13" s="772"/>
-      <c r="AD13" s="759"/>
+      <c r="AA13" s="778"/>
+      <c r="AB13" s="779"/>
+      <c r="AD13" s="766"/>
     </row>
     <row r="14" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="C14" s="753"/>
+      <c r="C14" s="792"/>
       <c r="D14" s="23"/>
-      <c r="G14" s="786"/>
+      <c r="G14" s="754"/>
       <c r="H14" s="125"/>
       <c r="I14" s="99" t="s">
         <v>44</v>
@@ -14404,8 +14399,8 @@
       <c r="J14" s="111">
         <v>115</v>
       </c>
-      <c r="K14" s="765"/>
-      <c r="L14" s="781"/>
+      <c r="K14" s="772"/>
+      <c r="L14" s="788"/>
       <c r="M14" s="21" t="s">
         <v>110</v>
       </c>
@@ -14426,9 +14421,9 @@
       <c r="Y14" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="AA14" s="771"/>
-      <c r="AB14" s="772"/>
-      <c r="AD14" s="759"/>
+      <c r="AA14" s="778"/>
+      <c r="AB14" s="779"/>
+      <c r="AD14" s="766"/>
     </row>
     <row r="15" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C15" s="130" t="s">
@@ -14443,19 +14438,19 @@
       <c r="F15" s="66" t="s">
         <v>93</v>
       </c>
-      <c r="G15" s="786"/>
+      <c r="G15" s="754"/>
       <c r="H15" s="2" t="s">
         <v>80</v>
       </c>
       <c r="I15" s="53" t="s">
         <v>80</v>
       </c>
-      <c r="K15" s="765"/>
-      <c r="L15" s="782"/>
-      <c r="Q15" s="788" t="s">
+      <c r="K15" s="772"/>
+      <c r="L15" s="789"/>
+      <c r="Q15" s="756" t="s">
         <v>210</v>
       </c>
-      <c r="R15" s="650"/>
+      <c r="R15" s="645"/>
       <c r="S15" s="605"/>
       <c r="T15" s="6"/>
       <c r="V15" s="68" t="s">
@@ -14464,14 +14459,14 @@
       <c r="X15" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="AA15" s="771"/>
-      <c r="AB15" s="772"/>
-      <c r="AD15" s="759"/>
+      <c r="AA15" s="778"/>
+      <c r="AB15" s="779"/>
+      <c r="AD15" s="766"/>
     </row>
     <row r="16" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C16" s="132"/>
-      <c r="G16" s="786"/>
-      <c r="K16" s="765"/>
+      <c r="G16" s="754"/>
+      <c r="K16" s="772"/>
       <c r="N16" s="47"/>
       <c r="O16" s="61" t="s">
         <v>108</v>
@@ -14490,24 +14485,24 @@
       <c r="Z16" s="76" t="s">
         <v>126</v>
       </c>
-      <c r="AA16" s="771"/>
-      <c r="AB16" s="772"/>
-      <c r="AD16" s="759"/>
+      <c r="AA16" s="778"/>
+      <c r="AB16" s="779"/>
+      <c r="AD16" s="766"/>
     </row>
     <row r="17" spans="3:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C17" s="109"/>
       <c r="E17" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="F17" s="783" t="s">
+      <c r="F17" s="751" t="s">
         <v>95</v>
       </c>
-      <c r="G17" s="786"/>
+      <c r="G17" s="754"/>
       <c r="H17" s="54"/>
       <c r="I17" s="133" t="s">
         <v>80</v>
       </c>
-      <c r="K17" s="765"/>
+      <c r="K17" s="772"/>
       <c r="S17" s="605"/>
       <c r="V17" s="68" t="s">
         <v>44</v>
@@ -14515,9 +14510,9 @@
       <c r="X17" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="AA17" s="771"/>
-      <c r="AB17" s="772"/>
-      <c r="AD17" s="759"/>
+      <c r="AA17" s="778"/>
+      <c r="AB17" s="779"/>
+      <c r="AD17" s="766"/>
     </row>
     <row r="18" spans="3:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C18" s="130"/>
@@ -14527,15 +14522,15 @@
       <c r="E18" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="F18" s="784"/>
-      <c r="G18" s="786"/>
+      <c r="F18" s="752"/>
+      <c r="G18" s="754"/>
       <c r="H18" s="108" t="s">
         <v>75</v>
       </c>
       <c r="I18" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="K18" s="765"/>
+      <c r="K18" s="772"/>
       <c r="O18" s="64" t="s">
         <v>114</v>
       </c>
@@ -14546,42 +14541,39 @@
       <c r="X18" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="AA18" s="773"/>
-      <c r="AB18" s="774"/>
-      <c r="AD18" s="759"/>
+      <c r="AA18" s="780"/>
+      <c r="AB18" s="781"/>
+      <c r="AD18" s="766"/>
     </row>
     <row r="19" spans="3:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F19" s="64" t="s">
         <v>208</v>
       </c>
-      <c r="G19" s="787"/>
-      <c r="K19" s="766"/>
+      <c r="G19" s="755"/>
+      <c r="K19" s="773"/>
       <c r="Q19" s="68" t="s">
         <v>44</v>
       </c>
-      <c r="R19" s="792" t="s">
+      <c r="R19" s="760" t="s">
         <v>123</v>
       </c>
-      <c r="S19" s="793"/>
-      <c r="T19" s="794"/>
+      <c r="S19" s="761"/>
+      <c r="T19" s="762"/>
       <c r="V19" s="77" t="s">
         <v>114</v>
       </c>
       <c r="Y19" s="19" t="s">
         <v>124</v>
       </c>
-      <c r="AD19" s="760"/>
+      <c r="AD19" s="767"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="G2:G19"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="L9:N9"/>
-    <mergeCell ref="R19:T19"/>
-    <mergeCell ref="S12:S18"/>
-    <mergeCell ref="O3:O9"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="V2:W2"/>
+    <mergeCell ref="M10:AC10"/>
+    <mergeCell ref="F2:F3"/>
     <mergeCell ref="AD1:AD19"/>
     <mergeCell ref="S8:AC8"/>
     <mergeCell ref="K5:K19"/>
@@ -14593,11 +14585,14 @@
     <mergeCell ref="P3:Q3"/>
     <mergeCell ref="L4:L8"/>
     <mergeCell ref="L12:L15"/>
-    <mergeCell ref="C9:C11"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="V2:W2"/>
-    <mergeCell ref="M10:AC10"/>
-    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="G2:G19"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="L9:N9"/>
+    <mergeCell ref="R19:T19"/>
+    <mergeCell ref="S12:S18"/>
+    <mergeCell ref="O3:O9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/System_2.1.8.xlsx
+++ b/System_2.1.8.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Work_For_\Work\Running AppS\System_Work_RW\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B98B25C-F12F-4AE5-A8E6-6BB26B0BEE94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BE52B92-18ED-4275-84D0-9530E56761F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BoardRW" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1125" uniqueCount="627">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1131" uniqueCount="632">
   <si>
     <t>Zone</t>
   </si>
@@ -1841,9 +1841,6 @@
     <t>TN</t>
   </si>
   <si>
-    <t>cna</t>
-  </si>
-  <si>
     <t>aajtak</t>
   </si>
   <si>
@@ -1920,6 +1917,24 @@
   </si>
   <si>
     <t>14F Reserved</t>
+  </si>
+  <si>
+    <t>bharat24</t>
+  </si>
+  <si>
+    <t>asianet</t>
+  </si>
+  <si>
+    <t>manorama</t>
+  </si>
+  <si>
+    <t>France24 E</t>
+  </si>
+  <si>
+    <t>abp</t>
+  </si>
+  <si>
+    <t>Aaj Tak</t>
   </si>
 </sst>
 </file>
@@ -3552,7 +3567,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="797">
+  <cellXfs count="792">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
@@ -4305,9 +4320,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="70" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="68" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4661,9 +4673,6 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4913,12 +4922,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="39" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="39" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4998,9 +5001,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="56" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="56" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="56" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5901,8 +5901,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:X28"/>
   <sheetViews>
-    <sheetView topLeftCell="B9" workbookViewId="0">
-      <selection activeCell="X19" sqref="X19"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="X7" sqref="X7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5937,13 +5937,13 @@
       <c r="B2" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="C2" s="481" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="388" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="388" t="s">
+      <c r="C2" s="479" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="387" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="387" t="s">
         <v>2</v>
       </c>
       <c r="F2" s="106" t="s">
@@ -5955,30 +5955,30 @@
       <c r="H2" s="126" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="395" t="s">
+      <c r="I2" s="394" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="607" t="s">
+      <c r="J2" s="602" t="s">
         <v>7</v>
       </c>
-      <c r="K2" s="608"/>
+      <c r="K2" s="603"/>
       <c r="L2" s="1" t="s">
         <v>8</v>
       </c>
       <c r="M2" s="324" t="s">
         <v>9</v>
       </c>
-      <c r="N2" s="352" t="s">
+      <c r="N2" s="351" t="s">
         <v>10</v>
       </c>
-      <c r="O2" s="609" t="s">
+      <c r="O2" s="604" t="s">
         <v>376</v>
       </c>
-      <c r="P2" s="610"/>
-      <c r="Q2" s="611"/>
-      <c r="R2" s="611"/>
-      <c r="S2" s="611"/>
-      <c r="T2" s="612" t="s">
+      <c r="P2" s="605"/>
+      <c r="Q2" s="606"/>
+      <c r="R2" s="606"/>
+      <c r="S2" s="606"/>
+      <c r="T2" s="607" t="s">
         <v>377</v>
       </c>
       <c r="V2" s="2" t="s">
@@ -5992,8 +5992,8 @@
       <c r="C3" s="166" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="604"/>
-      <c r="E3" s="340"/>
+      <c r="D3" s="599"/>
+      <c r="E3" s="339"/>
       <c r="F3" s="267" t="s">
         <v>68</v>
       </c>
@@ -6028,7 +6028,7 @@
       <c r="S3" s="24">
         <v>1</v>
       </c>
-      <c r="T3" s="613"/>
+      <c r="T3" s="608"/>
       <c r="U3" s="19" t="s">
         <v>567</v>
       </c>
@@ -6044,9 +6044,9 @@
       <c r="C4" s="166" t="s">
         <v>355</v>
       </c>
-      <c r="D4" s="605"/>
+      <c r="D4" s="600"/>
       <c r="E4" s="61"/>
-      <c r="F4" s="362" t="s">
+      <c r="F4" s="361" t="s">
         <v>42</v>
       </c>
       <c r="G4" s="2"/>
@@ -6056,12 +6056,12 @@
       <c r="K4" s="287"/>
       <c r="L4" s="288"/>
       <c r="M4" s="325"/>
-      <c r="N4" s="363" t="s">
+      <c r="N4" s="362" t="s">
         <v>26</v>
       </c>
       <c r="O4" s="6"/>
       <c r="P4" s="315"/>
-      <c r="T4" s="613"/>
+      <c r="T4" s="608"/>
     </row>
     <row r="5" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="2" t="s">
@@ -6070,8 +6070,8 @@
       <c r="C5" s="166" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="606"/>
-      <c r="F5" s="366" t="s">
+      <c r="D5" s="601"/>
+      <c r="F5" s="365" t="s">
         <v>42</v>
       </c>
       <c r="G5" s="2" t="s">
@@ -6085,16 +6085,16 @@
       <c r="M5" s="325">
         <v>45275</v>
       </c>
-      <c r="N5" s="368" t="s">
+      <c r="N5" s="367" t="s">
         <v>504</v>
       </c>
       <c r="P5" s="315"/>
-      <c r="T5" s="613"/>
+      <c r="T5" s="608"/>
       <c r="U5" s="206" t="s">
         <v>226</v>
       </c>
       <c r="V5" s="19">
-        <v>6600</v>
+        <v>6720</v>
       </c>
     </row>
     <row r="6" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6104,9 +6104,9 @@
       <c r="C6" s="166" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="376"/>
+      <c r="D6" s="375"/>
       <c r="E6" s="61"/>
-      <c r="F6" s="367"/>
+      <c r="F6" s="366"/>
       <c r="G6" s="2" t="s">
         <v>21</v>
       </c>
@@ -6122,13 +6122,13 @@
       <c r="M6" s="325">
         <v>45275</v>
       </c>
-      <c r="N6" s="372" t="s">
+      <c r="N6" s="371" t="s">
         <v>504</v>
       </c>
       <c r="P6" s="315"/>
       <c r="Q6" s="16"/>
       <c r="R6" s="6"/>
-      <c r="T6" s="613"/>
+      <c r="T6" s="608"/>
     </row>
     <row r="7" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="211" t="s">
@@ -6150,7 +6150,7 @@
       <c r="J7" s="283"/>
       <c r="K7" s="284"/>
       <c r="L7" s="276"/>
-      <c r="M7" s="371"/>
+      <c r="M7" s="370"/>
       <c r="N7" s="61" t="s">
         <v>18</v>
       </c>
@@ -6166,18 +6166,18 @@
       <c r="S7" s="24">
         <v>1</v>
       </c>
-      <c r="T7" s="613"/>
+      <c r="T7" s="608"/>
     </row>
     <row r="8" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="2" t="s">
         <v>433</v>
       </c>
-      <c r="C8" s="425" t="s">
+      <c r="C8" s="424" t="s">
         <v>14</v>
       </c>
       <c r="D8" s="61"/>
       <c r="E8" s="61"/>
-      <c r="F8" s="373" t="s">
+      <c r="F8" s="372" t="s">
         <v>42</v>
       </c>
       <c r="G8" s="2" t="s">
@@ -6188,20 +6188,20 @@
       <c r="J8" s="279"/>
       <c r="K8" s="280"/>
       <c r="L8" s="266"/>
-      <c r="M8" s="370"/>
+      <c r="M8" s="369"/>
       <c r="N8" s="61" t="s">
         <v>18</v>
       </c>
       <c r="P8" s="315"/>
       <c r="Q8" s="16"/>
       <c r="R8" s="6"/>
-      <c r="T8" s="613"/>
+      <c r="T8" s="608"/>
     </row>
     <row r="9" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="3" t="s">
         <v>415</v>
       </c>
-      <c r="C9" s="425" t="s">
+      <c r="C9" s="424" t="s">
         <v>14</v>
       </c>
       <c r="D9" s="61"/>
@@ -6221,18 +6221,18 @@
       <c r="L9" s="205" t="s">
         <v>15</v>
       </c>
-      <c r="M9" s="361">
+      <c r="M9" s="360">
         <v>45275</v>
       </c>
-      <c r="N9" s="340"/>
-      <c r="O9" s="479" t="s">
+      <c r="N9" s="339"/>
+      <c r="O9" s="477" t="s">
         <v>44</v>
       </c>
       <c r="P9" s="315">
         <v>1</v>
       </c>
       <c r="Q9" s="2" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="R9" s="34" t="s">
         <v>44</v>
@@ -6240,7 +6240,7 @@
       <c r="S9" s="24">
         <v>1</v>
       </c>
-      <c r="T9" s="613"/>
+      <c r="T9" s="608"/>
     </row>
     <row r="10" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="2" t="s">
@@ -6250,8 +6250,8 @@
         <v>17</v>
       </c>
       <c r="D10" s="61"/>
-      <c r="F10" s="362" t="s">
-        <v>612</v>
+      <c r="F10" s="361" t="s">
+        <v>611</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>21</v>
@@ -6265,20 +6265,20 @@
       <c r="L10" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="M10" s="361">
+      <c r="M10" s="360">
         <v>45275</v>
       </c>
-      <c r="N10" s="368" t="s">
+      <c r="N10" s="367" t="s">
         <v>504</v>
       </c>
       <c r="P10" s="315"/>
-      <c r="T10" s="613"/>
+      <c r="T10" s="608"/>
     </row>
     <row r="11" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="C11" s="425" t="s">
+      <c r="C11" s="424" t="s">
         <v>17</v>
       </c>
       <c r="D11" s="61"/>
@@ -6292,16 +6292,16 @@
       <c r="H11" s="2" t="s">
         <v>548</v>
       </c>
-      <c r="I11" s="340"/>
+      <c r="I11" s="339"/>
       <c r="J11" s="279"/>
       <c r="K11" s="280"/>
       <c r="L11" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="M11" s="361">
+      <c r="M11" s="360">
         <v>45275</v>
       </c>
-      <c r="N11" s="364" t="s">
+      <c r="N11" s="363" t="s">
         <v>18</v>
       </c>
       <c r="P11" s="315">
@@ -6314,24 +6314,24 @@
       <c r="S11" s="24">
         <v>1</v>
       </c>
-      <c r="T11" s="613"/>
+      <c r="T11" s="608"/>
       <c r="U11" s="206" t="s">
         <v>225</v>
       </c>
       <c r="V11" s="64">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="12" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="258" t="s">
         <v>434</v>
       </c>
-      <c r="C12" s="425" t="s">
+      <c r="C12" s="424" t="s">
         <v>355</v>
       </c>
       <c r="D12" s="61"/>
-      <c r="E12" s="468"/>
-      <c r="F12" s="362" t="s">
+      <c r="E12" s="467"/>
+      <c r="F12" s="361" t="s">
         <v>42</v>
       </c>
       <c r="G12" s="2"/>
@@ -6340,14 +6340,14 @@
       <c r="J12" s="279"/>
       <c r="K12" s="280"/>
       <c r="L12" s="16"/>
-      <c r="M12" s="361"/>
-      <c r="N12" s="365" t="s">
+      <c r="M12" s="360"/>
+      <c r="N12" s="364" t="s">
         <v>26</v>
       </c>
       <c r="P12" s="315"/>
       <c r="Q12" s="16"/>
       <c r="R12" s="142"/>
-      <c r="T12" s="613"/>
+      <c r="T12" s="608"/>
     </row>
     <row r="13" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="258" t="s">
@@ -6368,18 +6368,18 @@
       <c r="I13" s="61"/>
       <c r="J13" s="181"/>
       <c r="K13" s="149"/>
-      <c r="L13" s="342" t="s">
+      <c r="L13" s="341" t="s">
         <v>15</v>
       </c>
-      <c r="M13" s="361">
+      <c r="M13" s="360">
         <v>45275</v>
       </c>
-      <c r="N13" s="369" t="s">
+      <c r="N13" s="368" t="s">
         <v>504</v>
       </c>
       <c r="P13" s="315"/>
       <c r="R13" s="142"/>
-      <c r="T13" s="613"/>
+      <c r="T13" s="608"/>
       <c r="U13" s="2" t="s">
         <v>589</v>
       </c>
@@ -6389,13 +6389,13 @@
     </row>
     <row r="14" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="P14" s="315"/>
-      <c r="T14" s="613"/>
+      <c r="T14" s="608"/>
     </row>
     <row r="15" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="482" t="s">
+      <c r="C15" s="480" t="s">
         <v>20</v>
       </c>
       <c r="D15" s="61"/>
@@ -6415,13 +6415,13 @@
       <c r="L15" s="137" t="s">
         <v>15</v>
       </c>
-      <c r="M15" s="601">
+      <c r="M15" s="596">
         <v>45275</v>
       </c>
-      <c r="N15" s="604" t="s">
+      <c r="N15" s="599" t="s">
         <v>22</v>
       </c>
-      <c r="O15" s="479" t="s">
+      <c r="O15" s="477" t="s">
         <v>44</v>
       </c>
       <c r="P15" s="315">
@@ -6436,16 +6436,16 @@
       <c r="S15" s="24">
         <v>1</v>
       </c>
-      <c r="T15" s="613"/>
+      <c r="T15" s="608"/>
     </row>
     <row r="16" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="466" t="s">
+      <c r="B16" s="465" t="s">
         <v>369</v>
       </c>
-      <c r="C16" s="483" t="s">
+      <c r="C16" s="481" t="s">
         <v>11</v>
       </c>
-      <c r="D16" s="375"/>
+      <c r="D16" s="374"/>
       <c r="E16" s="259"/>
       <c r="F16" s="268" t="s">
         <v>387</v>
@@ -6462,29 +6462,29 @@
       <c r="L16" s="196" t="s">
         <v>15</v>
       </c>
-      <c r="M16" s="602"/>
-      <c r="N16" s="605"/>
+      <c r="M16" s="597"/>
+      <c r="N16" s="600"/>
       <c r="P16" s="315">
         <v>1</v>
       </c>
       <c r="Q16" s="19" t="s">
         <v>586</v>
       </c>
-      <c r="R16" s="516" t="s">
+      <c r="R16" s="514" t="s">
         <v>42</v>
       </c>
       <c r="S16" s="112">
         <v>1</v>
       </c>
-      <c r="T16" s="613"/>
+      <c r="T16" s="608"/>
     </row>
     <row r="17" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="2"/>
-      <c r="C17" s="482" t="s">
+      <c r="C17" s="480" t="s">
         <v>23</v>
       </c>
       <c r="D17" s="61"/>
-      <c r="E17" s="468"/>
+      <c r="E17" s="467"/>
       <c r="F17" s="21" t="s">
         <v>223</v>
       </c>
@@ -6494,7 +6494,7 @@
       <c r="H17" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="I17" s="389" t="s">
+      <c r="I17" s="388" t="s">
         <v>20</v>
       </c>
       <c r="J17" s="139"/>
@@ -6502,9 +6502,9 @@
       <c r="L17" s="135" t="s">
         <v>15</v>
       </c>
-      <c r="M17" s="603"/>
-      <c r="N17" s="606"/>
-      <c r="O17" s="479" t="s">
+      <c r="M17" s="598"/>
+      <c r="N17" s="601"/>
+      <c r="O17" s="477" t="s">
         <v>44</v>
       </c>
       <c r="P17" s="315">
@@ -6519,11 +6519,11 @@
       <c r="S17" s="24">
         <v>1</v>
       </c>
-      <c r="T17" s="613"/>
+      <c r="T17" s="608"/>
     </row>
     <row r="18" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="P18" s="315"/>
-      <c r="T18" s="613"/>
+      <c r="T18" s="608"/>
     </row>
     <row r="19" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19" s="2" t="s">
@@ -6532,10 +6532,10 @@
       <c r="C19" s="166" t="s">
         <v>361</v>
       </c>
-      <c r="D19" s="389" t="s">
+      <c r="D19" s="388" t="s">
         <v>20</v>
       </c>
-      <c r="E19" s="467"/>
+      <c r="E19" s="466"/>
       <c r="F19" s="100"/>
       <c r="G19" s="2" t="s">
         <v>360</v>
@@ -6549,14 +6549,14 @@
       <c r="L19" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="M19" s="601">
+      <c r="M19" s="596">
         <v>45275</v>
       </c>
-      <c r="N19" s="394" t="s">
+      <c r="N19" s="393" t="s">
         <v>504</v>
       </c>
       <c r="P19" s="315"/>
-      <c r="T19" s="613"/>
+      <c r="T19" s="608"/>
     </row>
     <row r="20" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B20" s="243" t="s">
@@ -6582,8 +6582,8 @@
       <c r="L20" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="M20" s="602"/>
-      <c r="N20" s="386" t="s">
+      <c r="M20" s="597"/>
+      <c r="N20" s="385" t="s">
         <v>26</v>
       </c>
       <c r="P20" s="315">
@@ -6598,7 +6598,7 @@
       <c r="S20" s="24">
         <v>1</v>
       </c>
-      <c r="T20" s="613"/>
+      <c r="T20" s="608"/>
     </row>
     <row r="21" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B21" s="243" t="s">
@@ -6624,8 +6624,8 @@
       <c r="L21" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="M21" s="602"/>
-      <c r="N21" s="386" t="s">
+      <c r="M21" s="597"/>
+      <c r="N21" s="385" t="s">
         <v>18</v>
       </c>
       <c r="P21" s="315">
@@ -6640,11 +6640,11 @@
       <c r="S21" s="24">
         <v>1</v>
       </c>
-      <c r="T21" s="613"/>
-      <c r="U21" s="599" t="s">
+      <c r="T21" s="608"/>
+      <c r="U21" s="594" t="s">
         <v>224</v>
       </c>
-      <c r="V21" s="600"/>
+      <c r="V21" s="595"/>
     </row>
     <row r="22" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="272" t="s">
@@ -6668,14 +6668,14 @@
       <c r="L22" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="M22" s="602"/>
-      <c r="N22" s="375" t="s">
+      <c r="M22" s="597"/>
+      <c r="N22" s="374" t="s">
         <v>26</v>
       </c>
       <c r="P22" s="315"/>
-      <c r="T22" s="613"/>
+      <c r="T22" s="608"/>
       <c r="X22" s="19" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="23" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6685,11 +6685,11 @@
       <c r="C23" s="166" t="s">
         <v>16</v>
       </c>
-      <c r="D23" s="376"/>
+      <c r="D23" s="375"/>
       <c r="E23" s="61"/>
       <c r="F23" s="100"/>
       <c r="G23" s="2" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="H23" s="2" t="s">
         <v>411</v>
@@ -6700,12 +6700,12 @@
       <c r="L23" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="M23" s="602"/>
+      <c r="M23" s="597"/>
       <c r="N23" s="61" t="s">
         <v>505</v>
       </c>
       <c r="P23" s="315"/>
-      <c r="T23" s="613"/>
+      <c r="T23" s="608"/>
       <c r="U23" s="2" t="s">
         <v>598</v>
       </c>
@@ -6723,11 +6723,11 @@
       <c r="C24" s="166" t="s">
         <v>16</v>
       </c>
-      <c r="D24" s="376"/>
-      <c r="E24" s="468"/>
-      <c r="F24" s="390"/>
+      <c r="D24" s="375"/>
+      <c r="E24" s="467"/>
+      <c r="F24" s="389"/>
       <c r="G24" s="241" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="H24" s="212" t="s">
         <v>393</v>
@@ -6738,16 +6738,16 @@
       <c r="L24" s="135" t="s">
         <v>32</v>
       </c>
-      <c r="M24" s="602"/>
+      <c r="M24" s="597"/>
       <c r="N24" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="O24" s="480" t="s">
+      <c r="O24" s="478" t="s">
         <v>44</v>
       </c>
-      <c r="P24" s="518"/>
+      <c r="P24" s="516"/>
       <c r="S24" s="80"/>
-      <c r="T24" s="613"/>
+      <c r="T24" s="608"/>
       <c r="X24" s="19"/>
     </row>
     <row r="25" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6774,7 +6774,7 @@
       <c r="L25" s="135" t="s">
         <v>35</v>
       </c>
-      <c r="M25" s="602"/>
+      <c r="M25" s="597"/>
       <c r="N25" s="61" t="s">
         <v>26</v>
       </c>
@@ -6790,7 +6790,7 @@
       <c r="S25" s="21">
         <v>1</v>
       </c>
-      <c r="T25" s="613"/>
+      <c r="T25" s="608"/>
       <c r="V25" s="19"/>
     </row>
     <row r="26" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6800,16 +6800,16 @@
       <c r="C26" s="166" t="s">
         <v>17</v>
       </c>
-      <c r="D26" s="389" t="s">
+      <c r="D26" s="388" t="s">
         <v>20</v>
       </c>
-      <c r="E26" s="396"/>
-      <c r="F26" s="362"/>
+      <c r="E26" s="395"/>
+      <c r="F26" s="361"/>
       <c r="G26" s="2" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="I26" s="61"/>
       <c r="J26" s="244"/>
@@ -6817,14 +6817,14 @@
       <c r="L26" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="M26" s="602"/>
+      <c r="M26" s="597"/>
       <c r="N26" s="61" t="s">
         <v>506</v>
       </c>
       <c r="P26" s="315"/>
-      <c r="T26" s="613"/>
-      <c r="V26" s="519" t="s">
-        <v>625</v>
+      <c r="T26" s="608"/>
+      <c r="V26" s="517" t="s">
+        <v>624</v>
       </c>
     </row>
     <row r="27" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6835,19 +6835,19 @@
         <v>14</v>
       </c>
       <c r="D27" s="61"/>
-      <c r="E27" s="396"/>
-      <c r="F27" s="385"/>
+      <c r="E27" s="395"/>
+      <c r="F27" s="384"/>
       <c r="G27" s="2" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="H27" s="212" t="s">
         <v>515</v>
       </c>
       <c r="I27" s="61"/>
-      <c r="J27" s="391"/>
-      <c r="K27" s="392"/>
-      <c r="L27" s="393"/>
-      <c r="M27" s="602"/>
+      <c r="J27" s="390"/>
+      <c r="K27" s="391"/>
+      <c r="L27" s="392"/>
+      <c r="M27" s="597"/>
       <c r="N27" s="61"/>
       <c r="P27" s="315">
         <v>1</v>
@@ -6861,7 +6861,7 @@
       <c r="S27" s="24">
         <v>1</v>
       </c>
-      <c r="T27" s="613"/>
+      <c r="T27" s="608"/>
       <c r="W27" s="2" t="s">
         <v>582</v>
       </c>
@@ -6870,16 +6870,16 @@
       <c r="B28" s="258" t="s">
         <v>396</v>
       </c>
-      <c r="C28" s="478" t="s">
+      <c r="C28" s="476" t="s">
         <v>16</v>
       </c>
       <c r="D28" s="61" t="s">
         <v>572</v>
       </c>
-      <c r="E28" s="396"/>
-      <c r="F28" s="387"/>
+      <c r="E28" s="395"/>
+      <c r="F28" s="386"/>
       <c r="G28" s="2" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="H28" s="212" t="s">
         <v>580</v>
@@ -6890,7 +6890,7 @@
       <c r="L28" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="M28" s="603"/>
+      <c r="M28" s="598"/>
       <c r="N28" s="61" t="s">
         <v>506</v>
       </c>
@@ -6906,7 +6906,7 @@
       <c r="S28" s="21">
         <v>1</v>
       </c>
-      <c r="T28" s="614"/>
+      <c r="T28" s="609"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -6936,7 +6936,7 @@
   <cols>
     <col min="1" max="1" width="32" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" style="20" customWidth="1"/>
-    <col min="3" max="3" width="20.42578125" style="379" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.42578125" style="378" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.7109375" style="65" customWidth="1"/>
     <col min="5" max="5" width="4.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="2" customWidth="1"/>
@@ -6957,7 +6957,7 @@
     <col min="21" max="21" width="2" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="2.42578125" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="3" customWidth="1"/>
-    <col min="24" max="24" width="9.28515625" style="437" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="9.28515625" style="436" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="2.85546875" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="1.85546875" customWidth="1"/>
     <col min="27" max="27" width="2.140625" customWidth="1"/>
@@ -6985,16 +6985,16 @@
       <c r="B1" s="79" t="s">
         <v>134</v>
       </c>
-      <c r="C1" s="459" t="s">
+      <c r="C1" s="458" t="s">
         <v>141</v>
       </c>
-      <c r="G1" s="396" t="s">
+      <c r="G1" s="395" t="s">
         <v>136</v>
       </c>
       <c r="H1" s="97" t="s">
         <v>344</v>
       </c>
-      <c r="I1" s="665" t="s">
+      <c r="I1" s="660" t="s">
         <v>370</v>
       </c>
       <c r="J1" s="2" t="s">
@@ -7027,36 +7027,36 @@
       <c r="U1" s="124"/>
       <c r="V1" s="91"/>
       <c r="W1" s="145"/>
-      <c r="X1" s="434" t="s">
+      <c r="X1" s="433" t="s">
         <v>155</v>
       </c>
-      <c r="Y1" s="659" t="s">
+      <c r="Y1" s="654" t="s">
         <v>530</v>
       </c>
-      <c r="Z1" s="410">
-        <v>1</v>
-      </c>
-      <c r="AA1" s="347"/>
-      <c r="AB1" s="345"/>
+      <c r="Z1" s="409">
+        <v>1</v>
+      </c>
+      <c r="AA1" s="346"/>
+      <c r="AB1" s="344"/>
       <c r="AC1" s="100" t="s">
         <v>483</v>
       </c>
-      <c r="AD1" s="346"/>
-      <c r="AE1" s="374"/>
-      <c r="AF1" s="374"/>
-      <c r="AG1" s="374"/>
-      <c r="AH1" s="374"/>
-      <c r="AI1" s="374"/>
-      <c r="AJ1" s="374"/>
-      <c r="AK1" s="447" t="s">
+      <c r="AD1" s="345"/>
+      <c r="AE1" s="373"/>
+      <c r="AF1" s="373"/>
+      <c r="AG1" s="373"/>
+      <c r="AH1" s="373"/>
+      <c r="AI1" s="373"/>
+      <c r="AJ1" s="373"/>
+      <c r="AK1" s="446" t="s">
         <v>453</v>
       </c>
-      <c r="AL1" s="374" t="s">
+      <c r="AL1" s="373" t="s">
         <v>499</v>
       </c>
-      <c r="AM1" s="406"/>
-      <c r="AN1" s="641"/>
-      <c r="AO1" s="341" t="s">
+      <c r="AM1" s="405"/>
+      <c r="AN1" s="636"/>
+      <c r="AO1" s="340" t="s">
         <v>470</v>
       </c>
       <c r="AQ1" s="68" t="s">
@@ -7064,67 +7064,67 @@
       </c>
     </row>
     <row r="2" spans="1:43" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="623">
+      <c r="A2" s="618">
         <f ca="1">TODAY()</f>
         <v>45284</v>
       </c>
-      <c r="B2" s="625" t="s">
+      <c r="B2" s="620" t="s">
         <v>371</v>
       </c>
-      <c r="C2" s="621" t="s">
+      <c r="C2" s="616" t="s">
         <v>358</v>
       </c>
-      <c r="D2" s="627" t="s">
+      <c r="D2" s="622" t="s">
         <v>356</v>
       </c>
-      <c r="E2" s="675" t="s">
+      <c r="E2" s="670" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="646" t="s">
+      <c r="F2" s="641" t="s">
         <v>102</v>
       </c>
-      <c r="G2" s="397" t="s">
+      <c r="G2" s="396" t="s">
         <v>179</v>
       </c>
       <c r="H2" s="80" t="s">
         <v>33</v>
       </c>
-      <c r="I2" s="666"/>
+      <c r="I2" s="661"/>
       <c r="J2" s="81" t="s">
         <v>76</v>
       </c>
-      <c r="K2" s="677" t="s">
+      <c r="K2" s="672" t="s">
         <v>343</v>
       </c>
-      <c r="L2" s="678"/>
-      <c r="M2" s="646" t="s">
+      <c r="L2" s="673"/>
+      <c r="M2" s="641" t="s">
         <v>102</v>
       </c>
       <c r="N2" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="O2" s="650" t="s">
+      <c r="O2" s="645" t="s">
         <v>102</v>
       </c>
       <c r="P2" s="85" t="s">
         <v>147</v>
       </c>
-      <c r="Q2" s="621" t="s">
+      <c r="Q2" s="616" t="s">
         <v>143</v>
       </c>
-      <c r="R2" s="604"/>
-      <c r="S2" s="663" t="s">
+      <c r="R2" s="599"/>
+      <c r="S2" s="658" t="s">
         <v>148</v>
       </c>
       <c r="T2" s="89"/>
       <c r="U2" s="124"/>
       <c r="V2" s="91"/>
       <c r="W2" s="146"/>
-      <c r="X2" s="435" t="s">
+      <c r="X2" s="434" t="s">
         <v>156</v>
       </c>
-      <c r="Y2" s="660"/>
-      <c r="Z2" s="411">
+      <c r="Y2" s="655"/>
+      <c r="Z2" s="410">
         <v>1</v>
       </c>
       <c r="AA2" s="309"/>
@@ -7139,23 +7139,23 @@
       <c r="AH2" s="80"/>
       <c r="AI2" s="80"/>
       <c r="AJ2" s="80"/>
-      <c r="AK2" s="445" t="s">
+      <c r="AK2" s="444" t="s">
         <v>465</v>
       </c>
       <c r="AL2" s="240" t="s">
         <v>464</v>
       </c>
-      <c r="AM2" s="432"/>
-      <c r="AN2" s="642"/>
+      <c r="AM2" s="431"/>
+      <c r="AN2" s="637"/>
     </row>
     <row r="3" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="624"/>
-      <c r="B3" s="626"/>
-      <c r="C3" s="622"/>
-      <c r="D3" s="628"/>
-      <c r="E3" s="676"/>
-      <c r="F3" s="647"/>
-      <c r="G3" s="398" t="s">
+      <c r="A3" s="619"/>
+      <c r="B3" s="621"/>
+      <c r="C3" s="617"/>
+      <c r="D3" s="623"/>
+      <c r="E3" s="671"/>
+      <c r="F3" s="642"/>
+      <c r="G3" s="397" t="s">
         <v>28</v>
       </c>
       <c r="H3" s="82" t="s">
@@ -7173,26 +7173,26 @@
       <c r="L3" s="203" t="s">
         <v>107</v>
       </c>
-      <c r="M3" s="647"/>
+      <c r="M3" s="642"/>
       <c r="N3" s="69" t="s">
         <v>146</v>
       </c>
-      <c r="O3" s="651"/>
+      <c r="O3" s="646"/>
       <c r="P3" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="Q3" s="622"/>
-      <c r="R3" s="606"/>
-      <c r="S3" s="664"/>
+      <c r="Q3" s="617"/>
+      <c r="R3" s="601"/>
+      <c r="S3" s="659"/>
       <c r="T3" s="89"/>
       <c r="U3" s="124"/>
       <c r="V3" s="120"/>
       <c r="W3" s="145"/>
-      <c r="X3" s="435" t="s">
+      <c r="X3" s="434" t="s">
         <v>157</v>
       </c>
-      <c r="Y3" s="660"/>
-      <c r="Z3" s="412">
+      <c r="Y3" s="655"/>
+      <c r="Z3" s="411">
         <v>1</v>
       </c>
       <c r="AA3" s="309"/>
@@ -7200,7 +7200,7 @@
       <c r="AC3" s="100" t="s">
         <v>481</v>
       </c>
-      <c r="AD3" s="662" t="s">
+      <c r="AD3" s="657" t="s">
         <v>456</v>
       </c>
       <c r="AE3" s="259"/>
@@ -7211,27 +7211,27 @@
       <c r="AJ3" s="16"/>
       <c r="AK3" s="259"/>
       <c r="AL3" s="16"/>
-      <c r="AM3" s="432"/>
-      <c r="AN3" s="642"/>
+      <c r="AM3" s="431"/>
+      <c r="AN3" s="637"/>
     </row>
     <row r="4" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="240" t="s">
         <v>183</v>
       </c>
-      <c r="B4" s="639" t="s">
+      <c r="B4" s="634" t="s">
         <v>374</v>
       </c>
-      <c r="C4" s="621" t="s">
+      <c r="C4" s="616" t="s">
         <v>154</v>
       </c>
-      <c r="D4" s="350" t="s">
+      <c r="D4" s="349" t="s">
         <v>135</v>
       </c>
-      <c r="E4" s="381">
+      <c r="E4" s="380">
         <v>2</v>
       </c>
-      <c r="F4" s="647"/>
-      <c r="G4" s="384" t="s">
+      <c r="F4" s="642"/>
+      <c r="G4" s="383" t="s">
         <v>202</v>
       </c>
       <c r="H4" s="86" t="s">
@@ -7247,11 +7247,11 @@
         <v>150</v>
       </c>
       <c r="L4" s="206"/>
-      <c r="M4" s="647"/>
+      <c r="M4" s="642"/>
       <c r="N4" s="176" t="s">
         <v>69</v>
       </c>
-      <c r="O4" s="651"/>
+      <c r="O4" s="646"/>
       <c r="P4" s="2" t="s">
         <v>191</v>
       </c>
@@ -7270,15 +7270,15 @@
       <c r="W4" s="147" t="s">
         <v>175</v>
       </c>
-      <c r="X4" s="435" t="s">
+      <c r="X4" s="434" t="s">
         <v>158</v>
       </c>
-      <c r="Y4" s="660"/>
-      <c r="Z4" s="413"/>
+      <c r="Y4" s="655"/>
+      <c r="Z4" s="412"/>
       <c r="AA4" s="309"/>
       <c r="AB4" s="211"/>
       <c r="AC4" s="16"/>
-      <c r="AD4" s="662"/>
+      <c r="AD4" s="657"/>
       <c r="AE4" s="259"/>
       <c r="AF4" s="259"/>
       <c r="AG4" s="16"/>
@@ -7287,47 +7287,47 @@
       <c r="AJ4" s="16"/>
       <c r="AK4" s="259"/>
       <c r="AL4" s="16"/>
-      <c r="AM4" s="432"/>
-      <c r="AN4" s="642"/>
-      <c r="AO4" s="341" t="s">
+      <c r="AM4" s="431"/>
+      <c r="AN4" s="637"/>
+      <c r="AO4" s="340" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="665" t="s">
+      <c r="A5" s="660" t="s">
         <v>419</v>
       </c>
-      <c r="B5" s="640"/>
-      <c r="C5" s="622"/>
+      <c r="B5" s="635"/>
+      <c r="C5" s="617"/>
       <c r="D5" s="61" t="s">
         <v>153</v>
       </c>
-      <c r="E5" s="382">
-        <v>1</v>
-      </c>
-      <c r="F5" s="647"/>
-      <c r="G5" s="631" t="s">
+      <c r="E5" s="381">
+        <v>1</v>
+      </c>
+      <c r="F5" s="642"/>
+      <c r="G5" s="626" t="s">
         <v>192</v>
       </c>
-      <c r="H5" s="631"/>
-      <c r="I5" s="631"/>
-      <c r="J5" s="631"/>
-      <c r="K5" s="631"/>
-      <c r="L5" s="632"/>
-      <c r="M5" s="647"/>
+      <c r="H5" s="626"/>
+      <c r="I5" s="626"/>
+      <c r="J5" s="626"/>
+      <c r="K5" s="626"/>
+      <c r="L5" s="627"/>
+      <c r="M5" s="642"/>
       <c r="N5" s="21">
         <v>8</v>
       </c>
-      <c r="O5" s="651"/>
+      <c r="O5" s="646"/>
       <c r="T5" s="89"/>
       <c r="U5" s="124"/>
       <c r="V5" s="120"/>
       <c r="W5" s="146"/>
-      <c r="X5" s="435" t="s">
+      <c r="X5" s="434" t="s">
         <v>159</v>
       </c>
-      <c r="Y5" s="660"/>
-      <c r="Z5" s="413">
+      <c r="Y5" s="655"/>
+      <c r="Z5" s="412">
         <v>1</v>
       </c>
       <c r="AA5" s="309"/>
@@ -7348,59 +7348,59 @@
       <c r="AJ5" s="16"/>
       <c r="AK5" s="259"/>
       <c r="AL5" s="80"/>
-      <c r="AM5" s="432"/>
-      <c r="AN5" s="642"/>
+      <c r="AM5" s="431"/>
+      <c r="AN5" s="637"/>
     </row>
     <row r="6" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="666"/>
-      <c r="B6" s="637" t="s">
+      <c r="A6" s="661"/>
+      <c r="B6" s="632" t="s">
         <v>177</v>
       </c>
-      <c r="C6" s="667"/>
-      <c r="D6" s="668"/>
-      <c r="F6" s="647"/>
-      <c r="G6" s="633"/>
-      <c r="H6" s="633"/>
-      <c r="I6" s="633"/>
-      <c r="J6" s="633"/>
-      <c r="K6" s="633"/>
-      <c r="L6" s="634"/>
-      <c r="M6" s="647"/>
-      <c r="O6" s="651"/>
+      <c r="C6" s="662"/>
+      <c r="D6" s="663"/>
+      <c r="F6" s="642"/>
+      <c r="G6" s="628"/>
+      <c r="H6" s="628"/>
+      <c r="I6" s="628"/>
+      <c r="J6" s="628"/>
+      <c r="K6" s="628"/>
+      <c r="L6" s="629"/>
+      <c r="M6" s="642"/>
+      <c r="O6" s="646"/>
       <c r="T6" s="89"/>
       <c r="U6" s="124"/>
       <c r="V6" s="98" t="s">
         <v>175</v>
       </c>
       <c r="W6" s="146"/>
-      <c r="X6" s="435" t="s">
+      <c r="X6" s="434" t="s">
         <v>160</v>
       </c>
-      <c r="Y6" s="660"/>
-      <c r="Z6" s="411">
+      <c r="Y6" s="655"/>
+      <c r="Z6" s="410">
         <v>1</v>
       </c>
       <c r="AA6" s="309"/>
       <c r="AB6" s="211"/>
       <c r="AC6" s="16"/>
-      <c r="AD6" s="417" t="s">
+      <c r="AD6" s="416" t="s">
         <v>241</v>
       </c>
       <c r="AE6" s="259"/>
       <c r="AF6" s="259"/>
       <c r="AG6" s="259"/>
       <c r="AH6" s="259"/>
-      <c r="AI6" s="656"/>
-      <c r="AJ6" s="445" t="s">
+      <c r="AI6" s="651"/>
+      <c r="AJ6" s="444" t="s">
         <v>459</v>
       </c>
-      <c r="AK6" s="656" t="s">
+      <c r="AK6" s="651" t="s">
         <v>252</v>
       </c>
       <c r="AL6" s="259"/>
-      <c r="AM6" s="432"/>
-      <c r="AN6" s="642"/>
-      <c r="AO6" s="341" t="s">
+      <c r="AM6" s="431"/>
+      <c r="AN6" s="637"/>
+      <c r="AO6" s="340" t="s">
         <v>471</v>
       </c>
     </row>
@@ -7408,18 +7408,18 @@
       <c r="A7" s="234" t="s">
         <v>574</v>
       </c>
-      <c r="B7" s="638"/>
+      <c r="B7" s="633"/>
       <c r="C7" s="204" t="s">
         <v>375</v>
       </c>
-      <c r="D7" s="351" t="s">
+      <c r="D7" s="350" t="s">
         <v>386</v>
       </c>
       <c r="E7" s="267">
         <v>3</v>
       </c>
-      <c r="F7" s="647"/>
-      <c r="G7" s="399">
+      <c r="F7" s="642"/>
+      <c r="G7" s="398">
         <v>0</v>
       </c>
       <c r="H7" s="150">
@@ -7431,14 +7431,14 @@
       <c r="J7" s="30">
         <v>0</v>
       </c>
-      <c r="K7" s="604">
+      <c r="K7" s="599">
         <v>0</v>
       </c>
       <c r="L7" s="214">
         <v>0</v>
       </c>
-      <c r="M7" s="647"/>
-      <c r="O7" s="651"/>
+      <c r="M7" s="642"/>
+      <c r="O7" s="646"/>
       <c r="R7" s="99" t="s">
         <v>44</v>
       </c>
@@ -7449,11 +7449,11 @@
       <c r="U7" s="124"/>
       <c r="V7" s="92"/>
       <c r="W7" s="146"/>
-      <c r="X7" s="435" t="s">
+      <c r="X7" s="434" t="s">
         <v>161</v>
       </c>
-      <c r="Y7" s="660"/>
-      <c r="Z7" s="411">
+      <c r="Y7" s="655"/>
+      <c r="Z7" s="410">
         <v>1</v>
       </c>
       <c r="AA7" s="309"/>
@@ -7462,18 +7462,18 @@
       <c r="AD7" s="16"/>
       <c r="AE7" s="259"/>
       <c r="AF7" s="259"/>
-      <c r="AG7" s="662" t="s">
+      <c r="AG7" s="657" t="s">
         <v>455</v>
       </c>
       <c r="AH7" s="259"/>
-      <c r="AI7" s="656"/>
+      <c r="AI7" s="651"/>
       <c r="AJ7" s="259"/>
-      <c r="AK7" s="656"/>
+      <c r="AK7" s="651"/>
       <c r="AL7" s="80" t="s">
         <v>497</v>
       </c>
-      <c r="AM7" s="432"/>
-      <c r="AN7" s="642"/>
+      <c r="AM7" s="431"/>
+      <c r="AN7" s="637"/>
       <c r="AP7" s="76" t="s">
         <v>472</v>
       </c>
@@ -7482,60 +7482,60 @@
       <c r="A8" s="2" t="s">
         <v>372</v>
       </c>
-      <c r="B8" s="349" t="s">
+      <c r="B8" s="348" t="s">
         <v>287</v>
       </c>
-      <c r="D8" s="340"/>
+      <c r="D8" s="339"/>
       <c r="E8" s="246">
         <f>SUM(G7:N9)</f>
         <v>15</v>
       </c>
-      <c r="F8" s="647"/>
-      <c r="G8" s="632">
-        <v>0</v>
-      </c>
-      <c r="H8" s="629" t="s">
+      <c r="F8" s="642"/>
+      <c r="G8" s="627">
+        <v>0</v>
+      </c>
+      <c r="H8" s="624" t="s">
         <v>104</v>
       </c>
-      <c r="I8" s="604">
-        <v>0</v>
-      </c>
-      <c r="J8" s="629" t="s">
+      <c r="I8" s="599">
+        <v>0</v>
+      </c>
+      <c r="J8" s="624" t="s">
         <v>104</v>
       </c>
-      <c r="K8" s="635"/>
-      <c r="L8" s="669"/>
-      <c r="M8" s="648"/>
-      <c r="N8" s="672">
+      <c r="K8" s="630"/>
+      <c r="L8" s="664"/>
+      <c r="M8" s="643"/>
+      <c r="N8" s="667">
         <f>N5+N11</f>
         <v>15</v>
       </c>
-      <c r="O8" s="651"/>
+      <c r="O8" s="646"/>
       <c r="T8" s="103" t="s">
         <v>44</v>
       </c>
       <c r="U8" s="124"/>
       <c r="V8" s="92"/>
       <c r="W8" s="146"/>
-      <c r="X8" s="435" t="s">
+      <c r="X8" s="434" t="s">
         <v>162</v>
       </c>
-      <c r="Y8" s="660"/>
-      <c r="Z8" s="413"/>
+      <c r="Y8" s="655"/>
+      <c r="Z8" s="412"/>
       <c r="AA8" s="309"/>
       <c r="AB8" s="211"/>
       <c r="AC8" s="16"/>
       <c r="AD8" s="16"/>
       <c r="AE8" s="259"/>
       <c r="AF8" s="259"/>
-      <c r="AG8" s="662"/>
+      <c r="AG8" s="657"/>
       <c r="AH8" s="259"/>
-      <c r="AI8" s="656"/>
+      <c r="AI8" s="651"/>
       <c r="AJ8" s="259"/>
       <c r="AK8" s="259"/>
       <c r="AL8" s="259"/>
-      <c r="AM8" s="432"/>
-      <c r="AN8" s="642"/>
+      <c r="AM8" s="431"/>
+      <c r="AN8" s="637"/>
     </row>
     <row r="9" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="234" t="s">
@@ -7547,20 +7547,20 @@
       <c r="C9" s="204" t="s">
         <v>491</v>
       </c>
-      <c r="D9" s="351" t="s">
+      <c r="D9" s="350" t="s">
         <v>282</v>
       </c>
-      <c r="F9" s="647"/>
-      <c r="G9" s="634"/>
-      <c r="H9" s="630"/>
-      <c r="I9" s="606"/>
-      <c r="J9" s="630"/>
-      <c r="K9" s="636"/>
-      <c r="L9" s="670"/>
-      <c r="M9" s="649"/>
-      <c r="N9" s="673"/>
-      <c r="O9" s="652"/>
-      <c r="S9" s="663" t="s">
+      <c r="F9" s="642"/>
+      <c r="G9" s="629"/>
+      <c r="H9" s="625"/>
+      <c r="I9" s="601"/>
+      <c r="J9" s="625"/>
+      <c r="K9" s="631"/>
+      <c r="L9" s="665"/>
+      <c r="M9" s="644"/>
+      <c r="N9" s="668"/>
+      <c r="O9" s="647"/>
+      <c r="S9" s="658" t="s">
         <v>61</v>
       </c>
       <c r="T9" s="89"/>
@@ -7569,29 +7569,29 @@
         <v>175</v>
       </c>
       <c r="W9" s="48"/>
-      <c r="X9" s="435" t="s">
+      <c r="X9" s="434" t="s">
         <v>163</v>
       </c>
-      <c r="Y9" s="660"/>
-      <c r="Z9" s="414"/>
+      <c r="Y9" s="655"/>
+      <c r="Z9" s="413"/>
       <c r="AA9" s="309"/>
       <c r="AB9" s="211"/>
       <c r="AC9" s="16"/>
-      <c r="AD9" s="417" t="s">
+      <c r="AD9" s="416" t="s">
         <v>241</v>
       </c>
       <c r="AE9" s="259"/>
       <c r="AF9" s="259"/>
-      <c r="AG9" s="662"/>
+      <c r="AG9" s="657"/>
       <c r="AH9" s="259"/>
-      <c r="AI9" s="656"/>
+      <c r="AI9" s="651"/>
       <c r="AJ9" s="80"/>
-      <c r="AK9" s="656" t="s">
+      <c r="AK9" s="651" t="s">
         <v>252</v>
       </c>
       <c r="AL9" s="259"/>
-      <c r="AM9" s="432"/>
-      <c r="AN9" s="642"/>
+      <c r="AM9" s="431"/>
+      <c r="AN9" s="637"/>
       <c r="AP9" s="2" t="s">
         <v>509</v>
       </c>
@@ -7606,22 +7606,22 @@
       <c r="D10" s="142"/>
       <c r="E10" s="239">
         <f>Boat!W8</f>
-        <v>37</v>
-      </c>
-      <c r="F10" s="647"/>
-      <c r="N10" s="422" t="s">
+        <v>36</v>
+      </c>
+      <c r="F10" s="642"/>
+      <c r="N10" s="421" t="s">
         <v>397</v>
       </c>
-      <c r="O10" s="684" t="s">
+      <c r="O10" s="679" t="s">
         <v>102</v>
       </c>
-      <c r="P10" s="653" t="s">
+      <c r="P10" s="648" t="s">
         <v>401</v>
       </c>
       <c r="R10" s="74" t="s">
         <v>44</v>
       </c>
-      <c r="S10" s="671"/>
+      <c r="S10" s="666"/>
       <c r="T10" s="89"/>
       <c r="U10" s="123" t="s">
         <v>176</v>
@@ -7630,11 +7630,11 @@
         <v>221</v>
       </c>
       <c r="W10" s="146"/>
-      <c r="X10" s="435" t="s">
+      <c r="X10" s="434" t="s">
         <v>164</v>
       </c>
-      <c r="Y10" s="660"/>
-      <c r="Z10" s="413">
+      <c r="Y10" s="655"/>
+      <c r="Z10" s="412">
         <v>0</v>
       </c>
       <c r="AA10" s="309">
@@ -7651,16 +7651,16 @@
       <c r="AF10" s="240" t="s">
         <v>312</v>
       </c>
-      <c r="AG10" s="662"/>
+      <c r="AG10" s="657"/>
       <c r="AH10" s="80"/>
-      <c r="AI10" s="656"/>
+      <c r="AI10" s="651"/>
       <c r="AJ10" s="259"/>
-      <c r="AK10" s="656"/>
+      <c r="AK10" s="651"/>
       <c r="AL10" s="259"/>
-      <c r="AM10" s="446" t="s">
+      <c r="AM10" s="445" t="s">
         <v>319</v>
       </c>
-      <c r="AN10" s="642"/>
+      <c r="AN10" s="637"/>
       <c r="AO10" s="206" t="s">
         <v>94</v>
       </c>
@@ -7669,38 +7669,38 @@
       <c r="A11" s="225" t="s">
         <v>286</v>
       </c>
-      <c r="B11" s="604" t="s">
+      <c r="B11" s="599" t="s">
         <v>284</v>
       </c>
-      <c r="C11" s="461" t="s">
+      <c r="C11" s="460" t="s">
         <v>177</v>
       </c>
       <c r="D11" s="172" t="s">
         <v>356</v>
       </c>
-      <c r="F11" s="647"/>
+      <c r="F11" s="642"/>
       <c r="M11" s="6"/>
       <c r="N11" s="117">
         <v>7</v>
       </c>
-      <c r="O11" s="685"/>
-      <c r="P11" s="654"/>
+      <c r="O11" s="680"/>
+      <c r="P11" s="649"/>
       <c r="Q11" s="65"/>
       <c r="R11" s="120" t="s">
         <v>221</v>
       </c>
-      <c r="S11" s="671"/>
+      <c r="S11" s="666"/>
       <c r="T11" s="102" t="s">
         <v>44</v>
       </c>
       <c r="U11" s="124"/>
       <c r="V11" s="121"/>
       <c r="W11" s="146"/>
-      <c r="X11" s="435" t="s">
+      <c r="X11" s="434" t="s">
         <v>165</v>
       </c>
-      <c r="Y11" s="660"/>
-      <c r="Z11" s="413"/>
+      <c r="Y11" s="655"/>
+      <c r="Z11" s="412"/>
       <c r="AA11" s="309">
         <v>1</v>
       </c>
@@ -7713,14 +7713,14 @@
       <c r="AF11" s="259" t="s">
         <v>477</v>
       </c>
-      <c r="AG11" s="662"/>
+      <c r="AG11" s="657"/>
       <c r="AH11" s="259"/>
       <c r="AI11" s="70"/>
       <c r="AJ11" s="259"/>
       <c r="AK11" s="259"/>
       <c r="AL11" s="259"/>
-      <c r="AM11" s="432"/>
-      <c r="AN11" s="642"/>
+      <c r="AM11" s="431"/>
+      <c r="AN11" s="637"/>
       <c r="AP11" s="76" t="s">
         <v>485</v>
       </c>
@@ -7729,8 +7729,8 @@
       <c r="A12" s="229" t="s">
         <v>384</v>
       </c>
-      <c r="B12" s="606"/>
-      <c r="C12" s="462" t="s">
+      <c r="B12" s="601"/>
+      <c r="C12" s="461" t="s">
         <v>385</v>
       </c>
       <c r="D12" s="61" t="s">
@@ -7739,36 +7739,36 @@
       <c r="E12" s="226">
         <v>3</v>
       </c>
-      <c r="F12" s="647"/>
-      <c r="G12" s="340" t="s">
+      <c r="F12" s="642"/>
+      <c r="G12" s="339" t="s">
         <v>401</v>
       </c>
-      <c r="H12" s="609" t="s">
+      <c r="H12" s="604" t="s">
         <v>430</v>
       </c>
-      <c r="I12" s="611"/>
-      <c r="J12" s="611"/>
-      <c r="K12" s="689"/>
+      <c r="I12" s="606"/>
+      <c r="J12" s="606"/>
+      <c r="K12" s="684"/>
       <c r="L12" s="205"/>
       <c r="M12" s="205"/>
       <c r="N12" s="205"/>
-      <c r="O12" s="685"/>
-      <c r="P12" s="654"/>
+      <c r="O12" s="680"/>
+      <c r="P12" s="649"/>
       <c r="R12" s="122" t="s">
         <v>180</v>
       </c>
-      <c r="S12" s="664"/>
+      <c r="S12" s="659"/>
       <c r="T12" s="101" t="s">
         <v>44</v>
       </c>
       <c r="U12" s="124"/>
       <c r="V12" s="146"/>
       <c r="W12" s="146"/>
-      <c r="X12" s="435" t="s">
+      <c r="X12" s="434" t="s">
         <v>166</v>
       </c>
-      <c r="Y12" s="660"/>
-      <c r="Z12" s="411">
+      <c r="Y12" s="655"/>
+      <c r="Z12" s="410">
         <v>1</v>
       </c>
       <c r="AA12" s="309">
@@ -7778,16 +7778,16 @@
       <c r="AC12" s="100" t="s">
         <v>482</v>
       </c>
-      <c r="AD12" s="674" t="s">
+      <c r="AD12" s="669" t="s">
         <v>241</v>
       </c>
-      <c r="AE12" s="445" t="s">
+      <c r="AE12" s="444" t="s">
         <v>240</v>
       </c>
-      <c r="AF12" s="662" t="s">
+      <c r="AF12" s="657" t="s">
         <v>229</v>
       </c>
-      <c r="AG12" s="662"/>
+      <c r="AG12" s="657"/>
       <c r="AH12" s="240" t="s">
         <v>260</v>
       </c>
@@ -7797,43 +7797,43 @@
       <c r="AJ12" s="259"/>
       <c r="AK12" s="259"/>
       <c r="AL12" s="259"/>
-      <c r="AM12" s="657" t="s">
+      <c r="AM12" s="652" t="s">
         <v>250</v>
       </c>
-      <c r="AN12" s="642"/>
-      <c r="AO12" s="341" t="s">
+      <c r="AN12" s="637"/>
+      <c r="AO12" s="340" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="13" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="451" t="s">
+      <c r="B13" s="450" t="s">
         <v>195</v>
       </c>
-      <c r="E13" s="452">
+      <c r="E13" s="451">
         <v>-3</v>
       </c>
-      <c r="F13" s="647"/>
-      <c r="G13" s="611" t="s">
+      <c r="F13" s="642"/>
+      <c r="G13" s="606" t="s">
         <v>431</v>
       </c>
-      <c r="H13" s="611"/>
-      <c r="I13" s="611"/>
-      <c r="J13" s="689"/>
+      <c r="H13" s="606"/>
+      <c r="I13" s="606"/>
+      <c r="J13" s="684"/>
       <c r="M13" s="6"/>
       <c r="N13" s="6"/>
-      <c r="O13" s="685"/>
-      <c r="P13" s="655"/>
+      <c r="O13" s="680"/>
+      <c r="P13" s="650"/>
       <c r="T13" s="105" t="s">
         <v>44</v>
       </c>
       <c r="U13" s="124"/>
       <c r="V13" s="146"/>
       <c r="W13" s="146"/>
-      <c r="X13" s="435" t="s">
+      <c r="X13" s="434" t="s">
         <v>167</v>
       </c>
-      <c r="Y13" s="660"/>
-      <c r="Z13" s="411">
+      <c r="Y13" s="655"/>
+      <c r="Z13" s="410">
         <v>1</v>
       </c>
       <c r="AA13" s="309">
@@ -7843,8 +7843,8 @@
         <v>501</v>
       </c>
       <c r="AC13" s="16"/>
-      <c r="AD13" s="674"/>
-      <c r="AF13" s="662"/>
+      <c r="AD13" s="669"/>
+      <c r="AF13" s="657"/>
       <c r="AG13" s="80"/>
       <c r="AH13" s="240" t="s">
         <v>309</v>
@@ -7855,27 +7855,27 @@
       <c r="AJ13" s="80"/>
       <c r="AK13" s="259"/>
       <c r="AL13" s="259"/>
-      <c r="AM13" s="657"/>
-      <c r="AN13" s="642"/>
+      <c r="AM13" s="652"/>
+      <c r="AN13" s="637"/>
     </row>
     <row r="14" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="454"/>
-      <c r="B14" s="455"/>
-      <c r="C14" s="463"/>
-      <c r="D14" s="456"/>
-      <c r="E14" s="457"/>
-      <c r="F14" s="647"/>
-      <c r="G14" s="611" t="s">
+      <c r="A14" s="453"/>
+      <c r="B14" s="454"/>
+      <c r="C14" s="462"/>
+      <c r="D14" s="455"/>
+      <c r="E14" s="456"/>
+      <c r="F14" s="642"/>
+      <c r="G14" s="606" t="s">
         <v>430</v>
       </c>
-      <c r="H14" s="611"/>
-      <c r="I14" s="611"/>
-      <c r="J14" s="689"/>
+      <c r="H14" s="606"/>
+      <c r="I14" s="606"/>
+      <c r="J14" s="684"/>
       <c r="K14" s="2">
         <v>12</v>
       </c>
       <c r="N14" s="6"/>
-      <c r="O14" s="685"/>
+      <c r="O14" s="680"/>
       <c r="Q14" s="61" t="s">
         <v>534</v>
       </c>
@@ -7886,37 +7886,37 @@
       <c r="U14" s="124"/>
       <c r="V14" s="93"/>
       <c r="W14" s="146"/>
-      <c r="X14" s="435" t="s">
+      <c r="X14" s="434" t="s">
         <v>168</v>
       </c>
-      <c r="Y14" s="660"/>
-      <c r="Z14" s="411">
+      <c r="Y14" s="655"/>
+      <c r="Z14" s="410">
         <v>1</v>
       </c>
       <c r="AA14" s="309"/>
       <c r="AB14" s="211"/>
       <c r="AC14" s="16"/>
-      <c r="AD14" s="674"/>
+      <c r="AD14" s="669"/>
       <c r="AE14" s="259"/>
-      <c r="AF14" s="662"/>
+      <c r="AF14" s="657"/>
       <c r="AG14" s="259"/>
       <c r="AH14" s="259"/>
       <c r="AI14" s="70"/>
       <c r="AJ14" s="259"/>
       <c r="AK14" s="259"/>
       <c r="AL14" s="259"/>
-      <c r="AM14" s="657"/>
-      <c r="AN14" s="642"/>
+      <c r="AM14" s="652"/>
+      <c r="AN14" s="637"/>
     </row>
     <row r="15" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="453" t="s">
+      <c r="A15" s="452" t="s">
         <v>507</v>
       </c>
-      <c r="C15" s="604" t="s">
+      <c r="C15" s="599" t="s">
         <v>374</v>
       </c>
-      <c r="F15" s="647"/>
-      <c r="O15" s="685"/>
+      <c r="F15" s="642"/>
+      <c r="O15" s="680"/>
       <c r="R15" s="99" t="s">
         <v>44</v>
       </c>
@@ -7926,11 +7926,11 @@
       <c r="W15" s="147" t="s">
         <v>180</v>
       </c>
-      <c r="X15" s="435" t="s">
+      <c r="X15" s="434" t="s">
         <v>169</v>
       </c>
-      <c r="Y15" s="660"/>
-      <c r="Z15" s="413">
+      <c r="Y15" s="655"/>
+      <c r="Z15" s="412">
         <v>1</v>
       </c>
       <c r="AA15" s="309"/>
@@ -7938,8 +7938,8 @@
       <c r="AC15" s="76" t="s">
         <v>480</v>
       </c>
-      <c r="AD15" s="674"/>
-      <c r="AF15" s="662"/>
+      <c r="AD15" s="669"/>
+      <c r="AF15" s="657"/>
       <c r="AG15" s="80"/>
       <c r="AH15" s="240" t="s">
         <v>449</v>
@@ -7952,8 +7952,8 @@
       </c>
       <c r="AK15" s="259"/>
       <c r="AL15" s="259"/>
-      <c r="AM15" s="657"/>
-      <c r="AN15" s="642"/>
+      <c r="AM15" s="652"/>
+      <c r="AN15" s="637"/>
       <c r="AP15" s="76" t="s">
         <v>73</v>
       </c>
@@ -7968,32 +7968,32 @@
       <c r="B16" s="21" t="s">
         <v>407</v>
       </c>
-      <c r="C16" s="606"/>
+      <c r="C16" s="601"/>
       <c r="D16" s="61" t="s">
         <v>494</v>
       </c>
       <c r="E16" s="226">
         <v>1</v>
       </c>
-      <c r="F16" s="647"/>
-      <c r="G16" s="340" t="s">
+      <c r="F16" s="642"/>
+      <c r="G16" s="339" t="s">
         <v>489</v>
       </c>
-      <c r="I16" s="474"/>
+      <c r="I16" s="472"/>
       <c r="J16" s="20"/>
-      <c r="O16" s="685"/>
-      <c r="R16" s="439" t="s">
+      <c r="O16" s="680"/>
+      <c r="R16" s="438" t="s">
         <v>184</v>
       </c>
       <c r="T16" s="89"/>
       <c r="U16" s="124"/>
       <c r="V16" s="94"/>
       <c r="W16" s="146"/>
-      <c r="X16" s="435" t="s">
+      <c r="X16" s="434" t="s">
         <v>170</v>
       </c>
-      <c r="Y16" s="660"/>
-      <c r="Z16" s="411">
+      <c r="Y16" s="655"/>
+      <c r="Z16" s="410">
         <v>1</v>
       </c>
       <c r="AA16" s="309"/>
@@ -8010,21 +8010,21 @@
       </c>
       <c r="AK16" s="259"/>
       <c r="AL16" s="80"/>
-      <c r="AM16" s="432" t="s">
+      <c r="AM16" s="431" t="s">
         <v>318</v>
       </c>
-      <c r="AN16" s="642"/>
+      <c r="AN16" s="637"/>
       <c r="AP16" s="76" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="17" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="80"/>
-      <c r="F17" s="647"/>
-      <c r="I17" s="475"/>
+      <c r="F17" s="642"/>
+      <c r="I17" s="473"/>
       <c r="J17" s="20"/>
       <c r="N17" s="6"/>
-      <c r="O17" s="685"/>
+      <c r="O17" s="680"/>
       <c r="Q17" s="21" t="s">
         <v>532</v>
       </c>
@@ -8041,11 +8041,11 @@
       <c r="W17" s="147" t="s">
         <v>176</v>
       </c>
-      <c r="X17" s="435" t="s">
+      <c r="X17" s="434" t="s">
         <v>171</v>
       </c>
-      <c r="Y17" s="660"/>
-      <c r="Z17" s="413"/>
+      <c r="Y17" s="655"/>
+      <c r="Z17" s="412"/>
       <c r="AA17" s="309"/>
       <c r="AB17" s="211"/>
       <c r="AC17" s="76" t="s">
@@ -8068,8 +8068,8 @@
       <c r="AJ17" s="80"/>
       <c r="AK17" s="259"/>
       <c r="AL17" s="80"/>
-      <c r="AM17" s="432"/>
-      <c r="AN17" s="642"/>
+      <c r="AM17" s="431"/>
+      <c r="AN17" s="637"/>
       <c r="AO17" s="206" t="s">
         <v>498</v>
       </c>
@@ -8078,47 +8078,47 @@
       </c>
     </row>
     <row r="18" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="469" t="s">
+      <c r="A18" s="468" t="s">
         <v>578</v>
       </c>
       <c r="B18" s="21" t="s">
         <v>538</v>
       </c>
-      <c r="C18" s="458" t="s">
+      <c r="C18" s="457" t="s">
         <v>518</v>
       </c>
-      <c r="D18" s="387" t="s">
+      <c r="D18" s="386" t="s">
         <v>516</v>
       </c>
       <c r="E18" s="99" t="s">
         <v>44</v>
       </c>
-      <c r="F18" s="647"/>
-      <c r="G18" s="340" t="s">
+      <c r="F18" s="642"/>
+      <c r="G18" s="339" t="s">
         <v>529</v>
       </c>
       <c r="I18" s="24"/>
       <c r="J18" s="20"/>
-      <c r="O18" s="685"/>
+      <c r="O18" s="680"/>
       <c r="Q18" s="112"/>
-      <c r="R18" s="679" t="s">
+      <c r="R18" s="674" t="s">
         <v>537</v>
       </c>
       <c r="T18" s="100" t="s">
         <v>44</v>
       </c>
-      <c r="U18" s="618" t="s">
+      <c r="U18" s="613" t="s">
         <v>44</v>
       </c>
       <c r="V18" s="120"/>
       <c r="W18" s="147" t="s">
         <v>175</v>
       </c>
-      <c r="X18" s="435" t="s">
+      <c r="X18" s="434" t="s">
         <v>172</v>
       </c>
-      <c r="Y18" s="660"/>
-      <c r="Z18" s="413">
+      <c r="Y18" s="655"/>
+      <c r="Z18" s="412">
         <v>1</v>
       </c>
       <c r="AA18" s="309"/>
@@ -8128,39 +8128,39 @@
       <c r="AC18" s="16"/>
       <c r="AD18" s="16"/>
       <c r="AE18" s="259"/>
-      <c r="AF18" s="656" t="s">
+      <c r="AF18" s="651" t="s">
         <v>476</v>
       </c>
       <c r="AG18" s="259"/>
       <c r="AH18" s="70"/>
       <c r="AI18" s="70"/>
-      <c r="AJ18" s="658" t="s">
+      <c r="AJ18" s="653" t="s">
         <v>316</v>
       </c>
       <c r="AK18" s="259"/>
       <c r="AL18" s="80"/>
-      <c r="AM18" s="432"/>
-      <c r="AN18" s="642"/>
+      <c r="AM18" s="431"/>
+      <c r="AN18" s="637"/>
       <c r="AP18" s="76" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="19" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F19" s="647"/>
+      <c r="F19" s="642"/>
       <c r="I19" s="221"/>
-      <c r="O19" s="685"/>
-      <c r="R19" s="680"/>
+      <c r="O19" s="680"/>
+      <c r="R19" s="675"/>
       <c r="S19" s="30" t="s">
         <v>535</v>
       </c>
-      <c r="U19" s="619"/>
+      <c r="U19" s="614"/>
       <c r="V19" s="146"/>
       <c r="W19" s="146"/>
-      <c r="X19" s="435" t="s">
+      <c r="X19" s="434" t="s">
         <v>173</v>
       </c>
-      <c r="Y19" s="660"/>
-      <c r="Z19" s="411">
+      <c r="Y19" s="655"/>
+      <c r="Z19" s="410">
         <v>1</v>
       </c>
       <c r="AA19" s="309"/>
@@ -8168,17 +8168,17 @@
       <c r="AC19" s="16"/>
       <c r="AD19" s="16"/>
       <c r="AE19" s="259"/>
-      <c r="AF19" s="656"/>
+      <c r="AF19" s="651"/>
       <c r="AG19" s="259"/>
       <c r="AH19" s="259"/>
       <c r="AI19" s="70"/>
-      <c r="AJ19" s="658"/>
-      <c r="AK19" s="464" t="s">
+      <c r="AJ19" s="653"/>
+      <c r="AK19" s="463" t="s">
         <v>252</v>
       </c>
       <c r="AL19" s="80"/>
-      <c r="AM19" s="432"/>
-      <c r="AN19" s="642"/>
+      <c r="AM19" s="431"/>
+      <c r="AN19" s="637"/>
       <c r="AP19" s="76" t="s">
         <v>469</v>
       </c>
@@ -8190,59 +8190,59 @@
       <c r="B20" s="218" t="s">
         <v>512</v>
       </c>
-      <c r="C20" s="460" t="s">
+      <c r="C20" s="459" t="s">
         <v>487</v>
       </c>
       <c r="D20" s="21" t="s">
         <v>541</v>
       </c>
-      <c r="E20" s="441">
+      <c r="E20" s="440">
         <v>-1</v>
       </c>
-      <c r="F20" s="647"/>
-      <c r="G20" s="340" t="s">
+      <c r="F20" s="642"/>
+      <c r="G20" s="339" t="s">
         <v>492</v>
       </c>
       <c r="I20" s="221"/>
-      <c r="O20" s="685"/>
-      <c r="Q20" s="687" t="s">
+      <c r="O20" s="680"/>
+      <c r="Q20" s="682" t="s">
         <v>48</v>
       </c>
-      <c r="T20" s="408" t="s">
+      <c r="T20" s="407" t="s">
         <v>44</v>
       </c>
-      <c r="U20" s="620"/>
-      <c r="W20" s="409"/>
-      <c r="X20" s="436" t="s">
+      <c r="U20" s="615"/>
+      <c r="W20" s="408"/>
+      <c r="X20" s="435" t="s">
         <v>174</v>
       </c>
-      <c r="Y20" s="660"/>
-      <c r="Z20" s="415">
-        <v>1</v>
-      </c>
-      <c r="AA20" s="416">
+      <c r="Y20" s="655"/>
+      <c r="Z20" s="414">
+        <v>1</v>
+      </c>
+      <c r="AA20" s="415">
         <v>1</v>
       </c>
       <c r="AB20" s="258"/>
-      <c r="AC20" s="418"/>
-      <c r="AD20" s="418"/>
-      <c r="AE20" s="342"/>
-      <c r="AF20" s="407"/>
-      <c r="AG20" s="342"/>
-      <c r="AH20" s="343"/>
-      <c r="AI20" s="344" t="s">
+      <c r="AC20" s="417"/>
+      <c r="AD20" s="417"/>
+      <c r="AE20" s="341"/>
+      <c r="AF20" s="406"/>
+      <c r="AG20" s="341"/>
+      <c r="AH20" s="342"/>
+      <c r="AI20" s="343" t="s">
         <v>299</v>
       </c>
-      <c r="AJ20" s="342"/>
-      <c r="AK20" s="465"/>
-      <c r="AL20" s="343" t="s">
+      <c r="AJ20" s="341"/>
+      <c r="AK20" s="464"/>
+      <c r="AL20" s="342" t="s">
         <v>500</v>
       </c>
-      <c r="AM20" s="384" t="s">
+      <c r="AM20" s="383" t="s">
         <v>250</v>
       </c>
-      <c r="AN20" s="642"/>
-      <c r="AO20" s="341" t="s">
+      <c r="AN20" s="637"/>
+      <c r="AO20" s="340" t="s">
         <v>461</v>
       </c>
       <c r="AQ20" s="100" t="s">
@@ -8262,29 +8262,29 @@
       <c r="E21" s="267">
         <v>0</v>
       </c>
-      <c r="F21" s="647"/>
+      <c r="F21" s="642"/>
       <c r="I21" s="221"/>
-      <c r="O21" s="685"/>
-      <c r="Q21" s="688"/>
-      <c r="T21" s="426"/>
+      <c r="O21" s="680"/>
+      <c r="Q21" s="683"/>
+      <c r="T21" s="425"/>
       <c r="U21" s="14"/>
-      <c r="V21" s="615"/>
-      <c r="W21" s="430" t="s">
+      <c r="V21" s="610"/>
+      <c r="W21" s="429" t="s">
         <v>175</v>
       </c>
-      <c r="X21" s="433" t="s">
+      <c r="X21" s="432" t="s">
         <v>186</v>
       </c>
-      <c r="Y21" s="660"/>
-      <c r="Z21" s="449">
+      <c r="Y21" s="655"/>
+      <c r="Z21" s="448">
         <v>3</v>
       </c>
-      <c r="AA21" s="450">
+      <c r="AA21" s="449">
         <v>3</v>
       </c>
-      <c r="AB21" s="419"/>
+      <c r="AB21" s="418"/>
       <c r="AC21" s="6"/>
-      <c r="AD21" s="417" t="s">
+      <c r="AD21" s="416" t="s">
         <v>241</v>
       </c>
       <c r="AE21" s="6"/>
@@ -8303,36 +8303,36 @@
         <v>252</v>
       </c>
       <c r="AL21" s="6"/>
-      <c r="AM21" s="432" t="s">
+      <c r="AM21" s="431" t="s">
         <v>546</v>
       </c>
-      <c r="AN21" s="642"/>
+      <c r="AN21" s="637"/>
     </row>
     <row r="22" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F22" s="647"/>
-      <c r="G22" s="340" t="s">
+      <c r="F22" s="642"/>
+      <c r="G22" s="339" t="s">
         <v>490</v>
       </c>
       <c r="I22" s="221"/>
-      <c r="O22" s="685"/>
-      <c r="R22" s="438" t="s">
+      <c r="O22" s="680"/>
+      <c r="R22" s="437" t="s">
         <v>44</v>
       </c>
-      <c r="T22" s="427" t="s">
+      <c r="T22" s="426" t="s">
         <v>44</v>
       </c>
       <c r="U22" s="15"/>
-      <c r="V22" s="616"/>
-      <c r="W22" s="430" t="s">
+      <c r="V22" s="611"/>
+      <c r="W22" s="429" t="s">
         <v>175</v>
       </c>
-      <c r="X22" s="433" t="s">
+      <c r="X22" s="432" t="s">
         <v>187</v>
       </c>
-      <c r="Y22" s="660"/>
-      <c r="Z22" s="419"/>
+      <c r="Y22" s="655"/>
+      <c r="Z22" s="418"/>
       <c r="AA22" s="10"/>
-      <c r="AB22" s="419"/>
+      <c r="AB22" s="418"/>
       <c r="AC22" s="6"/>
       <c r="AD22" s="6"/>
       <c r="AE22" s="6"/>
@@ -8340,7 +8340,7 @@
       <c r="AG22" s="6"/>
       <c r="AH22" s="6"/>
       <c r="AI22" s="6"/>
-      <c r="AJ22" s="656" t="s">
+      <c r="AJ22" s="651" t="s">
         <v>473</v>
       </c>
       <c r="AK22" s="259"/>
@@ -8348,7 +8348,7 @@
         <v>479</v>
       </c>
       <c r="AM22" s="302"/>
-      <c r="AN22" s="642"/>
+      <c r="AN22" s="637"/>
     </row>
     <row r="23" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="233" t="s">
@@ -8357,34 +8357,34 @@
       <c r="B23" s="175" t="s">
         <v>360</v>
       </c>
-      <c r="C23" s="459" t="s">
+      <c r="C23" s="458" t="s">
         <v>141</v>
       </c>
-      <c r="D23" s="350" t="s">
+      <c r="D23" s="349" t="s">
         <v>135</v>
       </c>
       <c r="E23" s="227">
         <v>1</v>
       </c>
-      <c r="F23" s="647"/>
+      <c r="F23" s="642"/>
       <c r="I23" s="221"/>
-      <c r="O23" s="685"/>
-      <c r="Q23" s="687" t="s">
+      <c r="O23" s="680"/>
+      <c r="Q23" s="682" t="s">
         <v>144</v>
       </c>
       <c r="T23" s="17"/>
-      <c r="U23" s="424" t="s">
+      <c r="U23" s="423" t="s">
         <v>44</v>
       </c>
-      <c r="V23" s="616"/>
+      <c r="V23" s="611"/>
       <c r="W23" s="148"/>
-      <c r="X23" s="433" t="s">
+      <c r="X23" s="432" t="s">
         <v>188</v>
       </c>
-      <c r="Y23" s="660"/>
+      <c r="Y23" s="655"/>
       <c r="Z23" s="17"/>
       <c r="AA23" s="10"/>
-      <c r="AB23" s="419"/>
+      <c r="AB23" s="418"/>
       <c r="AC23" s="6"/>
       <c r="AD23" s="6"/>
       <c r="AE23" s="6"/>
@@ -8392,50 +8392,50 @@
       <c r="AG23" s="6"/>
       <c r="AH23" s="6"/>
       <c r="AI23" s="6"/>
-      <c r="AJ23" s="656"/>
+      <c r="AJ23" s="651"/>
       <c r="AK23" s="259"/>
       <c r="AL23" s="80" t="s">
         <v>508</v>
       </c>
       <c r="AM23" s="302"/>
-      <c r="AN23" s="642"/>
+      <c r="AN23" s="637"/>
     </row>
     <row r="24" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="444" t="s">
+      <c r="A24" s="443" t="s">
         <v>429</v>
       </c>
       <c r="B24" s="218" t="s">
         <v>324</v>
       </c>
-      <c r="C24" s="461" t="s">
+      <c r="C24" s="460" t="s">
         <v>154</v>
       </c>
       <c r="D24" s="172" t="s">
         <v>266</v>
       </c>
-      <c r="E24" s="440">
-        <v>1</v>
-      </c>
-      <c r="F24" s="647"/>
+      <c r="E24" s="439">
+        <v>1</v>
+      </c>
+      <c r="F24" s="642"/>
       <c r="G24" s="61" t="s">
         <v>491</v>
       </c>
       <c r="I24" s="221"/>
-      <c r="O24" s="685"/>
-      <c r="Q24" s="688"/>
+      <c r="O24" s="680"/>
+      <c r="Q24" s="683"/>
       <c r="T24" s="17"/>
       <c r="U24" s="229" t="s">
         <v>44</v>
       </c>
-      <c r="V24" s="616"/>
+      <c r="V24" s="611"/>
       <c r="W24" s="148"/>
-      <c r="X24" s="433" t="s">
+      <c r="X24" s="432" t="s">
         <v>185</v>
       </c>
-      <c r="Y24" s="660"/>
+      <c r="Y24" s="655"/>
       <c r="Z24" s="17"/>
       <c r="AA24" s="10"/>
-      <c r="AB24" s="419"/>
+      <c r="AB24" s="418"/>
       <c r="AC24" s="6"/>
       <c r="AD24" s="6"/>
       <c r="AE24" s="6"/>
@@ -8444,40 +8444,40 @@
       <c r="AH24" s="6"/>
       <c r="AI24" s="6"/>
       <c r="AJ24" s="6"/>
-      <c r="AK24" s="445" t="s">
+      <c r="AK24" s="444" t="s">
         <v>465</v>
       </c>
       <c r="AL24" s="240" t="s">
         <v>464</v>
       </c>
       <c r="AM24" s="302"/>
-      <c r="AN24" s="642"/>
+      <c r="AN24" s="637"/>
     </row>
     <row r="25" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F25" s="647"/>
+      <c r="F25" s="642"/>
       <c r="I25" s="221"/>
-      <c r="O25" s="685"/>
+      <c r="O25" s="680"/>
       <c r="P25" s="206" t="s">
         <v>281</v>
       </c>
       <c r="Q25" s="104" t="s">
         <v>20</v>
       </c>
-      <c r="T25" s="431" t="s">
+      <c r="T25" s="430" t="s">
         <v>44</v>
       </c>
-      <c r="U25" s="404" t="s">
+      <c r="U25" s="403" t="s">
         <v>44</v>
       </c>
-      <c r="V25" s="617"/>
+      <c r="V25" s="612"/>
       <c r="W25" s="148"/>
-      <c r="X25" s="433" t="s">
+      <c r="X25" s="432" t="s">
         <v>189</v>
       </c>
-      <c r="Y25" s="660"/>
+      <c r="Y25" s="655"/>
       <c r="Z25" s="17"/>
       <c r="AA25" s="10"/>
-      <c r="AB25" s="419"/>
+      <c r="AB25" s="418"/>
       <c r="AC25" s="6"/>
       <c r="AD25" s="6"/>
       <c r="AE25" s="240" t="s">
@@ -8491,7 +8491,7 @@
       <c r="AK25" s="142"/>
       <c r="AL25" s="6"/>
       <c r="AM25" s="302"/>
-      <c r="AN25" s="642"/>
+      <c r="AN25" s="637"/>
     </row>
     <row r="26" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="233" t="s">
@@ -8500,45 +8500,45 @@
       <c r="B26" s="218" t="s">
         <v>412</v>
       </c>
-      <c r="C26" s="460" t="s">
+      <c r="C26" s="459" t="s">
         <v>487</v>
       </c>
       <c r="D26" s="61" t="s">
         <v>543</v>
       </c>
-      <c r="E26" s="383">
-        <v>1</v>
-      </c>
-      <c r="F26" s="647"/>
-      <c r="G26" s="340" t="s">
+      <c r="E26" s="382">
+        <v>1</v>
+      </c>
+      <c r="F26" s="642"/>
+      <c r="G26" s="339" t="s">
         <v>488</v>
       </c>
       <c r="I26" s="221"/>
-      <c r="O26" s="685"/>
-      <c r="P26" s="644" t="s">
+      <c r="O26" s="680"/>
+      <c r="P26" s="639" t="s">
         <v>527</v>
       </c>
-      <c r="Q26" s="645"/>
-      <c r="R26" s="681" t="s">
+      <c r="Q26" s="640"/>
+      <c r="R26" s="676" t="s">
         <v>536</v>
       </c>
       <c r="T26" s="180"/>
-      <c r="U26" s="423"/>
+      <c r="U26" s="422"/>
       <c r="V26" s="100" t="s">
         <v>44</v>
       </c>
       <c r="W26" s="148"/>
-      <c r="X26" s="433" t="s">
+      <c r="X26" s="432" t="s">
         <v>181</v>
       </c>
-      <c r="Y26" s="660"/>
+      <c r="Y26" s="655"/>
       <c r="Z26" s="17"/>
       <c r="AA26" s="10"/>
-      <c r="AB26" s="419"/>
+      <c r="AB26" s="418"/>
       <c r="AC26" s="76" t="s">
         <v>466</v>
       </c>
-      <c r="AD26" s="417" t="s">
+      <c r="AD26" s="416" t="s">
         <v>458</v>
       </c>
       <c r="AE26" s="6"/>
@@ -8555,10 +8555,10 @@
       <c r="AL26" s="80" t="s">
         <v>500</v>
       </c>
-      <c r="AM26" s="446" t="s">
+      <c r="AM26" s="445" t="s">
         <v>457</v>
       </c>
-      <c r="AN26" s="642"/>
+      <c r="AN26" s="637"/>
     </row>
     <row r="27" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B27" s="21" t="s">
@@ -8570,43 +8570,43 @@
       <c r="E27" s="267" t="s">
         <v>44</v>
       </c>
-      <c r="F27" s="683"/>
+      <c r="F27" s="678"/>
       <c r="G27" s="61" t="s">
         <v>545</v>
       </c>
       <c r="I27" s="222"/>
-      <c r="O27" s="686"/>
-      <c r="R27" s="682"/>
-      <c r="S27" s="425" t="s">
+      <c r="O27" s="681"/>
+      <c r="R27" s="677"/>
+      <c r="S27" s="424" t="s">
         <v>54</v>
       </c>
-      <c r="T27" s="429" t="s">
+      <c r="T27" s="428" t="s">
         <v>44</v>
       </c>
       <c r="U27" s="12"/>
-      <c r="V27" s="428"/>
+      <c r="V27" s="427"/>
       <c r="W27" s="149"/>
-      <c r="X27" s="433" t="s">
+      <c r="X27" s="432" t="s">
         <v>531</v>
       </c>
-      <c r="Y27" s="661"/>
+      <c r="Y27" s="656"/>
       <c r="Z27" s="161"/>
       <c r="AA27" s="13"/>
-      <c r="AB27" s="420"/>
-      <c r="AC27" s="421"/>
-      <c r="AD27" s="421"/>
-      <c r="AE27" s="421"/>
-      <c r="AF27" s="421"/>
-      <c r="AG27" s="421"/>
-      <c r="AH27" s="421"/>
-      <c r="AI27" s="421"/>
-      <c r="AJ27" s="421"/>
-      <c r="AK27" s="448"/>
-      <c r="AL27" s="421"/>
-      <c r="AM27" s="384" t="s">
+      <c r="AB27" s="419"/>
+      <c r="AC27" s="420"/>
+      <c r="AD27" s="420"/>
+      <c r="AE27" s="420"/>
+      <c r="AF27" s="420"/>
+      <c r="AG27" s="420"/>
+      <c r="AH27" s="420"/>
+      <c r="AI27" s="420"/>
+      <c r="AJ27" s="420"/>
+      <c r="AK27" s="447"/>
+      <c r="AL27" s="420"/>
+      <c r="AM27" s="383" t="s">
         <v>320</v>
       </c>
-      <c r="AN27" s="643"/>
+      <c r="AN27" s="638"/>
     </row>
   </sheetData>
   <mergeCells count="54">
@@ -8697,15 +8697,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="609" t="s">
+      <c r="B1" s="604" t="s">
         <v>311</v>
       </c>
-      <c r="C1" s="689"/>
+      <c r="C1" s="684"/>
       <c r="D1" s="206"/>
-      <c r="J1" s="609" t="s">
+      <c r="J1" s="604" t="s">
         <v>69</v>
       </c>
-      <c r="K1" s="689"/>
+      <c r="K1" s="684"/>
       <c r="L1" s="197" t="s">
         <v>331</v>
       </c>
@@ -8743,13 +8743,13 @@
         <v>34</v>
       </c>
       <c r="L2" s="198"/>
-      <c r="M2" s="690"/>
+      <c r="M2" s="685"/>
       <c r="N2" s="153">
         <v>2</v>
       </c>
       <c r="O2" s="154"/>
       <c r="P2" s="5"/>
-      <c r="Q2" s="693" t="s">
+      <c r="Q2" s="688" t="s">
         <v>44</v>
       </c>
       <c r="R2" s="19">
@@ -8772,13 +8772,13 @@
       <c r="K3" s="6" t="s">
         <v>328</v>
       </c>
-      <c r="M3" s="691"/>
+      <c r="M3" s="686"/>
       <c r="N3" s="17">
         <v>1</v>
       </c>
       <c r="O3" s="15"/>
       <c r="P3" s="10"/>
-      <c r="Q3" s="694"/>
+      <c r="Q3" s="689"/>
       <c r="R3" s="221"/>
     </row>
     <row r="4" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8797,13 +8797,13 @@
       <c r="K4" s="6" t="s">
         <v>329</v>
       </c>
-      <c r="M4" s="691"/>
+      <c r="M4" s="686"/>
       <c r="N4" s="17"/>
       <c r="O4" s="15">
         <v>1</v>
       </c>
       <c r="P4" s="10"/>
-      <c r="Q4" s="694"/>
+      <c r="Q4" s="689"/>
       <c r="R4" s="221"/>
     </row>
     <row r="5" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8823,13 +8823,13 @@
         <v>13</v>
       </c>
       <c r="L5" s="198"/>
-      <c r="M5" s="691"/>
+      <c r="M5" s="686"/>
       <c r="N5" s="17">
         <v>1</v>
       </c>
       <c r="O5" s="15"/>
       <c r="P5" s="10"/>
-      <c r="Q5" s="694"/>
+      <c r="Q5" s="689"/>
       <c r="R5" s="19">
         <v>-1</v>
       </c>
@@ -8850,13 +8850,13 @@
       <c r="K6" s="6" t="s">
         <v>327</v>
       </c>
-      <c r="M6" s="691"/>
+      <c r="M6" s="686"/>
       <c r="N6" s="17">
         <v>1</v>
       </c>
       <c r="O6" s="15"/>
       <c r="P6" s="10"/>
-      <c r="Q6" s="694"/>
+      <c r="Q6" s="689"/>
       <c r="R6" s="221"/>
     </row>
     <row r="7" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8876,13 +8876,13 @@
         <v>328</v>
       </c>
       <c r="L7" s="200"/>
-      <c r="M7" s="691"/>
+      <c r="M7" s="686"/>
       <c r="N7" s="17">
         <v>1</v>
       </c>
       <c r="O7" s="15"/>
       <c r="P7" s="10"/>
-      <c r="Q7" s="694"/>
+      <c r="Q7" s="689"/>
       <c r="R7" s="19">
         <v>-1</v>
       </c>
@@ -8903,13 +8903,13 @@
       <c r="K8" s="6" t="s">
         <v>326</v>
       </c>
-      <c r="M8" s="691"/>
+      <c r="M8" s="686"/>
       <c r="N8" s="17">
         <v>1</v>
       </c>
       <c r="O8" s="15"/>
       <c r="P8" s="10"/>
-      <c r="Q8" s="694"/>
+      <c r="Q8" s="689"/>
       <c r="R8" s="221"/>
     </row>
     <row r="9" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8929,13 +8929,13 @@
         <v>330</v>
       </c>
       <c r="L9" s="183"/>
-      <c r="M9" s="692"/>
+      <c r="M9" s="687"/>
       <c r="N9" s="161"/>
       <c r="O9" s="18"/>
       <c r="P9" s="13">
         <v>1</v>
       </c>
-      <c r="Q9" s="695"/>
+      <c r="Q9" s="690"/>
       <c r="R9" s="222"/>
     </row>
     <row r="10" spans="2:18" x14ac:dyDescent="0.25">
@@ -9039,8 +9039,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB54FD83-008D-4F8B-87AC-83E7F70047CB}">
   <dimension ref="A1:AL31"/>
   <sheetViews>
-    <sheetView topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="AG17" sqref="AG17"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="AH19" sqref="AH19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9105,10 +9105,10 @@
       <c r="O1" s="210" t="s">
         <v>295</v>
       </c>
-      <c r="P1" s="402" t="s">
+      <c r="P1" s="401" t="s">
         <v>398</v>
       </c>
-      <c r="Q1" s="720" t="s">
+      <c r="Q1" s="715" t="s">
         <v>180</v>
       </c>
       <c r="R1" s="100" t="s">
@@ -9129,60 +9129,60 @@
       <c r="Z1" s="24" t="s">
         <v>567</v>
       </c>
-      <c r="AA1" s="523" t="s">
+      <c r="AA1" s="521" t="s">
         <v>438</v>
       </c>
-      <c r="AB1" s="714" t="s">
+      <c r="AB1" s="709" t="s">
         <v>596</v>
       </c>
       <c r="AC1" s="99" t="s">
         <v>590</v>
       </c>
-      <c r="AD1" s="346"/>
+      <c r="AD1" s="345"/>
       <c r="AF1" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="AG1" s="346"/>
-      <c r="AH1" s="346"/>
+      <c r="AG1" s="345"/>
+      <c r="AH1" s="345"/>
       <c r="AI1" s="67" t="s">
         <v>80</v>
       </c>
-      <c r="AJ1" s="560"/>
-      <c r="AK1" s="346"/>
+      <c r="AJ1" s="558"/>
+      <c r="AK1" s="345"/>
       <c r="AL1" s="67" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:38" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="699">
+      <c r="A2" s="694">
         <f ca="1">TODAY()</f>
         <v>45284</v>
       </c>
-      <c r="B2" s="701" t="s">
+      <c r="B2" s="696" t="s">
         <v>380</v>
       </c>
-      <c r="C2" s="621" t="s">
+      <c r="C2" s="616" t="s">
         <v>358</v>
       </c>
-      <c r="D2" s="703" t="s">
+      <c r="D2" s="698" t="s">
         <v>102</v>
       </c>
-      <c r="E2" s="705" t="s">
+      <c r="E2" s="700" t="s">
         <v>64</v>
       </c>
       <c r="F2" s="193" t="s">
         <v>219</v>
       </c>
-      <c r="G2" s="665" t="s">
+      <c r="G2" s="660" t="s">
         <v>373</v>
       </c>
       <c r="H2" s="208" t="s">
         <v>219</v>
       </c>
-      <c r="I2" s="711" t="s">
+      <c r="I2" s="706" t="s">
         <v>102</v>
       </c>
-      <c r="J2" s="400" t="s">
+      <c r="J2" s="399" t="s">
         <v>141</v>
       </c>
       <c r="K2" s="169" t="s">
@@ -9200,26 +9200,26 @@
       <c r="O2" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="P2" s="403">
+      <c r="P2" s="402">
         <v>40</v>
       </c>
-      <c r="Q2" s="721"/>
+      <c r="Q2" s="716"/>
       <c r="R2" s="21">
         <f>R7+R20</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="S2" s="21">
         <f>S7+S20</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T2" s="174">
         <f>SUM(T4:T16)</f>
         <v>0</v>
       </c>
       <c r="U2" s="6"/>
-      <c r="V2" s="474"/>
+      <c r="V2" s="472"/>
       <c r="W2" s="6"/>
-      <c r="X2" s="474"/>
+      <c r="X2" s="472"/>
       <c r="Z2" s="24">
         <f>BoardRW!V3</f>
         <v>12</v>
@@ -9228,46 +9228,46 @@
         <f>IF((Z2+T2)&gt;0,0,-1)</f>
         <v>0</v>
       </c>
-      <c r="AB2" s="715"/>
+      <c r="AB2" s="710"/>
       <c r="AC2" s="35"/>
       <c r="AH2" s="6" t="s">
-        <v>453</v>
-      </c>
-      <c r="AI2" s="474">
-        <v>1</v>
-      </c>
-      <c r="AJ2" s="561"/>
+        <v>600</v>
+      </c>
+      <c r="AI2" s="472">
+        <v>1</v>
+      </c>
+      <c r="AJ2" s="559"/>
       <c r="AK2" s="6" t="s">
-        <v>604</v>
-      </c>
-      <c r="AL2" s="474">
+        <v>229</v>
+      </c>
+      <c r="AL2" s="472">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:38" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="700"/>
-      <c r="B3" s="702"/>
-      <c r="C3" s="622"/>
-      <c r="D3" s="704"/>
-      <c r="E3" s="706"/>
-      <c r="G3" s="666"/>
+      <c r="A3" s="695"/>
+      <c r="B3" s="697"/>
+      <c r="C3" s="617"/>
+      <c r="D3" s="699"/>
+      <c r="E3" s="701"/>
+      <c r="G3" s="661"/>
       <c r="H3" s="6"/>
-      <c r="I3" s="712"/>
+      <c r="I3" s="707"/>
       <c r="K3" s="24">
         <v>2</v>
       </c>
       <c r="N3" s="80" t="s">
         <v>278</v>
       </c>
-      <c r="Q3" s="476">
+      <c r="Q3" s="474">
         <f>SUM(X23:X31)</f>
         <v>6</v>
       </c>
       <c r="U3" s="6"/>
-      <c r="V3" s="475"/>
+      <c r="V3" s="473"/>
       <c r="W3" s="6"/>
-      <c r="X3" s="475"/>
-      <c r="AB3" s="715"/>
+      <c r="X3" s="473"/>
+      <c r="AB3" s="710"/>
       <c r="AC3" s="35"/>
       <c r="AE3" s="100" t="s">
         <v>591</v>
@@ -9280,14 +9280,14 @@
       <c r="AH3" s="6" t="s">
         <v>248</v>
       </c>
-      <c r="AI3" s="475">
-        <v>1</v>
-      </c>
-      <c r="AJ3" s="561"/>
+      <c r="AI3" s="473">
+        <v>1</v>
+      </c>
+      <c r="AJ3" s="559"/>
       <c r="AK3" s="6" t="s">
-        <v>605</v>
-      </c>
-      <c r="AL3" s="555">
+        <v>604</v>
+      </c>
+      <c r="AL3" s="553">
         <v>1</v>
       </c>
     </row>
@@ -9296,11 +9296,11 @@
         <v>381</v>
       </c>
       <c r="B4" s="245"/>
-      <c r="C4" s="707" t="s">
+      <c r="C4" s="702" t="s">
         <v>177</v>
       </c>
-      <c r="I4" s="712"/>
-      <c r="R4" s="476" t="s">
+      <c r="I4" s="707"/>
+      <c r="R4" s="474" t="s">
         <v>591</v>
       </c>
       <c r="T4" s="24">
@@ -9308,10 +9308,10 @@
         <v>0</v>
       </c>
       <c r="U4" s="6"/>
-      <c r="V4" s="475"/>
+      <c r="V4" s="473"/>
       <c r="W4" s="6"/>
-      <c r="X4" s="475"/>
-      <c r="AB4" s="715"/>
+      <c r="X4" s="473"/>
+      <c r="AB4" s="710"/>
       <c r="AC4" s="35"/>
       <c r="AE4" s="20"/>
       <c r="AF4" s="100" t="s">
@@ -9322,16 +9322,16 @@
         <v>0</v>
       </c>
       <c r="AH4" s="6" t="s">
-        <v>603</v>
-      </c>
-      <c r="AI4" s="475">
-        <v>1</v>
-      </c>
-      <c r="AJ4" s="561"/>
+        <v>602</v>
+      </c>
+      <c r="AI4" s="473">
+        <v>1</v>
+      </c>
+      <c r="AJ4" s="559"/>
       <c r="AK4" s="6" t="s">
-        <v>603</v>
-      </c>
-      <c r="AL4" s="475">
+        <v>602</v>
+      </c>
+      <c r="AL4" s="473">
         <v>1</v>
       </c>
     </row>
@@ -9342,7 +9342,7 @@
       <c r="B5" s="100" t="s">
         <v>358</v>
       </c>
-      <c r="C5" s="708"/>
+      <c r="C5" s="703"/>
       <c r="D5" s="224" t="s">
         <v>102</v>
       </c>
@@ -9352,14 +9352,14 @@
       <c r="F5" s="208" t="s">
         <v>219</v>
       </c>
-      <c r="G5" s="604" t="s">
+      <c r="G5" s="599" t="s">
         <v>272</v>
       </c>
       <c r="H5" s="208" t="s">
         <v>219</v>
       </c>
-      <c r="I5" s="712"/>
-      <c r="J5" s="401" t="s">
+      <c r="I5" s="707"/>
+      <c r="J5" s="400" t="s">
         <v>269</v>
       </c>
       <c r="K5" s="169" t="s">
@@ -9374,7 +9374,7 @@
       <c r="N5" s="80" t="s">
         <v>311</v>
       </c>
-      <c r="S5" s="476" t="s">
+      <c r="S5" s="474" t="s">
         <v>592</v>
       </c>
       <c r="T5" s="24">
@@ -9382,64 +9382,72 @@
         <v>0</v>
       </c>
       <c r="U5" s="6"/>
-      <c r="V5" s="473"/>
+      <c r="V5" s="471"/>
       <c r="W5" s="6"/>
-      <c r="X5" s="473"/>
-      <c r="AB5" s="715"/>
+      <c r="X5" s="471"/>
+      <c r="AB5" s="710"/>
       <c r="AC5" s="2" t="s">
         <v>594</v>
       </c>
       <c r="AD5" s="127" t="s">
         <v>44</v>
       </c>
-      <c r="AH5" s="6"/>
-      <c r="AI5" s="473"/>
-      <c r="AJ5" s="561"/>
-      <c r="AK5" s="6"/>
-      <c r="AL5" s="473"/>
+      <c r="AH5" s="6" t="s">
+        <v>627</v>
+      </c>
+      <c r="AI5" s="471">
+        <v>1</v>
+      </c>
+      <c r="AJ5" s="559"/>
+      <c r="AK5" s="6" t="s">
+        <v>626</v>
+      </c>
+      <c r="AL5" s="471">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:38" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="696" t="s">
+      <c r="A6" s="691" t="s">
         <v>286</v>
       </c>
       <c r="B6" s="105" t="s">
         <v>198</v>
       </c>
-      <c r="C6" s="667"/>
-      <c r="D6" s="668"/>
+      <c r="C6" s="662"/>
+      <c r="D6" s="663"/>
       <c r="E6" s="96">
         <v>1</v>
       </c>
-      <c r="G6" s="605"/>
-      <c r="I6" s="712"/>
+      <c r="G6" s="600"/>
+      <c r="I6" s="707"/>
       <c r="P6" s="61" t="s">
         <v>594</v>
       </c>
       <c r="R6" s="64">
         <f>R7-SUM(X2:X10)+R11</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S6" s="64">
-        <f>S7-S12-SUM(V2:V10)</f>
-        <v>0</v>
-      </c>
-      <c r="AB6" s="715"/>
+        <f>S7+S11-SUM(V2:V10)</f>
+        <v>0</v>
+      </c>
+      <c r="AB6" s="710"/>
       <c r="AC6" s="35"/>
       <c r="AE6" s="64">
         <f>AE7-SUM(AL2:AL10)+AE11</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF6" s="64">
         <f>AF7-SUM(AI2:AI10)+AF11</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AH6" s="6"/>
-      <c r="AI6" s="531"/>
-      <c r="AJ6" s="561"/>
+      <c r="AI6" s="529"/>
+      <c r="AJ6" s="559"/>
       <c r="AL6" s="112"/>
     </row>
     <row r="7" spans="1:38" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="697"/>
+      <c r="A7" s="692"/>
       <c r="B7" s="100" t="s">
         <v>154</v>
       </c>
@@ -9449,8 +9457,8 @@
       <c r="D7" s="30" t="s">
         <v>135</v>
       </c>
-      <c r="G7" s="605"/>
-      <c r="I7" s="712"/>
+      <c r="G7" s="600"/>
+      <c r="I7" s="707"/>
       <c r="M7" s="16" t="s">
         <v>348</v>
       </c>
@@ -9468,17 +9476,17 @@
       </c>
       <c r="R7" s="24">
         <f>3-R11</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S7" s="24">
         <f>3-S11</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U7" s="6"/>
-      <c r="V7" s="474"/>
+      <c r="V7" s="472"/>
       <c r="W7" s="6"/>
-      <c r="X7" s="474"/>
-      <c r="AB7" s="715"/>
+      <c r="X7" s="472"/>
+      <c r="AB7" s="710"/>
       <c r="AC7" s="99" t="s">
         <v>595</v>
       </c>
@@ -9491,20 +9499,24 @@
       </c>
       <c r="AF7" s="297">
         <f>8-AF11</f>
-        <v>5</v>
-      </c>
-      <c r="AH7" s="6"/>
-      <c r="AI7" s="474"/>
-      <c r="AJ7" s="561"/>
+        <v>8</v>
+      </c>
+      <c r="AH7" s="6" t="s">
+        <v>603</v>
+      </c>
+      <c r="AI7" s="472">
+        <v>1</v>
+      </c>
+      <c r="AJ7" s="559"/>
       <c r="AK7" s="6" t="s">
-        <v>621</v>
-      </c>
-      <c r="AL7" s="474">
+        <v>620</v>
+      </c>
+      <c r="AL7" s="472">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="698"/>
+      <c r="A8" s="693"/>
       <c r="B8" s="214" t="s">
         <v>28</v>
       </c>
@@ -9512,32 +9524,36 @@
       <c r="E8" s="30">
         <v>3</v>
       </c>
-      <c r="G8" s="605"/>
-      <c r="I8" s="712"/>
+      <c r="G8" s="600"/>
+      <c r="I8" s="707"/>
       <c r="N8" s="80"/>
       <c r="U8" s="6" t="s">
-        <v>250</v>
+        <v>232</v>
       </c>
       <c r="V8" s="24">
         <v>1</v>
       </c>
       <c r="W8" s="6" t="s">
-        <v>250</v>
-      </c>
-      <c r="X8" s="475">
-        <v>1</v>
-      </c>
-      <c r="AB8" s="715"/>
-      <c r="AC8" s="521"/>
+        <v>631</v>
+      </c>
+      <c r="X8" s="473">
+        <v>1</v>
+      </c>
+      <c r="AB8" s="710"/>
+      <c r="AC8" s="519"/>
       <c r="AH8" s="6" t="s">
-        <v>600</v>
-      </c>
-      <c r="AI8" s="475">
-        <v>1</v>
-      </c>
-      <c r="AJ8" s="561"/>
-      <c r="AK8" s="6"/>
-      <c r="AL8" s="555"/>
+        <v>630</v>
+      </c>
+      <c r="AI8" s="473">
+        <v>1</v>
+      </c>
+      <c r="AJ8" s="559"/>
+      <c r="AK8" s="6" t="s">
+        <v>630</v>
+      </c>
+      <c r="AL8" s="472">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="233" t="s">
@@ -9552,34 +9568,40 @@
       <c r="D9" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="G9" s="605"/>
+      <c r="G9" s="600"/>
       <c r="H9" s="6"/>
-      <c r="I9" s="712"/>
+      <c r="I9" s="707"/>
       <c r="M9" s="19" t="s">
         <v>526</v>
       </c>
       <c r="N9" s="80"/>
-      <c r="U9" s="6"/>
-      <c r="V9" s="24"/>
+      <c r="U9" s="6" t="s">
+        <v>453</v>
+      </c>
+      <c r="V9" s="24">
+        <v>1</v>
+      </c>
       <c r="W9" s="6" t="s">
-        <v>510</v>
-      </c>
-      <c r="X9" s="472"/>
-      <c r="AB9" s="715"/>
-      <c r="AC9" s="521"/>
+        <v>628</v>
+      </c>
+      <c r="X9" s="473">
+        <v>1</v>
+      </c>
+      <c r="AB9" s="710"/>
+      <c r="AC9" s="519"/>
       <c r="AE9" s="20"/>
       <c r="AF9" s="20"/>
       <c r="AH9" s="6" t="s">
-        <v>602</v>
-      </c>
-      <c r="AI9" s="475">
-        <v>1</v>
-      </c>
-      <c r="AJ9" s="561"/>
+        <v>601</v>
+      </c>
+      <c r="AI9" s="473">
+        <v>1</v>
+      </c>
+      <c r="AJ9" s="559"/>
       <c r="AK9" s="6" t="s">
-        <v>601</v>
-      </c>
-      <c r="AL9" s="555">
+        <v>600</v>
+      </c>
+      <c r="AL9" s="24">
         <v>1</v>
       </c>
     </row>
@@ -9594,10 +9616,10 @@
       <c r="D10" s="108"/>
       <c r="E10" s="68">
         <f>Boat!W8</f>
-        <v>37</v>
-      </c>
-      <c r="G10" s="605"/>
-      <c r="I10" s="712"/>
+        <v>36</v>
+      </c>
+      <c r="G10" s="600"/>
+      <c r="I10" s="707"/>
       <c r="J10" s="24" t="s">
         <v>373</v>
       </c>
@@ -9608,33 +9630,41 @@
         <v>525</v>
       </c>
       <c r="N10" s="80"/>
-      <c r="U10" s="6"/>
-      <c r="V10" s="475"/>
+      <c r="U10" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="V10" s="473">
+        <v>1</v>
+      </c>
       <c r="W10" s="6" t="s">
-        <v>602</v>
-      </c>
-      <c r="X10" s="475">
-        <v>1</v>
-      </c>
-      <c r="AB10" s="715"/>
-      <c r="AC10" s="521"/>
+        <v>601</v>
+      </c>
+      <c r="X10" s="473">
+        <v>1</v>
+      </c>
+      <c r="AB10" s="710"/>
+      <c r="AC10" s="519"/>
       <c r="AE10" s="20"/>
       <c r="AF10" s="20"/>
-      <c r="AH10" s="6"/>
-      <c r="AI10" s="475"/>
-      <c r="AJ10" s="562"/>
+      <c r="AH10" s="6" t="s">
+        <v>617</v>
+      </c>
+      <c r="AI10" s="473">
+        <v>1</v>
+      </c>
+      <c r="AJ10" s="560"/>
       <c r="AK10" s="6" t="s">
-        <v>614</v>
-      </c>
-      <c r="AL10" s="556">
-        <v>2</v>
+        <v>613</v>
+      </c>
+      <c r="AL10" s="554">
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="99" t="s">
         <v>183</v>
       </c>
-      <c r="B11" s="604" t="s">
+      <c r="B11" s="599" t="s">
         <v>383</v>
       </c>
       <c r="C11" s="173" t="s">
@@ -9643,8 +9673,8 @@
       <c r="D11" s="219" t="s">
         <v>266</v>
       </c>
-      <c r="G11" s="605"/>
-      <c r="I11" s="712"/>
+      <c r="G11" s="600"/>
+      <c r="I11" s="707"/>
       <c r="J11" s="24" t="s">
         <v>194</v>
       </c>
@@ -9665,18 +9695,18 @@
         <v>44</v>
       </c>
       <c r="R11" s="24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S11" s="24">
-        <v>2</v>
-      </c>
-      <c r="U11" s="717" t="s">
+        <v>0</v>
+      </c>
+      <c r="U11" s="712" t="s">
         <v>559</v>
       </c>
-      <c r="V11" s="718"/>
-      <c r="W11" s="718"/>
-      <c r="X11" s="719"/>
-      <c r="AB11" s="716"/>
+      <c r="V11" s="713"/>
+      <c r="W11" s="713"/>
+      <c r="X11" s="714"/>
+      <c r="AB11" s="711"/>
       <c r="AC11" s="99" t="s">
         <v>597</v>
       </c>
@@ -9687,27 +9717,27 @@
         <v>0</v>
       </c>
       <c r="AF11" s="24">
-        <v>3</v>
-      </c>
-      <c r="AG11" s="418"/>
-      <c r="AH11" s="717" t="s">
-        <v>613</v>
-      </c>
-      <c r="AI11" s="718"/>
-      <c r="AJ11" s="718"/>
-      <c r="AK11" s="718"/>
-      <c r="AL11" s="719"/>
+        <v>0</v>
+      </c>
+      <c r="AG11" s="417"/>
+      <c r="AH11" s="712" t="s">
+        <v>612</v>
+      </c>
+      <c r="AI11" s="713"/>
+      <c r="AJ11" s="713"/>
+      <c r="AK11" s="713"/>
+      <c r="AL11" s="714"/>
     </row>
     <row r="12" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="229" t="s">
         <v>384</v>
       </c>
-      <c r="B12" s="606"/>
+      <c r="B12" s="601"/>
       <c r="E12" s="231">
         <v>3</v>
       </c>
-      <c r="G12" s="605"/>
-      <c r="I12" s="712"/>
+      <c r="G12" s="600"/>
+      <c r="I12" s="707"/>
       <c r="J12" s="24" t="s">
         <v>517</v>
       </c>
@@ -9729,18 +9759,18 @@
       <c r="W12" s="6"/>
     </row>
     <row r="13" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="444" t="s">
+      <c r="A13" s="443" t="s">
         <v>429</v>
       </c>
       <c r="B13" s="218" t="s">
         <v>324</v>
       </c>
-      <c r="C13" s="604" t="s">
+      <c r="C13" s="599" t="s">
         <v>194</v>
       </c>
       <c r="D13" s="20"/>
-      <c r="G13" s="605"/>
-      <c r="I13" s="712"/>
+      <c r="G13" s="600"/>
+      <c r="I13" s="707"/>
       <c r="J13" s="108" t="s">
         <v>549</v>
       </c>
@@ -9753,13 +9783,13 @@
       <c r="M13" s="30" t="s">
         <v>358</v>
       </c>
-      <c r="N13" s="405" t="s">
+      <c r="N13" s="404" t="s">
         <v>523</v>
       </c>
       <c r="U13" s="6"/>
       <c r="V13" s="112"/>
       <c r="W13" s="6"/>
-      <c r="Z13" s="522" t="s">
+      <c r="Z13" s="520" t="s">
         <v>256</v>
       </c>
     </row>
@@ -9770,7 +9800,7 @@
       <c r="B14" s="175" t="s">
         <v>149</v>
       </c>
-      <c r="C14" s="606"/>
+      <c r="C14" s="601"/>
       <c r="D14" s="206" t="s">
         <v>153</v>
       </c>
@@ -9780,11 +9810,11 @@
       <c r="F14" s="208" t="s">
         <v>219</v>
       </c>
-      <c r="G14" s="606"/>
+      <c r="G14" s="601"/>
       <c r="H14" s="208" t="s">
         <v>219</v>
       </c>
-      <c r="I14" s="712"/>
+      <c r="I14" s="707"/>
       <c r="U14" s="67" t="s">
         <v>80</v>
       </c>
@@ -9811,7 +9841,7 @@
       <c r="H15" s="273">
         <v>0</v>
       </c>
-      <c r="I15" s="712"/>
+      <c r="I15" s="707"/>
       <c r="J15" s="108" t="s">
         <v>153</v>
       </c>
@@ -9824,7 +9854,7 @@
       <c r="M15" s="2" t="s">
         <v>407</v>
       </c>
-      <c r="R15" s="476" t="s">
+      <c r="R15" s="474" t="s">
         <v>591</v>
       </c>
       <c r="T15" s="24">
@@ -9842,30 +9872,26 @@
       <c r="D16" s="2" t="s">
         <v>493</v>
       </c>
-      <c r="I16" s="712"/>
+      <c r="I16" s="707"/>
       <c r="K16" s="100" t="s">
         <v>44</v>
       </c>
       <c r="L16" s="6"/>
-      <c r="S16" s="476" t="s">
+      <c r="S16" s="474" t="s">
         <v>592</v>
       </c>
       <c r="T16" s="21">
         <f>IF((S18-SUM(V16:V21))&lt;0,S18-SUM(V16:V21),0)</f>
         <v>0</v>
       </c>
-      <c r="U16" s="56" t="s">
-        <v>462</v>
-      </c>
-      <c r="V16" s="474">
-        <v>1</v>
-      </c>
-      <c r="W16" s="19" t="s">
-        <v>462</v>
-      </c>
-      <c r="X16" s="474">
-        <v>1</v>
-      </c>
+      <c r="U16" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="V16" s="472">
+        <v>1</v>
+      </c>
+      <c r="W16" s="19"/>
+      <c r="X16" s="472"/>
     </row>
     <row r="17" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="233" t="s">
@@ -9886,15 +9912,15 @@
       <c r="G17" s="2" t="s">
         <v>424</v>
       </c>
-      <c r="I17" s="712"/>
+      <c r="I17" s="707"/>
       <c r="L17" s="2" t="s">
         <v>427</v>
       </c>
       <c r="M17" s="21" t="s">
         <v>424</v>
       </c>
-      <c r="U17" s="221" t="s">
-        <v>94</v>
+      <c r="U17" s="19" t="s">
+        <v>471</v>
       </c>
       <c r="V17" s="24">
         <v>1</v>
@@ -9904,19 +9930,19 @@
     </row>
     <row r="18" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G18" s="16"/>
-      <c r="I18" s="712"/>
+      <c r="I18" s="707"/>
       <c r="L18" s="16"/>
       <c r="M18" s="21"/>
-      <c r="O18" s="709" t="s">
+      <c r="O18" s="704" t="s">
         <v>518</v>
       </c>
-      <c r="P18" s="710"/>
+      <c r="P18" s="705"/>
       <c r="Q18" s="127" t="s">
         <v>44</v>
       </c>
       <c r="R18" s="24">
         <f>5-R26</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S18" s="24">
         <f>5-S26</f>
@@ -9936,7 +9962,7 @@
       </c>
     </row>
     <row r="19" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I19" s="712"/>
+      <c r="I19" s="707"/>
       <c r="M19" s="21" t="s">
         <v>426</v>
       </c>
@@ -9966,13 +9992,13 @@
       <c r="D20" s="2" t="s">
         <v>541</v>
       </c>
-      <c r="E20" s="385">
+      <c r="E20" s="384">
         <v>-1</v>
       </c>
       <c r="G20" s="2" t="s">
         <v>424</v>
       </c>
-      <c r="I20" s="712"/>
+      <c r="I20" s="707"/>
       <c r="K20" s="19" t="s">
         <v>423</v>
       </c>
@@ -9987,7 +10013,7 @@
       </c>
       <c r="R20" s="24">
         <f>R18-SUM(X16:X21)+R26</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S20" s="24">
         <f>S18-SUM(V16:V21)+S26</f>
@@ -9996,18 +10022,18 @@
       <c r="U20" s="222" t="s">
         <v>233</v>
       </c>
-      <c r="V20" s="473">
+      <c r="V20" s="471">
         <v>1</v>
       </c>
       <c r="W20" s="6" t="s">
         <v>469</v>
       </c>
-      <c r="X20" s="473">
+      <c r="X20" s="471">
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I21" s="712"/>
+      <c r="I21" s="707"/>
       <c r="M21" s="218" t="s">
         <v>412</v>
       </c>
@@ -10018,7 +10044,7 @@
       <c r="W21" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="X21" s="473">
+      <c r="X21" s="471">
         <v>1</v>
       </c>
     </row>
@@ -10035,13 +10061,13 @@
       <c r="D22" s="2" t="s">
         <v>542</v>
       </c>
-      <c r="E22" s="348">
+      <c r="E22" s="347">
         <v>1</v>
       </c>
       <c r="G22" s="2" t="s">
         <v>424</v>
       </c>
-      <c r="I22" s="712"/>
+      <c r="I22" s="707"/>
       <c r="P22" s="99" t="s">
         <v>593</v>
       </c>
@@ -10056,12 +10082,12 @@
       <c r="E23" s="285" t="s">
         <v>44</v>
       </c>
-      <c r="I23" s="712"/>
+      <c r="I23" s="707"/>
       <c r="Q23" s="24">
         <f>SUM(V23:V31)</f>
         <v>5</v>
       </c>
-      <c r="U23" s="345"/>
+      <c r="U23" s="344"/>
       <c r="V23" s="185">
         <v>1</v>
       </c>
@@ -10073,9 +10099,9 @@
       </c>
     </row>
     <row r="24" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I24" s="712"/>
+      <c r="I24" s="707"/>
       <c r="U24" s="35"/>
-      <c r="V24" s="514">
+      <c r="V24" s="512">
         <v>0</v>
       </c>
       <c r="W24" s="54" t="s">
@@ -10101,8 +10127,8 @@
       <c r="H25" s="193" t="s">
         <v>267</v>
       </c>
-      <c r="I25" s="712"/>
-      <c r="J25" s="401" t="s">
+      <c r="I25" s="707"/>
+      <c r="J25" s="400" t="s">
         <v>270</v>
       </c>
       <c r="K25" s="100" t="s">
@@ -10111,11 +10137,11 @@
       <c r="L25" s="96" t="s">
         <v>102</v>
       </c>
-      <c r="P25" s="395">
+      <c r="P25" s="394">
         <v>1</v>
       </c>
       <c r="U25" s="35"/>
-      <c r="V25" s="514">
+      <c r="V25" s="512">
         <v>0</v>
       </c>
       <c r="W25" s="54" t="s">
@@ -10132,13 +10158,13 @@
       <c r="B26" s="21" t="s">
         <v>538</v>
       </c>
-      <c r="C26" s="443" t="s">
+      <c r="C26" s="442" t="s">
         <v>154</v>
       </c>
-      <c r="D26" s="387" t="s">
+      <c r="D26" s="386" t="s">
         <v>516</v>
       </c>
-      <c r="E26" s="442" t="s">
+      <c r="E26" s="441" t="s">
         <v>44</v>
       </c>
       <c r="F26" s="16"/>
@@ -10146,22 +10172,22 @@
       <c r="H26" s="19" t="s">
         <v>219</v>
       </c>
-      <c r="I26" s="712"/>
+      <c r="I26" s="707"/>
       <c r="K26" s="24">
         <v>15</v>
       </c>
       <c r="L26" s="80" t="s">
         <v>98</v>
       </c>
-      <c r="M26" s="387" t="s">
+      <c r="M26" s="386" t="s">
         <v>516</v>
       </c>
-      <c r="P26" s="470"/>
+      <c r="P26" s="469"/>
       <c r="Q26" s="127" t="s">
         <v>44</v>
       </c>
       <c r="R26" s="24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S26" s="24">
         <v>0</v>
@@ -10169,29 +10195,29 @@
       <c r="T26" s="61" t="s">
         <v>557</v>
       </c>
-      <c r="U26" s="419"/>
-      <c r="V26" s="514">
-        <v>0</v>
+      <c r="U26" s="418"/>
+      <c r="V26" s="512">
+        <v>1</v>
       </c>
       <c r="W26" s="54" t="s">
         <v>94</v>
       </c>
       <c r="X26" s="24">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I27" s="712"/>
+      <c r="I27" s="707"/>
       <c r="O27" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="P27" s="404" t="s">
+      <c r="P27" s="403" t="s">
         <v>44</v>
       </c>
       <c r="R27" s="112"/>
       <c r="S27" s="112"/>
       <c r="U27" s="35"/>
-      <c r="V27" s="514">
+      <c r="V27" s="512">
         <v>0</v>
       </c>
       <c r="W27" s="54" t="s">
@@ -10208,12 +10234,12 @@
       <c r="E28" s="217">
         <v>2</v>
       </c>
-      <c r="I28" s="712"/>
+      <c r="I28" s="707"/>
       <c r="Q28" s="6"/>
       <c r="R28" s="112"/>
       <c r="T28" s="142"/>
       <c r="U28" s="35"/>
-      <c r="V28" s="514">
+      <c r="V28" s="512">
         <v>1</v>
       </c>
       <c r="W28" s="54" t="s">
@@ -10230,7 +10256,7 @@
       <c r="H29" s="193" t="s">
         <v>268</v>
       </c>
-      <c r="I29" s="713"/>
+      <c r="I29" s="708"/>
       <c r="J29" s="326"/>
       <c r="L29" s="96" t="s">
         <v>274</v>
@@ -10238,19 +10264,19 @@
       <c r="M29" s="16" t="s">
         <v>279</v>
       </c>
-      <c r="R29" s="471"/>
+      <c r="R29" s="470"/>
       <c r="S29" s="112"/>
       <c r="T29" s="80"/>
-      <c r="U29" s="520" t="s">
+      <c r="U29" s="518" t="s">
         <v>558</v>
       </c>
-      <c r="V29" s="514">
+      <c r="V29" s="512">
         <v>1</v>
       </c>
       <c r="W29" s="54" t="s">
         <v>498</v>
       </c>
-      <c r="X29" s="477">
+      <c r="X29" s="475">
         <v>0</v>
       </c>
     </row>
@@ -10261,22 +10287,22 @@
       <c r="B30" s="2" t="s">
         <v>405</v>
       </c>
-      <c r="U30" s="520" t="s">
+      <c r="U30" s="518" t="s">
         <v>583</v>
       </c>
-      <c r="V30" s="514">
-        <v>1</v>
+      <c r="V30" s="512">
+        <v>0</v>
       </c>
       <c r="W30" s="54" t="s">
         <v>560</v>
       </c>
       <c r="X30" s="24">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="U31" s="485"/>
-      <c r="V31" s="511">
+      <c r="U31" s="483"/>
+      <c r="V31" s="509">
         <v>1</v>
       </c>
       <c r="W31" s="54" t="s">
@@ -10316,8 +10342,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2029A93E-B53C-4201-9F17-439C144F3CF1}">
   <dimension ref="A1:AT37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32:B32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10328,7 +10354,7 @@
     <col min="6" max="7" width="2.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="6" style="112" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="21" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="30.7109375" style="379" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="30.7109375" style="378" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="5.140625" style="65" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="5.28515625" style="20" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="3.85546875" bestFit="1" customWidth="1"/>
@@ -10351,7 +10377,7 @@
     <col min="32" max="32" width="6.28515625" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="5.42578125" bestFit="1" customWidth="1"/>
     <col min="34" max="34" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="6" style="379" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="6" style="378" bestFit="1" customWidth="1"/>
     <col min="36" max="36" width="6" style="112" bestFit="1" customWidth="1"/>
     <col min="37" max="38" width="7.140625" style="112" bestFit="1" customWidth="1"/>
     <col min="39" max="39" width="3.85546875" bestFit="1" customWidth="1"/>
@@ -10384,7 +10410,7 @@
         <v>0</v>
       </c>
       <c r="H1" s="80" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="I1" s="95" t="s">
         <v>41</v>
@@ -10393,9 +10419,9 @@
         <v>200</v>
       </c>
       <c r="K1" s="72" t="s">
-        <v>615</v>
-      </c>
-      <c r="L1" s="591" t="s">
+        <v>614</v>
+      </c>
+      <c r="L1" s="587" t="s">
         <v>577</v>
       </c>
       <c r="M1" s="21" t="s">
@@ -10417,14 +10443,14 @@
         <f ca="1">TODAY()</f>
         <v>45284</v>
       </c>
-      <c r="T1" s="748"/>
+      <c r="T1" s="743"/>
       <c r="U1" s="142"/>
       <c r="V1" s="6"/>
       <c r="W1" s="6"/>
-      <c r="X1" s="732" t="s">
+      <c r="X1" s="727" t="s">
         <v>442</v>
       </c>
-      <c r="Y1" s="733"/>
+      <c r="Y1" s="728"/>
       <c r="Z1" s="308">
         <f>68-(W8+Y3+X3+U3)</f>
         <v>0</v>
@@ -10440,58 +10466,58 @@
       <c r="AD1" s="304" t="s">
         <v>44</v>
       </c>
-      <c r="AE1" s="734" t="s">
+      <c r="AE1" s="729" t="s">
         <v>190</v>
       </c>
-      <c r="AF1" s="735"/>
-      <c r="AG1" s="736"/>
-      <c r="AH1" s="737" t="s">
+      <c r="AF1" s="730"/>
+      <c r="AG1" s="731"/>
+      <c r="AH1" s="732" t="s">
         <v>294</v>
       </c>
-      <c r="AI1" s="738"/>
-      <c r="AJ1" s="739"/>
-      <c r="AK1" s="558"/>
-      <c r="AL1" s="558"/>
-      <c r="AM1" s="729" t="s">
+      <c r="AI1" s="733"/>
+      <c r="AJ1" s="734"/>
+      <c r="AK1" s="556"/>
+      <c r="AL1" s="556"/>
+      <c r="AM1" s="724" t="s">
         <v>445</v>
       </c>
-      <c r="AN1" s="730"/>
-      <c r="AO1" s="731"/>
+      <c r="AN1" s="725"/>
+      <c r="AO1" s="726"/>
       <c r="AR1" s="142"/>
     </row>
     <row r="2" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F2" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="H2" s="512">
+      <c r="H2" s="510">
         <f>SUM(H4:H37)</f>
         <v>-3</v>
       </c>
       <c r="J2" s="320">
         <f>K2+L2</f>
-        <v>20</v>
-      </c>
-      <c r="K2" s="727">
+        <v>23</v>
+      </c>
+      <c r="K2" s="722">
         <f>SUM(K4:K29)</f>
         <v>12</v>
       </c>
-      <c r="L2" s="725">
+      <c r="L2" s="720">
         <f>SUM(L4:L37)</f>
-        <v>8</v>
-      </c>
-      <c r="M2" s="740">
+        <v>11</v>
+      </c>
+      <c r="M2" s="735">
         <f>SUM(M5:M30)</f>
-        <v>1</v>
-      </c>
-      <c r="N2" s="742">
+        <v>0</v>
+      </c>
+      <c r="N2" s="737">
         <f>SUM(N4:N29)</f>
         <v>10</v>
       </c>
-      <c r="O2" s="744">
+      <c r="O2" s="739">
         <f>SUM(O4:O29)</f>
-        <v>8</v>
-      </c>
-      <c r="P2" s="672">
+        <v>10</v>
+      </c>
+      <c r="P2" s="667">
         <f>SUM(N30:N37)* (-1)</f>
         <v>-3</v>
       </c>
@@ -10504,20 +10530,20 @@
       <c r="S2" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="T2" s="749"/>
-      <c r="U2" s="543" t="s">
+      <c r="T2" s="744"/>
+      <c r="U2" s="541" t="s">
         <v>263</v>
       </c>
-      <c r="V2" s="487" t="s">
+      <c r="V2" s="485" t="s">
         <v>220</v>
       </c>
-      <c r="W2" s="746" t="s">
+      <c r="W2" s="741" t="s">
         <v>235</v>
       </c>
-      <c r="X2" s="488" t="s">
+      <c r="X2" s="486" t="s">
         <v>439</v>
       </c>
-      <c r="Y2" s="486" t="s">
+      <c r="Y2" s="484" t="s">
         <v>254</v>
       </c>
       <c r="Z2" s="61" t="s">
@@ -10554,10 +10580,10 @@
         <v>289</v>
       </c>
       <c r="AK2" s="150" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="AL2" s="150" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="AM2" s="21" t="s">
         <v>444</v>
@@ -10583,12 +10609,12 @@
         <f>V3+X3+Y3+U3</f>
         <v>68</v>
       </c>
-      <c r="K3" s="728"/>
-      <c r="L3" s="726"/>
-      <c r="M3" s="741"/>
-      <c r="N3" s="743"/>
-      <c r="O3" s="745"/>
-      <c r="P3" s="673"/>
+      <c r="K3" s="723"/>
+      <c r="L3" s="721"/>
+      <c r="M3" s="736"/>
+      <c r="N3" s="738"/>
+      <c r="O3" s="740"/>
+      <c r="P3" s="668"/>
       <c r="Q3" s="174">
         <f>(M2+N2)-Y3</f>
         <v>0</v>
@@ -10596,23 +10622,23 @@
       <c r="S3" s="159" t="s">
         <v>245</v>
       </c>
-      <c r="T3" s="750"/>
-      <c r="U3" s="544">
+      <c r="T3" s="745"/>
+      <c r="U3" s="542">
         <f>SUM(U4:U29)</f>
-        <v>11</v>
-      </c>
-      <c r="V3" s="489">
+        <v>12</v>
+      </c>
+      <c r="V3" s="487">
         <f>SUM(V4:V29)</f>
-        <v>37</v>
-      </c>
-      <c r="W3" s="747"/>
-      <c r="X3" s="490">
+        <v>36</v>
+      </c>
+      <c r="W3" s="742"/>
+      <c r="X3" s="488">
         <f t="shared" ref="X3:AC3" si="0">SUM(X4:X29)</f>
-        <v>9</v>
-      </c>
-      <c r="Y3" s="490">
+        <v>10</v>
+      </c>
+      <c r="Y3" s="488">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Z3" s="59">
         <f t="shared" si="0"/>
@@ -10620,15 +10646,15 @@
       </c>
       <c r="AA3" s="66">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AB3" s="66">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AC3" s="66">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AD3" s="66">
         <f t="shared" ref="AD3:AO3" si="1">SUM(AD4:AD29)</f>
@@ -10636,7 +10662,7 @@
       </c>
       <c r="AE3" s="66">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AF3" s="66">
         <f t="shared" si="1"/>
@@ -10648,29 +10674,29 @@
       </c>
       <c r="AH3" s="66">
         <f>SUM(AH4:AH29)</f>
-        <v>8</v>
-      </c>
-      <c r="AI3" s="377">
+        <v>10</v>
+      </c>
+      <c r="AI3" s="376">
         <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="AJ3" s="408">
+        <v>1</v>
+      </c>
+      <c r="AJ3" s="407">
         <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="AK3" s="408"/>
-      <c r="AL3" s="408"/>
+        <v>11</v>
+      </c>
+      <c r="AK3" s="407"/>
+      <c r="AL3" s="407"/>
       <c r="AM3" s="100">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AN3" s="312">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AO3" s="313">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AR3" s="142"/>
     </row>
@@ -10692,95 +10718,97 @@
       </c>
       <c r="H4" s="273"/>
       <c r="I4" s="273"/>
-      <c r="J4" s="580"/>
-      <c r="K4" s="584"/>
-      <c r="L4" s="592"/>
+      <c r="J4" s="576"/>
+      <c r="K4" s="580"/>
+      <c r="L4" s="588">
+        <v>1</v>
+      </c>
       <c r="M4" s="327"/>
       <c r="N4" s="107">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O4" s="294">
         <f>AC4</f>
-        <v>0</v>
-      </c>
-      <c r="P4" s="722" t="s">
+        <v>1</v>
+      </c>
+      <c r="P4" s="717" t="s">
         <v>199</v>
       </c>
       <c r="Q4" s="20"/>
       <c r="R4" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="S4" s="510" t="s">
+      <c r="S4" s="508" t="s">
         <v>203</v>
       </c>
-      <c r="T4" s="545">
+      <c r="T4" s="543">
         <v>2</v>
       </c>
-      <c r="U4" s="491"/>
-      <c r="V4" s="492">
-        <v>2</v>
-      </c>
-      <c r="W4" s="493">
+      <c r="U4" s="489"/>
+      <c r="V4" s="490">
+        <v>1</v>
+      </c>
+      <c r="W4" s="491">
         <v>-2</v>
       </c>
-      <c r="X4" s="494"/>
-      <c r="Y4" s="495">
+      <c r="X4" s="492"/>
+      <c r="Y4" s="493">
         <f t="shared" ref="Y4:Y37" si="2">SUM(M4:N4)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z4" s="157"/>
       <c r="AA4" s="117">
         <f t="shared" ref="AA4:AA37" si="3">O4</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB4" s="292">
         <f>(Y4+AA4+AF4)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AC4" s="292">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD4" s="292">
         <f t="shared" ref="AD4:AD37" si="4">IF((AF4+V4+Y4+X4+U4)&lt;AE4,(AE4-(AF4+V4+Y4+X4+U4))*(-1),0)</f>
         <v>0</v>
       </c>
       <c r="AE4" s="305">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF4" s="301"/>
       <c r="AG4" s="299"/>
       <c r="AH4" s="157">
         <f t="shared" ref="AH4:AH37" si="5">O4</f>
-        <v>0</v>
-      </c>
-      <c r="AI4" s="563"/>
+        <v>1</v>
+      </c>
+      <c r="AI4" s="561"/>
       <c r="AJ4" s="185"/>
       <c r="AK4" s="162"/>
       <c r="AL4" s="321"/>
-      <c r="AM4" s="339">
+      <c r="AM4" s="338">
         <f t="shared" ref="AM4:AM37" si="6">AD4+AI4+AA4</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN4" s="310">
         <f t="shared" ref="AN4:AN37" si="7">IF((AE4-AI4)&gt; AA4,AI4-AA4,AA4)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO4" s="311">
         <f>IF((AM4-AN4)&gt;AN4,(AM4-AN4),AN4)</f>
-        <v>0</v>
-      </c>
-      <c r="AP4" s="510" t="s">
+        <v>1</v>
+      </c>
+      <c r="AP4" s="508" t="s">
         <v>203</v>
       </c>
-      <c r="AQ4" s="571"/>
-      <c r="AR4" s="545" t="s">
+      <c r="AQ4" s="567"/>
+      <c r="AR4" s="543" t="s">
         <v>555</v>
       </c>
     </row>
     <row r="5" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J5" s="581"/>
-      <c r="K5" s="585"/>
-      <c r="L5" s="593"/>
+      <c r="J5" s="577"/>
+      <c r="K5" s="581"/>
+      <c r="L5" s="589"/>
       <c r="M5" s="297"/>
       <c r="N5" s="107">
         <v>0</v>
@@ -10789,26 +10817,26 @@
         <f>AC5</f>
         <v>0</v>
       </c>
-      <c r="P5" s="723"/>
+      <c r="P5" s="718"/>
       <c r="Q5" s="20"/>
       <c r="R5" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="S5" s="540" t="s">
+      <c r="S5" s="538" t="s">
         <v>240</v>
       </c>
-      <c r="T5" s="513">
+      <c r="T5" s="511">
         <v>2</v>
       </c>
-      <c r="U5" s="496"/>
-      <c r="V5" s="497">
+      <c r="U5" s="494"/>
+      <c r="V5" s="495">
         <v>2</v>
       </c>
-      <c r="W5" s="498">
+      <c r="W5" s="496">
         <v>-2</v>
       </c>
-      <c r="X5" s="499"/>
-      <c r="Y5" s="495">
+      <c r="X5" s="497"/>
+      <c r="Y5" s="493">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -10835,11 +10863,11 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AI5" s="378"/>
-      <c r="AJ5" s="514"/>
-      <c r="AK5" s="569"/>
+      <c r="AI5" s="377"/>
+      <c r="AJ5" s="512"/>
+      <c r="AK5" s="565"/>
       <c r="AL5" s="319"/>
-      <c r="AM5" s="339">
+      <c r="AM5" s="338">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
@@ -10852,8 +10880,8 @@
         <v>0</v>
       </c>
       <c r="AP5" s="6"/>
-      <c r="AQ5" s="378"/>
-      <c r="AR5" s="513"/>
+      <c r="AQ5" s="377"/>
+      <c r="AR5" s="511"/>
     </row>
     <row r="6" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="19"/>
@@ -10868,99 +10896,101 @@
       </c>
       <c r="G6" s="201"/>
       <c r="I6" s="112"/>
-      <c r="J6" s="582" t="s">
+      <c r="J6" s="578" t="s">
         <v>307</v>
       </c>
-      <c r="K6" s="586">
+      <c r="K6" s="582">
         <v>2</v>
       </c>
-      <c r="L6" s="594"/>
+      <c r="L6" s="590"/>
       <c r="M6" s="328">
         <v>0</v>
       </c>
       <c r="N6" s="107">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O6" s="295">
         <f>AC6</f>
-        <v>0</v>
-      </c>
-      <c r="P6" s="723"/>
+        <v>1</v>
+      </c>
+      <c r="P6" s="718"/>
       <c r="Q6" s="19" t="s">
         <v>336</v>
       </c>
-      <c r="S6" s="540" t="s">
+      <c r="S6" s="538" t="s">
         <v>229</v>
       </c>
-      <c r="T6" s="513">
-        <v>6</v>
-      </c>
-      <c r="U6" s="527">
+      <c r="T6" s="511">
+        <v>7</v>
+      </c>
+      <c r="U6" s="525">
         <v>2</v>
       </c>
       <c r="V6" s="318">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W6" s="315">
         <v>-2</v>
       </c>
-      <c r="X6" s="526">
-        <v>2</v>
+      <c r="X6" s="524">
+        <v>3</v>
       </c>
       <c r="Y6" s="185">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z6" s="298"/>
       <c r="AA6" s="117">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB6" s="292">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AC6" s="292">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD6" s="292">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AE6" s="296">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF6" s="302"/>
       <c r="AG6" s="298"/>
       <c r="AH6" s="298">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AI6" s="378">
-        <v>0</v>
-      </c>
-      <c r="AJ6" s="514"/>
-      <c r="AK6" s="569"/>
+        <v>1</v>
+      </c>
+      <c r="AI6" s="377">
+        <v>0</v>
+      </c>
+      <c r="AJ6" s="512">
+        <v>2</v>
+      </c>
+      <c r="AK6" s="565"/>
       <c r="AL6" s="319"/>
-      <c r="AM6" s="339">
+      <c r="AM6" s="338">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN6" s="310">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO6" s="311">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP6" s="6" t="s">
-        <v>475</v>
-      </c>
-      <c r="AQ6" s="572" t="s">
+        <v>229</v>
+      </c>
+      <c r="AQ6" s="568" t="s">
         <v>561</v>
       </c>
-      <c r="AR6" s="513" t="s">
+      <c r="AR6" s="511" t="s">
         <v>495</v>
       </c>
     </row>
@@ -10971,11 +11001,11 @@
       </c>
       <c r="H7" s="270"/>
       <c r="I7" s="111"/>
-      <c r="J7" s="581"/>
-      <c r="K7" s="585">
+      <c r="J7" s="577"/>
+      <c r="K7" s="581">
         <v>3</v>
       </c>
-      <c r="L7" s="593"/>
+      <c r="L7" s="589"/>
       <c r="M7" s="328">
         <v>0</v>
       </c>
@@ -10984,29 +11014,29 @@
       </c>
       <c r="O7" s="295">
         <f>AC7</f>
-        <v>0</v>
-      </c>
-      <c r="P7" s="723"/>
+        <v>1</v>
+      </c>
+      <c r="P7" s="718"/>
       <c r="Q7" s="20"/>
       <c r="R7" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="S7" s="540" t="s">
+      <c r="S7" s="538" t="s">
         <v>241</v>
       </c>
-      <c r="T7" s="513">
+      <c r="T7" s="511">
         <v>5</v>
       </c>
       <c r="U7" s="328">
         <v>1</v>
       </c>
-      <c r="V7" s="530">
+      <c r="V7" s="528">
         <v>2</v>
       </c>
       <c r="W7" s="316">
         <v>-2</v>
       </c>
-      <c r="X7" s="528">
+      <c r="X7" s="526">
         <v>2</v>
       </c>
       <c r="Y7" s="185">
@@ -11016,14 +11046,14 @@
       <c r="Z7" s="298"/>
       <c r="AA7" s="117">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB7" s="292">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC7" s="292">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD7" s="292">
         <f t="shared" si="4"/>
@@ -11040,29 +11070,29 @@
       </c>
       <c r="AH7" s="298">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AI7" s="378"/>
-      <c r="AJ7" s="514"/>
-      <c r="AK7" s="569"/>
+        <v>1</v>
+      </c>
+      <c r="AI7" s="377"/>
+      <c r="AJ7" s="512"/>
+      <c r="AK7" s="565"/>
       <c r="AL7" s="319"/>
-      <c r="AM7" s="339">
+      <c r="AM7" s="338">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN7" s="310">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO7" s="311">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP7" s="6" t="s">
         <v>241</v>
       </c>
-      <c r="AQ7" s="572"/>
-      <c r="AR7" s="386"/>
+      <c r="AQ7" s="568"/>
+      <c r="AR7" s="385"/>
     </row>
     <row r="8" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="28" t="s">
@@ -11083,13 +11113,13 @@
       </c>
       <c r="H8" s="273"/>
       <c r="I8" s="117"/>
-      <c r="J8" s="582" t="s">
+      <c r="J8" s="578" t="s">
         <v>339</v>
       </c>
-      <c r="K8" s="586">
-        <v>1</v>
-      </c>
-      <c r="L8" s="594"/>
+      <c r="K8" s="582">
+        <v>1</v>
+      </c>
+      <c r="L8" s="590"/>
       <c r="M8" s="107">
         <v>0</v>
       </c>
@@ -11100,33 +11130,33 @@
         <f t="shared" ref="O8:O37" si="10">AC8</f>
         <v>0</v>
       </c>
-      <c r="P8" s="723"/>
+      <c r="P8" s="718"/>
       <c r="Q8" s="21" t="s">
         <v>234</v>
       </c>
       <c r="R8" s="111" t="s">
         <v>336</v>
       </c>
-      <c r="S8" s="541" t="s">
+      <c r="S8" s="539" t="s">
         <v>201</v>
       </c>
-      <c r="T8" s="513">
-        <v>1</v>
-      </c>
-      <c r="U8" s="504">
-        <v>0</v>
-      </c>
-      <c r="V8" s="529">
-        <v>1</v>
+      <c r="T8" s="511">
+        <v>0</v>
+      </c>
+      <c r="U8" s="502">
+        <v>0</v>
+      </c>
+      <c r="V8" s="527">
+        <v>0</v>
       </c>
       <c r="W8" s="24">
         <f>V3</f>
-        <v>37</v>
-      </c>
-      <c r="X8" s="502">
-        <v>0</v>
-      </c>
-      <c r="Y8" s="495">
+        <v>36</v>
+      </c>
+      <c r="X8" s="500">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="493">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -11155,11 +11185,11 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AI8" s="378">
-        <v>0</v>
-      </c>
-      <c r="AJ8" s="514"/>
-      <c r="AK8" s="569"/>
+      <c r="AI8" s="377">
+        <v>0</v>
+      </c>
+      <c r="AJ8" s="512"/>
+      <c r="AK8" s="565"/>
       <c r="AL8" s="319"/>
       <c r="AM8" s="118">
         <f t="shared" si="6"/>
@@ -11174,15 +11204,15 @@
         <v>0</v>
       </c>
       <c r="AP8" s="6"/>
-      <c r="AQ8" s="572"/>
-      <c r="AR8" s="386"/>
+      <c r="AQ8" s="568"/>
+      <c r="AR8" s="385"/>
     </row>
     <row r="9" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J9" s="581" t="s">
+      <c r="J9" s="577" t="s">
         <v>353</v>
       </c>
-      <c r="K9" s="585"/>
-      <c r="L9" s="593"/>
+      <c r="K9" s="581"/>
+      <c r="L9" s="589"/>
       <c r="M9" s="329"/>
       <c r="N9" s="107">
         <v>0</v>
@@ -11191,25 +11221,25 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="P9" s="723"/>
+      <c r="P9" s="718"/>
       <c r="Q9" s="21" t="s">
         <v>336</v>
       </c>
-      <c r="S9" s="541" t="s">
+      <c r="S9" s="539" t="s">
         <v>260</v>
       </c>
-      <c r="T9" s="513">
+      <c r="T9" s="511">
         <v>2</v>
       </c>
-      <c r="U9" s="505"/>
-      <c r="V9" s="506">
+      <c r="U9" s="503"/>
+      <c r="V9" s="504">
         <v>2</v>
       </c>
-      <c r="W9" s="493">
+      <c r="W9" s="491">
         <v>-2</v>
       </c>
-      <c r="X9" s="507"/>
-      <c r="Y9" s="495">
+      <c r="X9" s="505"/>
+      <c r="Y9" s="493">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -11238,15 +11268,15 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AI9" s="378">
-        <v>0</v>
-      </c>
-      <c r="AJ9" s="570">
-        <v>0</v>
-      </c>
-      <c r="AK9" s="569"/>
+      <c r="AI9" s="377">
+        <v>0</v>
+      </c>
+      <c r="AJ9" s="566">
+        <v>0</v>
+      </c>
+      <c r="AK9" s="565"/>
       <c r="AL9" s="319"/>
-      <c r="AM9" s="339">
+      <c r="AM9" s="338">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
@@ -11259,8 +11289,8 @@
         <v>0</v>
       </c>
       <c r="AP9" s="6"/>
-      <c r="AQ9" s="573"/>
-      <c r="AR9" s="513"/>
+      <c r="AQ9" s="569"/>
+      <c r="AR9" s="511"/>
     </row>
     <row r="10" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
@@ -11279,13 +11309,15 @@
         <v>0</v>
       </c>
       <c r="I10" s="111" t="s">
-        <v>617</v>
-      </c>
-      <c r="J10" s="581" t="s">
+        <v>616</v>
+      </c>
+      <c r="J10" s="577" t="s">
         <v>357</v>
       </c>
-      <c r="K10" s="585"/>
-      <c r="L10" s="593"/>
+      <c r="K10" s="581"/>
+      <c r="L10" s="589">
+        <v>1</v>
+      </c>
       <c r="M10" s="330"/>
       <c r="N10" s="107">
         <v>1</v>
@@ -11294,28 +11326,28 @@
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="P10" s="723"/>
+      <c r="P10" s="718"/>
       <c r="Q10" s="20"/>
       <c r="R10" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="S10" s="540" t="s">
+      <c r="S10" s="538" t="s">
         <v>73</v>
       </c>
-      <c r="T10" s="513">
+      <c r="T10" s="511">
         <v>3</v>
       </c>
-      <c r="U10" s="508">
-        <v>1</v>
-      </c>
-      <c r="V10" s="497">
-        <v>1</v>
-      </c>
-      <c r="W10" s="498">
+      <c r="U10" s="506">
+        <v>1</v>
+      </c>
+      <c r="V10" s="495">
+        <v>1</v>
+      </c>
+      <c r="W10" s="496">
         <v>-2</v>
       </c>
-      <c r="X10" s="501"/>
-      <c r="Y10" s="495">
+      <c r="X10" s="499"/>
+      <c r="Y10" s="493">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -11344,11 +11376,11 @@
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="AI10" s="378"/>
-      <c r="AJ10" s="514"/>
-      <c r="AK10" s="569"/>
+      <c r="AI10" s="377"/>
+      <c r="AJ10" s="512"/>
+      <c r="AK10" s="565"/>
       <c r="AL10" s="319"/>
-      <c r="AM10" s="339">
+      <c r="AM10" s="338">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
@@ -11366,16 +11398,16 @@
       <c r="AQ10" s="273" t="s">
         <v>585</v>
       </c>
-      <c r="AR10" s="513" t="s">
+      <c r="AR10" s="511" t="s">
         <v>495</v>
       </c>
     </row>
     <row r="11" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J11" s="581" t="s">
+      <c r="J11" s="577" t="s">
         <v>306</v>
       </c>
-      <c r="K11" s="585"/>
-      <c r="L11" s="593"/>
+      <c r="K11" s="581"/>
+      <c r="L11" s="589"/>
       <c r="M11" s="330"/>
       <c r="N11" s="107">
         <v>0</v>
@@ -11384,26 +11416,26 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="P11" s="723"/>
+      <c r="P11" s="718"/>
       <c r="Q11" s="21" t="s">
         <v>336</v>
       </c>
       <c r="R11" s="16"/>
-      <c r="S11" s="540" t="s">
+      <c r="S11" s="538" t="s">
         <v>237</v>
       </c>
-      <c r="T11" s="513">
+      <c r="T11" s="511">
         <v>2</v>
       </c>
-      <c r="U11" s="508"/>
-      <c r="V11" s="497">
+      <c r="U11" s="506"/>
+      <c r="V11" s="495">
         <v>2</v>
       </c>
-      <c r="W11" s="498">
+      <c r="W11" s="496">
         <v>-2</v>
       </c>
-      <c r="X11" s="501"/>
-      <c r="Y11" s="495">
+      <c r="X11" s="499"/>
+      <c r="Y11" s="493">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -11428,11 +11460,11 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AI11" s="378"/>
-      <c r="AJ11" s="514"/>
-      <c r="AK11" s="569"/>
+      <c r="AI11" s="377"/>
+      <c r="AJ11" s="512"/>
+      <c r="AK11" s="565"/>
       <c r="AL11" s="319"/>
-      <c r="AM11" s="339">
+      <c r="AM11" s="338">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
@@ -11445,32 +11477,32 @@
         <v>0</v>
       </c>
       <c r="AP11" s="6"/>
-      <c r="AQ11" s="572"/>
-      <c r="AR11" s="513"/>
+      <c r="AQ11" s="568"/>
+      <c r="AR11" s="511"/>
     </row>
     <row r="12" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="632" t="s">
+      <c r="A12" s="627" t="s">
         <v>55</v>
       </c>
       <c r="B12" s="30">
         <v>13</v>
       </c>
       <c r="C12" s="2"/>
-      <c r="E12" s="687" t="s">
+      <c r="E12" s="682" t="s">
         <v>56</v>
       </c>
       <c r="G12" s="264"/>
-      <c r="H12" s="517">
+      <c r="H12" s="515">
         <v>-1</v>
       </c>
       <c r="I12" s="61" t="s">
-        <v>623</v>
-      </c>
-      <c r="J12" s="581" t="s">
+        <v>622</v>
+      </c>
+      <c r="J12" s="577" t="s">
         <v>298</v>
       </c>
-      <c r="K12" s="585"/>
-      <c r="L12" s="593">
+      <c r="K12" s="581"/>
+      <c r="L12" s="589">
         <v>1</v>
       </c>
       <c r="M12" s="330"/>
@@ -11481,25 +11513,25 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="P12" s="723"/>
+      <c r="P12" s="718"/>
       <c r="Q12" s="21" t="s">
         <v>336</v>
       </c>
       <c r="R12" s="16"/>
-      <c r="S12" s="540" t="s">
+      <c r="S12" s="538" t="s">
         <v>236</v>
       </c>
-      <c r="T12" s="513">
+      <c r="T12" s="511">
         <v>2</v>
       </c>
-      <c r="U12" s="508"/>
-      <c r="V12" s="497">
-        <v>1</v>
-      </c>
-      <c r="W12" s="498">
+      <c r="U12" s="506"/>
+      <c r="V12" s="495">
+        <v>1</v>
+      </c>
+      <c r="W12" s="496">
         <v>-2</v>
       </c>
-      <c r="X12" s="501"/>
+      <c r="X12" s="499"/>
       <c r="Y12" s="185">
         <f t="shared" si="2"/>
         <v>1</v>
@@ -11529,13 +11561,13 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AI12" s="378"/>
-      <c r="AJ12" s="514">
-        <v>1</v>
-      </c>
-      <c r="AK12" s="569"/>
+      <c r="AI12" s="377"/>
+      <c r="AJ12" s="512">
+        <v>1</v>
+      </c>
+      <c r="AK12" s="565"/>
       <c r="AL12" s="319"/>
-      <c r="AM12" s="339">
+      <c r="AM12" s="338">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
@@ -11550,22 +11582,22 @@
       <c r="AP12" s="6" t="s">
         <v>449</v>
       </c>
-      <c r="AQ12" s="572" t="s">
+      <c r="AQ12" s="568" t="s">
         <v>511</v>
       </c>
-      <c r="AR12" s="514" t="s">
+      <c r="AR12" s="512" t="s">
         <v>565</v>
       </c>
     </row>
     <row r="13" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="634"/>
-      <c r="B13" s="597">
+      <c r="A13" s="629"/>
+      <c r="B13" s="592">
         <v>12</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="E13" s="688"/>
+      <c r="E13" s="683"/>
       <c r="F13" s="174">
         <v>0</v>
       </c>
@@ -11574,13 +11606,13 @@
       </c>
       <c r="H13" s="273"/>
       <c r="I13" s="111" t="s">
-        <v>624</v>
-      </c>
-      <c r="J13" s="582" t="s">
+        <v>623</v>
+      </c>
+      <c r="J13" s="578" t="s">
         <v>303</v>
       </c>
-      <c r="K13" s="586"/>
-      <c r="L13" s="594"/>
+      <c r="K13" s="582"/>
+      <c r="L13" s="590"/>
       <c r="M13" s="330"/>
       <c r="N13" s="107">
         <v>0</v>
@@ -11589,26 +11621,26 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="P13" s="723"/>
+      <c r="P13" s="718"/>
       <c r="Q13" s="21" t="s">
         <v>336</v>
       </c>
       <c r="R13" s="16"/>
-      <c r="S13" s="540" t="s">
+      <c r="S13" s="538" t="s">
         <v>232</v>
       </c>
-      <c r="T13" s="513">
+      <c r="T13" s="511">
         <v>2</v>
       </c>
-      <c r="U13" s="508"/>
-      <c r="V13" s="497">
+      <c r="U13" s="506"/>
+      <c r="V13" s="495">
         <v>2</v>
       </c>
-      <c r="W13" s="498">
+      <c r="W13" s="496">
         <v>-2</v>
       </c>
-      <c r="X13" s="501"/>
-      <c r="Y13" s="495">
+      <c r="X13" s="499"/>
+      <c r="Y13" s="493">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -11633,11 +11665,13 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AI13" s="378"/>
-      <c r="AJ13" s="514"/>
-      <c r="AK13" s="569"/>
+      <c r="AI13" s="377"/>
+      <c r="AJ13" s="512">
+        <v>1</v>
+      </c>
+      <c r="AK13" s="565"/>
       <c r="AL13" s="319"/>
-      <c r="AM13" s="339">
+      <c r="AM13" s="338">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
@@ -11650,17 +11684,17 @@
         <v>0</v>
       </c>
       <c r="AP13" s="16"/>
-      <c r="AQ13" s="572"/>
-      <c r="AR13" s="513"/>
+      <c r="AQ13" s="568"/>
+      <c r="AR13" s="511"/>
     </row>
     <row r="14" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>59</v>
       </c>
       <c r="H14" s="42"/>
-      <c r="J14" s="581"/>
-      <c r="K14" s="585"/>
-      <c r="L14" s="593">
+      <c r="J14" s="577"/>
+      <c r="K14" s="581"/>
+      <c r="L14" s="589">
         <v>1</v>
       </c>
       <c r="M14" s="330"/>
@@ -11669,82 +11703,86 @@
       </c>
       <c r="O14" s="295">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="P14" s="723"/>
+        <v>1</v>
+      </c>
+      <c r="P14" s="718"/>
       <c r="Q14" s="20"/>
       <c r="R14" s="202" t="s">
         <v>340</v>
       </c>
-      <c r="S14" s="540" t="s">
+      <c r="S14" s="538" t="s">
         <v>242</v>
       </c>
-      <c r="T14" s="513">
-        <v>1</v>
-      </c>
-      <c r="U14" s="508"/>
-      <c r="V14" s="497">
-        <v>1</v>
-      </c>
-      <c r="W14" s="498">
+      <c r="T14" s="511">
+        <v>1</v>
+      </c>
+      <c r="U14" s="506"/>
+      <c r="V14" s="495">
+        <v>1</v>
+      </c>
+      <c r="W14" s="496">
         <v>-1</v>
       </c>
-      <c r="X14" s="501"/>
-      <c r="Y14" s="495">
+      <c r="X14" s="499"/>
+      <c r="Y14" s="493">
         <f>SUM(M14:N14)</f>
         <v>0</v>
       </c>
       <c r="Z14" s="298"/>
       <c r="AA14" s="117">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB14" s="292">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC14" s="292">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD14" s="292">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AE14" s="296">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF14" s="302"/>
       <c r="AG14" s="298"/>
       <c r="AH14" s="298">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AI14" s="378"/>
-      <c r="AJ14" s="514"/>
-      <c r="AK14" s="569">
-        <v>1</v>
-      </c>
-      <c r="AL14" s="319"/>
-      <c r="AM14" s="339">
+        <v>1</v>
+      </c>
+      <c r="AI14" s="377"/>
+      <c r="AJ14" s="512">
+        <v>1</v>
+      </c>
+      <c r="AK14" s="565">
+        <v>1</v>
+      </c>
+      <c r="AL14" s="319">
+        <v>1</v>
+      </c>
+      <c r="AM14" s="338">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN14" s="310">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO14" s="311">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP14" s="6" t="s">
-        <v>560</v>
-      </c>
-      <c r="AQ14" s="574" t="s">
+        <v>629</v>
+      </c>
+      <c r="AQ14" s="570" t="s">
         <v>563</v>
       </c>
-      <c r="AR14" s="513" t="s">
-        <v>618</v>
+      <c r="AR14" s="511" t="s">
+        <v>617</v>
       </c>
     </row>
     <row r="15" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11757,96 +11795,92 @@
       <c r="G15" s="263" t="s">
         <v>44</v>
       </c>
-      <c r="H15" s="484"/>
+      <c r="H15" s="482"/>
       <c r="I15" s="273"/>
-      <c r="J15" s="582" t="s">
+      <c r="J15" s="578" t="s">
         <v>194</v>
       </c>
-      <c r="K15" s="586"/>
-      <c r="L15" s="594"/>
+      <c r="K15" s="582"/>
+      <c r="L15" s="590"/>
       <c r="M15" s="330"/>
       <c r="N15" s="293">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O15" s="295">
         <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="P15" s="723"/>
+        <v>0</v>
+      </c>
+      <c r="P15" s="718"/>
       <c r="Q15" s="20"/>
       <c r="R15" s="202" t="s">
         <v>340</v>
       </c>
-      <c r="S15" s="540" t="s">
+      <c r="S15" s="538" t="s">
         <v>230</v>
       </c>
-      <c r="T15" s="513">
+      <c r="T15" s="511">
         <v>2</v>
       </c>
-      <c r="U15" s="508"/>
-      <c r="V15" s="497">
-        <v>1</v>
-      </c>
-      <c r="W15" s="498">
+      <c r="U15" s="506"/>
+      <c r="V15" s="495">
+        <v>2</v>
+      </c>
+      <c r="W15" s="496">
         <v>-2</v>
       </c>
-      <c r="X15" s="507"/>
-      <c r="Y15" s="495">
+      <c r="X15" s="505"/>
+      <c r="Y15" s="493">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="298"/>
       <c r="AA15" s="117">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB15" s="292">
         <f t="shared" si="8"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AC15" s="292">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD15" s="292">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AE15" s="296">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AF15" s="302"/>
       <c r="AG15" s="298"/>
       <c r="AH15" s="298">
         <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="AI15" s="378">
-        <v>1</v>
-      </c>
-      <c r="AJ15" s="514">
-        <v>1</v>
-      </c>
-      <c r="AK15" s="569"/>
+        <v>0</v>
+      </c>
+      <c r="AI15" s="377"/>
+      <c r="AJ15" s="512"/>
+      <c r="AK15" s="565"/>
       <c r="AL15" s="319"/>
-      <c r="AM15" s="339">
+      <c r="AM15" s="338">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AN15" s="310">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="311">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP15" s="6" t="s">
         <v>230</v>
       </c>
-      <c r="AQ15" s="572" t="s">
+      <c r="AQ15" s="568" t="s">
         <v>452</v>
       </c>
-      <c r="AR15" s="513"/>
+      <c r="AR15" s="511"/>
     </row>
     <row r="16" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C16" s="21" t="s">
@@ -11855,9 +11889,11 @@
       <c r="E16" s="32" t="s">
         <v>62</v>
       </c>
-      <c r="J16" s="583"/>
-      <c r="K16" s="587"/>
-      <c r="L16" s="595"/>
+      <c r="J16" s="579"/>
+      <c r="K16" s="583"/>
+      <c r="L16" s="589">
+        <v>1</v>
+      </c>
       <c r="M16" s="330"/>
       <c r="N16" s="107">
         <v>1</v>
@@ -11866,28 +11902,28 @@
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="P16" s="723"/>
+      <c r="P16" s="718"/>
       <c r="Q16" s="21" t="s">
         <v>336</v>
       </c>
       <c r="R16" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="S16" s="540" t="s">
+      <c r="S16" s="538" t="s">
         <v>233</v>
       </c>
-      <c r="T16" s="513">
+      <c r="T16" s="511">
         <v>3</v>
       </c>
-      <c r="U16" s="508"/>
-      <c r="V16" s="497">
+      <c r="U16" s="506"/>
+      <c r="V16" s="495">
         <v>2</v>
       </c>
-      <c r="W16" s="498">
+      <c r="W16" s="496">
         <v>-3</v>
       </c>
-      <c r="X16" s="507"/>
-      <c r="Y16" s="495">
+      <c r="X16" s="505"/>
+      <c r="Y16" s="493">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -11916,15 +11952,15 @@
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="AI16" s="378">
-        <v>1</v>
-      </c>
-      <c r="AJ16" s="514">
-        <v>1</v>
-      </c>
-      <c r="AK16" s="569"/>
+      <c r="AI16" s="377">
+        <v>1</v>
+      </c>
+      <c r="AJ16" s="512">
+        <v>1</v>
+      </c>
+      <c r="AK16" s="565"/>
       <c r="AL16" s="319"/>
-      <c r="AM16" s="339">
+      <c r="AM16" s="338">
         <f t="shared" si="6"/>
         <v>2</v>
       </c>
@@ -11939,10 +11975,10 @@
       <c r="AP16" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="AQ16" s="575" t="s">
+      <c r="AQ16" s="571" t="s">
         <v>556</v>
       </c>
-      <c r="AR16" s="513" t="s">
+      <c r="AR16" s="511" t="s">
         <v>564</v>
       </c>
     </row>
@@ -11956,55 +11992,55 @@
       <c r="G17" s="143"/>
       <c r="H17" s="270"/>
       <c r="I17" s="6"/>
-      <c r="J17" s="582" t="s">
+      <c r="J17" s="578" t="s">
         <v>310</v>
       </c>
-      <c r="K17" s="586"/>
-      <c r="L17" s="594"/>
+      <c r="K17" s="582"/>
+      <c r="L17" s="590"/>
       <c r="M17" s="330"/>
       <c r="N17" s="107">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O17" s="295">
         <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="P17" s="723"/>
+        <v>0</v>
+      </c>
+      <c r="P17" s="718"/>
       <c r="Q17" s="20"/>
       <c r="R17" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="S17" s="540" t="s">
+      <c r="S17" s="538" t="s">
         <v>96</v>
       </c>
-      <c r="T17" s="513">
+      <c r="T17" s="511">
         <v>2</v>
       </c>
-      <c r="U17" s="508">
-        <v>1</v>
-      </c>
-      <c r="V17" s="497">
-        <v>0</v>
-      </c>
-      <c r="W17" s="498">
+      <c r="U17" s="506">
+        <v>1</v>
+      </c>
+      <c r="V17" s="495">
+        <v>1</v>
+      </c>
+      <c r="W17" s="496">
         <v>-1</v>
       </c>
-      <c r="X17" s="501"/>
-      <c r="Y17" s="495">
+      <c r="X17" s="499"/>
+      <c r="Y17" s="493">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="298"/>
       <c r="AA17" s="117">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB17" s="292">
         <f t="shared" si="8"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AC17" s="292">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD17" s="292">
         <f t="shared" si="4"/>
@@ -12015,33 +12051,31 @@
       <c r="AG17" s="298"/>
       <c r="AH17" s="298">
         <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="AI17" s="378"/>
-      <c r="AJ17" s="514">
-        <v>1</v>
-      </c>
-      <c r="AK17" s="569"/>
+        <v>0</v>
+      </c>
+      <c r="AI17" s="377"/>
+      <c r="AJ17" s="512"/>
+      <c r="AK17" s="565"/>
       <c r="AL17" s="319"/>
-      <c r="AM17" s="339">
+      <c r="AM17" s="338">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN17" s="310">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="311">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP17" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="AQ17" s="576" t="s">
+      <c r="AQ17" s="572" t="s">
         <v>565</v>
       </c>
-      <c r="AR17" s="513" t="s">
+      <c r="AR17" s="511" t="s">
         <v>94</v>
       </c>
     </row>
@@ -12058,11 +12092,11 @@
       </c>
       <c r="H18" s="80"/>
       <c r="I18" s="80"/>
-      <c r="J18" s="582" t="s">
+      <c r="J18" s="578" t="s">
         <v>303</v>
       </c>
-      <c r="K18" s="586"/>
-      <c r="L18" s="594"/>
+      <c r="K18" s="582"/>
+      <c r="L18" s="590"/>
       <c r="M18" s="331"/>
       <c r="N18" s="107">
         <v>0</v>
@@ -12071,26 +12105,26 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="P18" s="723"/>
+      <c r="P18" s="718"/>
       <c r="Q18" s="21" t="s">
         <v>336</v>
       </c>
       <c r="R18" s="16"/>
-      <c r="S18" s="540" t="s">
+      <c r="S18" s="538" t="s">
         <v>244</v>
       </c>
-      <c r="T18" s="513">
+      <c r="T18" s="511">
         <v>3</v>
       </c>
-      <c r="U18" s="508"/>
-      <c r="V18" s="497">
+      <c r="U18" s="506"/>
+      <c r="V18" s="495">
         <v>3</v>
       </c>
-      <c r="W18" s="498">
+      <c r="W18" s="496">
         <v>-3</v>
       </c>
-      <c r="X18" s="499"/>
-      <c r="Y18" s="495">
+      <c r="X18" s="497"/>
+      <c r="Y18" s="493">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -12119,11 +12153,11 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AI18" s="378"/>
-      <c r="AJ18" s="514"/>
-      <c r="AK18" s="569"/>
+      <c r="AI18" s="377"/>
+      <c r="AJ18" s="512"/>
+      <c r="AK18" s="565"/>
       <c r="AL18" s="319"/>
-      <c r="AM18" s="339">
+      <c r="AM18" s="338">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
@@ -12136,23 +12170,21 @@
         <v>0</v>
       </c>
       <c r="AP18" s="6"/>
-      <c r="AQ18" s="577"/>
-      <c r="AR18" s="513"/>
+      <c r="AQ18" s="573"/>
+      <c r="AR18" s="511"/>
     </row>
     <row r="19" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>66</v>
       </c>
       <c r="H19" s="270"/>
-      <c r="J19" s="582" t="s">
+      <c r="J19" s="578" t="s">
         <v>305</v>
       </c>
-      <c r="K19" s="586">
+      <c r="K19" s="582">
         <v>2</v>
       </c>
-      <c r="L19" s="594">
-        <v>1</v>
-      </c>
+      <c r="L19" s="590"/>
       <c r="M19" s="118"/>
       <c r="N19" s="107">
         <v>1</v>
@@ -12161,25 +12193,25 @@
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="P19" s="723"/>
+      <c r="P19" s="718"/>
       <c r="Q19" s="20"/>
       <c r="R19" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="S19" s="540" t="s">
+      <c r="S19" s="538" t="s">
         <v>243</v>
       </c>
-      <c r="T19" s="513">
+      <c r="T19" s="511">
         <v>3</v>
       </c>
-      <c r="U19" s="508"/>
-      <c r="V19" s="497">
-        <v>0</v>
-      </c>
-      <c r="W19" s="498">
+      <c r="U19" s="506"/>
+      <c r="V19" s="495">
+        <v>0</v>
+      </c>
+      <c r="W19" s="496">
         <v>-1</v>
       </c>
-      <c r="X19" s="500">
+      <c r="X19" s="498">
         <v>2</v>
       </c>
       <c r="Y19" s="185">
@@ -12211,13 +12243,13 @@
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="AI19" s="378"/>
-      <c r="AJ19" s="514"/>
-      <c r="AK19" s="569">
+      <c r="AI19" s="377"/>
+      <c r="AJ19" s="512"/>
+      <c r="AK19" s="565">
         <v>1</v>
       </c>
       <c r="AL19" s="319"/>
-      <c r="AM19" s="339">
+      <c r="AM19" s="338">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
@@ -12256,11 +12288,11 @@
       <c r="I20" s="80" t="s">
         <v>349</v>
       </c>
-      <c r="J20" s="582" t="s">
+      <c r="J20" s="578" t="s">
         <v>194</v>
       </c>
-      <c r="K20" s="586"/>
-      <c r="L20" s="594">
+      <c r="K20" s="582"/>
+      <c r="L20" s="590">
         <v>1</v>
       </c>
       <c r="M20" s="329"/>
@@ -12271,25 +12303,25 @@
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="P20" s="724"/>
-      <c r="Q20" s="609" t="s">
+      <c r="P20" s="719"/>
+      <c r="Q20" s="604" t="s">
         <v>336</v>
       </c>
-      <c r="R20" s="689"/>
-      <c r="S20" s="540" t="s">
+      <c r="R20" s="684"/>
+      <c r="S20" s="538" t="s">
         <v>85</v>
       </c>
-      <c r="T20" s="513">
+      <c r="T20" s="511">
         <v>3</v>
       </c>
-      <c r="U20" s="508"/>
-      <c r="V20" s="497">
+      <c r="U20" s="506"/>
+      <c r="V20" s="495">
         <v>2</v>
       </c>
-      <c r="W20" s="498">
+      <c r="W20" s="496">
         <v>-3</v>
       </c>
-      <c r="X20" s="509"/>
+      <c r="X20" s="507"/>
       <c r="Y20" s="185">
         <f t="shared" si="2"/>
         <v>1</v>
@@ -12319,15 +12351,17 @@
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="AI20" s="378"/>
-      <c r="AJ20" s="514"/>
-      <c r="AK20" s="569">
+      <c r="AI20" s="377"/>
+      <c r="AJ20" s="512">
+        <v>1</v>
+      </c>
+      <c r="AK20" s="565">
         <v>1</v>
       </c>
       <c r="AL20" s="319">
         <v>1</v>
       </c>
-      <c r="AM20" s="339">
+      <c r="AM20" s="338">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
@@ -12342,10 +12376,10 @@
       <c r="AP20" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="AQ20" s="572" t="s">
+      <c r="AQ20" s="568" t="s">
         <v>448</v>
       </c>
-      <c r="AR20" s="598" t="s">
+      <c r="AR20" s="593" t="s">
         <v>499</v>
       </c>
     </row>
@@ -12363,11 +12397,11 @@
       <c r="I21" s="80" t="s">
         <v>257</v>
       </c>
-      <c r="J21" s="581" t="s">
+      <c r="J21" s="577" t="s">
         <v>304</v>
       </c>
-      <c r="K21" s="585"/>
-      <c r="L21" s="593">
+      <c r="K21" s="581"/>
+      <c r="L21" s="589">
         <v>1</v>
       </c>
       <c r="M21" s="332"/>
@@ -12382,22 +12416,22 @@
       <c r="R21" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="S21" s="540" t="s">
+      <c r="S21" s="538" t="s">
         <v>246</v>
       </c>
-      <c r="T21" s="513">
+      <c r="T21" s="511">
         <v>2</v>
       </c>
-      <c r="U21" s="508">
-        <v>1</v>
-      </c>
-      <c r="V21" s="497">
-        <v>0</v>
-      </c>
-      <c r="W21" s="498">
+      <c r="U21" s="506">
+        <v>1</v>
+      </c>
+      <c r="V21" s="495">
+        <v>0</v>
+      </c>
+      <c r="W21" s="496">
         <v>-1</v>
       </c>
-      <c r="X21" s="499"/>
+      <c r="X21" s="497"/>
       <c r="Y21" s="185">
         <f t="shared" si="2"/>
         <v>1</v>
@@ -12427,15 +12461,15 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AI21" s="378">
-        <v>0</v>
-      </c>
-      <c r="AJ21" s="514">
-        <v>1</v>
-      </c>
-      <c r="AK21" s="569"/>
+      <c r="AI21" s="377">
+        <v>0</v>
+      </c>
+      <c r="AJ21" s="512">
+        <v>1</v>
+      </c>
+      <c r="AK21" s="565"/>
       <c r="AL21" s="319"/>
-      <c r="AM21" s="339">
+      <c r="AM21" s="338">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
@@ -12450,17 +12484,17 @@
       <c r="AP21" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="AQ21" s="572" t="s">
+      <c r="AQ21" s="568" t="s">
         <v>448</v>
       </c>
-      <c r="AR21" s="513"/>
+      <c r="AR21" s="511"/>
     </row>
     <row r="22" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J22" s="581" t="s">
+      <c r="J22" s="577" t="s">
         <v>301</v>
       </c>
-      <c r="K22" s="585"/>
-      <c r="L22" s="593"/>
+      <c r="K22" s="581"/>
+      <c r="L22" s="589"/>
       <c r="M22" s="333"/>
       <c r="N22" s="107">
         <v>0</v>
@@ -12472,21 +12506,21 @@
       <c r="Q22" s="21" t="s">
         <v>336</v>
       </c>
-      <c r="S22" s="540" t="s">
+      <c r="S22" s="538" t="s">
         <v>261</v>
       </c>
-      <c r="T22" s="513">
+      <c r="T22" s="511">
         <v>2</v>
       </c>
-      <c r="U22" s="508"/>
-      <c r="V22" s="497">
+      <c r="U22" s="506"/>
+      <c r="V22" s="495">
         <v>2</v>
       </c>
-      <c r="W22" s="498">
+      <c r="W22" s="496">
         <v>-2</v>
       </c>
-      <c r="X22" s="509"/>
-      <c r="Y22" s="495">
+      <c r="X22" s="507"/>
+      <c r="Y22" s="493">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -12517,11 +12551,11 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AI22" s="378"/>
-      <c r="AJ22" s="570"/>
-      <c r="AK22" s="569"/>
+      <c r="AI22" s="377"/>
+      <c r="AJ22" s="566"/>
+      <c r="AK22" s="565"/>
       <c r="AL22" s="319"/>
-      <c r="AM22" s="339">
+      <c r="AM22" s="338">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
@@ -12534,24 +12568,24 @@
         <v>0</v>
       </c>
       <c r="AP22" s="16"/>
-      <c r="AQ22" s="577"/>
-      <c r="AR22" s="513"/>
+      <c r="AQ22" s="573"/>
+      <c r="AR22" s="511"/>
     </row>
     <row r="23" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B23" s="24"/>
-      <c r="E23" s="639" t="s">
+      <c r="E23" s="634" t="s">
         <v>290</v>
       </c>
       <c r="F23" s="182"/>
       <c r="H23" s="42"/>
       <c r="I23" s="218"/>
-      <c r="J23" s="581" t="s">
+      <c r="J23" s="577" t="s">
         <v>259</v>
       </c>
-      <c r="K23" s="585">
-        <v>1</v>
-      </c>
-      <c r="L23" s="593"/>
+      <c r="K23" s="581">
+        <v>1</v>
+      </c>
+      <c r="L23" s="589"/>
       <c r="M23" s="328">
         <v>0</v>
       </c>
@@ -12560,23 +12594,23 @@
       </c>
       <c r="O23" s="295">
         <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="Q23" s="20"/>
+      <c r="S23" s="538" t="s">
+        <v>248</v>
+      </c>
+      <c r="T23" s="511">
         <v>2</v>
       </c>
-      <c r="Q23" s="20"/>
-      <c r="S23" s="540" t="s">
-        <v>248</v>
-      </c>
-      <c r="T23" s="513">
-        <v>2</v>
-      </c>
-      <c r="U23" s="508"/>
-      <c r="V23" s="497">
-        <v>0</v>
-      </c>
-      <c r="W23" s="498">
+      <c r="U23" s="506"/>
+      <c r="V23" s="495">
+        <v>0</v>
+      </c>
+      <c r="W23" s="496">
         <v>-1</v>
       </c>
-      <c r="X23" s="535">
+      <c r="X23" s="533">
         <v>1</v>
       </c>
       <c r="Y23" s="185">
@@ -12586,55 +12620,55 @@
       <c r="Z23" s="298"/>
       <c r="AA23" s="117">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AB23" s="292">
         <f t="shared" si="8"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AC23" s="292">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD23" s="292">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AE23" s="296">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF23" s="302"/>
       <c r="AG23" s="298"/>
       <c r="AH23" s="298">
         <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-      <c r="AI23" s="378">
-        <v>0</v>
-      </c>
-      <c r="AJ23" s="514">
-        <v>1</v>
-      </c>
-      <c r="AK23" s="569"/>
+        <v>1</v>
+      </c>
+      <c r="AI23" s="377">
+        <v>0</v>
+      </c>
+      <c r="AJ23" s="512">
+        <v>1</v>
+      </c>
+      <c r="AK23" s="565"/>
       <c r="AL23" s="319"/>
-      <c r="AM23" s="339">
+      <c r="AM23" s="338">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AN23" s="310">
         <f t="shared" si="7"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO23" s="311">
         <f t="shared" si="9"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AP23" s="6" t="s">
         <v>569</v>
       </c>
-      <c r="AQ23" s="572" t="s">
+      <c r="AQ23" s="568" t="s">
         <v>566</v>
       </c>
-      <c r="AR23" s="513" t="s">
+      <c r="AR23" s="511" t="s">
         <v>567</v>
       </c>
     </row>
@@ -12642,18 +12676,18 @@
       <c r="C24" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="E24" s="640"/>
+      <c r="E24" s="635"/>
       <c r="F24" s="174"/>
       <c r="H24" s="42"/>
-      <c r="J24" s="581" t="s">
+      <c r="J24" s="577" t="s">
         <v>297</v>
       </c>
-      <c r="K24" s="585">
+      <c r="K24" s="581">
         <v>2</v>
       </c>
-      <c r="L24" s="593"/>
+      <c r="L24" s="589"/>
       <c r="M24" s="328">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N24" s="107">
         <v>0</v>
@@ -12662,29 +12696,29 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="Q24" s="609" t="s">
+      <c r="Q24" s="604" t="s">
         <v>336</v>
       </c>
-      <c r="R24" s="689"/>
-      <c r="S24" s="540" t="s">
+      <c r="R24" s="684"/>
+      <c r="S24" s="538" t="s">
         <v>250</v>
       </c>
-      <c r="T24" s="513">
+      <c r="T24" s="511">
         <v>4</v>
       </c>
-      <c r="U24" s="508">
-        <v>1</v>
-      </c>
-      <c r="V24" s="497">
+      <c r="U24" s="506">
         <v>2</v>
       </c>
-      <c r="W24" s="532">
+      <c r="V24" s="495">
+        <v>2</v>
+      </c>
+      <c r="W24" s="530">
         <v>-2</v>
       </c>
       <c r="X24" s="26"/>
-      <c r="Y24" s="554">
+      <c r="Y24" s="552">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="298"/>
       <c r="AA24" s="117">
@@ -12693,7 +12727,7 @@
       </c>
       <c r="AB24" s="292">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC24" s="292">
         <v>0</v>
@@ -12715,13 +12749,11 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AI24" s="378"/>
-      <c r="AJ24" s="514">
-        <v>1</v>
-      </c>
-      <c r="AK24" s="569"/>
+      <c r="AI24" s="377"/>
+      <c r="AJ24" s="512"/>
+      <c r="AK24" s="565"/>
       <c r="AL24" s="319"/>
-      <c r="AM24" s="339">
+      <c r="AM24" s="338">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
@@ -12736,10 +12768,10 @@
       <c r="AP24" s="6" t="s">
         <v>510</v>
       </c>
-      <c r="AQ24" s="578" t="s">
+      <c r="AQ24" s="574" t="s">
         <v>336</v>
       </c>
-      <c r="AR24" s="513" t="s">
+      <c r="AR24" s="511" t="s">
         <v>250</v>
       </c>
     </row>
@@ -12748,92 +12780,98 @@
       <c r="I25" s="2" t="s">
         <v>588</v>
       </c>
-      <c r="J25" s="581" t="s">
+      <c r="J25" s="577" t="s">
         <v>296</v>
       </c>
-      <c r="K25" s="585"/>
-      <c r="L25" s="593"/>
-      <c r="M25" s="334"/>
+      <c r="K25" s="581"/>
+      <c r="L25" s="589">
+        <v>1</v>
+      </c>
+      <c r="M25" s="529">
+        <v>0</v>
+      </c>
       <c r="N25" s="107">
         <v>0</v>
       </c>
       <c r="O25" s="295">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q25" s="86" t="s">
         <v>336</v>
       </c>
-      <c r="S25" s="540" t="s">
+      <c r="S25" s="538" t="s">
         <v>251</v>
       </c>
-      <c r="T25" s="513">
+      <c r="T25" s="511">
         <v>4</v>
       </c>
-      <c r="U25" s="508">
-        <v>1</v>
-      </c>
-      <c r="V25" s="497">
+      <c r="U25" s="506">
+        <v>1</v>
+      </c>
+      <c r="V25" s="495">
         <v>2</v>
       </c>
-      <c r="W25" s="532">
+      <c r="W25" s="530">
         <v>-2</v>
       </c>
-      <c r="X25" s="557">
-        <v>1</v>
-      </c>
-      <c r="Y25" s="534">
+      <c r="X25" s="555">
+        <v>1</v>
+      </c>
+      <c r="Y25" s="532">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Z25" s="298"/>
       <c r="AA25" s="117">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB25" s="292">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC25" s="292">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD25" s="292">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AE25" s="296"/>
+      <c r="AE25" s="296">
+        <v>1</v>
+      </c>
       <c r="AF25" s="302"/>
       <c r="AG25" s="298"/>
       <c r="AH25" s="298">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AI25" s="378"/>
-      <c r="AJ25" s="514">
-        <v>1</v>
-      </c>
-      <c r="AK25" s="569"/>
+        <v>1</v>
+      </c>
+      <c r="AI25" s="377"/>
+      <c r="AJ25" s="512">
+        <v>1</v>
+      </c>
+      <c r="AK25" s="565"/>
       <c r="AL25" s="319"/>
-      <c r="AM25" s="339">
+      <c r="AM25" s="338">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN25" s="310">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO25" s="311">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP25" s="16" t="s">
         <v>453</v>
       </c>
-      <c r="AQ25" s="572" t="s">
+      <c r="AQ25" s="568" t="s">
         <v>454</v>
       </c>
-      <c r="AR25" s="513"/>
+      <c r="AR25" s="511"/>
     </row>
     <row r="26" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E26" s="31" t="s">
@@ -12843,13 +12881,13 @@
       <c r="I26" s="111" t="s">
         <v>264</v>
       </c>
-      <c r="J26" s="581" t="s">
+      <c r="J26" s="577" t="s">
         <v>302</v>
       </c>
-      <c r="K26" s="585">
-        <v>1</v>
-      </c>
-      <c r="L26" s="593"/>
+      <c r="K26" s="581">
+        <v>1</v>
+      </c>
+      <c r="L26" s="589"/>
       <c r="M26" s="328">
         <v>0</v>
       </c>
@@ -12864,25 +12902,25 @@
       <c r="R26" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="S26" s="540" t="s">
+      <c r="S26" s="538" t="s">
         <v>252</v>
       </c>
-      <c r="T26" s="513">
+      <c r="T26" s="511">
         <v>3</v>
       </c>
-      <c r="U26" s="508">
-        <v>1</v>
-      </c>
-      <c r="V26" s="497">
-        <v>0</v>
-      </c>
-      <c r="W26" s="532">
+      <c r="U26" s="506">
+        <v>1</v>
+      </c>
+      <c r="V26" s="495">
+        <v>0</v>
+      </c>
+      <c r="W26" s="530">
         <v>-1</v>
       </c>
       <c r="X26" s="26">
         <v>1</v>
       </c>
-      <c r="Y26" s="554">
+      <c r="Y26" s="552">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -12911,11 +12949,13 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AI26" s="378"/>
-      <c r="AJ26" s="514"/>
-      <c r="AK26" s="569"/>
+      <c r="AI26" s="377"/>
+      <c r="AJ26" s="512">
+        <v>1</v>
+      </c>
+      <c r="AK26" s="565"/>
       <c r="AL26" s="319"/>
-      <c r="AM26" s="339">
+      <c r="AM26" s="338">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
@@ -12927,13 +12967,13 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AP26" s="525" t="s">
+      <c r="AP26" s="523" t="s">
         <v>252</v>
       </c>
-      <c r="AQ26" s="572" t="s">
+      <c r="AQ26" s="568" t="s">
         <v>596</v>
       </c>
-      <c r="AR26" s="513"/>
+      <c r="AR26" s="511"/>
     </row>
     <row r="27" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E27" s="31" t="s">
@@ -12941,12 +12981,12 @@
       </c>
       <c r="G27" s="178"/>
       <c r="I27" s="20"/>
-      <c r="J27" s="581" t="s">
+      <c r="J27" s="577" t="s">
         <v>257</v>
       </c>
-      <c r="K27" s="585"/>
-      <c r="L27" s="593"/>
-      <c r="M27" s="335"/>
+      <c r="K27" s="581"/>
+      <c r="L27" s="589"/>
+      <c r="M27" s="334"/>
       <c r="N27" s="107">
         <v>0</v>
       </c>
@@ -12958,23 +12998,23 @@
       <c r="R27" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="S27" s="540" t="s">
+      <c r="S27" s="538" t="s">
         <v>253</v>
       </c>
-      <c r="T27" s="513">
+      <c r="T27" s="511">
         <v>4</v>
       </c>
-      <c r="U27" s="508">
+      <c r="U27" s="506">
         <v>2</v>
       </c>
-      <c r="V27" s="497">
+      <c r="V27" s="495">
         <v>2</v>
       </c>
-      <c r="W27" s="532">
+      <c r="W27" s="530">
         <v>-2</v>
       </c>
-      <c r="X27" s="539"/>
-      <c r="Y27" s="534">
+      <c r="X27" s="537"/>
+      <c r="Y27" s="532">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -12999,11 +13039,11 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AI27" s="378"/>
-      <c r="AJ27" s="514"/>
-      <c r="AK27" s="569"/>
+      <c r="AI27" s="377"/>
+      <c r="AJ27" s="512"/>
+      <c r="AK27" s="565"/>
       <c r="AL27" s="319"/>
-      <c r="AM27" s="339">
+      <c r="AM27" s="338">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
@@ -13016,15 +13056,15 @@
         <v>0</v>
       </c>
       <c r="AP27" s="16"/>
-      <c r="AQ27" s="577"/>
-      <c r="AR27" s="513"/>
+      <c r="AQ27" s="573"/>
+      <c r="AR27" s="511"/>
     </row>
     <row r="28" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J28" s="582" t="s">
+      <c r="J28" s="578" t="s">
         <v>310</v>
       </c>
-      <c r="K28" s="586"/>
-      <c r="L28" s="594"/>
+      <c r="K28" s="582"/>
+      <c r="L28" s="590"/>
       <c r="M28" s="333"/>
       <c r="N28" s="107">
         <v>0</v>
@@ -13034,21 +13074,21 @@
         <v>0</v>
       </c>
       <c r="Q28" s="20"/>
-      <c r="S28" s="540" t="s">
+      <c r="S28" s="538" t="s">
         <v>249</v>
       </c>
-      <c r="T28" s="513">
-        <v>1</v>
-      </c>
-      <c r="U28" s="508"/>
-      <c r="V28" s="497">
-        <v>1</v>
-      </c>
-      <c r="W28" s="532">
+      <c r="T28" s="511">
+        <v>1</v>
+      </c>
+      <c r="U28" s="506"/>
+      <c r="V28" s="495">
+        <v>1</v>
+      </c>
+      <c r="W28" s="530">
         <v>-1</v>
       </c>
-      <c r="X28" s="537"/>
-      <c r="Y28" s="534">
+      <c r="X28" s="535"/>
+      <c r="Y28" s="532">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -13073,11 +13113,11 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AI28" s="378"/>
-      <c r="AJ28" s="514"/>
-      <c r="AK28" s="569"/>
+      <c r="AI28" s="377"/>
+      <c r="AJ28" s="512"/>
+      <c r="AK28" s="565"/>
       <c r="AL28" s="319"/>
-      <c r="AM28" s="339">
+      <c r="AM28" s="338">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
@@ -13089,19 +13129,19 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AQ28" s="577"/>
-      <c r="AR28" s="513"/>
+      <c r="AQ28" s="573"/>
+      <c r="AR28" s="511"/>
     </row>
     <row r="29" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E29" s="260" t="s">
         <v>293</v>
       </c>
       <c r="G29" s="6"/>
-      <c r="J29" s="582" t="s">
+      <c r="J29" s="578" t="s">
         <v>359</v>
       </c>
-      <c r="K29" s="588"/>
-      <c r="L29" s="594"/>
+      <c r="K29" s="584"/>
+      <c r="L29" s="590"/>
       <c r="M29" s="326"/>
       <c r="N29" s="64">
         <v>0</v>
@@ -13114,21 +13154,21 @@
       <c r="R29" s="2" t="s">
         <v>337</v>
       </c>
-      <c r="S29" s="542" t="s">
+      <c r="S29" s="540" t="s">
         <v>262</v>
       </c>
-      <c r="T29" s="546">
+      <c r="T29" s="544">
         <v>2</v>
       </c>
-      <c r="U29" s="496"/>
-      <c r="V29" s="503">
+      <c r="U29" s="494"/>
+      <c r="V29" s="501">
         <v>2</v>
       </c>
-      <c r="W29" s="533">
+      <c r="W29" s="531">
         <v>-2</v>
       </c>
-      <c r="X29" s="538"/>
-      <c r="Y29" s="534">
+      <c r="X29" s="536"/>
+      <c r="Y29" s="532">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -13157,11 +13197,11 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AI29" s="380"/>
-      <c r="AJ29" s="511"/>
+      <c r="AI29" s="379"/>
+      <c r="AJ29" s="509"/>
       <c r="AK29" s="163"/>
       <c r="AL29" s="322"/>
-      <c r="AM29" s="339">
+      <c r="AM29" s="338">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
@@ -13173,15 +13213,15 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AQ29" s="577"/>
-      <c r="AR29" s="513"/>
+      <c r="AQ29" s="573"/>
+      <c r="AR29" s="511"/>
     </row>
     <row r="30" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G30" s="270"/>
-      <c r="J30" s="583"/>
-      <c r="K30" s="589"/>
-      <c r="L30" s="595"/>
-      <c r="M30" s="336"/>
+      <c r="J30" s="579"/>
+      <c r="K30" s="585"/>
+      <c r="L30" s="589"/>
+      <c r="M30" s="335"/>
       <c r="N30" s="247"/>
       <c r="O30" s="295">
         <f t="shared" si="10"/>
@@ -13189,11 +13229,11 @@
       </c>
       <c r="Q30" s="20"/>
       <c r="S30" s="153"/>
-      <c r="T30" s="547"/>
+      <c r="T30" s="545"/>
       <c r="U30" s="188"/>
       <c r="V30" s="158"/>
       <c r="W30" s="154"/>
-      <c r="X30" s="536"/>
+      <c r="X30" s="534"/>
       <c r="Y30" s="185">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -13212,18 +13252,18 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AE30" s="353"/>
-      <c r="AF30" s="355"/>
-      <c r="AG30" s="356"/>
+      <c r="AE30" s="352"/>
+      <c r="AF30" s="354"/>
+      <c r="AG30" s="355"/>
       <c r="AH30" s="317">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AI30" s="564"/>
+      <c r="AI30" s="562"/>
       <c r="AJ30" s="188"/>
       <c r="AK30" s="188"/>
       <c r="AL30" s="321"/>
-      <c r="AM30" s="579">
+      <c r="AM30" s="575">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
@@ -13235,14 +13275,14 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AQ30" s="577"/>
-      <c r="AR30" s="513"/>
+      <c r="AQ30" s="573"/>
+      <c r="AR30" s="511"/>
     </row>
     <row r="31" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="80"/>
       <c r="B31" s="112"/>
       <c r="C31" s="21" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>361</v>
@@ -13250,13 +13290,13 @@
       <c r="F31" s="100">
         <v>-1</v>
       </c>
-      <c r="H31" s="517">
+      <c r="H31" s="515">
         <v>-1</v>
       </c>
-      <c r="J31" s="581"/>
-      <c r="K31" s="513"/>
-      <c r="L31" s="593"/>
-      <c r="M31" s="337"/>
+      <c r="J31" s="577"/>
+      <c r="K31" s="511"/>
+      <c r="L31" s="589"/>
+      <c r="M31" s="336"/>
       <c r="N31" s="248"/>
       <c r="O31" s="295">
         <f t="shared" si="10"/>
@@ -13264,7 +13304,7 @@
       </c>
       <c r="Q31" s="20"/>
       <c r="S31" s="17"/>
-      <c r="T31" s="548"/>
+      <c r="T31" s="546"/>
       <c r="U31" s="155"/>
       <c r="V31" s="156"/>
       <c r="W31" s="15"/>
@@ -13287,18 +13327,18 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AE31" s="353"/>
-      <c r="AF31" s="357"/>
-      <c r="AG31" s="358"/>
+      <c r="AE31" s="352"/>
+      <c r="AF31" s="356"/>
+      <c r="AG31" s="357"/>
       <c r="AH31" s="318">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AI31" s="378"/>
+      <c r="AI31" s="377"/>
       <c r="AJ31" s="155"/>
       <c r="AK31" s="155"/>
       <c r="AL31" s="319"/>
-      <c r="AM31" s="579">
+      <c r="AM31" s="575">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
@@ -13310,18 +13350,18 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AQ31" s="577"/>
-      <c r="AR31" s="513"/>
+      <c r="AQ31" s="573"/>
+      <c r="AR31" s="511"/>
     </row>
     <row r="32" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="656"/>
-      <c r="B32" s="656"/>
-      <c r="J32" s="582" t="s">
+      <c r="A32" s="651"/>
+      <c r="B32" s="651"/>
+      <c r="J32" s="578" t="s">
         <v>310</v>
       </c>
-      <c r="K32" s="590"/>
-      <c r="L32" s="593"/>
-      <c r="M32" s="515">
+      <c r="K32" s="586"/>
+      <c r="L32" s="589"/>
+      <c r="M32" s="513">
         <v>0</v>
       </c>
       <c r="N32" s="252">
@@ -13335,7 +13375,7 @@
       <c r="S32" s="17" t="s">
         <v>346</v>
       </c>
-      <c r="T32" s="548"/>
+      <c r="T32" s="546"/>
       <c r="U32" s="155">
         <v>2</v>
       </c>
@@ -13368,16 +13408,16 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AE32" s="353">
-        <v>0</v>
-      </c>
-      <c r="AF32" s="357"/>
-      <c r="AG32" s="358"/>
+      <c r="AE32" s="352">
+        <v>0</v>
+      </c>
+      <c r="AF32" s="356"/>
+      <c r="AG32" s="357"/>
       <c r="AH32" s="318">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="AI32" s="378">
+      <c r="AI32" s="377">
         <v>0</v>
       </c>
       <c r="AJ32" s="155">
@@ -13385,7 +13425,7 @@
       </c>
       <c r="AK32" s="155"/>
       <c r="AL32" s="319"/>
-      <c r="AM32" s="579">
+      <c r="AM32" s="575">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
@@ -13400,22 +13440,22 @@
       <c r="AP32" s="6" t="s">
         <v>450</v>
       </c>
-      <c r="AQ32" s="572" t="s">
+      <c r="AQ32" s="568" t="s">
         <v>451</v>
       </c>
-      <c r="AR32" s="513" t="s">
+      <c r="AR32" s="511" t="s">
         <v>564</v>
       </c>
     </row>
     <row r="33" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="80"/>
-      <c r="G33" s="385">
+      <c r="G33" s="384">
         <v>-1</v>
       </c>
-      <c r="J33" s="583"/>
-      <c r="K33" s="590"/>
-      <c r="L33" s="595"/>
-      <c r="M33" s="337"/>
+      <c r="J33" s="579"/>
+      <c r="K33" s="586"/>
+      <c r="L33" s="589"/>
+      <c r="M33" s="336"/>
       <c r="N33" s="249"/>
       <c r="O33" s="295">
         <f t="shared" si="10"/>
@@ -13423,7 +13463,7 @@
       </c>
       <c r="Q33" s="20"/>
       <c r="S33" s="186"/>
-      <c r="T33" s="549"/>
+      <c r="T33" s="547"/>
       <c r="U33" s="187"/>
       <c r="V33" s="160"/>
       <c r="W33" s="165"/>
@@ -13446,18 +13486,18 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AE33" s="353"/>
-      <c r="AF33" s="357"/>
-      <c r="AG33" s="358"/>
+      <c r="AE33" s="352"/>
+      <c r="AF33" s="356"/>
+      <c r="AG33" s="357"/>
       <c r="AH33" s="318">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AI33" s="378"/>
+      <c r="AI33" s="377"/>
       <c r="AJ33" s="155"/>
       <c r="AK33" s="155"/>
       <c r="AL33" s="319"/>
-      <c r="AM33" s="579">
+      <c r="AM33" s="575">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
@@ -13470,8 +13510,8 @@
         <v>0</v>
       </c>
       <c r="AP33" s="6"/>
-      <c r="AQ33" s="577"/>
-      <c r="AR33" s="513"/>
+      <c r="AQ33" s="573"/>
+      <c r="AR33" s="511"/>
     </row>
     <row r="34" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C34" s="2" t="s">
@@ -13480,14 +13520,14 @@
       <c r="E34" s="19" t="s">
         <v>300</v>
       </c>
-      <c r="J34" s="581" t="s">
+      <c r="J34" s="577" t="s">
         <v>301</v>
       </c>
-      <c r="K34" s="513"/>
-      <c r="L34" s="593">
-        <v>2</v>
-      </c>
-      <c r="M34" s="337"/>
+      <c r="K34" s="511"/>
+      <c r="L34" s="589">
+        <v>1</v>
+      </c>
+      <c r="M34" s="336"/>
       <c r="N34" s="250">
         <v>1</v>
       </c>
@@ -13501,7 +13541,7 @@
       <c r="S34" s="189" t="s">
         <v>299</v>
       </c>
-      <c r="T34" s="550"/>
+      <c r="T34" s="548"/>
       <c r="U34" s="190">
         <v>2</v>
       </c>
@@ -13532,24 +13572,26 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AE34" s="353">
-        <v>0</v>
-      </c>
-      <c r="AF34" s="357"/>
-      <c r="AG34" s="358"/>
+      <c r="AE34" s="352">
+        <v>0</v>
+      </c>
+      <c r="AF34" s="356"/>
+      <c r="AG34" s="357"/>
       <c r="AH34" s="318">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AI34" s="378"/>
+      <c r="AI34" s="377"/>
       <c r="AJ34" s="155">
         <v>1</v>
       </c>
-      <c r="AK34" s="155"/>
+      <c r="AK34" s="155">
+        <v>1</v>
+      </c>
       <c r="AL34" s="319">
         <v>1</v>
       </c>
-      <c r="AM34" s="579">
+      <c r="AM34" s="575">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
@@ -13564,21 +13606,23 @@
       <c r="AP34" s="6" t="s">
         <v>587</v>
       </c>
-      <c r="AQ34" s="572" t="s">
+      <c r="AQ34" s="568" t="s">
         <v>566</v>
       </c>
-      <c r="AR34" s="513" t="s">
+      <c r="AR34" s="511" t="s">
         <v>500</v>
       </c>
     </row>
     <row r="35" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E35" s="23"/>
-      <c r="J35" s="581" t="s">
+      <c r="J35" s="577" t="s">
         <v>296</v>
       </c>
-      <c r="K35" s="513"/>
-      <c r="L35" s="593"/>
-      <c r="M35" s="337"/>
+      <c r="K35" s="511"/>
+      <c r="L35" s="589">
+        <v>1</v>
+      </c>
+      <c r="M35" s="336"/>
       <c r="N35" s="252">
         <v>0</v>
       </c>
@@ -13590,12 +13634,12 @@
       <c r="S35" s="153" t="s">
         <v>309</v>
       </c>
-      <c r="T35" s="551"/>
+      <c r="T35" s="549"/>
       <c r="U35" s="162">
         <v>1</v>
       </c>
       <c r="V35" s="158">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W35" s="154">
         <v>-1</v>
@@ -13621,22 +13665,22 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AE35" s="353">
-        <v>0</v>
-      </c>
-      <c r="AF35" s="357"/>
-      <c r="AG35" s="358"/>
+      <c r="AE35" s="352">
+        <v>0</v>
+      </c>
+      <c r="AF35" s="356"/>
+      <c r="AG35" s="357"/>
       <c r="AH35" s="318">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AI35" s="378"/>
-      <c r="AJ35" s="566">
-        <v>0</v>
-      </c>
-      <c r="AK35" s="566"/>
-      <c r="AL35" s="567"/>
-      <c r="AM35" s="579">
+      <c r="AI35" s="377"/>
+      <c r="AJ35" s="155">
+        <v>1</v>
+      </c>
+      <c r="AK35" s="155"/>
+      <c r="AL35" s="155"/>
+      <c r="AM35" s="575">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
@@ -13651,8 +13695,8 @@
       <c r="AP35" s="6" t="s">
         <v>309</v>
       </c>
-      <c r="AQ35" s="572"/>
-      <c r="AR35" s="513"/>
+      <c r="AQ35" s="568"/>
+      <c r="AR35" s="511"/>
     </row>
     <row r="36" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B36" s="24"/>
@@ -13663,29 +13707,31 @@
         <v>-1</v>
       </c>
       <c r="I36" s="112"/>
-      <c r="J36" s="581" t="s">
+      <c r="J36" s="577" t="s">
         <v>296</v>
       </c>
-      <c r="K36" s="513"/>
-      <c r="L36" s="593"/>
-      <c r="M36" s="337"/>
+      <c r="K36" s="511"/>
+      <c r="L36" s="589">
+        <v>1</v>
+      </c>
+      <c r="M36" s="336"/>
       <c r="N36" s="252">
-        <v>0</v>
-      </c>
-      <c r="O36" s="524">
+        <v>1</v>
+      </c>
+      <c r="O36" s="522">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q36" s="20"/>
       <c r="S36" s="161" t="s">
         <v>308</v>
       </c>
-      <c r="T36" s="552"/>
+      <c r="T36" s="550"/>
       <c r="U36" s="163">
         <v>1</v>
       </c>
       <c r="V36" s="255">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W36" s="18">
         <v>-1</v>
@@ -13693,92 +13739,96 @@
       <c r="X36" s="64"/>
       <c r="Y36" s="185">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z36" s="65"/>
       <c r="AA36" s="117">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB36" s="64">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AC36" s="64"/>
+        <v>2</v>
+      </c>
+      <c r="AC36" s="64">
+        <v>1</v>
+      </c>
       <c r="AD36" s="303">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AE36" s="353"/>
-      <c r="AF36" s="357"/>
-      <c r="AG36" s="358"/>
+      <c r="AE36" s="352">
+        <v>1</v>
+      </c>
+      <c r="AF36" s="356"/>
+      <c r="AG36" s="357"/>
       <c r="AH36" s="318">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AI36" s="378"/>
+        <v>1</v>
+      </c>
+      <c r="AI36" s="377"/>
       <c r="AJ36" s="155"/>
       <c r="AK36" s="155"/>
       <c r="AL36" s="319"/>
       <c r="AM36" s="68">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN36" s="310">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO36" s="311">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP36" s="6" t="s">
         <v>308</v>
       </c>
-      <c r="AQ36" s="577"/>
-      <c r="AR36" s="513" t="s">
+      <c r="AQ36" s="573"/>
+      <c r="AR36" s="511" t="s">
         <v>567</v>
       </c>
     </row>
     <row r="37" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B37" s="24">
-        <v>6</v>
-      </c>
-      <c r="D37" s="385">
+        <v>5</v>
+      </c>
+      <c r="D37" s="384">
         <v>1</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>599</v>
       </c>
-      <c r="H37" s="517">
+      <c r="H37" s="515">
         <v>-1</v>
       </c>
       <c r="I37" s="2"/>
       <c r="J37" s="2" t="s">
-        <v>616</v>
-      </c>
-      <c r="K37" s="559"/>
-      <c r="L37" s="596">
-        <v>1</v>
-      </c>
-      <c r="M37" s="338"/>
+        <v>615</v>
+      </c>
+      <c r="K37" s="557"/>
+      <c r="L37" s="591">
+        <v>0</v>
+      </c>
+      <c r="M37" s="337"/>
       <c r="N37" s="251">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O37" s="177">
         <f t="shared" si="10"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q37" s="20"/>
       <c r="S37" s="253" t="s">
         <v>469</v>
       </c>
-      <c r="T37" s="553"/>
+      <c r="T37" s="551"/>
       <c r="U37" s="254">
         <v>1</v>
       </c>
       <c r="V37" s="194">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W37" s="222">
         <v>-1</v>
@@ -13786,60 +13836,60 @@
       <c r="X37" s="194"/>
       <c r="Y37" s="24">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z37" s="65"/>
       <c r="AA37" s="117">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB37" s="64">
         <f t="shared" si="8"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AC37" s="64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD37" s="303">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AE37" s="353">
-        <v>1</v>
-      </c>
-      <c r="AF37" s="359"/>
-      <c r="AG37" s="360"/>
-      <c r="AH37" s="354">
+      <c r="AE37" s="352">
+        <v>0</v>
+      </c>
+      <c r="AF37" s="358"/>
+      <c r="AG37" s="359"/>
+      <c r="AH37" s="353">
         <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="AI37" s="565">
-        <v>0</v>
-      </c>
-      <c r="AJ37" s="568">
-        <v>1</v>
-      </c>
-      <c r="AK37" s="568"/>
+        <v>0</v>
+      </c>
+      <c r="AI37" s="563">
+        <v>0</v>
+      </c>
+      <c r="AJ37" s="564">
+        <v>0</v>
+      </c>
+      <c r="AK37" s="564"/>
       <c r="AL37" s="322"/>
       <c r="AM37" s="68">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN37" s="310">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO37" s="311">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP37" s="6" t="s">
         <v>469</v>
       </c>
-      <c r="AQ37" s="576" t="s">
+      <c r="AQ37" s="572" t="s">
         <v>565</v>
       </c>
-      <c r="AR37" s="546" t="s">
+      <c r="AR37" s="544" t="s">
         <v>564</v>
       </c>
     </row>
@@ -13928,10 +13978,10 @@
         <f ca="1">TODAY()</f>
         <v>45284</v>
       </c>
-      <c r="V1" s="609" t="s">
+      <c r="V1" s="604" t="s">
         <v>70</v>
       </c>
-      <c r="W1" s="689"/>
+      <c r="W1" s="684"/>
       <c r="X1" s="62" t="s">
         <v>101</v>
       </c>
@@ -13950,7 +14000,7 @@
       <c r="AC1" s="116" t="s">
         <v>190</v>
       </c>
-      <c r="AD1" s="765" t="s">
+      <c r="AD1" s="760" t="s">
         <v>212</v>
       </c>
       <c r="AE1" s="116" t="s">
@@ -13967,10 +14017,10 @@
       <c r="E2" s="39" t="s">
         <v>73</v>
       </c>
-      <c r="F2" s="796" t="s">
+      <c r="F2" s="791" t="s">
         <v>74</v>
       </c>
-      <c r="G2" s="753" t="s">
+      <c r="G2" s="748" t="s">
         <v>44</v>
       </c>
       <c r="H2" s="40" t="s">
@@ -13998,10 +14048,10 @@
       <c r="U2" s="60" t="s">
         <v>105</v>
       </c>
-      <c r="V2" s="732" t="s">
+      <c r="V2" s="727" t="s">
         <v>120</v>
       </c>
-      <c r="W2" s="733"/>
+      <c r="W2" s="728"/>
       <c r="X2" s="64" t="s">
         <v>109</v>
       </c>
@@ -14020,7 +14070,7 @@
       <c r="AC2" s="117" t="s">
         <v>98</v>
       </c>
-      <c r="AD2" s="766"/>
+      <c r="AD2" s="761"/>
       <c r="AE2" s="64" t="s">
         <v>98</v>
       </c>
@@ -14039,8 +14089,8 @@
       <c r="E3" s="39" t="s">
         <v>79</v>
       </c>
-      <c r="F3" s="636"/>
-      <c r="G3" s="754"/>
+      <c r="F3" s="631"/>
+      <c r="G3" s="749"/>
       <c r="H3" s="40" t="s">
         <v>80</v>
       </c>
@@ -14051,13 +14101,13 @@
         <v>81</v>
       </c>
       <c r="N3" s="44"/>
-      <c r="O3" s="763" t="s">
+      <c r="O3" s="758" t="s">
         <v>44</v>
       </c>
-      <c r="P3" s="784" t="s">
+      <c r="P3" s="779" t="s">
         <v>218</v>
       </c>
-      <c r="Q3" s="785"/>
+      <c r="Q3" s="780"/>
       <c r="S3" s="57" t="s">
         <v>219</v>
       </c>
@@ -14067,15 +14117,15 @@
       <c r="W3" s="59" t="s">
         <v>104</v>
       </c>
-      <c r="AD3" s="766"/>
+      <c r="AD3" s="761"/>
     </row>
     <row r="4" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G4" s="754"/>
+      <c r="G4" s="749"/>
       <c r="H4" s="6"/>
-      <c r="L4" s="693" t="s">
+      <c r="L4" s="688" t="s">
         <v>82</v>
       </c>
-      <c r="O4" s="764"/>
+      <c r="O4" s="759"/>
       <c r="T4" s="55" t="s">
         <v>97</v>
       </c>
@@ -14085,12 +14135,12 @@
       <c r="X4" s="67" t="s">
         <v>222</v>
       </c>
-      <c r="Y4" s="609" t="s">
+      <c r="Y4" s="604" t="s">
         <v>194</v>
       </c>
-      <c r="Z4" s="611"/>
-      <c r="AA4" s="689"/>
-      <c r="AD4" s="766"/>
+      <c r="Z4" s="606"/>
+      <c r="AA4" s="684"/>
+      <c r="AD4" s="761"/>
     </row>
     <row r="5" spans="1:31" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C5" s="52" t="s">
@@ -14105,21 +14155,21 @@
       <c r="F5" s="66" t="s">
         <v>84</v>
       </c>
-      <c r="G5" s="754"/>
+      <c r="G5" s="749"/>
       <c r="H5" s="46" t="s">
         <v>75</v>
       </c>
-      <c r="K5" s="771" t="s">
+      <c r="K5" s="766" t="s">
         <v>216</v>
       </c>
-      <c r="L5" s="786"/>
+      <c r="L5" s="781"/>
       <c r="M5" s="2" t="s">
         <v>214</v>
       </c>
       <c r="N5" s="61" t="s">
         <v>213</v>
       </c>
-      <c r="O5" s="764"/>
+      <c r="O5" s="759"/>
       <c r="P5" s="108" t="s">
         <v>215</v>
       </c>
@@ -14135,11 +14185,11 @@
       <c r="U5" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="Y5" s="774" t="s">
+      <c r="Y5" s="769" t="s">
         <v>283</v>
       </c>
-      <c r="Z5" s="775"/>
-      <c r="AD5" s="766"/>
+      <c r="Z5" s="770"/>
+      <c r="AD5" s="761"/>
     </row>
     <row r="6" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C6" s="109"/>
@@ -14149,16 +14199,16 @@
       <c r="E6" s="45" t="s">
         <v>85</v>
       </c>
-      <c r="G6" s="754"/>
+      <c r="G6" s="749"/>
       <c r="H6" s="46" t="s">
         <v>80</v>
       </c>
       <c r="I6" s="23">
         <v>15</v>
       </c>
-      <c r="K6" s="772"/>
-      <c r="L6" s="786"/>
-      <c r="O6" s="764"/>
+      <c r="K6" s="767"/>
+      <c r="L6" s="781"/>
+      <c r="O6" s="759"/>
       <c r="T6" s="2" t="s">
         <v>100</v>
       </c>
@@ -14168,23 +14218,23 @@
       <c r="V6" s="21">
         <v>-1</v>
       </c>
-      <c r="AD6" s="766"/>
+      <c r="AD6" s="761"/>
     </row>
     <row r="7" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C7" s="110"/>
-      <c r="G7" s="754"/>
+      <c r="G7" s="749"/>
       <c r="H7" s="6"/>
-      <c r="K7" s="772"/>
-      <c r="L7" s="786"/>
+      <c r="K7" s="767"/>
+      <c r="L7" s="781"/>
       <c r="N7" s="21" t="s">
         <v>119</v>
       </c>
-      <c r="O7" s="764"/>
+      <c r="O7" s="759"/>
       <c r="P7" s="73"/>
       <c r="U7" s="104" t="s">
         <v>20</v>
       </c>
-      <c r="AD7" s="766"/>
+      <c r="AD7" s="761"/>
     </row>
     <row r="8" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C8" s="130"/>
@@ -14197,7 +14247,7 @@
       <c r="F8" s="66" t="s">
         <v>86</v>
       </c>
-      <c r="G8" s="754"/>
+      <c r="G8" s="749"/>
       <c r="H8" s="50" t="s">
         <v>75</v>
       </c>
@@ -14207,41 +14257,41 @@
       <c r="J8" s="111">
         <v>115</v>
       </c>
-      <c r="K8" s="772"/>
-      <c r="L8" s="786"/>
-      <c r="O8" s="764"/>
+      <c r="K8" s="767"/>
+      <c r="L8" s="781"/>
+      <c r="O8" s="759"/>
       <c r="P8" s="49"/>
-      <c r="S8" s="768" t="s">
+      <c r="S8" s="763" t="s">
         <v>211</v>
       </c>
-      <c r="T8" s="769"/>
-      <c r="U8" s="769"/>
-      <c r="V8" s="769"/>
-      <c r="W8" s="769"/>
-      <c r="X8" s="769"/>
-      <c r="Y8" s="769"/>
-      <c r="Z8" s="769"/>
-      <c r="AA8" s="769"/>
-      <c r="AB8" s="769"/>
-      <c r="AC8" s="770"/>
-      <c r="AD8" s="766"/>
+      <c r="T8" s="764"/>
+      <c r="U8" s="764"/>
+      <c r="V8" s="764"/>
+      <c r="W8" s="764"/>
+      <c r="X8" s="764"/>
+      <c r="Y8" s="764"/>
+      <c r="Z8" s="764"/>
+      <c r="AA8" s="764"/>
+      <c r="AB8" s="764"/>
+      <c r="AC8" s="765"/>
+      <c r="AD8" s="761"/>
     </row>
     <row r="9" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C9" s="790"/>
-      <c r="G9" s="754"/>
+      <c r="C9" s="785"/>
+      <c r="G9" s="749"/>
       <c r="H9" s="6"/>
-      <c r="K9" s="772"/>
-      <c r="L9" s="757" t="s">
+      <c r="K9" s="767"/>
+      <c r="L9" s="752" t="s">
         <v>217</v>
       </c>
-      <c r="M9" s="758"/>
-      <c r="N9" s="759"/>
-      <c r="O9" s="764"/>
+      <c r="M9" s="753"/>
+      <c r="N9" s="754"/>
+      <c r="O9" s="759"/>
       <c r="P9" s="75"/>
-      <c r="AD9" s="766"/>
+      <c r="AD9" s="761"/>
     </row>
     <row r="10" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C10" s="791"/>
+      <c r="C10" s="786"/>
       <c r="D10" s="23"/>
       <c r="E10" s="45" t="s">
         <v>87</v>
@@ -14249,7 +14299,7 @@
       <c r="F10" s="66" t="s">
         <v>88</v>
       </c>
-      <c r="G10" s="754"/>
+      <c r="G10" s="749"/>
       <c r="H10" s="51"/>
       <c r="I10" s="21" t="s">
         <v>80</v>
@@ -14257,33 +14307,33 @@
       <c r="J10" s="3">
         <v>15</v>
       </c>
-      <c r="K10" s="772"/>
-      <c r="M10" s="793" t="s">
+      <c r="K10" s="767"/>
+      <c r="M10" s="788" t="s">
         <v>89</v>
       </c>
-      <c r="N10" s="794"/>
-      <c r="O10" s="794"/>
-      <c r="P10" s="794"/>
-      <c r="Q10" s="794"/>
-      <c r="R10" s="794"/>
-      <c r="S10" s="794"/>
-      <c r="T10" s="794"/>
-      <c r="U10" s="794"/>
-      <c r="V10" s="794"/>
-      <c r="W10" s="794"/>
-      <c r="X10" s="794"/>
-      <c r="Y10" s="794"/>
-      <c r="Z10" s="794"/>
-      <c r="AA10" s="794"/>
-      <c r="AB10" s="794"/>
-      <c r="AC10" s="795"/>
-      <c r="AD10" s="766"/>
+      <c r="N10" s="789"/>
+      <c r="O10" s="789"/>
+      <c r="P10" s="789"/>
+      <c r="Q10" s="789"/>
+      <c r="R10" s="789"/>
+      <c r="S10" s="789"/>
+      <c r="T10" s="789"/>
+      <c r="U10" s="789"/>
+      <c r="V10" s="789"/>
+      <c r="W10" s="789"/>
+      <c r="X10" s="789"/>
+      <c r="Y10" s="789"/>
+      <c r="Z10" s="789"/>
+      <c r="AA10" s="789"/>
+      <c r="AB10" s="789"/>
+      <c r="AC10" s="790"/>
+      <c r="AD10" s="761"/>
     </row>
     <row r="11" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C11" s="792"/>
-      <c r="G11" s="754"/>
+      <c r="C11" s="787"/>
+      <c r="G11" s="749"/>
       <c r="H11" s="6"/>
-      <c r="K11" s="772"/>
+      <c r="K11" s="767"/>
       <c r="R11" s="52" t="s">
         <v>44</v>
       </c>
@@ -14291,17 +14341,17 @@
       <c r="Y11" s="68" t="s">
         <v>120</v>
       </c>
-      <c r="Z11" s="782" t="s">
+      <c r="Z11" s="777" t="s">
         <v>120</v>
       </c>
-      <c r="AA11" s="783"/>
+      <c r="AA11" s="778"/>
       <c r="AB11" s="52" t="s">
         <v>44</v>
       </c>
       <c r="AC11" s="118" t="s">
         <v>120</v>
       </c>
-      <c r="AD11" s="766"/>
+      <c r="AD11" s="761"/>
     </row>
     <row r="12" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C12" s="129"/>
@@ -14314,7 +14364,7 @@
       <c r="F12" s="66" t="s">
         <v>91</v>
       </c>
-      <c r="G12" s="754"/>
+      <c r="G12" s="749"/>
       <c r="H12" s="128"/>
       <c r="I12" s="19" t="s">
         <v>80</v>
@@ -14322,8 +14372,8 @@
       <c r="J12" s="3">
         <v>15</v>
       </c>
-      <c r="K12" s="772"/>
-      <c r="L12" s="787" t="s">
+      <c r="K12" s="767"/>
+      <c r="L12" s="782" t="s">
         <v>92</v>
       </c>
       <c r="M12" s="21" t="s">
@@ -14338,7 +14388,7 @@
       <c r="Q12" s="113" t="s">
         <v>44</v>
       </c>
-      <c r="S12" s="604" t="s">
+      <c r="S12" s="599" t="s">
         <v>106</v>
       </c>
       <c r="T12" s="2" t="s">
@@ -14354,26 +14404,26 @@
         <v>115</v>
       </c>
       <c r="Y12" s="6"/>
-      <c r="AA12" s="776" t="s">
+      <c r="AA12" s="771" t="s">
         <v>125</v>
       </c>
-      <c r="AB12" s="777"/>
+      <c r="AB12" s="772"/>
       <c r="AC12" s="21" t="s">
         <v>231</v>
       </c>
-      <c r="AD12" s="766"/>
+      <c r="AD12" s="761"/>
     </row>
     <row r="13" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C13" s="790"/>
-      <c r="G13" s="754"/>
-      <c r="K13" s="772"/>
-      <c r="L13" s="788"/>
+      <c r="C13" s="785"/>
+      <c r="G13" s="749"/>
+      <c r="K13" s="767"/>
+      <c r="L13" s="783"/>
       <c r="M13" s="47"/>
-      <c r="Q13" s="756" t="s">
+      <c r="Q13" s="751" t="s">
         <v>209</v>
       </c>
-      <c r="R13" s="645"/>
-      <c r="S13" s="605"/>
+      <c r="R13" s="640"/>
+      <c r="S13" s="600"/>
       <c r="T13" s="6"/>
       <c r="U13" s="96" t="s">
         <v>131</v>
@@ -14381,17 +14431,17 @@
       <c r="X13" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="AA13" s="778"/>
-      <c r="AB13" s="779"/>
-      <c r="AD13" s="766"/>
+      <c r="AA13" s="773"/>
+      <c r="AB13" s="774"/>
+      <c r="AD13" s="761"/>
     </row>
     <row r="14" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="C14" s="792"/>
+      <c r="C14" s="787"/>
       <c r="D14" s="23"/>
-      <c r="G14" s="754"/>
+      <c r="G14" s="749"/>
       <c r="H14" s="125"/>
       <c r="I14" s="99" t="s">
         <v>44</v>
@@ -14399,8 +14449,8 @@
       <c r="J14" s="111">
         <v>115</v>
       </c>
-      <c r="K14" s="772"/>
-      <c r="L14" s="788"/>
+      <c r="K14" s="767"/>
+      <c r="L14" s="783"/>
       <c r="M14" s="21" t="s">
         <v>110</v>
       </c>
@@ -14410,7 +14460,7 @@
       <c r="R14" s="115" t="s">
         <v>44</v>
       </c>
-      <c r="S14" s="605"/>
+      <c r="S14" s="600"/>
       <c r="T14" s="77" t="s">
         <v>129</v>
       </c>
@@ -14421,9 +14471,9 @@
       <c r="Y14" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="AA14" s="778"/>
-      <c r="AB14" s="779"/>
-      <c r="AD14" s="766"/>
+      <c r="AA14" s="773"/>
+      <c r="AB14" s="774"/>
+      <c r="AD14" s="761"/>
     </row>
     <row r="15" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C15" s="130" t="s">
@@ -14438,20 +14488,20 @@
       <c r="F15" s="66" t="s">
         <v>93</v>
       </c>
-      <c r="G15" s="754"/>
+      <c r="G15" s="749"/>
       <c r="H15" s="2" t="s">
         <v>80</v>
       </c>
       <c r="I15" s="53" t="s">
         <v>80</v>
       </c>
-      <c r="K15" s="772"/>
-      <c r="L15" s="789"/>
-      <c r="Q15" s="756" t="s">
+      <c r="K15" s="767"/>
+      <c r="L15" s="784"/>
+      <c r="Q15" s="751" t="s">
         <v>210</v>
       </c>
-      <c r="R15" s="645"/>
-      <c r="S15" s="605"/>
+      <c r="R15" s="640"/>
+      <c r="S15" s="600"/>
       <c r="T15" s="6"/>
       <c r="V15" s="68" t="s">
         <v>44</v>
@@ -14459,14 +14509,14 @@
       <c r="X15" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="AA15" s="778"/>
-      <c r="AB15" s="779"/>
-      <c r="AD15" s="766"/>
+      <c r="AA15" s="773"/>
+      <c r="AB15" s="774"/>
+      <c r="AD15" s="761"/>
     </row>
     <row r="16" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C16" s="132"/>
-      <c r="G16" s="754"/>
-      <c r="K16" s="772"/>
+      <c r="G16" s="749"/>
+      <c r="K16" s="767"/>
       <c r="N16" s="47"/>
       <c r="O16" s="61" t="s">
         <v>108</v>
@@ -14474,7 +14524,7 @@
       <c r="R16" s="114" t="s">
         <v>44</v>
       </c>
-      <c r="S16" s="605"/>
+      <c r="S16" s="600"/>
       <c r="T16" s="76" t="s">
         <v>128</v>
       </c>
@@ -14485,34 +14535,34 @@
       <c r="Z16" s="76" t="s">
         <v>126</v>
       </c>
-      <c r="AA16" s="778"/>
-      <c r="AB16" s="779"/>
-      <c r="AD16" s="766"/>
+      <c r="AA16" s="773"/>
+      <c r="AB16" s="774"/>
+      <c r="AD16" s="761"/>
     </row>
     <row r="17" spans="3:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C17" s="109"/>
       <c r="E17" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="F17" s="751" t="s">
+      <c r="F17" s="746" t="s">
         <v>95</v>
       </c>
-      <c r="G17" s="754"/>
+      <c r="G17" s="749"/>
       <c r="H17" s="54"/>
       <c r="I17" s="133" t="s">
         <v>80</v>
       </c>
-      <c r="K17" s="772"/>
-      <c r="S17" s="605"/>
+      <c r="K17" s="767"/>
+      <c r="S17" s="600"/>
       <c r="V17" s="68" t="s">
         <v>44</v>
       </c>
       <c r="X17" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="AA17" s="778"/>
-      <c r="AB17" s="779"/>
-      <c r="AD17" s="766"/>
+      <c r="AA17" s="773"/>
+      <c r="AB17" s="774"/>
+      <c r="AD17" s="761"/>
     </row>
     <row r="18" spans="3:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C18" s="130"/>
@@ -14522,50 +14572,50 @@
       <c r="E18" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="F18" s="752"/>
-      <c r="G18" s="754"/>
+      <c r="F18" s="747"/>
+      <c r="G18" s="749"/>
       <c r="H18" s="108" t="s">
         <v>75</v>
       </c>
       <c r="I18" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="K18" s="772"/>
+      <c r="K18" s="767"/>
       <c r="O18" s="64" t="s">
         <v>114</v>
       </c>
-      <c r="S18" s="605"/>
+      <c r="S18" s="600"/>
       <c r="U18" s="76" t="s">
         <v>132</v>
       </c>
       <c r="X18" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="AA18" s="780"/>
-      <c r="AB18" s="781"/>
-      <c r="AD18" s="766"/>
+      <c r="AA18" s="775"/>
+      <c r="AB18" s="776"/>
+      <c r="AD18" s="761"/>
     </row>
     <row r="19" spans="3:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F19" s="64" t="s">
         <v>208</v>
       </c>
-      <c r="G19" s="755"/>
-      <c r="K19" s="773"/>
+      <c r="G19" s="750"/>
+      <c r="K19" s="768"/>
       <c r="Q19" s="68" t="s">
         <v>44</v>
       </c>
-      <c r="R19" s="760" t="s">
+      <c r="R19" s="755" t="s">
         <v>123</v>
       </c>
-      <c r="S19" s="761"/>
-      <c r="T19" s="762"/>
+      <c r="S19" s="756"/>
+      <c r="T19" s="757"/>
       <c r="V19" s="77" t="s">
         <v>114</v>
       </c>
       <c r="Y19" s="19" t="s">
         <v>124</v>
       </c>
-      <c r="AD19" s="767"/>
+      <c r="AD19" s="762"/>
     </row>
   </sheetData>
   <mergeCells count="24">

--- a/System_2.1.8.xlsx
+++ b/System_2.1.8.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Work_For_\Work\Running AppS\System_Work_RW\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BE52B92-18ED-4275-84D0-9530E56761F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0F5DBB7-A32D-4B34-ABCC-DF9419DF6658}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5060,6 +5060,159 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="49" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="49" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="49" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -5078,12 +5231,6 @@
     <xf numFmtId="0" fontId="18" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="13" fillId="27" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5138,169 +5285,61 @@
     <xf numFmtId="0" fontId="3" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="36" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="36" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="36" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="49" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="49" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="49" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="27" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5342,43 +5381,70 @@
     <xf numFmtId="0" fontId="3" fillId="36" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="36" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="36" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="36" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    <xf numFmtId="0" fontId="3" fillId="43" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="43" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="43" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="40" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="40" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="40" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="52" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="52" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="14" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="14" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="35" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5402,112 +5468,25 @@
     <xf numFmtId="0" fontId="29" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="43" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="43" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="43" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="40" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="40" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="40" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="52" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="52" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="14" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="14" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5585,25 +5564,46 @@
     <xf numFmtId="0" fontId="3" fillId="21" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -5901,7 +5901,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:X28"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B9" workbookViewId="0">
       <selection activeCell="X7" sqref="X7"/>
     </sheetView>
   </sheetViews>
@@ -6994,7 +6994,7 @@
       <c r="H1" s="97" t="s">
         <v>344</v>
       </c>
-      <c r="I1" s="660" t="s">
+      <c r="I1" s="614" t="s">
         <v>370</v>
       </c>
       <c r="J1" s="2" t="s">
@@ -7030,7 +7030,7 @@
       <c r="X1" s="433" t="s">
         <v>155</v>
       </c>
-      <c r="Y1" s="654" t="s">
+      <c r="Y1" s="658" t="s">
         <v>530</v>
       </c>
       <c r="Z1" s="409">
@@ -7055,7 +7055,7 @@
         <v>499</v>
       </c>
       <c r="AM1" s="405"/>
-      <c r="AN1" s="636"/>
+      <c r="AN1" s="641"/>
       <c r="AO1" s="340" t="s">
         <v>470</v>
       </c>
@@ -7064,23 +7064,23 @@
       </c>
     </row>
     <row r="2" spans="1:43" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="618">
+      <c r="A2" s="667">
         <f ca="1">TODAY()</f>
         <v>45284</v>
       </c>
-      <c r="B2" s="620" t="s">
+      <c r="B2" s="669" t="s">
         <v>371</v>
       </c>
-      <c r="C2" s="616" t="s">
+      <c r="C2" s="646" t="s">
         <v>358</v>
       </c>
-      <c r="D2" s="622" t="s">
+      <c r="D2" s="671" t="s">
         <v>356</v>
       </c>
-      <c r="E2" s="670" t="s">
+      <c r="E2" s="610" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="641" t="s">
+      <c r="F2" s="620" t="s">
         <v>102</v>
       </c>
       <c r="G2" s="396" t="s">
@@ -7089,31 +7089,31 @@
       <c r="H2" s="80" t="s">
         <v>33</v>
       </c>
-      <c r="I2" s="661"/>
+      <c r="I2" s="615"/>
       <c r="J2" s="81" t="s">
         <v>76</v>
       </c>
-      <c r="K2" s="672" t="s">
+      <c r="K2" s="612" t="s">
         <v>343</v>
       </c>
-      <c r="L2" s="673"/>
-      <c r="M2" s="641" t="s">
+      <c r="L2" s="613"/>
+      <c r="M2" s="620" t="s">
         <v>102</v>
       </c>
       <c r="N2" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="O2" s="645" t="s">
+      <c r="O2" s="650" t="s">
         <v>102</v>
       </c>
       <c r="P2" s="85" t="s">
         <v>147</v>
       </c>
-      <c r="Q2" s="616" t="s">
+      <c r="Q2" s="646" t="s">
         <v>143</v>
       </c>
       <c r="R2" s="599"/>
-      <c r="S2" s="658" t="s">
+      <c r="S2" s="635" t="s">
         <v>148</v>
       </c>
       <c r="T2" s="89"/>
@@ -7123,7 +7123,7 @@
       <c r="X2" s="434" t="s">
         <v>156</v>
       </c>
-      <c r="Y2" s="655"/>
+      <c r="Y2" s="659"/>
       <c r="Z2" s="410">
         <v>1</v>
       </c>
@@ -7146,15 +7146,15 @@
         <v>464</v>
       </c>
       <c r="AM2" s="431"/>
-      <c r="AN2" s="637"/>
+      <c r="AN2" s="642"/>
     </row>
     <row r="3" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="619"/>
-      <c r="B3" s="621"/>
-      <c r="C3" s="617"/>
-      <c r="D3" s="623"/>
-      <c r="E3" s="671"/>
-      <c r="F3" s="642"/>
+      <c r="A3" s="668"/>
+      <c r="B3" s="670"/>
+      <c r="C3" s="647"/>
+      <c r="D3" s="672"/>
+      <c r="E3" s="611"/>
+      <c r="F3" s="621"/>
       <c r="G3" s="397" t="s">
         <v>28</v>
       </c>
@@ -7173,17 +7173,17 @@
       <c r="L3" s="203" t="s">
         <v>107</v>
       </c>
-      <c r="M3" s="642"/>
+      <c r="M3" s="621"/>
       <c r="N3" s="69" t="s">
         <v>146</v>
       </c>
-      <c r="O3" s="646"/>
+      <c r="O3" s="651"/>
       <c r="P3" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="Q3" s="617"/>
+      <c r="Q3" s="647"/>
       <c r="R3" s="601"/>
-      <c r="S3" s="659"/>
+      <c r="S3" s="637"/>
       <c r="T3" s="89"/>
       <c r="U3" s="124"/>
       <c r="V3" s="120"/>
@@ -7191,7 +7191,7 @@
       <c r="X3" s="434" t="s">
         <v>157</v>
       </c>
-      <c r="Y3" s="655"/>
+      <c r="Y3" s="659"/>
       <c r="Z3" s="411">
         <v>1</v>
       </c>
@@ -7200,7 +7200,7 @@
       <c r="AC3" s="100" t="s">
         <v>481</v>
       </c>
-      <c r="AD3" s="657" t="s">
+      <c r="AD3" s="632" t="s">
         <v>456</v>
       </c>
       <c r="AE3" s="259"/>
@@ -7212,16 +7212,16 @@
       <c r="AK3" s="259"/>
       <c r="AL3" s="16"/>
       <c r="AM3" s="431"/>
-      <c r="AN3" s="637"/>
+      <c r="AN3" s="642"/>
     </row>
     <row r="4" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="240" t="s">
         <v>183</v>
       </c>
-      <c r="B4" s="634" t="s">
+      <c r="B4" s="683" t="s">
         <v>374</v>
       </c>
-      <c r="C4" s="616" t="s">
+      <c r="C4" s="646" t="s">
         <v>154</v>
       </c>
       <c r="D4" s="349" t="s">
@@ -7230,7 +7230,7 @@
       <c r="E4" s="380">
         <v>2</v>
       </c>
-      <c r="F4" s="642"/>
+      <c r="F4" s="621"/>
       <c r="G4" s="383" t="s">
         <v>202</v>
       </c>
@@ -7247,11 +7247,11 @@
         <v>150</v>
       </c>
       <c r="L4" s="206"/>
-      <c r="M4" s="642"/>
+      <c r="M4" s="621"/>
       <c r="N4" s="176" t="s">
         <v>69</v>
       </c>
-      <c r="O4" s="646"/>
+      <c r="O4" s="651"/>
       <c r="P4" s="2" t="s">
         <v>191</v>
       </c>
@@ -7273,12 +7273,12 @@
       <c r="X4" s="434" t="s">
         <v>158</v>
       </c>
-      <c r="Y4" s="655"/>
+      <c r="Y4" s="659"/>
       <c r="Z4" s="412"/>
       <c r="AA4" s="309"/>
       <c r="AB4" s="211"/>
       <c r="AC4" s="16"/>
-      <c r="AD4" s="657"/>
+      <c r="AD4" s="632"/>
       <c r="AE4" s="259"/>
       <c r="AF4" s="259"/>
       <c r="AG4" s="16"/>
@@ -7288,37 +7288,37 @@
       <c r="AK4" s="259"/>
       <c r="AL4" s="16"/>
       <c r="AM4" s="431"/>
-      <c r="AN4" s="637"/>
+      <c r="AN4" s="642"/>
       <c r="AO4" s="340" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="660" t="s">
+      <c r="A5" s="614" t="s">
         <v>419</v>
       </c>
-      <c r="B5" s="635"/>
-      <c r="C5" s="617"/>
+      <c r="B5" s="684"/>
+      <c r="C5" s="647"/>
       <c r="D5" s="61" t="s">
         <v>153</v>
       </c>
       <c r="E5" s="381">
         <v>1</v>
       </c>
-      <c r="F5" s="642"/>
-      <c r="G5" s="626" t="s">
+      <c r="F5" s="621"/>
+      <c r="G5" s="675" t="s">
         <v>192</v>
       </c>
-      <c r="H5" s="626"/>
-      <c r="I5" s="626"/>
-      <c r="J5" s="626"/>
-      <c r="K5" s="626"/>
-      <c r="L5" s="627"/>
-      <c r="M5" s="642"/>
+      <c r="H5" s="675"/>
+      <c r="I5" s="675"/>
+      <c r="J5" s="675"/>
+      <c r="K5" s="675"/>
+      <c r="L5" s="676"/>
+      <c r="M5" s="621"/>
       <c r="N5" s="21">
         <v>8</v>
       </c>
-      <c r="O5" s="646"/>
+      <c r="O5" s="651"/>
       <c r="T5" s="89"/>
       <c r="U5" s="124"/>
       <c r="V5" s="120"/>
@@ -7326,7 +7326,7 @@
       <c r="X5" s="434" t="s">
         <v>159</v>
       </c>
-      <c r="Y5" s="655"/>
+      <c r="Y5" s="659"/>
       <c r="Z5" s="412">
         <v>1</v>
       </c>
@@ -7349,24 +7349,24 @@
       <c r="AK5" s="259"/>
       <c r="AL5" s="80"/>
       <c r="AM5" s="431"/>
-      <c r="AN5" s="637"/>
+      <c r="AN5" s="642"/>
     </row>
     <row r="6" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="661"/>
-      <c r="B6" s="632" t="s">
+      <c r="A6" s="615"/>
+      <c r="B6" s="681" t="s">
         <v>177</v>
       </c>
-      <c r="C6" s="662"/>
-      <c r="D6" s="663"/>
-      <c r="F6" s="642"/>
-      <c r="G6" s="628"/>
-      <c r="H6" s="628"/>
-      <c r="I6" s="628"/>
-      <c r="J6" s="628"/>
-      <c r="K6" s="628"/>
-      <c r="L6" s="629"/>
-      <c r="M6" s="642"/>
-      <c r="O6" s="646"/>
+      <c r="C6" s="629"/>
+      <c r="D6" s="630"/>
+      <c r="F6" s="621"/>
+      <c r="G6" s="677"/>
+      <c r="H6" s="677"/>
+      <c r="I6" s="677"/>
+      <c r="J6" s="677"/>
+      <c r="K6" s="677"/>
+      <c r="L6" s="678"/>
+      <c r="M6" s="621"/>
+      <c r="O6" s="651"/>
       <c r="T6" s="89"/>
       <c r="U6" s="124"/>
       <c r="V6" s="98" t="s">
@@ -7376,7 +7376,7 @@
       <c r="X6" s="434" t="s">
         <v>160</v>
       </c>
-      <c r="Y6" s="655"/>
+      <c r="Y6" s="659"/>
       <c r="Z6" s="410">
         <v>1</v>
       </c>
@@ -7390,16 +7390,16 @@
       <c r="AF6" s="259"/>
       <c r="AG6" s="259"/>
       <c r="AH6" s="259"/>
-      <c r="AI6" s="651"/>
+      <c r="AI6" s="631"/>
       <c r="AJ6" s="444" t="s">
         <v>459</v>
       </c>
-      <c r="AK6" s="651" t="s">
+      <c r="AK6" s="631" t="s">
         <v>252</v>
       </c>
       <c r="AL6" s="259"/>
       <c r="AM6" s="431"/>
-      <c r="AN6" s="637"/>
+      <c r="AN6" s="642"/>
       <c r="AO6" s="340" t="s">
         <v>471</v>
       </c>
@@ -7408,7 +7408,7 @@
       <c r="A7" s="234" t="s">
         <v>574</v>
       </c>
-      <c r="B7" s="633"/>
+      <c r="B7" s="682"/>
       <c r="C7" s="204" t="s">
         <v>375</v>
       </c>
@@ -7418,7 +7418,7 @@
       <c r="E7" s="267">
         <v>3</v>
       </c>
-      <c r="F7" s="642"/>
+      <c r="F7" s="621"/>
       <c r="G7" s="398">
         <v>0</v>
       </c>
@@ -7437,8 +7437,8 @@
       <c r="L7" s="214">
         <v>0</v>
       </c>
-      <c r="M7" s="642"/>
-      <c r="O7" s="646"/>
+      <c r="M7" s="621"/>
+      <c r="O7" s="651"/>
       <c r="R7" s="99" t="s">
         <v>44</v>
       </c>
@@ -7452,7 +7452,7 @@
       <c r="X7" s="434" t="s">
         <v>161</v>
       </c>
-      <c r="Y7" s="655"/>
+      <c r="Y7" s="659"/>
       <c r="Z7" s="410">
         <v>1</v>
       </c>
@@ -7462,18 +7462,18 @@
       <c r="AD7" s="16"/>
       <c r="AE7" s="259"/>
       <c r="AF7" s="259"/>
-      <c r="AG7" s="657" t="s">
+      <c r="AG7" s="632" t="s">
         <v>455</v>
       </c>
       <c r="AH7" s="259"/>
-      <c r="AI7" s="651"/>
+      <c r="AI7" s="631"/>
       <c r="AJ7" s="259"/>
-      <c r="AK7" s="651"/>
+      <c r="AK7" s="631"/>
       <c r="AL7" s="80" t="s">
         <v>497</v>
       </c>
       <c r="AM7" s="431"/>
-      <c r="AN7" s="637"/>
+      <c r="AN7" s="642"/>
       <c r="AP7" s="76" t="s">
         <v>472</v>
       </c>
@@ -7490,27 +7490,27 @@
         <f>SUM(G7:N9)</f>
         <v>15</v>
       </c>
-      <c r="F8" s="642"/>
-      <c r="G8" s="627">
-        <v>0</v>
-      </c>
-      <c r="H8" s="624" t="s">
+      <c r="F8" s="621"/>
+      <c r="G8" s="676">
+        <v>0</v>
+      </c>
+      <c r="H8" s="673" t="s">
         <v>104</v>
       </c>
       <c r="I8" s="599">
         <v>0</v>
       </c>
-      <c r="J8" s="624" t="s">
+      <c r="J8" s="673" t="s">
         <v>104</v>
       </c>
-      <c r="K8" s="630"/>
-      <c r="L8" s="664"/>
-      <c r="M8" s="643"/>
-      <c r="N8" s="667">
+      <c r="K8" s="679"/>
+      <c r="L8" s="633"/>
+      <c r="M8" s="648"/>
+      <c r="N8" s="638">
         <f>N5+N11</f>
         <v>15</v>
       </c>
-      <c r="O8" s="646"/>
+      <c r="O8" s="651"/>
       <c r="T8" s="103" t="s">
         <v>44</v>
       </c>
@@ -7520,7 +7520,7 @@
       <c r="X8" s="434" t="s">
         <v>162</v>
       </c>
-      <c r="Y8" s="655"/>
+      <c r="Y8" s="659"/>
       <c r="Z8" s="412"/>
       <c r="AA8" s="309"/>
       <c r="AB8" s="211"/>
@@ -7528,14 +7528,14 @@
       <c r="AD8" s="16"/>
       <c r="AE8" s="259"/>
       <c r="AF8" s="259"/>
-      <c r="AG8" s="657"/>
+      <c r="AG8" s="632"/>
       <c r="AH8" s="259"/>
-      <c r="AI8" s="651"/>
+      <c r="AI8" s="631"/>
       <c r="AJ8" s="259"/>
       <c r="AK8" s="259"/>
       <c r="AL8" s="259"/>
       <c r="AM8" s="431"/>
-      <c r="AN8" s="637"/>
+      <c r="AN8" s="642"/>
     </row>
     <row r="9" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="234" t="s">
@@ -7550,17 +7550,17 @@
       <c r="D9" s="350" t="s">
         <v>282</v>
       </c>
-      <c r="F9" s="642"/>
-      <c r="G9" s="629"/>
-      <c r="H9" s="625"/>
+      <c r="F9" s="621"/>
+      <c r="G9" s="678"/>
+      <c r="H9" s="674"/>
       <c r="I9" s="601"/>
-      <c r="J9" s="625"/>
-      <c r="K9" s="631"/>
-      <c r="L9" s="665"/>
-      <c r="M9" s="644"/>
-      <c r="N9" s="668"/>
-      <c r="O9" s="647"/>
-      <c r="S9" s="658" t="s">
+      <c r="J9" s="674"/>
+      <c r="K9" s="680"/>
+      <c r="L9" s="634"/>
+      <c r="M9" s="649"/>
+      <c r="N9" s="639"/>
+      <c r="O9" s="652"/>
+      <c r="S9" s="635" t="s">
         <v>61</v>
       </c>
       <c r="T9" s="89"/>
@@ -7572,7 +7572,7 @@
       <c r="X9" s="434" t="s">
         <v>163</v>
       </c>
-      <c r="Y9" s="655"/>
+      <c r="Y9" s="659"/>
       <c r="Z9" s="413"/>
       <c r="AA9" s="309"/>
       <c r="AB9" s="211"/>
@@ -7582,16 +7582,16 @@
       </c>
       <c r="AE9" s="259"/>
       <c r="AF9" s="259"/>
-      <c r="AG9" s="657"/>
+      <c r="AG9" s="632"/>
       <c r="AH9" s="259"/>
-      <c r="AI9" s="651"/>
+      <c r="AI9" s="631"/>
       <c r="AJ9" s="80"/>
-      <c r="AK9" s="651" t="s">
+      <c r="AK9" s="631" t="s">
         <v>252</v>
       </c>
       <c r="AL9" s="259"/>
       <c r="AM9" s="431"/>
-      <c r="AN9" s="637"/>
+      <c r="AN9" s="642"/>
       <c r="AP9" s="2" t="s">
         <v>509</v>
       </c>
@@ -7608,20 +7608,20 @@
         <f>Boat!W8</f>
         <v>36</v>
       </c>
-      <c r="F10" s="642"/>
+      <c r="F10" s="621"/>
       <c r="N10" s="421" t="s">
         <v>397</v>
       </c>
-      <c r="O10" s="679" t="s">
+      <c r="O10" s="623" t="s">
         <v>102</v>
       </c>
-      <c r="P10" s="648" t="s">
+      <c r="P10" s="653" t="s">
         <v>401</v>
       </c>
       <c r="R10" s="74" t="s">
         <v>44</v>
       </c>
-      <c r="S10" s="666"/>
+      <c r="S10" s="636"/>
       <c r="T10" s="89"/>
       <c r="U10" s="123" t="s">
         <v>176</v>
@@ -7633,7 +7633,7 @@
       <c r="X10" s="434" t="s">
         <v>164</v>
       </c>
-      <c r="Y10" s="655"/>
+      <c r="Y10" s="659"/>
       <c r="Z10" s="412">
         <v>0</v>
       </c>
@@ -7651,16 +7651,16 @@
       <c r="AF10" s="240" t="s">
         <v>312</v>
       </c>
-      <c r="AG10" s="657"/>
+      <c r="AG10" s="632"/>
       <c r="AH10" s="80"/>
-      <c r="AI10" s="651"/>
+      <c r="AI10" s="631"/>
       <c r="AJ10" s="259"/>
-      <c r="AK10" s="651"/>
+      <c r="AK10" s="631"/>
       <c r="AL10" s="259"/>
       <c r="AM10" s="445" t="s">
         <v>319</v>
       </c>
-      <c r="AN10" s="637"/>
+      <c r="AN10" s="642"/>
       <c r="AO10" s="206" t="s">
         <v>94</v>
       </c>
@@ -7678,18 +7678,18 @@
       <c r="D11" s="172" t="s">
         <v>356</v>
       </c>
-      <c r="F11" s="642"/>
+      <c r="F11" s="621"/>
       <c r="M11" s="6"/>
       <c r="N11" s="117">
         <v>7</v>
       </c>
-      <c r="O11" s="680"/>
-      <c r="P11" s="649"/>
+      <c r="O11" s="624"/>
+      <c r="P11" s="654"/>
       <c r="Q11" s="65"/>
       <c r="R11" s="120" t="s">
         <v>221</v>
       </c>
-      <c r="S11" s="666"/>
+      <c r="S11" s="636"/>
       <c r="T11" s="102" t="s">
         <v>44</v>
       </c>
@@ -7699,7 +7699,7 @@
       <c r="X11" s="434" t="s">
         <v>165</v>
       </c>
-      <c r="Y11" s="655"/>
+      <c r="Y11" s="659"/>
       <c r="Z11" s="412"/>
       <c r="AA11" s="309">
         <v>1</v>
@@ -7713,14 +7713,14 @@
       <c r="AF11" s="259" t="s">
         <v>477</v>
       </c>
-      <c r="AG11" s="657"/>
+      <c r="AG11" s="632"/>
       <c r="AH11" s="259"/>
       <c r="AI11" s="70"/>
       <c r="AJ11" s="259"/>
       <c r="AK11" s="259"/>
       <c r="AL11" s="259"/>
       <c r="AM11" s="431"/>
-      <c r="AN11" s="637"/>
+      <c r="AN11" s="642"/>
       <c r="AP11" s="76" t="s">
         <v>485</v>
       </c>
@@ -7739,7 +7739,7 @@
       <c r="E12" s="226">
         <v>3</v>
       </c>
-      <c r="F12" s="642"/>
+      <c r="F12" s="621"/>
       <c r="G12" s="339" t="s">
         <v>401</v>
       </c>
@@ -7748,16 +7748,16 @@
       </c>
       <c r="I12" s="606"/>
       <c r="J12" s="606"/>
-      <c r="K12" s="684"/>
+      <c r="K12" s="628"/>
       <c r="L12" s="205"/>
       <c r="M12" s="205"/>
       <c r="N12" s="205"/>
-      <c r="O12" s="680"/>
-      <c r="P12" s="649"/>
+      <c r="O12" s="624"/>
+      <c r="P12" s="654"/>
       <c r="R12" s="122" t="s">
         <v>180</v>
       </c>
-      <c r="S12" s="659"/>
+      <c r="S12" s="637"/>
       <c r="T12" s="101" t="s">
         <v>44</v>
       </c>
@@ -7767,7 +7767,7 @@
       <c r="X12" s="434" t="s">
         <v>166</v>
       </c>
-      <c r="Y12" s="655"/>
+      <c r="Y12" s="659"/>
       <c r="Z12" s="410">
         <v>1</v>
       </c>
@@ -7778,16 +7778,16 @@
       <c r="AC12" s="100" t="s">
         <v>482</v>
       </c>
-      <c r="AD12" s="669" t="s">
+      <c r="AD12" s="640" t="s">
         <v>241</v>
       </c>
       <c r="AE12" s="444" t="s">
         <v>240</v>
       </c>
-      <c r="AF12" s="657" t="s">
+      <c r="AF12" s="632" t="s">
         <v>229</v>
       </c>
-      <c r="AG12" s="657"/>
+      <c r="AG12" s="632"/>
       <c r="AH12" s="240" t="s">
         <v>260</v>
       </c>
@@ -7797,10 +7797,10 @@
       <c r="AJ12" s="259"/>
       <c r="AK12" s="259"/>
       <c r="AL12" s="259"/>
-      <c r="AM12" s="652" t="s">
+      <c r="AM12" s="656" t="s">
         <v>250</v>
       </c>
-      <c r="AN12" s="637"/>
+      <c r="AN12" s="642"/>
       <c r="AO12" s="340" t="s">
         <v>96</v>
       </c>
@@ -7812,17 +7812,17 @@
       <c r="E13" s="451">
         <v>-3</v>
       </c>
-      <c r="F13" s="642"/>
+      <c r="F13" s="621"/>
       <c r="G13" s="606" t="s">
         <v>431</v>
       </c>
       <c r="H13" s="606"/>
       <c r="I13" s="606"/>
-      <c r="J13" s="684"/>
+      <c r="J13" s="628"/>
       <c r="M13" s="6"/>
       <c r="N13" s="6"/>
-      <c r="O13" s="680"/>
-      <c r="P13" s="650"/>
+      <c r="O13" s="624"/>
+      <c r="P13" s="655"/>
       <c r="T13" s="105" t="s">
         <v>44</v>
       </c>
@@ -7832,7 +7832,7 @@
       <c r="X13" s="434" t="s">
         <v>167</v>
       </c>
-      <c r="Y13" s="655"/>
+      <c r="Y13" s="659"/>
       <c r="Z13" s="410">
         <v>1</v>
       </c>
@@ -7843,8 +7843,8 @@
         <v>501</v>
       </c>
       <c r="AC13" s="16"/>
-      <c r="AD13" s="669"/>
-      <c r="AF13" s="657"/>
+      <c r="AD13" s="640"/>
+      <c r="AF13" s="632"/>
       <c r="AG13" s="80"/>
       <c r="AH13" s="240" t="s">
         <v>309</v>
@@ -7855,8 +7855,8 @@
       <c r="AJ13" s="80"/>
       <c r="AK13" s="259"/>
       <c r="AL13" s="259"/>
-      <c r="AM13" s="652"/>
-      <c r="AN13" s="637"/>
+      <c r="AM13" s="656"/>
+      <c r="AN13" s="642"/>
     </row>
     <row r="14" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="453"/>
@@ -7864,18 +7864,18 @@
       <c r="C14" s="462"/>
       <c r="D14" s="455"/>
       <c r="E14" s="456"/>
-      <c r="F14" s="642"/>
+      <c r="F14" s="621"/>
       <c r="G14" s="606" t="s">
         <v>430</v>
       </c>
       <c r="H14" s="606"/>
       <c r="I14" s="606"/>
-      <c r="J14" s="684"/>
+      <c r="J14" s="628"/>
       <c r="K14" s="2">
         <v>12</v>
       </c>
       <c r="N14" s="6"/>
-      <c r="O14" s="680"/>
+      <c r="O14" s="624"/>
       <c r="Q14" s="61" t="s">
         <v>534</v>
       </c>
@@ -7889,24 +7889,24 @@
       <c r="X14" s="434" t="s">
         <v>168</v>
       </c>
-      <c r="Y14" s="655"/>
+      <c r="Y14" s="659"/>
       <c r="Z14" s="410">
         <v>1</v>
       </c>
       <c r="AA14" s="309"/>
       <c r="AB14" s="211"/>
       <c r="AC14" s="16"/>
-      <c r="AD14" s="669"/>
+      <c r="AD14" s="640"/>
       <c r="AE14" s="259"/>
-      <c r="AF14" s="657"/>
+      <c r="AF14" s="632"/>
       <c r="AG14" s="259"/>
       <c r="AH14" s="259"/>
       <c r="AI14" s="70"/>
       <c r="AJ14" s="259"/>
       <c r="AK14" s="259"/>
       <c r="AL14" s="259"/>
-      <c r="AM14" s="652"/>
-      <c r="AN14" s="637"/>
+      <c r="AM14" s="656"/>
+      <c r="AN14" s="642"/>
     </row>
     <row r="15" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="452" t="s">
@@ -7915,8 +7915,8 @@
       <c r="C15" s="599" t="s">
         <v>374</v>
       </c>
-      <c r="F15" s="642"/>
-      <c r="O15" s="680"/>
+      <c r="F15" s="621"/>
+      <c r="O15" s="624"/>
       <c r="R15" s="99" t="s">
         <v>44</v>
       </c>
@@ -7929,7 +7929,7 @@
       <c r="X15" s="434" t="s">
         <v>169</v>
       </c>
-      <c r="Y15" s="655"/>
+      <c r="Y15" s="659"/>
       <c r="Z15" s="412">
         <v>1</v>
       </c>
@@ -7938,8 +7938,8 @@
       <c r="AC15" s="76" t="s">
         <v>480</v>
       </c>
-      <c r="AD15" s="669"/>
-      <c r="AF15" s="657"/>
+      <c r="AD15" s="640"/>
+      <c r="AF15" s="632"/>
       <c r="AG15" s="80"/>
       <c r="AH15" s="240" t="s">
         <v>449</v>
@@ -7952,8 +7952,8 @@
       </c>
       <c r="AK15" s="259"/>
       <c r="AL15" s="259"/>
-      <c r="AM15" s="652"/>
-      <c r="AN15" s="637"/>
+      <c r="AM15" s="656"/>
+      <c r="AN15" s="642"/>
       <c r="AP15" s="76" t="s">
         <v>73</v>
       </c>
@@ -7975,13 +7975,13 @@
       <c r="E16" s="226">
         <v>1</v>
       </c>
-      <c r="F16" s="642"/>
+      <c r="F16" s="621"/>
       <c r="G16" s="339" t="s">
         <v>489</v>
       </c>
       <c r="I16" s="472"/>
       <c r="J16" s="20"/>
-      <c r="O16" s="680"/>
+      <c r="O16" s="624"/>
       <c r="R16" s="438" t="s">
         <v>184</v>
       </c>
@@ -7992,7 +7992,7 @@
       <c r="X16" s="434" t="s">
         <v>170</v>
       </c>
-      <c r="Y16" s="655"/>
+      <c r="Y16" s="659"/>
       <c r="Z16" s="410">
         <v>1</v>
       </c>
@@ -8013,18 +8013,18 @@
       <c r="AM16" s="431" t="s">
         <v>318</v>
       </c>
-      <c r="AN16" s="637"/>
+      <c r="AN16" s="642"/>
       <c r="AP16" s="76" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="17" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="80"/>
-      <c r="F17" s="642"/>
+      <c r="F17" s="621"/>
       <c r="I17" s="473"/>
       <c r="J17" s="20"/>
       <c r="N17" s="6"/>
-      <c r="O17" s="680"/>
+      <c r="O17" s="624"/>
       <c r="Q17" s="21" t="s">
         <v>532</v>
       </c>
@@ -8044,7 +8044,7 @@
       <c r="X17" s="434" t="s">
         <v>171</v>
       </c>
-      <c r="Y17" s="655"/>
+      <c r="Y17" s="659"/>
       <c r="Z17" s="412"/>
       <c r="AA17" s="309"/>
       <c r="AB17" s="211"/>
@@ -8069,7 +8069,7 @@
       <c r="AK17" s="259"/>
       <c r="AL17" s="80"/>
       <c r="AM17" s="431"/>
-      <c r="AN17" s="637"/>
+      <c r="AN17" s="642"/>
       <c r="AO17" s="206" t="s">
         <v>498</v>
       </c>
@@ -8093,21 +8093,21 @@
       <c r="E18" s="99" t="s">
         <v>44</v>
       </c>
-      <c r="F18" s="642"/>
+      <c r="F18" s="621"/>
       <c r="G18" s="339" t="s">
         <v>529</v>
       </c>
       <c r="I18" s="24"/>
       <c r="J18" s="20"/>
-      <c r="O18" s="680"/>
+      <c r="O18" s="624"/>
       <c r="Q18" s="112"/>
-      <c r="R18" s="674" t="s">
+      <c r="R18" s="616" t="s">
         <v>537</v>
       </c>
       <c r="T18" s="100" t="s">
         <v>44</v>
       </c>
-      <c r="U18" s="613" t="s">
+      <c r="U18" s="664" t="s">
         <v>44</v>
       </c>
       <c r="V18" s="120"/>
@@ -8117,7 +8117,7 @@
       <c r="X18" s="434" t="s">
         <v>172</v>
       </c>
-      <c r="Y18" s="655"/>
+      <c r="Y18" s="659"/>
       <c r="Z18" s="412">
         <v>1</v>
       </c>
@@ -8128,38 +8128,38 @@
       <c r="AC18" s="16"/>
       <c r="AD18" s="16"/>
       <c r="AE18" s="259"/>
-      <c r="AF18" s="651" t="s">
+      <c r="AF18" s="631" t="s">
         <v>476</v>
       </c>
       <c r="AG18" s="259"/>
       <c r="AH18" s="70"/>
       <c r="AI18" s="70"/>
-      <c r="AJ18" s="653" t="s">
+      <c r="AJ18" s="657" t="s">
         <v>316</v>
       </c>
       <c r="AK18" s="259"/>
       <c r="AL18" s="80"/>
       <c r="AM18" s="431"/>
-      <c r="AN18" s="637"/>
+      <c r="AN18" s="642"/>
       <c r="AP18" s="76" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="19" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F19" s="642"/>
+      <c r="F19" s="621"/>
       <c r="I19" s="221"/>
-      <c r="O19" s="680"/>
-      <c r="R19" s="675"/>
+      <c r="O19" s="624"/>
+      <c r="R19" s="617"/>
       <c r="S19" s="30" t="s">
         <v>535</v>
       </c>
-      <c r="U19" s="614"/>
+      <c r="U19" s="665"/>
       <c r="V19" s="146"/>
       <c r="W19" s="146"/>
       <c r="X19" s="434" t="s">
         <v>173</v>
       </c>
-      <c r="Y19" s="655"/>
+      <c r="Y19" s="659"/>
       <c r="Z19" s="410">
         <v>1</v>
       </c>
@@ -8168,17 +8168,17 @@
       <c r="AC19" s="16"/>
       <c r="AD19" s="16"/>
       <c r="AE19" s="259"/>
-      <c r="AF19" s="651"/>
+      <c r="AF19" s="631"/>
       <c r="AG19" s="259"/>
       <c r="AH19" s="259"/>
       <c r="AI19" s="70"/>
-      <c r="AJ19" s="653"/>
+      <c r="AJ19" s="657"/>
       <c r="AK19" s="463" t="s">
         <v>252</v>
       </c>
       <c r="AL19" s="80"/>
       <c r="AM19" s="431"/>
-      <c r="AN19" s="637"/>
+      <c r="AN19" s="642"/>
       <c r="AP19" s="76" t="s">
         <v>469</v>
       </c>
@@ -8199,24 +8199,24 @@
       <c r="E20" s="440">
         <v>-1</v>
       </c>
-      <c r="F20" s="642"/>
+      <c r="F20" s="621"/>
       <c r="G20" s="339" t="s">
         <v>492</v>
       </c>
       <c r="I20" s="221"/>
-      <c r="O20" s="680"/>
-      <c r="Q20" s="682" t="s">
+      <c r="O20" s="624"/>
+      <c r="Q20" s="626" t="s">
         <v>48</v>
       </c>
       <c r="T20" s="407" t="s">
         <v>44</v>
       </c>
-      <c r="U20" s="615"/>
+      <c r="U20" s="666"/>
       <c r="W20" s="408"/>
       <c r="X20" s="435" t="s">
         <v>174</v>
       </c>
-      <c r="Y20" s="655"/>
+      <c r="Y20" s="659"/>
       <c r="Z20" s="414">
         <v>1</v>
       </c>
@@ -8241,7 +8241,7 @@
       <c r="AM20" s="383" t="s">
         <v>250</v>
       </c>
-      <c r="AN20" s="637"/>
+      <c r="AN20" s="642"/>
       <c r="AO20" s="340" t="s">
         <v>461</v>
       </c>
@@ -8262,20 +8262,20 @@
       <c r="E21" s="267">
         <v>0</v>
       </c>
-      <c r="F21" s="642"/>
+      <c r="F21" s="621"/>
       <c r="I21" s="221"/>
-      <c r="O21" s="680"/>
-      <c r="Q21" s="683"/>
+      <c r="O21" s="624"/>
+      <c r="Q21" s="627"/>
       <c r="T21" s="425"/>
       <c r="U21" s="14"/>
-      <c r="V21" s="610"/>
+      <c r="V21" s="661"/>
       <c r="W21" s="429" t="s">
         <v>175</v>
       </c>
       <c r="X21" s="432" t="s">
         <v>186</v>
       </c>
-      <c r="Y21" s="655"/>
+      <c r="Y21" s="659"/>
       <c r="Z21" s="448">
         <v>3</v>
       </c>
@@ -8306,15 +8306,15 @@
       <c r="AM21" s="431" t="s">
         <v>546</v>
       </c>
-      <c r="AN21" s="637"/>
+      <c r="AN21" s="642"/>
     </row>
     <row r="22" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F22" s="642"/>
+      <c r="F22" s="621"/>
       <c r="G22" s="339" t="s">
         <v>490</v>
       </c>
       <c r="I22" s="221"/>
-      <c r="O22" s="680"/>
+      <c r="O22" s="624"/>
       <c r="R22" s="437" t="s">
         <v>44</v>
       </c>
@@ -8322,14 +8322,14 @@
         <v>44</v>
       </c>
       <c r="U22" s="15"/>
-      <c r="V22" s="611"/>
+      <c r="V22" s="662"/>
       <c r="W22" s="429" t="s">
         <v>175</v>
       </c>
       <c r="X22" s="432" t="s">
         <v>187</v>
       </c>
-      <c r="Y22" s="655"/>
+      <c r="Y22" s="659"/>
       <c r="Z22" s="418"/>
       <c r="AA22" s="10"/>
       <c r="AB22" s="418"/>
@@ -8340,7 +8340,7 @@
       <c r="AG22" s="6"/>
       <c r="AH22" s="6"/>
       <c r="AI22" s="6"/>
-      <c r="AJ22" s="651" t="s">
+      <c r="AJ22" s="631" t="s">
         <v>473</v>
       </c>
       <c r="AK22" s="259"/>
@@ -8348,7 +8348,7 @@
         <v>479</v>
       </c>
       <c r="AM22" s="302"/>
-      <c r="AN22" s="637"/>
+      <c r="AN22" s="642"/>
     </row>
     <row r="23" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="233" t="s">
@@ -8366,22 +8366,22 @@
       <c r="E23" s="227">
         <v>1</v>
       </c>
-      <c r="F23" s="642"/>
+      <c r="F23" s="621"/>
       <c r="I23" s="221"/>
-      <c r="O23" s="680"/>
-      <c r="Q23" s="682" t="s">
+      <c r="O23" s="624"/>
+      <c r="Q23" s="626" t="s">
         <v>144</v>
       </c>
       <c r="T23" s="17"/>
       <c r="U23" s="423" t="s">
         <v>44</v>
       </c>
-      <c r="V23" s="611"/>
+      <c r="V23" s="662"/>
       <c r="W23" s="148"/>
       <c r="X23" s="432" t="s">
         <v>188</v>
       </c>
-      <c r="Y23" s="655"/>
+      <c r="Y23" s="659"/>
       <c r="Z23" s="17"/>
       <c r="AA23" s="10"/>
       <c r="AB23" s="418"/>
@@ -8392,13 +8392,13 @@
       <c r="AG23" s="6"/>
       <c r="AH23" s="6"/>
       <c r="AI23" s="6"/>
-      <c r="AJ23" s="651"/>
+      <c r="AJ23" s="631"/>
       <c r="AK23" s="259"/>
       <c r="AL23" s="80" t="s">
         <v>508</v>
       </c>
       <c r="AM23" s="302"/>
-      <c r="AN23" s="637"/>
+      <c r="AN23" s="642"/>
     </row>
     <row r="24" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="443" t="s">
@@ -8416,23 +8416,23 @@
       <c r="E24" s="439">
         <v>1</v>
       </c>
-      <c r="F24" s="642"/>
+      <c r="F24" s="621"/>
       <c r="G24" s="61" t="s">
         <v>491</v>
       </c>
       <c r="I24" s="221"/>
-      <c r="O24" s="680"/>
-      <c r="Q24" s="683"/>
+      <c r="O24" s="624"/>
+      <c r="Q24" s="627"/>
       <c r="T24" s="17"/>
       <c r="U24" s="229" t="s">
         <v>44</v>
       </c>
-      <c r="V24" s="611"/>
+      <c r="V24" s="662"/>
       <c r="W24" s="148"/>
       <c r="X24" s="432" t="s">
         <v>185</v>
       </c>
-      <c r="Y24" s="655"/>
+      <c r="Y24" s="659"/>
       <c r="Z24" s="17"/>
       <c r="AA24" s="10"/>
       <c r="AB24" s="418"/>
@@ -8451,12 +8451,12 @@
         <v>464</v>
       </c>
       <c r="AM24" s="302"/>
-      <c r="AN24" s="637"/>
+      <c r="AN24" s="642"/>
     </row>
     <row r="25" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F25" s="642"/>
+      <c r="F25" s="621"/>
       <c r="I25" s="221"/>
-      <c r="O25" s="680"/>
+      <c r="O25" s="624"/>
       <c r="P25" s="206" t="s">
         <v>281</v>
       </c>
@@ -8469,12 +8469,12 @@
       <c r="U25" s="403" t="s">
         <v>44</v>
       </c>
-      <c r="V25" s="612"/>
+      <c r="V25" s="663"/>
       <c r="W25" s="148"/>
       <c r="X25" s="432" t="s">
         <v>189</v>
       </c>
-      <c r="Y25" s="655"/>
+      <c r="Y25" s="659"/>
       <c r="Z25" s="17"/>
       <c r="AA25" s="10"/>
       <c r="AB25" s="418"/>
@@ -8491,7 +8491,7 @@
       <c r="AK25" s="142"/>
       <c r="AL25" s="6"/>
       <c r="AM25" s="302"/>
-      <c r="AN25" s="637"/>
+      <c r="AN25" s="642"/>
     </row>
     <row r="26" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="233" t="s">
@@ -8509,17 +8509,17 @@
       <c r="E26" s="382">
         <v>1</v>
       </c>
-      <c r="F26" s="642"/>
+      <c r="F26" s="621"/>
       <c r="G26" s="339" t="s">
         <v>488</v>
       </c>
       <c r="I26" s="221"/>
-      <c r="O26" s="680"/>
-      <c r="P26" s="639" t="s">
+      <c r="O26" s="624"/>
+      <c r="P26" s="644" t="s">
         <v>527</v>
       </c>
-      <c r="Q26" s="640"/>
-      <c r="R26" s="676" t="s">
+      <c r="Q26" s="645"/>
+      <c r="R26" s="618" t="s">
         <v>536</v>
       </c>
       <c r="T26" s="180"/>
@@ -8531,7 +8531,7 @@
       <c r="X26" s="432" t="s">
         <v>181</v>
       </c>
-      <c r="Y26" s="655"/>
+      <c r="Y26" s="659"/>
       <c r="Z26" s="17"/>
       <c r="AA26" s="10"/>
       <c r="AB26" s="418"/>
@@ -8558,7 +8558,7 @@
       <c r="AM26" s="445" t="s">
         <v>457</v>
       </c>
-      <c r="AN26" s="637"/>
+      <c r="AN26" s="642"/>
     </row>
     <row r="27" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B27" s="21" t="s">
@@ -8570,13 +8570,13 @@
       <c r="E27" s="267" t="s">
         <v>44</v>
       </c>
-      <c r="F27" s="678"/>
+      <c r="F27" s="622"/>
       <c r="G27" s="61" t="s">
         <v>545</v>
       </c>
       <c r="I27" s="222"/>
-      <c r="O27" s="681"/>
-      <c r="R27" s="677"/>
+      <c r="O27" s="625"/>
+      <c r="R27" s="619"/>
       <c r="S27" s="424" t="s">
         <v>54</v>
       </c>
@@ -8589,7 +8589,7 @@
       <c r="X27" s="432" t="s">
         <v>531</v>
       </c>
-      <c r="Y27" s="656"/>
+      <c r="Y27" s="660"/>
       <c r="Z27" s="161"/>
       <c r="AA27" s="13"/>
       <c r="AB27" s="419"/>
@@ -8606,32 +8606,26 @@
       <c r="AM27" s="383" t="s">
         <v>320</v>
       </c>
-      <c r="AN27" s="638"/>
+      <c r="AN27" s="643"/>
     </row>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="R18:R19"/>
-    <mergeCell ref="R26:R27"/>
-    <mergeCell ref="F2:F27"/>
-    <mergeCell ref="O10:O27"/>
-    <mergeCell ref="Q20:Q21"/>
-    <mergeCell ref="Q23:Q24"/>
-    <mergeCell ref="G14:J14"/>
-    <mergeCell ref="G13:J13"/>
-    <mergeCell ref="H12:K12"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="AI6:AI10"/>
-    <mergeCell ref="AF12:AF15"/>
-    <mergeCell ref="AG7:AG12"/>
-    <mergeCell ref="L8:L9"/>
-    <mergeCell ref="S9:S12"/>
-    <mergeCell ref="N8:N9"/>
-    <mergeCell ref="AD12:AD15"/>
-    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="V21:V25"/>
+    <mergeCell ref="U18:U20"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="G5:L6"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="K7:K9"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B4:B5"/>
     <mergeCell ref="AN1:AN27"/>
     <mergeCell ref="P26:Q26"/>
     <mergeCell ref="Q2:Q3"/>
@@ -8648,22 +8642,28 @@
     <mergeCell ref="AD3:AD4"/>
     <mergeCell ref="S2:S3"/>
     <mergeCell ref="R2:R3"/>
-    <mergeCell ref="V21:V25"/>
-    <mergeCell ref="U18:U20"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="J8:J9"/>
-    <mergeCell ref="G5:L6"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="K7:K9"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="AI6:AI10"/>
+    <mergeCell ref="AF12:AF15"/>
+    <mergeCell ref="AG7:AG12"/>
+    <mergeCell ref="L8:L9"/>
+    <mergeCell ref="S9:S12"/>
+    <mergeCell ref="N8:N9"/>
+    <mergeCell ref="AD12:AD15"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="R18:R19"/>
+    <mergeCell ref="R26:R27"/>
+    <mergeCell ref="F2:F27"/>
+    <mergeCell ref="O10:O27"/>
+    <mergeCell ref="Q20:Q21"/>
+    <mergeCell ref="Q23:Q24"/>
+    <mergeCell ref="G14:J14"/>
+    <mergeCell ref="G13:J13"/>
+    <mergeCell ref="H12:K12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8700,12 +8700,12 @@
       <c r="B1" s="604" t="s">
         <v>311</v>
       </c>
-      <c r="C1" s="684"/>
+      <c r="C1" s="628"/>
       <c r="D1" s="206"/>
       <c r="J1" s="604" t="s">
         <v>69</v>
       </c>
-      <c r="K1" s="684"/>
+      <c r="K1" s="628"/>
       <c r="L1" s="197" t="s">
         <v>331</v>
       </c>
@@ -9040,7 +9040,7 @@
   <dimension ref="A1:AL31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="AH19" sqref="AH19"/>
+      <selection activeCell="AA17" sqref="AA17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9108,7 +9108,7 @@
       <c r="P1" s="401" t="s">
         <v>398</v>
       </c>
-      <c r="Q1" s="715" t="s">
+      <c r="Q1" s="702" t="s">
         <v>180</v>
       </c>
       <c r="R1" s="100" t="s">
@@ -9132,7 +9132,7 @@
       <c r="AA1" s="521" t="s">
         <v>438</v>
       </c>
-      <c r="AB1" s="709" t="s">
+      <c r="AB1" s="696" t="s">
         <v>596</v>
       </c>
       <c r="AC1" s="99" t="s">
@@ -9154,32 +9154,32 @@
       </c>
     </row>
     <row r="2" spans="1:38" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="694">
+      <c r="A2" s="707">
         <f ca="1">TODAY()</f>
         <v>45284</v>
       </c>
-      <c r="B2" s="696" t="s">
+      <c r="B2" s="709" t="s">
         <v>380</v>
       </c>
-      <c r="C2" s="616" t="s">
+      <c r="C2" s="646" t="s">
         <v>358</v>
       </c>
-      <c r="D2" s="698" t="s">
+      <c r="D2" s="711" t="s">
         <v>102</v>
       </c>
-      <c r="E2" s="700" t="s">
+      <c r="E2" s="713" t="s">
         <v>64</v>
       </c>
       <c r="F2" s="193" t="s">
         <v>219</v>
       </c>
-      <c r="G2" s="660" t="s">
+      <c r="G2" s="614" t="s">
         <v>373</v>
       </c>
       <c r="H2" s="208" t="s">
         <v>219</v>
       </c>
-      <c r="I2" s="706" t="s">
+      <c r="I2" s="693" t="s">
         <v>102</v>
       </c>
       <c r="J2" s="399" t="s">
@@ -9203,7 +9203,7 @@
       <c r="P2" s="402">
         <v>40</v>
       </c>
-      <c r="Q2" s="716"/>
+      <c r="Q2" s="703"/>
       <c r="R2" s="21">
         <f>R7+R20</f>
         <v>4</v>
@@ -9228,7 +9228,7 @@
         <f>IF((Z2+T2)&gt;0,0,-1)</f>
         <v>0</v>
       </c>
-      <c r="AB2" s="710"/>
+      <c r="AB2" s="697"/>
       <c r="AC2" s="35"/>
       <c r="AH2" s="6" t="s">
         <v>600</v>
@@ -9245,14 +9245,14 @@
       </c>
     </row>
     <row r="3" spans="1:38" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="695"/>
-      <c r="B3" s="697"/>
-      <c r="C3" s="617"/>
-      <c r="D3" s="699"/>
-      <c r="E3" s="701"/>
-      <c r="G3" s="661"/>
+      <c r="A3" s="708"/>
+      <c r="B3" s="710"/>
+      <c r="C3" s="647"/>
+      <c r="D3" s="712"/>
+      <c r="E3" s="714"/>
+      <c r="G3" s="615"/>
       <c r="H3" s="6"/>
-      <c r="I3" s="707"/>
+      <c r="I3" s="694"/>
       <c r="K3" s="24">
         <v>2</v>
       </c>
@@ -9267,7 +9267,7 @@
       <c r="V3" s="473"/>
       <c r="W3" s="6"/>
       <c r="X3" s="473"/>
-      <c r="AB3" s="710"/>
+      <c r="AB3" s="697"/>
       <c r="AC3" s="35"/>
       <c r="AE3" s="100" t="s">
         <v>591</v>
@@ -9296,10 +9296,10 @@
         <v>381</v>
       </c>
       <c r="B4" s="245"/>
-      <c r="C4" s="702" t="s">
+      <c r="C4" s="715" t="s">
         <v>177</v>
       </c>
-      <c r="I4" s="707"/>
+      <c r="I4" s="694"/>
       <c r="R4" s="474" t="s">
         <v>591</v>
       </c>
@@ -9311,7 +9311,7 @@
       <c r="V4" s="473"/>
       <c r="W4" s="6"/>
       <c r="X4" s="473"/>
-      <c r="AB4" s="710"/>
+      <c r="AB4" s="697"/>
       <c r="AC4" s="35"/>
       <c r="AE4" s="20"/>
       <c r="AF4" s="100" t="s">
@@ -9342,7 +9342,7 @@
       <c r="B5" s="100" t="s">
         <v>358</v>
       </c>
-      <c r="C5" s="703"/>
+      <c r="C5" s="716"/>
       <c r="D5" s="224" t="s">
         <v>102</v>
       </c>
@@ -9358,7 +9358,7 @@
       <c r="H5" s="208" t="s">
         <v>219</v>
       </c>
-      <c r="I5" s="707"/>
+      <c r="I5" s="694"/>
       <c r="J5" s="400" t="s">
         <v>269</v>
       </c>
@@ -9385,7 +9385,7 @@
       <c r="V5" s="471"/>
       <c r="W5" s="6"/>
       <c r="X5" s="471"/>
-      <c r="AB5" s="710"/>
+      <c r="AB5" s="697"/>
       <c r="AC5" s="2" t="s">
         <v>594</v>
       </c>
@@ -9407,19 +9407,19 @@
       </c>
     </row>
     <row r="6" spans="1:38" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="691" t="s">
+      <c r="A6" s="704" t="s">
         <v>286</v>
       </c>
       <c r="B6" s="105" t="s">
         <v>198</v>
       </c>
-      <c r="C6" s="662"/>
-      <c r="D6" s="663"/>
+      <c r="C6" s="629"/>
+      <c r="D6" s="630"/>
       <c r="E6" s="96">
         <v>1</v>
       </c>
       <c r="G6" s="600"/>
-      <c r="I6" s="707"/>
+      <c r="I6" s="694"/>
       <c r="P6" s="61" t="s">
         <v>594</v>
       </c>
@@ -9431,7 +9431,7 @@
         <f>S7+S11-SUM(V2:V10)</f>
         <v>0</v>
       </c>
-      <c r="AB6" s="710"/>
+      <c r="AB6" s="697"/>
       <c r="AC6" s="35"/>
       <c r="AE6" s="64">
         <f>AE7-SUM(AL2:AL10)+AE11</f>
@@ -9447,7 +9447,7 @@
       <c r="AL6" s="112"/>
     </row>
     <row r="7" spans="1:38" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="692"/>
+      <c r="A7" s="705"/>
       <c r="B7" s="100" t="s">
         <v>154</v>
       </c>
@@ -9458,7 +9458,7 @@
         <v>135</v>
       </c>
       <c r="G7" s="600"/>
-      <c r="I7" s="707"/>
+      <c r="I7" s="694"/>
       <c r="M7" s="16" t="s">
         <v>348</v>
       </c>
@@ -9486,7 +9486,7 @@
       <c r="V7" s="472"/>
       <c r="W7" s="6"/>
       <c r="X7" s="472"/>
-      <c r="AB7" s="710"/>
+      <c r="AB7" s="697"/>
       <c r="AC7" s="99" t="s">
         <v>595</v>
       </c>
@@ -9516,7 +9516,7 @@
       </c>
     </row>
     <row r="8" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="693"/>
+      <c r="A8" s="706"/>
       <c r="B8" s="214" t="s">
         <v>28</v>
       </c>
@@ -9525,7 +9525,7 @@
         <v>3</v>
       </c>
       <c r="G8" s="600"/>
-      <c r="I8" s="707"/>
+      <c r="I8" s="694"/>
       <c r="N8" s="80"/>
       <c r="U8" s="6" t="s">
         <v>232</v>
@@ -9539,7 +9539,7 @@
       <c r="X8" s="473">
         <v>1</v>
       </c>
-      <c r="AB8" s="710"/>
+      <c r="AB8" s="697"/>
       <c r="AC8" s="519"/>
       <c r="AH8" s="6" t="s">
         <v>630</v>
@@ -9570,7 +9570,7 @@
       </c>
       <c r="G9" s="600"/>
       <c r="H9" s="6"/>
-      <c r="I9" s="707"/>
+      <c r="I9" s="694"/>
       <c r="M9" s="19" t="s">
         <v>526</v>
       </c>
@@ -9587,7 +9587,7 @@
       <c r="X9" s="473">
         <v>1</v>
       </c>
-      <c r="AB9" s="710"/>
+      <c r="AB9" s="697"/>
       <c r="AC9" s="519"/>
       <c r="AE9" s="20"/>
       <c r="AF9" s="20"/>
@@ -9619,7 +9619,7 @@
         <v>36</v>
       </c>
       <c r="G10" s="600"/>
-      <c r="I10" s="707"/>
+      <c r="I10" s="694"/>
       <c r="J10" s="24" t="s">
         <v>373</v>
       </c>
@@ -9642,7 +9642,7 @@
       <c r="X10" s="473">
         <v>1</v>
       </c>
-      <c r="AB10" s="710"/>
+      <c r="AB10" s="697"/>
       <c r="AC10" s="519"/>
       <c r="AE10" s="20"/>
       <c r="AF10" s="20"/>
@@ -9674,7 +9674,7 @@
         <v>266</v>
       </c>
       <c r="G11" s="600"/>
-      <c r="I11" s="707"/>
+      <c r="I11" s="694"/>
       <c r="J11" s="24" t="s">
         <v>194</v>
       </c>
@@ -9700,13 +9700,13 @@
       <c r="S11" s="24">
         <v>0</v>
       </c>
-      <c r="U11" s="712" t="s">
+      <c r="U11" s="699" t="s">
         <v>559</v>
       </c>
-      <c r="V11" s="713"/>
-      <c r="W11" s="713"/>
-      <c r="X11" s="714"/>
-      <c r="AB11" s="711"/>
+      <c r="V11" s="700"/>
+      <c r="W11" s="700"/>
+      <c r="X11" s="701"/>
+      <c r="AB11" s="698"/>
       <c r="AC11" s="99" t="s">
         <v>597</v>
       </c>
@@ -9720,13 +9720,13 @@
         <v>0</v>
       </c>
       <c r="AG11" s="417"/>
-      <c r="AH11" s="712" t="s">
+      <c r="AH11" s="699" t="s">
         <v>612</v>
       </c>
-      <c r="AI11" s="713"/>
-      <c r="AJ11" s="713"/>
-      <c r="AK11" s="713"/>
-      <c r="AL11" s="714"/>
+      <c r="AI11" s="700"/>
+      <c r="AJ11" s="700"/>
+      <c r="AK11" s="700"/>
+      <c r="AL11" s="701"/>
     </row>
     <row r="12" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="229" t="s">
@@ -9737,7 +9737,7 @@
         <v>3</v>
       </c>
       <c r="G12" s="600"/>
-      <c r="I12" s="707"/>
+      <c r="I12" s="694"/>
       <c r="J12" s="24" t="s">
         <v>517</v>
       </c>
@@ -9770,7 +9770,7 @@
       </c>
       <c r="D13" s="20"/>
       <c r="G13" s="600"/>
-      <c r="I13" s="707"/>
+      <c r="I13" s="694"/>
       <c r="J13" s="108" t="s">
         <v>549</v>
       </c>
@@ -9814,7 +9814,7 @@
       <c r="H14" s="208" t="s">
         <v>219</v>
       </c>
-      <c r="I14" s="707"/>
+      <c r="I14" s="694"/>
       <c r="U14" s="67" t="s">
         <v>80</v>
       </c>
@@ -9841,7 +9841,7 @@
       <c r="H15" s="273">
         <v>0</v>
       </c>
-      <c r="I15" s="707"/>
+      <c r="I15" s="694"/>
       <c r="J15" s="108" t="s">
         <v>153</v>
       </c>
@@ -9872,7 +9872,7 @@
       <c r="D16" s="2" t="s">
         <v>493</v>
       </c>
-      <c r="I16" s="707"/>
+      <c r="I16" s="694"/>
       <c r="K16" s="100" t="s">
         <v>44</v>
       </c>
@@ -9912,7 +9912,7 @@
       <c r="G17" s="2" t="s">
         <v>424</v>
       </c>
-      <c r="I17" s="707"/>
+      <c r="I17" s="694"/>
       <c r="L17" s="2" t="s">
         <v>427</v>
       </c>
@@ -9930,13 +9930,13 @@
     </row>
     <row r="18" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G18" s="16"/>
-      <c r="I18" s="707"/>
+      <c r="I18" s="694"/>
       <c r="L18" s="16"/>
       <c r="M18" s="21"/>
-      <c r="O18" s="704" t="s">
+      <c r="O18" s="691" t="s">
         <v>518</v>
       </c>
-      <c r="P18" s="705"/>
+      <c r="P18" s="692"/>
       <c r="Q18" s="127" t="s">
         <v>44</v>
       </c>
@@ -9962,7 +9962,7 @@
       </c>
     </row>
     <row r="19" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I19" s="707"/>
+      <c r="I19" s="694"/>
       <c r="M19" s="21" t="s">
         <v>426</v>
       </c>
@@ -9998,7 +9998,7 @@
       <c r="G20" s="2" t="s">
         <v>424</v>
       </c>
-      <c r="I20" s="707"/>
+      <c r="I20" s="694"/>
       <c r="K20" s="19" t="s">
         <v>423</v>
       </c>
@@ -10033,7 +10033,7 @@
       </c>
     </row>
     <row r="21" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I21" s="707"/>
+      <c r="I21" s="694"/>
       <c r="M21" s="218" t="s">
         <v>412</v>
       </c>
@@ -10067,7 +10067,7 @@
       <c r="G22" s="2" t="s">
         <v>424</v>
       </c>
-      <c r="I22" s="707"/>
+      <c r="I22" s="694"/>
       <c r="P22" s="99" t="s">
         <v>593</v>
       </c>
@@ -10082,7 +10082,7 @@
       <c r="E23" s="285" t="s">
         <v>44</v>
       </c>
-      <c r="I23" s="707"/>
+      <c r="I23" s="694"/>
       <c r="Q23" s="24">
         <f>SUM(V23:V31)</f>
         <v>5</v>
@@ -10099,7 +10099,7 @@
       </c>
     </row>
     <row r="24" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I24" s="707"/>
+      <c r="I24" s="694"/>
       <c r="U24" s="35"/>
       <c r="V24" s="512">
         <v>0</v>
@@ -10127,7 +10127,7 @@
       <c r="H25" s="193" t="s">
         <v>267</v>
       </c>
-      <c r="I25" s="707"/>
+      <c r="I25" s="694"/>
       <c r="J25" s="400" t="s">
         <v>270</v>
       </c>
@@ -10172,7 +10172,7 @@
       <c r="H26" s="19" t="s">
         <v>219</v>
       </c>
-      <c r="I26" s="707"/>
+      <c r="I26" s="694"/>
       <c r="K26" s="24">
         <v>15</v>
       </c>
@@ -10207,7 +10207,7 @@
       </c>
     </row>
     <row r="27" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I27" s="707"/>
+      <c r="I27" s="694"/>
       <c r="O27" s="2" t="s">
         <v>98</v>
       </c>
@@ -10234,7 +10234,7 @@
       <c r="E28" s="217">
         <v>2</v>
       </c>
-      <c r="I28" s="707"/>
+      <c r="I28" s="694"/>
       <c r="Q28" s="6"/>
       <c r="R28" s="112"/>
       <c r="T28" s="142"/>
@@ -10256,7 +10256,7 @@
       <c r="H29" s="193" t="s">
         <v>268</v>
       </c>
-      <c r="I29" s="708"/>
+      <c r="I29" s="695"/>
       <c r="J29" s="326"/>
       <c r="L29" s="96" t="s">
         <v>274</v>
@@ -10314,13 +10314,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="O18:P18"/>
-    <mergeCell ref="I2:I29"/>
-    <mergeCell ref="AB1:AB11"/>
-    <mergeCell ref="AH11:AL11"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="Q1:Q2"/>
-    <mergeCell ref="U11:X11"/>
     <mergeCell ref="A6:A8"/>
     <mergeCell ref="G5:G14"/>
     <mergeCell ref="A2:A3"/>
@@ -10332,6 +10325,13 @@
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="G2:G3"/>
     <mergeCell ref="C2:C3"/>
+    <mergeCell ref="O18:P18"/>
+    <mergeCell ref="I2:I29"/>
+    <mergeCell ref="AB1:AB11"/>
+    <mergeCell ref="AH11:AL11"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="Q1:Q2"/>
+    <mergeCell ref="U11:X11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -10342,8 +10342,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2029A93E-B53C-4201-9F17-439C144F3CF1}">
   <dimension ref="A1:AT37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+    <sheetView topLeftCell="T18" workbookViewId="0">
+      <selection activeCell="R33" sqref="R33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10443,14 +10443,14 @@
         <f ca="1">TODAY()</f>
         <v>45284</v>
       </c>
-      <c r="T1" s="743"/>
+      <c r="T1" s="736"/>
       <c r="U1" s="142"/>
       <c r="V1" s="6"/>
       <c r="W1" s="6"/>
-      <c r="X1" s="727" t="s">
+      <c r="X1" s="720" t="s">
         <v>442</v>
       </c>
-      <c r="Y1" s="728"/>
+      <c r="Y1" s="721"/>
       <c r="Z1" s="308">
         <f>68-(W8+Y3+X3+U3)</f>
         <v>0</v>
@@ -10466,23 +10466,23 @@
       <c r="AD1" s="304" t="s">
         <v>44</v>
       </c>
-      <c r="AE1" s="729" t="s">
+      <c r="AE1" s="722" t="s">
         <v>190</v>
       </c>
-      <c r="AF1" s="730"/>
-      <c r="AG1" s="731"/>
-      <c r="AH1" s="732" t="s">
+      <c r="AF1" s="723"/>
+      <c r="AG1" s="724"/>
+      <c r="AH1" s="725" t="s">
         <v>294</v>
       </c>
-      <c r="AI1" s="733"/>
-      <c r="AJ1" s="734"/>
+      <c r="AI1" s="726"/>
+      <c r="AJ1" s="727"/>
       <c r="AK1" s="556"/>
       <c r="AL1" s="556"/>
-      <c r="AM1" s="724" t="s">
+      <c r="AM1" s="717" t="s">
         <v>445</v>
       </c>
-      <c r="AN1" s="725"/>
-      <c r="AO1" s="726"/>
+      <c r="AN1" s="718"/>
+      <c r="AO1" s="719"/>
       <c r="AR1" s="142"/>
     </row>
     <row r="2" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10495,31 +10495,31 @@
       </c>
       <c r="J2" s="320">
         <f>K2+L2</f>
-        <v>23</v>
-      </c>
-      <c r="K2" s="722">
+        <v>21</v>
+      </c>
+      <c r="K2" s="744">
         <f>SUM(K4:K29)</f>
         <v>12</v>
       </c>
-      <c r="L2" s="720">
+      <c r="L2" s="742">
         <f>SUM(L4:L37)</f>
-        <v>11</v>
-      </c>
-      <c r="M2" s="735">
+        <v>9</v>
+      </c>
+      <c r="M2" s="728">
         <f>SUM(M5:M30)</f>
         <v>0</v>
       </c>
-      <c r="N2" s="737">
+      <c r="N2" s="730">
         <f>SUM(N4:N29)</f>
         <v>10</v>
       </c>
-      <c r="O2" s="739">
+      <c r="O2" s="732">
         <f>SUM(O4:O29)</f>
         <v>10</v>
       </c>
-      <c r="P2" s="667">
+      <c r="P2" s="638">
         <f>SUM(N30:N37)* (-1)</f>
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="Q2" s="271" t="s">
         <v>239</v>
@@ -10530,14 +10530,14 @@
       <c r="S2" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="T2" s="744"/>
+      <c r="T2" s="737"/>
       <c r="U2" s="541" t="s">
         <v>263</v>
       </c>
       <c r="V2" s="485" t="s">
         <v>220</v>
       </c>
-      <c r="W2" s="741" t="s">
+      <c r="W2" s="734" t="s">
         <v>235</v>
       </c>
       <c r="X2" s="486" t="s">
@@ -10609,12 +10609,12 @@
         <f>V3+X3+Y3+U3</f>
         <v>68</v>
       </c>
-      <c r="K3" s="723"/>
-      <c r="L3" s="721"/>
-      <c r="M3" s="736"/>
-      <c r="N3" s="738"/>
-      <c r="O3" s="740"/>
-      <c r="P3" s="668"/>
+      <c r="K3" s="745"/>
+      <c r="L3" s="743"/>
+      <c r="M3" s="729"/>
+      <c r="N3" s="731"/>
+      <c r="O3" s="733"/>
+      <c r="P3" s="639"/>
       <c r="Q3" s="174">
         <f>(M2+N2)-Y3</f>
         <v>0</v>
@@ -10622,7 +10622,7 @@
       <c r="S3" s="159" t="s">
         <v>245</v>
       </c>
-      <c r="T3" s="745"/>
+      <c r="T3" s="738"/>
       <c r="U3" s="542">
         <f>SUM(U4:U29)</f>
         <v>12</v>
@@ -10631,7 +10631,7 @@
         <f>SUM(V4:V29)</f>
         <v>36</v>
       </c>
-      <c r="W3" s="742"/>
+      <c r="W3" s="735"/>
       <c r="X3" s="488">
         <f t="shared" ref="X3:AC3" si="0">SUM(X4:X29)</f>
         <v>10</v>
@@ -10731,7 +10731,7 @@
         <f>AC4</f>
         <v>1</v>
       </c>
-      <c r="P4" s="717" t="s">
+      <c r="P4" s="739" t="s">
         <v>199</v>
       </c>
       <c r="Q4" s="20"/>
@@ -10817,7 +10817,7 @@
         <f>AC5</f>
         <v>0</v>
       </c>
-      <c r="P5" s="718"/>
+      <c r="P5" s="740"/>
       <c r="Q5" s="20"/>
       <c r="R5" s="2" t="s">
         <v>341</v>
@@ -10913,7 +10913,7 @@
         <f>AC6</f>
         <v>1</v>
       </c>
-      <c r="P6" s="718"/>
+      <c r="P6" s="740"/>
       <c r="Q6" s="19" t="s">
         <v>336</v>
       </c>
@@ -11016,7 +11016,7 @@
         <f>AC7</f>
         <v>1</v>
       </c>
-      <c r="P7" s="718"/>
+      <c r="P7" s="740"/>
       <c r="Q7" s="20"/>
       <c r="R7" s="2" t="s">
         <v>336</v>
@@ -11130,7 +11130,7 @@
         <f t="shared" ref="O8:O37" si="10">AC8</f>
         <v>0</v>
       </c>
-      <c r="P8" s="718"/>
+      <c r="P8" s="740"/>
       <c r="Q8" s="21" t="s">
         <v>234</v>
       </c>
@@ -11221,7 +11221,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="P9" s="718"/>
+      <c r="P9" s="740"/>
       <c r="Q9" s="21" t="s">
         <v>336</v>
       </c>
@@ -11326,7 +11326,7 @@
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="P10" s="718"/>
+      <c r="P10" s="740"/>
       <c r="Q10" s="20"/>
       <c r="R10" s="2" t="s">
         <v>341</v>
@@ -11416,7 +11416,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="P11" s="718"/>
+      <c r="P11" s="740"/>
       <c r="Q11" s="21" t="s">
         <v>336</v>
       </c>
@@ -11481,14 +11481,14 @@
       <c r="AR11" s="511"/>
     </row>
     <row r="12" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="627" t="s">
+      <c r="A12" s="676" t="s">
         <v>55</v>
       </c>
       <c r="B12" s="30">
         <v>13</v>
       </c>
       <c r="C12" s="2"/>
-      <c r="E12" s="682" t="s">
+      <c r="E12" s="626" t="s">
         <v>56</v>
       </c>
       <c r="G12" s="264"/>
@@ -11513,7 +11513,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="P12" s="718"/>
+      <c r="P12" s="740"/>
       <c r="Q12" s="21" t="s">
         <v>336</v>
       </c>
@@ -11590,14 +11590,14 @@
       </c>
     </row>
     <row r="13" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="629"/>
+      <c r="A13" s="678"/>
       <c r="B13" s="592">
         <v>12</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="E13" s="683"/>
+      <c r="E13" s="627"/>
       <c r="F13" s="174">
         <v>0</v>
       </c>
@@ -11621,7 +11621,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="P13" s="718"/>
+      <c r="P13" s="740"/>
       <c r="Q13" s="21" t="s">
         <v>336</v>
       </c>
@@ -11705,7 +11705,7 @@
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="P14" s="718"/>
+      <c r="P14" s="740"/>
       <c r="Q14" s="20"/>
       <c r="R14" s="202" t="s">
         <v>340</v>
@@ -11810,7 +11810,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="P15" s="718"/>
+      <c r="P15" s="740"/>
       <c r="Q15" s="20"/>
       <c r="R15" s="202" t="s">
         <v>340</v>
@@ -11902,7 +11902,7 @@
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="P16" s="718"/>
+      <c r="P16" s="740"/>
       <c r="Q16" s="21" t="s">
         <v>336</v>
       </c>
@@ -12005,7 +12005,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="P17" s="718"/>
+      <c r="P17" s="740"/>
       <c r="Q17" s="20"/>
       <c r="R17" s="2" t="s">
         <v>342</v>
@@ -12105,7 +12105,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="P18" s="718"/>
+      <c r="P18" s="740"/>
       <c r="Q18" s="21" t="s">
         <v>336</v>
       </c>
@@ -12193,7 +12193,7 @@
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="P19" s="718"/>
+      <c r="P19" s="740"/>
       <c r="Q19" s="20"/>
       <c r="R19" s="2" t="s">
         <v>335</v>
@@ -12303,11 +12303,11 @@
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="P20" s="719"/>
+      <c r="P20" s="741"/>
       <c r="Q20" s="604" t="s">
         <v>336</v>
       </c>
-      <c r="R20" s="684"/>
+      <c r="R20" s="628"/>
       <c r="S20" s="538" t="s">
         <v>85</v>
       </c>
@@ -12573,7 +12573,7 @@
     </row>
     <row r="23" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B23" s="24"/>
-      <c r="E23" s="634" t="s">
+      <c r="E23" s="683" t="s">
         <v>290</v>
       </c>
       <c r="F23" s="182"/>
@@ -12676,7 +12676,7 @@
       <c r="C24" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="E24" s="635"/>
+      <c r="E24" s="684"/>
       <c r="F24" s="174"/>
       <c r="H24" s="42"/>
       <c r="J24" s="577" t="s">
@@ -12699,7 +12699,7 @@
       <c r="Q24" s="604" t="s">
         <v>336</v>
       </c>
-      <c r="R24" s="684"/>
+      <c r="R24" s="628"/>
       <c r="S24" s="538" t="s">
         <v>250</v>
       </c>
@@ -12791,11 +12791,11 @@
         <v>0</v>
       </c>
       <c r="N25" s="107">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O25" s="295">
         <f t="shared" si="10"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q25" s="86" t="s">
         <v>336</v>
@@ -12810,7 +12810,7 @@
         <v>1</v>
       </c>
       <c r="V25" s="495">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W25" s="530">
         <v>-2</v>
@@ -12820,32 +12820,32 @@
       </c>
       <c r="Y25" s="532">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z25" s="298"/>
       <c r="AA25" s="117">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB25" s="292">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="AC25" s="292">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD25" s="292">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AE25" s="296">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF25" s="302"/>
       <c r="AG25" s="298"/>
       <c r="AH25" s="298">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI25" s="377"/>
       <c r="AJ25" s="512">
@@ -12855,15 +12855,15 @@
       <c r="AL25" s="319"/>
       <c r="AM25" s="338">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN25" s="310">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="311">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP25" s="16" t="s">
         <v>453</v>
@@ -12892,11 +12892,11 @@
         <v>0</v>
       </c>
       <c r="N26" s="107">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O26" s="295">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q26" s="20"/>
       <c r="R26" s="2" t="s">
@@ -12912,7 +12912,7 @@
         <v>1</v>
       </c>
       <c r="V26" s="495">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W26" s="530">
         <v>-1</v>
@@ -12922,32 +12922,32 @@
       </c>
       <c r="Y26" s="552">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="298"/>
       <c r="AA26" s="117">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB26" s="292">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="AC26" s="292">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD26" s="292">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AE26" s="296">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF26" s="302"/>
       <c r="AG26" s="300"/>
       <c r="AH26" s="298">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI26" s="377"/>
       <c r="AJ26" s="512">
@@ -12957,15 +12957,15 @@
       <c r="AL26" s="319"/>
       <c r="AM26" s="338">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN26" s="310">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO26" s="311">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP26" s="523" t="s">
         <v>252</v>
@@ -13354,8 +13354,8 @@
       <c r="AR31" s="511"/>
     </row>
     <row r="32" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="651"/>
-      <c r="B32" s="651"/>
+      <c r="A32" s="631"/>
+      <c r="B32" s="631"/>
       <c r="J32" s="578" t="s">
         <v>310</v>
       </c>
@@ -13620,7 +13620,7 @@
       </c>
       <c r="K35" s="511"/>
       <c r="L35" s="589">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M35" s="336"/>
       <c r="N35" s="252">
@@ -13639,7 +13639,7 @@
         <v>1</v>
       </c>
       <c r="V35" s="158">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W35" s="154">
         <v>-1</v>
@@ -13712,11 +13712,11 @@
       </c>
       <c r="K36" s="511"/>
       <c r="L36" s="589">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M36" s="336"/>
       <c r="N36" s="252">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O36" s="522">
         <f t="shared" si="10"/>
@@ -13731,7 +13731,7 @@
         <v>1</v>
       </c>
       <c r="V36" s="255">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W36" s="18">
         <v>-1</v>
@@ -13739,7 +13739,7 @@
       <c r="X36" s="64"/>
       <c r="Y36" s="185">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z36" s="65"/>
       <c r="AA36" s="117">
@@ -13748,7 +13748,7 @@
       </c>
       <c r="AB36" s="64">
         <f t="shared" si="8"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC36" s="64">
         <v>1</v>
@@ -13895,6 +13895,15 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="Q24:R24"/>
+    <mergeCell ref="P4:P20"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="Q20:R20"/>
     <mergeCell ref="AM1:AO1"/>
     <mergeCell ref="X1:Y1"/>
     <mergeCell ref="AE1:AG1"/>
@@ -13905,15 +13914,6 @@
     <mergeCell ref="P2:P3"/>
     <mergeCell ref="W2:W3"/>
     <mergeCell ref="T1:T3"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="Q24:R24"/>
-    <mergeCell ref="P4:P20"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="Q20:R20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -13981,7 +13981,7 @@
       <c r="V1" s="604" t="s">
         <v>70</v>
       </c>
-      <c r="W1" s="684"/>
+      <c r="W1" s="628"/>
       <c r="X1" s="62" t="s">
         <v>101</v>
       </c>
@@ -14000,7 +14000,7 @@
       <c r="AC1" s="116" t="s">
         <v>190</v>
       </c>
-      <c r="AD1" s="760" t="s">
+      <c r="AD1" s="753" t="s">
         <v>212</v>
       </c>
       <c r="AE1" s="116" t="s">
@@ -14017,10 +14017,10 @@
       <c r="E2" s="39" t="s">
         <v>73</v>
       </c>
-      <c r="F2" s="791" t="s">
+      <c r="F2" s="752" t="s">
         <v>74</v>
       </c>
-      <c r="G2" s="748" t="s">
+      <c r="G2" s="780" t="s">
         <v>44</v>
       </c>
       <c r="H2" s="40" t="s">
@@ -14048,10 +14048,10 @@
       <c r="U2" s="60" t="s">
         <v>105</v>
       </c>
-      <c r="V2" s="727" t="s">
+      <c r="V2" s="720" t="s">
         <v>120</v>
       </c>
-      <c r="W2" s="728"/>
+      <c r="W2" s="721"/>
       <c r="X2" s="64" t="s">
         <v>109</v>
       </c>
@@ -14070,7 +14070,7 @@
       <c r="AC2" s="117" t="s">
         <v>98</v>
       </c>
-      <c r="AD2" s="761"/>
+      <c r="AD2" s="754"/>
       <c r="AE2" s="64" t="s">
         <v>98</v>
       </c>
@@ -14089,8 +14089,8 @@
       <c r="E3" s="39" t="s">
         <v>79</v>
       </c>
-      <c r="F3" s="631"/>
-      <c r="G3" s="749"/>
+      <c r="F3" s="680"/>
+      <c r="G3" s="781"/>
       <c r="H3" s="40" t="s">
         <v>80</v>
       </c>
@@ -14101,13 +14101,13 @@
         <v>81</v>
       </c>
       <c r="N3" s="44"/>
-      <c r="O3" s="758" t="s">
+      <c r="O3" s="790" t="s">
         <v>44</v>
       </c>
-      <c r="P3" s="779" t="s">
+      <c r="P3" s="772" t="s">
         <v>218</v>
       </c>
-      <c r="Q3" s="780"/>
+      <c r="Q3" s="773"/>
       <c r="S3" s="57" t="s">
         <v>219</v>
       </c>
@@ -14117,15 +14117,15 @@
       <c r="W3" s="59" t="s">
         <v>104</v>
       </c>
-      <c r="AD3" s="761"/>
+      <c r="AD3" s="754"/>
     </row>
     <row r="4" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G4" s="749"/>
+      <c r="G4" s="781"/>
       <c r="H4" s="6"/>
       <c r="L4" s="688" t="s">
         <v>82</v>
       </c>
-      <c r="O4" s="759"/>
+      <c r="O4" s="791"/>
       <c r="T4" s="55" t="s">
         <v>97</v>
       </c>
@@ -14139,8 +14139,8 @@
         <v>194</v>
       </c>
       <c r="Z4" s="606"/>
-      <c r="AA4" s="684"/>
-      <c r="AD4" s="761"/>
+      <c r="AA4" s="628"/>
+      <c r="AD4" s="754"/>
     </row>
     <row r="5" spans="1:31" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C5" s="52" t="s">
@@ -14155,21 +14155,21 @@
       <c r="F5" s="66" t="s">
         <v>84</v>
       </c>
-      <c r="G5" s="749"/>
+      <c r="G5" s="781"/>
       <c r="H5" s="46" t="s">
         <v>75</v>
       </c>
-      <c r="K5" s="766" t="s">
+      <c r="K5" s="759" t="s">
         <v>216</v>
       </c>
-      <c r="L5" s="781"/>
+      <c r="L5" s="774"/>
       <c r="M5" s="2" t="s">
         <v>214</v>
       </c>
       <c r="N5" s="61" t="s">
         <v>213</v>
       </c>
-      <c r="O5" s="759"/>
+      <c r="O5" s="791"/>
       <c r="P5" s="108" t="s">
         <v>215</v>
       </c>
@@ -14185,11 +14185,11 @@
       <c r="U5" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="Y5" s="769" t="s">
+      <c r="Y5" s="762" t="s">
         <v>283</v>
       </c>
-      <c r="Z5" s="770"/>
-      <c r="AD5" s="761"/>
+      <c r="Z5" s="763"/>
+      <c r="AD5" s="754"/>
     </row>
     <row r="6" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C6" s="109"/>
@@ -14199,16 +14199,16 @@
       <c r="E6" s="45" t="s">
         <v>85</v>
       </c>
-      <c r="G6" s="749"/>
+      <c r="G6" s="781"/>
       <c r="H6" s="46" t="s">
         <v>80</v>
       </c>
       <c r="I6" s="23">
         <v>15</v>
       </c>
-      <c r="K6" s="767"/>
-      <c r="L6" s="781"/>
-      <c r="O6" s="759"/>
+      <c r="K6" s="760"/>
+      <c r="L6" s="774"/>
+      <c r="O6" s="791"/>
       <c r="T6" s="2" t="s">
         <v>100</v>
       </c>
@@ -14218,23 +14218,23 @@
       <c r="V6" s="21">
         <v>-1</v>
       </c>
-      <c r="AD6" s="761"/>
+      <c r="AD6" s="754"/>
     </row>
     <row r="7" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C7" s="110"/>
-      <c r="G7" s="749"/>
+      <c r="G7" s="781"/>
       <c r="H7" s="6"/>
-      <c r="K7" s="767"/>
-      <c r="L7" s="781"/>
+      <c r="K7" s="760"/>
+      <c r="L7" s="774"/>
       <c r="N7" s="21" t="s">
         <v>119</v>
       </c>
-      <c r="O7" s="759"/>
+      <c r="O7" s="791"/>
       <c r="P7" s="73"/>
       <c r="U7" s="104" t="s">
         <v>20</v>
       </c>
-      <c r="AD7" s="761"/>
+      <c r="AD7" s="754"/>
     </row>
     <row r="8" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C8" s="130"/>
@@ -14247,7 +14247,7 @@
       <c r="F8" s="66" t="s">
         <v>86</v>
       </c>
-      <c r="G8" s="749"/>
+      <c r="G8" s="781"/>
       <c r="H8" s="50" t="s">
         <v>75</v>
       </c>
@@ -14257,41 +14257,41 @@
       <c r="J8" s="111">
         <v>115</v>
       </c>
-      <c r="K8" s="767"/>
-      <c r="L8" s="781"/>
-      <c r="O8" s="759"/>
+      <c r="K8" s="760"/>
+      <c r="L8" s="774"/>
+      <c r="O8" s="791"/>
       <c r="P8" s="49"/>
-      <c r="S8" s="763" t="s">
+      <c r="S8" s="756" t="s">
         <v>211</v>
       </c>
-      <c r="T8" s="764"/>
-      <c r="U8" s="764"/>
-      <c r="V8" s="764"/>
-      <c r="W8" s="764"/>
-      <c r="X8" s="764"/>
-      <c r="Y8" s="764"/>
-      <c r="Z8" s="764"/>
-      <c r="AA8" s="764"/>
-      <c r="AB8" s="764"/>
-      <c r="AC8" s="765"/>
-      <c r="AD8" s="761"/>
+      <c r="T8" s="757"/>
+      <c r="U8" s="757"/>
+      <c r="V8" s="757"/>
+      <c r="W8" s="757"/>
+      <c r="X8" s="757"/>
+      <c r="Y8" s="757"/>
+      <c r="Z8" s="757"/>
+      <c r="AA8" s="757"/>
+      <c r="AB8" s="757"/>
+      <c r="AC8" s="758"/>
+      <c r="AD8" s="754"/>
     </row>
     <row r="9" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C9" s="785"/>
-      <c r="G9" s="749"/>
+      <c r="C9" s="746"/>
+      <c r="G9" s="781"/>
       <c r="H9" s="6"/>
-      <c r="K9" s="767"/>
-      <c r="L9" s="752" t="s">
+      <c r="K9" s="760"/>
+      <c r="L9" s="784" t="s">
         <v>217</v>
       </c>
-      <c r="M9" s="753"/>
-      <c r="N9" s="754"/>
-      <c r="O9" s="759"/>
+      <c r="M9" s="785"/>
+      <c r="N9" s="786"/>
+      <c r="O9" s="791"/>
       <c r="P9" s="75"/>
-      <c r="AD9" s="761"/>
+      <c r="AD9" s="754"/>
     </row>
     <row r="10" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C10" s="786"/>
+      <c r="C10" s="747"/>
       <c r="D10" s="23"/>
       <c r="E10" s="45" t="s">
         <v>87</v>
@@ -14299,7 +14299,7 @@
       <c r="F10" s="66" t="s">
         <v>88</v>
       </c>
-      <c r="G10" s="749"/>
+      <c r="G10" s="781"/>
       <c r="H10" s="51"/>
       <c r="I10" s="21" t="s">
         <v>80</v>
@@ -14307,33 +14307,33 @@
       <c r="J10" s="3">
         <v>15</v>
       </c>
-      <c r="K10" s="767"/>
-      <c r="M10" s="788" t="s">
+      <c r="K10" s="760"/>
+      <c r="M10" s="749" t="s">
         <v>89</v>
       </c>
-      <c r="N10" s="789"/>
-      <c r="O10" s="789"/>
-      <c r="P10" s="789"/>
-      <c r="Q10" s="789"/>
-      <c r="R10" s="789"/>
-      <c r="S10" s="789"/>
-      <c r="T10" s="789"/>
-      <c r="U10" s="789"/>
-      <c r="V10" s="789"/>
-      <c r="W10" s="789"/>
-      <c r="X10" s="789"/>
-      <c r="Y10" s="789"/>
-      <c r="Z10" s="789"/>
-      <c r="AA10" s="789"/>
-      <c r="AB10" s="789"/>
-      <c r="AC10" s="790"/>
-      <c r="AD10" s="761"/>
+      <c r="N10" s="750"/>
+      <c r="O10" s="750"/>
+      <c r="P10" s="750"/>
+      <c r="Q10" s="750"/>
+      <c r="R10" s="750"/>
+      <c r="S10" s="750"/>
+      <c r="T10" s="750"/>
+      <c r="U10" s="750"/>
+      <c r="V10" s="750"/>
+      <c r="W10" s="750"/>
+      <c r="X10" s="750"/>
+      <c r="Y10" s="750"/>
+      <c r="Z10" s="750"/>
+      <c r="AA10" s="750"/>
+      <c r="AB10" s="750"/>
+      <c r="AC10" s="751"/>
+      <c r="AD10" s="754"/>
     </row>
     <row r="11" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C11" s="787"/>
-      <c r="G11" s="749"/>
+      <c r="C11" s="748"/>
+      <c r="G11" s="781"/>
       <c r="H11" s="6"/>
-      <c r="K11" s="767"/>
+      <c r="K11" s="760"/>
       <c r="R11" s="52" t="s">
         <v>44</v>
       </c>
@@ -14341,17 +14341,17 @@
       <c r="Y11" s="68" t="s">
         <v>120</v>
       </c>
-      <c r="Z11" s="777" t="s">
+      <c r="Z11" s="770" t="s">
         <v>120</v>
       </c>
-      <c r="AA11" s="778"/>
+      <c r="AA11" s="771"/>
       <c r="AB11" s="52" t="s">
         <v>44</v>
       </c>
       <c r="AC11" s="118" t="s">
         <v>120</v>
       </c>
-      <c r="AD11" s="761"/>
+      <c r="AD11" s="754"/>
     </row>
     <row r="12" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C12" s="129"/>
@@ -14364,7 +14364,7 @@
       <c r="F12" s="66" t="s">
         <v>91</v>
       </c>
-      <c r="G12" s="749"/>
+      <c r="G12" s="781"/>
       <c r="H12" s="128"/>
       <c r="I12" s="19" t="s">
         <v>80</v>
@@ -14372,8 +14372,8 @@
       <c r="J12" s="3">
         <v>15</v>
       </c>
-      <c r="K12" s="767"/>
-      <c r="L12" s="782" t="s">
+      <c r="K12" s="760"/>
+      <c r="L12" s="775" t="s">
         <v>92</v>
       </c>
       <c r="M12" s="21" t="s">
@@ -14404,25 +14404,25 @@
         <v>115</v>
       </c>
       <c r="Y12" s="6"/>
-      <c r="AA12" s="771" t="s">
+      <c r="AA12" s="764" t="s">
         <v>125</v>
       </c>
-      <c r="AB12" s="772"/>
+      <c r="AB12" s="765"/>
       <c r="AC12" s="21" t="s">
         <v>231</v>
       </c>
-      <c r="AD12" s="761"/>
+      <c r="AD12" s="754"/>
     </row>
     <row r="13" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C13" s="785"/>
-      <c r="G13" s="749"/>
-      <c r="K13" s="767"/>
-      <c r="L13" s="783"/>
+      <c r="C13" s="746"/>
+      <c r="G13" s="781"/>
+      <c r="K13" s="760"/>
+      <c r="L13" s="776"/>
       <c r="M13" s="47"/>
-      <c r="Q13" s="751" t="s">
+      <c r="Q13" s="783" t="s">
         <v>209</v>
       </c>
-      <c r="R13" s="640"/>
+      <c r="R13" s="645"/>
       <c r="S13" s="600"/>
       <c r="T13" s="6"/>
       <c r="U13" s="96" t="s">
@@ -14431,17 +14431,17 @@
       <c r="X13" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="AA13" s="773"/>
-      <c r="AB13" s="774"/>
-      <c r="AD13" s="761"/>
+      <c r="AA13" s="766"/>
+      <c r="AB13" s="767"/>
+      <c r="AD13" s="754"/>
     </row>
     <row r="14" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="C14" s="787"/>
+      <c r="C14" s="748"/>
       <c r="D14" s="23"/>
-      <c r="G14" s="749"/>
+      <c r="G14" s="781"/>
       <c r="H14" s="125"/>
       <c r="I14" s="99" t="s">
         <v>44</v>
@@ -14449,8 +14449,8 @@
       <c r="J14" s="111">
         <v>115</v>
       </c>
-      <c r="K14" s="767"/>
-      <c r="L14" s="783"/>
+      <c r="K14" s="760"/>
+      <c r="L14" s="776"/>
       <c r="M14" s="21" t="s">
         <v>110</v>
       </c>
@@ -14471,9 +14471,9 @@
       <c r="Y14" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="AA14" s="773"/>
-      <c r="AB14" s="774"/>
-      <c r="AD14" s="761"/>
+      <c r="AA14" s="766"/>
+      <c r="AB14" s="767"/>
+      <c r="AD14" s="754"/>
     </row>
     <row r="15" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C15" s="130" t="s">
@@ -14488,19 +14488,19 @@
       <c r="F15" s="66" t="s">
         <v>93</v>
       </c>
-      <c r="G15" s="749"/>
+      <c r="G15" s="781"/>
       <c r="H15" s="2" t="s">
         <v>80</v>
       </c>
       <c r="I15" s="53" t="s">
         <v>80</v>
       </c>
-      <c r="K15" s="767"/>
-      <c r="L15" s="784"/>
-      <c r="Q15" s="751" t="s">
+      <c r="K15" s="760"/>
+      <c r="L15" s="777"/>
+      <c r="Q15" s="783" t="s">
         <v>210</v>
       </c>
-      <c r="R15" s="640"/>
+      <c r="R15" s="645"/>
       <c r="S15" s="600"/>
       <c r="T15" s="6"/>
       <c r="V15" s="68" t="s">
@@ -14509,14 +14509,14 @@
       <c r="X15" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="AA15" s="773"/>
-      <c r="AB15" s="774"/>
-      <c r="AD15" s="761"/>
+      <c r="AA15" s="766"/>
+      <c r="AB15" s="767"/>
+      <c r="AD15" s="754"/>
     </row>
     <row r="16" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C16" s="132"/>
-      <c r="G16" s="749"/>
-      <c r="K16" s="767"/>
+      <c r="G16" s="781"/>
+      <c r="K16" s="760"/>
       <c r="N16" s="47"/>
       <c r="O16" s="61" t="s">
         <v>108</v>
@@ -14535,24 +14535,24 @@
       <c r="Z16" s="76" t="s">
         <v>126</v>
       </c>
-      <c r="AA16" s="773"/>
-      <c r="AB16" s="774"/>
-      <c r="AD16" s="761"/>
+      <c r="AA16" s="766"/>
+      <c r="AB16" s="767"/>
+      <c r="AD16" s="754"/>
     </row>
     <row r="17" spans="3:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C17" s="109"/>
       <c r="E17" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="F17" s="746" t="s">
+      <c r="F17" s="778" t="s">
         <v>95</v>
       </c>
-      <c r="G17" s="749"/>
+      <c r="G17" s="781"/>
       <c r="H17" s="54"/>
       <c r="I17" s="133" t="s">
         <v>80</v>
       </c>
-      <c r="K17" s="767"/>
+      <c r="K17" s="760"/>
       <c r="S17" s="600"/>
       <c r="V17" s="68" t="s">
         <v>44</v>
@@ -14560,9 +14560,9 @@
       <c r="X17" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="AA17" s="773"/>
-      <c r="AB17" s="774"/>
-      <c r="AD17" s="761"/>
+      <c r="AA17" s="766"/>
+      <c r="AB17" s="767"/>
+      <c r="AD17" s="754"/>
     </row>
     <row r="18" spans="3:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C18" s="130"/>
@@ -14572,15 +14572,15 @@
       <c r="E18" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="F18" s="747"/>
-      <c r="G18" s="749"/>
+      <c r="F18" s="779"/>
+      <c r="G18" s="781"/>
       <c r="H18" s="108" t="s">
         <v>75</v>
       </c>
       <c r="I18" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="K18" s="767"/>
+      <c r="K18" s="760"/>
       <c r="O18" s="64" t="s">
         <v>114</v>
       </c>
@@ -14591,39 +14591,42 @@
       <c r="X18" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="AA18" s="775"/>
-      <c r="AB18" s="776"/>
-      <c r="AD18" s="761"/>
+      <c r="AA18" s="768"/>
+      <c r="AB18" s="769"/>
+      <c r="AD18" s="754"/>
     </row>
     <row r="19" spans="3:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F19" s="64" t="s">
         <v>208</v>
       </c>
-      <c r="G19" s="750"/>
-      <c r="K19" s="768"/>
+      <c r="G19" s="782"/>
+      <c r="K19" s="761"/>
       <c r="Q19" s="68" t="s">
         <v>44</v>
       </c>
-      <c r="R19" s="755" t="s">
+      <c r="R19" s="787" t="s">
         <v>123</v>
       </c>
-      <c r="S19" s="756"/>
-      <c r="T19" s="757"/>
+      <c r="S19" s="788"/>
+      <c r="T19" s="789"/>
       <c r="V19" s="77" t="s">
         <v>114</v>
       </c>
       <c r="Y19" s="19" t="s">
         <v>124</v>
       </c>
-      <c r="AD19" s="762"/>
+      <c r="AD19" s="755"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="C9:C11"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="V2:W2"/>
-    <mergeCell ref="M10:AC10"/>
-    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="G2:G19"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="L9:N9"/>
+    <mergeCell ref="R19:T19"/>
+    <mergeCell ref="S12:S18"/>
+    <mergeCell ref="O3:O9"/>
     <mergeCell ref="AD1:AD19"/>
     <mergeCell ref="S8:AC8"/>
     <mergeCell ref="K5:K19"/>
@@ -14635,14 +14638,11 @@
     <mergeCell ref="P3:Q3"/>
     <mergeCell ref="L4:L8"/>
     <mergeCell ref="L12:L15"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="G2:G19"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="L9:N9"/>
-    <mergeCell ref="R19:T19"/>
-    <mergeCell ref="S12:S18"/>
-    <mergeCell ref="O3:O9"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="V2:W2"/>
+    <mergeCell ref="M10:AC10"/>
+    <mergeCell ref="F2:F3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/System_2.1.8.xlsx
+++ b/System_2.1.8.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Work_For_\Work\Running AppS\System_Work_RW\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0F5DBB7-A32D-4B34-ABCC-DF9419DF6658}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F4D35F1-A2F5-4DE3-A6BA-AA4B9CAA26B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BoardRW" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1131" uniqueCount="632">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1132" uniqueCount="633">
   <si>
     <t>Zone</t>
   </si>
@@ -1913,12 +1913,6 @@
     <t>AT - CT_WLFJN_X_N-10_X_Left</t>
   </si>
   <si>
-    <t>3M26F</t>
-  </si>
-  <si>
-    <t>14F Reserved</t>
-  </si>
-  <si>
     <t>bharat24</t>
   </si>
   <si>
@@ -1935,6 +1929,15 @@
   </si>
   <si>
     <t>Aaj Tak</t>
+  </si>
+  <si>
+    <t>3M8F</t>
+  </si>
+  <si>
+    <t>8F Reserved</t>
+  </si>
+  <si>
+    <t>5F Reserved</t>
   </si>
 </sst>
 </file>
@@ -5060,6 +5063,186 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="73" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="27" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="27" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="36" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="36" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="49" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="49" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="49" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="19" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5072,12 +5255,6 @@
     <xf numFmtId="0" fontId="17" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5089,12 +5266,6 @@
     </xf>
     <xf numFmtId="0" fontId="38" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
@@ -5117,190 +5288,61 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="27" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="27" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="27" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="27" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="13" fillId="27" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="27" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="27" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="49" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="49" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="49" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="73" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="13" fillId="27" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="13" fillId="27" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="36" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="36" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5342,43 +5384,25 @@
     <xf numFmtId="0" fontId="39" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="27" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="27" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="27" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="13" fillId="27" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="13" fillId="27" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="27" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="27" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="36" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="36" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="43" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5447,46 +5471,46 @@
     <xf numFmtId="14" fontId="5" fillId="14" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="35" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="35" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="35" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5564,46 +5588,25 @@
     <xf numFmtId="0" fontId="3" fillId="21" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -5902,7 +5905,7 @@
   <dimension ref="B1:X28"/>
   <sheetViews>
     <sheetView topLeftCell="B9" workbookViewId="0">
-      <selection activeCell="X7" sqref="X7"/>
+      <selection activeCell="X18" sqref="X18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6675,7 +6678,7 @@
       <c r="P22" s="315"/>
       <c r="T22" s="608"/>
       <c r="X22" s="19" t="s">
-        <v>625</v>
+        <v>632</v>
       </c>
     </row>
     <row r="23" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6748,7 +6751,9 @@
       <c r="P24" s="516"/>
       <c r="S24" s="80"/>
       <c r="T24" s="608"/>
-      <c r="X24" s="19"/>
+      <c r="X24" s="19" t="s">
+        <v>631</v>
+      </c>
     </row>
     <row r="25" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B25" s="3" t="s">
@@ -6824,7 +6829,7 @@
       <c r="P26" s="315"/>
       <c r="T26" s="608"/>
       <c r="V26" s="517" t="s">
-        <v>624</v>
+        <v>630</v>
       </c>
     </row>
     <row r="27" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6994,7 +6999,7 @@
       <c r="H1" s="97" t="s">
         <v>344</v>
       </c>
-      <c r="I1" s="614" t="s">
+      <c r="I1" s="660" t="s">
         <v>370</v>
       </c>
       <c r="J1" s="2" t="s">
@@ -7030,7 +7035,7 @@
       <c r="X1" s="433" t="s">
         <v>155</v>
       </c>
-      <c r="Y1" s="658" t="s">
+      <c r="Y1" s="654" t="s">
         <v>530</v>
       </c>
       <c r="Z1" s="409">
@@ -7055,7 +7060,7 @@
         <v>499</v>
       </c>
       <c r="AM1" s="405"/>
-      <c r="AN1" s="641"/>
+      <c r="AN1" s="636"/>
       <c r="AO1" s="340" t="s">
         <v>470</v>
       </c>
@@ -7064,23 +7069,23 @@
       </c>
     </row>
     <row r="2" spans="1:43" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="667">
+      <c r="A2" s="618">
         <f ca="1">TODAY()</f>
         <v>45284</v>
       </c>
-      <c r="B2" s="669" t="s">
+      <c r="B2" s="620" t="s">
         <v>371</v>
       </c>
-      <c r="C2" s="646" t="s">
+      <c r="C2" s="616" t="s">
         <v>358</v>
       </c>
-      <c r="D2" s="671" t="s">
+      <c r="D2" s="622" t="s">
         <v>356</v>
       </c>
-      <c r="E2" s="610" t="s">
+      <c r="E2" s="670" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="620" t="s">
+      <c r="F2" s="641" t="s">
         <v>102</v>
       </c>
       <c r="G2" s="396" t="s">
@@ -7089,31 +7094,31 @@
       <c r="H2" s="80" t="s">
         <v>33</v>
       </c>
-      <c r="I2" s="615"/>
+      <c r="I2" s="661"/>
       <c r="J2" s="81" t="s">
         <v>76</v>
       </c>
-      <c r="K2" s="612" t="s">
+      <c r="K2" s="672" t="s">
         <v>343</v>
       </c>
-      <c r="L2" s="613"/>
-      <c r="M2" s="620" t="s">
+      <c r="L2" s="673"/>
+      <c r="M2" s="641" t="s">
         <v>102</v>
       </c>
       <c r="N2" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="O2" s="650" t="s">
+      <c r="O2" s="645" t="s">
         <v>102</v>
       </c>
       <c r="P2" s="85" t="s">
         <v>147</v>
       </c>
-      <c r="Q2" s="646" t="s">
+      <c r="Q2" s="616" t="s">
         <v>143</v>
       </c>
       <c r="R2" s="599"/>
-      <c r="S2" s="635" t="s">
+      <c r="S2" s="658" t="s">
         <v>148</v>
       </c>
       <c r="T2" s="89"/>
@@ -7123,7 +7128,7 @@
       <c r="X2" s="434" t="s">
         <v>156</v>
       </c>
-      <c r="Y2" s="659"/>
+      <c r="Y2" s="655"/>
       <c r="Z2" s="410">
         <v>1</v>
       </c>
@@ -7146,15 +7151,15 @@
         <v>464</v>
       </c>
       <c r="AM2" s="431"/>
-      <c r="AN2" s="642"/>
+      <c r="AN2" s="637"/>
     </row>
     <row r="3" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="668"/>
-      <c r="B3" s="670"/>
-      <c r="C3" s="647"/>
-      <c r="D3" s="672"/>
-      <c r="E3" s="611"/>
-      <c r="F3" s="621"/>
+      <c r="A3" s="619"/>
+      <c r="B3" s="621"/>
+      <c r="C3" s="617"/>
+      <c r="D3" s="623"/>
+      <c r="E3" s="671"/>
+      <c r="F3" s="642"/>
       <c r="G3" s="397" t="s">
         <v>28</v>
       </c>
@@ -7173,17 +7178,17 @@
       <c r="L3" s="203" t="s">
         <v>107</v>
       </c>
-      <c r="M3" s="621"/>
+      <c r="M3" s="642"/>
       <c r="N3" s="69" t="s">
         <v>146</v>
       </c>
-      <c r="O3" s="651"/>
+      <c r="O3" s="646"/>
       <c r="P3" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="Q3" s="647"/>
+      <c r="Q3" s="617"/>
       <c r="R3" s="601"/>
-      <c r="S3" s="637"/>
+      <c r="S3" s="659"/>
       <c r="T3" s="89"/>
       <c r="U3" s="124"/>
       <c r="V3" s="120"/>
@@ -7191,7 +7196,7 @@
       <c r="X3" s="434" t="s">
         <v>157</v>
       </c>
-      <c r="Y3" s="659"/>
+      <c r="Y3" s="655"/>
       <c r="Z3" s="411">
         <v>1</v>
       </c>
@@ -7200,7 +7205,7 @@
       <c r="AC3" s="100" t="s">
         <v>481</v>
       </c>
-      <c r="AD3" s="632" t="s">
+      <c r="AD3" s="657" t="s">
         <v>456</v>
       </c>
       <c r="AE3" s="259"/>
@@ -7212,16 +7217,16 @@
       <c r="AK3" s="259"/>
       <c r="AL3" s="16"/>
       <c r="AM3" s="431"/>
-      <c r="AN3" s="642"/>
+      <c r="AN3" s="637"/>
     </row>
     <row r="4" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="240" t="s">
         <v>183</v>
       </c>
-      <c r="B4" s="683" t="s">
+      <c r="B4" s="634" t="s">
         <v>374</v>
       </c>
-      <c r="C4" s="646" t="s">
+      <c r="C4" s="616" t="s">
         <v>154</v>
       </c>
       <c r="D4" s="349" t="s">
@@ -7230,7 +7235,7 @@
       <c r="E4" s="380">
         <v>2</v>
       </c>
-      <c r="F4" s="621"/>
+      <c r="F4" s="642"/>
       <c r="G4" s="383" t="s">
         <v>202</v>
       </c>
@@ -7247,11 +7252,11 @@
         <v>150</v>
       </c>
       <c r="L4" s="206"/>
-      <c r="M4" s="621"/>
+      <c r="M4" s="642"/>
       <c r="N4" s="176" t="s">
         <v>69</v>
       </c>
-      <c r="O4" s="651"/>
+      <c r="O4" s="646"/>
       <c r="P4" s="2" t="s">
         <v>191</v>
       </c>
@@ -7273,12 +7278,12 @@
       <c r="X4" s="434" t="s">
         <v>158</v>
       </c>
-      <c r="Y4" s="659"/>
+      <c r="Y4" s="655"/>
       <c r="Z4" s="412"/>
       <c r="AA4" s="309"/>
       <c r="AB4" s="211"/>
       <c r="AC4" s="16"/>
-      <c r="AD4" s="632"/>
+      <c r="AD4" s="657"/>
       <c r="AE4" s="259"/>
       <c r="AF4" s="259"/>
       <c r="AG4" s="16"/>
@@ -7288,37 +7293,37 @@
       <c r="AK4" s="259"/>
       <c r="AL4" s="16"/>
       <c r="AM4" s="431"/>
-      <c r="AN4" s="642"/>
+      <c r="AN4" s="637"/>
       <c r="AO4" s="340" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="614" t="s">
+      <c r="A5" s="660" t="s">
         <v>419</v>
       </c>
-      <c r="B5" s="684"/>
-      <c r="C5" s="647"/>
+      <c r="B5" s="635"/>
+      <c r="C5" s="617"/>
       <c r="D5" s="61" t="s">
         <v>153</v>
       </c>
       <c r="E5" s="381">
         <v>1</v>
       </c>
-      <c r="F5" s="621"/>
-      <c r="G5" s="675" t="s">
+      <c r="F5" s="642"/>
+      <c r="G5" s="626" t="s">
         <v>192</v>
       </c>
-      <c r="H5" s="675"/>
-      <c r="I5" s="675"/>
-      <c r="J5" s="675"/>
-      <c r="K5" s="675"/>
-      <c r="L5" s="676"/>
-      <c r="M5" s="621"/>
+      <c r="H5" s="626"/>
+      <c r="I5" s="626"/>
+      <c r="J5" s="626"/>
+      <c r="K5" s="626"/>
+      <c r="L5" s="627"/>
+      <c r="M5" s="642"/>
       <c r="N5" s="21">
         <v>8</v>
       </c>
-      <c r="O5" s="651"/>
+      <c r="O5" s="646"/>
       <c r="T5" s="89"/>
       <c r="U5" s="124"/>
       <c r="V5" s="120"/>
@@ -7326,7 +7331,7 @@
       <c r="X5" s="434" t="s">
         <v>159</v>
       </c>
-      <c r="Y5" s="659"/>
+      <c r="Y5" s="655"/>
       <c r="Z5" s="412">
         <v>1</v>
       </c>
@@ -7349,24 +7354,24 @@
       <c r="AK5" s="259"/>
       <c r="AL5" s="80"/>
       <c r="AM5" s="431"/>
-      <c r="AN5" s="642"/>
+      <c r="AN5" s="637"/>
     </row>
     <row r="6" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="615"/>
-      <c r="B6" s="681" t="s">
+      <c r="A6" s="661"/>
+      <c r="B6" s="632" t="s">
         <v>177</v>
       </c>
-      <c r="C6" s="629"/>
-      <c r="D6" s="630"/>
-      <c r="F6" s="621"/>
-      <c r="G6" s="677"/>
-      <c r="H6" s="677"/>
-      <c r="I6" s="677"/>
-      <c r="J6" s="677"/>
-      <c r="K6" s="677"/>
-      <c r="L6" s="678"/>
-      <c r="M6" s="621"/>
-      <c r="O6" s="651"/>
+      <c r="C6" s="662"/>
+      <c r="D6" s="663"/>
+      <c r="F6" s="642"/>
+      <c r="G6" s="628"/>
+      <c r="H6" s="628"/>
+      <c r="I6" s="628"/>
+      <c r="J6" s="628"/>
+      <c r="K6" s="628"/>
+      <c r="L6" s="629"/>
+      <c r="M6" s="642"/>
+      <c r="O6" s="646"/>
       <c r="T6" s="89"/>
       <c r="U6" s="124"/>
       <c r="V6" s="98" t="s">
@@ -7376,7 +7381,7 @@
       <c r="X6" s="434" t="s">
         <v>160</v>
       </c>
-      <c r="Y6" s="659"/>
+      <c r="Y6" s="655"/>
       <c r="Z6" s="410">
         <v>1</v>
       </c>
@@ -7390,16 +7395,16 @@
       <c r="AF6" s="259"/>
       <c r="AG6" s="259"/>
       <c r="AH6" s="259"/>
-      <c r="AI6" s="631"/>
+      <c r="AI6" s="651"/>
       <c r="AJ6" s="444" t="s">
         <v>459</v>
       </c>
-      <c r="AK6" s="631" t="s">
+      <c r="AK6" s="651" t="s">
         <v>252</v>
       </c>
       <c r="AL6" s="259"/>
       <c r="AM6" s="431"/>
-      <c r="AN6" s="642"/>
+      <c r="AN6" s="637"/>
       <c r="AO6" s="340" t="s">
         <v>471</v>
       </c>
@@ -7408,7 +7413,7 @@
       <c r="A7" s="234" t="s">
         <v>574</v>
       </c>
-      <c r="B7" s="682"/>
+      <c r="B7" s="633"/>
       <c r="C7" s="204" t="s">
         <v>375</v>
       </c>
@@ -7418,7 +7423,7 @@
       <c r="E7" s="267">
         <v>3</v>
       </c>
-      <c r="F7" s="621"/>
+      <c r="F7" s="642"/>
       <c r="G7" s="398">
         <v>0</v>
       </c>
@@ -7437,8 +7442,8 @@
       <c r="L7" s="214">
         <v>0</v>
       </c>
-      <c r="M7" s="621"/>
-      <c r="O7" s="651"/>
+      <c r="M7" s="642"/>
+      <c r="O7" s="646"/>
       <c r="R7" s="99" t="s">
         <v>44</v>
       </c>
@@ -7452,7 +7457,7 @@
       <c r="X7" s="434" t="s">
         <v>161</v>
       </c>
-      <c r="Y7" s="659"/>
+      <c r="Y7" s="655"/>
       <c r="Z7" s="410">
         <v>1</v>
       </c>
@@ -7462,18 +7467,18 @@
       <c r="AD7" s="16"/>
       <c r="AE7" s="259"/>
       <c r="AF7" s="259"/>
-      <c r="AG7" s="632" t="s">
+      <c r="AG7" s="657" t="s">
         <v>455</v>
       </c>
       <c r="AH7" s="259"/>
-      <c r="AI7" s="631"/>
+      <c r="AI7" s="651"/>
       <c r="AJ7" s="259"/>
-      <c r="AK7" s="631"/>
+      <c r="AK7" s="651"/>
       <c r="AL7" s="80" t="s">
         <v>497</v>
       </c>
       <c r="AM7" s="431"/>
-      <c r="AN7" s="642"/>
+      <c r="AN7" s="637"/>
       <c r="AP7" s="76" t="s">
         <v>472</v>
       </c>
@@ -7490,27 +7495,27 @@
         <f>SUM(G7:N9)</f>
         <v>15</v>
       </c>
-      <c r="F8" s="621"/>
-      <c r="G8" s="676">
-        <v>0</v>
-      </c>
-      <c r="H8" s="673" t="s">
+      <c r="F8" s="642"/>
+      <c r="G8" s="627">
+        <v>0</v>
+      </c>
+      <c r="H8" s="624" t="s">
         <v>104</v>
       </c>
       <c r="I8" s="599">
         <v>0</v>
       </c>
-      <c r="J8" s="673" t="s">
+      <c r="J8" s="624" t="s">
         <v>104</v>
       </c>
-      <c r="K8" s="679"/>
-      <c r="L8" s="633"/>
-      <c r="M8" s="648"/>
-      <c r="N8" s="638">
+      <c r="K8" s="630"/>
+      <c r="L8" s="664"/>
+      <c r="M8" s="643"/>
+      <c r="N8" s="667">
         <f>N5+N11</f>
         <v>15</v>
       </c>
-      <c r="O8" s="651"/>
+      <c r="O8" s="646"/>
       <c r="T8" s="103" t="s">
         <v>44</v>
       </c>
@@ -7520,7 +7525,7 @@
       <c r="X8" s="434" t="s">
         <v>162</v>
       </c>
-      <c r="Y8" s="659"/>
+      <c r="Y8" s="655"/>
       <c r="Z8" s="412"/>
       <c r="AA8" s="309"/>
       <c r="AB8" s="211"/>
@@ -7528,14 +7533,14 @@
       <c r="AD8" s="16"/>
       <c r="AE8" s="259"/>
       <c r="AF8" s="259"/>
-      <c r="AG8" s="632"/>
+      <c r="AG8" s="657"/>
       <c r="AH8" s="259"/>
-      <c r="AI8" s="631"/>
+      <c r="AI8" s="651"/>
       <c r="AJ8" s="259"/>
       <c r="AK8" s="259"/>
       <c r="AL8" s="259"/>
       <c r="AM8" s="431"/>
-      <c r="AN8" s="642"/>
+      <c r="AN8" s="637"/>
     </row>
     <row r="9" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="234" t="s">
@@ -7550,17 +7555,17 @@
       <c r="D9" s="350" t="s">
         <v>282</v>
       </c>
-      <c r="F9" s="621"/>
-      <c r="G9" s="678"/>
-      <c r="H9" s="674"/>
+      <c r="F9" s="642"/>
+      <c r="G9" s="629"/>
+      <c r="H9" s="625"/>
       <c r="I9" s="601"/>
-      <c r="J9" s="674"/>
-      <c r="K9" s="680"/>
-      <c r="L9" s="634"/>
-      <c r="M9" s="649"/>
-      <c r="N9" s="639"/>
-      <c r="O9" s="652"/>
-      <c r="S9" s="635" t="s">
+      <c r="J9" s="625"/>
+      <c r="K9" s="631"/>
+      <c r="L9" s="665"/>
+      <c r="M9" s="644"/>
+      <c r="N9" s="668"/>
+      <c r="O9" s="647"/>
+      <c r="S9" s="658" t="s">
         <v>61</v>
       </c>
       <c r="T9" s="89"/>
@@ -7572,7 +7577,7 @@
       <c r="X9" s="434" t="s">
         <v>163</v>
       </c>
-      <c r="Y9" s="659"/>
+      <c r="Y9" s="655"/>
       <c r="Z9" s="413"/>
       <c r="AA9" s="309"/>
       <c r="AB9" s="211"/>
@@ -7582,16 +7587,16 @@
       </c>
       <c r="AE9" s="259"/>
       <c r="AF9" s="259"/>
-      <c r="AG9" s="632"/>
+      <c r="AG9" s="657"/>
       <c r="AH9" s="259"/>
-      <c r="AI9" s="631"/>
+      <c r="AI9" s="651"/>
       <c r="AJ9" s="80"/>
-      <c r="AK9" s="631" t="s">
+      <c r="AK9" s="651" t="s">
         <v>252</v>
       </c>
       <c r="AL9" s="259"/>
       <c r="AM9" s="431"/>
-      <c r="AN9" s="642"/>
+      <c r="AN9" s="637"/>
       <c r="AP9" s="2" t="s">
         <v>509</v>
       </c>
@@ -7608,20 +7613,20 @@
         <f>Boat!W8</f>
         <v>36</v>
       </c>
-      <c r="F10" s="621"/>
+      <c r="F10" s="642"/>
       <c r="N10" s="421" t="s">
         <v>397</v>
       </c>
-      <c r="O10" s="623" t="s">
+      <c r="O10" s="679" t="s">
         <v>102</v>
       </c>
-      <c r="P10" s="653" t="s">
+      <c r="P10" s="648" t="s">
         <v>401</v>
       </c>
       <c r="R10" s="74" t="s">
         <v>44</v>
       </c>
-      <c r="S10" s="636"/>
+      <c r="S10" s="666"/>
       <c r="T10" s="89"/>
       <c r="U10" s="123" t="s">
         <v>176</v>
@@ -7633,7 +7638,7 @@
       <c r="X10" s="434" t="s">
         <v>164</v>
       </c>
-      <c r="Y10" s="659"/>
+      <c r="Y10" s="655"/>
       <c r="Z10" s="412">
         <v>0</v>
       </c>
@@ -7651,16 +7656,16 @@
       <c r="AF10" s="240" t="s">
         <v>312</v>
       </c>
-      <c r="AG10" s="632"/>
+      <c r="AG10" s="657"/>
       <c r="AH10" s="80"/>
-      <c r="AI10" s="631"/>
+      <c r="AI10" s="651"/>
       <c r="AJ10" s="259"/>
-      <c r="AK10" s="631"/>
+      <c r="AK10" s="651"/>
       <c r="AL10" s="259"/>
       <c r="AM10" s="445" t="s">
         <v>319</v>
       </c>
-      <c r="AN10" s="642"/>
+      <c r="AN10" s="637"/>
       <c r="AO10" s="206" t="s">
         <v>94</v>
       </c>
@@ -7678,18 +7683,18 @@
       <c r="D11" s="172" t="s">
         <v>356</v>
       </c>
-      <c r="F11" s="621"/>
+      <c r="F11" s="642"/>
       <c r="M11" s="6"/>
       <c r="N11" s="117">
         <v>7</v>
       </c>
-      <c r="O11" s="624"/>
-      <c r="P11" s="654"/>
+      <c r="O11" s="680"/>
+      <c r="P11" s="649"/>
       <c r="Q11" s="65"/>
       <c r="R11" s="120" t="s">
         <v>221</v>
       </c>
-      <c r="S11" s="636"/>
+      <c r="S11" s="666"/>
       <c r="T11" s="102" t="s">
         <v>44</v>
       </c>
@@ -7699,7 +7704,7 @@
       <c r="X11" s="434" t="s">
         <v>165</v>
       </c>
-      <c r="Y11" s="659"/>
+      <c r="Y11" s="655"/>
       <c r="Z11" s="412"/>
       <c r="AA11" s="309">
         <v>1</v>
@@ -7713,14 +7718,14 @@
       <c r="AF11" s="259" t="s">
         <v>477</v>
       </c>
-      <c r="AG11" s="632"/>
+      <c r="AG11" s="657"/>
       <c r="AH11" s="259"/>
       <c r="AI11" s="70"/>
       <c r="AJ11" s="259"/>
       <c r="AK11" s="259"/>
       <c r="AL11" s="259"/>
       <c r="AM11" s="431"/>
-      <c r="AN11" s="642"/>
+      <c r="AN11" s="637"/>
       <c r="AP11" s="76" t="s">
         <v>485</v>
       </c>
@@ -7739,7 +7744,7 @@
       <c r="E12" s="226">
         <v>3</v>
       </c>
-      <c r="F12" s="621"/>
+      <c r="F12" s="642"/>
       <c r="G12" s="339" t="s">
         <v>401</v>
       </c>
@@ -7748,16 +7753,16 @@
       </c>
       <c r="I12" s="606"/>
       <c r="J12" s="606"/>
-      <c r="K12" s="628"/>
+      <c r="K12" s="684"/>
       <c r="L12" s="205"/>
       <c r="M12" s="205"/>
       <c r="N12" s="205"/>
-      <c r="O12" s="624"/>
-      <c r="P12" s="654"/>
+      <c r="O12" s="680"/>
+      <c r="P12" s="649"/>
       <c r="R12" s="122" t="s">
         <v>180</v>
       </c>
-      <c r="S12" s="637"/>
+      <c r="S12" s="659"/>
       <c r="T12" s="101" t="s">
         <v>44</v>
       </c>
@@ -7767,7 +7772,7 @@
       <c r="X12" s="434" t="s">
         <v>166</v>
       </c>
-      <c r="Y12" s="659"/>
+      <c r="Y12" s="655"/>
       <c r="Z12" s="410">
         <v>1</v>
       </c>
@@ -7778,16 +7783,16 @@
       <c r="AC12" s="100" t="s">
         <v>482</v>
       </c>
-      <c r="AD12" s="640" t="s">
+      <c r="AD12" s="669" t="s">
         <v>241</v>
       </c>
       <c r="AE12" s="444" t="s">
         <v>240</v>
       </c>
-      <c r="AF12" s="632" t="s">
+      <c r="AF12" s="657" t="s">
         <v>229</v>
       </c>
-      <c r="AG12" s="632"/>
+      <c r="AG12" s="657"/>
       <c r="AH12" s="240" t="s">
         <v>260</v>
       </c>
@@ -7797,10 +7802,10 @@
       <c r="AJ12" s="259"/>
       <c r="AK12" s="259"/>
       <c r="AL12" s="259"/>
-      <c r="AM12" s="656" t="s">
+      <c r="AM12" s="652" t="s">
         <v>250</v>
       </c>
-      <c r="AN12" s="642"/>
+      <c r="AN12" s="637"/>
       <c r="AO12" s="340" t="s">
         <v>96</v>
       </c>
@@ -7812,17 +7817,17 @@
       <c r="E13" s="451">
         <v>-3</v>
       </c>
-      <c r="F13" s="621"/>
+      <c r="F13" s="642"/>
       <c r="G13" s="606" t="s">
         <v>431</v>
       </c>
       <c r="H13" s="606"/>
       <c r="I13" s="606"/>
-      <c r="J13" s="628"/>
+      <c r="J13" s="684"/>
       <c r="M13" s="6"/>
       <c r="N13" s="6"/>
-      <c r="O13" s="624"/>
-      <c r="P13" s="655"/>
+      <c r="O13" s="680"/>
+      <c r="P13" s="650"/>
       <c r="T13" s="105" t="s">
         <v>44</v>
       </c>
@@ -7832,7 +7837,7 @@
       <c r="X13" s="434" t="s">
         <v>167</v>
       </c>
-      <c r="Y13" s="659"/>
+      <c r="Y13" s="655"/>
       <c r="Z13" s="410">
         <v>1</v>
       </c>
@@ -7843,8 +7848,8 @@
         <v>501</v>
       </c>
       <c r="AC13" s="16"/>
-      <c r="AD13" s="640"/>
-      <c r="AF13" s="632"/>
+      <c r="AD13" s="669"/>
+      <c r="AF13" s="657"/>
       <c r="AG13" s="80"/>
       <c r="AH13" s="240" t="s">
         <v>309</v>
@@ -7855,8 +7860,8 @@
       <c r="AJ13" s="80"/>
       <c r="AK13" s="259"/>
       <c r="AL13" s="259"/>
-      <c r="AM13" s="656"/>
-      <c r="AN13" s="642"/>
+      <c r="AM13" s="652"/>
+      <c r="AN13" s="637"/>
     </row>
     <row r="14" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="453"/>
@@ -7864,18 +7869,18 @@
       <c r="C14" s="462"/>
       <c r="D14" s="455"/>
       <c r="E14" s="456"/>
-      <c r="F14" s="621"/>
+      <c r="F14" s="642"/>
       <c r="G14" s="606" t="s">
         <v>430</v>
       </c>
       <c r="H14" s="606"/>
       <c r="I14" s="606"/>
-      <c r="J14" s="628"/>
+      <c r="J14" s="684"/>
       <c r="K14" s="2">
         <v>12</v>
       </c>
       <c r="N14" s="6"/>
-      <c r="O14" s="624"/>
+      <c r="O14" s="680"/>
       <c r="Q14" s="61" t="s">
         <v>534</v>
       </c>
@@ -7889,24 +7894,24 @@
       <c r="X14" s="434" t="s">
         <v>168</v>
       </c>
-      <c r="Y14" s="659"/>
+      <c r="Y14" s="655"/>
       <c r="Z14" s="410">
         <v>1</v>
       </c>
       <c r="AA14" s="309"/>
       <c r="AB14" s="211"/>
       <c r="AC14" s="16"/>
-      <c r="AD14" s="640"/>
+      <c r="AD14" s="669"/>
       <c r="AE14" s="259"/>
-      <c r="AF14" s="632"/>
+      <c r="AF14" s="657"/>
       <c r="AG14" s="259"/>
       <c r="AH14" s="259"/>
       <c r="AI14" s="70"/>
       <c r="AJ14" s="259"/>
       <c r="AK14" s="259"/>
       <c r="AL14" s="259"/>
-      <c r="AM14" s="656"/>
-      <c r="AN14" s="642"/>
+      <c r="AM14" s="652"/>
+      <c r="AN14" s="637"/>
     </row>
     <row r="15" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="452" t="s">
@@ -7915,8 +7920,8 @@
       <c r="C15" s="599" t="s">
         <v>374</v>
       </c>
-      <c r="F15" s="621"/>
-      <c r="O15" s="624"/>
+      <c r="F15" s="642"/>
+      <c r="O15" s="680"/>
       <c r="R15" s="99" t="s">
         <v>44</v>
       </c>
@@ -7929,7 +7934,7 @@
       <c r="X15" s="434" t="s">
         <v>169</v>
       </c>
-      <c r="Y15" s="659"/>
+      <c r="Y15" s="655"/>
       <c r="Z15" s="412">
         <v>1</v>
       </c>
@@ -7938,8 +7943,8 @@
       <c r="AC15" s="76" t="s">
         <v>480</v>
       </c>
-      <c r="AD15" s="640"/>
-      <c r="AF15" s="632"/>
+      <c r="AD15" s="669"/>
+      <c r="AF15" s="657"/>
       <c r="AG15" s="80"/>
       <c r="AH15" s="240" t="s">
         <v>449</v>
@@ -7952,8 +7957,8 @@
       </c>
       <c r="AK15" s="259"/>
       <c r="AL15" s="259"/>
-      <c r="AM15" s="656"/>
-      <c r="AN15" s="642"/>
+      <c r="AM15" s="652"/>
+      <c r="AN15" s="637"/>
       <c r="AP15" s="76" t="s">
         <v>73</v>
       </c>
@@ -7975,13 +7980,13 @@
       <c r="E16" s="226">
         <v>1</v>
       </c>
-      <c r="F16" s="621"/>
+      <c r="F16" s="642"/>
       <c r="G16" s="339" t="s">
         <v>489</v>
       </c>
       <c r="I16" s="472"/>
       <c r="J16" s="20"/>
-      <c r="O16" s="624"/>
+      <c r="O16" s="680"/>
       <c r="R16" s="438" t="s">
         <v>184</v>
       </c>
@@ -7992,7 +7997,7 @@
       <c r="X16" s="434" t="s">
         <v>170</v>
       </c>
-      <c r="Y16" s="659"/>
+      <c r="Y16" s="655"/>
       <c r="Z16" s="410">
         <v>1</v>
       </c>
@@ -8013,18 +8018,18 @@
       <c r="AM16" s="431" t="s">
         <v>318</v>
       </c>
-      <c r="AN16" s="642"/>
+      <c r="AN16" s="637"/>
       <c r="AP16" s="76" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="17" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="80"/>
-      <c r="F17" s="621"/>
+      <c r="F17" s="642"/>
       <c r="I17" s="473"/>
       <c r="J17" s="20"/>
       <c r="N17" s="6"/>
-      <c r="O17" s="624"/>
+      <c r="O17" s="680"/>
       <c r="Q17" s="21" t="s">
         <v>532</v>
       </c>
@@ -8044,7 +8049,7 @@
       <c r="X17" s="434" t="s">
         <v>171</v>
       </c>
-      <c r="Y17" s="659"/>
+      <c r="Y17" s="655"/>
       <c r="Z17" s="412"/>
       <c r="AA17" s="309"/>
       <c r="AB17" s="211"/>
@@ -8069,7 +8074,7 @@
       <c r="AK17" s="259"/>
       <c r="AL17" s="80"/>
       <c r="AM17" s="431"/>
-      <c r="AN17" s="642"/>
+      <c r="AN17" s="637"/>
       <c r="AO17" s="206" t="s">
         <v>498</v>
       </c>
@@ -8093,21 +8098,21 @@
       <c r="E18" s="99" t="s">
         <v>44</v>
       </c>
-      <c r="F18" s="621"/>
+      <c r="F18" s="642"/>
       <c r="G18" s="339" t="s">
         <v>529</v>
       </c>
       <c r="I18" s="24"/>
       <c r="J18" s="20"/>
-      <c r="O18" s="624"/>
+      <c r="O18" s="680"/>
       <c r="Q18" s="112"/>
-      <c r="R18" s="616" t="s">
+      <c r="R18" s="674" t="s">
         <v>537</v>
       </c>
       <c r="T18" s="100" t="s">
         <v>44</v>
       </c>
-      <c r="U18" s="664" t="s">
+      <c r="U18" s="613" t="s">
         <v>44</v>
       </c>
       <c r="V18" s="120"/>
@@ -8117,7 +8122,7 @@
       <c r="X18" s="434" t="s">
         <v>172</v>
       </c>
-      <c r="Y18" s="659"/>
+      <c r="Y18" s="655"/>
       <c r="Z18" s="412">
         <v>1</v>
       </c>
@@ -8128,38 +8133,38 @@
       <c r="AC18" s="16"/>
       <c r="AD18" s="16"/>
       <c r="AE18" s="259"/>
-      <c r="AF18" s="631" t="s">
+      <c r="AF18" s="651" t="s">
         <v>476</v>
       </c>
       <c r="AG18" s="259"/>
       <c r="AH18" s="70"/>
       <c r="AI18" s="70"/>
-      <c r="AJ18" s="657" t="s">
+      <c r="AJ18" s="653" t="s">
         <v>316</v>
       </c>
       <c r="AK18" s="259"/>
       <c r="AL18" s="80"/>
       <c r="AM18" s="431"/>
-      <c r="AN18" s="642"/>
+      <c r="AN18" s="637"/>
       <c r="AP18" s="76" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="19" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F19" s="621"/>
+      <c r="F19" s="642"/>
       <c r="I19" s="221"/>
-      <c r="O19" s="624"/>
-      <c r="R19" s="617"/>
+      <c r="O19" s="680"/>
+      <c r="R19" s="675"/>
       <c r="S19" s="30" t="s">
         <v>535</v>
       </c>
-      <c r="U19" s="665"/>
+      <c r="U19" s="614"/>
       <c r="V19" s="146"/>
       <c r="W19" s="146"/>
       <c r="X19" s="434" t="s">
         <v>173</v>
       </c>
-      <c r="Y19" s="659"/>
+      <c r="Y19" s="655"/>
       <c r="Z19" s="410">
         <v>1</v>
       </c>
@@ -8168,17 +8173,17 @@
       <c r="AC19" s="16"/>
       <c r="AD19" s="16"/>
       <c r="AE19" s="259"/>
-      <c r="AF19" s="631"/>
+      <c r="AF19" s="651"/>
       <c r="AG19" s="259"/>
       <c r="AH19" s="259"/>
       <c r="AI19" s="70"/>
-      <c r="AJ19" s="657"/>
+      <c r="AJ19" s="653"/>
       <c r="AK19" s="463" t="s">
         <v>252</v>
       </c>
       <c r="AL19" s="80"/>
       <c r="AM19" s="431"/>
-      <c r="AN19" s="642"/>
+      <c r="AN19" s="637"/>
       <c r="AP19" s="76" t="s">
         <v>469</v>
       </c>
@@ -8199,24 +8204,24 @@
       <c r="E20" s="440">
         <v>-1</v>
       </c>
-      <c r="F20" s="621"/>
+      <c r="F20" s="642"/>
       <c r="G20" s="339" t="s">
         <v>492</v>
       </c>
       <c r="I20" s="221"/>
-      <c r="O20" s="624"/>
-      <c r="Q20" s="626" t="s">
+      <c r="O20" s="680"/>
+      <c r="Q20" s="682" t="s">
         <v>48</v>
       </c>
       <c r="T20" s="407" t="s">
         <v>44</v>
       </c>
-      <c r="U20" s="666"/>
+      <c r="U20" s="615"/>
       <c r="W20" s="408"/>
       <c r="X20" s="435" t="s">
         <v>174</v>
       </c>
-      <c r="Y20" s="659"/>
+      <c r="Y20" s="655"/>
       <c r="Z20" s="414">
         <v>1</v>
       </c>
@@ -8241,7 +8246,7 @@
       <c r="AM20" s="383" t="s">
         <v>250</v>
       </c>
-      <c r="AN20" s="642"/>
+      <c r="AN20" s="637"/>
       <c r="AO20" s="340" t="s">
         <v>461</v>
       </c>
@@ -8262,20 +8267,20 @@
       <c r="E21" s="267">
         <v>0</v>
       </c>
-      <c r="F21" s="621"/>
+      <c r="F21" s="642"/>
       <c r="I21" s="221"/>
-      <c r="O21" s="624"/>
-      <c r="Q21" s="627"/>
+      <c r="O21" s="680"/>
+      <c r="Q21" s="683"/>
       <c r="T21" s="425"/>
       <c r="U21" s="14"/>
-      <c r="V21" s="661"/>
+      <c r="V21" s="610"/>
       <c r="W21" s="429" t="s">
         <v>175</v>
       </c>
       <c r="X21" s="432" t="s">
         <v>186</v>
       </c>
-      <c r="Y21" s="659"/>
+      <c r="Y21" s="655"/>
       <c r="Z21" s="448">
         <v>3</v>
       </c>
@@ -8306,15 +8311,15 @@
       <c r="AM21" s="431" t="s">
         <v>546</v>
       </c>
-      <c r="AN21" s="642"/>
+      <c r="AN21" s="637"/>
     </row>
     <row r="22" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F22" s="621"/>
+      <c r="F22" s="642"/>
       <c r="G22" s="339" t="s">
         <v>490</v>
       </c>
       <c r="I22" s="221"/>
-      <c r="O22" s="624"/>
+      <c r="O22" s="680"/>
       <c r="R22" s="437" t="s">
         <v>44</v>
       </c>
@@ -8322,14 +8327,14 @@
         <v>44</v>
       </c>
       <c r="U22" s="15"/>
-      <c r="V22" s="662"/>
+      <c r="V22" s="611"/>
       <c r="W22" s="429" t="s">
         <v>175</v>
       </c>
       <c r="X22" s="432" t="s">
         <v>187</v>
       </c>
-      <c r="Y22" s="659"/>
+      <c r="Y22" s="655"/>
       <c r="Z22" s="418"/>
       <c r="AA22" s="10"/>
       <c r="AB22" s="418"/>
@@ -8340,7 +8345,7 @@
       <c r="AG22" s="6"/>
       <c r="AH22" s="6"/>
       <c r="AI22" s="6"/>
-      <c r="AJ22" s="631" t="s">
+      <c r="AJ22" s="651" t="s">
         <v>473</v>
       </c>
       <c r="AK22" s="259"/>
@@ -8348,7 +8353,7 @@
         <v>479</v>
       </c>
       <c r="AM22" s="302"/>
-      <c r="AN22" s="642"/>
+      <c r="AN22" s="637"/>
     </row>
     <row r="23" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="233" t="s">
@@ -8366,22 +8371,22 @@
       <c r="E23" s="227">
         <v>1</v>
       </c>
-      <c r="F23" s="621"/>
+      <c r="F23" s="642"/>
       <c r="I23" s="221"/>
-      <c r="O23" s="624"/>
-      <c r="Q23" s="626" t="s">
+      <c r="O23" s="680"/>
+      <c r="Q23" s="682" t="s">
         <v>144</v>
       </c>
       <c r="T23" s="17"/>
       <c r="U23" s="423" t="s">
         <v>44</v>
       </c>
-      <c r="V23" s="662"/>
+      <c r="V23" s="611"/>
       <c r="W23" s="148"/>
       <c r="X23" s="432" t="s">
         <v>188</v>
       </c>
-      <c r="Y23" s="659"/>
+      <c r="Y23" s="655"/>
       <c r="Z23" s="17"/>
       <c r="AA23" s="10"/>
       <c r="AB23" s="418"/>
@@ -8392,13 +8397,13 @@
       <c r="AG23" s="6"/>
       <c r="AH23" s="6"/>
       <c r="AI23" s="6"/>
-      <c r="AJ23" s="631"/>
+      <c r="AJ23" s="651"/>
       <c r="AK23" s="259"/>
       <c r="AL23" s="80" t="s">
         <v>508</v>
       </c>
       <c r="AM23" s="302"/>
-      <c r="AN23" s="642"/>
+      <c r="AN23" s="637"/>
     </row>
     <row r="24" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="443" t="s">
@@ -8416,23 +8421,23 @@
       <c r="E24" s="439">
         <v>1</v>
       </c>
-      <c r="F24" s="621"/>
+      <c r="F24" s="642"/>
       <c r="G24" s="61" t="s">
         <v>491</v>
       </c>
       <c r="I24" s="221"/>
-      <c r="O24" s="624"/>
-      <c r="Q24" s="627"/>
+      <c r="O24" s="680"/>
+      <c r="Q24" s="683"/>
       <c r="T24" s="17"/>
       <c r="U24" s="229" t="s">
         <v>44</v>
       </c>
-      <c r="V24" s="662"/>
+      <c r="V24" s="611"/>
       <c r="W24" s="148"/>
       <c r="X24" s="432" t="s">
         <v>185</v>
       </c>
-      <c r="Y24" s="659"/>
+      <c r="Y24" s="655"/>
       <c r="Z24" s="17"/>
       <c r="AA24" s="10"/>
       <c r="AB24" s="418"/>
@@ -8451,12 +8456,12 @@
         <v>464</v>
       </c>
       <c r="AM24" s="302"/>
-      <c r="AN24" s="642"/>
+      <c r="AN24" s="637"/>
     </row>
     <row r="25" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F25" s="621"/>
+      <c r="F25" s="642"/>
       <c r="I25" s="221"/>
-      <c r="O25" s="624"/>
+      <c r="O25" s="680"/>
       <c r="P25" s="206" t="s">
         <v>281</v>
       </c>
@@ -8469,12 +8474,12 @@
       <c r="U25" s="403" t="s">
         <v>44</v>
       </c>
-      <c r="V25" s="663"/>
+      <c r="V25" s="612"/>
       <c r="W25" s="148"/>
       <c r="X25" s="432" t="s">
         <v>189</v>
       </c>
-      <c r="Y25" s="659"/>
+      <c r="Y25" s="655"/>
       <c r="Z25" s="17"/>
       <c r="AA25" s="10"/>
       <c r="AB25" s="418"/>
@@ -8491,7 +8496,7 @@
       <c r="AK25" s="142"/>
       <c r="AL25" s="6"/>
       <c r="AM25" s="302"/>
-      <c r="AN25" s="642"/>
+      <c r="AN25" s="637"/>
     </row>
     <row r="26" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="233" t="s">
@@ -8509,17 +8514,17 @@
       <c r="E26" s="382">
         <v>1</v>
       </c>
-      <c r="F26" s="621"/>
+      <c r="F26" s="642"/>
       <c r="G26" s="339" t="s">
         <v>488</v>
       </c>
       <c r="I26" s="221"/>
-      <c r="O26" s="624"/>
-      <c r="P26" s="644" t="s">
+      <c r="O26" s="680"/>
+      <c r="P26" s="639" t="s">
         <v>527</v>
       </c>
-      <c r="Q26" s="645"/>
-      <c r="R26" s="618" t="s">
+      <c r="Q26" s="640"/>
+      <c r="R26" s="676" t="s">
         <v>536</v>
       </c>
       <c r="T26" s="180"/>
@@ -8531,7 +8536,7 @@
       <c r="X26" s="432" t="s">
         <v>181</v>
       </c>
-      <c r="Y26" s="659"/>
+      <c r="Y26" s="655"/>
       <c r="Z26" s="17"/>
       <c r="AA26" s="10"/>
       <c r="AB26" s="418"/>
@@ -8558,7 +8563,7 @@
       <c r="AM26" s="445" t="s">
         <v>457</v>
       </c>
-      <c r="AN26" s="642"/>
+      <c r="AN26" s="637"/>
     </row>
     <row r="27" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B27" s="21" t="s">
@@ -8570,13 +8575,13 @@
       <c r="E27" s="267" t="s">
         <v>44</v>
       </c>
-      <c r="F27" s="622"/>
+      <c r="F27" s="678"/>
       <c r="G27" s="61" t="s">
         <v>545</v>
       </c>
       <c r="I27" s="222"/>
-      <c r="O27" s="625"/>
-      <c r="R27" s="619"/>
+      <c r="O27" s="681"/>
+      <c r="R27" s="677"/>
       <c r="S27" s="424" t="s">
         <v>54</v>
       </c>
@@ -8589,7 +8594,7 @@
       <c r="X27" s="432" t="s">
         <v>531</v>
       </c>
-      <c r="Y27" s="660"/>
+      <c r="Y27" s="656"/>
       <c r="Z27" s="161"/>
       <c r="AA27" s="13"/>
       <c r="AB27" s="419"/>
@@ -8606,10 +8611,48 @@
       <c r="AM27" s="383" t="s">
         <v>320</v>
       </c>
-      <c r="AN27" s="643"/>
+      <c r="AN27" s="638"/>
     </row>
   </sheetData>
   <mergeCells count="54">
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="R18:R19"/>
+    <mergeCell ref="R26:R27"/>
+    <mergeCell ref="F2:F27"/>
+    <mergeCell ref="O10:O27"/>
+    <mergeCell ref="Q20:Q21"/>
+    <mergeCell ref="Q23:Q24"/>
+    <mergeCell ref="G14:J14"/>
+    <mergeCell ref="G13:J13"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="AI6:AI10"/>
+    <mergeCell ref="AF12:AF15"/>
+    <mergeCell ref="AG7:AG12"/>
+    <mergeCell ref="L8:L9"/>
+    <mergeCell ref="S9:S12"/>
+    <mergeCell ref="N8:N9"/>
+    <mergeCell ref="AD12:AD15"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="AN1:AN27"/>
+    <mergeCell ref="P26:Q26"/>
+    <mergeCell ref="Q2:Q3"/>
+    <mergeCell ref="M2:M9"/>
+    <mergeCell ref="O2:O9"/>
+    <mergeCell ref="P10:P13"/>
+    <mergeCell ref="AK6:AK7"/>
+    <mergeCell ref="AM12:AM15"/>
+    <mergeCell ref="AF18:AF19"/>
+    <mergeCell ref="AJ18:AJ19"/>
+    <mergeCell ref="Y1:Y27"/>
+    <mergeCell ref="AJ22:AJ23"/>
+    <mergeCell ref="AK9:AK10"/>
+    <mergeCell ref="AD3:AD4"/>
+    <mergeCell ref="S2:S3"/>
+    <mergeCell ref="R2:R3"/>
     <mergeCell ref="V21:V25"/>
     <mergeCell ref="U18:U20"/>
     <mergeCell ref="C2:C3"/>
@@ -8626,44 +8669,6 @@
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="B4:B5"/>
-    <mergeCell ref="AN1:AN27"/>
-    <mergeCell ref="P26:Q26"/>
-    <mergeCell ref="Q2:Q3"/>
-    <mergeCell ref="M2:M9"/>
-    <mergeCell ref="O2:O9"/>
-    <mergeCell ref="P10:P13"/>
-    <mergeCell ref="AK6:AK7"/>
-    <mergeCell ref="AM12:AM15"/>
-    <mergeCell ref="AF18:AF19"/>
-    <mergeCell ref="AJ18:AJ19"/>
-    <mergeCell ref="Y1:Y27"/>
-    <mergeCell ref="AJ22:AJ23"/>
-    <mergeCell ref="AK9:AK10"/>
-    <mergeCell ref="AD3:AD4"/>
-    <mergeCell ref="S2:S3"/>
-    <mergeCell ref="R2:R3"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="AI6:AI10"/>
-    <mergeCell ref="AF12:AF15"/>
-    <mergeCell ref="AG7:AG12"/>
-    <mergeCell ref="L8:L9"/>
-    <mergeCell ref="S9:S12"/>
-    <mergeCell ref="N8:N9"/>
-    <mergeCell ref="AD12:AD15"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="R18:R19"/>
-    <mergeCell ref="R26:R27"/>
-    <mergeCell ref="F2:F27"/>
-    <mergeCell ref="O10:O27"/>
-    <mergeCell ref="Q20:Q21"/>
-    <mergeCell ref="Q23:Q24"/>
-    <mergeCell ref="G14:J14"/>
-    <mergeCell ref="G13:J13"/>
-    <mergeCell ref="H12:K12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8700,12 +8705,12 @@
       <c r="B1" s="604" t="s">
         <v>311</v>
       </c>
-      <c r="C1" s="628"/>
+      <c r="C1" s="684"/>
       <c r="D1" s="206"/>
       <c r="J1" s="604" t="s">
         <v>69</v>
       </c>
-      <c r="K1" s="628"/>
+      <c r="K1" s="684"/>
       <c r="L1" s="197" t="s">
         <v>331</v>
       </c>
@@ -9039,7 +9044,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB54FD83-008D-4F8B-87AC-83E7F70047CB}">
   <dimension ref="A1:AL31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+    <sheetView topLeftCell="N1" workbookViewId="0">
       <selection activeCell="AA17" sqref="AA17"/>
     </sheetView>
   </sheetViews>
@@ -9108,7 +9113,7 @@
       <c r="P1" s="401" t="s">
         <v>398</v>
       </c>
-      <c r="Q1" s="702" t="s">
+      <c r="Q1" s="715" t="s">
         <v>180</v>
       </c>
       <c r="R1" s="100" t="s">
@@ -9132,7 +9137,7 @@
       <c r="AA1" s="521" t="s">
         <v>438</v>
       </c>
-      <c r="AB1" s="696" t="s">
+      <c r="AB1" s="709" t="s">
         <v>596</v>
       </c>
       <c r="AC1" s="99" t="s">
@@ -9154,32 +9159,32 @@
       </c>
     </row>
     <row r="2" spans="1:38" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="707">
+      <c r="A2" s="694">
         <f ca="1">TODAY()</f>
         <v>45284</v>
       </c>
-      <c r="B2" s="709" t="s">
+      <c r="B2" s="696" t="s">
         <v>380</v>
       </c>
-      <c r="C2" s="646" t="s">
+      <c r="C2" s="616" t="s">
         <v>358</v>
       </c>
-      <c r="D2" s="711" t="s">
+      <c r="D2" s="698" t="s">
         <v>102</v>
       </c>
-      <c r="E2" s="713" t="s">
+      <c r="E2" s="700" t="s">
         <v>64</v>
       </c>
       <c r="F2" s="193" t="s">
         <v>219</v>
       </c>
-      <c r="G2" s="614" t="s">
+      <c r="G2" s="660" t="s">
         <v>373</v>
       </c>
       <c r="H2" s="208" t="s">
         <v>219</v>
       </c>
-      <c r="I2" s="693" t="s">
+      <c r="I2" s="706" t="s">
         <v>102</v>
       </c>
       <c r="J2" s="399" t="s">
@@ -9203,7 +9208,7 @@
       <c r="P2" s="402">
         <v>40</v>
       </c>
-      <c r="Q2" s="703"/>
+      <c r="Q2" s="716"/>
       <c r="R2" s="21">
         <f>R7+R20</f>
         <v>4</v>
@@ -9228,7 +9233,7 @@
         <f>IF((Z2+T2)&gt;0,0,-1)</f>
         <v>0</v>
       </c>
-      <c r="AB2" s="697"/>
+      <c r="AB2" s="710"/>
       <c r="AC2" s="35"/>
       <c r="AH2" s="6" t="s">
         <v>600</v>
@@ -9245,14 +9250,14 @@
       </c>
     </row>
     <row r="3" spans="1:38" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="708"/>
-      <c r="B3" s="710"/>
-      <c r="C3" s="647"/>
-      <c r="D3" s="712"/>
-      <c r="E3" s="714"/>
-      <c r="G3" s="615"/>
+      <c r="A3" s="695"/>
+      <c r="B3" s="697"/>
+      <c r="C3" s="617"/>
+      <c r="D3" s="699"/>
+      <c r="E3" s="701"/>
+      <c r="G3" s="661"/>
       <c r="H3" s="6"/>
-      <c r="I3" s="694"/>
+      <c r="I3" s="707"/>
       <c r="K3" s="24">
         <v>2</v>
       </c>
@@ -9267,7 +9272,7 @@
       <c r="V3" s="473"/>
       <c r="W3" s="6"/>
       <c r="X3" s="473"/>
-      <c r="AB3" s="697"/>
+      <c r="AB3" s="710"/>
       <c r="AC3" s="35"/>
       <c r="AE3" s="100" t="s">
         <v>591</v>
@@ -9296,10 +9301,10 @@
         <v>381</v>
       </c>
       <c r="B4" s="245"/>
-      <c r="C4" s="715" t="s">
+      <c r="C4" s="702" t="s">
         <v>177</v>
       </c>
-      <c r="I4" s="694"/>
+      <c r="I4" s="707"/>
       <c r="R4" s="474" t="s">
         <v>591</v>
       </c>
@@ -9311,7 +9316,7 @@
       <c r="V4" s="473"/>
       <c r="W4" s="6"/>
       <c r="X4" s="473"/>
-      <c r="AB4" s="697"/>
+      <c r="AB4" s="710"/>
       <c r="AC4" s="35"/>
       <c r="AE4" s="20"/>
       <c r="AF4" s="100" t="s">
@@ -9342,7 +9347,7 @@
       <c r="B5" s="100" t="s">
         <v>358</v>
       </c>
-      <c r="C5" s="716"/>
+      <c r="C5" s="703"/>
       <c r="D5" s="224" t="s">
         <v>102</v>
       </c>
@@ -9358,7 +9363,7 @@
       <c r="H5" s="208" t="s">
         <v>219</v>
       </c>
-      <c r="I5" s="694"/>
+      <c r="I5" s="707"/>
       <c r="J5" s="400" t="s">
         <v>269</v>
       </c>
@@ -9385,7 +9390,7 @@
       <c r="V5" s="471"/>
       <c r="W5" s="6"/>
       <c r="X5" s="471"/>
-      <c r="AB5" s="697"/>
+      <c r="AB5" s="710"/>
       <c r="AC5" s="2" t="s">
         <v>594</v>
       </c>
@@ -9393,33 +9398,33 @@
         <v>44</v>
       </c>
       <c r="AH5" s="6" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="AI5" s="471">
         <v>1</v>
       </c>
       <c r="AJ5" s="559"/>
       <c r="AK5" s="6" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="AL5" s="471">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:38" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="704" t="s">
+      <c r="A6" s="691" t="s">
         <v>286</v>
       </c>
       <c r="B6" s="105" t="s">
         <v>198</v>
       </c>
-      <c r="C6" s="629"/>
-      <c r="D6" s="630"/>
+      <c r="C6" s="662"/>
+      <c r="D6" s="663"/>
       <c r="E6" s="96">
         <v>1</v>
       </c>
       <c r="G6" s="600"/>
-      <c r="I6" s="694"/>
+      <c r="I6" s="707"/>
       <c r="P6" s="61" t="s">
         <v>594</v>
       </c>
@@ -9431,7 +9436,7 @@
         <f>S7+S11-SUM(V2:V10)</f>
         <v>0</v>
       </c>
-      <c r="AB6" s="697"/>
+      <c r="AB6" s="710"/>
       <c r="AC6" s="35"/>
       <c r="AE6" s="64">
         <f>AE7-SUM(AL2:AL10)+AE11</f>
@@ -9447,7 +9452,7 @@
       <c r="AL6" s="112"/>
     </row>
     <row r="7" spans="1:38" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="705"/>
+      <c r="A7" s="692"/>
       <c r="B7" s="100" t="s">
         <v>154</v>
       </c>
@@ -9458,7 +9463,7 @@
         <v>135</v>
       </c>
       <c r="G7" s="600"/>
-      <c r="I7" s="694"/>
+      <c r="I7" s="707"/>
       <c r="M7" s="16" t="s">
         <v>348</v>
       </c>
@@ -9486,7 +9491,7 @@
       <c r="V7" s="472"/>
       <c r="W7" s="6"/>
       <c r="X7" s="472"/>
-      <c r="AB7" s="697"/>
+      <c r="AB7" s="710"/>
       <c r="AC7" s="99" t="s">
         <v>595</v>
       </c>
@@ -9516,7 +9521,7 @@
       </c>
     </row>
     <row r="8" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="706"/>
+      <c r="A8" s="693"/>
       <c r="B8" s="214" t="s">
         <v>28</v>
       </c>
@@ -9525,7 +9530,7 @@
         <v>3</v>
       </c>
       <c r="G8" s="600"/>
-      <c r="I8" s="694"/>
+      <c r="I8" s="707"/>
       <c r="N8" s="80"/>
       <c r="U8" s="6" t="s">
         <v>232</v>
@@ -9534,22 +9539,22 @@
         <v>1</v>
       </c>
       <c r="W8" s="6" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="X8" s="473">
         <v>1</v>
       </c>
-      <c r="AB8" s="697"/>
+      <c r="AB8" s="710"/>
       <c r="AC8" s="519"/>
       <c r="AH8" s="6" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="AI8" s="473">
         <v>1</v>
       </c>
       <c r="AJ8" s="559"/>
       <c r="AK8" s="6" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="AL8" s="472">
         <v>1</v>
@@ -9570,7 +9575,7 @@
       </c>
       <c r="G9" s="600"/>
       <c r="H9" s="6"/>
-      <c r="I9" s="694"/>
+      <c r="I9" s="707"/>
       <c r="M9" s="19" t="s">
         <v>526</v>
       </c>
@@ -9582,12 +9587,12 @@
         <v>1</v>
       </c>
       <c r="W9" s="6" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="X9" s="473">
         <v>1</v>
       </c>
-      <c r="AB9" s="697"/>
+      <c r="AB9" s="710"/>
       <c r="AC9" s="519"/>
       <c r="AE9" s="20"/>
       <c r="AF9" s="20"/>
@@ -9619,7 +9624,7 @@
         <v>36</v>
       </c>
       <c r="G10" s="600"/>
-      <c r="I10" s="694"/>
+      <c r="I10" s="707"/>
       <c r="J10" s="24" t="s">
         <v>373</v>
       </c>
@@ -9642,7 +9647,7 @@
       <c r="X10" s="473">
         <v>1</v>
       </c>
-      <c r="AB10" s="697"/>
+      <c r="AB10" s="710"/>
       <c r="AC10" s="519"/>
       <c r="AE10" s="20"/>
       <c r="AF10" s="20"/>
@@ -9674,7 +9679,7 @@
         <v>266</v>
       </c>
       <c r="G11" s="600"/>
-      <c r="I11" s="694"/>
+      <c r="I11" s="707"/>
       <c r="J11" s="24" t="s">
         <v>194</v>
       </c>
@@ -9700,13 +9705,13 @@
       <c r="S11" s="24">
         <v>0</v>
       </c>
-      <c r="U11" s="699" t="s">
+      <c r="U11" s="712" t="s">
         <v>559</v>
       </c>
-      <c r="V11" s="700"/>
-      <c r="W11" s="700"/>
-      <c r="X11" s="701"/>
-      <c r="AB11" s="698"/>
+      <c r="V11" s="713"/>
+      <c r="W11" s="713"/>
+      <c r="X11" s="714"/>
+      <c r="AB11" s="711"/>
       <c r="AC11" s="99" t="s">
         <v>597</v>
       </c>
@@ -9720,13 +9725,13 @@
         <v>0</v>
       </c>
       <c r="AG11" s="417"/>
-      <c r="AH11" s="699" t="s">
+      <c r="AH11" s="712" t="s">
         <v>612</v>
       </c>
-      <c r="AI11" s="700"/>
-      <c r="AJ11" s="700"/>
-      <c r="AK11" s="700"/>
-      <c r="AL11" s="701"/>
+      <c r="AI11" s="713"/>
+      <c r="AJ11" s="713"/>
+      <c r="AK11" s="713"/>
+      <c r="AL11" s="714"/>
     </row>
     <row r="12" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="229" t="s">
@@ -9737,7 +9742,7 @@
         <v>3</v>
       </c>
       <c r="G12" s="600"/>
-      <c r="I12" s="694"/>
+      <c r="I12" s="707"/>
       <c r="J12" s="24" t="s">
         <v>517</v>
       </c>
@@ -9770,7 +9775,7 @@
       </c>
       <c r="D13" s="20"/>
       <c r="G13" s="600"/>
-      <c r="I13" s="694"/>
+      <c r="I13" s="707"/>
       <c r="J13" s="108" t="s">
         <v>549</v>
       </c>
@@ -9814,7 +9819,7 @@
       <c r="H14" s="208" t="s">
         <v>219</v>
       </c>
-      <c r="I14" s="694"/>
+      <c r="I14" s="707"/>
       <c r="U14" s="67" t="s">
         <v>80</v>
       </c>
@@ -9841,7 +9846,7 @@
       <c r="H15" s="273">
         <v>0</v>
       </c>
-      <c r="I15" s="694"/>
+      <c r="I15" s="707"/>
       <c r="J15" s="108" t="s">
         <v>153</v>
       </c>
@@ -9872,7 +9877,7 @@
       <c r="D16" s="2" t="s">
         <v>493</v>
       </c>
-      <c r="I16" s="694"/>
+      <c r="I16" s="707"/>
       <c r="K16" s="100" t="s">
         <v>44</v>
       </c>
@@ -9912,7 +9917,7 @@
       <c r="G17" s="2" t="s">
         <v>424</v>
       </c>
-      <c r="I17" s="694"/>
+      <c r="I17" s="707"/>
       <c r="L17" s="2" t="s">
         <v>427</v>
       </c>
@@ -9930,13 +9935,13 @@
     </row>
     <row r="18" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G18" s="16"/>
-      <c r="I18" s="694"/>
+      <c r="I18" s="707"/>
       <c r="L18" s="16"/>
       <c r="M18" s="21"/>
-      <c r="O18" s="691" t="s">
+      <c r="O18" s="704" t="s">
         <v>518</v>
       </c>
-      <c r="P18" s="692"/>
+      <c r="P18" s="705"/>
       <c r="Q18" s="127" t="s">
         <v>44</v>
       </c>
@@ -9962,7 +9967,7 @@
       </c>
     </row>
     <row r="19" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I19" s="694"/>
+      <c r="I19" s="707"/>
       <c r="M19" s="21" t="s">
         <v>426</v>
       </c>
@@ -9998,7 +10003,7 @@
       <c r="G20" s="2" t="s">
         <v>424</v>
       </c>
-      <c r="I20" s="694"/>
+      <c r="I20" s="707"/>
       <c r="K20" s="19" t="s">
         <v>423</v>
       </c>
@@ -10033,7 +10038,7 @@
       </c>
     </row>
     <row r="21" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I21" s="694"/>
+      <c r="I21" s="707"/>
       <c r="M21" s="218" t="s">
         <v>412</v>
       </c>
@@ -10067,7 +10072,7 @@
       <c r="G22" s="2" t="s">
         <v>424</v>
       </c>
-      <c r="I22" s="694"/>
+      <c r="I22" s="707"/>
       <c r="P22" s="99" t="s">
         <v>593</v>
       </c>
@@ -10082,7 +10087,7 @@
       <c r="E23" s="285" t="s">
         <v>44</v>
       </c>
-      <c r="I23" s="694"/>
+      <c r="I23" s="707"/>
       <c r="Q23" s="24">
         <f>SUM(V23:V31)</f>
         <v>5</v>
@@ -10099,7 +10104,7 @@
       </c>
     </row>
     <row r="24" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I24" s="694"/>
+      <c r="I24" s="707"/>
       <c r="U24" s="35"/>
       <c r="V24" s="512">
         <v>0</v>
@@ -10127,7 +10132,7 @@
       <c r="H25" s="193" t="s">
         <v>267</v>
       </c>
-      <c r="I25" s="694"/>
+      <c r="I25" s="707"/>
       <c r="J25" s="400" t="s">
         <v>270</v>
       </c>
@@ -10172,7 +10177,7 @@
       <c r="H26" s="19" t="s">
         <v>219</v>
       </c>
-      <c r="I26" s="694"/>
+      <c r="I26" s="707"/>
       <c r="K26" s="24">
         <v>15</v>
       </c>
@@ -10207,7 +10212,7 @@
       </c>
     </row>
     <row r="27" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I27" s="694"/>
+      <c r="I27" s="707"/>
       <c r="O27" s="2" t="s">
         <v>98</v>
       </c>
@@ -10234,7 +10239,7 @@
       <c r="E28" s="217">
         <v>2</v>
       </c>
-      <c r="I28" s="694"/>
+      <c r="I28" s="707"/>
       <c r="Q28" s="6"/>
       <c r="R28" s="112"/>
       <c r="T28" s="142"/>
@@ -10256,7 +10261,7 @@
       <c r="H29" s="193" t="s">
         <v>268</v>
       </c>
-      <c r="I29" s="695"/>
+      <c r="I29" s="708"/>
       <c r="J29" s="326"/>
       <c r="L29" s="96" t="s">
         <v>274</v>
@@ -10314,6 +10319,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="O18:P18"/>
+    <mergeCell ref="I2:I29"/>
+    <mergeCell ref="AB1:AB11"/>
+    <mergeCell ref="AH11:AL11"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="Q1:Q2"/>
+    <mergeCell ref="U11:X11"/>
     <mergeCell ref="A6:A8"/>
     <mergeCell ref="G5:G14"/>
     <mergeCell ref="A2:A3"/>
@@ -10325,13 +10337,6 @@
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="G2:G3"/>
     <mergeCell ref="C2:C3"/>
-    <mergeCell ref="O18:P18"/>
-    <mergeCell ref="I2:I29"/>
-    <mergeCell ref="AB1:AB11"/>
-    <mergeCell ref="AH11:AL11"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="Q1:Q2"/>
-    <mergeCell ref="U11:X11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -10342,8 +10347,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2029A93E-B53C-4201-9F17-439C144F3CF1}">
   <dimension ref="A1:AT37"/>
   <sheetViews>
-    <sheetView topLeftCell="T18" workbookViewId="0">
-      <selection activeCell="R33" sqref="R33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10443,14 +10448,14 @@
         <f ca="1">TODAY()</f>
         <v>45284</v>
       </c>
-      <c r="T1" s="736"/>
+      <c r="T1" s="743"/>
       <c r="U1" s="142"/>
       <c r="V1" s="6"/>
       <c r="W1" s="6"/>
-      <c r="X1" s="720" t="s">
+      <c r="X1" s="727" t="s">
         <v>442</v>
       </c>
-      <c r="Y1" s="721"/>
+      <c r="Y1" s="728"/>
       <c r="Z1" s="308">
         <f>68-(W8+Y3+X3+U3)</f>
         <v>0</v>
@@ -10466,23 +10471,23 @@
       <c r="AD1" s="304" t="s">
         <v>44</v>
       </c>
-      <c r="AE1" s="722" t="s">
+      <c r="AE1" s="729" t="s">
         <v>190</v>
       </c>
-      <c r="AF1" s="723"/>
-      <c r="AG1" s="724"/>
-      <c r="AH1" s="725" t="s">
+      <c r="AF1" s="730"/>
+      <c r="AG1" s="731"/>
+      <c r="AH1" s="732" t="s">
         <v>294</v>
       </c>
-      <c r="AI1" s="726"/>
-      <c r="AJ1" s="727"/>
+      <c r="AI1" s="733"/>
+      <c r="AJ1" s="734"/>
       <c r="AK1" s="556"/>
       <c r="AL1" s="556"/>
-      <c r="AM1" s="717" t="s">
+      <c r="AM1" s="724" t="s">
         <v>445</v>
       </c>
-      <c r="AN1" s="718"/>
-      <c r="AO1" s="719"/>
+      <c r="AN1" s="725"/>
+      <c r="AO1" s="726"/>
       <c r="AR1" s="142"/>
     </row>
     <row r="2" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10497,27 +10502,27 @@
         <f>K2+L2</f>
         <v>21</v>
       </c>
-      <c r="K2" s="744">
+      <c r="K2" s="722">
         <f>SUM(K4:K29)</f>
         <v>12</v>
       </c>
-      <c r="L2" s="742">
+      <c r="L2" s="720">
         <f>SUM(L4:L37)</f>
         <v>9</v>
       </c>
-      <c r="M2" s="728">
+      <c r="M2" s="735">
         <f>SUM(M5:M30)</f>
         <v>0</v>
       </c>
-      <c r="N2" s="730">
+      <c r="N2" s="737">
         <f>SUM(N4:N29)</f>
         <v>10</v>
       </c>
-      <c r="O2" s="732">
+      <c r="O2" s="739">
         <f>SUM(O4:O29)</f>
         <v>10</v>
       </c>
-      <c r="P2" s="638">
+      <c r="P2" s="667">
         <f>SUM(N30:N37)* (-1)</f>
         <v>-2</v>
       </c>
@@ -10530,14 +10535,14 @@
       <c r="S2" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="T2" s="737"/>
+      <c r="T2" s="744"/>
       <c r="U2" s="541" t="s">
         <v>263</v>
       </c>
       <c r="V2" s="485" t="s">
         <v>220</v>
       </c>
-      <c r="W2" s="734" t="s">
+      <c r="W2" s="741" t="s">
         <v>235</v>
       </c>
       <c r="X2" s="486" t="s">
@@ -10609,12 +10614,12 @@
         <f>V3+X3+Y3+U3</f>
         <v>68</v>
       </c>
-      <c r="K3" s="745"/>
-      <c r="L3" s="743"/>
-      <c r="M3" s="729"/>
-      <c r="N3" s="731"/>
-      <c r="O3" s="733"/>
-      <c r="P3" s="639"/>
+      <c r="K3" s="723"/>
+      <c r="L3" s="721"/>
+      <c r="M3" s="736"/>
+      <c r="N3" s="738"/>
+      <c r="O3" s="740"/>
+      <c r="P3" s="668"/>
       <c r="Q3" s="174">
         <f>(M2+N2)-Y3</f>
         <v>0</v>
@@ -10622,7 +10627,7 @@
       <c r="S3" s="159" t="s">
         <v>245</v>
       </c>
-      <c r="T3" s="738"/>
+      <c r="T3" s="745"/>
       <c r="U3" s="542">
         <f>SUM(U4:U29)</f>
         <v>12</v>
@@ -10631,7 +10636,7 @@
         <f>SUM(V4:V29)</f>
         <v>36</v>
       </c>
-      <c r="W3" s="735"/>
+      <c r="W3" s="742"/>
       <c r="X3" s="488">
         <f t="shared" ref="X3:AC3" si="0">SUM(X4:X29)</f>
         <v>10</v>
@@ -10731,7 +10736,7 @@
         <f>AC4</f>
         <v>1</v>
       </c>
-      <c r="P4" s="739" t="s">
+      <c r="P4" s="717" t="s">
         <v>199</v>
       </c>
       <c r="Q4" s="20"/>
@@ -10817,7 +10822,7 @@
         <f>AC5</f>
         <v>0</v>
       </c>
-      <c r="P5" s="740"/>
+      <c r="P5" s="718"/>
       <c r="Q5" s="20"/>
       <c r="R5" s="2" t="s">
         <v>341</v>
@@ -10913,7 +10918,7 @@
         <f>AC6</f>
         <v>1</v>
       </c>
-      <c r="P6" s="740"/>
+      <c r="P6" s="718"/>
       <c r="Q6" s="19" t="s">
         <v>336</v>
       </c>
@@ -11016,7 +11021,7 @@
         <f>AC7</f>
         <v>1</v>
       </c>
-      <c r="P7" s="740"/>
+      <c r="P7" s="718"/>
       <c r="Q7" s="20"/>
       <c r="R7" s="2" t="s">
         <v>336</v>
@@ -11130,7 +11135,7 @@
         <f t="shared" ref="O8:O37" si="10">AC8</f>
         <v>0</v>
       </c>
-      <c r="P8" s="740"/>
+      <c r="P8" s="718"/>
       <c r="Q8" s="21" t="s">
         <v>234</v>
       </c>
@@ -11221,7 +11226,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="P9" s="740"/>
+      <c r="P9" s="718"/>
       <c r="Q9" s="21" t="s">
         <v>336</v>
       </c>
@@ -11326,7 +11331,7 @@
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="P10" s="740"/>
+      <c r="P10" s="718"/>
       <c r="Q10" s="20"/>
       <c r="R10" s="2" t="s">
         <v>341</v>
@@ -11416,7 +11421,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="P11" s="740"/>
+      <c r="P11" s="718"/>
       <c r="Q11" s="21" t="s">
         <v>336</v>
       </c>
@@ -11481,14 +11486,14 @@
       <c r="AR11" s="511"/>
     </row>
     <row r="12" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="676" t="s">
+      <c r="A12" s="627" t="s">
         <v>55</v>
       </c>
       <c r="B12" s="30">
         <v>13</v>
       </c>
       <c r="C12" s="2"/>
-      <c r="E12" s="626" t="s">
+      <c r="E12" s="682" t="s">
         <v>56</v>
       </c>
       <c r="G12" s="264"/>
@@ -11513,7 +11518,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="P12" s="740"/>
+      <c r="P12" s="718"/>
       <c r="Q12" s="21" t="s">
         <v>336</v>
       </c>
@@ -11590,14 +11595,14 @@
       </c>
     </row>
     <row r="13" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="678"/>
+      <c r="A13" s="629"/>
       <c r="B13" s="592">
         <v>12</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="E13" s="627"/>
+      <c r="E13" s="683"/>
       <c r="F13" s="174">
         <v>0</v>
       </c>
@@ -11621,7 +11626,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="P13" s="740"/>
+      <c r="P13" s="718"/>
       <c r="Q13" s="21" t="s">
         <v>336</v>
       </c>
@@ -11705,7 +11710,7 @@
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="P14" s="740"/>
+      <c r="P14" s="718"/>
       <c r="Q14" s="20"/>
       <c r="R14" s="202" t="s">
         <v>340</v>
@@ -11776,7 +11781,7 @@
         <v>1</v>
       </c>
       <c r="AP14" s="6" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="AQ14" s="570" t="s">
         <v>563</v>
@@ -11810,7 +11815,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="P15" s="740"/>
+      <c r="P15" s="718"/>
       <c r="Q15" s="20"/>
       <c r="R15" s="202" t="s">
         <v>340</v>
@@ -11902,7 +11907,7 @@
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="P16" s="740"/>
+      <c r="P16" s="718"/>
       <c r="Q16" s="21" t="s">
         <v>336</v>
       </c>
@@ -12005,7 +12010,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="P17" s="740"/>
+      <c r="P17" s="718"/>
       <c r="Q17" s="20"/>
       <c r="R17" s="2" t="s">
         <v>342</v>
@@ -12105,7 +12110,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="P18" s="740"/>
+      <c r="P18" s="718"/>
       <c r="Q18" s="21" t="s">
         <v>336</v>
       </c>
@@ -12193,7 +12198,7 @@
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="P19" s="740"/>
+      <c r="P19" s="718"/>
       <c r="Q19" s="20"/>
       <c r="R19" s="2" t="s">
         <v>335</v>
@@ -12303,11 +12308,11 @@
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="P20" s="741"/>
+      <c r="P20" s="719"/>
       <c r="Q20" s="604" t="s">
         <v>336</v>
       </c>
-      <c r="R20" s="628"/>
+      <c r="R20" s="684"/>
       <c r="S20" s="538" t="s">
         <v>85</v>
       </c>
@@ -12573,7 +12578,7 @@
     </row>
     <row r="23" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B23" s="24"/>
-      <c r="E23" s="683" t="s">
+      <c r="E23" s="634" t="s">
         <v>290</v>
       </c>
       <c r="F23" s="182"/>
@@ -12676,7 +12681,7 @@
       <c r="C24" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="E24" s="684"/>
+      <c r="E24" s="635"/>
       <c r="F24" s="174"/>
       <c r="H24" s="42"/>
       <c r="J24" s="577" t="s">
@@ -12699,7 +12704,7 @@
       <c r="Q24" s="604" t="s">
         <v>336</v>
       </c>
-      <c r="R24" s="628"/>
+      <c r="R24" s="684"/>
       <c r="S24" s="538" t="s">
         <v>250</v>
       </c>
@@ -13354,8 +13359,8 @@
       <c r="AR31" s="511"/>
     </row>
     <row r="32" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="631"/>
-      <c r="B32" s="631"/>
+      <c r="A32" s="651"/>
+      <c r="B32" s="651"/>
       <c r="J32" s="578" t="s">
         <v>310</v>
       </c>
@@ -13792,7 +13797,7 @@
     </row>
     <row r="37" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B37" s="24">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="D37" s="384">
         <v>1</v>
@@ -13895,15 +13900,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="Q24:R24"/>
-    <mergeCell ref="P4:P20"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="Q20:R20"/>
     <mergeCell ref="AM1:AO1"/>
     <mergeCell ref="X1:Y1"/>
     <mergeCell ref="AE1:AG1"/>
@@ -13914,6 +13910,15 @@
     <mergeCell ref="P2:P3"/>
     <mergeCell ref="W2:W3"/>
     <mergeCell ref="T1:T3"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="Q24:R24"/>
+    <mergeCell ref="P4:P20"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="Q20:R20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -13981,7 +13986,7 @@
       <c r="V1" s="604" t="s">
         <v>70</v>
       </c>
-      <c r="W1" s="628"/>
+      <c r="W1" s="684"/>
       <c r="X1" s="62" t="s">
         <v>101</v>
       </c>
@@ -14000,7 +14005,7 @@
       <c r="AC1" s="116" t="s">
         <v>190</v>
       </c>
-      <c r="AD1" s="753" t="s">
+      <c r="AD1" s="760" t="s">
         <v>212</v>
       </c>
       <c r="AE1" s="116" t="s">
@@ -14017,10 +14022,10 @@
       <c r="E2" s="39" t="s">
         <v>73</v>
       </c>
-      <c r="F2" s="752" t="s">
+      <c r="F2" s="791" t="s">
         <v>74</v>
       </c>
-      <c r="G2" s="780" t="s">
+      <c r="G2" s="748" t="s">
         <v>44</v>
       </c>
       <c r="H2" s="40" t="s">
@@ -14048,10 +14053,10 @@
       <c r="U2" s="60" t="s">
         <v>105</v>
       </c>
-      <c r="V2" s="720" t="s">
+      <c r="V2" s="727" t="s">
         <v>120</v>
       </c>
-      <c r="W2" s="721"/>
+      <c r="W2" s="728"/>
       <c r="X2" s="64" t="s">
         <v>109</v>
       </c>
@@ -14070,7 +14075,7 @@
       <c r="AC2" s="117" t="s">
         <v>98</v>
       </c>
-      <c r="AD2" s="754"/>
+      <c r="AD2" s="761"/>
       <c r="AE2" s="64" t="s">
         <v>98</v>
       </c>
@@ -14089,8 +14094,8 @@
       <c r="E3" s="39" t="s">
         <v>79</v>
       </c>
-      <c r="F3" s="680"/>
-      <c r="G3" s="781"/>
+      <c r="F3" s="631"/>
+      <c r="G3" s="749"/>
       <c r="H3" s="40" t="s">
         <v>80</v>
       </c>
@@ -14101,13 +14106,13 @@
         <v>81</v>
       </c>
       <c r="N3" s="44"/>
-      <c r="O3" s="790" t="s">
+      <c r="O3" s="758" t="s">
         <v>44</v>
       </c>
-      <c r="P3" s="772" t="s">
+      <c r="P3" s="779" t="s">
         <v>218</v>
       </c>
-      <c r="Q3" s="773"/>
+      <c r="Q3" s="780"/>
       <c r="S3" s="57" t="s">
         <v>219</v>
       </c>
@@ -14117,15 +14122,15 @@
       <c r="W3" s="59" t="s">
         <v>104</v>
       </c>
-      <c r="AD3" s="754"/>
+      <c r="AD3" s="761"/>
     </row>
     <row r="4" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G4" s="781"/>
+      <c r="G4" s="749"/>
       <c r="H4" s="6"/>
       <c r="L4" s="688" t="s">
         <v>82</v>
       </c>
-      <c r="O4" s="791"/>
+      <c r="O4" s="759"/>
       <c r="T4" s="55" t="s">
         <v>97</v>
       </c>
@@ -14139,8 +14144,8 @@
         <v>194</v>
       </c>
       <c r="Z4" s="606"/>
-      <c r="AA4" s="628"/>
-      <c r="AD4" s="754"/>
+      <c r="AA4" s="684"/>
+      <c r="AD4" s="761"/>
     </row>
     <row r="5" spans="1:31" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C5" s="52" t="s">
@@ -14155,21 +14160,21 @@
       <c r="F5" s="66" t="s">
         <v>84</v>
       </c>
-      <c r="G5" s="781"/>
+      <c r="G5" s="749"/>
       <c r="H5" s="46" t="s">
         <v>75</v>
       </c>
-      <c r="K5" s="759" t="s">
+      <c r="K5" s="766" t="s">
         <v>216</v>
       </c>
-      <c r="L5" s="774"/>
+      <c r="L5" s="781"/>
       <c r="M5" s="2" t="s">
         <v>214</v>
       </c>
       <c r="N5" s="61" t="s">
         <v>213</v>
       </c>
-      <c r="O5" s="791"/>
+      <c r="O5" s="759"/>
       <c r="P5" s="108" t="s">
         <v>215</v>
       </c>
@@ -14185,11 +14190,11 @@
       <c r="U5" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="Y5" s="762" t="s">
+      <c r="Y5" s="769" t="s">
         <v>283</v>
       </c>
-      <c r="Z5" s="763"/>
-      <c r="AD5" s="754"/>
+      <c r="Z5" s="770"/>
+      <c r="AD5" s="761"/>
     </row>
     <row r="6" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C6" s="109"/>
@@ -14199,16 +14204,16 @@
       <c r="E6" s="45" t="s">
         <v>85</v>
       </c>
-      <c r="G6" s="781"/>
+      <c r="G6" s="749"/>
       <c r="H6" s="46" t="s">
         <v>80</v>
       </c>
       <c r="I6" s="23">
         <v>15</v>
       </c>
-      <c r="K6" s="760"/>
-      <c r="L6" s="774"/>
-      <c r="O6" s="791"/>
+      <c r="K6" s="767"/>
+      <c r="L6" s="781"/>
+      <c r="O6" s="759"/>
       <c r="T6" s="2" t="s">
         <v>100</v>
       </c>
@@ -14218,23 +14223,23 @@
       <c r="V6" s="21">
         <v>-1</v>
       </c>
-      <c r="AD6" s="754"/>
+      <c r="AD6" s="761"/>
     </row>
     <row r="7" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C7" s="110"/>
-      <c r="G7" s="781"/>
+      <c r="G7" s="749"/>
       <c r="H7" s="6"/>
-      <c r="K7" s="760"/>
-      <c r="L7" s="774"/>
+      <c r="K7" s="767"/>
+      <c r="L7" s="781"/>
       <c r="N7" s="21" t="s">
         <v>119</v>
       </c>
-      <c r="O7" s="791"/>
+      <c r="O7" s="759"/>
       <c r="P7" s="73"/>
       <c r="U7" s="104" t="s">
         <v>20</v>
       </c>
-      <c r="AD7" s="754"/>
+      <c r="AD7" s="761"/>
     </row>
     <row r="8" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C8" s="130"/>
@@ -14247,7 +14252,7 @@
       <c r="F8" s="66" t="s">
         <v>86</v>
       </c>
-      <c r="G8" s="781"/>
+      <c r="G8" s="749"/>
       <c r="H8" s="50" t="s">
         <v>75</v>
       </c>
@@ -14257,41 +14262,41 @@
       <c r="J8" s="111">
         <v>115</v>
       </c>
-      <c r="K8" s="760"/>
-      <c r="L8" s="774"/>
-      <c r="O8" s="791"/>
+      <c r="K8" s="767"/>
+      <c r="L8" s="781"/>
+      <c r="O8" s="759"/>
       <c r="P8" s="49"/>
-      <c r="S8" s="756" t="s">
+      <c r="S8" s="763" t="s">
         <v>211</v>
       </c>
-      <c r="T8" s="757"/>
-      <c r="U8" s="757"/>
-      <c r="V8" s="757"/>
-      <c r="W8" s="757"/>
-      <c r="X8" s="757"/>
-      <c r="Y8" s="757"/>
-      <c r="Z8" s="757"/>
-      <c r="AA8" s="757"/>
-      <c r="AB8" s="757"/>
-      <c r="AC8" s="758"/>
-      <c r="AD8" s="754"/>
+      <c r="T8" s="764"/>
+      <c r="U8" s="764"/>
+      <c r="V8" s="764"/>
+      <c r="W8" s="764"/>
+      <c r="X8" s="764"/>
+      <c r="Y8" s="764"/>
+      <c r="Z8" s="764"/>
+      <c r="AA8" s="764"/>
+      <c r="AB8" s="764"/>
+      <c r="AC8" s="765"/>
+      <c r="AD8" s="761"/>
     </row>
     <row r="9" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C9" s="746"/>
-      <c r="G9" s="781"/>
+      <c r="C9" s="785"/>
+      <c r="G9" s="749"/>
       <c r="H9" s="6"/>
-      <c r="K9" s="760"/>
-      <c r="L9" s="784" t="s">
+      <c r="K9" s="767"/>
+      <c r="L9" s="752" t="s">
         <v>217</v>
       </c>
-      <c r="M9" s="785"/>
-      <c r="N9" s="786"/>
-      <c r="O9" s="791"/>
+      <c r="M9" s="753"/>
+      <c r="N9" s="754"/>
+      <c r="O9" s="759"/>
       <c r="P9" s="75"/>
-      <c r="AD9" s="754"/>
+      <c r="AD9" s="761"/>
     </row>
     <row r="10" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C10" s="747"/>
+      <c r="C10" s="786"/>
       <c r="D10" s="23"/>
       <c r="E10" s="45" t="s">
         <v>87</v>
@@ -14299,7 +14304,7 @@
       <c r="F10" s="66" t="s">
         <v>88</v>
       </c>
-      <c r="G10" s="781"/>
+      <c r="G10" s="749"/>
       <c r="H10" s="51"/>
       <c r="I10" s="21" t="s">
         <v>80</v>
@@ -14307,33 +14312,33 @@
       <c r="J10" s="3">
         <v>15</v>
       </c>
-      <c r="K10" s="760"/>
-      <c r="M10" s="749" t="s">
+      <c r="K10" s="767"/>
+      <c r="M10" s="788" t="s">
         <v>89</v>
       </c>
-      <c r="N10" s="750"/>
-      <c r="O10" s="750"/>
-      <c r="P10" s="750"/>
-      <c r="Q10" s="750"/>
-      <c r="R10" s="750"/>
-      <c r="S10" s="750"/>
-      <c r="T10" s="750"/>
-      <c r="U10" s="750"/>
-      <c r="V10" s="750"/>
-      <c r="W10" s="750"/>
-      <c r="X10" s="750"/>
-      <c r="Y10" s="750"/>
-      <c r="Z10" s="750"/>
-      <c r="AA10" s="750"/>
-      <c r="AB10" s="750"/>
-      <c r="AC10" s="751"/>
-      <c r="AD10" s="754"/>
+      <c r="N10" s="789"/>
+      <c r="O10" s="789"/>
+      <c r="P10" s="789"/>
+      <c r="Q10" s="789"/>
+      <c r="R10" s="789"/>
+      <c r="S10" s="789"/>
+      <c r="T10" s="789"/>
+      <c r="U10" s="789"/>
+      <c r="V10" s="789"/>
+      <c r="W10" s="789"/>
+      <c r="X10" s="789"/>
+      <c r="Y10" s="789"/>
+      <c r="Z10" s="789"/>
+      <c r="AA10" s="789"/>
+      <c r="AB10" s="789"/>
+      <c r="AC10" s="790"/>
+      <c r="AD10" s="761"/>
     </row>
     <row r="11" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C11" s="748"/>
-      <c r="G11" s="781"/>
+      <c r="C11" s="787"/>
+      <c r="G11" s="749"/>
       <c r="H11" s="6"/>
-      <c r="K11" s="760"/>
+      <c r="K11" s="767"/>
       <c r="R11" s="52" t="s">
         <v>44</v>
       </c>
@@ -14341,17 +14346,17 @@
       <c r="Y11" s="68" t="s">
         <v>120</v>
       </c>
-      <c r="Z11" s="770" t="s">
+      <c r="Z11" s="777" t="s">
         <v>120</v>
       </c>
-      <c r="AA11" s="771"/>
+      <c r="AA11" s="778"/>
       <c r="AB11" s="52" t="s">
         <v>44</v>
       </c>
       <c r="AC11" s="118" t="s">
         <v>120</v>
       </c>
-      <c r="AD11" s="754"/>
+      <c r="AD11" s="761"/>
     </row>
     <row r="12" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C12" s="129"/>
@@ -14364,7 +14369,7 @@
       <c r="F12" s="66" t="s">
         <v>91</v>
       </c>
-      <c r="G12" s="781"/>
+      <c r="G12" s="749"/>
       <c r="H12" s="128"/>
       <c r="I12" s="19" t="s">
         <v>80</v>
@@ -14372,8 +14377,8 @@
       <c r="J12" s="3">
         <v>15</v>
       </c>
-      <c r="K12" s="760"/>
-      <c r="L12" s="775" t="s">
+      <c r="K12" s="767"/>
+      <c r="L12" s="782" t="s">
         <v>92</v>
       </c>
       <c r="M12" s="21" t="s">
@@ -14404,25 +14409,25 @@
         <v>115</v>
       </c>
       <c r="Y12" s="6"/>
-      <c r="AA12" s="764" t="s">
+      <c r="AA12" s="771" t="s">
         <v>125</v>
       </c>
-      <c r="AB12" s="765"/>
+      <c r="AB12" s="772"/>
       <c r="AC12" s="21" t="s">
         <v>231</v>
       </c>
-      <c r="AD12" s="754"/>
+      <c r="AD12" s="761"/>
     </row>
     <row r="13" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C13" s="746"/>
-      <c r="G13" s="781"/>
-      <c r="K13" s="760"/>
-      <c r="L13" s="776"/>
+      <c r="C13" s="785"/>
+      <c r="G13" s="749"/>
+      <c r="K13" s="767"/>
+      <c r="L13" s="783"/>
       <c r="M13" s="47"/>
-      <c r="Q13" s="783" t="s">
+      <c r="Q13" s="751" t="s">
         <v>209</v>
       </c>
-      <c r="R13" s="645"/>
+      <c r="R13" s="640"/>
       <c r="S13" s="600"/>
       <c r="T13" s="6"/>
       <c r="U13" s="96" t="s">
@@ -14431,17 +14436,17 @@
       <c r="X13" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="AA13" s="766"/>
-      <c r="AB13" s="767"/>
-      <c r="AD13" s="754"/>
+      <c r="AA13" s="773"/>
+      <c r="AB13" s="774"/>
+      <c r="AD13" s="761"/>
     </row>
     <row r="14" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="C14" s="748"/>
+      <c r="C14" s="787"/>
       <c r="D14" s="23"/>
-      <c r="G14" s="781"/>
+      <c r="G14" s="749"/>
       <c r="H14" s="125"/>
       <c r="I14" s="99" t="s">
         <v>44</v>
@@ -14449,8 +14454,8 @@
       <c r="J14" s="111">
         <v>115</v>
       </c>
-      <c r="K14" s="760"/>
-      <c r="L14" s="776"/>
+      <c r="K14" s="767"/>
+      <c r="L14" s="783"/>
       <c r="M14" s="21" t="s">
         <v>110</v>
       </c>
@@ -14471,9 +14476,9 @@
       <c r="Y14" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="AA14" s="766"/>
-      <c r="AB14" s="767"/>
-      <c r="AD14" s="754"/>
+      <c r="AA14" s="773"/>
+      <c r="AB14" s="774"/>
+      <c r="AD14" s="761"/>
     </row>
     <row r="15" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C15" s="130" t="s">
@@ -14488,19 +14493,19 @@
       <c r="F15" s="66" t="s">
         <v>93</v>
       </c>
-      <c r="G15" s="781"/>
+      <c r="G15" s="749"/>
       <c r="H15" s="2" t="s">
         <v>80</v>
       </c>
       <c r="I15" s="53" t="s">
         <v>80</v>
       </c>
-      <c r="K15" s="760"/>
-      <c r="L15" s="777"/>
-      <c r="Q15" s="783" t="s">
+      <c r="K15" s="767"/>
+      <c r="L15" s="784"/>
+      <c r="Q15" s="751" t="s">
         <v>210</v>
       </c>
-      <c r="R15" s="645"/>
+      <c r="R15" s="640"/>
       <c r="S15" s="600"/>
       <c r="T15" s="6"/>
       <c r="V15" s="68" t="s">
@@ -14509,14 +14514,14 @@
       <c r="X15" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="AA15" s="766"/>
-      <c r="AB15" s="767"/>
-      <c r="AD15" s="754"/>
+      <c r="AA15" s="773"/>
+      <c r="AB15" s="774"/>
+      <c r="AD15" s="761"/>
     </row>
     <row r="16" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C16" s="132"/>
-      <c r="G16" s="781"/>
-      <c r="K16" s="760"/>
+      <c r="G16" s="749"/>
+      <c r="K16" s="767"/>
       <c r="N16" s="47"/>
       <c r="O16" s="61" t="s">
         <v>108</v>
@@ -14535,24 +14540,24 @@
       <c r="Z16" s="76" t="s">
         <v>126</v>
       </c>
-      <c r="AA16" s="766"/>
-      <c r="AB16" s="767"/>
-      <c r="AD16" s="754"/>
+      <c r="AA16" s="773"/>
+      <c r="AB16" s="774"/>
+      <c r="AD16" s="761"/>
     </row>
     <row r="17" spans="3:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C17" s="109"/>
       <c r="E17" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="F17" s="778" t="s">
+      <c r="F17" s="746" t="s">
         <v>95</v>
       </c>
-      <c r="G17" s="781"/>
+      <c r="G17" s="749"/>
       <c r="H17" s="54"/>
       <c r="I17" s="133" t="s">
         <v>80</v>
       </c>
-      <c r="K17" s="760"/>
+      <c r="K17" s="767"/>
       <c r="S17" s="600"/>
       <c r="V17" s="68" t="s">
         <v>44</v>
@@ -14560,9 +14565,9 @@
       <c r="X17" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="AA17" s="766"/>
-      <c r="AB17" s="767"/>
-      <c r="AD17" s="754"/>
+      <c r="AA17" s="773"/>
+      <c r="AB17" s="774"/>
+      <c r="AD17" s="761"/>
     </row>
     <row r="18" spans="3:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C18" s="130"/>
@@ -14572,15 +14577,15 @@
       <c r="E18" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="F18" s="779"/>
-      <c r="G18" s="781"/>
+      <c r="F18" s="747"/>
+      <c r="G18" s="749"/>
       <c r="H18" s="108" t="s">
         <v>75</v>
       </c>
       <c r="I18" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="K18" s="760"/>
+      <c r="K18" s="767"/>
       <c r="O18" s="64" t="s">
         <v>114</v>
       </c>
@@ -14591,42 +14596,39 @@
       <c r="X18" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="AA18" s="768"/>
-      <c r="AB18" s="769"/>
-      <c r="AD18" s="754"/>
+      <c r="AA18" s="775"/>
+      <c r="AB18" s="776"/>
+      <c r="AD18" s="761"/>
     </row>
     <row r="19" spans="3:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F19" s="64" t="s">
         <v>208</v>
       </c>
-      <c r="G19" s="782"/>
-      <c r="K19" s="761"/>
+      <c r="G19" s="750"/>
+      <c r="K19" s="768"/>
       <c r="Q19" s="68" t="s">
         <v>44</v>
       </c>
-      <c r="R19" s="787" t="s">
+      <c r="R19" s="755" t="s">
         <v>123</v>
       </c>
-      <c r="S19" s="788"/>
-      <c r="T19" s="789"/>
+      <c r="S19" s="756"/>
+      <c r="T19" s="757"/>
       <c r="V19" s="77" t="s">
         <v>114</v>
       </c>
       <c r="Y19" s="19" t="s">
         <v>124</v>
       </c>
-      <c r="AD19" s="755"/>
+      <c r="AD19" s="762"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="G2:G19"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="L9:N9"/>
-    <mergeCell ref="R19:T19"/>
-    <mergeCell ref="S12:S18"/>
-    <mergeCell ref="O3:O9"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="V2:W2"/>
+    <mergeCell ref="M10:AC10"/>
+    <mergeCell ref="F2:F3"/>
     <mergeCell ref="AD1:AD19"/>
     <mergeCell ref="S8:AC8"/>
     <mergeCell ref="K5:K19"/>
@@ -14638,11 +14640,14 @@
     <mergeCell ref="P3:Q3"/>
     <mergeCell ref="L4:L8"/>
     <mergeCell ref="L12:L15"/>
-    <mergeCell ref="C9:C11"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="V2:W2"/>
-    <mergeCell ref="M10:AC10"/>
-    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="G2:G19"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="L9:N9"/>
+    <mergeCell ref="R19:T19"/>
+    <mergeCell ref="S12:S18"/>
+    <mergeCell ref="O3:O9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/System_2.1.8.xlsx
+++ b/System_2.1.8.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Work_For_\Work\Running AppS\System_Work_RW\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F4D35F1-A2F5-4DE3-A6BA-AA4B9CAA26B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5FB5B1F-EE24-4433-902C-35DA69FDECED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BoardRW" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1132" uniqueCount="633">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1117" uniqueCount="626">
   <si>
     <t>Zone</t>
   </si>
@@ -1844,18 +1844,6 @@
     <t>aajtak</t>
   </si>
   <si>
-    <t>nd tv india</t>
-  </si>
-  <si>
-    <t>rbharat</t>
-  </si>
-  <si>
-    <t>timesnow</t>
-  </si>
-  <si>
-    <t>nd tv 24*7</t>
-  </si>
-  <si>
     <t>IT_X_Media</t>
   </si>
   <si>
@@ -1901,9 +1889,6 @@
     <t>CoHostW</t>
   </si>
   <si>
-    <t>PTM News</t>
-  </si>
-  <si>
     <t>NodeW</t>
   </si>
   <si>
@@ -1916,28 +1901,22 @@
     <t>bharat24</t>
   </si>
   <si>
-    <t>asianet</t>
-  </si>
-  <si>
-    <t>manorama</t>
-  </si>
-  <si>
     <t>France24 E</t>
   </si>
   <si>
     <t>abp</t>
   </si>
   <si>
-    <t>Aaj Tak</t>
-  </si>
-  <si>
     <t>3M8F</t>
   </si>
   <si>
-    <t>8F Reserved</t>
-  </si>
-  <si>
-    <t>5F Reserved</t>
+    <t>zee N</t>
+  </si>
+  <si>
+    <t>polimer</t>
+  </si>
+  <si>
+    <t>4F Reserved</t>
   </si>
 </sst>
 </file>
@@ -3570,7 +3549,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="792">
+  <cellXfs count="791">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
@@ -4901,9 +4880,6 @@
     <xf numFmtId="0" fontId="4" fillId="53" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="53" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5063,6 +5039,159 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="49" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="49" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="49" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -5081,12 +5210,6 @@
     <xf numFmtId="0" fontId="18" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="13" fillId="27" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5141,169 +5264,61 @@
     <xf numFmtId="0" fontId="3" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="36" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="36" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="36" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="49" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="49" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="49" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="27" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5345,43 +5360,70 @@
     <xf numFmtId="0" fontId="3" fillId="36" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="36" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="36" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="36" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    <xf numFmtId="0" fontId="3" fillId="43" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="43" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="43" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="40" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="40" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="40" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="52" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="52" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="14" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="14" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="35" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5405,112 +5447,25 @@
     <xf numFmtId="0" fontId="29" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="43" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="43" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="43" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="40" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="40" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="40" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="52" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="52" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="14" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="14" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5588,25 +5543,46 @@
     <xf numFmtId="0" fontId="3" fillId="21" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -5961,10 +5937,10 @@
       <c r="I2" s="394" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="602" t="s">
+      <c r="J2" s="601" t="s">
         <v>7</v>
       </c>
-      <c r="K2" s="603"/>
+      <c r="K2" s="602"/>
       <c r="L2" s="1" t="s">
         <v>8</v>
       </c>
@@ -5974,14 +5950,14 @@
       <c r="N2" s="351" t="s">
         <v>10</v>
       </c>
-      <c r="O2" s="604" t="s">
+      <c r="O2" s="603" t="s">
         <v>376</v>
       </c>
-      <c r="P2" s="605"/>
-      <c r="Q2" s="606"/>
-      <c r="R2" s="606"/>
-      <c r="S2" s="606"/>
-      <c r="T2" s="607" t="s">
+      <c r="P2" s="604"/>
+      <c r="Q2" s="605"/>
+      <c r="R2" s="605"/>
+      <c r="S2" s="605"/>
+      <c r="T2" s="606" t="s">
         <v>377</v>
       </c>
       <c r="V2" s="2" t="s">
@@ -5995,7 +5971,7 @@
       <c r="C3" s="166" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="599"/>
+      <c r="D3" s="598"/>
       <c r="E3" s="339"/>
       <c r="F3" s="267" t="s">
         <v>68</v>
@@ -6012,9 +5988,7 @@
       <c r="L3" s="274" t="s">
         <v>15</v>
       </c>
-      <c r="M3" s="325">
-        <v>45275</v>
-      </c>
+      <c r="M3" s="325"/>
       <c r="N3" s="61" t="s">
         <v>12</v>
       </c>
@@ -6031,7 +6005,7 @@
       <c r="S3" s="24">
         <v>1</v>
       </c>
-      <c r="T3" s="608"/>
+      <c r="T3" s="607"/>
       <c r="U3" s="19" t="s">
         <v>567</v>
       </c>
@@ -6047,7 +6021,7 @@
       <c r="C4" s="166" t="s">
         <v>355</v>
       </c>
-      <c r="D4" s="600"/>
+      <c r="D4" s="599"/>
       <c r="E4" s="61"/>
       <c r="F4" s="361" t="s">
         <v>42</v>
@@ -6064,7 +6038,7 @@
       </c>
       <c r="O4" s="6"/>
       <c r="P4" s="315"/>
-      <c r="T4" s="608"/>
+      <c r="T4" s="607"/>
     </row>
     <row r="5" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="2" t="s">
@@ -6073,7 +6047,7 @@
       <c r="C5" s="166" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="601"/>
+      <c r="D5" s="600"/>
       <c r="F5" s="365" t="s">
         <v>42</v>
       </c>
@@ -6085,14 +6059,12 @@
       <c r="J5" s="180"/>
       <c r="K5" s="148"/>
       <c r="L5" s="275"/>
-      <c r="M5" s="325">
-        <v>45275</v>
-      </c>
+      <c r="M5" s="325"/>
       <c r="N5" s="367" t="s">
         <v>504</v>
       </c>
       <c r="P5" s="315"/>
-      <c r="T5" s="608"/>
+      <c r="T5" s="607"/>
       <c r="U5" s="206" t="s">
         <v>226</v>
       </c>
@@ -6122,16 +6094,14 @@
       <c r="L6" s="276" t="s">
         <v>413</v>
       </c>
-      <c r="M6" s="325">
-        <v>45275</v>
-      </c>
+      <c r="M6" s="325"/>
       <c r="N6" s="371" t="s">
         <v>504</v>
       </c>
       <c r="P6" s="315"/>
       <c r="Q6" s="16"/>
       <c r="R6" s="6"/>
-      <c r="T6" s="608"/>
+      <c r="T6" s="607"/>
     </row>
     <row r="7" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="211" t="s">
@@ -6169,7 +6139,7 @@
       <c r="S7" s="24">
         <v>1</v>
       </c>
-      <c r="T7" s="608"/>
+      <c r="T7" s="607"/>
     </row>
     <row r="8" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="2" t="s">
@@ -6198,7 +6168,7 @@
       <c r="P8" s="315"/>
       <c r="Q8" s="16"/>
       <c r="R8" s="6"/>
-      <c r="T8" s="608"/>
+      <c r="T8" s="607"/>
     </row>
     <row r="9" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="3" t="s">
@@ -6224,9 +6194,7 @@
       <c r="L9" s="205" t="s">
         <v>15</v>
       </c>
-      <c r="M9" s="360">
-        <v>45275</v>
-      </c>
+      <c r="M9" s="360"/>
       <c r="N9" s="339"/>
       <c r="O9" s="477" t="s">
         <v>44</v>
@@ -6235,7 +6203,7 @@
         <v>1</v>
       </c>
       <c r="Q9" s="2" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="R9" s="34" t="s">
         <v>44</v>
@@ -6243,7 +6211,7 @@
       <c r="S9" s="24">
         <v>1</v>
       </c>
-      <c r="T9" s="608"/>
+      <c r="T9" s="607"/>
     </row>
     <row r="10" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="2" t="s">
@@ -6254,7 +6222,7 @@
       </c>
       <c r="D10" s="61"/>
       <c r="F10" s="361" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>21</v>
@@ -6268,14 +6236,12 @@
       <c r="L10" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="M10" s="360">
-        <v>45275</v>
-      </c>
+      <c r="M10" s="360"/>
       <c r="N10" s="367" t="s">
         <v>504</v>
       </c>
       <c r="P10" s="315"/>
-      <c r="T10" s="608"/>
+      <c r="T10" s="607"/>
     </row>
     <row r="11" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="2" t="s">
@@ -6301,9 +6267,7 @@
       <c r="L11" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="M11" s="360">
-        <v>45275</v>
-      </c>
+      <c r="M11" s="360"/>
       <c r="N11" s="363" t="s">
         <v>18</v>
       </c>
@@ -6317,7 +6281,7 @@
       <c r="S11" s="24">
         <v>1</v>
       </c>
-      <c r="T11" s="608"/>
+      <c r="T11" s="607"/>
       <c r="U11" s="206" t="s">
         <v>225</v>
       </c>
@@ -6350,7 +6314,7 @@
       <c r="P12" s="315"/>
       <c r="Q12" s="16"/>
       <c r="R12" s="142"/>
-      <c r="T12" s="608"/>
+      <c r="T12" s="607"/>
     </row>
     <row r="13" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="258" t="s">
@@ -6374,15 +6338,13 @@
       <c r="L13" s="341" t="s">
         <v>15</v>
       </c>
-      <c r="M13" s="360">
-        <v>45275</v>
-      </c>
+      <c r="M13" s="360"/>
       <c r="N13" s="368" t="s">
         <v>504</v>
       </c>
       <c r="P13" s="315"/>
       <c r="R13" s="142"/>
-      <c r="T13" s="608"/>
+      <c r="T13" s="607"/>
       <c r="U13" s="2" t="s">
         <v>589</v>
       </c>
@@ -6392,7 +6354,7 @@
     </row>
     <row r="14" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="P14" s="315"/>
-      <c r="T14" s="608"/>
+      <c r="T14" s="607"/>
     </row>
     <row r="15" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="2" t="s">
@@ -6418,10 +6380,8 @@
       <c r="L15" s="137" t="s">
         <v>15</v>
       </c>
-      <c r="M15" s="596">
-        <v>45275</v>
-      </c>
-      <c r="N15" s="599" t="s">
+      <c r="M15" s="595"/>
+      <c r="N15" s="598" t="s">
         <v>22</v>
       </c>
       <c r="O15" s="477" t="s">
@@ -6439,7 +6399,7 @@
       <c r="S15" s="24">
         <v>1</v>
       </c>
-      <c r="T15" s="608"/>
+      <c r="T15" s="607"/>
     </row>
     <row r="16" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="465" t="s">
@@ -6465,8 +6425,8 @@
       <c r="L16" s="196" t="s">
         <v>15</v>
       </c>
-      <c r="M16" s="597"/>
-      <c r="N16" s="600"/>
+      <c r="M16" s="596"/>
+      <c r="N16" s="599"/>
       <c r="P16" s="315">
         <v>1</v>
       </c>
@@ -6479,7 +6439,7 @@
       <c r="S16" s="112">
         <v>1</v>
       </c>
-      <c r="T16" s="608"/>
+      <c r="T16" s="607"/>
     </row>
     <row r="17" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="2"/>
@@ -6505,8 +6465,8 @@
       <c r="L17" s="135" t="s">
         <v>15</v>
       </c>
-      <c r="M17" s="598"/>
-      <c r="N17" s="601"/>
+      <c r="M17" s="597"/>
+      <c r="N17" s="600"/>
       <c r="O17" s="477" t="s">
         <v>44</v>
       </c>
@@ -6522,11 +6482,11 @@
       <c r="S17" s="24">
         <v>1</v>
       </c>
-      <c r="T17" s="608"/>
+      <c r="T17" s="607"/>
     </row>
     <row r="18" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="P18" s="315"/>
-      <c r="T18" s="608"/>
+      <c r="T18" s="607"/>
     </row>
     <row r="19" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19" s="2" t="s">
@@ -6552,14 +6512,12 @@
       <c r="L19" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="M19" s="596">
-        <v>45275</v>
-      </c>
+      <c r="M19" s="595"/>
       <c r="N19" s="393" t="s">
         <v>504</v>
       </c>
       <c r="P19" s="315"/>
-      <c r="T19" s="608"/>
+      <c r="T19" s="607"/>
     </row>
     <row r="20" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B20" s="243" t="s">
@@ -6585,7 +6543,7 @@
       <c r="L20" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="M20" s="597"/>
+      <c r="M20" s="596"/>
       <c r="N20" s="385" t="s">
         <v>26</v>
       </c>
@@ -6601,7 +6559,7 @@
       <c r="S20" s="24">
         <v>1</v>
       </c>
-      <c r="T20" s="608"/>
+      <c r="T20" s="607"/>
     </row>
     <row r="21" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B21" s="243" t="s">
@@ -6627,7 +6585,7 @@
       <c r="L21" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="M21" s="597"/>
+      <c r="M21" s="596"/>
       <c r="N21" s="385" t="s">
         <v>18</v>
       </c>
@@ -6643,11 +6601,11 @@
       <c r="S21" s="24">
         <v>1</v>
       </c>
-      <c r="T21" s="608"/>
-      <c r="U21" s="594" t="s">
+      <c r="T21" s="607"/>
+      <c r="U21" s="593" t="s">
         <v>224</v>
       </c>
-      <c r="V21" s="595"/>
+      <c r="V21" s="594"/>
     </row>
     <row r="22" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="272" t="s">
@@ -6671,14 +6629,14 @@
       <c r="L22" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="M22" s="597"/>
+      <c r="M22" s="596"/>
       <c r="N22" s="374" t="s">
         <v>26</v>
       </c>
       <c r="P22" s="315"/>
-      <c r="T22" s="608"/>
+      <c r="T22" s="607"/>
       <c r="X22" s="19" t="s">
-        <v>632</v>
+        <v>625</v>
       </c>
     </row>
     <row r="23" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6692,7 +6650,7 @@
       <c r="E23" s="61"/>
       <c r="F23" s="100"/>
       <c r="G23" s="2" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="H23" s="2" t="s">
         <v>411</v>
@@ -6703,12 +6661,12 @@
       <c r="L23" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="M23" s="597"/>
+      <c r="M23" s="596"/>
       <c r="N23" s="61" t="s">
         <v>505</v>
       </c>
       <c r="P23" s="315"/>
-      <c r="T23" s="608"/>
+      <c r="T23" s="607"/>
       <c r="U23" s="2" t="s">
         <v>598</v>
       </c>
@@ -6730,7 +6688,7 @@
       <c r="E24" s="467"/>
       <c r="F24" s="389"/>
       <c r="G24" s="241" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="H24" s="212" t="s">
         <v>393</v>
@@ -6741,7 +6699,7 @@
       <c r="L24" s="135" t="s">
         <v>32</v>
       </c>
-      <c r="M24" s="597"/>
+      <c r="M24" s="596"/>
       <c r="N24" s="61" t="s">
         <v>26</v>
       </c>
@@ -6750,10 +6708,8 @@
       </c>
       <c r="P24" s="516"/>
       <c r="S24" s="80"/>
-      <c r="T24" s="608"/>
-      <c r="X24" s="19" t="s">
-        <v>631</v>
-      </c>
+      <c r="T24" s="607"/>
+      <c r="X24" s="19"/>
     </row>
     <row r="25" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B25" s="3" t="s">
@@ -6779,7 +6735,7 @@
       <c r="L25" s="135" t="s">
         <v>35</v>
       </c>
-      <c r="M25" s="597"/>
+      <c r="M25" s="596"/>
       <c r="N25" s="61" t="s">
         <v>26</v>
       </c>
@@ -6795,7 +6751,7 @@
       <c r="S25" s="21">
         <v>1</v>
       </c>
-      <c r="T25" s="608"/>
+      <c r="T25" s="607"/>
       <c r="V25" s="19"/>
     </row>
     <row r="26" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6811,10 +6767,10 @@
       <c r="E26" s="395"/>
       <c r="F26" s="361"/>
       <c r="G26" s="2" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="I26" s="61"/>
       <c r="J26" s="244"/>
@@ -6822,14 +6778,14 @@
       <c r="L26" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="M26" s="597"/>
+      <c r="M26" s="596"/>
       <c r="N26" s="61" t="s">
         <v>506</v>
       </c>
       <c r="P26" s="315"/>
-      <c r="T26" s="608"/>
+      <c r="T26" s="607"/>
       <c r="V26" s="517" t="s">
-        <v>630</v>
+        <v>622</v>
       </c>
     </row>
     <row r="27" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6843,7 +6799,7 @@
       <c r="E27" s="395"/>
       <c r="F27" s="384"/>
       <c r="G27" s="2" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="H27" s="212" t="s">
         <v>515</v>
@@ -6852,7 +6808,7 @@
       <c r="J27" s="390"/>
       <c r="K27" s="391"/>
       <c r="L27" s="392"/>
-      <c r="M27" s="597"/>
+      <c r="M27" s="596"/>
       <c r="N27" s="61"/>
       <c r="P27" s="315">
         <v>1</v>
@@ -6866,7 +6822,7 @@
       <c r="S27" s="24">
         <v>1</v>
       </c>
-      <c r="T27" s="608"/>
+      <c r="T27" s="607"/>
       <c r="W27" s="2" t="s">
         <v>582</v>
       </c>
@@ -6884,7 +6840,7 @@
       <c r="E28" s="395"/>
       <c r="F28" s="386"/>
       <c r="G28" s="2" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="H28" s="212" t="s">
         <v>580</v>
@@ -6895,7 +6851,7 @@
       <c r="L28" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="M28" s="598"/>
+      <c r="M28" s="597"/>
       <c r="N28" s="61" t="s">
         <v>506</v>
       </c>
@@ -6911,7 +6867,7 @@
       <c r="S28" s="21">
         <v>1</v>
       </c>
-      <c r="T28" s="609"/>
+      <c r="T28" s="608"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -6999,7 +6955,7 @@
       <c r="H1" s="97" t="s">
         <v>344</v>
       </c>
-      <c r="I1" s="660" t="s">
+      <c r="I1" s="613" t="s">
         <v>370</v>
       </c>
       <c r="J1" s="2" t="s">
@@ -7035,7 +6991,7 @@
       <c r="X1" s="433" t="s">
         <v>155</v>
       </c>
-      <c r="Y1" s="654" t="s">
+      <c r="Y1" s="657" t="s">
         <v>530</v>
       </c>
       <c r="Z1" s="409">
@@ -7060,7 +7016,7 @@
         <v>499</v>
       </c>
       <c r="AM1" s="405"/>
-      <c r="AN1" s="636"/>
+      <c r="AN1" s="640"/>
       <c r="AO1" s="340" t="s">
         <v>470</v>
       </c>
@@ -7069,23 +7025,23 @@
       </c>
     </row>
     <row r="2" spans="1:43" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="618">
+      <c r="A2" s="666">
         <f ca="1">TODAY()</f>
         <v>45284</v>
       </c>
-      <c r="B2" s="620" t="s">
+      <c r="B2" s="668" t="s">
         <v>371</v>
       </c>
-      <c r="C2" s="616" t="s">
+      <c r="C2" s="645" t="s">
         <v>358</v>
       </c>
-      <c r="D2" s="622" t="s">
+      <c r="D2" s="670" t="s">
         <v>356</v>
       </c>
-      <c r="E2" s="670" t="s">
+      <c r="E2" s="609" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="641" t="s">
+      <c r="F2" s="619" t="s">
         <v>102</v>
       </c>
       <c r="G2" s="396" t="s">
@@ -7094,31 +7050,31 @@
       <c r="H2" s="80" t="s">
         <v>33</v>
       </c>
-      <c r="I2" s="661"/>
+      <c r="I2" s="614"/>
       <c r="J2" s="81" t="s">
         <v>76</v>
       </c>
-      <c r="K2" s="672" t="s">
+      <c r="K2" s="611" t="s">
         <v>343</v>
       </c>
-      <c r="L2" s="673"/>
-      <c r="M2" s="641" t="s">
+      <c r="L2" s="612"/>
+      <c r="M2" s="619" t="s">
         <v>102</v>
       </c>
       <c r="N2" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="O2" s="645" t="s">
+      <c r="O2" s="649" t="s">
         <v>102</v>
       </c>
       <c r="P2" s="85" t="s">
         <v>147</v>
       </c>
-      <c r="Q2" s="616" t="s">
+      <c r="Q2" s="645" t="s">
         <v>143</v>
       </c>
-      <c r="R2" s="599"/>
-      <c r="S2" s="658" t="s">
+      <c r="R2" s="598"/>
+      <c r="S2" s="634" t="s">
         <v>148</v>
       </c>
       <c r="T2" s="89"/>
@@ -7128,7 +7084,7 @@
       <c r="X2" s="434" t="s">
         <v>156</v>
       </c>
-      <c r="Y2" s="655"/>
+      <c r="Y2" s="658"/>
       <c r="Z2" s="410">
         <v>1</v>
       </c>
@@ -7151,15 +7107,15 @@
         <v>464</v>
       </c>
       <c r="AM2" s="431"/>
-      <c r="AN2" s="637"/>
+      <c r="AN2" s="641"/>
     </row>
     <row r="3" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="619"/>
-      <c r="B3" s="621"/>
-      <c r="C3" s="617"/>
-      <c r="D3" s="623"/>
-      <c r="E3" s="671"/>
-      <c r="F3" s="642"/>
+      <c r="A3" s="667"/>
+      <c r="B3" s="669"/>
+      <c r="C3" s="646"/>
+      <c r="D3" s="671"/>
+      <c r="E3" s="610"/>
+      <c r="F3" s="620"/>
       <c r="G3" s="397" t="s">
         <v>28</v>
       </c>
@@ -7178,17 +7134,17 @@
       <c r="L3" s="203" t="s">
         <v>107</v>
       </c>
-      <c r="M3" s="642"/>
+      <c r="M3" s="620"/>
       <c r="N3" s="69" t="s">
         <v>146</v>
       </c>
-      <c r="O3" s="646"/>
+      <c r="O3" s="650"/>
       <c r="P3" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="Q3" s="617"/>
-      <c r="R3" s="601"/>
-      <c r="S3" s="659"/>
+      <c r="Q3" s="646"/>
+      <c r="R3" s="600"/>
+      <c r="S3" s="636"/>
       <c r="T3" s="89"/>
       <c r="U3" s="124"/>
       <c r="V3" s="120"/>
@@ -7196,7 +7152,7 @@
       <c r="X3" s="434" t="s">
         <v>157</v>
       </c>
-      <c r="Y3" s="655"/>
+      <c r="Y3" s="658"/>
       <c r="Z3" s="411">
         <v>1</v>
       </c>
@@ -7205,7 +7161,7 @@
       <c r="AC3" s="100" t="s">
         <v>481</v>
       </c>
-      <c r="AD3" s="657" t="s">
+      <c r="AD3" s="631" t="s">
         <v>456</v>
       </c>
       <c r="AE3" s="259"/>
@@ -7217,16 +7173,16 @@
       <c r="AK3" s="259"/>
       <c r="AL3" s="16"/>
       <c r="AM3" s="431"/>
-      <c r="AN3" s="637"/>
+      <c r="AN3" s="641"/>
     </row>
     <row r="4" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="240" t="s">
         <v>183</v>
       </c>
-      <c r="B4" s="634" t="s">
+      <c r="B4" s="682" t="s">
         <v>374</v>
       </c>
-      <c r="C4" s="616" t="s">
+      <c r="C4" s="645" t="s">
         <v>154</v>
       </c>
       <c r="D4" s="349" t="s">
@@ -7235,7 +7191,7 @@
       <c r="E4" s="380">
         <v>2</v>
       </c>
-      <c r="F4" s="642"/>
+      <c r="F4" s="620"/>
       <c r="G4" s="383" t="s">
         <v>202</v>
       </c>
@@ -7252,11 +7208,11 @@
         <v>150</v>
       </c>
       <c r="L4" s="206"/>
-      <c r="M4" s="642"/>
+      <c r="M4" s="620"/>
       <c r="N4" s="176" t="s">
         <v>69</v>
       </c>
-      <c r="O4" s="646"/>
+      <c r="O4" s="650"/>
       <c r="P4" s="2" t="s">
         <v>191</v>
       </c>
@@ -7278,12 +7234,12 @@
       <c r="X4" s="434" t="s">
         <v>158</v>
       </c>
-      <c r="Y4" s="655"/>
+      <c r="Y4" s="658"/>
       <c r="Z4" s="412"/>
       <c r="AA4" s="309"/>
       <c r="AB4" s="211"/>
       <c r="AC4" s="16"/>
-      <c r="AD4" s="657"/>
+      <c r="AD4" s="631"/>
       <c r="AE4" s="259"/>
       <c r="AF4" s="259"/>
       <c r="AG4" s="16"/>
@@ -7293,37 +7249,37 @@
       <c r="AK4" s="259"/>
       <c r="AL4" s="16"/>
       <c r="AM4" s="431"/>
-      <c r="AN4" s="637"/>
+      <c r="AN4" s="641"/>
       <c r="AO4" s="340" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="660" t="s">
+      <c r="A5" s="613" t="s">
         <v>419</v>
       </c>
-      <c r="B5" s="635"/>
-      <c r="C5" s="617"/>
+      <c r="B5" s="683"/>
+      <c r="C5" s="646"/>
       <c r="D5" s="61" t="s">
         <v>153</v>
       </c>
       <c r="E5" s="381">
         <v>1</v>
       </c>
-      <c r="F5" s="642"/>
-      <c r="G5" s="626" t="s">
+      <c r="F5" s="620"/>
+      <c r="G5" s="674" t="s">
         <v>192</v>
       </c>
-      <c r="H5" s="626"/>
-      <c r="I5" s="626"/>
-      <c r="J5" s="626"/>
-      <c r="K5" s="626"/>
-      <c r="L5" s="627"/>
-      <c r="M5" s="642"/>
+      <c r="H5" s="674"/>
+      <c r="I5" s="674"/>
+      <c r="J5" s="674"/>
+      <c r="K5" s="674"/>
+      <c r="L5" s="675"/>
+      <c r="M5" s="620"/>
       <c r="N5" s="21">
         <v>8</v>
       </c>
-      <c r="O5" s="646"/>
+      <c r="O5" s="650"/>
       <c r="T5" s="89"/>
       <c r="U5" s="124"/>
       <c r="V5" s="120"/>
@@ -7331,7 +7287,7 @@
       <c r="X5" s="434" t="s">
         <v>159</v>
       </c>
-      <c r="Y5" s="655"/>
+      <c r="Y5" s="658"/>
       <c r="Z5" s="412">
         <v>1</v>
       </c>
@@ -7354,24 +7310,24 @@
       <c r="AK5" s="259"/>
       <c r="AL5" s="80"/>
       <c r="AM5" s="431"/>
-      <c r="AN5" s="637"/>
+      <c r="AN5" s="641"/>
     </row>
     <row r="6" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="661"/>
-      <c r="B6" s="632" t="s">
+      <c r="A6" s="614"/>
+      <c r="B6" s="680" t="s">
         <v>177</v>
       </c>
-      <c r="C6" s="662"/>
-      <c r="D6" s="663"/>
-      <c r="F6" s="642"/>
-      <c r="G6" s="628"/>
-      <c r="H6" s="628"/>
-      <c r="I6" s="628"/>
-      <c r="J6" s="628"/>
-      <c r="K6" s="628"/>
-      <c r="L6" s="629"/>
-      <c r="M6" s="642"/>
-      <c r="O6" s="646"/>
+      <c r="C6" s="628"/>
+      <c r="D6" s="629"/>
+      <c r="F6" s="620"/>
+      <c r="G6" s="676"/>
+      <c r="H6" s="676"/>
+      <c r="I6" s="676"/>
+      <c r="J6" s="676"/>
+      <c r="K6" s="676"/>
+      <c r="L6" s="677"/>
+      <c r="M6" s="620"/>
+      <c r="O6" s="650"/>
       <c r="T6" s="89"/>
       <c r="U6" s="124"/>
       <c r="V6" s="98" t="s">
@@ -7381,7 +7337,7 @@
       <c r="X6" s="434" t="s">
         <v>160</v>
       </c>
-      <c r="Y6" s="655"/>
+      <c r="Y6" s="658"/>
       <c r="Z6" s="410">
         <v>1</v>
       </c>
@@ -7395,16 +7351,16 @@
       <c r="AF6" s="259"/>
       <c r="AG6" s="259"/>
       <c r="AH6" s="259"/>
-      <c r="AI6" s="651"/>
+      <c r="AI6" s="630"/>
       <c r="AJ6" s="444" t="s">
         <v>459</v>
       </c>
-      <c r="AK6" s="651" t="s">
+      <c r="AK6" s="630" t="s">
         <v>252</v>
       </c>
       <c r="AL6" s="259"/>
       <c r="AM6" s="431"/>
-      <c r="AN6" s="637"/>
+      <c r="AN6" s="641"/>
       <c r="AO6" s="340" t="s">
         <v>471</v>
       </c>
@@ -7413,7 +7369,7 @@
       <c r="A7" s="234" t="s">
         <v>574</v>
       </c>
-      <c r="B7" s="633"/>
+      <c r="B7" s="681"/>
       <c r="C7" s="204" t="s">
         <v>375</v>
       </c>
@@ -7423,7 +7379,7 @@
       <c r="E7" s="267">
         <v>3</v>
       </c>
-      <c r="F7" s="642"/>
+      <c r="F7" s="620"/>
       <c r="G7" s="398">
         <v>0</v>
       </c>
@@ -7436,14 +7392,14 @@
       <c r="J7" s="30">
         <v>0</v>
       </c>
-      <c r="K7" s="599">
+      <c r="K7" s="598">
         <v>0</v>
       </c>
       <c r="L7" s="214">
         <v>0</v>
       </c>
-      <c r="M7" s="642"/>
-      <c r="O7" s="646"/>
+      <c r="M7" s="620"/>
+      <c r="O7" s="650"/>
       <c r="R7" s="99" t="s">
         <v>44</v>
       </c>
@@ -7457,7 +7413,7 @@
       <c r="X7" s="434" t="s">
         <v>161</v>
       </c>
-      <c r="Y7" s="655"/>
+      <c r="Y7" s="658"/>
       <c r="Z7" s="410">
         <v>1</v>
       </c>
@@ -7467,18 +7423,18 @@
       <c r="AD7" s="16"/>
       <c r="AE7" s="259"/>
       <c r="AF7" s="259"/>
-      <c r="AG7" s="657" t="s">
+      <c r="AG7" s="631" t="s">
         <v>455</v>
       </c>
       <c r="AH7" s="259"/>
-      <c r="AI7" s="651"/>
+      <c r="AI7" s="630"/>
       <c r="AJ7" s="259"/>
-      <c r="AK7" s="651"/>
+      <c r="AK7" s="630"/>
       <c r="AL7" s="80" t="s">
         <v>497</v>
       </c>
       <c r="AM7" s="431"/>
-      <c r="AN7" s="637"/>
+      <c r="AN7" s="641"/>
       <c r="AP7" s="76" t="s">
         <v>472</v>
       </c>
@@ -7495,27 +7451,27 @@
         <f>SUM(G7:N9)</f>
         <v>15</v>
       </c>
-      <c r="F8" s="642"/>
-      <c r="G8" s="627">
-        <v>0</v>
-      </c>
-      <c r="H8" s="624" t="s">
+      <c r="F8" s="620"/>
+      <c r="G8" s="675">
+        <v>0</v>
+      </c>
+      <c r="H8" s="672" t="s">
         <v>104</v>
       </c>
-      <c r="I8" s="599">
-        <v>0</v>
-      </c>
-      <c r="J8" s="624" t="s">
+      <c r="I8" s="598">
+        <v>0</v>
+      </c>
+      <c r="J8" s="672" t="s">
         <v>104</v>
       </c>
-      <c r="K8" s="630"/>
-      <c r="L8" s="664"/>
-      <c r="M8" s="643"/>
-      <c r="N8" s="667">
+      <c r="K8" s="678"/>
+      <c r="L8" s="632"/>
+      <c r="M8" s="647"/>
+      <c r="N8" s="637">
         <f>N5+N11</f>
         <v>15</v>
       </c>
-      <c r="O8" s="646"/>
+      <c r="O8" s="650"/>
       <c r="T8" s="103" t="s">
         <v>44</v>
       </c>
@@ -7525,7 +7481,7 @@
       <c r="X8" s="434" t="s">
         <v>162</v>
       </c>
-      <c r="Y8" s="655"/>
+      <c r="Y8" s="658"/>
       <c r="Z8" s="412"/>
       <c r="AA8" s="309"/>
       <c r="AB8" s="211"/>
@@ -7533,14 +7489,14 @@
       <c r="AD8" s="16"/>
       <c r="AE8" s="259"/>
       <c r="AF8" s="259"/>
-      <c r="AG8" s="657"/>
+      <c r="AG8" s="631"/>
       <c r="AH8" s="259"/>
-      <c r="AI8" s="651"/>
+      <c r="AI8" s="630"/>
       <c r="AJ8" s="259"/>
       <c r="AK8" s="259"/>
       <c r="AL8" s="259"/>
       <c r="AM8" s="431"/>
-      <c r="AN8" s="637"/>
+      <c r="AN8" s="641"/>
     </row>
     <row r="9" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="234" t="s">
@@ -7555,17 +7511,17 @@
       <c r="D9" s="350" t="s">
         <v>282</v>
       </c>
-      <c r="F9" s="642"/>
-      <c r="G9" s="629"/>
-      <c r="H9" s="625"/>
-      <c r="I9" s="601"/>
-      <c r="J9" s="625"/>
-      <c r="K9" s="631"/>
-      <c r="L9" s="665"/>
-      <c r="M9" s="644"/>
-      <c r="N9" s="668"/>
-      <c r="O9" s="647"/>
-      <c r="S9" s="658" t="s">
+      <c r="F9" s="620"/>
+      <c r="G9" s="677"/>
+      <c r="H9" s="673"/>
+      <c r="I9" s="600"/>
+      <c r="J9" s="673"/>
+      <c r="K9" s="679"/>
+      <c r="L9" s="633"/>
+      <c r="M9" s="648"/>
+      <c r="N9" s="638"/>
+      <c r="O9" s="651"/>
+      <c r="S9" s="634" t="s">
         <v>61</v>
       </c>
       <c r="T9" s="89"/>
@@ -7577,7 +7533,7 @@
       <c r="X9" s="434" t="s">
         <v>163</v>
       </c>
-      <c r="Y9" s="655"/>
+      <c r="Y9" s="658"/>
       <c r="Z9" s="413"/>
       <c r="AA9" s="309"/>
       <c r="AB9" s="211"/>
@@ -7587,16 +7543,16 @@
       </c>
       <c r="AE9" s="259"/>
       <c r="AF9" s="259"/>
-      <c r="AG9" s="657"/>
+      <c r="AG9" s="631"/>
       <c r="AH9" s="259"/>
-      <c r="AI9" s="651"/>
+      <c r="AI9" s="630"/>
       <c r="AJ9" s="80"/>
-      <c r="AK9" s="651" t="s">
+      <c r="AK9" s="630" t="s">
         <v>252</v>
       </c>
       <c r="AL9" s="259"/>
       <c r="AM9" s="431"/>
-      <c r="AN9" s="637"/>
+      <c r="AN9" s="641"/>
       <c r="AP9" s="2" t="s">
         <v>509</v>
       </c>
@@ -7611,22 +7567,22 @@
       <c r="D10" s="142"/>
       <c r="E10" s="239">
         <f>Boat!W8</f>
-        <v>36</v>
-      </c>
-      <c r="F10" s="642"/>
+        <v>41</v>
+      </c>
+      <c r="F10" s="620"/>
       <c r="N10" s="421" t="s">
         <v>397</v>
       </c>
-      <c r="O10" s="679" t="s">
+      <c r="O10" s="622" t="s">
         <v>102</v>
       </c>
-      <c r="P10" s="648" t="s">
+      <c r="P10" s="652" t="s">
         <v>401</v>
       </c>
       <c r="R10" s="74" t="s">
         <v>44</v>
       </c>
-      <c r="S10" s="666"/>
+      <c r="S10" s="635"/>
       <c r="T10" s="89"/>
       <c r="U10" s="123" t="s">
         <v>176</v>
@@ -7638,7 +7594,7 @@
       <c r="X10" s="434" t="s">
         <v>164</v>
       </c>
-      <c r="Y10" s="655"/>
+      <c r="Y10" s="658"/>
       <c r="Z10" s="412">
         <v>0</v>
       </c>
@@ -7656,16 +7612,16 @@
       <c r="AF10" s="240" t="s">
         <v>312</v>
       </c>
-      <c r="AG10" s="657"/>
+      <c r="AG10" s="631"/>
       <c r="AH10" s="80"/>
-      <c r="AI10" s="651"/>
+      <c r="AI10" s="630"/>
       <c r="AJ10" s="259"/>
-      <c r="AK10" s="651"/>
+      <c r="AK10" s="630"/>
       <c r="AL10" s="259"/>
       <c r="AM10" s="445" t="s">
         <v>319</v>
       </c>
-      <c r="AN10" s="637"/>
+      <c r="AN10" s="641"/>
       <c r="AO10" s="206" t="s">
         <v>94</v>
       </c>
@@ -7674,7 +7630,7 @@
       <c r="A11" s="225" t="s">
         <v>286</v>
       </c>
-      <c r="B11" s="599" t="s">
+      <c r="B11" s="598" t="s">
         <v>284</v>
       </c>
       <c r="C11" s="460" t="s">
@@ -7683,18 +7639,18 @@
       <c r="D11" s="172" t="s">
         <v>356</v>
       </c>
-      <c r="F11" s="642"/>
+      <c r="F11" s="620"/>
       <c r="M11" s="6"/>
       <c r="N11" s="117">
         <v>7</v>
       </c>
-      <c r="O11" s="680"/>
-      <c r="P11" s="649"/>
+      <c r="O11" s="623"/>
+      <c r="P11" s="653"/>
       <c r="Q11" s="65"/>
       <c r="R11" s="120" t="s">
         <v>221</v>
       </c>
-      <c r="S11" s="666"/>
+      <c r="S11" s="635"/>
       <c r="T11" s="102" t="s">
         <v>44</v>
       </c>
@@ -7704,7 +7660,7 @@
       <c r="X11" s="434" t="s">
         <v>165</v>
       </c>
-      <c r="Y11" s="655"/>
+      <c r="Y11" s="658"/>
       <c r="Z11" s="412"/>
       <c r="AA11" s="309">
         <v>1</v>
@@ -7718,14 +7674,14 @@
       <c r="AF11" s="259" t="s">
         <v>477</v>
       </c>
-      <c r="AG11" s="657"/>
+      <c r="AG11" s="631"/>
       <c r="AH11" s="259"/>
       <c r="AI11" s="70"/>
       <c r="AJ11" s="259"/>
       <c r="AK11" s="259"/>
       <c r="AL11" s="259"/>
       <c r="AM11" s="431"/>
-      <c r="AN11" s="637"/>
+      <c r="AN11" s="641"/>
       <c r="AP11" s="76" t="s">
         <v>485</v>
       </c>
@@ -7734,7 +7690,7 @@
       <c r="A12" s="229" t="s">
         <v>384</v>
       </c>
-      <c r="B12" s="601"/>
+      <c r="B12" s="600"/>
       <c r="C12" s="461" t="s">
         <v>385</v>
       </c>
@@ -7744,25 +7700,25 @@
       <c r="E12" s="226">
         <v>3</v>
       </c>
-      <c r="F12" s="642"/>
+      <c r="F12" s="620"/>
       <c r="G12" s="339" t="s">
         <v>401</v>
       </c>
-      <c r="H12" s="604" t="s">
+      <c r="H12" s="603" t="s">
         <v>430</v>
       </c>
-      <c r="I12" s="606"/>
-      <c r="J12" s="606"/>
-      <c r="K12" s="684"/>
+      <c r="I12" s="605"/>
+      <c r="J12" s="605"/>
+      <c r="K12" s="627"/>
       <c r="L12" s="205"/>
       <c r="M12" s="205"/>
       <c r="N12" s="205"/>
-      <c r="O12" s="680"/>
-      <c r="P12" s="649"/>
+      <c r="O12" s="623"/>
+      <c r="P12" s="653"/>
       <c r="R12" s="122" t="s">
         <v>180</v>
       </c>
-      <c r="S12" s="659"/>
+      <c r="S12" s="636"/>
       <c r="T12" s="101" t="s">
         <v>44</v>
       </c>
@@ -7772,7 +7728,7 @@
       <c r="X12" s="434" t="s">
         <v>166</v>
       </c>
-      <c r="Y12" s="655"/>
+      <c r="Y12" s="658"/>
       <c r="Z12" s="410">
         <v>1</v>
       </c>
@@ -7783,16 +7739,16 @@
       <c r="AC12" s="100" t="s">
         <v>482</v>
       </c>
-      <c r="AD12" s="669" t="s">
+      <c r="AD12" s="639" t="s">
         <v>241</v>
       </c>
       <c r="AE12" s="444" t="s">
         <v>240</v>
       </c>
-      <c r="AF12" s="657" t="s">
+      <c r="AF12" s="631" t="s">
         <v>229</v>
       </c>
-      <c r="AG12" s="657"/>
+      <c r="AG12" s="631"/>
       <c r="AH12" s="240" t="s">
         <v>260</v>
       </c>
@@ -7802,10 +7758,10 @@
       <c r="AJ12" s="259"/>
       <c r="AK12" s="259"/>
       <c r="AL12" s="259"/>
-      <c r="AM12" s="652" t="s">
+      <c r="AM12" s="655" t="s">
         <v>250</v>
       </c>
-      <c r="AN12" s="637"/>
+      <c r="AN12" s="641"/>
       <c r="AO12" s="340" t="s">
         <v>96</v>
       </c>
@@ -7817,17 +7773,17 @@
       <c r="E13" s="451">
         <v>-3</v>
       </c>
-      <c r="F13" s="642"/>
-      <c r="G13" s="606" t="s">
+      <c r="F13" s="620"/>
+      <c r="G13" s="605" t="s">
         <v>431</v>
       </c>
-      <c r="H13" s="606"/>
-      <c r="I13" s="606"/>
-      <c r="J13" s="684"/>
+      <c r="H13" s="605"/>
+      <c r="I13" s="605"/>
+      <c r="J13" s="627"/>
       <c r="M13" s="6"/>
       <c r="N13" s="6"/>
-      <c r="O13" s="680"/>
-      <c r="P13" s="650"/>
+      <c r="O13" s="623"/>
+      <c r="P13" s="654"/>
       <c r="T13" s="105" t="s">
         <v>44</v>
       </c>
@@ -7837,7 +7793,7 @@
       <c r="X13" s="434" t="s">
         <v>167</v>
       </c>
-      <c r="Y13" s="655"/>
+      <c r="Y13" s="658"/>
       <c r="Z13" s="410">
         <v>1</v>
       </c>
@@ -7848,8 +7804,8 @@
         <v>501</v>
       </c>
       <c r="AC13" s="16"/>
-      <c r="AD13" s="669"/>
-      <c r="AF13" s="657"/>
+      <c r="AD13" s="639"/>
+      <c r="AF13" s="631"/>
       <c r="AG13" s="80"/>
       <c r="AH13" s="240" t="s">
         <v>309</v>
@@ -7860,8 +7816,8 @@
       <c r="AJ13" s="80"/>
       <c r="AK13" s="259"/>
       <c r="AL13" s="259"/>
-      <c r="AM13" s="652"/>
-      <c r="AN13" s="637"/>
+      <c r="AM13" s="655"/>
+      <c r="AN13" s="641"/>
     </row>
     <row r="14" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="453"/>
@@ -7869,18 +7825,18 @@
       <c r="C14" s="462"/>
       <c r="D14" s="455"/>
       <c r="E14" s="456"/>
-      <c r="F14" s="642"/>
-      <c r="G14" s="606" t="s">
+      <c r="F14" s="620"/>
+      <c r="G14" s="605" t="s">
         <v>430</v>
       </c>
-      <c r="H14" s="606"/>
-      <c r="I14" s="606"/>
-      <c r="J14" s="684"/>
+      <c r="H14" s="605"/>
+      <c r="I14" s="605"/>
+      <c r="J14" s="627"/>
       <c r="K14" s="2">
         <v>12</v>
       </c>
       <c r="N14" s="6"/>
-      <c r="O14" s="680"/>
+      <c r="O14" s="623"/>
       <c r="Q14" s="61" t="s">
         <v>534</v>
       </c>
@@ -7894,34 +7850,34 @@
       <c r="X14" s="434" t="s">
         <v>168</v>
       </c>
-      <c r="Y14" s="655"/>
+      <c r="Y14" s="658"/>
       <c r="Z14" s="410">
         <v>1</v>
       </c>
       <c r="AA14" s="309"/>
       <c r="AB14" s="211"/>
       <c r="AC14" s="16"/>
-      <c r="AD14" s="669"/>
+      <c r="AD14" s="639"/>
       <c r="AE14" s="259"/>
-      <c r="AF14" s="657"/>
+      <c r="AF14" s="631"/>
       <c r="AG14" s="259"/>
       <c r="AH14" s="259"/>
       <c r="AI14" s="70"/>
       <c r="AJ14" s="259"/>
       <c r="AK14" s="259"/>
       <c r="AL14" s="259"/>
-      <c r="AM14" s="652"/>
-      <c r="AN14" s="637"/>
+      <c r="AM14" s="655"/>
+      <c r="AN14" s="641"/>
     </row>
     <row r="15" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="452" t="s">
         <v>507</v>
       </c>
-      <c r="C15" s="599" t="s">
+      <c r="C15" s="598" t="s">
         <v>374</v>
       </c>
-      <c r="F15" s="642"/>
-      <c r="O15" s="680"/>
+      <c r="F15" s="620"/>
+      <c r="O15" s="623"/>
       <c r="R15" s="99" t="s">
         <v>44</v>
       </c>
@@ -7934,7 +7890,7 @@
       <c r="X15" s="434" t="s">
         <v>169</v>
       </c>
-      <c r="Y15" s="655"/>
+      <c r="Y15" s="658"/>
       <c r="Z15" s="412">
         <v>1</v>
       </c>
@@ -7943,8 +7899,8 @@
       <c r="AC15" s="76" t="s">
         <v>480</v>
       </c>
-      <c r="AD15" s="669"/>
-      <c r="AF15" s="657"/>
+      <c r="AD15" s="639"/>
+      <c r="AF15" s="631"/>
       <c r="AG15" s="80"/>
       <c r="AH15" s="240" t="s">
         <v>449</v>
@@ -7957,8 +7913,8 @@
       </c>
       <c r="AK15" s="259"/>
       <c r="AL15" s="259"/>
-      <c r="AM15" s="652"/>
-      <c r="AN15" s="637"/>
+      <c r="AM15" s="655"/>
+      <c r="AN15" s="641"/>
       <c r="AP15" s="76" t="s">
         <v>73</v>
       </c>
@@ -7973,20 +7929,20 @@
       <c r="B16" s="21" t="s">
         <v>407</v>
       </c>
-      <c r="C16" s="601"/>
+      <c r="C16" s="600"/>
       <c r="D16" s="61" t="s">
         <v>494</v>
       </c>
       <c r="E16" s="226">
         <v>1</v>
       </c>
-      <c r="F16" s="642"/>
+      <c r="F16" s="620"/>
       <c r="G16" s="339" t="s">
         <v>489</v>
       </c>
       <c r="I16" s="472"/>
       <c r="J16" s="20"/>
-      <c r="O16" s="680"/>
+      <c r="O16" s="623"/>
       <c r="R16" s="438" t="s">
         <v>184</v>
       </c>
@@ -7997,7 +7953,7 @@
       <c r="X16" s="434" t="s">
         <v>170</v>
       </c>
-      <c r="Y16" s="655"/>
+      <c r="Y16" s="658"/>
       <c r="Z16" s="410">
         <v>1</v>
       </c>
@@ -8018,18 +7974,18 @@
       <c r="AM16" s="431" t="s">
         <v>318</v>
       </c>
-      <c r="AN16" s="637"/>
+      <c r="AN16" s="641"/>
       <c r="AP16" s="76" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="17" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="80"/>
-      <c r="F17" s="642"/>
+      <c r="F17" s="620"/>
       <c r="I17" s="473"/>
       <c r="J17" s="20"/>
       <c r="N17" s="6"/>
-      <c r="O17" s="680"/>
+      <c r="O17" s="623"/>
       <c r="Q17" s="21" t="s">
         <v>532</v>
       </c>
@@ -8049,7 +8005,7 @@
       <c r="X17" s="434" t="s">
         <v>171</v>
       </c>
-      <c r="Y17" s="655"/>
+      <c r="Y17" s="658"/>
       <c r="Z17" s="412"/>
       <c r="AA17" s="309"/>
       <c r="AB17" s="211"/>
@@ -8074,7 +8030,7 @@
       <c r="AK17" s="259"/>
       <c r="AL17" s="80"/>
       <c r="AM17" s="431"/>
-      <c r="AN17" s="637"/>
+      <c r="AN17" s="641"/>
       <c r="AO17" s="206" t="s">
         <v>498</v>
       </c>
@@ -8098,21 +8054,21 @@
       <c r="E18" s="99" t="s">
         <v>44</v>
       </c>
-      <c r="F18" s="642"/>
+      <c r="F18" s="620"/>
       <c r="G18" s="339" t="s">
         <v>529</v>
       </c>
       <c r="I18" s="24"/>
       <c r="J18" s="20"/>
-      <c r="O18" s="680"/>
+      <c r="O18" s="623"/>
       <c r="Q18" s="112"/>
-      <c r="R18" s="674" t="s">
+      <c r="R18" s="615" t="s">
         <v>537</v>
       </c>
       <c r="T18" s="100" t="s">
         <v>44</v>
       </c>
-      <c r="U18" s="613" t="s">
+      <c r="U18" s="663" t="s">
         <v>44</v>
       </c>
       <c r="V18" s="120"/>
@@ -8122,7 +8078,7 @@
       <c r="X18" s="434" t="s">
         <v>172</v>
       </c>
-      <c r="Y18" s="655"/>
+      <c r="Y18" s="658"/>
       <c r="Z18" s="412">
         <v>1</v>
       </c>
@@ -8133,38 +8089,38 @@
       <c r="AC18" s="16"/>
       <c r="AD18" s="16"/>
       <c r="AE18" s="259"/>
-      <c r="AF18" s="651" t="s">
+      <c r="AF18" s="630" t="s">
         <v>476</v>
       </c>
       <c r="AG18" s="259"/>
       <c r="AH18" s="70"/>
       <c r="AI18" s="70"/>
-      <c r="AJ18" s="653" t="s">
+      <c r="AJ18" s="656" t="s">
         <v>316</v>
       </c>
       <c r="AK18" s="259"/>
       <c r="AL18" s="80"/>
       <c r="AM18" s="431"/>
-      <c r="AN18" s="637"/>
+      <c r="AN18" s="641"/>
       <c r="AP18" s="76" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="19" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F19" s="642"/>
+      <c r="F19" s="620"/>
       <c r="I19" s="221"/>
-      <c r="O19" s="680"/>
-      <c r="R19" s="675"/>
+      <c r="O19" s="623"/>
+      <c r="R19" s="616"/>
       <c r="S19" s="30" t="s">
         <v>535</v>
       </c>
-      <c r="U19" s="614"/>
+      <c r="U19" s="664"/>
       <c r="V19" s="146"/>
       <c r="W19" s="146"/>
       <c r="X19" s="434" t="s">
         <v>173</v>
       </c>
-      <c r="Y19" s="655"/>
+      <c r="Y19" s="658"/>
       <c r="Z19" s="410">
         <v>1</v>
       </c>
@@ -8173,17 +8129,17 @@
       <c r="AC19" s="16"/>
       <c r="AD19" s="16"/>
       <c r="AE19" s="259"/>
-      <c r="AF19" s="651"/>
+      <c r="AF19" s="630"/>
       <c r="AG19" s="259"/>
       <c r="AH19" s="259"/>
       <c r="AI19" s="70"/>
-      <c r="AJ19" s="653"/>
+      <c r="AJ19" s="656"/>
       <c r="AK19" s="463" t="s">
         <v>252</v>
       </c>
       <c r="AL19" s="80"/>
       <c r="AM19" s="431"/>
-      <c r="AN19" s="637"/>
+      <c r="AN19" s="641"/>
       <c r="AP19" s="76" t="s">
         <v>469</v>
       </c>
@@ -8204,24 +8160,24 @@
       <c r="E20" s="440">
         <v>-1</v>
       </c>
-      <c r="F20" s="642"/>
+      <c r="F20" s="620"/>
       <c r="G20" s="339" t="s">
         <v>492</v>
       </c>
       <c r="I20" s="221"/>
-      <c r="O20" s="680"/>
-      <c r="Q20" s="682" t="s">
+      <c r="O20" s="623"/>
+      <c r="Q20" s="625" t="s">
         <v>48</v>
       </c>
       <c r="T20" s="407" t="s">
         <v>44</v>
       </c>
-      <c r="U20" s="615"/>
+      <c r="U20" s="665"/>
       <c r="W20" s="408"/>
       <c r="X20" s="435" t="s">
         <v>174</v>
       </c>
-      <c r="Y20" s="655"/>
+      <c r="Y20" s="658"/>
       <c r="Z20" s="414">
         <v>1</v>
       </c>
@@ -8246,7 +8202,7 @@
       <c r="AM20" s="383" t="s">
         <v>250</v>
       </c>
-      <c r="AN20" s="637"/>
+      <c r="AN20" s="641"/>
       <c r="AO20" s="340" t="s">
         <v>461</v>
       </c>
@@ -8267,20 +8223,20 @@
       <c r="E21" s="267">
         <v>0</v>
       </c>
-      <c r="F21" s="642"/>
+      <c r="F21" s="620"/>
       <c r="I21" s="221"/>
-      <c r="O21" s="680"/>
-      <c r="Q21" s="683"/>
+      <c r="O21" s="623"/>
+      <c r="Q21" s="626"/>
       <c r="T21" s="425"/>
       <c r="U21" s="14"/>
-      <c r="V21" s="610"/>
+      <c r="V21" s="660"/>
       <c r="W21" s="429" t="s">
         <v>175</v>
       </c>
       <c r="X21" s="432" t="s">
         <v>186</v>
       </c>
-      <c r="Y21" s="655"/>
+      <c r="Y21" s="658"/>
       <c r="Z21" s="448">
         <v>3</v>
       </c>
@@ -8311,15 +8267,15 @@
       <c r="AM21" s="431" t="s">
         <v>546</v>
       </c>
-      <c r="AN21" s="637"/>
+      <c r="AN21" s="641"/>
     </row>
     <row r="22" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F22" s="642"/>
+      <c r="F22" s="620"/>
       <c r="G22" s="339" t="s">
         <v>490</v>
       </c>
       <c r="I22" s="221"/>
-      <c r="O22" s="680"/>
+      <c r="O22" s="623"/>
       <c r="R22" s="437" t="s">
         <v>44</v>
       </c>
@@ -8327,14 +8283,14 @@
         <v>44</v>
       </c>
       <c r="U22" s="15"/>
-      <c r="V22" s="611"/>
+      <c r="V22" s="661"/>
       <c r="W22" s="429" t="s">
         <v>175</v>
       </c>
       <c r="X22" s="432" t="s">
         <v>187</v>
       </c>
-      <c r="Y22" s="655"/>
+      <c r="Y22" s="658"/>
       <c r="Z22" s="418"/>
       <c r="AA22" s="10"/>
       <c r="AB22" s="418"/>
@@ -8345,7 +8301,7 @@
       <c r="AG22" s="6"/>
       <c r="AH22" s="6"/>
       <c r="AI22" s="6"/>
-      <c r="AJ22" s="651" t="s">
+      <c r="AJ22" s="630" t="s">
         <v>473</v>
       </c>
       <c r="AK22" s="259"/>
@@ -8353,7 +8309,7 @@
         <v>479</v>
       </c>
       <c r="AM22" s="302"/>
-      <c r="AN22" s="637"/>
+      <c r="AN22" s="641"/>
     </row>
     <row r="23" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="233" t="s">
@@ -8371,22 +8327,22 @@
       <c r="E23" s="227">
         <v>1</v>
       </c>
-      <c r="F23" s="642"/>
+      <c r="F23" s="620"/>
       <c r="I23" s="221"/>
-      <c r="O23" s="680"/>
-      <c r="Q23" s="682" t="s">
+      <c r="O23" s="623"/>
+      <c r="Q23" s="625" t="s">
         <v>144</v>
       </c>
       <c r="T23" s="17"/>
       <c r="U23" s="423" t="s">
         <v>44</v>
       </c>
-      <c r="V23" s="611"/>
+      <c r="V23" s="661"/>
       <c r="W23" s="148"/>
       <c r="X23" s="432" t="s">
         <v>188</v>
       </c>
-      <c r="Y23" s="655"/>
+      <c r="Y23" s="658"/>
       <c r="Z23" s="17"/>
       <c r="AA23" s="10"/>
       <c r="AB23" s="418"/>
@@ -8397,13 +8353,13 @@
       <c r="AG23" s="6"/>
       <c r="AH23" s="6"/>
       <c r="AI23" s="6"/>
-      <c r="AJ23" s="651"/>
+      <c r="AJ23" s="630"/>
       <c r="AK23" s="259"/>
       <c r="AL23" s="80" t="s">
         <v>508</v>
       </c>
       <c r="AM23" s="302"/>
-      <c r="AN23" s="637"/>
+      <c r="AN23" s="641"/>
     </row>
     <row r="24" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="443" t="s">
@@ -8421,23 +8377,23 @@
       <c r="E24" s="439">
         <v>1</v>
       </c>
-      <c r="F24" s="642"/>
+      <c r="F24" s="620"/>
       <c r="G24" s="61" t="s">
         <v>491</v>
       </c>
       <c r="I24" s="221"/>
-      <c r="O24" s="680"/>
-      <c r="Q24" s="683"/>
+      <c r="O24" s="623"/>
+      <c r="Q24" s="626"/>
       <c r="T24" s="17"/>
       <c r="U24" s="229" t="s">
         <v>44</v>
       </c>
-      <c r="V24" s="611"/>
+      <c r="V24" s="661"/>
       <c r="W24" s="148"/>
       <c r="X24" s="432" t="s">
         <v>185</v>
       </c>
-      <c r="Y24" s="655"/>
+      <c r="Y24" s="658"/>
       <c r="Z24" s="17"/>
       <c r="AA24" s="10"/>
       <c r="AB24" s="418"/>
@@ -8456,12 +8412,12 @@
         <v>464</v>
       </c>
       <c r="AM24" s="302"/>
-      <c r="AN24" s="637"/>
+      <c r="AN24" s="641"/>
     </row>
     <row r="25" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F25" s="642"/>
+      <c r="F25" s="620"/>
       <c r="I25" s="221"/>
-      <c r="O25" s="680"/>
+      <c r="O25" s="623"/>
       <c r="P25" s="206" t="s">
         <v>281</v>
       </c>
@@ -8474,12 +8430,12 @@
       <c r="U25" s="403" t="s">
         <v>44</v>
       </c>
-      <c r="V25" s="612"/>
+      <c r="V25" s="662"/>
       <c r="W25" s="148"/>
       <c r="X25" s="432" t="s">
         <v>189</v>
       </c>
-      <c r="Y25" s="655"/>
+      <c r="Y25" s="658"/>
       <c r="Z25" s="17"/>
       <c r="AA25" s="10"/>
       <c r="AB25" s="418"/>
@@ -8496,7 +8452,7 @@
       <c r="AK25" s="142"/>
       <c r="AL25" s="6"/>
       <c r="AM25" s="302"/>
-      <c r="AN25" s="637"/>
+      <c r="AN25" s="641"/>
     </row>
     <row r="26" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="233" t="s">
@@ -8514,17 +8470,17 @@
       <c r="E26" s="382">
         <v>1</v>
       </c>
-      <c r="F26" s="642"/>
+      <c r="F26" s="620"/>
       <c r="G26" s="339" t="s">
         <v>488</v>
       </c>
       <c r="I26" s="221"/>
-      <c r="O26" s="680"/>
-      <c r="P26" s="639" t="s">
+      <c r="O26" s="623"/>
+      <c r="P26" s="643" t="s">
         <v>527</v>
       </c>
-      <c r="Q26" s="640"/>
-      <c r="R26" s="676" t="s">
+      <c r="Q26" s="644"/>
+      <c r="R26" s="617" t="s">
         <v>536</v>
       </c>
       <c r="T26" s="180"/>
@@ -8536,7 +8492,7 @@
       <c r="X26" s="432" t="s">
         <v>181</v>
       </c>
-      <c r="Y26" s="655"/>
+      <c r="Y26" s="658"/>
       <c r="Z26" s="17"/>
       <c r="AA26" s="10"/>
       <c r="AB26" s="418"/>
@@ -8563,7 +8519,7 @@
       <c r="AM26" s="445" t="s">
         <v>457</v>
       </c>
-      <c r="AN26" s="637"/>
+      <c r="AN26" s="641"/>
     </row>
     <row r="27" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B27" s="21" t="s">
@@ -8575,13 +8531,13 @@
       <c r="E27" s="267" t="s">
         <v>44</v>
       </c>
-      <c r="F27" s="678"/>
+      <c r="F27" s="621"/>
       <c r="G27" s="61" t="s">
         <v>545</v>
       </c>
       <c r="I27" s="222"/>
-      <c r="O27" s="681"/>
-      <c r="R27" s="677"/>
+      <c r="O27" s="624"/>
+      <c r="R27" s="618"/>
       <c r="S27" s="424" t="s">
         <v>54</v>
       </c>
@@ -8594,7 +8550,7 @@
       <c r="X27" s="432" t="s">
         <v>531</v>
       </c>
-      <c r="Y27" s="656"/>
+      <c r="Y27" s="659"/>
       <c r="Z27" s="161"/>
       <c r="AA27" s="13"/>
       <c r="AB27" s="419"/>
@@ -8611,32 +8567,26 @@
       <c r="AM27" s="383" t="s">
         <v>320</v>
       </c>
-      <c r="AN27" s="638"/>
+      <c r="AN27" s="642"/>
     </row>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="R18:R19"/>
-    <mergeCell ref="R26:R27"/>
-    <mergeCell ref="F2:F27"/>
-    <mergeCell ref="O10:O27"/>
-    <mergeCell ref="Q20:Q21"/>
-    <mergeCell ref="Q23:Q24"/>
-    <mergeCell ref="G14:J14"/>
-    <mergeCell ref="G13:J13"/>
-    <mergeCell ref="H12:K12"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="AI6:AI10"/>
-    <mergeCell ref="AF12:AF15"/>
-    <mergeCell ref="AG7:AG12"/>
-    <mergeCell ref="L8:L9"/>
-    <mergeCell ref="S9:S12"/>
-    <mergeCell ref="N8:N9"/>
-    <mergeCell ref="AD12:AD15"/>
-    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="V21:V25"/>
+    <mergeCell ref="U18:U20"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="G5:L6"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="K7:K9"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B4:B5"/>
     <mergeCell ref="AN1:AN27"/>
     <mergeCell ref="P26:Q26"/>
     <mergeCell ref="Q2:Q3"/>
@@ -8653,22 +8603,28 @@
     <mergeCell ref="AD3:AD4"/>
     <mergeCell ref="S2:S3"/>
     <mergeCell ref="R2:R3"/>
-    <mergeCell ref="V21:V25"/>
-    <mergeCell ref="U18:U20"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="J8:J9"/>
-    <mergeCell ref="G5:L6"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="K7:K9"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="AI6:AI10"/>
+    <mergeCell ref="AF12:AF15"/>
+    <mergeCell ref="AG7:AG12"/>
+    <mergeCell ref="L8:L9"/>
+    <mergeCell ref="S9:S12"/>
+    <mergeCell ref="N8:N9"/>
+    <mergeCell ref="AD12:AD15"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="R18:R19"/>
+    <mergeCell ref="R26:R27"/>
+    <mergeCell ref="F2:F27"/>
+    <mergeCell ref="O10:O27"/>
+    <mergeCell ref="Q20:Q21"/>
+    <mergeCell ref="Q23:Q24"/>
+    <mergeCell ref="G14:J14"/>
+    <mergeCell ref="G13:J13"/>
+    <mergeCell ref="H12:K12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8702,15 +8658,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="604" t="s">
+      <c r="B1" s="603" t="s">
         <v>311</v>
       </c>
-      <c r="C1" s="684"/>
+      <c r="C1" s="627"/>
       <c r="D1" s="206"/>
-      <c r="J1" s="604" t="s">
+      <c r="J1" s="603" t="s">
         <v>69</v>
       </c>
-      <c r="K1" s="684"/>
+      <c r="K1" s="627"/>
       <c r="L1" s="197" t="s">
         <v>331</v>
       </c>
@@ -8748,13 +8704,13 @@
         <v>34</v>
       </c>
       <c r="L2" s="198"/>
-      <c r="M2" s="685"/>
+      <c r="M2" s="684"/>
       <c r="N2" s="153">
         <v>2</v>
       </c>
       <c r="O2" s="154"/>
       <c r="P2" s="5"/>
-      <c r="Q2" s="688" t="s">
+      <c r="Q2" s="687" t="s">
         <v>44</v>
       </c>
       <c r="R2" s="19">
@@ -8777,13 +8733,13 @@
       <c r="K3" s="6" t="s">
         <v>328</v>
       </c>
-      <c r="M3" s="686"/>
+      <c r="M3" s="685"/>
       <c r="N3" s="17">
         <v>1</v>
       </c>
       <c r="O3" s="15"/>
       <c r="P3" s="10"/>
-      <c r="Q3" s="689"/>
+      <c r="Q3" s="688"/>
       <c r="R3" s="221"/>
     </row>
     <row r="4" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8802,13 +8758,13 @@
       <c r="K4" s="6" t="s">
         <v>329</v>
       </c>
-      <c r="M4" s="686"/>
+      <c r="M4" s="685"/>
       <c r="N4" s="17"/>
       <c r="O4" s="15">
         <v>1</v>
       </c>
       <c r="P4" s="10"/>
-      <c r="Q4" s="689"/>
+      <c r="Q4" s="688"/>
       <c r="R4" s="221"/>
     </row>
     <row r="5" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8828,13 +8784,13 @@
         <v>13</v>
       </c>
       <c r="L5" s="198"/>
-      <c r="M5" s="686"/>
+      <c r="M5" s="685"/>
       <c r="N5" s="17">
         <v>1</v>
       </c>
       <c r="O5" s="15"/>
       <c r="P5" s="10"/>
-      <c r="Q5" s="689"/>
+      <c r="Q5" s="688"/>
       <c r="R5" s="19">
         <v>-1</v>
       </c>
@@ -8855,13 +8811,13 @@
       <c r="K6" s="6" t="s">
         <v>327</v>
       </c>
-      <c r="M6" s="686"/>
+      <c r="M6" s="685"/>
       <c r="N6" s="17">
         <v>1</v>
       </c>
       <c r="O6" s="15"/>
       <c r="P6" s="10"/>
-      <c r="Q6" s="689"/>
+      <c r="Q6" s="688"/>
       <c r="R6" s="221"/>
     </row>
     <row r="7" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8881,13 +8837,13 @@
         <v>328</v>
       </c>
       <c r="L7" s="200"/>
-      <c r="M7" s="686"/>
+      <c r="M7" s="685"/>
       <c r="N7" s="17">
         <v>1</v>
       </c>
       <c r="O7" s="15"/>
       <c r="P7" s="10"/>
-      <c r="Q7" s="689"/>
+      <c r="Q7" s="688"/>
       <c r="R7" s="19">
         <v>-1</v>
       </c>
@@ -8908,13 +8864,13 @@
       <c r="K8" s="6" t="s">
         <v>326</v>
       </c>
-      <c r="M8" s="686"/>
+      <c r="M8" s="685"/>
       <c r="N8" s="17">
         <v>1</v>
       </c>
       <c r="O8" s="15"/>
       <c r="P8" s="10"/>
-      <c r="Q8" s="689"/>
+      <c r="Q8" s="688"/>
       <c r="R8" s="221"/>
     </row>
     <row r="9" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8934,13 +8890,13 @@
         <v>330</v>
       </c>
       <c r="L9" s="183"/>
-      <c r="M9" s="687"/>
+      <c r="M9" s="686"/>
       <c r="N9" s="161"/>
       <c r="O9" s="18"/>
       <c r="P9" s="13">
         <v>1</v>
       </c>
-      <c r="Q9" s="690"/>
+      <c r="Q9" s="689"/>
       <c r="R9" s="222"/>
     </row>
     <row r="10" spans="2:18" x14ac:dyDescent="0.25">
@@ -9044,8 +9000,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB54FD83-008D-4F8B-87AC-83E7F70047CB}">
   <dimension ref="A1:AL31"/>
   <sheetViews>
-    <sheetView topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="AA17" sqref="AA17"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="AK19" sqref="AK19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9113,7 +9069,7 @@
       <c r="P1" s="401" t="s">
         <v>398</v>
       </c>
-      <c r="Q1" s="715" t="s">
+      <c r="Q1" s="701" t="s">
         <v>180</v>
       </c>
       <c r="R1" s="100" t="s">
@@ -9137,7 +9093,7 @@
       <c r="AA1" s="521" t="s">
         <v>438</v>
       </c>
-      <c r="AB1" s="709" t="s">
+      <c r="AB1" s="695" t="s">
         <v>596</v>
       </c>
       <c r="AC1" s="99" t="s">
@@ -9152,39 +9108,39 @@
       <c r="AI1" s="67" t="s">
         <v>80</v>
       </c>
-      <c r="AJ1" s="558"/>
+      <c r="AJ1" s="557"/>
       <c r="AK1" s="345"/>
       <c r="AL1" s="67" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:38" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="694">
+      <c r="A2" s="706">
         <f ca="1">TODAY()</f>
         <v>45284</v>
       </c>
-      <c r="B2" s="696" t="s">
+      <c r="B2" s="708" t="s">
         <v>380</v>
       </c>
-      <c r="C2" s="616" t="s">
+      <c r="C2" s="645" t="s">
         <v>358</v>
       </c>
-      <c r="D2" s="698" t="s">
+      <c r="D2" s="710" t="s">
         <v>102</v>
       </c>
-      <c r="E2" s="700" t="s">
+      <c r="E2" s="712" t="s">
         <v>64</v>
       </c>
       <c r="F2" s="193" t="s">
         <v>219</v>
       </c>
-      <c r="G2" s="660" t="s">
+      <c r="G2" s="613" t="s">
         <v>373</v>
       </c>
       <c r="H2" s="208" t="s">
         <v>219</v>
       </c>
-      <c r="I2" s="706" t="s">
+      <c r="I2" s="692" t="s">
         <v>102</v>
       </c>
       <c r="J2" s="399" t="s">
@@ -9208,14 +9164,14 @@
       <c r="P2" s="402">
         <v>40</v>
       </c>
-      <c r="Q2" s="716"/>
+      <c r="Q2" s="702"/>
       <c r="R2" s="21">
         <f>R7+R20</f>
         <v>4</v>
       </c>
       <c r="S2" s="21">
         <f>S7+S20</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="T2" s="174">
         <f>SUM(T4:T16)</f>
@@ -9233,15 +9189,11 @@
         <f>IF((Z2+T2)&gt;0,0,-1)</f>
         <v>0</v>
       </c>
-      <c r="AB2" s="710"/>
+      <c r="AB2" s="696"/>
       <c r="AC2" s="35"/>
-      <c r="AH2" s="6" t="s">
-        <v>600</v>
-      </c>
-      <c r="AI2" s="472">
-        <v>1</v>
-      </c>
-      <c r="AJ2" s="559"/>
+      <c r="AH2" s="6"/>
+      <c r="AI2" s="472"/>
+      <c r="AJ2" s="558"/>
       <c r="AK2" s="6" t="s">
         <v>229</v>
       </c>
@@ -9250,14 +9202,14 @@
       </c>
     </row>
     <row r="3" spans="1:38" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="695"/>
-      <c r="B3" s="697"/>
-      <c r="C3" s="617"/>
-      <c r="D3" s="699"/>
-      <c r="E3" s="701"/>
-      <c r="G3" s="661"/>
+      <c r="A3" s="707"/>
+      <c r="B3" s="709"/>
+      <c r="C3" s="646"/>
+      <c r="D3" s="711"/>
+      <c r="E3" s="713"/>
+      <c r="G3" s="614"/>
       <c r="H3" s="6"/>
-      <c r="I3" s="707"/>
+      <c r="I3" s="693"/>
       <c r="K3" s="24">
         <v>2</v>
       </c>
@@ -9266,13 +9218,13 @@
       </c>
       <c r="Q3" s="474">
         <f>SUM(X23:X31)</f>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="U3" s="6"/>
       <c r="V3" s="473"/>
       <c r="W3" s="6"/>
       <c r="X3" s="473"/>
-      <c r="AB3" s="710"/>
+      <c r="AB3" s="696"/>
       <c r="AC3" s="35"/>
       <c r="AE3" s="100" t="s">
         <v>591</v>
@@ -9282,29 +9234,21 @@
         <f>IF((AE7-SUM(AL2:AL10)&lt;0),AE7-SUM(AI2:AI10),0)</f>
         <v>0</v>
       </c>
-      <c r="AH3" s="6" t="s">
-        <v>248</v>
-      </c>
-      <c r="AI3" s="473">
-        <v>1</v>
-      </c>
-      <c r="AJ3" s="559"/>
-      <c r="AK3" s="6" t="s">
-        <v>604</v>
-      </c>
-      <c r="AL3" s="553">
-        <v>1</v>
-      </c>
+      <c r="AH3" s="6"/>
+      <c r="AI3" s="473"/>
+      <c r="AJ3" s="558"/>
+      <c r="AK3" s="6"/>
+      <c r="AL3" s="24"/>
     </row>
     <row r="4" spans="1:38" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="238" t="s">
         <v>381</v>
       </c>
       <c r="B4" s="245"/>
-      <c r="C4" s="702" t="s">
+      <c r="C4" s="714" t="s">
         <v>177</v>
       </c>
-      <c r="I4" s="707"/>
+      <c r="I4" s="693"/>
       <c r="R4" s="474" t="s">
         <v>591</v>
       </c>
@@ -9316,7 +9260,7 @@
       <c r="V4" s="473"/>
       <c r="W4" s="6"/>
       <c r="X4" s="473"/>
-      <c r="AB4" s="710"/>
+      <c r="AB4" s="696"/>
       <c r="AC4" s="35"/>
       <c r="AE4" s="20"/>
       <c r="AF4" s="100" t="s">
@@ -9326,17 +9270,13 @@
         <f>IF((AF7-SUM(AI2:AI10)&lt;0),AF7-SUM(AI2:AI10),0)</f>
         <v>0</v>
       </c>
-      <c r="AH4" s="6" t="s">
-        <v>602</v>
-      </c>
-      <c r="AI4" s="473">
-        <v>1</v>
-      </c>
-      <c r="AJ4" s="559"/>
+      <c r="AH4" s="6"/>
+      <c r="AI4" s="473"/>
+      <c r="AJ4" s="558"/>
       <c r="AK4" s="6" t="s">
-        <v>602</v>
-      </c>
-      <c r="AL4" s="473">
+        <v>619</v>
+      </c>
+      <c r="AL4" s="24">
         <v>1</v>
       </c>
     </row>
@@ -9347,7 +9287,7 @@
       <c r="B5" s="100" t="s">
         <v>358</v>
       </c>
-      <c r="C5" s="703"/>
+      <c r="C5" s="715"/>
       <c r="D5" s="224" t="s">
         <v>102</v>
       </c>
@@ -9357,13 +9297,13 @@
       <c r="F5" s="208" t="s">
         <v>219</v>
       </c>
-      <c r="G5" s="599" t="s">
+      <c r="G5" s="598" t="s">
         <v>272</v>
       </c>
       <c r="H5" s="208" t="s">
         <v>219</v>
       </c>
-      <c r="I5" s="707"/>
+      <c r="I5" s="693"/>
       <c r="J5" s="400" t="s">
         <v>269</v>
       </c>
@@ -9390,69 +9330,65 @@
       <c r="V5" s="471"/>
       <c r="W5" s="6"/>
       <c r="X5" s="471"/>
-      <c r="AB5" s="710"/>
+      <c r="AB5" s="696"/>
       <c r="AC5" s="2" t="s">
         <v>594</v>
       </c>
       <c r="AD5" s="127" t="s">
         <v>44</v>
       </c>
-      <c r="AH5" s="6" t="s">
-        <v>625</v>
-      </c>
-      <c r="AI5" s="471">
-        <v>1</v>
-      </c>
-      <c r="AJ5" s="559"/>
+      <c r="AH5" s="6"/>
+      <c r="AI5" s="471"/>
+      <c r="AJ5" s="558"/>
       <c r="AK5" s="6" t="s">
-        <v>624</v>
+        <v>449</v>
       </c>
       <c r="AL5" s="471">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:38" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="691" t="s">
+      <c r="A6" s="703" t="s">
         <v>286</v>
       </c>
       <c r="B6" s="105" t="s">
         <v>198</v>
       </c>
-      <c r="C6" s="662"/>
-      <c r="D6" s="663"/>
+      <c r="C6" s="628"/>
+      <c r="D6" s="629"/>
       <c r="E6" s="96">
         <v>1</v>
       </c>
-      <c r="G6" s="600"/>
-      <c r="I6" s="707"/>
+      <c r="G6" s="599"/>
+      <c r="I6" s="693"/>
       <c r="P6" s="61" t="s">
         <v>594</v>
       </c>
       <c r="R6" s="64">
         <f>R7-SUM(X2:X10)+R11</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S6" s="64">
         <f>S7+S11-SUM(V2:V10)</f>
-        <v>0</v>
-      </c>
-      <c r="AB6" s="710"/>
+        <v>3</v>
+      </c>
+      <c r="AB6" s="696"/>
       <c r="AC6" s="35"/>
       <c r="AE6" s="64">
         <f>AE7-SUM(AL2:AL10)+AE11</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF6" s="64">
         <f>AF7-SUM(AI2:AI10)+AF11</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AH6" s="6"/>
       <c r="AI6" s="529"/>
-      <c r="AJ6" s="559"/>
+      <c r="AJ6" s="558"/>
       <c r="AL6" s="112"/>
     </row>
     <row r="7" spans="1:38" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="692"/>
+      <c r="A7" s="704"/>
       <c r="B7" s="100" t="s">
         <v>154</v>
       </c>
@@ -9462,8 +9398,8 @@
       <c r="D7" s="30" t="s">
         <v>135</v>
       </c>
-      <c r="G7" s="600"/>
-      <c r="I7" s="707"/>
+      <c r="G7" s="599"/>
+      <c r="I7" s="693"/>
       <c r="M7" s="16" t="s">
         <v>348</v>
       </c>
@@ -9481,17 +9417,17 @@
       </c>
       <c r="R7" s="24">
         <f>3-R11</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S7" s="24">
         <f>3-S11</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="U7" s="6"/>
       <c r="V7" s="472"/>
       <c r="W7" s="6"/>
       <c r="X7" s="472"/>
-      <c r="AB7" s="710"/>
+      <c r="AB7" s="696"/>
       <c r="AC7" s="99" t="s">
         <v>595</v>
       </c>
@@ -9500,28 +9436,24 @@
       </c>
       <c r="AE7" s="24">
         <f>8-AE11</f>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AF7" s="297">
         <f>8-AF11</f>
-        <v>8</v>
-      </c>
-      <c r="AH7" s="6" t="s">
-        <v>603</v>
-      </c>
-      <c r="AI7" s="472">
-        <v>1</v>
-      </c>
-      <c r="AJ7" s="559"/>
+        <v>1</v>
+      </c>
+      <c r="AH7" s="6"/>
+      <c r="AI7" s="472"/>
+      <c r="AJ7" s="558"/>
       <c r="AK7" s="6" t="s">
-        <v>620</v>
-      </c>
-      <c r="AL7" s="472">
+        <v>624</v>
+      </c>
+      <c r="AL7" s="553">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="693"/>
+      <c r="A8" s="705"/>
       <c r="B8" s="214" t="s">
         <v>28</v>
       </c>
@@ -9529,32 +9461,28 @@
       <c r="E8" s="30">
         <v>3</v>
       </c>
-      <c r="G8" s="600"/>
-      <c r="I8" s="707"/>
+      <c r="G8" s="599"/>
+      <c r="I8" s="693"/>
       <c r="N8" s="80"/>
-      <c r="U8" s="6" t="s">
-        <v>232</v>
-      </c>
-      <c r="V8" s="24">
-        <v>1</v>
-      </c>
+      <c r="U8" s="6"/>
+      <c r="V8" s="24"/>
       <c r="W8" s="6" t="s">
-        <v>629</v>
+        <v>453</v>
       </c>
       <c r="X8" s="473">
         <v>1</v>
       </c>
-      <c r="AB8" s="710"/>
+      <c r="AB8" s="696"/>
       <c r="AC8" s="519"/>
       <c r="AH8" s="6" t="s">
-        <v>628</v>
+        <v>621</v>
       </c>
       <c r="AI8" s="473">
         <v>1</v>
       </c>
-      <c r="AJ8" s="559"/>
+      <c r="AJ8" s="558"/>
       <c r="AK8" s="6" t="s">
-        <v>628</v>
+        <v>621</v>
       </c>
       <c r="AL8" s="472">
         <v>1</v>
@@ -9573,40 +9501,28 @@
       <c r="D9" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="G9" s="600"/>
+      <c r="G9" s="599"/>
       <c r="H9" s="6"/>
-      <c r="I9" s="707"/>
+      <c r="I9" s="693"/>
       <c r="M9" s="19" t="s">
         <v>526</v>
       </c>
       <c r="N9" s="80"/>
-      <c r="U9" s="6" t="s">
-        <v>453</v>
-      </c>
-      <c r="V9" s="24">
-        <v>1</v>
-      </c>
-      <c r="W9" s="6" t="s">
-        <v>626</v>
-      </c>
-      <c r="X9" s="473">
-        <v>1</v>
-      </c>
-      <c r="AB9" s="710"/>
+      <c r="U9" s="6"/>
+      <c r="V9" s="24"/>
+      <c r="W9" s="6"/>
+      <c r="X9" s="473"/>
+      <c r="AB9" s="696"/>
       <c r="AC9" s="519"/>
       <c r="AE9" s="20"/>
       <c r="AF9" s="20"/>
-      <c r="AH9" s="6" t="s">
-        <v>601</v>
-      </c>
-      <c r="AI9" s="473">
-        <v>1</v>
-      </c>
-      <c r="AJ9" s="559"/>
+      <c r="AH9" s="6"/>
+      <c r="AI9" s="473"/>
+      <c r="AJ9" s="558"/>
       <c r="AK9" s="6" t="s">
         <v>600</v>
       </c>
-      <c r="AL9" s="24">
+      <c r="AL9" s="553">
         <v>1</v>
       </c>
     </row>
@@ -9621,10 +9537,10 @@
       <c r="D10" s="108"/>
       <c r="E10" s="68">
         <f>Boat!W8</f>
-        <v>36</v>
-      </c>
-      <c r="G10" s="600"/>
-      <c r="I10" s="707"/>
+        <v>41</v>
+      </c>
+      <c r="G10" s="599"/>
+      <c r="I10" s="693"/>
       <c r="J10" s="24" t="s">
         <v>373</v>
       </c>
@@ -9635,33 +9551,25 @@
         <v>525</v>
       </c>
       <c r="N10" s="80"/>
-      <c r="U10" s="6" t="s">
-        <v>229</v>
-      </c>
-      <c r="V10" s="473">
-        <v>1</v>
-      </c>
+      <c r="U10" s="6"/>
+      <c r="V10" s="473"/>
       <c r="W10" s="6" t="s">
-        <v>601</v>
+        <v>623</v>
       </c>
       <c r="X10" s="473">
         <v>1</v>
       </c>
-      <c r="AB10" s="710"/>
+      <c r="AB10" s="696"/>
       <c r="AC10" s="519"/>
       <c r="AE10" s="20"/>
       <c r="AF10" s="20"/>
-      <c r="AH10" s="6" t="s">
-        <v>617</v>
-      </c>
-      <c r="AI10" s="473">
-        <v>1</v>
-      </c>
-      <c r="AJ10" s="560"/>
+      <c r="AH10" s="6"/>
+      <c r="AI10" s="473"/>
+      <c r="AJ10" s="559"/>
       <c r="AK10" s="6" t="s">
-        <v>613</v>
-      </c>
-      <c r="AL10" s="554">
+        <v>609</v>
+      </c>
+      <c r="AL10" s="471">
         <v>1</v>
       </c>
     </row>
@@ -9669,7 +9577,7 @@
       <c r="A11" s="99" t="s">
         <v>183</v>
       </c>
-      <c r="B11" s="599" t="s">
+      <c r="B11" s="598" t="s">
         <v>383</v>
       </c>
       <c r="C11" s="173" t="s">
@@ -9678,8 +9586,8 @@
       <c r="D11" s="219" t="s">
         <v>266</v>
       </c>
-      <c r="G11" s="600"/>
-      <c r="I11" s="707"/>
+      <c r="G11" s="599"/>
+      <c r="I11" s="693"/>
       <c r="J11" s="24" t="s">
         <v>194</v>
       </c>
@@ -9700,18 +9608,18 @@
         <v>44</v>
       </c>
       <c r="R11" s="24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S11" s="24">
-        <v>0</v>
-      </c>
-      <c r="U11" s="712" t="s">
+        <v>3</v>
+      </c>
+      <c r="U11" s="698" t="s">
         <v>559</v>
       </c>
-      <c r="V11" s="713"/>
-      <c r="W11" s="713"/>
-      <c r="X11" s="714"/>
-      <c r="AB11" s="711"/>
+      <c r="V11" s="699"/>
+      <c r="W11" s="699"/>
+      <c r="X11" s="700"/>
+      <c r="AB11" s="697"/>
       <c r="AC11" s="99" t="s">
         <v>597</v>
       </c>
@@ -9719,30 +9627,30 @@
         <v>44</v>
       </c>
       <c r="AE11" s="24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF11" s="24">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AG11" s="417"/>
-      <c r="AH11" s="712" t="s">
-        <v>612</v>
-      </c>
-      <c r="AI11" s="713"/>
-      <c r="AJ11" s="713"/>
-      <c r="AK11" s="713"/>
-      <c r="AL11" s="714"/>
+      <c r="AH11" s="698" t="s">
+        <v>608</v>
+      </c>
+      <c r="AI11" s="699"/>
+      <c r="AJ11" s="699"/>
+      <c r="AK11" s="699"/>
+      <c r="AL11" s="700"/>
     </row>
     <row r="12" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="229" t="s">
         <v>384</v>
       </c>
-      <c r="B12" s="601"/>
+      <c r="B12" s="600"/>
       <c r="E12" s="231">
         <v>3</v>
       </c>
-      <c r="G12" s="600"/>
-      <c r="I12" s="707"/>
+      <c r="G12" s="599"/>
+      <c r="I12" s="693"/>
       <c r="J12" s="24" t="s">
         <v>517</v>
       </c>
@@ -9770,12 +9678,12 @@
       <c r="B13" s="218" t="s">
         <v>324</v>
       </c>
-      <c r="C13" s="599" t="s">
+      <c r="C13" s="598" t="s">
         <v>194</v>
       </c>
       <c r="D13" s="20"/>
-      <c r="G13" s="600"/>
-      <c r="I13" s="707"/>
+      <c r="G13" s="599"/>
+      <c r="I13" s="693"/>
       <c r="J13" s="108" t="s">
         <v>549</v>
       </c>
@@ -9805,7 +9713,7 @@
       <c r="B14" s="175" t="s">
         <v>149</v>
       </c>
-      <c r="C14" s="601"/>
+      <c r="C14" s="600"/>
       <c r="D14" s="206" t="s">
         <v>153</v>
       </c>
@@ -9815,11 +9723,11 @@
       <c r="F14" s="208" t="s">
         <v>219</v>
       </c>
-      <c r="G14" s="601"/>
+      <c r="G14" s="600"/>
       <c r="H14" s="208" t="s">
         <v>219</v>
       </c>
-      <c r="I14" s="707"/>
+      <c r="I14" s="693"/>
       <c r="U14" s="67" t="s">
         <v>80</v>
       </c>
@@ -9830,7 +9738,7 @@
       <c r="X14"/>
       <c r="Z14" s="68">
         <f>SUM(X23:X31)</f>
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -9846,7 +9754,7 @@
       <c r="H15" s="273">
         <v>0</v>
       </c>
-      <c r="I15" s="707"/>
+      <c r="I15" s="693"/>
       <c r="J15" s="108" t="s">
         <v>153</v>
       </c>
@@ -9877,7 +9785,7 @@
       <c r="D16" s="2" t="s">
         <v>493</v>
       </c>
-      <c r="I16" s="707"/>
+      <c r="I16" s="693"/>
       <c r="K16" s="100" t="s">
         <v>44</v>
       </c>
@@ -9917,7 +9825,7 @@
       <c r="G17" s="2" t="s">
         <v>424</v>
       </c>
-      <c r="I17" s="707"/>
+      <c r="I17" s="693"/>
       <c r="L17" s="2" t="s">
         <v>427</v>
       </c>
@@ -9935,19 +9843,19 @@
     </row>
     <row r="18" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G18" s="16"/>
-      <c r="I18" s="707"/>
+      <c r="I18" s="693"/>
       <c r="L18" s="16"/>
       <c r="M18" s="21"/>
-      <c r="O18" s="704" t="s">
+      <c r="O18" s="690" t="s">
         <v>518</v>
       </c>
-      <c r="P18" s="705"/>
+      <c r="P18" s="691"/>
       <c r="Q18" s="127" t="s">
         <v>44</v>
       </c>
       <c r="R18" s="24">
         <f>5-R26</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S18" s="24">
         <f>5-S26</f>
@@ -9967,7 +9875,7 @@
       </c>
     </row>
     <row r="19" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I19" s="707"/>
+      <c r="I19" s="693"/>
       <c r="M19" s="21" t="s">
         <v>426</v>
       </c>
@@ -10003,7 +9911,7 @@
       <c r="G20" s="2" t="s">
         <v>424</v>
       </c>
-      <c r="I20" s="707"/>
+      <c r="I20" s="693"/>
       <c r="K20" s="19" t="s">
         <v>423</v>
       </c>
@@ -10018,7 +9926,7 @@
       </c>
       <c r="R20" s="24">
         <f>R18-SUM(X16:X21)+R26</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S20" s="24">
         <f>S18-SUM(V16:V21)+S26</f>
@@ -10030,15 +9938,11 @@
       <c r="V20" s="471">
         <v>1</v>
       </c>
-      <c r="W20" s="6" t="s">
-        <v>469</v>
-      </c>
-      <c r="X20" s="471">
-        <v>1</v>
-      </c>
+      <c r="W20" s="6"/>
+      <c r="X20" s="471"/>
     </row>
     <row r="21" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I21" s="707"/>
+      <c r="I21" s="693"/>
       <c r="M21" s="218" t="s">
         <v>412</v>
       </c>
@@ -10072,7 +9976,7 @@
       <c r="G22" s="2" t="s">
         <v>424</v>
       </c>
-      <c r="I22" s="707"/>
+      <c r="I22" s="693"/>
       <c r="P22" s="99" t="s">
         <v>593</v>
       </c>
@@ -10087,10 +9991,10 @@
       <c r="E23" s="285" t="s">
         <v>44</v>
       </c>
-      <c r="I23" s="707"/>
+      <c r="I23" s="693"/>
       <c r="Q23" s="24">
         <f>SUM(V23:V31)</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="U23" s="344"/>
       <c r="V23" s="185">
@@ -10104,16 +10008,16 @@
       </c>
     </row>
     <row r="24" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I24" s="707"/>
+      <c r="I24" s="693"/>
       <c r="U24" s="35"/>
       <c r="V24" s="512">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W24" s="54" t="s">
         <v>73</v>
       </c>
       <c r="X24" s="24">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10132,7 +10036,7 @@
       <c r="H25" s="193" t="s">
         <v>267</v>
       </c>
-      <c r="I25" s="707"/>
+      <c r="I25" s="693"/>
       <c r="J25" s="400" t="s">
         <v>270</v>
       </c>
@@ -10177,7 +10081,7 @@
       <c r="H26" s="19" t="s">
         <v>219</v>
       </c>
-      <c r="I26" s="707"/>
+      <c r="I26" s="693"/>
       <c r="K26" s="24">
         <v>15</v>
       </c>
@@ -10192,7 +10096,7 @@
         <v>44</v>
       </c>
       <c r="R26" s="24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S26" s="24">
         <v>0</v>
@@ -10212,7 +10116,7 @@
       </c>
     </row>
     <row r="27" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I27" s="707"/>
+      <c r="I27" s="693"/>
       <c r="O27" s="2" t="s">
         <v>98</v>
       </c>
@@ -10239,7 +10143,7 @@
       <c r="E28" s="217">
         <v>2</v>
       </c>
-      <c r="I28" s="707"/>
+      <c r="I28" s="693"/>
       <c r="Q28" s="6"/>
       <c r="R28" s="112"/>
       <c r="T28" s="142"/>
@@ -10261,7 +10165,7 @@
       <c r="H29" s="193" t="s">
         <v>268</v>
       </c>
-      <c r="I29" s="708"/>
+      <c r="I29" s="694"/>
       <c r="J29" s="326"/>
       <c r="L29" s="96" t="s">
         <v>274</v>
@@ -10319,13 +10223,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="O18:P18"/>
-    <mergeCell ref="I2:I29"/>
-    <mergeCell ref="AB1:AB11"/>
-    <mergeCell ref="AH11:AL11"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="Q1:Q2"/>
-    <mergeCell ref="U11:X11"/>
     <mergeCell ref="A6:A8"/>
     <mergeCell ref="G5:G14"/>
     <mergeCell ref="A2:A3"/>
@@ -10337,6 +10234,13 @@
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="G2:G3"/>
     <mergeCell ref="C2:C3"/>
+    <mergeCell ref="O18:P18"/>
+    <mergeCell ref="I2:I29"/>
+    <mergeCell ref="AB1:AB11"/>
+    <mergeCell ref="AH11:AL11"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="Q1:Q2"/>
+    <mergeCell ref="U11:X11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -10347,8 +10251,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2029A93E-B53C-4201-9F17-439C144F3CF1}">
   <dimension ref="A1:AT37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+    <sheetView topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="Q12" sqref="Q12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10415,7 +10319,7 @@
         <v>0</v>
       </c>
       <c r="H1" s="80" t="s">
-        <v>621</v>
+        <v>616</v>
       </c>
       <c r="I1" s="95" t="s">
         <v>41</v>
@@ -10424,9 +10328,9 @@
         <v>200</v>
       </c>
       <c r="K1" s="72" t="s">
-        <v>614</v>
-      </c>
-      <c r="L1" s="587" t="s">
+        <v>610</v>
+      </c>
+      <c r="L1" s="586" t="s">
         <v>577</v>
       </c>
       <c r="M1" s="21" t="s">
@@ -10448,14 +10352,14 @@
         <f ca="1">TODAY()</f>
         <v>45284</v>
       </c>
-      <c r="T1" s="743"/>
+      <c r="T1" s="735"/>
       <c r="U1" s="142"/>
       <c r="V1" s="6"/>
       <c r="W1" s="6"/>
-      <c r="X1" s="727" t="s">
+      <c r="X1" s="719" t="s">
         <v>442</v>
       </c>
-      <c r="Y1" s="728"/>
+      <c r="Y1" s="720"/>
       <c r="Z1" s="308">
         <f>68-(W8+Y3+X3+U3)</f>
         <v>0</v>
@@ -10471,23 +10375,23 @@
       <c r="AD1" s="304" t="s">
         <v>44</v>
       </c>
-      <c r="AE1" s="729" t="s">
+      <c r="AE1" s="721" t="s">
         <v>190</v>
       </c>
-      <c r="AF1" s="730"/>
-      <c r="AG1" s="731"/>
-      <c r="AH1" s="732" t="s">
+      <c r="AF1" s="722"/>
+      <c r="AG1" s="723"/>
+      <c r="AH1" s="724" t="s">
         <v>294</v>
       </c>
-      <c r="AI1" s="733"/>
-      <c r="AJ1" s="734"/>
-      <c r="AK1" s="556"/>
-      <c r="AL1" s="556"/>
-      <c r="AM1" s="724" t="s">
+      <c r="AI1" s="725"/>
+      <c r="AJ1" s="726"/>
+      <c r="AK1" s="555"/>
+      <c r="AL1" s="555"/>
+      <c r="AM1" s="716" t="s">
         <v>445</v>
       </c>
-      <c r="AN1" s="725"/>
-      <c r="AO1" s="726"/>
+      <c r="AN1" s="717"/>
+      <c r="AO1" s="718"/>
       <c r="AR1" s="142"/>
     </row>
     <row r="2" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10500,31 +10404,31 @@
       </c>
       <c r="J2" s="320">
         <f>K2+L2</f>
-        <v>21</v>
-      </c>
-      <c r="K2" s="722">
+        <v>25</v>
+      </c>
+      <c r="K2" s="743">
         <f>SUM(K4:K29)</f>
         <v>12</v>
       </c>
-      <c r="L2" s="720">
+      <c r="L2" s="741">
         <f>SUM(L4:L37)</f>
-        <v>9</v>
-      </c>
-      <c r="M2" s="735">
+        <v>13</v>
+      </c>
+      <c r="M2" s="727">
         <f>SUM(M5:M30)</f>
         <v>0</v>
       </c>
-      <c r="N2" s="737">
+      <c r="N2" s="729">
         <f>SUM(N4:N29)</f>
-        <v>10</v>
-      </c>
-      <c r="O2" s="739">
+        <v>5</v>
+      </c>
+      <c r="O2" s="731">
         <f>SUM(O4:O29)</f>
-        <v>10</v>
-      </c>
-      <c r="P2" s="667">
+        <v>11</v>
+      </c>
+      <c r="P2" s="637">
         <f>SUM(N30:N37)* (-1)</f>
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="Q2" s="271" t="s">
         <v>239</v>
@@ -10535,14 +10439,14 @@
       <c r="S2" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="T2" s="744"/>
+      <c r="T2" s="736"/>
       <c r="U2" s="541" t="s">
         <v>263</v>
       </c>
       <c r="V2" s="485" t="s">
         <v>220</v>
       </c>
-      <c r="W2" s="741" t="s">
+      <c r="W2" s="733" t="s">
         <v>235</v>
       </c>
       <c r="X2" s="486" t="s">
@@ -10585,10 +10489,10 @@
         <v>289</v>
       </c>
       <c r="AK2" s="150" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="AL2" s="150" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="AM2" s="21" t="s">
         <v>444</v>
@@ -10614,12 +10518,12 @@
         <f>V3+X3+Y3+U3</f>
         <v>68</v>
       </c>
-      <c r="K3" s="723"/>
-      <c r="L3" s="721"/>
-      <c r="M3" s="736"/>
-      <c r="N3" s="738"/>
-      <c r="O3" s="740"/>
-      <c r="P3" s="668"/>
+      <c r="K3" s="744"/>
+      <c r="L3" s="742"/>
+      <c r="M3" s="728"/>
+      <c r="N3" s="730"/>
+      <c r="O3" s="732"/>
+      <c r="P3" s="638"/>
       <c r="Q3" s="174">
         <f>(M2+N2)-Y3</f>
         <v>0</v>
@@ -10627,23 +10531,23 @@
       <c r="S3" s="159" t="s">
         <v>245</v>
       </c>
-      <c r="T3" s="745"/>
+      <c r="T3" s="737"/>
       <c r="U3" s="542">
         <f>SUM(U4:U29)</f>
         <v>12</v>
       </c>
       <c r="V3" s="487">
         <f>SUM(V4:V29)</f>
-        <v>36</v>
-      </c>
-      <c r="W3" s="742"/>
+        <v>41</v>
+      </c>
+      <c r="W3" s="734"/>
       <c r="X3" s="488">
         <f t="shared" ref="X3:AC3" si="0">SUM(X4:X29)</f>
         <v>10</v>
       </c>
       <c r="Y3" s="488">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="Z3" s="59">
         <f t="shared" si="0"/>
@@ -10651,15 +10555,15 @@
       </c>
       <c r="AA3" s="66">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AB3" s="66">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="AC3" s="66">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AD3" s="66">
         <f t="shared" ref="AD3:AO3" si="1">SUM(AD4:AD29)</f>
@@ -10667,7 +10571,7 @@
       </c>
       <c r="AE3" s="66">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AF3" s="66">
         <f t="shared" si="1"/>
@@ -10679,7 +10583,7 @@
       </c>
       <c r="AH3" s="66">
         <f>SUM(AH4:AH29)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AI3" s="376">
         <f t="shared" si="1"/>
@@ -10687,21 +10591,21 @@
       </c>
       <c r="AJ3" s="407">
         <f t="shared" si="1"/>
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="AK3" s="407"/>
       <c r="AL3" s="407"/>
       <c r="AM3" s="100">
         <f t="shared" si="1"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AN3" s="312">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AO3" s="313">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AR3" s="142"/>
     </row>
@@ -10723,20 +10627,20 @@
       </c>
       <c r="H4" s="273"/>
       <c r="I4" s="273"/>
-      <c r="J4" s="576"/>
-      <c r="K4" s="580"/>
-      <c r="L4" s="588">
-        <v>1</v>
+      <c r="J4" s="575"/>
+      <c r="K4" s="579"/>
+      <c r="L4" s="587">
+        <v>0</v>
       </c>
       <c r="M4" s="327"/>
       <c r="N4" s="107">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O4" s="294">
         <f>AC4</f>
-        <v>1</v>
-      </c>
-      <c r="P4" s="717" t="s">
+        <v>0</v>
+      </c>
+      <c r="P4" s="738" t="s">
         <v>199</v>
       </c>
       <c r="Q4" s="20"/>
@@ -10751,7 +10655,7 @@
       </c>
       <c r="U4" s="489"/>
       <c r="V4" s="490">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W4" s="491">
         <v>-2</v>
@@ -10759,61 +10663,61 @@
       <c r="X4" s="492"/>
       <c r="Y4" s="493">
         <f t="shared" ref="Y4:Y37" si="2">SUM(M4:N4)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="157"/>
       <c r="AA4" s="117">
         <f t="shared" ref="AA4:AA37" si="3">O4</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB4" s="292">
         <f>(Y4+AA4+AF4)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AC4" s="292">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD4" s="292">
         <f t="shared" ref="AD4:AD37" si="4">IF((AF4+V4+Y4+X4+U4)&lt;AE4,(AE4-(AF4+V4+Y4+X4+U4))*(-1),0)</f>
         <v>0</v>
       </c>
       <c r="AE4" s="305">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF4" s="301"/>
       <c r="AG4" s="299"/>
       <c r="AH4" s="157">
         <f t="shared" ref="AH4:AH37" si="5">O4</f>
-        <v>1</v>
-      </c>
-      <c r="AI4" s="561"/>
+        <v>0</v>
+      </c>
+      <c r="AI4" s="560"/>
       <c r="AJ4" s="185"/>
       <c r="AK4" s="162"/>
       <c r="AL4" s="321"/>
       <c r="AM4" s="338">
         <f t="shared" ref="AM4:AM37" si="6">AD4+AI4+AA4</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN4" s="310">
         <f t="shared" ref="AN4:AN37" si="7">IF((AE4-AI4)&gt; AA4,AI4-AA4,AA4)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="311">
         <f>IF((AM4-AN4)&gt;AN4,(AM4-AN4),AN4)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP4" s="508" t="s">
         <v>203</v>
       </c>
-      <c r="AQ4" s="567"/>
+      <c r="AQ4" s="566"/>
       <c r="AR4" s="543" t="s">
         <v>555</v>
       </c>
     </row>
     <row r="5" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J5" s="577"/>
-      <c r="K5" s="581"/>
-      <c r="L5" s="589"/>
+      <c r="J5" s="576"/>
+      <c r="K5" s="580"/>
+      <c r="L5" s="588"/>
       <c r="M5" s="297"/>
       <c r="N5" s="107">
         <v>0</v>
@@ -10822,7 +10726,7 @@
         <f>AC5</f>
         <v>0</v>
       </c>
-      <c r="P5" s="718"/>
+      <c r="P5" s="739"/>
       <c r="Q5" s="20"/>
       <c r="R5" s="2" t="s">
         <v>341</v>
@@ -10870,7 +10774,7 @@
       </c>
       <c r="AI5" s="377"/>
       <c r="AJ5" s="512"/>
-      <c r="AK5" s="565"/>
+      <c r="AK5" s="564"/>
       <c r="AL5" s="319"/>
       <c r="AM5" s="338">
         <f t="shared" si="6"/>
@@ -10901,13 +10805,15 @@
       </c>
       <c r="G6" s="201"/>
       <c r="I6" s="112"/>
-      <c r="J6" s="578" t="s">
+      <c r="J6" s="577" t="s">
         <v>307</v>
       </c>
-      <c r="K6" s="582">
+      <c r="K6" s="581">
         <v>2</v>
       </c>
-      <c r="L6" s="590"/>
+      <c r="L6" s="589">
+        <v>2</v>
+      </c>
       <c r="M6" s="328">
         <v>0</v>
       </c>
@@ -10918,7 +10824,7 @@
         <f>AC6</f>
         <v>1</v>
       </c>
-      <c r="P6" s="718"/>
+      <c r="P6" s="739"/>
       <c r="Q6" s="19" t="s">
         <v>336</v>
       </c>
@@ -10973,9 +10879,9 @@
         <v>0</v>
       </c>
       <c r="AJ6" s="512">
-        <v>2</v>
-      </c>
-      <c r="AK6" s="565"/>
+        <v>1</v>
+      </c>
+      <c r="AK6" s="564"/>
       <c r="AL6" s="319"/>
       <c r="AM6" s="338">
         <f t="shared" si="6"/>
@@ -10992,7 +10898,7 @@
       <c r="AP6" s="6" t="s">
         <v>229</v>
       </c>
-      <c r="AQ6" s="568" t="s">
+      <c r="AQ6" s="567" t="s">
         <v>561</v>
       </c>
       <c r="AR6" s="511" t="s">
@@ -11006,11 +10912,11 @@
       </c>
       <c r="H7" s="270"/>
       <c r="I7" s="111"/>
-      <c r="J7" s="577"/>
-      <c r="K7" s="581">
+      <c r="J7" s="576"/>
+      <c r="K7" s="580">
         <v>3</v>
       </c>
-      <c r="L7" s="589"/>
+      <c r="L7" s="588"/>
       <c r="M7" s="328">
         <v>0</v>
       </c>
@@ -11021,7 +10927,7 @@
         <f>AC7</f>
         <v>1</v>
       </c>
-      <c r="P7" s="718"/>
+      <c r="P7" s="739"/>
       <c r="Q7" s="20"/>
       <c r="R7" s="2" t="s">
         <v>336</v>
@@ -11079,7 +10985,7 @@
       </c>
       <c r="AI7" s="377"/>
       <c r="AJ7" s="512"/>
-      <c r="AK7" s="565"/>
+      <c r="AK7" s="564"/>
       <c r="AL7" s="319"/>
       <c r="AM7" s="338">
         <f t="shared" si="6"/>
@@ -11096,7 +11002,7 @@
       <c r="AP7" s="6" t="s">
         <v>241</v>
       </c>
-      <c r="AQ7" s="568"/>
+      <c r="AQ7" s="567"/>
       <c r="AR7" s="385"/>
     </row>
     <row r="8" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11118,13 +11024,13 @@
       </c>
       <c r="H8" s="273"/>
       <c r="I8" s="117"/>
-      <c r="J8" s="578" t="s">
+      <c r="J8" s="577" t="s">
         <v>339</v>
       </c>
-      <c r="K8" s="582">
-        <v>1</v>
-      </c>
-      <c r="L8" s="590"/>
+      <c r="K8" s="581">
+        <v>1</v>
+      </c>
+      <c r="L8" s="589"/>
       <c r="M8" s="107">
         <v>0</v>
       </c>
@@ -11135,7 +11041,7 @@
         <f t="shared" ref="O8:O37" si="10">AC8</f>
         <v>0</v>
       </c>
-      <c r="P8" s="718"/>
+      <c r="P8" s="739"/>
       <c r="Q8" s="21" t="s">
         <v>234</v>
       </c>
@@ -11156,7 +11062,7 @@
       </c>
       <c r="W8" s="24">
         <f>V3</f>
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="X8" s="500">
         <v>0</v>
@@ -11194,7 +11100,7 @@
         <v>0</v>
       </c>
       <c r="AJ8" s="512"/>
-      <c r="AK8" s="565"/>
+      <c r="AK8" s="564"/>
       <c r="AL8" s="319"/>
       <c r="AM8" s="118">
         <f t="shared" si="6"/>
@@ -11209,15 +11115,15 @@
         <v>0</v>
       </c>
       <c r="AP8" s="6"/>
-      <c r="AQ8" s="568"/>
+      <c r="AQ8" s="567"/>
       <c r="AR8" s="385"/>
     </row>
     <row r="9" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J9" s="577" t="s">
+      <c r="J9" s="576" t="s">
         <v>353</v>
       </c>
-      <c r="K9" s="581"/>
-      <c r="L9" s="589"/>
+      <c r="K9" s="580"/>
+      <c r="L9" s="588"/>
       <c r="M9" s="329"/>
       <c r="N9" s="107">
         <v>0</v>
@@ -11226,7 +11132,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="P9" s="718"/>
+      <c r="P9" s="739"/>
       <c r="Q9" s="21" t="s">
         <v>336</v>
       </c>
@@ -11276,10 +11182,10 @@
       <c r="AI9" s="377">
         <v>0</v>
       </c>
-      <c r="AJ9" s="566">
-        <v>0</v>
-      </c>
-      <c r="AK9" s="565"/>
+      <c r="AJ9" s="565">
+        <v>0</v>
+      </c>
+      <c r="AK9" s="564"/>
       <c r="AL9" s="319"/>
       <c r="AM9" s="338">
         <f t="shared" si="6"/>
@@ -11294,7 +11200,7 @@
         <v>0</v>
       </c>
       <c r="AP9" s="6"/>
-      <c r="AQ9" s="569"/>
+      <c r="AQ9" s="568"/>
       <c r="AR9" s="511"/>
     </row>
     <row r="10" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11314,24 +11220,24 @@
         <v>0</v>
       </c>
       <c r="I10" s="111" t="s">
-        <v>616</v>
-      </c>
-      <c r="J10" s="577" t="s">
+        <v>612</v>
+      </c>
+      <c r="J10" s="576" t="s">
         <v>357</v>
       </c>
-      <c r="K10" s="581"/>
-      <c r="L10" s="589">
-        <v>1</v>
+      <c r="K10" s="580"/>
+      <c r="L10" s="588">
+        <v>0</v>
       </c>
       <c r="M10" s="330"/>
       <c r="N10" s="107">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O10" s="295">
         <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="P10" s="718"/>
+        <v>0</v>
+      </c>
+      <c r="P10" s="739"/>
       <c r="Q10" s="20"/>
       <c r="R10" s="2" t="s">
         <v>341</v>
@@ -11346,7 +11252,7 @@
         <v>1</v>
       </c>
       <c r="V10" s="495">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W10" s="496">
         <v>-2</v>
@@ -11354,48 +11260,48 @@
       <c r="X10" s="499"/>
       <c r="Y10" s="493">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="298"/>
       <c r="AA10" s="117">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB10" s="292">
         <f t="shared" si="8"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AC10" s="292">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD10" s="292">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AE10" s="296">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF10" s="302"/>
       <c r="AG10" s="298"/>
       <c r="AH10" s="298">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI10" s="377"/>
       <c r="AJ10" s="512"/>
-      <c r="AK10" s="565"/>
+      <c r="AK10" s="564"/>
       <c r="AL10" s="319"/>
       <c r="AM10" s="338">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN10" s="310">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="311">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP10" s="6" t="s">
         <v>73</v>
@@ -11408,11 +11314,11 @@
       </c>
     </row>
     <row r="11" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J11" s="577" t="s">
+      <c r="J11" s="576" t="s">
         <v>306</v>
       </c>
-      <c r="K11" s="581"/>
-      <c r="L11" s="589"/>
+      <c r="K11" s="580"/>
+      <c r="L11" s="588"/>
       <c r="M11" s="330"/>
       <c r="N11" s="107">
         <v>0</v>
@@ -11421,7 +11327,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="P11" s="718"/>
+      <c r="P11" s="739"/>
       <c r="Q11" s="21" t="s">
         <v>336</v>
       </c>
@@ -11467,7 +11373,7 @@
       </c>
       <c r="AI11" s="377"/>
       <c r="AJ11" s="512"/>
-      <c r="AK11" s="565"/>
+      <c r="AK11" s="564"/>
       <c r="AL11" s="319"/>
       <c r="AM11" s="338">
         <f t="shared" si="6"/>
@@ -11482,18 +11388,18 @@
         <v>0</v>
       </c>
       <c r="AP11" s="6"/>
-      <c r="AQ11" s="568"/>
+      <c r="AQ11" s="567"/>
       <c r="AR11" s="511"/>
     </row>
     <row r="12" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="627" t="s">
+      <c r="A12" s="675" t="s">
         <v>55</v>
       </c>
       <c r="B12" s="30">
         <v>13</v>
       </c>
       <c r="C12" s="2"/>
-      <c r="E12" s="682" t="s">
+      <c r="E12" s="625" t="s">
         <v>56</v>
       </c>
       <c r="G12" s="264"/>
@@ -11501,24 +11407,24 @@
         <v>-1</v>
       </c>
       <c r="I12" s="61" t="s">
-        <v>622</v>
-      </c>
-      <c r="J12" s="577" t="s">
+        <v>617</v>
+      </c>
+      <c r="J12" s="576" t="s">
         <v>298</v>
       </c>
-      <c r="K12" s="581"/>
-      <c r="L12" s="589">
+      <c r="K12" s="580"/>
+      <c r="L12" s="588">
         <v>1</v>
       </c>
       <c r="M12" s="330"/>
       <c r="N12" s="107">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O12" s="295">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="P12" s="718"/>
+        <v>1</v>
+      </c>
+      <c r="P12" s="739"/>
       <c r="Q12" s="21" t="s">
         <v>336</v>
       </c>
@@ -11531,7 +11437,7 @@
       </c>
       <c r="U12" s="506"/>
       <c r="V12" s="495">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W12" s="496">
         <v>-2</v>
@@ -11539,70 +11445,68 @@
       <c r="X12" s="499"/>
       <c r="Y12" s="185">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="298"/>
       <c r="AA12" s="117">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB12" s="292">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="AC12" s="292">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD12" s="292">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AE12" s="296">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF12" s="302"/>
       <c r="AG12" s="298"/>
       <c r="AH12" s="298">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI12" s="377"/>
       <c r="AJ12" s="512">
-        <v>1</v>
-      </c>
-      <c r="AK12" s="565"/>
+        <v>0</v>
+      </c>
+      <c r="AK12" s="564"/>
       <c r="AL12" s="319"/>
       <c r="AM12" s="338">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN12" s="310">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO12" s="311">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP12" s="6" t="s">
         <v>449</v>
       </c>
-      <c r="AQ12" s="568" t="s">
+      <c r="AQ12" s="567" t="s">
         <v>511</v>
       </c>
-      <c r="AR12" s="512" t="s">
-        <v>565</v>
-      </c>
+      <c r="AR12" s="512"/>
     </row>
     <row r="13" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="629"/>
-      <c r="B13" s="592">
+      <c r="A13" s="677"/>
+      <c r="B13" s="591">
         <v>12</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="E13" s="683"/>
+      <c r="E13" s="626"/>
       <c r="F13" s="174">
         <v>0</v>
       </c>
@@ -11611,13 +11515,13 @@
       </c>
       <c r="H13" s="273"/>
       <c r="I13" s="111" t="s">
-        <v>623</v>
-      </c>
-      <c r="J13" s="578" t="s">
+        <v>618</v>
+      </c>
+      <c r="J13" s="577" t="s">
         <v>303</v>
       </c>
-      <c r="K13" s="582"/>
-      <c r="L13" s="590"/>
+      <c r="K13" s="581"/>
+      <c r="L13" s="589"/>
       <c r="M13" s="330"/>
       <c r="N13" s="107">
         <v>0</v>
@@ -11626,7 +11530,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="P13" s="718"/>
+      <c r="P13" s="739"/>
       <c r="Q13" s="21" t="s">
         <v>336</v>
       </c>
@@ -11671,10 +11575,8 @@
         <v>0</v>
       </c>
       <c r="AI13" s="377"/>
-      <c r="AJ13" s="512">
-        <v>1</v>
-      </c>
-      <c r="AK13" s="565"/>
+      <c r="AJ13" s="512"/>
+      <c r="AK13" s="564"/>
       <c r="AL13" s="319"/>
       <c r="AM13" s="338">
         <f t="shared" si="6"/>
@@ -11689,7 +11591,7 @@
         <v>0</v>
       </c>
       <c r="AP13" s="16"/>
-      <c r="AQ13" s="568"/>
+      <c r="AQ13" s="567"/>
       <c r="AR13" s="511"/>
     </row>
     <row r="14" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11697,9 +11599,9 @@
         <v>59</v>
       </c>
       <c r="H14" s="42"/>
-      <c r="J14" s="577"/>
-      <c r="K14" s="581"/>
-      <c r="L14" s="589">
+      <c r="J14" s="576"/>
+      <c r="K14" s="580"/>
+      <c r="L14" s="588">
         <v>1</v>
       </c>
       <c r="M14" s="330"/>
@@ -11710,7 +11612,7 @@
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="P14" s="718"/>
+      <c r="P14" s="739"/>
       <c r="Q14" s="20"/>
       <c r="R14" s="202" t="s">
         <v>340</v>
@@ -11762,12 +11664,10 @@
       <c r="AJ14" s="512">
         <v>1</v>
       </c>
-      <c r="AK14" s="565">
-        <v>1</v>
-      </c>
-      <c r="AL14" s="319">
-        <v>1</v>
-      </c>
+      <c r="AK14" s="564">
+        <v>1</v>
+      </c>
+      <c r="AL14" s="319"/>
       <c r="AM14" s="338">
         <f t="shared" si="6"/>
         <v>1</v>
@@ -11781,13 +11681,13 @@
         <v>1</v>
       </c>
       <c r="AP14" s="6" t="s">
-        <v>627</v>
-      </c>
-      <c r="AQ14" s="570" t="s">
+        <v>620</v>
+      </c>
+      <c r="AQ14" s="569" t="s">
         <v>563</v>
       </c>
       <c r="AR14" s="511" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
     </row>
     <row r="15" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11802,11 +11702,11 @@
       </c>
       <c r="H15" s="482"/>
       <c r="I15" s="273"/>
-      <c r="J15" s="578" t="s">
+      <c r="J15" s="577" t="s">
         <v>194</v>
       </c>
-      <c r="K15" s="582"/>
-      <c r="L15" s="590"/>
+      <c r="K15" s="581"/>
+      <c r="L15" s="589"/>
       <c r="M15" s="330"/>
       <c r="N15" s="293">
         <v>0</v>
@@ -11815,7 +11715,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="P15" s="718"/>
+      <c r="P15" s="739"/>
       <c r="Q15" s="20"/>
       <c r="R15" s="202" t="s">
         <v>340</v>
@@ -11865,7 +11765,7 @@
       </c>
       <c r="AI15" s="377"/>
       <c r="AJ15" s="512"/>
-      <c r="AK15" s="565"/>
+      <c r="AK15" s="564"/>
       <c r="AL15" s="319"/>
       <c r="AM15" s="338">
         <f t="shared" si="6"/>
@@ -11882,7 +11782,7 @@
       <c r="AP15" s="6" t="s">
         <v>230</v>
       </c>
-      <c r="AQ15" s="568" t="s">
+      <c r="AQ15" s="567" t="s">
         <v>452</v>
       </c>
       <c r="AR15" s="511"/>
@@ -11894,9 +11794,9 @@
       <c r="E16" s="32" t="s">
         <v>62</v>
       </c>
-      <c r="J16" s="579"/>
-      <c r="K16" s="583"/>
-      <c r="L16" s="589">
+      <c r="J16" s="578"/>
+      <c r="K16" s="582"/>
+      <c r="L16" s="588">
         <v>1</v>
       </c>
       <c r="M16" s="330"/>
@@ -11907,7 +11807,7 @@
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="P16" s="718"/>
+      <c r="P16" s="739"/>
       <c r="Q16" s="21" t="s">
         <v>336</v>
       </c>
@@ -11963,7 +11863,7 @@
       <c r="AJ16" s="512">
         <v>1</v>
       </c>
-      <c r="AK16" s="565"/>
+      <c r="AK16" s="564"/>
       <c r="AL16" s="319"/>
       <c r="AM16" s="338">
         <f t="shared" si="6"/>
@@ -11980,7 +11880,7 @@
       <c r="AP16" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="AQ16" s="571" t="s">
+      <c r="AQ16" s="570" t="s">
         <v>556</v>
       </c>
       <c r="AR16" s="511" t="s">
@@ -11997,11 +11897,11 @@
       <c r="G17" s="143"/>
       <c r="H17" s="270"/>
       <c r="I17" s="6"/>
-      <c r="J17" s="578" t="s">
+      <c r="J17" s="577" t="s">
         <v>310</v>
       </c>
-      <c r="K17" s="582"/>
-      <c r="L17" s="590"/>
+      <c r="K17" s="581"/>
+      <c r="L17" s="589"/>
       <c r="M17" s="330"/>
       <c r="N17" s="107">
         <v>0</v>
@@ -12010,7 +11910,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="P17" s="718"/>
+      <c r="P17" s="739"/>
       <c r="Q17" s="20"/>
       <c r="R17" s="2" t="s">
         <v>342</v>
@@ -12060,7 +11960,7 @@
       </c>
       <c r="AI17" s="377"/>
       <c r="AJ17" s="512"/>
-      <c r="AK17" s="565"/>
+      <c r="AK17" s="564"/>
       <c r="AL17" s="319"/>
       <c r="AM17" s="338">
         <f t="shared" si="6"/>
@@ -12077,7 +11977,7 @@
       <c r="AP17" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="AQ17" s="572" t="s">
+      <c r="AQ17" s="571" t="s">
         <v>565</v>
       </c>
       <c r="AR17" s="511" t="s">
@@ -12097,11 +11997,11 @@
       </c>
       <c r="H18" s="80"/>
       <c r="I18" s="80"/>
-      <c r="J18" s="578" t="s">
+      <c r="J18" s="577" t="s">
         <v>303</v>
       </c>
-      <c r="K18" s="582"/>
-      <c r="L18" s="590"/>
+      <c r="K18" s="581"/>
+      <c r="L18" s="589"/>
       <c r="M18" s="331"/>
       <c r="N18" s="107">
         <v>0</v>
@@ -12110,7 +12010,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="P18" s="718"/>
+      <c r="P18" s="739"/>
       <c r="Q18" s="21" t="s">
         <v>336</v>
       </c>
@@ -12160,7 +12060,7 @@
       </c>
       <c r="AI18" s="377"/>
       <c r="AJ18" s="512"/>
-      <c r="AK18" s="565"/>
+      <c r="AK18" s="564"/>
       <c r="AL18" s="319"/>
       <c r="AM18" s="338">
         <f t="shared" si="6"/>
@@ -12175,7 +12075,7 @@
         <v>0</v>
       </c>
       <c r="AP18" s="6"/>
-      <c r="AQ18" s="573"/>
+      <c r="AQ18" s="572"/>
       <c r="AR18" s="511"/>
     </row>
     <row r="19" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -12183,22 +12083,24 @@
         <v>66</v>
       </c>
       <c r="H19" s="270"/>
-      <c r="J19" s="578" t="s">
+      <c r="J19" s="577" t="s">
         <v>305</v>
       </c>
-      <c r="K19" s="582">
+      <c r="K19" s="581">
         <v>2</v>
       </c>
-      <c r="L19" s="590"/>
+      <c r="L19" s="589">
+        <v>1</v>
+      </c>
       <c r="M19" s="118"/>
       <c r="N19" s="107">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O19" s="295">
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="P19" s="718"/>
+      <c r="P19" s="739"/>
       <c r="Q19" s="20"/>
       <c r="R19" s="2" t="s">
         <v>335</v>
@@ -12211,7 +12113,7 @@
       </c>
       <c r="U19" s="506"/>
       <c r="V19" s="495">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W19" s="496">
         <v>-1</v>
@@ -12221,7 +12123,7 @@
       </c>
       <c r="Y19" s="185">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="298"/>
       <c r="AA19" s="117">
@@ -12230,7 +12132,7 @@
       </c>
       <c r="AB19" s="292">
         <f t="shared" si="8"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC19" s="292">
         <v>1</v>
@@ -12240,7 +12142,7 @@
         <v>0</v>
       </c>
       <c r="AE19" s="296">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF19" s="302"/>
       <c r="AG19" s="298"/>
@@ -12250,9 +12152,7 @@
       </c>
       <c r="AI19" s="377"/>
       <c r="AJ19" s="512"/>
-      <c r="AK19" s="565">
-        <v>1</v>
-      </c>
+      <c r="AK19" s="564"/>
       <c r="AL19" s="319"/>
       <c r="AM19" s="338">
         <f t="shared" si="6"/>
@@ -12293,11 +12193,11 @@
       <c r="I20" s="80" t="s">
         <v>349</v>
       </c>
-      <c r="J20" s="578" t="s">
+      <c r="J20" s="577" t="s">
         <v>194</v>
       </c>
-      <c r="K20" s="582"/>
-      <c r="L20" s="590">
+      <c r="K20" s="581"/>
+      <c r="L20" s="589">
         <v>1</v>
       </c>
       <c r="M20" s="329"/>
@@ -12308,11 +12208,11 @@
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="P20" s="719"/>
-      <c r="Q20" s="604" t="s">
+      <c r="P20" s="740"/>
+      <c r="Q20" s="603" t="s">
         <v>336</v>
       </c>
-      <c r="R20" s="684"/>
+      <c r="R20" s="627"/>
       <c r="S20" s="538" t="s">
         <v>85</v>
       </c>
@@ -12360,12 +12260,8 @@
       <c r="AJ20" s="512">
         <v>1</v>
       </c>
-      <c r="AK20" s="565">
-        <v>1</v>
-      </c>
-      <c r="AL20" s="319">
-        <v>1</v>
-      </c>
+      <c r="AK20" s="564"/>
+      <c r="AL20" s="319"/>
       <c r="AM20" s="338">
         <f t="shared" si="6"/>
         <v>1</v>
@@ -12381,10 +12277,10 @@
       <c r="AP20" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="AQ20" s="568" t="s">
+      <c r="AQ20" s="567" t="s">
         <v>448</v>
       </c>
-      <c r="AR20" s="593" t="s">
+      <c r="AR20" s="592" t="s">
         <v>499</v>
       </c>
     </row>
@@ -12402,11 +12298,11 @@
       <c r="I21" s="80" t="s">
         <v>257</v>
       </c>
-      <c r="J21" s="577" t="s">
+      <c r="J21" s="576" t="s">
         <v>304</v>
       </c>
-      <c r="K21" s="581"/>
-      <c r="L21" s="589">
+      <c r="K21" s="580"/>
+      <c r="L21" s="588">
         <v>1</v>
       </c>
       <c r="M21" s="332"/>
@@ -12472,7 +12368,7 @@
       <c r="AJ21" s="512">
         <v>1</v>
       </c>
-      <c r="AK21" s="565"/>
+      <c r="AK21" s="564"/>
       <c r="AL21" s="319"/>
       <c r="AM21" s="338">
         <f t="shared" si="6"/>
@@ -12489,17 +12385,17 @@
       <c r="AP21" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="AQ21" s="568" t="s">
+      <c r="AQ21" s="567" t="s">
         <v>448</v>
       </c>
       <c r="AR21" s="511"/>
     </row>
     <row r="22" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J22" s="577" t="s">
+      <c r="J22" s="576" t="s">
         <v>301</v>
       </c>
-      <c r="K22" s="581"/>
-      <c r="L22" s="589"/>
+      <c r="K22" s="580"/>
+      <c r="L22" s="588"/>
       <c r="M22" s="333"/>
       <c r="N22" s="107">
         <v>0</v>
@@ -12557,8 +12453,8 @@
         <v>0</v>
       </c>
       <c r="AI22" s="377"/>
-      <c r="AJ22" s="566"/>
-      <c r="AK22" s="565"/>
+      <c r="AJ22" s="565"/>
+      <c r="AK22" s="564"/>
       <c r="AL22" s="319"/>
       <c r="AM22" s="338">
         <f t="shared" si="6"/>
@@ -12573,29 +12469,31 @@
         <v>0</v>
       </c>
       <c r="AP22" s="16"/>
-      <c r="AQ22" s="573"/>
+      <c r="AQ22" s="572"/>
       <c r="AR22" s="511"/>
     </row>
     <row r="23" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B23" s="24"/>
-      <c r="E23" s="634" t="s">
+      <c r="E23" s="682" t="s">
         <v>290</v>
       </c>
       <c r="F23" s="182"/>
       <c r="H23" s="42"/>
       <c r="I23" s="218"/>
-      <c r="J23" s="577" t="s">
+      <c r="J23" s="576" t="s">
         <v>259</v>
       </c>
-      <c r="K23" s="581">
-        <v>1</v>
-      </c>
-      <c r="L23" s="589"/>
+      <c r="K23" s="580">
+        <v>1</v>
+      </c>
+      <c r="L23" s="588">
+        <v>1</v>
+      </c>
       <c r="M23" s="328">
         <v>0</v>
       </c>
       <c r="N23" s="107">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O23" s="295">
         <f t="shared" si="10"/>
@@ -12610,7 +12508,7 @@
       </c>
       <c r="U23" s="506"/>
       <c r="V23" s="495">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W23" s="496">
         <v>-1</v>
@@ -12619,8 +12517,8 @@
         <v>1</v>
       </c>
       <c r="Y23" s="185">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <f>SUM(M23:N23)</f>
+        <v>0</v>
       </c>
       <c r="Z23" s="298"/>
       <c r="AA23" s="117">
@@ -12629,7 +12527,7 @@
       </c>
       <c r="AB23" s="292">
         <f t="shared" si="8"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC23" s="292">
         <v>1</v>
@@ -12653,7 +12551,7 @@
       <c r="AJ23" s="512">
         <v>1</v>
       </c>
-      <c r="AK23" s="565"/>
+      <c r="AK23" s="564"/>
       <c r="AL23" s="319"/>
       <c r="AM23" s="338">
         <f t="shared" si="6"/>
@@ -12670,7 +12568,7 @@
       <c r="AP23" s="6" t="s">
         <v>569</v>
       </c>
-      <c r="AQ23" s="568" t="s">
+      <c r="AQ23" s="567" t="s">
         <v>566</v>
       </c>
       <c r="AR23" s="511" t="s">
@@ -12681,30 +12579,32 @@
       <c r="C24" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="E24" s="635"/>
+      <c r="E24" s="683"/>
       <c r="F24" s="174"/>
       <c r="H24" s="42"/>
-      <c r="J24" s="577" t="s">
+      <c r="J24" s="576" t="s">
         <v>297</v>
       </c>
-      <c r="K24" s="581">
+      <c r="K24" s="580">
         <v>2</v>
       </c>
-      <c r="L24" s="589"/>
+      <c r="L24" s="588">
+        <v>2</v>
+      </c>
       <c r="M24" s="328">
         <v>0</v>
       </c>
       <c r="N24" s="107">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O24" s="295">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="Q24" s="604" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q24" s="603" t="s">
         <v>336</v>
       </c>
-      <c r="R24" s="684"/>
+      <c r="R24" s="627"/>
       <c r="S24" s="538" t="s">
         <v>250</v>
       </c>
@@ -12715,7 +12615,7 @@
         <v>2</v>
       </c>
       <c r="V24" s="495">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W24" s="530">
         <v>-2</v>
@@ -12723,26 +12623,26 @@
       <c r="X24" s="26"/>
       <c r="Y24" s="552">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z24" s="298"/>
       <c r="AA24" s="117">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB24" s="292">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AC24" s="292">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD24" s="292">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AE24" s="296">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF24" s="107">
         <v>0</v>
@@ -12752,28 +12652,28 @@
       </c>
       <c r="AH24" s="298">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI24" s="377"/>
       <c r="AJ24" s="512"/>
-      <c r="AK24" s="565"/>
+      <c r="AK24" s="564"/>
       <c r="AL24" s="319"/>
       <c r="AM24" s="338">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN24" s="310">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO24" s="311">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP24" s="6" t="s">
         <v>510</v>
       </c>
-      <c r="AQ24" s="574" t="s">
+      <c r="AQ24" s="573" t="s">
         <v>336</v>
       </c>
       <c r="AR24" s="511" t="s">
@@ -12785,22 +12685,22 @@
       <c r="I25" s="2" t="s">
         <v>588</v>
       </c>
-      <c r="J25" s="577" t="s">
+      <c r="J25" s="576" t="s">
         <v>296</v>
       </c>
-      <c r="K25" s="581"/>
-      <c r="L25" s="589">
+      <c r="K25" s="580"/>
+      <c r="L25" s="588">
         <v>1</v>
       </c>
       <c r="M25" s="529">
         <v>0</v>
       </c>
       <c r="N25" s="107">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O25" s="295">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q25" s="86" t="s">
         <v>336</v>
@@ -12815,65 +12715,63 @@
         <v>1</v>
       </c>
       <c r="V25" s="495">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W25" s="530">
         <v>-2</v>
       </c>
-      <c r="X25" s="555">
+      <c r="X25" s="554">
         <v>1</v>
       </c>
       <c r="Y25" s="532">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="298"/>
       <c r="AA25" s="117">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB25" s="292">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="AC25" s="292">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD25" s="292">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AE25" s="296">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF25" s="302"/>
       <c r="AG25" s="298"/>
       <c r="AH25" s="298">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI25" s="377"/>
-      <c r="AJ25" s="512">
-        <v>1</v>
-      </c>
-      <c r="AK25" s="565"/>
+      <c r="AJ25" s="512"/>
+      <c r="AK25" s="564"/>
       <c r="AL25" s="319"/>
       <c r="AM25" s="338">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN25" s="310">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO25" s="311">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP25" s="16" t="s">
         <v>453</v>
       </c>
-      <c r="AQ25" s="568" t="s">
+      <c r="AQ25" s="567" t="s">
         <v>454</v>
       </c>
       <c r="AR25" s="511"/>
@@ -12886,13 +12784,15 @@
       <c r="I26" s="111" t="s">
         <v>264</v>
       </c>
-      <c r="J26" s="577" t="s">
+      <c r="J26" s="576" t="s">
         <v>302</v>
       </c>
-      <c r="K26" s="581">
-        <v>1</v>
-      </c>
-      <c r="L26" s="589"/>
+      <c r="K26" s="580">
+        <v>1</v>
+      </c>
+      <c r="L26" s="588">
+        <v>1</v>
+      </c>
       <c r="M26" s="328">
         <v>0</v>
       </c>
@@ -12955,10 +12855,8 @@
         <v>1</v>
       </c>
       <c r="AI26" s="377"/>
-      <c r="AJ26" s="512">
-        <v>1</v>
-      </c>
-      <c r="AK26" s="565"/>
+      <c r="AJ26" s="512"/>
+      <c r="AK26" s="564"/>
       <c r="AL26" s="319"/>
       <c r="AM26" s="338">
         <f t="shared" si="6"/>
@@ -12975,7 +12873,7 @@
       <c r="AP26" s="523" t="s">
         <v>252</v>
       </c>
-      <c r="AQ26" s="568" t="s">
+      <c r="AQ26" s="567" t="s">
         <v>596</v>
       </c>
       <c r="AR26" s="511"/>
@@ -12986,11 +12884,11 @@
       </c>
       <c r="G27" s="178"/>
       <c r="I27" s="20"/>
-      <c r="J27" s="577" t="s">
+      <c r="J27" s="576" t="s">
         <v>257</v>
       </c>
-      <c r="K27" s="581"/>
-      <c r="L27" s="589"/>
+      <c r="K27" s="580"/>
+      <c r="L27" s="588"/>
       <c r="M27" s="334"/>
       <c r="N27" s="107">
         <v>0</v>
@@ -13046,7 +12944,7 @@
       </c>
       <c r="AI27" s="377"/>
       <c r="AJ27" s="512"/>
-      <c r="AK27" s="565"/>
+      <c r="AK27" s="564"/>
       <c r="AL27" s="319"/>
       <c r="AM27" s="338">
         <f t="shared" si="6"/>
@@ -13061,15 +12959,15 @@
         <v>0</v>
       </c>
       <c r="AP27" s="16"/>
-      <c r="AQ27" s="573"/>
+      <c r="AQ27" s="572"/>
       <c r="AR27" s="511"/>
     </row>
     <row r="28" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J28" s="578" t="s">
+      <c r="J28" s="577" t="s">
         <v>310</v>
       </c>
-      <c r="K28" s="582"/>
-      <c r="L28" s="590"/>
+      <c r="K28" s="581"/>
+      <c r="L28" s="589"/>
       <c r="M28" s="333"/>
       <c r="N28" s="107">
         <v>0</v>
@@ -13120,7 +13018,7 @@
       </c>
       <c r="AI28" s="377"/>
       <c r="AJ28" s="512"/>
-      <c r="AK28" s="565"/>
+      <c r="AK28" s="564"/>
       <c r="AL28" s="319"/>
       <c r="AM28" s="338">
         <f t="shared" si="6"/>
@@ -13134,7 +13032,7 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AQ28" s="573"/>
+      <c r="AQ28" s="572"/>
       <c r="AR28" s="511"/>
     </row>
     <row r="29" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -13142,11 +13040,11 @@
         <v>293</v>
       </c>
       <c r="G29" s="6"/>
-      <c r="J29" s="578" t="s">
+      <c r="J29" s="577" t="s">
         <v>359</v>
       </c>
-      <c r="K29" s="584"/>
-      <c r="L29" s="590"/>
+      <c r="K29" s="583"/>
+      <c r="L29" s="589"/>
       <c r="M29" s="326"/>
       <c r="N29" s="64">
         <v>0</v>
@@ -13218,14 +13116,14 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AQ29" s="573"/>
+      <c r="AQ29" s="572"/>
       <c r="AR29" s="511"/>
     </row>
     <row r="30" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G30" s="270"/>
-      <c r="J30" s="579"/>
-      <c r="K30" s="585"/>
-      <c r="L30" s="589"/>
+      <c r="J30" s="578"/>
+      <c r="K30" s="584"/>
+      <c r="L30" s="588"/>
       <c r="M30" s="335"/>
       <c r="N30" s="247"/>
       <c r="O30" s="295">
@@ -13264,11 +13162,11 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AI30" s="562"/>
+      <c r="AI30" s="561"/>
       <c r="AJ30" s="188"/>
       <c r="AK30" s="188"/>
       <c r="AL30" s="321"/>
-      <c r="AM30" s="575">
+      <c r="AM30" s="574">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
@@ -13280,14 +13178,14 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AQ30" s="573"/>
+      <c r="AQ30" s="572"/>
       <c r="AR30" s="511"/>
     </row>
     <row r="31" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="80"/>
       <c r="B31" s="112"/>
       <c r="C31" s="21" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>361</v>
@@ -13298,9 +13196,9 @@
       <c r="H31" s="515">
         <v>-1</v>
       </c>
-      <c r="J31" s="577"/>
+      <c r="J31" s="576"/>
       <c r="K31" s="511"/>
-      <c r="L31" s="589"/>
+      <c r="L31" s="588"/>
       <c r="M31" s="336"/>
       <c r="N31" s="248"/>
       <c r="O31" s="295">
@@ -13343,7 +13241,7 @@
       <c r="AJ31" s="155"/>
       <c r="AK31" s="155"/>
       <c r="AL31" s="319"/>
-      <c r="AM31" s="575">
+      <c r="AM31" s="574">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
@@ -13355,17 +13253,17 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AQ31" s="573"/>
+      <c r="AQ31" s="572"/>
       <c r="AR31" s="511"/>
     </row>
     <row r="32" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="651"/>
-      <c r="B32" s="651"/>
-      <c r="J32" s="578" t="s">
+      <c r="A32" s="630"/>
+      <c r="B32" s="630"/>
+      <c r="J32" s="577" t="s">
         <v>310</v>
       </c>
-      <c r="K32" s="586"/>
-      <c r="L32" s="589"/>
+      <c r="K32" s="585"/>
+      <c r="L32" s="588"/>
       <c r="M32" s="513">
         <v>0</v>
       </c>
@@ -13430,7 +13328,7 @@
       </c>
       <c r="AK32" s="155"/>
       <c r="AL32" s="319"/>
-      <c r="AM32" s="575">
+      <c r="AM32" s="574">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
@@ -13445,7 +13343,7 @@
       <c r="AP32" s="6" t="s">
         <v>450</v>
       </c>
-      <c r="AQ32" s="568" t="s">
+      <c r="AQ32" s="567" t="s">
         <v>451</v>
       </c>
       <c r="AR32" s="511" t="s">
@@ -13457,9 +13355,9 @@
       <c r="G33" s="384">
         <v>-1</v>
       </c>
-      <c r="J33" s="579"/>
-      <c r="K33" s="586"/>
-      <c r="L33" s="589"/>
+      <c r="J33" s="578"/>
+      <c r="K33" s="585"/>
+      <c r="L33" s="588"/>
       <c r="M33" s="336"/>
       <c r="N33" s="249"/>
       <c r="O33" s="295">
@@ -13502,7 +13400,7 @@
       <c r="AJ33" s="155"/>
       <c r="AK33" s="155"/>
       <c r="AL33" s="319"/>
-      <c r="AM33" s="575">
+      <c r="AM33" s="574">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
@@ -13515,7 +13413,7 @@
         <v>0</v>
       </c>
       <c r="AP33" s="6"/>
-      <c r="AQ33" s="573"/>
+      <c r="AQ33" s="572"/>
       <c r="AR33" s="511"/>
     </row>
     <row r="34" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -13525,16 +13423,16 @@
       <c r="E34" s="19" t="s">
         <v>300</v>
       </c>
-      <c r="J34" s="577" t="s">
+      <c r="J34" s="576" t="s">
         <v>301</v>
       </c>
       <c r="K34" s="511"/>
-      <c r="L34" s="589">
-        <v>1</v>
+      <c r="L34" s="588">
+        <v>0</v>
       </c>
       <c r="M34" s="336"/>
       <c r="N34" s="250">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O34" s="295">
         <f t="shared" si="10"/>
@@ -13551,7 +13449,7 @@
         <v>2</v>
       </c>
       <c r="V34" s="191">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W34" s="192">
         <v>-2</v>
@@ -13559,7 +13457,7 @@
       <c r="X34" s="213"/>
       <c r="Y34" s="185">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z34" s="65"/>
       <c r="AA34" s="117">
@@ -13568,7 +13466,7 @@
       </c>
       <c r="AB34" s="64">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC34" s="64">
         <v>0</v>
@@ -13587,16 +13485,10 @@
         <v>0</v>
       </c>
       <c r="AI34" s="377"/>
-      <c r="AJ34" s="155">
-        <v>1</v>
-      </c>
-      <c r="AK34" s="155">
-        <v>1</v>
-      </c>
-      <c r="AL34" s="319">
-        <v>1</v>
-      </c>
-      <c r="AM34" s="575">
+      <c r="AJ34" s="155"/>
+      <c r="AK34" s="155"/>
+      <c r="AL34" s="319"/>
+      <c r="AM34" s="574">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
@@ -13611,7 +13503,7 @@
       <c r="AP34" s="6" t="s">
         <v>587</v>
       </c>
-      <c r="AQ34" s="568" t="s">
+      <c r="AQ34" s="567" t="s">
         <v>566</v>
       </c>
       <c r="AR34" s="511" t="s">
@@ -13620,11 +13512,11 @@
     </row>
     <row r="35" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E35" s="23"/>
-      <c r="J35" s="577" t="s">
+      <c r="J35" s="576" t="s">
         <v>296</v>
       </c>
       <c r="K35" s="511"/>
-      <c r="L35" s="589">
+      <c r="L35" s="588">
         <v>0</v>
       </c>
       <c r="M35" s="336"/>
@@ -13680,12 +13572,10 @@
         <v>0</v>
       </c>
       <c r="AI35" s="377"/>
-      <c r="AJ35" s="155">
-        <v>1</v>
-      </c>
+      <c r="AJ35" s="155"/>
       <c r="AK35" s="155"/>
       <c r="AL35" s="155"/>
-      <c r="AM35" s="575">
+      <c r="AM35" s="574">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
@@ -13700,7 +13590,7 @@
       <c r="AP35" s="6" t="s">
         <v>309</v>
       </c>
-      <c r="AQ35" s="568"/>
+      <c r="AQ35" s="567"/>
       <c r="AR35" s="511"/>
     </row>
     <row r="36" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -13712,11 +13602,11 @@
         <v>-1</v>
       </c>
       <c r="I36" s="112"/>
-      <c r="J36" s="577" t="s">
+      <c r="J36" s="576" t="s">
         <v>296</v>
       </c>
       <c r="K36" s="511"/>
-      <c r="L36" s="589">
+      <c r="L36" s="588">
         <v>0</v>
       </c>
       <c r="M36" s="336"/>
@@ -13725,7 +13615,7 @@
       </c>
       <c r="O36" s="522">
         <f t="shared" si="10"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q36" s="20"/>
       <c r="S36" s="161" t="s">
@@ -13749,27 +13639,27 @@
       <c r="Z36" s="65"/>
       <c r="AA36" s="117">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB36" s="64">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC36" s="64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD36" s="303">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AE36" s="352">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF36" s="356"/>
       <c r="AG36" s="357"/>
       <c r="AH36" s="318">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI36" s="377"/>
       <c r="AJ36" s="155"/>
@@ -13777,27 +13667,27 @@
       <c r="AL36" s="319"/>
       <c r="AM36" s="68">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN36" s="310">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO36" s="311">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP36" s="6" t="s">
         <v>308</v>
       </c>
-      <c r="AQ36" s="573"/>
+      <c r="AQ36" s="572"/>
       <c r="AR36" s="511" t="s">
         <v>567</v>
       </c>
     </row>
     <row r="37" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B37" s="24">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="D37" s="384">
         <v>1</v>
@@ -13810,10 +13700,10 @@
       </c>
       <c r="I37" s="2"/>
       <c r="J37" s="2" t="s">
-        <v>615</v>
-      </c>
-      <c r="K37" s="557"/>
-      <c r="L37" s="591">
+        <v>611</v>
+      </c>
+      <c r="K37" s="556"/>
+      <c r="L37" s="590">
         <v>0</v>
       </c>
       <c r="M37" s="337"/>
@@ -13868,13 +13758,13 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AI37" s="563">
-        <v>0</v>
-      </c>
-      <c r="AJ37" s="564">
-        <v>0</v>
-      </c>
-      <c r="AK37" s="564"/>
+      <c r="AI37" s="562">
+        <v>0</v>
+      </c>
+      <c r="AJ37" s="563">
+        <v>0</v>
+      </c>
+      <c r="AK37" s="563"/>
       <c r="AL37" s="322"/>
       <c r="AM37" s="68">
         <f t="shared" si="6"/>
@@ -13891,7 +13781,7 @@
       <c r="AP37" s="6" t="s">
         <v>469</v>
       </c>
-      <c r="AQ37" s="572" t="s">
+      <c r="AQ37" s="571" t="s">
         <v>565</v>
       </c>
       <c r="AR37" s="544" t="s">
@@ -13900,6 +13790,15 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="Q24:R24"/>
+    <mergeCell ref="P4:P20"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="Q20:R20"/>
     <mergeCell ref="AM1:AO1"/>
     <mergeCell ref="X1:Y1"/>
     <mergeCell ref="AE1:AG1"/>
@@ -13910,15 +13809,6 @@
     <mergeCell ref="P2:P3"/>
     <mergeCell ref="W2:W3"/>
     <mergeCell ref="T1:T3"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="Q24:R24"/>
-    <mergeCell ref="P4:P20"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="Q20:R20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -13983,10 +13873,10 @@
         <f ca="1">TODAY()</f>
         <v>45284</v>
       </c>
-      <c r="V1" s="604" t="s">
+      <c r="V1" s="603" t="s">
         <v>70</v>
       </c>
-      <c r="W1" s="684"/>
+      <c r="W1" s="627"/>
       <c r="X1" s="62" t="s">
         <v>101</v>
       </c>
@@ -14005,7 +13895,7 @@
       <c r="AC1" s="116" t="s">
         <v>190</v>
       </c>
-      <c r="AD1" s="760" t="s">
+      <c r="AD1" s="752" t="s">
         <v>212</v>
       </c>
       <c r="AE1" s="116" t="s">
@@ -14022,10 +13912,10 @@
       <c r="E2" s="39" t="s">
         <v>73</v>
       </c>
-      <c r="F2" s="791" t="s">
+      <c r="F2" s="751" t="s">
         <v>74</v>
       </c>
-      <c r="G2" s="748" t="s">
+      <c r="G2" s="779" t="s">
         <v>44</v>
       </c>
       <c r="H2" s="40" t="s">
@@ -14053,10 +13943,10 @@
       <c r="U2" s="60" t="s">
         <v>105</v>
       </c>
-      <c r="V2" s="727" t="s">
+      <c r="V2" s="719" t="s">
         <v>120</v>
       </c>
-      <c r="W2" s="728"/>
+      <c r="W2" s="720"/>
       <c r="X2" s="64" t="s">
         <v>109</v>
       </c>
@@ -14075,7 +13965,7 @@
       <c r="AC2" s="117" t="s">
         <v>98</v>
       </c>
-      <c r="AD2" s="761"/>
+      <c r="AD2" s="753"/>
       <c r="AE2" s="64" t="s">
         <v>98</v>
       </c>
@@ -14094,8 +13984,8 @@
       <c r="E3" s="39" t="s">
         <v>79</v>
       </c>
-      <c r="F3" s="631"/>
-      <c r="G3" s="749"/>
+      <c r="F3" s="679"/>
+      <c r="G3" s="780"/>
       <c r="H3" s="40" t="s">
         <v>80</v>
       </c>
@@ -14106,13 +13996,13 @@
         <v>81</v>
       </c>
       <c r="N3" s="44"/>
-      <c r="O3" s="758" t="s">
+      <c r="O3" s="789" t="s">
         <v>44</v>
       </c>
-      <c r="P3" s="779" t="s">
+      <c r="P3" s="771" t="s">
         <v>218</v>
       </c>
-      <c r="Q3" s="780"/>
+      <c r="Q3" s="772"/>
       <c r="S3" s="57" t="s">
         <v>219</v>
       </c>
@@ -14122,15 +14012,15 @@
       <c r="W3" s="59" t="s">
         <v>104</v>
       </c>
-      <c r="AD3" s="761"/>
+      <c r="AD3" s="753"/>
     </row>
     <row r="4" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G4" s="749"/>
+      <c r="G4" s="780"/>
       <c r="H4" s="6"/>
-      <c r="L4" s="688" t="s">
+      <c r="L4" s="687" t="s">
         <v>82</v>
       </c>
-      <c r="O4" s="759"/>
+      <c r="O4" s="790"/>
       <c r="T4" s="55" t="s">
         <v>97</v>
       </c>
@@ -14140,12 +14030,12 @@
       <c r="X4" s="67" t="s">
         <v>222</v>
       </c>
-      <c r="Y4" s="604" t="s">
+      <c r="Y4" s="603" t="s">
         <v>194</v>
       </c>
-      <c r="Z4" s="606"/>
-      <c r="AA4" s="684"/>
-      <c r="AD4" s="761"/>
+      <c r="Z4" s="605"/>
+      <c r="AA4" s="627"/>
+      <c r="AD4" s="753"/>
     </row>
     <row r="5" spans="1:31" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C5" s="52" t="s">
@@ -14160,21 +14050,21 @@
       <c r="F5" s="66" t="s">
         <v>84</v>
       </c>
-      <c r="G5" s="749"/>
+      <c r="G5" s="780"/>
       <c r="H5" s="46" t="s">
         <v>75</v>
       </c>
-      <c r="K5" s="766" t="s">
+      <c r="K5" s="758" t="s">
         <v>216</v>
       </c>
-      <c r="L5" s="781"/>
+      <c r="L5" s="773"/>
       <c r="M5" s="2" t="s">
         <v>214</v>
       </c>
       <c r="N5" s="61" t="s">
         <v>213</v>
       </c>
-      <c r="O5" s="759"/>
+      <c r="O5" s="790"/>
       <c r="P5" s="108" t="s">
         <v>215</v>
       </c>
@@ -14190,11 +14080,11 @@
       <c r="U5" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="Y5" s="769" t="s">
+      <c r="Y5" s="761" t="s">
         <v>283</v>
       </c>
-      <c r="Z5" s="770"/>
-      <c r="AD5" s="761"/>
+      <c r="Z5" s="762"/>
+      <c r="AD5" s="753"/>
     </row>
     <row r="6" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C6" s="109"/>
@@ -14204,16 +14094,16 @@
       <c r="E6" s="45" t="s">
         <v>85</v>
       </c>
-      <c r="G6" s="749"/>
+      <c r="G6" s="780"/>
       <c r="H6" s="46" t="s">
         <v>80</v>
       </c>
       <c r="I6" s="23">
         <v>15</v>
       </c>
-      <c r="K6" s="767"/>
-      <c r="L6" s="781"/>
-      <c r="O6" s="759"/>
+      <c r="K6" s="759"/>
+      <c r="L6" s="773"/>
+      <c r="O6" s="790"/>
       <c r="T6" s="2" t="s">
         <v>100</v>
       </c>
@@ -14223,23 +14113,23 @@
       <c r="V6" s="21">
         <v>-1</v>
       </c>
-      <c r="AD6" s="761"/>
+      <c r="AD6" s="753"/>
     </row>
     <row r="7" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C7" s="110"/>
-      <c r="G7" s="749"/>
+      <c r="G7" s="780"/>
       <c r="H7" s="6"/>
-      <c r="K7" s="767"/>
-      <c r="L7" s="781"/>
+      <c r="K7" s="759"/>
+      <c r="L7" s="773"/>
       <c r="N7" s="21" t="s">
         <v>119</v>
       </c>
-      <c r="O7" s="759"/>
+      <c r="O7" s="790"/>
       <c r="P7" s="73"/>
       <c r="U7" s="104" t="s">
         <v>20</v>
       </c>
-      <c r="AD7" s="761"/>
+      <c r="AD7" s="753"/>
     </row>
     <row r="8" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C8" s="130"/>
@@ -14252,7 +14142,7 @@
       <c r="F8" s="66" t="s">
         <v>86</v>
       </c>
-      <c r="G8" s="749"/>
+      <c r="G8" s="780"/>
       <c r="H8" s="50" t="s">
         <v>75</v>
       </c>
@@ -14262,41 +14152,41 @@
       <c r="J8" s="111">
         <v>115</v>
       </c>
-      <c r="K8" s="767"/>
-      <c r="L8" s="781"/>
-      <c r="O8" s="759"/>
+      <c r="K8" s="759"/>
+      <c r="L8" s="773"/>
+      <c r="O8" s="790"/>
       <c r="P8" s="49"/>
-      <c r="S8" s="763" t="s">
+      <c r="S8" s="755" t="s">
         <v>211</v>
       </c>
-      <c r="T8" s="764"/>
-      <c r="U8" s="764"/>
-      <c r="V8" s="764"/>
-      <c r="W8" s="764"/>
-      <c r="X8" s="764"/>
-      <c r="Y8" s="764"/>
-      <c r="Z8" s="764"/>
-      <c r="AA8" s="764"/>
-      <c r="AB8" s="764"/>
-      <c r="AC8" s="765"/>
-      <c r="AD8" s="761"/>
+      <c r="T8" s="756"/>
+      <c r="U8" s="756"/>
+      <c r="V8" s="756"/>
+      <c r="W8" s="756"/>
+      <c r="X8" s="756"/>
+      <c r="Y8" s="756"/>
+      <c r="Z8" s="756"/>
+      <c r="AA8" s="756"/>
+      <c r="AB8" s="756"/>
+      <c r="AC8" s="757"/>
+      <c r="AD8" s="753"/>
     </row>
     <row r="9" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C9" s="785"/>
-      <c r="G9" s="749"/>
+      <c r="C9" s="745"/>
+      <c r="G9" s="780"/>
       <c r="H9" s="6"/>
-      <c r="K9" s="767"/>
-      <c r="L9" s="752" t="s">
+      <c r="K9" s="759"/>
+      <c r="L9" s="783" t="s">
         <v>217</v>
       </c>
-      <c r="M9" s="753"/>
-      <c r="N9" s="754"/>
-      <c r="O9" s="759"/>
+      <c r="M9" s="784"/>
+      <c r="N9" s="785"/>
+      <c r="O9" s="790"/>
       <c r="P9" s="75"/>
-      <c r="AD9" s="761"/>
+      <c r="AD9" s="753"/>
     </row>
     <row r="10" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C10" s="786"/>
+      <c r="C10" s="746"/>
       <c r="D10" s="23"/>
       <c r="E10" s="45" t="s">
         <v>87</v>
@@ -14304,7 +14194,7 @@
       <c r="F10" s="66" t="s">
         <v>88</v>
       </c>
-      <c r="G10" s="749"/>
+      <c r="G10" s="780"/>
       <c r="H10" s="51"/>
       <c r="I10" s="21" t="s">
         <v>80</v>
@@ -14312,33 +14202,33 @@
       <c r="J10" s="3">
         <v>15</v>
       </c>
-      <c r="K10" s="767"/>
-      <c r="M10" s="788" t="s">
+      <c r="K10" s="759"/>
+      <c r="M10" s="748" t="s">
         <v>89</v>
       </c>
-      <c r="N10" s="789"/>
-      <c r="O10" s="789"/>
-      <c r="P10" s="789"/>
-      <c r="Q10" s="789"/>
-      <c r="R10" s="789"/>
-      <c r="S10" s="789"/>
-      <c r="T10" s="789"/>
-      <c r="U10" s="789"/>
-      <c r="V10" s="789"/>
-      <c r="W10" s="789"/>
-      <c r="X10" s="789"/>
-      <c r="Y10" s="789"/>
-      <c r="Z10" s="789"/>
-      <c r="AA10" s="789"/>
-      <c r="AB10" s="789"/>
-      <c r="AC10" s="790"/>
-      <c r="AD10" s="761"/>
+      <c r="N10" s="749"/>
+      <c r="O10" s="749"/>
+      <c r="P10" s="749"/>
+      <c r="Q10" s="749"/>
+      <c r="R10" s="749"/>
+      <c r="S10" s="749"/>
+      <c r="T10" s="749"/>
+      <c r="U10" s="749"/>
+      <c r="V10" s="749"/>
+      <c r="W10" s="749"/>
+      <c r="X10" s="749"/>
+      <c r="Y10" s="749"/>
+      <c r="Z10" s="749"/>
+      <c r="AA10" s="749"/>
+      <c r="AB10" s="749"/>
+      <c r="AC10" s="750"/>
+      <c r="AD10" s="753"/>
     </row>
     <row r="11" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C11" s="787"/>
-      <c r="G11" s="749"/>
+      <c r="C11" s="747"/>
+      <c r="G11" s="780"/>
       <c r="H11" s="6"/>
-      <c r="K11" s="767"/>
+      <c r="K11" s="759"/>
       <c r="R11" s="52" t="s">
         <v>44</v>
       </c>
@@ -14346,17 +14236,17 @@
       <c r="Y11" s="68" t="s">
         <v>120</v>
       </c>
-      <c r="Z11" s="777" t="s">
+      <c r="Z11" s="769" t="s">
         <v>120</v>
       </c>
-      <c r="AA11" s="778"/>
+      <c r="AA11" s="770"/>
       <c r="AB11" s="52" t="s">
         <v>44</v>
       </c>
       <c r="AC11" s="118" t="s">
         <v>120</v>
       </c>
-      <c r="AD11" s="761"/>
+      <c r="AD11" s="753"/>
     </row>
     <row r="12" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C12" s="129"/>
@@ -14369,7 +14259,7 @@
       <c r="F12" s="66" t="s">
         <v>91</v>
       </c>
-      <c r="G12" s="749"/>
+      <c r="G12" s="780"/>
       <c r="H12" s="128"/>
       <c r="I12" s="19" t="s">
         <v>80</v>
@@ -14377,8 +14267,8 @@
       <c r="J12" s="3">
         <v>15</v>
       </c>
-      <c r="K12" s="767"/>
-      <c r="L12" s="782" t="s">
+      <c r="K12" s="759"/>
+      <c r="L12" s="774" t="s">
         <v>92</v>
       </c>
       <c r="M12" s="21" t="s">
@@ -14393,7 +14283,7 @@
       <c r="Q12" s="113" t="s">
         <v>44</v>
       </c>
-      <c r="S12" s="599" t="s">
+      <c r="S12" s="598" t="s">
         <v>106</v>
       </c>
       <c r="T12" s="2" t="s">
@@ -14409,26 +14299,26 @@
         <v>115</v>
       </c>
       <c r="Y12" s="6"/>
-      <c r="AA12" s="771" t="s">
+      <c r="AA12" s="763" t="s">
         <v>125</v>
       </c>
-      <c r="AB12" s="772"/>
+      <c r="AB12" s="764"/>
       <c r="AC12" s="21" t="s">
         <v>231</v>
       </c>
-      <c r="AD12" s="761"/>
+      <c r="AD12" s="753"/>
     </row>
     <row r="13" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C13" s="785"/>
-      <c r="G13" s="749"/>
-      <c r="K13" s="767"/>
-      <c r="L13" s="783"/>
+      <c r="C13" s="745"/>
+      <c r="G13" s="780"/>
+      <c r="K13" s="759"/>
+      <c r="L13" s="775"/>
       <c r="M13" s="47"/>
-      <c r="Q13" s="751" t="s">
+      <c r="Q13" s="782" t="s">
         <v>209</v>
       </c>
-      <c r="R13" s="640"/>
-      <c r="S13" s="600"/>
+      <c r="R13" s="644"/>
+      <c r="S13" s="599"/>
       <c r="T13" s="6"/>
       <c r="U13" s="96" t="s">
         <v>131</v>
@@ -14436,17 +14326,17 @@
       <c r="X13" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="AA13" s="773"/>
-      <c r="AB13" s="774"/>
-      <c r="AD13" s="761"/>
+      <c r="AA13" s="765"/>
+      <c r="AB13" s="766"/>
+      <c r="AD13" s="753"/>
     </row>
     <row r="14" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="C14" s="787"/>
+      <c r="C14" s="747"/>
       <c r="D14" s="23"/>
-      <c r="G14" s="749"/>
+      <c r="G14" s="780"/>
       <c r="H14" s="125"/>
       <c r="I14" s="99" t="s">
         <v>44</v>
@@ -14454,8 +14344,8 @@
       <c r="J14" s="111">
         <v>115</v>
       </c>
-      <c r="K14" s="767"/>
-      <c r="L14" s="783"/>
+      <c r="K14" s="759"/>
+      <c r="L14" s="775"/>
       <c r="M14" s="21" t="s">
         <v>110</v>
       </c>
@@ -14465,7 +14355,7 @@
       <c r="R14" s="115" t="s">
         <v>44</v>
       </c>
-      <c r="S14" s="600"/>
+      <c r="S14" s="599"/>
       <c r="T14" s="77" t="s">
         <v>129</v>
       </c>
@@ -14476,9 +14366,9 @@
       <c r="Y14" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="AA14" s="773"/>
-      <c r="AB14" s="774"/>
-      <c r="AD14" s="761"/>
+      <c r="AA14" s="765"/>
+      <c r="AB14" s="766"/>
+      <c r="AD14" s="753"/>
     </row>
     <row r="15" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C15" s="130" t="s">
@@ -14493,20 +14383,20 @@
       <c r="F15" s="66" t="s">
         <v>93</v>
       </c>
-      <c r="G15" s="749"/>
+      <c r="G15" s="780"/>
       <c r="H15" s="2" t="s">
         <v>80</v>
       </c>
       <c r="I15" s="53" t="s">
         <v>80</v>
       </c>
-      <c r="K15" s="767"/>
-      <c r="L15" s="784"/>
-      <c r="Q15" s="751" t="s">
+      <c r="K15" s="759"/>
+      <c r="L15" s="776"/>
+      <c r="Q15" s="782" t="s">
         <v>210</v>
       </c>
-      <c r="R15" s="640"/>
-      <c r="S15" s="600"/>
+      <c r="R15" s="644"/>
+      <c r="S15" s="599"/>
       <c r="T15" s="6"/>
       <c r="V15" s="68" t="s">
         <v>44</v>
@@ -14514,14 +14404,14 @@
       <c r="X15" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="AA15" s="773"/>
-      <c r="AB15" s="774"/>
-      <c r="AD15" s="761"/>
+      <c r="AA15" s="765"/>
+      <c r="AB15" s="766"/>
+      <c r="AD15" s="753"/>
     </row>
     <row r="16" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C16" s="132"/>
-      <c r="G16" s="749"/>
-      <c r="K16" s="767"/>
+      <c r="G16" s="780"/>
+      <c r="K16" s="759"/>
       <c r="N16" s="47"/>
       <c r="O16" s="61" t="s">
         <v>108</v>
@@ -14529,7 +14419,7 @@
       <c r="R16" s="114" t="s">
         <v>44</v>
       </c>
-      <c r="S16" s="600"/>
+      <c r="S16" s="599"/>
       <c r="T16" s="76" t="s">
         <v>128</v>
       </c>
@@ -14540,34 +14430,34 @@
       <c r="Z16" s="76" t="s">
         <v>126</v>
       </c>
-      <c r="AA16" s="773"/>
-      <c r="AB16" s="774"/>
-      <c r="AD16" s="761"/>
+      <c r="AA16" s="765"/>
+      <c r="AB16" s="766"/>
+      <c r="AD16" s="753"/>
     </row>
     <row r="17" spans="3:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C17" s="109"/>
       <c r="E17" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="F17" s="746" t="s">
+      <c r="F17" s="777" t="s">
         <v>95</v>
       </c>
-      <c r="G17" s="749"/>
+      <c r="G17" s="780"/>
       <c r="H17" s="54"/>
       <c r="I17" s="133" t="s">
         <v>80</v>
       </c>
-      <c r="K17" s="767"/>
-      <c r="S17" s="600"/>
+      <c r="K17" s="759"/>
+      <c r="S17" s="599"/>
       <c r="V17" s="68" t="s">
         <v>44</v>
       </c>
       <c r="X17" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="AA17" s="773"/>
-      <c r="AB17" s="774"/>
-      <c r="AD17" s="761"/>
+      <c r="AA17" s="765"/>
+      <c r="AB17" s="766"/>
+      <c r="AD17" s="753"/>
     </row>
     <row r="18" spans="3:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C18" s="130"/>
@@ -14577,58 +14467,61 @@
       <c r="E18" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="F18" s="747"/>
-      <c r="G18" s="749"/>
+      <c r="F18" s="778"/>
+      <c r="G18" s="780"/>
       <c r="H18" s="108" t="s">
         <v>75</v>
       </c>
       <c r="I18" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="K18" s="767"/>
+      <c r="K18" s="759"/>
       <c r="O18" s="64" t="s">
         <v>114</v>
       </c>
-      <c r="S18" s="600"/>
+      <c r="S18" s="599"/>
       <c r="U18" s="76" t="s">
         <v>132</v>
       </c>
       <c r="X18" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="AA18" s="775"/>
-      <c r="AB18" s="776"/>
-      <c r="AD18" s="761"/>
+      <c r="AA18" s="767"/>
+      <c r="AB18" s="768"/>
+      <c r="AD18" s="753"/>
     </row>
     <row r="19" spans="3:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F19" s="64" t="s">
         <v>208</v>
       </c>
-      <c r="G19" s="750"/>
-      <c r="K19" s="768"/>
+      <c r="G19" s="781"/>
+      <c r="K19" s="760"/>
       <c r="Q19" s="68" t="s">
         <v>44</v>
       </c>
-      <c r="R19" s="755" t="s">
+      <c r="R19" s="786" t="s">
         <v>123</v>
       </c>
-      <c r="S19" s="756"/>
-      <c r="T19" s="757"/>
+      <c r="S19" s="787"/>
+      <c r="T19" s="788"/>
       <c r="V19" s="77" t="s">
         <v>114</v>
       </c>
       <c r="Y19" s="19" t="s">
         <v>124</v>
       </c>
-      <c r="AD19" s="762"/>
+      <c r="AD19" s="754"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="C9:C11"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="V2:W2"/>
-    <mergeCell ref="M10:AC10"/>
-    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="G2:G19"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="L9:N9"/>
+    <mergeCell ref="R19:T19"/>
+    <mergeCell ref="S12:S18"/>
+    <mergeCell ref="O3:O9"/>
     <mergeCell ref="AD1:AD19"/>
     <mergeCell ref="S8:AC8"/>
     <mergeCell ref="K5:K19"/>
@@ -14640,14 +14533,11 @@
     <mergeCell ref="P3:Q3"/>
     <mergeCell ref="L4:L8"/>
     <mergeCell ref="L12:L15"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="G2:G19"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="L9:N9"/>
-    <mergeCell ref="R19:T19"/>
-    <mergeCell ref="S12:S18"/>
-    <mergeCell ref="O3:O9"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="V2:W2"/>
+    <mergeCell ref="M10:AC10"/>
+    <mergeCell ref="F2:F3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/System_2.1.8.xlsx
+++ b/System_2.1.8.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Work_For_\Work\Running AppS\System_Work_RW\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5FB5B1F-EE24-4433-902C-35DA69FDECED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75F0D74C-6617-4A66-AAD2-D1B6D0BE5154}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1117" uniqueCount="626">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1115" uniqueCount="625">
   <si>
     <t>Zone</t>
   </si>
@@ -1880,9 +1880,6 @@
     <t xml:space="preserve"> WL F Police</t>
   </si>
   <si>
-    <t>France 24 ES</t>
-  </si>
-  <si>
     <t>C0HostM</t>
   </si>
   <si>
@@ -1901,9 +1898,6 @@
     <t>bharat24</t>
   </si>
   <si>
-    <t>France24 E</t>
-  </si>
-  <si>
     <t>abp</t>
   </si>
   <si>
@@ -1916,7 +1910,10 @@
     <t>polimer</t>
   </si>
   <si>
-    <t>4F Reserved</t>
+    <t>timesnow</t>
+  </si>
+  <si>
+    <t>2F Reserved</t>
   </si>
 </sst>
 </file>
@@ -5039,6 +5036,186 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="73" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="27" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="27" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="36" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="36" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="49" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="49" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="49" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="19" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5051,12 +5228,6 @@
     <xf numFmtId="0" fontId="17" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5068,12 +5239,6 @@
     </xf>
     <xf numFmtId="0" fontId="38" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
@@ -5096,190 +5261,61 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="27" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="27" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="27" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="27" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="13" fillId="27" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="27" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="27" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="49" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="49" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="49" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="73" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="13" fillId="27" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="13" fillId="27" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="36" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="36" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5321,43 +5357,25 @@
     <xf numFmtId="0" fontId="39" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="27" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="27" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="27" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="13" fillId="27" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="13" fillId="27" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="27" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="27" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="36" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="36" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="43" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5426,46 +5444,46 @@
     <xf numFmtId="14" fontId="5" fillId="14" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="35" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="35" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="35" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5543,46 +5561,25 @@
     <xf numFmtId="0" fontId="3" fillId="21" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -5881,7 +5878,7 @@
   <dimension ref="B1:X28"/>
   <sheetViews>
     <sheetView topLeftCell="B9" workbookViewId="0">
-      <selection activeCell="X18" sqref="X18"/>
+      <selection activeCell="X14" sqref="X14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6069,7 +6066,7 @@
         <v>226</v>
       </c>
       <c r="V5" s="19">
-        <v>6720</v>
+        <v>6780</v>
       </c>
     </row>
     <row r="6" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6286,7 +6283,7 @@
         <v>225</v>
       </c>
       <c r="V11" s="64">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="12" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6636,7 +6633,7 @@
       <c r="P22" s="315"/>
       <c r="T22" s="607"/>
       <c r="X22" s="19" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="23" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6785,7 +6782,7 @@
       <c r="P26" s="315"/>
       <c r="T26" s="607"/>
       <c r="V26" s="517" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
     </row>
     <row r="27" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6955,7 +6952,7 @@
       <c r="H1" s="97" t="s">
         <v>344</v>
       </c>
-      <c r="I1" s="613" t="s">
+      <c r="I1" s="659" t="s">
         <v>370</v>
       </c>
       <c r="J1" s="2" t="s">
@@ -6991,7 +6988,7 @@
       <c r="X1" s="433" t="s">
         <v>155</v>
       </c>
-      <c r="Y1" s="657" t="s">
+      <c r="Y1" s="653" t="s">
         <v>530</v>
       </c>
       <c r="Z1" s="409">
@@ -7016,7 +7013,7 @@
         <v>499</v>
       </c>
       <c r="AM1" s="405"/>
-      <c r="AN1" s="640"/>
+      <c r="AN1" s="635"/>
       <c r="AO1" s="340" t="s">
         <v>470</v>
       </c>
@@ -7025,23 +7022,23 @@
       </c>
     </row>
     <row r="2" spans="1:43" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="666">
+      <c r="A2" s="617">
         <f ca="1">TODAY()</f>
         <v>45284</v>
       </c>
-      <c r="B2" s="668" t="s">
+      <c r="B2" s="619" t="s">
         <v>371</v>
       </c>
-      <c r="C2" s="645" t="s">
+      <c r="C2" s="615" t="s">
         <v>358</v>
       </c>
-      <c r="D2" s="670" t="s">
+      <c r="D2" s="621" t="s">
         <v>356</v>
       </c>
-      <c r="E2" s="609" t="s">
+      <c r="E2" s="669" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="619" t="s">
+      <c r="F2" s="640" t="s">
         <v>102</v>
       </c>
       <c r="G2" s="396" t="s">
@@ -7050,31 +7047,31 @@
       <c r="H2" s="80" t="s">
         <v>33</v>
       </c>
-      <c r="I2" s="614"/>
+      <c r="I2" s="660"/>
       <c r="J2" s="81" t="s">
         <v>76</v>
       </c>
-      <c r="K2" s="611" t="s">
+      <c r="K2" s="671" t="s">
         <v>343</v>
       </c>
-      <c r="L2" s="612"/>
-      <c r="M2" s="619" t="s">
+      <c r="L2" s="672"/>
+      <c r="M2" s="640" t="s">
         <v>102</v>
       </c>
       <c r="N2" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="O2" s="649" t="s">
+      <c r="O2" s="644" t="s">
         <v>102</v>
       </c>
       <c r="P2" s="85" t="s">
         <v>147</v>
       </c>
-      <c r="Q2" s="645" t="s">
+      <c r="Q2" s="615" t="s">
         <v>143</v>
       </c>
       <c r="R2" s="598"/>
-      <c r="S2" s="634" t="s">
+      <c r="S2" s="657" t="s">
         <v>148</v>
       </c>
       <c r="T2" s="89"/>
@@ -7084,7 +7081,7 @@
       <c r="X2" s="434" t="s">
         <v>156</v>
       </c>
-      <c r="Y2" s="658"/>
+      <c r="Y2" s="654"/>
       <c r="Z2" s="410">
         <v>1</v>
       </c>
@@ -7107,15 +7104,15 @@
         <v>464</v>
       </c>
       <c r="AM2" s="431"/>
-      <c r="AN2" s="641"/>
+      <c r="AN2" s="636"/>
     </row>
     <row r="3" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="667"/>
-      <c r="B3" s="669"/>
-      <c r="C3" s="646"/>
-      <c r="D3" s="671"/>
-      <c r="E3" s="610"/>
-      <c r="F3" s="620"/>
+      <c r="A3" s="618"/>
+      <c r="B3" s="620"/>
+      <c r="C3" s="616"/>
+      <c r="D3" s="622"/>
+      <c r="E3" s="670"/>
+      <c r="F3" s="641"/>
       <c r="G3" s="397" t="s">
         <v>28</v>
       </c>
@@ -7134,17 +7131,17 @@
       <c r="L3" s="203" t="s">
         <v>107</v>
       </c>
-      <c r="M3" s="620"/>
+      <c r="M3" s="641"/>
       <c r="N3" s="69" t="s">
         <v>146</v>
       </c>
-      <c r="O3" s="650"/>
+      <c r="O3" s="645"/>
       <c r="P3" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="Q3" s="646"/>
+      <c r="Q3" s="616"/>
       <c r="R3" s="600"/>
-      <c r="S3" s="636"/>
+      <c r="S3" s="658"/>
       <c r="T3" s="89"/>
       <c r="U3" s="124"/>
       <c r="V3" s="120"/>
@@ -7152,7 +7149,7 @@
       <c r="X3" s="434" t="s">
         <v>157</v>
       </c>
-      <c r="Y3" s="658"/>
+      <c r="Y3" s="654"/>
       <c r="Z3" s="411">
         <v>1</v>
       </c>
@@ -7161,7 +7158,7 @@
       <c r="AC3" s="100" t="s">
         <v>481</v>
       </c>
-      <c r="AD3" s="631" t="s">
+      <c r="AD3" s="656" t="s">
         <v>456</v>
       </c>
       <c r="AE3" s="259"/>
@@ -7173,16 +7170,16 @@
       <c r="AK3" s="259"/>
       <c r="AL3" s="16"/>
       <c r="AM3" s="431"/>
-      <c r="AN3" s="641"/>
+      <c r="AN3" s="636"/>
     </row>
     <row r="4" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="240" t="s">
         <v>183</v>
       </c>
-      <c r="B4" s="682" t="s">
+      <c r="B4" s="633" t="s">
         <v>374</v>
       </c>
-      <c r="C4" s="645" t="s">
+      <c r="C4" s="615" t="s">
         <v>154</v>
       </c>
       <c r="D4" s="349" t="s">
@@ -7191,7 +7188,7 @@
       <c r="E4" s="380">
         <v>2</v>
       </c>
-      <c r="F4" s="620"/>
+      <c r="F4" s="641"/>
       <c r="G4" s="383" t="s">
         <v>202</v>
       </c>
@@ -7208,11 +7205,11 @@
         <v>150</v>
       </c>
       <c r="L4" s="206"/>
-      <c r="M4" s="620"/>
+      <c r="M4" s="641"/>
       <c r="N4" s="176" t="s">
         <v>69</v>
       </c>
-      <c r="O4" s="650"/>
+      <c r="O4" s="645"/>
       <c r="P4" s="2" t="s">
         <v>191</v>
       </c>
@@ -7234,12 +7231,12 @@
       <c r="X4" s="434" t="s">
         <v>158</v>
       </c>
-      <c r="Y4" s="658"/>
+      <c r="Y4" s="654"/>
       <c r="Z4" s="412"/>
       <c r="AA4" s="309"/>
       <c r="AB4" s="211"/>
       <c r="AC4" s="16"/>
-      <c r="AD4" s="631"/>
+      <c r="AD4" s="656"/>
       <c r="AE4" s="259"/>
       <c r="AF4" s="259"/>
       <c r="AG4" s="16"/>
@@ -7249,37 +7246,37 @@
       <c r="AK4" s="259"/>
       <c r="AL4" s="16"/>
       <c r="AM4" s="431"/>
-      <c r="AN4" s="641"/>
+      <c r="AN4" s="636"/>
       <c r="AO4" s="340" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="613" t="s">
+      <c r="A5" s="659" t="s">
         <v>419</v>
       </c>
-      <c r="B5" s="683"/>
-      <c r="C5" s="646"/>
+      <c r="B5" s="634"/>
+      <c r="C5" s="616"/>
       <c r="D5" s="61" t="s">
         <v>153</v>
       </c>
       <c r="E5" s="381">
         <v>1</v>
       </c>
-      <c r="F5" s="620"/>
-      <c r="G5" s="674" t="s">
+      <c r="F5" s="641"/>
+      <c r="G5" s="625" t="s">
         <v>192</v>
       </c>
-      <c r="H5" s="674"/>
-      <c r="I5" s="674"/>
-      <c r="J5" s="674"/>
-      <c r="K5" s="674"/>
-      <c r="L5" s="675"/>
-      <c r="M5" s="620"/>
+      <c r="H5" s="625"/>
+      <c r="I5" s="625"/>
+      <c r="J5" s="625"/>
+      <c r="K5" s="625"/>
+      <c r="L5" s="626"/>
+      <c r="M5" s="641"/>
       <c r="N5" s="21">
         <v>8</v>
       </c>
-      <c r="O5" s="650"/>
+      <c r="O5" s="645"/>
       <c r="T5" s="89"/>
       <c r="U5" s="124"/>
       <c r="V5" s="120"/>
@@ -7287,7 +7284,7 @@
       <c r="X5" s="434" t="s">
         <v>159</v>
       </c>
-      <c r="Y5" s="658"/>
+      <c r="Y5" s="654"/>
       <c r="Z5" s="412">
         <v>1</v>
       </c>
@@ -7310,24 +7307,24 @@
       <c r="AK5" s="259"/>
       <c r="AL5" s="80"/>
       <c r="AM5" s="431"/>
-      <c r="AN5" s="641"/>
+      <c r="AN5" s="636"/>
     </row>
     <row r="6" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="614"/>
-      <c r="B6" s="680" t="s">
+      <c r="A6" s="660"/>
+      <c r="B6" s="631" t="s">
         <v>177</v>
       </c>
-      <c r="C6" s="628"/>
-      <c r="D6" s="629"/>
-      <c r="F6" s="620"/>
-      <c r="G6" s="676"/>
-      <c r="H6" s="676"/>
-      <c r="I6" s="676"/>
-      <c r="J6" s="676"/>
-      <c r="K6" s="676"/>
-      <c r="L6" s="677"/>
-      <c r="M6" s="620"/>
-      <c r="O6" s="650"/>
+      <c r="C6" s="661"/>
+      <c r="D6" s="662"/>
+      <c r="F6" s="641"/>
+      <c r="G6" s="627"/>
+      <c r="H6" s="627"/>
+      <c r="I6" s="627"/>
+      <c r="J6" s="627"/>
+      <c r="K6" s="627"/>
+      <c r="L6" s="628"/>
+      <c r="M6" s="641"/>
+      <c r="O6" s="645"/>
       <c r="T6" s="89"/>
       <c r="U6" s="124"/>
       <c r="V6" s="98" t="s">
@@ -7337,7 +7334,7 @@
       <c r="X6" s="434" t="s">
         <v>160</v>
       </c>
-      <c r="Y6" s="658"/>
+      <c r="Y6" s="654"/>
       <c r="Z6" s="410">
         <v>1</v>
       </c>
@@ -7351,16 +7348,16 @@
       <c r="AF6" s="259"/>
       <c r="AG6" s="259"/>
       <c r="AH6" s="259"/>
-      <c r="AI6" s="630"/>
+      <c r="AI6" s="650"/>
       <c r="AJ6" s="444" t="s">
         <v>459</v>
       </c>
-      <c r="AK6" s="630" t="s">
+      <c r="AK6" s="650" t="s">
         <v>252</v>
       </c>
       <c r="AL6" s="259"/>
       <c r="AM6" s="431"/>
-      <c r="AN6" s="641"/>
+      <c r="AN6" s="636"/>
       <c r="AO6" s="340" t="s">
         <v>471</v>
       </c>
@@ -7369,7 +7366,7 @@
       <c r="A7" s="234" t="s">
         <v>574</v>
       </c>
-      <c r="B7" s="681"/>
+      <c r="B7" s="632"/>
       <c r="C7" s="204" t="s">
         <v>375</v>
       </c>
@@ -7379,7 +7376,7 @@
       <c r="E7" s="267">
         <v>3</v>
       </c>
-      <c r="F7" s="620"/>
+      <c r="F7" s="641"/>
       <c r="G7" s="398">
         <v>0</v>
       </c>
@@ -7398,8 +7395,8 @@
       <c r="L7" s="214">
         <v>0</v>
       </c>
-      <c r="M7" s="620"/>
-      <c r="O7" s="650"/>
+      <c r="M7" s="641"/>
+      <c r="O7" s="645"/>
       <c r="R7" s="99" t="s">
         <v>44</v>
       </c>
@@ -7413,7 +7410,7 @@
       <c r="X7" s="434" t="s">
         <v>161</v>
       </c>
-      <c r="Y7" s="658"/>
+      <c r="Y7" s="654"/>
       <c r="Z7" s="410">
         <v>1</v>
       </c>
@@ -7423,18 +7420,18 @@
       <c r="AD7" s="16"/>
       <c r="AE7" s="259"/>
       <c r="AF7" s="259"/>
-      <c r="AG7" s="631" t="s">
+      <c r="AG7" s="656" t="s">
         <v>455</v>
       </c>
       <c r="AH7" s="259"/>
-      <c r="AI7" s="630"/>
+      <c r="AI7" s="650"/>
       <c r="AJ7" s="259"/>
-      <c r="AK7" s="630"/>
+      <c r="AK7" s="650"/>
       <c r="AL7" s="80" t="s">
         <v>497</v>
       </c>
       <c r="AM7" s="431"/>
-      <c r="AN7" s="641"/>
+      <c r="AN7" s="636"/>
       <c r="AP7" s="76" t="s">
         <v>472</v>
       </c>
@@ -7451,27 +7448,27 @@
         <f>SUM(G7:N9)</f>
         <v>15</v>
       </c>
-      <c r="F8" s="620"/>
-      <c r="G8" s="675">
-        <v>0</v>
-      </c>
-      <c r="H8" s="672" t="s">
+      <c r="F8" s="641"/>
+      <c r="G8" s="626">
+        <v>0</v>
+      </c>
+      <c r="H8" s="623" t="s">
         <v>104</v>
       </c>
       <c r="I8" s="598">
         <v>0</v>
       </c>
-      <c r="J8" s="672" t="s">
+      <c r="J8" s="623" t="s">
         <v>104</v>
       </c>
-      <c r="K8" s="678"/>
-      <c r="L8" s="632"/>
-      <c r="M8" s="647"/>
-      <c r="N8" s="637">
+      <c r="K8" s="629"/>
+      <c r="L8" s="663"/>
+      <c r="M8" s="642"/>
+      <c r="N8" s="666">
         <f>N5+N11</f>
         <v>15</v>
       </c>
-      <c r="O8" s="650"/>
+      <c r="O8" s="645"/>
       <c r="T8" s="103" t="s">
         <v>44</v>
       </c>
@@ -7481,7 +7478,7 @@
       <c r="X8" s="434" t="s">
         <v>162</v>
       </c>
-      <c r="Y8" s="658"/>
+      <c r="Y8" s="654"/>
       <c r="Z8" s="412"/>
       <c r="AA8" s="309"/>
       <c r="AB8" s="211"/>
@@ -7489,14 +7486,14 @@
       <c r="AD8" s="16"/>
       <c r="AE8" s="259"/>
       <c r="AF8" s="259"/>
-      <c r="AG8" s="631"/>
+      <c r="AG8" s="656"/>
       <c r="AH8" s="259"/>
-      <c r="AI8" s="630"/>
+      <c r="AI8" s="650"/>
       <c r="AJ8" s="259"/>
       <c r="AK8" s="259"/>
       <c r="AL8" s="259"/>
       <c r="AM8" s="431"/>
-      <c r="AN8" s="641"/>
+      <c r="AN8" s="636"/>
     </row>
     <row r="9" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="234" t="s">
@@ -7511,17 +7508,17 @@
       <c r="D9" s="350" t="s">
         <v>282</v>
       </c>
-      <c r="F9" s="620"/>
-      <c r="G9" s="677"/>
-      <c r="H9" s="673"/>
+      <c r="F9" s="641"/>
+      <c r="G9" s="628"/>
+      <c r="H9" s="624"/>
       <c r="I9" s="600"/>
-      <c r="J9" s="673"/>
-      <c r="K9" s="679"/>
-      <c r="L9" s="633"/>
-      <c r="M9" s="648"/>
-      <c r="N9" s="638"/>
-      <c r="O9" s="651"/>
-      <c r="S9" s="634" t="s">
+      <c r="J9" s="624"/>
+      <c r="K9" s="630"/>
+      <c r="L9" s="664"/>
+      <c r="M9" s="643"/>
+      <c r="N9" s="667"/>
+      <c r="O9" s="646"/>
+      <c r="S9" s="657" t="s">
         <v>61</v>
       </c>
       <c r="T9" s="89"/>
@@ -7533,7 +7530,7 @@
       <c r="X9" s="434" t="s">
         <v>163</v>
       </c>
-      <c r="Y9" s="658"/>
+      <c r="Y9" s="654"/>
       <c r="Z9" s="413"/>
       <c r="AA9" s="309"/>
       <c r="AB9" s="211"/>
@@ -7543,16 +7540,16 @@
       </c>
       <c r="AE9" s="259"/>
       <c r="AF9" s="259"/>
-      <c r="AG9" s="631"/>
+      <c r="AG9" s="656"/>
       <c r="AH9" s="259"/>
-      <c r="AI9" s="630"/>
+      <c r="AI9" s="650"/>
       <c r="AJ9" s="80"/>
-      <c r="AK9" s="630" t="s">
+      <c r="AK9" s="650" t="s">
         <v>252</v>
       </c>
       <c r="AL9" s="259"/>
       <c r="AM9" s="431"/>
-      <c r="AN9" s="641"/>
+      <c r="AN9" s="636"/>
       <c r="AP9" s="2" t="s">
         <v>509</v>
       </c>
@@ -7567,22 +7564,22 @@
       <c r="D10" s="142"/>
       <c r="E10" s="239">
         <f>Boat!W8</f>
-        <v>41</v>
-      </c>
-      <c r="F10" s="620"/>
+        <v>44</v>
+      </c>
+      <c r="F10" s="641"/>
       <c r="N10" s="421" t="s">
         <v>397</v>
       </c>
-      <c r="O10" s="622" t="s">
+      <c r="O10" s="678" t="s">
         <v>102</v>
       </c>
-      <c r="P10" s="652" t="s">
+      <c r="P10" s="647" t="s">
         <v>401</v>
       </c>
       <c r="R10" s="74" t="s">
         <v>44</v>
       </c>
-      <c r="S10" s="635"/>
+      <c r="S10" s="665"/>
       <c r="T10" s="89"/>
       <c r="U10" s="123" t="s">
         <v>176</v>
@@ -7594,7 +7591,7 @@
       <c r="X10" s="434" t="s">
         <v>164</v>
       </c>
-      <c r="Y10" s="658"/>
+      <c r="Y10" s="654"/>
       <c r="Z10" s="412">
         <v>0</v>
       </c>
@@ -7612,16 +7609,16 @@
       <c r="AF10" s="240" t="s">
         <v>312</v>
       </c>
-      <c r="AG10" s="631"/>
+      <c r="AG10" s="656"/>
       <c r="AH10" s="80"/>
-      <c r="AI10" s="630"/>
+      <c r="AI10" s="650"/>
       <c r="AJ10" s="259"/>
-      <c r="AK10" s="630"/>
+      <c r="AK10" s="650"/>
       <c r="AL10" s="259"/>
       <c r="AM10" s="445" t="s">
         <v>319</v>
       </c>
-      <c r="AN10" s="641"/>
+      <c r="AN10" s="636"/>
       <c r="AO10" s="206" t="s">
         <v>94</v>
       </c>
@@ -7639,18 +7636,18 @@
       <c r="D11" s="172" t="s">
         <v>356</v>
       </c>
-      <c r="F11" s="620"/>
+      <c r="F11" s="641"/>
       <c r="M11" s="6"/>
       <c r="N11" s="117">
         <v>7</v>
       </c>
-      <c r="O11" s="623"/>
-      <c r="P11" s="653"/>
+      <c r="O11" s="679"/>
+      <c r="P11" s="648"/>
       <c r="Q11" s="65"/>
       <c r="R11" s="120" t="s">
         <v>221</v>
       </c>
-      <c r="S11" s="635"/>
+      <c r="S11" s="665"/>
       <c r="T11" s="102" t="s">
         <v>44</v>
       </c>
@@ -7660,7 +7657,7 @@
       <c r="X11" s="434" t="s">
         <v>165</v>
       </c>
-      <c r="Y11" s="658"/>
+      <c r="Y11" s="654"/>
       <c r="Z11" s="412"/>
       <c r="AA11" s="309">
         <v>1</v>
@@ -7674,14 +7671,14 @@
       <c r="AF11" s="259" t="s">
         <v>477</v>
       </c>
-      <c r="AG11" s="631"/>
+      <c r="AG11" s="656"/>
       <c r="AH11" s="259"/>
       <c r="AI11" s="70"/>
       <c r="AJ11" s="259"/>
       <c r="AK11" s="259"/>
       <c r="AL11" s="259"/>
       <c r="AM11" s="431"/>
-      <c r="AN11" s="641"/>
+      <c r="AN11" s="636"/>
       <c r="AP11" s="76" t="s">
         <v>485</v>
       </c>
@@ -7700,7 +7697,7 @@
       <c r="E12" s="226">
         <v>3</v>
       </c>
-      <c r="F12" s="620"/>
+      <c r="F12" s="641"/>
       <c r="G12" s="339" t="s">
         <v>401</v>
       </c>
@@ -7709,16 +7706,16 @@
       </c>
       <c r="I12" s="605"/>
       <c r="J12" s="605"/>
-      <c r="K12" s="627"/>
+      <c r="K12" s="683"/>
       <c r="L12" s="205"/>
       <c r="M12" s="205"/>
       <c r="N12" s="205"/>
-      <c r="O12" s="623"/>
-      <c r="P12" s="653"/>
+      <c r="O12" s="679"/>
+      <c r="P12" s="648"/>
       <c r="R12" s="122" t="s">
         <v>180</v>
       </c>
-      <c r="S12" s="636"/>
+      <c r="S12" s="658"/>
       <c r="T12" s="101" t="s">
         <v>44</v>
       </c>
@@ -7728,7 +7725,7 @@
       <c r="X12" s="434" t="s">
         <v>166</v>
       </c>
-      <c r="Y12" s="658"/>
+      <c r="Y12" s="654"/>
       <c r="Z12" s="410">
         <v>1</v>
       </c>
@@ -7739,16 +7736,16 @@
       <c r="AC12" s="100" t="s">
         <v>482</v>
       </c>
-      <c r="AD12" s="639" t="s">
+      <c r="AD12" s="668" t="s">
         <v>241</v>
       </c>
       <c r="AE12" s="444" t="s">
         <v>240</v>
       </c>
-      <c r="AF12" s="631" t="s">
+      <c r="AF12" s="656" t="s">
         <v>229</v>
       </c>
-      <c r="AG12" s="631"/>
+      <c r="AG12" s="656"/>
       <c r="AH12" s="240" t="s">
         <v>260</v>
       </c>
@@ -7758,10 +7755,10 @@
       <c r="AJ12" s="259"/>
       <c r="AK12" s="259"/>
       <c r="AL12" s="259"/>
-      <c r="AM12" s="655" t="s">
+      <c r="AM12" s="651" t="s">
         <v>250</v>
       </c>
-      <c r="AN12" s="641"/>
+      <c r="AN12" s="636"/>
       <c r="AO12" s="340" t="s">
         <v>96</v>
       </c>
@@ -7773,17 +7770,17 @@
       <c r="E13" s="451">
         <v>-3</v>
       </c>
-      <c r="F13" s="620"/>
+      <c r="F13" s="641"/>
       <c r="G13" s="605" t="s">
         <v>431</v>
       </c>
       <c r="H13" s="605"/>
       <c r="I13" s="605"/>
-      <c r="J13" s="627"/>
+      <c r="J13" s="683"/>
       <c r="M13" s="6"/>
       <c r="N13" s="6"/>
-      <c r="O13" s="623"/>
-      <c r="P13" s="654"/>
+      <c r="O13" s="679"/>
+      <c r="P13" s="649"/>
       <c r="T13" s="105" t="s">
         <v>44</v>
       </c>
@@ -7793,7 +7790,7 @@
       <c r="X13" s="434" t="s">
         <v>167</v>
       </c>
-      <c r="Y13" s="658"/>
+      <c r="Y13" s="654"/>
       <c r="Z13" s="410">
         <v>1</v>
       </c>
@@ -7804,8 +7801,8 @@
         <v>501</v>
       </c>
       <c r="AC13" s="16"/>
-      <c r="AD13" s="639"/>
-      <c r="AF13" s="631"/>
+      <c r="AD13" s="668"/>
+      <c r="AF13" s="656"/>
       <c r="AG13" s="80"/>
       <c r="AH13" s="240" t="s">
         <v>309</v>
@@ -7816,8 +7813,8 @@
       <c r="AJ13" s="80"/>
       <c r="AK13" s="259"/>
       <c r="AL13" s="259"/>
-      <c r="AM13" s="655"/>
-      <c r="AN13" s="641"/>
+      <c r="AM13" s="651"/>
+      <c r="AN13" s="636"/>
     </row>
     <row r="14" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="453"/>
@@ -7825,18 +7822,18 @@
       <c r="C14" s="462"/>
       <c r="D14" s="455"/>
       <c r="E14" s="456"/>
-      <c r="F14" s="620"/>
+      <c r="F14" s="641"/>
       <c r="G14" s="605" t="s">
         <v>430</v>
       </c>
       <c r="H14" s="605"/>
       <c r="I14" s="605"/>
-      <c r="J14" s="627"/>
+      <c r="J14" s="683"/>
       <c r="K14" s="2">
         <v>12</v>
       </c>
       <c r="N14" s="6"/>
-      <c r="O14" s="623"/>
+      <c r="O14" s="679"/>
       <c r="Q14" s="61" t="s">
         <v>534</v>
       </c>
@@ -7850,24 +7847,24 @@
       <c r="X14" s="434" t="s">
         <v>168</v>
       </c>
-      <c r="Y14" s="658"/>
+      <c r="Y14" s="654"/>
       <c r="Z14" s="410">
         <v>1</v>
       </c>
       <c r="AA14" s="309"/>
       <c r="AB14" s="211"/>
       <c r="AC14" s="16"/>
-      <c r="AD14" s="639"/>
+      <c r="AD14" s="668"/>
       <c r="AE14" s="259"/>
-      <c r="AF14" s="631"/>
+      <c r="AF14" s="656"/>
       <c r="AG14" s="259"/>
       <c r="AH14" s="259"/>
       <c r="AI14" s="70"/>
       <c r="AJ14" s="259"/>
       <c r="AK14" s="259"/>
       <c r="AL14" s="259"/>
-      <c r="AM14" s="655"/>
-      <c r="AN14" s="641"/>
+      <c r="AM14" s="651"/>
+      <c r="AN14" s="636"/>
     </row>
     <row r="15" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="452" t="s">
@@ -7876,8 +7873,8 @@
       <c r="C15" s="598" t="s">
         <v>374</v>
       </c>
-      <c r="F15" s="620"/>
-      <c r="O15" s="623"/>
+      <c r="F15" s="641"/>
+      <c r="O15" s="679"/>
       <c r="R15" s="99" t="s">
         <v>44</v>
       </c>
@@ -7890,7 +7887,7 @@
       <c r="X15" s="434" t="s">
         <v>169</v>
       </c>
-      <c r="Y15" s="658"/>
+      <c r="Y15" s="654"/>
       <c r="Z15" s="412">
         <v>1</v>
       </c>
@@ -7899,8 +7896,8 @@
       <c r="AC15" s="76" t="s">
         <v>480</v>
       </c>
-      <c r="AD15" s="639"/>
-      <c r="AF15" s="631"/>
+      <c r="AD15" s="668"/>
+      <c r="AF15" s="656"/>
       <c r="AG15" s="80"/>
       <c r="AH15" s="240" t="s">
         <v>449</v>
@@ -7913,8 +7910,8 @@
       </c>
       <c r="AK15" s="259"/>
       <c r="AL15" s="259"/>
-      <c r="AM15" s="655"/>
-      <c r="AN15" s="641"/>
+      <c r="AM15" s="651"/>
+      <c r="AN15" s="636"/>
       <c r="AP15" s="76" t="s">
         <v>73</v>
       </c>
@@ -7936,13 +7933,13 @@
       <c r="E16" s="226">
         <v>1</v>
       </c>
-      <c r="F16" s="620"/>
+      <c r="F16" s="641"/>
       <c r="G16" s="339" t="s">
         <v>489</v>
       </c>
       <c r="I16" s="472"/>
       <c r="J16" s="20"/>
-      <c r="O16" s="623"/>
+      <c r="O16" s="679"/>
       <c r="R16" s="438" t="s">
         <v>184</v>
       </c>
@@ -7953,7 +7950,7 @@
       <c r="X16" s="434" t="s">
         <v>170</v>
       </c>
-      <c r="Y16" s="658"/>
+      <c r="Y16" s="654"/>
       <c r="Z16" s="410">
         <v>1</v>
       </c>
@@ -7974,18 +7971,18 @@
       <c r="AM16" s="431" t="s">
         <v>318</v>
       </c>
-      <c r="AN16" s="641"/>
+      <c r="AN16" s="636"/>
       <c r="AP16" s="76" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="17" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="80"/>
-      <c r="F17" s="620"/>
+      <c r="F17" s="641"/>
       <c r="I17" s="473"/>
       <c r="J17" s="20"/>
       <c r="N17" s="6"/>
-      <c r="O17" s="623"/>
+      <c r="O17" s="679"/>
       <c r="Q17" s="21" t="s">
         <v>532</v>
       </c>
@@ -8005,7 +8002,7 @@
       <c r="X17" s="434" t="s">
         <v>171</v>
       </c>
-      <c r="Y17" s="658"/>
+      <c r="Y17" s="654"/>
       <c r="Z17" s="412"/>
       <c r="AA17" s="309"/>
       <c r="AB17" s="211"/>
@@ -8030,7 +8027,7 @@
       <c r="AK17" s="259"/>
       <c r="AL17" s="80"/>
       <c r="AM17" s="431"/>
-      <c r="AN17" s="641"/>
+      <c r="AN17" s="636"/>
       <c r="AO17" s="206" t="s">
         <v>498</v>
       </c>
@@ -8054,21 +8051,21 @@
       <c r="E18" s="99" t="s">
         <v>44</v>
       </c>
-      <c r="F18" s="620"/>
+      <c r="F18" s="641"/>
       <c r="G18" s="339" t="s">
         <v>529</v>
       </c>
       <c r="I18" s="24"/>
       <c r="J18" s="20"/>
-      <c r="O18" s="623"/>
+      <c r="O18" s="679"/>
       <c r="Q18" s="112"/>
-      <c r="R18" s="615" t="s">
+      <c r="R18" s="673" t="s">
         <v>537</v>
       </c>
       <c r="T18" s="100" t="s">
         <v>44</v>
       </c>
-      <c r="U18" s="663" t="s">
+      <c r="U18" s="612" t="s">
         <v>44</v>
       </c>
       <c r="V18" s="120"/>
@@ -8078,7 +8075,7 @@
       <c r="X18" s="434" t="s">
         <v>172</v>
       </c>
-      <c r="Y18" s="658"/>
+      <c r="Y18" s="654"/>
       <c r="Z18" s="412">
         <v>1</v>
       </c>
@@ -8089,38 +8086,38 @@
       <c r="AC18" s="16"/>
       <c r="AD18" s="16"/>
       <c r="AE18" s="259"/>
-      <c r="AF18" s="630" t="s">
+      <c r="AF18" s="650" t="s">
         <v>476</v>
       </c>
       <c r="AG18" s="259"/>
       <c r="AH18" s="70"/>
       <c r="AI18" s="70"/>
-      <c r="AJ18" s="656" t="s">
+      <c r="AJ18" s="652" t="s">
         <v>316</v>
       </c>
       <c r="AK18" s="259"/>
       <c r="AL18" s="80"/>
       <c r="AM18" s="431"/>
-      <c r="AN18" s="641"/>
+      <c r="AN18" s="636"/>
       <c r="AP18" s="76" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="19" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F19" s="620"/>
+      <c r="F19" s="641"/>
       <c r="I19" s="221"/>
-      <c r="O19" s="623"/>
-      <c r="R19" s="616"/>
+      <c r="O19" s="679"/>
+      <c r="R19" s="674"/>
       <c r="S19" s="30" t="s">
         <v>535</v>
       </c>
-      <c r="U19" s="664"/>
+      <c r="U19" s="613"/>
       <c r="V19" s="146"/>
       <c r="W19" s="146"/>
       <c r="X19" s="434" t="s">
         <v>173</v>
       </c>
-      <c r="Y19" s="658"/>
+      <c r="Y19" s="654"/>
       <c r="Z19" s="410">
         <v>1</v>
       </c>
@@ -8129,17 +8126,17 @@
       <c r="AC19" s="16"/>
       <c r="AD19" s="16"/>
       <c r="AE19" s="259"/>
-      <c r="AF19" s="630"/>
+      <c r="AF19" s="650"/>
       <c r="AG19" s="259"/>
       <c r="AH19" s="259"/>
       <c r="AI19" s="70"/>
-      <c r="AJ19" s="656"/>
+      <c r="AJ19" s="652"/>
       <c r="AK19" s="463" t="s">
         <v>252</v>
       </c>
       <c r="AL19" s="80"/>
       <c r="AM19" s="431"/>
-      <c r="AN19" s="641"/>
+      <c r="AN19" s="636"/>
       <c r="AP19" s="76" t="s">
         <v>469</v>
       </c>
@@ -8160,24 +8157,24 @@
       <c r="E20" s="440">
         <v>-1</v>
       </c>
-      <c r="F20" s="620"/>
+      <c r="F20" s="641"/>
       <c r="G20" s="339" t="s">
         <v>492</v>
       </c>
       <c r="I20" s="221"/>
-      <c r="O20" s="623"/>
-      <c r="Q20" s="625" t="s">
+      <c r="O20" s="679"/>
+      <c r="Q20" s="681" t="s">
         <v>48</v>
       </c>
       <c r="T20" s="407" t="s">
         <v>44</v>
       </c>
-      <c r="U20" s="665"/>
+      <c r="U20" s="614"/>
       <c r="W20" s="408"/>
       <c r="X20" s="435" t="s">
         <v>174</v>
       </c>
-      <c r="Y20" s="658"/>
+      <c r="Y20" s="654"/>
       <c r="Z20" s="414">
         <v>1</v>
       </c>
@@ -8202,7 +8199,7 @@
       <c r="AM20" s="383" t="s">
         <v>250</v>
       </c>
-      <c r="AN20" s="641"/>
+      <c r="AN20" s="636"/>
       <c r="AO20" s="340" t="s">
         <v>461</v>
       </c>
@@ -8223,20 +8220,20 @@
       <c r="E21" s="267">
         <v>0</v>
       </c>
-      <c r="F21" s="620"/>
+      <c r="F21" s="641"/>
       <c r="I21" s="221"/>
-      <c r="O21" s="623"/>
-      <c r="Q21" s="626"/>
+      <c r="O21" s="679"/>
+      <c r="Q21" s="682"/>
       <c r="T21" s="425"/>
       <c r="U21" s="14"/>
-      <c r="V21" s="660"/>
+      <c r="V21" s="609"/>
       <c r="W21" s="429" t="s">
         <v>175</v>
       </c>
       <c r="X21" s="432" t="s">
         <v>186</v>
       </c>
-      <c r="Y21" s="658"/>
+      <c r="Y21" s="654"/>
       <c r="Z21" s="448">
         <v>3</v>
       </c>
@@ -8267,15 +8264,15 @@
       <c r="AM21" s="431" t="s">
         <v>546</v>
       </c>
-      <c r="AN21" s="641"/>
+      <c r="AN21" s="636"/>
     </row>
     <row r="22" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F22" s="620"/>
+      <c r="F22" s="641"/>
       <c r="G22" s="339" t="s">
         <v>490</v>
       </c>
       <c r="I22" s="221"/>
-      <c r="O22" s="623"/>
+      <c r="O22" s="679"/>
       <c r="R22" s="437" t="s">
         <v>44</v>
       </c>
@@ -8283,14 +8280,14 @@
         <v>44</v>
       </c>
       <c r="U22" s="15"/>
-      <c r="V22" s="661"/>
+      <c r="V22" s="610"/>
       <c r="W22" s="429" t="s">
         <v>175</v>
       </c>
       <c r="X22" s="432" t="s">
         <v>187</v>
       </c>
-      <c r="Y22" s="658"/>
+      <c r="Y22" s="654"/>
       <c r="Z22" s="418"/>
       <c r="AA22" s="10"/>
       <c r="AB22" s="418"/>
@@ -8301,7 +8298,7 @@
       <c r="AG22" s="6"/>
       <c r="AH22" s="6"/>
       <c r="AI22" s="6"/>
-      <c r="AJ22" s="630" t="s">
+      <c r="AJ22" s="650" t="s">
         <v>473</v>
       </c>
       <c r="AK22" s="259"/>
@@ -8309,7 +8306,7 @@
         <v>479</v>
       </c>
       <c r="AM22" s="302"/>
-      <c r="AN22" s="641"/>
+      <c r="AN22" s="636"/>
     </row>
     <row r="23" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="233" t="s">
@@ -8327,22 +8324,22 @@
       <c r="E23" s="227">
         <v>1</v>
       </c>
-      <c r="F23" s="620"/>
+      <c r="F23" s="641"/>
       <c r="I23" s="221"/>
-      <c r="O23" s="623"/>
-      <c r="Q23" s="625" t="s">
+      <c r="O23" s="679"/>
+      <c r="Q23" s="681" t="s">
         <v>144</v>
       </c>
       <c r="T23" s="17"/>
       <c r="U23" s="423" t="s">
         <v>44</v>
       </c>
-      <c r="V23" s="661"/>
+      <c r="V23" s="610"/>
       <c r="W23" s="148"/>
       <c r="X23" s="432" t="s">
         <v>188</v>
       </c>
-      <c r="Y23" s="658"/>
+      <c r="Y23" s="654"/>
       <c r="Z23" s="17"/>
       <c r="AA23" s="10"/>
       <c r="AB23" s="418"/>
@@ -8353,13 +8350,13 @@
       <c r="AG23" s="6"/>
       <c r="AH23" s="6"/>
       <c r="AI23" s="6"/>
-      <c r="AJ23" s="630"/>
+      <c r="AJ23" s="650"/>
       <c r="AK23" s="259"/>
       <c r="AL23" s="80" t="s">
         <v>508</v>
       </c>
       <c r="AM23" s="302"/>
-      <c r="AN23" s="641"/>
+      <c r="AN23" s="636"/>
     </row>
     <row r="24" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="443" t="s">
@@ -8377,23 +8374,23 @@
       <c r="E24" s="439">
         <v>1</v>
       </c>
-      <c r="F24" s="620"/>
+      <c r="F24" s="641"/>
       <c r="G24" s="61" t="s">
         <v>491</v>
       </c>
       <c r="I24" s="221"/>
-      <c r="O24" s="623"/>
-      <c r="Q24" s="626"/>
+      <c r="O24" s="679"/>
+      <c r="Q24" s="682"/>
       <c r="T24" s="17"/>
       <c r="U24" s="229" t="s">
         <v>44</v>
       </c>
-      <c r="V24" s="661"/>
+      <c r="V24" s="610"/>
       <c r="W24" s="148"/>
       <c r="X24" s="432" t="s">
         <v>185</v>
       </c>
-      <c r="Y24" s="658"/>
+      <c r="Y24" s="654"/>
       <c r="Z24" s="17"/>
       <c r="AA24" s="10"/>
       <c r="AB24" s="418"/>
@@ -8412,12 +8409,12 @@
         <v>464</v>
       </c>
       <c r="AM24" s="302"/>
-      <c r="AN24" s="641"/>
+      <c r="AN24" s="636"/>
     </row>
     <row r="25" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F25" s="620"/>
+      <c r="F25" s="641"/>
       <c r="I25" s="221"/>
-      <c r="O25" s="623"/>
+      <c r="O25" s="679"/>
       <c r="P25" s="206" t="s">
         <v>281</v>
       </c>
@@ -8430,12 +8427,12 @@
       <c r="U25" s="403" t="s">
         <v>44</v>
       </c>
-      <c r="V25" s="662"/>
+      <c r="V25" s="611"/>
       <c r="W25" s="148"/>
       <c r="X25" s="432" t="s">
         <v>189</v>
       </c>
-      <c r="Y25" s="658"/>
+      <c r="Y25" s="654"/>
       <c r="Z25" s="17"/>
       <c r="AA25" s="10"/>
       <c r="AB25" s="418"/>
@@ -8452,7 +8449,7 @@
       <c r="AK25" s="142"/>
       <c r="AL25" s="6"/>
       <c r="AM25" s="302"/>
-      <c r="AN25" s="641"/>
+      <c r="AN25" s="636"/>
     </row>
     <row r="26" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="233" t="s">
@@ -8470,17 +8467,17 @@
       <c r="E26" s="382">
         <v>1</v>
       </c>
-      <c r="F26" s="620"/>
+      <c r="F26" s="641"/>
       <c r="G26" s="339" t="s">
         <v>488</v>
       </c>
       <c r="I26" s="221"/>
-      <c r="O26" s="623"/>
-      <c r="P26" s="643" t="s">
+      <c r="O26" s="679"/>
+      <c r="P26" s="638" t="s">
         <v>527</v>
       </c>
-      <c r="Q26" s="644"/>
-      <c r="R26" s="617" t="s">
+      <c r="Q26" s="639"/>
+      <c r="R26" s="675" t="s">
         <v>536</v>
       </c>
       <c r="T26" s="180"/>
@@ -8492,7 +8489,7 @@
       <c r="X26" s="432" t="s">
         <v>181</v>
       </c>
-      <c r="Y26" s="658"/>
+      <c r="Y26" s="654"/>
       <c r="Z26" s="17"/>
       <c r="AA26" s="10"/>
       <c r="AB26" s="418"/>
@@ -8519,7 +8516,7 @@
       <c r="AM26" s="445" t="s">
         <v>457</v>
       </c>
-      <c r="AN26" s="641"/>
+      <c r="AN26" s="636"/>
     </row>
     <row r="27" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B27" s="21" t="s">
@@ -8531,13 +8528,13 @@
       <c r="E27" s="267" t="s">
         <v>44</v>
       </c>
-      <c r="F27" s="621"/>
+      <c r="F27" s="677"/>
       <c r="G27" s="61" t="s">
         <v>545</v>
       </c>
       <c r="I27" s="222"/>
-      <c r="O27" s="624"/>
-      <c r="R27" s="618"/>
+      <c r="O27" s="680"/>
+      <c r="R27" s="676"/>
       <c r="S27" s="424" t="s">
         <v>54</v>
       </c>
@@ -8550,7 +8547,7 @@
       <c r="X27" s="432" t="s">
         <v>531</v>
       </c>
-      <c r="Y27" s="659"/>
+      <c r="Y27" s="655"/>
       <c r="Z27" s="161"/>
       <c r="AA27" s="13"/>
       <c r="AB27" s="419"/>
@@ -8567,10 +8564,48 @@
       <c r="AM27" s="383" t="s">
         <v>320</v>
       </c>
-      <c r="AN27" s="642"/>
+      <c r="AN27" s="637"/>
     </row>
   </sheetData>
   <mergeCells count="54">
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="R18:R19"/>
+    <mergeCell ref="R26:R27"/>
+    <mergeCell ref="F2:F27"/>
+    <mergeCell ref="O10:O27"/>
+    <mergeCell ref="Q20:Q21"/>
+    <mergeCell ref="Q23:Q24"/>
+    <mergeCell ref="G14:J14"/>
+    <mergeCell ref="G13:J13"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="AI6:AI10"/>
+    <mergeCell ref="AF12:AF15"/>
+    <mergeCell ref="AG7:AG12"/>
+    <mergeCell ref="L8:L9"/>
+    <mergeCell ref="S9:S12"/>
+    <mergeCell ref="N8:N9"/>
+    <mergeCell ref="AD12:AD15"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="AN1:AN27"/>
+    <mergeCell ref="P26:Q26"/>
+    <mergeCell ref="Q2:Q3"/>
+    <mergeCell ref="M2:M9"/>
+    <mergeCell ref="O2:O9"/>
+    <mergeCell ref="P10:P13"/>
+    <mergeCell ref="AK6:AK7"/>
+    <mergeCell ref="AM12:AM15"/>
+    <mergeCell ref="AF18:AF19"/>
+    <mergeCell ref="AJ18:AJ19"/>
+    <mergeCell ref="Y1:Y27"/>
+    <mergeCell ref="AJ22:AJ23"/>
+    <mergeCell ref="AK9:AK10"/>
+    <mergeCell ref="AD3:AD4"/>
+    <mergeCell ref="S2:S3"/>
+    <mergeCell ref="R2:R3"/>
     <mergeCell ref="V21:V25"/>
     <mergeCell ref="U18:U20"/>
     <mergeCell ref="C2:C3"/>
@@ -8587,44 +8622,6 @@
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="B4:B5"/>
-    <mergeCell ref="AN1:AN27"/>
-    <mergeCell ref="P26:Q26"/>
-    <mergeCell ref="Q2:Q3"/>
-    <mergeCell ref="M2:M9"/>
-    <mergeCell ref="O2:O9"/>
-    <mergeCell ref="P10:P13"/>
-    <mergeCell ref="AK6:AK7"/>
-    <mergeCell ref="AM12:AM15"/>
-    <mergeCell ref="AF18:AF19"/>
-    <mergeCell ref="AJ18:AJ19"/>
-    <mergeCell ref="Y1:Y27"/>
-    <mergeCell ref="AJ22:AJ23"/>
-    <mergeCell ref="AK9:AK10"/>
-    <mergeCell ref="AD3:AD4"/>
-    <mergeCell ref="S2:S3"/>
-    <mergeCell ref="R2:R3"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="AI6:AI10"/>
-    <mergeCell ref="AF12:AF15"/>
-    <mergeCell ref="AG7:AG12"/>
-    <mergeCell ref="L8:L9"/>
-    <mergeCell ref="S9:S12"/>
-    <mergeCell ref="N8:N9"/>
-    <mergeCell ref="AD12:AD15"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="R18:R19"/>
-    <mergeCell ref="R26:R27"/>
-    <mergeCell ref="F2:F27"/>
-    <mergeCell ref="O10:O27"/>
-    <mergeCell ref="Q20:Q21"/>
-    <mergeCell ref="Q23:Q24"/>
-    <mergeCell ref="G14:J14"/>
-    <mergeCell ref="G13:J13"/>
-    <mergeCell ref="H12:K12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8661,12 +8658,12 @@
       <c r="B1" s="603" t="s">
         <v>311</v>
       </c>
-      <c r="C1" s="627"/>
+      <c r="C1" s="683"/>
       <c r="D1" s="206"/>
       <c r="J1" s="603" t="s">
         <v>69</v>
       </c>
-      <c r="K1" s="627"/>
+      <c r="K1" s="683"/>
       <c r="L1" s="197" t="s">
         <v>331</v>
       </c>
@@ -9000,8 +8997,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB54FD83-008D-4F8B-87AC-83E7F70047CB}">
   <dimension ref="A1:AL31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="AK19" sqref="AK19"/>
+    <sheetView tabSelected="1" topLeftCell="N12" workbookViewId="0">
+      <selection activeCell="Z27" sqref="Z27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9069,7 +9066,7 @@
       <c r="P1" s="401" t="s">
         <v>398</v>
       </c>
-      <c r="Q1" s="701" t="s">
+      <c r="Q1" s="714" t="s">
         <v>180</v>
       </c>
       <c r="R1" s="100" t="s">
@@ -9093,7 +9090,7 @@
       <c r="AA1" s="521" t="s">
         <v>438</v>
       </c>
-      <c r="AB1" s="695" t="s">
+      <c r="AB1" s="708" t="s">
         <v>596</v>
       </c>
       <c r="AC1" s="99" t="s">
@@ -9115,32 +9112,32 @@
       </c>
     </row>
     <row r="2" spans="1:38" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="706">
+      <c r="A2" s="693">
         <f ca="1">TODAY()</f>
         <v>45284</v>
       </c>
-      <c r="B2" s="708" t="s">
+      <c r="B2" s="695" t="s">
         <v>380</v>
       </c>
-      <c r="C2" s="645" t="s">
+      <c r="C2" s="615" t="s">
         <v>358</v>
       </c>
-      <c r="D2" s="710" t="s">
+      <c r="D2" s="697" t="s">
         <v>102</v>
       </c>
-      <c r="E2" s="712" t="s">
+      <c r="E2" s="699" t="s">
         <v>64</v>
       </c>
       <c r="F2" s="193" t="s">
         <v>219</v>
       </c>
-      <c r="G2" s="613" t="s">
+      <c r="G2" s="659" t="s">
         <v>373</v>
       </c>
       <c r="H2" s="208" t="s">
         <v>219</v>
       </c>
-      <c r="I2" s="692" t="s">
+      <c r="I2" s="705" t="s">
         <v>102</v>
       </c>
       <c r="J2" s="399" t="s">
@@ -9164,10 +9161,10 @@
       <c r="P2" s="402">
         <v>40</v>
       </c>
-      <c r="Q2" s="702"/>
+      <c r="Q2" s="715"/>
       <c r="R2" s="21">
         <f>R7+R20</f>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="S2" s="21">
         <f>S7+S20</f>
@@ -9189,7 +9186,7 @@
         <f>IF((Z2+T2)&gt;0,0,-1)</f>
         <v>0</v>
       </c>
-      <c r="AB2" s="696"/>
+      <c r="AB2" s="709"/>
       <c r="AC2" s="35"/>
       <c r="AH2" s="6"/>
       <c r="AI2" s="472"/>
@@ -9202,14 +9199,14 @@
       </c>
     </row>
     <row r="3" spans="1:38" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="707"/>
-      <c r="B3" s="709"/>
-      <c r="C3" s="646"/>
-      <c r="D3" s="711"/>
-      <c r="E3" s="713"/>
-      <c r="G3" s="614"/>
+      <c r="A3" s="694"/>
+      <c r="B3" s="696"/>
+      <c r="C3" s="616"/>
+      <c r="D3" s="698"/>
+      <c r="E3" s="700"/>
+      <c r="G3" s="660"/>
       <c r="H3" s="6"/>
-      <c r="I3" s="693"/>
+      <c r="I3" s="706"/>
       <c r="K3" s="24">
         <v>2</v>
       </c>
@@ -9218,13 +9215,13 @@
       </c>
       <c r="Q3" s="474">
         <f>SUM(X23:X31)</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="U3" s="6"/>
       <c r="V3" s="473"/>
       <c r="W3" s="6"/>
       <c r="X3" s="473"/>
-      <c r="AB3" s="696"/>
+      <c r="AB3" s="709"/>
       <c r="AC3" s="35"/>
       <c r="AE3" s="100" t="s">
         <v>591</v>
@@ -9245,10 +9242,10 @@
         <v>381</v>
       </c>
       <c r="B4" s="245"/>
-      <c r="C4" s="714" t="s">
+      <c r="C4" s="701" t="s">
         <v>177</v>
       </c>
-      <c r="I4" s="693"/>
+      <c r="I4" s="706"/>
       <c r="R4" s="474" t="s">
         <v>591</v>
       </c>
@@ -9260,7 +9257,7 @@
       <c r="V4" s="473"/>
       <c r="W4" s="6"/>
       <c r="X4" s="473"/>
-      <c r="AB4" s="696"/>
+      <c r="AB4" s="709"/>
       <c r="AC4" s="35"/>
       <c r="AE4" s="20"/>
       <c r="AF4" s="100" t="s">
@@ -9274,7 +9271,7 @@
       <c r="AI4" s="473"/>
       <c r="AJ4" s="558"/>
       <c r="AK4" s="6" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="AL4" s="24">
         <v>1</v>
@@ -9287,7 +9284,7 @@
       <c r="B5" s="100" t="s">
         <v>358</v>
       </c>
-      <c r="C5" s="715"/>
+      <c r="C5" s="702"/>
       <c r="D5" s="224" t="s">
         <v>102</v>
       </c>
@@ -9303,7 +9300,7 @@
       <c r="H5" s="208" t="s">
         <v>219</v>
       </c>
-      <c r="I5" s="693"/>
+      <c r="I5" s="706"/>
       <c r="J5" s="400" t="s">
         <v>269</v>
       </c>
@@ -9330,7 +9327,7 @@
       <c r="V5" s="471"/>
       <c r="W5" s="6"/>
       <c r="X5" s="471"/>
-      <c r="AB5" s="696"/>
+      <c r="AB5" s="709"/>
       <c r="AC5" s="2" t="s">
         <v>594</v>
       </c>
@@ -9348,19 +9345,19 @@
       </c>
     </row>
     <row r="6" spans="1:38" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="703" t="s">
+      <c r="A6" s="690" t="s">
         <v>286</v>
       </c>
       <c r="B6" s="105" t="s">
         <v>198</v>
       </c>
-      <c r="C6" s="628"/>
-      <c r="D6" s="629"/>
+      <c r="C6" s="661"/>
+      <c r="D6" s="662"/>
       <c r="E6" s="96">
         <v>1</v>
       </c>
       <c r="G6" s="599"/>
-      <c r="I6" s="693"/>
+      <c r="I6" s="706"/>
       <c r="P6" s="61" t="s">
         <v>594</v>
       </c>
@@ -9372,7 +9369,7 @@
         <f>S7+S11-SUM(V2:V10)</f>
         <v>3</v>
       </c>
-      <c r="AB6" s="696"/>
+      <c r="AB6" s="709"/>
       <c r="AC6" s="35"/>
       <c r="AE6" s="64">
         <f>AE7-SUM(AL2:AL10)+AE11</f>
@@ -9380,7 +9377,7 @@
       </c>
       <c r="AF6" s="64">
         <f>AF7-SUM(AI2:AI10)+AF11</f>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AH6" s="6"/>
       <c r="AI6" s="529"/>
@@ -9388,7 +9385,7 @@
       <c r="AL6" s="112"/>
     </row>
     <row r="7" spans="1:38" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="704"/>
+      <c r="A7" s="691"/>
       <c r="B7" s="100" t="s">
         <v>154</v>
       </c>
@@ -9399,7 +9396,7 @@
         <v>135</v>
       </c>
       <c r="G7" s="599"/>
-      <c r="I7" s="693"/>
+      <c r="I7" s="706"/>
       <c r="M7" s="16" t="s">
         <v>348</v>
       </c>
@@ -9427,7 +9424,7 @@
       <c r="V7" s="472"/>
       <c r="W7" s="6"/>
       <c r="X7" s="472"/>
-      <c r="AB7" s="696"/>
+      <c r="AB7" s="709"/>
       <c r="AC7" s="99" t="s">
         <v>595</v>
       </c>
@@ -9440,20 +9437,20 @@
       </c>
       <c r="AF7" s="297">
         <f>8-AF11</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AH7" s="6"/>
       <c r="AI7" s="472"/>
       <c r="AJ7" s="558"/>
       <c r="AK7" s="6" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="AL7" s="553">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="705"/>
+      <c r="A8" s="692"/>
       <c r="B8" s="214" t="s">
         <v>28</v>
       </c>
@@ -9462,7 +9459,7 @@
         <v>3</v>
       </c>
       <c r="G8" s="599"/>
-      <c r="I8" s="693"/>
+      <c r="I8" s="706"/>
       <c r="N8" s="80"/>
       <c r="U8" s="6"/>
       <c r="V8" s="24"/>
@@ -9472,17 +9469,17 @@
       <c r="X8" s="473">
         <v>1</v>
       </c>
-      <c r="AB8" s="696"/>
+      <c r="AB8" s="709"/>
       <c r="AC8" s="519"/>
       <c r="AH8" s="6" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="AI8" s="473">
         <v>1</v>
       </c>
       <c r="AJ8" s="558"/>
       <c r="AK8" s="6" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="AL8" s="472">
         <v>1</v>
@@ -9503,7 +9500,7 @@
       </c>
       <c r="G9" s="599"/>
       <c r="H9" s="6"/>
-      <c r="I9" s="693"/>
+      <c r="I9" s="706"/>
       <c r="M9" s="19" t="s">
         <v>526</v>
       </c>
@@ -9512,7 +9509,7 @@
       <c r="V9" s="24"/>
       <c r="W9" s="6"/>
       <c r="X9" s="473"/>
-      <c r="AB9" s="696"/>
+      <c r="AB9" s="709"/>
       <c r="AC9" s="519"/>
       <c r="AE9" s="20"/>
       <c r="AF9" s="20"/>
@@ -9537,10 +9534,10 @@
       <c r="D10" s="108"/>
       <c r="E10" s="68">
         <f>Boat!W8</f>
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G10" s="599"/>
-      <c r="I10" s="693"/>
+      <c r="I10" s="706"/>
       <c r="J10" s="24" t="s">
         <v>373</v>
       </c>
@@ -9554,17 +9551,21 @@
       <c r="U10" s="6"/>
       <c r="V10" s="473"/>
       <c r="W10" s="6" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="X10" s="473">
         <v>1</v>
       </c>
-      <c r="AB10" s="696"/>
+      <c r="AB10" s="709"/>
       <c r="AC10" s="519"/>
       <c r="AE10" s="20"/>
       <c r="AF10" s="20"/>
-      <c r="AH10" s="6"/>
-      <c r="AI10" s="473"/>
+      <c r="AH10" s="6" t="s">
+        <v>623</v>
+      </c>
+      <c r="AI10" s="473">
+        <v>1</v>
+      </c>
       <c r="AJ10" s="559"/>
       <c r="AK10" s="6" t="s">
         <v>609</v>
@@ -9587,7 +9588,7 @@
         <v>266</v>
       </c>
       <c r="G11" s="599"/>
-      <c r="I11" s="693"/>
+      <c r="I11" s="706"/>
       <c r="J11" s="24" t="s">
         <v>194</v>
       </c>
@@ -9613,13 +9614,13 @@
       <c r="S11" s="24">
         <v>3</v>
       </c>
-      <c r="U11" s="698" t="s">
+      <c r="U11" s="711" t="s">
         <v>559</v>
       </c>
-      <c r="V11" s="699"/>
-      <c r="W11" s="699"/>
-      <c r="X11" s="700"/>
-      <c r="AB11" s="697"/>
+      <c r="V11" s="712"/>
+      <c r="W11" s="712"/>
+      <c r="X11" s="713"/>
+      <c r="AB11" s="710"/>
       <c r="AC11" s="99" t="s">
         <v>597</v>
       </c>
@@ -9630,16 +9631,16 @@
         <v>1</v>
       </c>
       <c r="AF11" s="24">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AG11" s="417"/>
-      <c r="AH11" s="698" t="s">
+      <c r="AH11" s="711" t="s">
         <v>608</v>
       </c>
-      <c r="AI11" s="699"/>
-      <c r="AJ11" s="699"/>
-      <c r="AK11" s="699"/>
-      <c r="AL11" s="700"/>
+      <c r="AI11" s="712"/>
+      <c r="AJ11" s="712"/>
+      <c r="AK11" s="712"/>
+      <c r="AL11" s="713"/>
     </row>
     <row r="12" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="229" t="s">
@@ -9650,7 +9651,7 @@
         <v>3</v>
       </c>
       <c r="G12" s="599"/>
-      <c r="I12" s="693"/>
+      <c r="I12" s="706"/>
       <c r="J12" s="24" t="s">
         <v>517</v>
       </c>
@@ -9683,7 +9684,7 @@
       </c>
       <c r="D13" s="20"/>
       <c r="G13" s="599"/>
-      <c r="I13" s="693"/>
+      <c r="I13" s="706"/>
       <c r="J13" s="108" t="s">
         <v>549</v>
       </c>
@@ -9727,7 +9728,7 @@
       <c r="H14" s="208" t="s">
         <v>219</v>
       </c>
-      <c r="I14" s="693"/>
+      <c r="I14" s="706"/>
       <c r="U14" s="67" t="s">
         <v>80</v>
       </c>
@@ -9738,7 +9739,7 @@
       <c r="X14"/>
       <c r="Z14" s="68">
         <f>SUM(X23:X31)</f>
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -9754,7 +9755,7 @@
       <c r="H15" s="273">
         <v>0</v>
       </c>
-      <c r="I15" s="693"/>
+      <c r="I15" s="706"/>
       <c r="J15" s="108" t="s">
         <v>153</v>
       </c>
@@ -9785,7 +9786,7 @@
       <c r="D16" s="2" t="s">
         <v>493</v>
       </c>
-      <c r="I16" s="693"/>
+      <c r="I16" s="706"/>
       <c r="K16" s="100" t="s">
         <v>44</v>
       </c>
@@ -9825,7 +9826,7 @@
       <c r="G17" s="2" t="s">
         <v>424</v>
       </c>
-      <c r="I17" s="693"/>
+      <c r="I17" s="706"/>
       <c r="L17" s="2" t="s">
         <v>427</v>
       </c>
@@ -9843,54 +9844,46 @@
     </row>
     <row r="18" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G18" s="16"/>
-      <c r="I18" s="693"/>
+      <c r="I18" s="706"/>
       <c r="L18" s="16"/>
       <c r="M18" s="21"/>
-      <c r="O18" s="690" t="s">
+      <c r="O18" s="703" t="s">
         <v>518</v>
       </c>
-      <c r="P18" s="691"/>
+      <c r="P18" s="704"/>
       <c r="Q18" s="127" t="s">
         <v>44</v>
       </c>
       <c r="R18" s="24">
         <f>5-R26</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="S18" s="24">
         <f>5-S26</f>
         <v>5</v>
       </c>
-      <c r="U18" s="221" t="s">
-        <v>346</v>
+      <c r="U18" s="19" t="s">
+        <v>472</v>
       </c>
       <c r="V18" s="24">
         <v>1</v>
       </c>
-      <c r="W18" s="19" t="s">
-        <v>346</v>
-      </c>
-      <c r="X18" s="24">
-        <v>1</v>
-      </c>
+      <c r="W18" s="19"/>
+      <c r="X18" s="24"/>
     </row>
     <row r="19" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I19" s="693"/>
+      <c r="I19" s="706"/>
       <c r="M19" s="21" t="s">
         <v>426</v>
       </c>
       <c r="U19" s="19" t="s">
-        <v>519</v>
+        <v>233</v>
       </c>
       <c r="V19" s="24">
         <v>1</v>
       </c>
-      <c r="W19" s="19" t="s">
-        <v>233</v>
-      </c>
-      <c r="X19" s="24">
-        <v>1</v>
-      </c>
+      <c r="W19" s="19"/>
+      <c r="X19" s="24"/>
     </row>
     <row r="20" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="233" t="s">
@@ -9911,7 +9904,7 @@
       <c r="G20" s="2" t="s">
         <v>424</v>
       </c>
-      <c r="I20" s="693"/>
+      <c r="I20" s="706"/>
       <c r="K20" s="19" t="s">
         <v>423</v>
       </c>
@@ -9926,14 +9919,14 @@
       </c>
       <c r="R20" s="24">
         <f>R18-SUM(X16:X21)+R26</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="S20" s="24">
         <f>S18-SUM(V16:V21)+S26</f>
         <v>0</v>
       </c>
       <c r="U20" s="222" t="s">
-        <v>233</v>
+        <v>83</v>
       </c>
       <c r="V20" s="471">
         <v>1</v>
@@ -9942,20 +9935,16 @@
       <c r="X20" s="471"/>
     </row>
     <row r="21" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I21" s="693"/>
+      <c r="I21" s="706"/>
       <c r="M21" s="218" t="s">
         <v>412</v>
       </c>
-      <c r="U21" s="19"/>
-      <c r="V21" s="127">
-        <v>0</v>
-      </c>
-      <c r="W21" s="19" t="s">
-        <v>87</v>
-      </c>
-      <c r="X21" s="471">
-        <v>1</v>
-      </c>
+      <c r="U21" s="471"/>
+      <c r="V21" s="471">
+        <v>0</v>
+      </c>
+      <c r="W21" s="19"/>
+      <c r="X21" s="471"/>
     </row>
     <row r="22" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="233" t="s">
@@ -9976,7 +9965,7 @@
       <c r="G22" s="2" t="s">
         <v>424</v>
       </c>
-      <c r="I22" s="693"/>
+      <c r="I22" s="706"/>
       <c r="P22" s="99" t="s">
         <v>593</v>
       </c>
@@ -9991,10 +9980,10 @@
       <c r="E23" s="285" t="s">
         <v>44</v>
       </c>
-      <c r="I23" s="693"/>
+      <c r="I23" s="706"/>
       <c r="Q23" s="24">
         <f>SUM(V23:V31)</f>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="U23" s="344"/>
       <c r="V23" s="185">
@@ -10008,7 +9997,7 @@
       </c>
     </row>
     <row r="24" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I24" s="693"/>
+      <c r="I24" s="706"/>
       <c r="U24" s="35"/>
       <c r="V24" s="512">
         <v>2</v>
@@ -10036,7 +10025,7 @@
       <c r="H25" s="193" t="s">
         <v>267</v>
       </c>
-      <c r="I25" s="693"/>
+      <c r="I25" s="706"/>
       <c r="J25" s="400" t="s">
         <v>270</v>
       </c>
@@ -10051,13 +10040,13 @@
       </c>
       <c r="U25" s="35"/>
       <c r="V25" s="512">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W25" s="54" t="s">
         <v>519</v>
       </c>
       <c r="X25" s="24">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10081,7 +10070,7 @@
       <c r="H26" s="19" t="s">
         <v>219</v>
       </c>
-      <c r="I26" s="693"/>
+      <c r="I26" s="706"/>
       <c r="K26" s="24">
         <v>15</v>
       </c>
@@ -10096,7 +10085,7 @@
         <v>44</v>
       </c>
       <c r="R26" s="24">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="S26" s="24">
         <v>0</v>
@@ -10116,7 +10105,7 @@
       </c>
     </row>
     <row r="27" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I27" s="693"/>
+      <c r="I27" s="706"/>
       <c r="O27" s="2" t="s">
         <v>98</v>
       </c>
@@ -10143,19 +10132,19 @@
       <c r="E28" s="217">
         <v>2</v>
       </c>
-      <c r="I28" s="693"/>
+      <c r="I28" s="706"/>
       <c r="Q28" s="6"/>
       <c r="R28" s="112"/>
       <c r="T28" s="142"/>
       <c r="U28" s="35"/>
       <c r="V28" s="512">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W28" s="54" t="s">
         <v>87</v>
       </c>
       <c r="X28" s="24">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10165,7 +10154,7 @@
       <c r="H29" s="193" t="s">
         <v>268</v>
       </c>
-      <c r="I29" s="694"/>
+      <c r="I29" s="707"/>
       <c r="J29" s="326"/>
       <c r="L29" s="96" t="s">
         <v>274</v>
@@ -10200,13 +10189,13 @@
         <v>583</v>
       </c>
       <c r="V30" s="512">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W30" s="54" t="s">
         <v>560</v>
       </c>
       <c r="X30" s="24">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10223,6 +10212,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="O18:P18"/>
+    <mergeCell ref="I2:I29"/>
+    <mergeCell ref="AB1:AB11"/>
+    <mergeCell ref="AH11:AL11"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="Q1:Q2"/>
+    <mergeCell ref="U11:X11"/>
     <mergeCell ref="A6:A8"/>
     <mergeCell ref="G5:G14"/>
     <mergeCell ref="A2:A3"/>
@@ -10234,13 +10230,6 @@
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="G2:G3"/>
     <mergeCell ref="C2:C3"/>
-    <mergeCell ref="O18:P18"/>
-    <mergeCell ref="I2:I29"/>
-    <mergeCell ref="AB1:AB11"/>
-    <mergeCell ref="AH11:AL11"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="Q1:Q2"/>
-    <mergeCell ref="U11:X11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -10252,7 +10241,7 @@
   <dimension ref="A1:AT37"/>
   <sheetViews>
     <sheetView topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="Q12" sqref="Q12"/>
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10319,7 +10308,7 @@
         <v>0</v>
       </c>
       <c r="H1" s="80" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="I1" s="95" t="s">
         <v>41</v>
@@ -10352,14 +10341,14 @@
         <f ca="1">TODAY()</f>
         <v>45284</v>
       </c>
-      <c r="T1" s="735"/>
+      <c r="T1" s="742"/>
       <c r="U1" s="142"/>
       <c r="V1" s="6"/>
       <c r="W1" s="6"/>
-      <c r="X1" s="719" t="s">
+      <c r="X1" s="726" t="s">
         <v>442</v>
       </c>
-      <c r="Y1" s="720"/>
+      <c r="Y1" s="727"/>
       <c r="Z1" s="308">
         <f>68-(W8+Y3+X3+U3)</f>
         <v>0</v>
@@ -10375,23 +10364,23 @@
       <c r="AD1" s="304" t="s">
         <v>44</v>
       </c>
-      <c r="AE1" s="721" t="s">
+      <c r="AE1" s="728" t="s">
         <v>190</v>
       </c>
-      <c r="AF1" s="722"/>
-      <c r="AG1" s="723"/>
-      <c r="AH1" s="724" t="s">
+      <c r="AF1" s="729"/>
+      <c r="AG1" s="730"/>
+      <c r="AH1" s="731" t="s">
         <v>294</v>
       </c>
-      <c r="AI1" s="725"/>
-      <c r="AJ1" s="726"/>
+      <c r="AI1" s="732"/>
+      <c r="AJ1" s="733"/>
       <c r="AK1" s="555"/>
       <c r="AL1" s="555"/>
-      <c r="AM1" s="716" t="s">
+      <c r="AM1" s="723" t="s">
         <v>445</v>
       </c>
-      <c r="AN1" s="717"/>
-      <c r="AO1" s="718"/>
+      <c r="AN1" s="724"/>
+      <c r="AO1" s="725"/>
       <c r="AR1" s="142"/>
     </row>
     <row r="2" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10404,31 +10393,31 @@
       </c>
       <c r="J2" s="320">
         <f>K2+L2</f>
-        <v>25</v>
-      </c>
-      <c r="K2" s="743">
+        <v>23</v>
+      </c>
+      <c r="K2" s="721">
         <f>SUM(K4:K29)</f>
         <v>12</v>
       </c>
-      <c r="L2" s="741">
+      <c r="L2" s="719">
         <f>SUM(L4:L37)</f>
-        <v>13</v>
-      </c>
-      <c r="M2" s="727">
+        <v>11</v>
+      </c>
+      <c r="M2" s="734">
         <f>SUM(M5:M30)</f>
         <v>0</v>
       </c>
-      <c r="N2" s="729">
+      <c r="N2" s="736">
         <f>SUM(N4:N29)</f>
-        <v>5</v>
-      </c>
-      <c r="O2" s="731">
+        <v>2</v>
+      </c>
+      <c r="O2" s="738">
         <f>SUM(O4:O29)</f>
-        <v>11</v>
-      </c>
-      <c r="P2" s="637">
+        <v>9</v>
+      </c>
+      <c r="P2" s="666">
         <f>SUM(N30:N37)* (-1)</f>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Q2" s="271" t="s">
         <v>239</v>
@@ -10439,14 +10428,14 @@
       <c r="S2" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="T2" s="736"/>
+      <c r="T2" s="743"/>
       <c r="U2" s="541" t="s">
         <v>263</v>
       </c>
       <c r="V2" s="485" t="s">
         <v>220</v>
       </c>
-      <c r="W2" s="733" t="s">
+      <c r="W2" s="740" t="s">
         <v>235</v>
       </c>
       <c r="X2" s="486" t="s">
@@ -10489,10 +10478,10 @@
         <v>289</v>
       </c>
       <c r="AK2" s="150" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="AL2" s="150" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="AM2" s="21" t="s">
         <v>444</v>
@@ -10518,12 +10507,12 @@
         <f>V3+X3+Y3+U3</f>
         <v>68</v>
       </c>
-      <c r="K3" s="744"/>
-      <c r="L3" s="742"/>
-      <c r="M3" s="728"/>
-      <c r="N3" s="730"/>
-      <c r="O3" s="732"/>
-      <c r="P3" s="638"/>
+      <c r="K3" s="722"/>
+      <c r="L3" s="720"/>
+      <c r="M3" s="735"/>
+      <c r="N3" s="737"/>
+      <c r="O3" s="739"/>
+      <c r="P3" s="667"/>
       <c r="Q3" s="174">
         <f>(M2+N2)-Y3</f>
         <v>0</v>
@@ -10531,23 +10520,23 @@
       <c r="S3" s="159" t="s">
         <v>245</v>
       </c>
-      <c r="T3" s="737"/>
+      <c r="T3" s="744"/>
       <c r="U3" s="542">
         <f>SUM(U4:U29)</f>
         <v>12</v>
       </c>
       <c r="V3" s="487">
         <f>SUM(V4:V29)</f>
-        <v>41</v>
-      </c>
-      <c r="W3" s="734"/>
+        <v>44</v>
+      </c>
+      <c r="W3" s="741"/>
       <c r="X3" s="488">
         <f t="shared" ref="X3:AC3" si="0">SUM(X4:X29)</f>
         <v>10</v>
       </c>
       <c r="Y3" s="488">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="Z3" s="59">
         <f t="shared" si="0"/>
@@ -10555,15 +10544,15 @@
       </c>
       <c r="AA3" s="66">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AB3" s="66">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="AC3" s="66">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AD3" s="66">
         <f t="shared" ref="AD3:AO3" si="1">SUM(AD4:AD29)</f>
@@ -10571,7 +10560,7 @@
       </c>
       <c r="AE3" s="66">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AF3" s="66">
         <f t="shared" si="1"/>
@@ -10583,11 +10572,11 @@
       </c>
       <c r="AH3" s="66">
         <f>SUM(AH4:AH29)</f>
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AI3" s="376">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="407">
         <f t="shared" si="1"/>
@@ -10597,15 +10586,15 @@
       <c r="AL3" s="407"/>
       <c r="AM3" s="100">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AN3" s="312">
         <f t="shared" si="1"/>
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AO3" s="313">
         <f t="shared" si="1"/>
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AR3" s="142"/>
     </row>
@@ -10640,7 +10629,7 @@
         <f>AC4</f>
         <v>0</v>
       </c>
-      <c r="P4" s="738" t="s">
+      <c r="P4" s="716" t="s">
         <v>199</v>
       </c>
       <c r="Q4" s="20"/>
@@ -10726,7 +10715,7 @@
         <f>AC5</f>
         <v>0</v>
       </c>
-      <c r="P5" s="739"/>
+      <c r="P5" s="717"/>
       <c r="Q5" s="20"/>
       <c r="R5" s="2" t="s">
         <v>341</v>
@@ -10824,7 +10813,7 @@
         <f>AC6</f>
         <v>1</v>
       </c>
-      <c r="P6" s="739"/>
+      <c r="P6" s="717"/>
       <c r="Q6" s="19" t="s">
         <v>336</v>
       </c>
@@ -10927,7 +10916,7 @@
         <f>AC7</f>
         <v>1</v>
       </c>
-      <c r="P7" s="739"/>
+      <c r="P7" s="717"/>
       <c r="Q7" s="20"/>
       <c r="R7" s="2" t="s">
         <v>336</v>
@@ -11041,7 +11030,7 @@
         <f t="shared" ref="O8:O37" si="10">AC8</f>
         <v>0</v>
       </c>
-      <c r="P8" s="739"/>
+      <c r="P8" s="717"/>
       <c r="Q8" s="21" t="s">
         <v>234</v>
       </c>
@@ -11062,7 +11051,7 @@
       </c>
       <c r="W8" s="24">
         <f>V3</f>
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="X8" s="500">
         <v>0</v>
@@ -11132,7 +11121,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="P9" s="739"/>
+      <c r="P9" s="717"/>
       <c r="Q9" s="21" t="s">
         <v>336</v>
       </c>
@@ -11237,7 +11226,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="P10" s="739"/>
+      <c r="P10" s="717"/>
       <c r="Q10" s="20"/>
       <c r="R10" s="2" t="s">
         <v>341</v>
@@ -11327,7 +11316,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="P11" s="739"/>
+      <c r="P11" s="717"/>
       <c r="Q11" s="21" t="s">
         <v>336</v>
       </c>
@@ -11392,14 +11381,14 @@
       <c r="AR11" s="511"/>
     </row>
     <row r="12" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="675" t="s">
+      <c r="A12" s="626" t="s">
         <v>55</v>
       </c>
       <c r="B12" s="30">
         <v>13</v>
       </c>
       <c r="C12" s="2"/>
-      <c r="E12" s="625" t="s">
+      <c r="E12" s="681" t="s">
         <v>56</v>
       </c>
       <c r="G12" s="264"/>
@@ -11407,7 +11396,7 @@
         <v>-1</v>
       </c>
       <c r="I12" s="61" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="J12" s="576" t="s">
         <v>298</v>
@@ -11424,7 +11413,7 @@
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="P12" s="739"/>
+      <c r="P12" s="717"/>
       <c r="Q12" s="21" t="s">
         <v>336</v>
       </c>
@@ -11499,14 +11488,14 @@
       <c r="AR12" s="512"/>
     </row>
     <row r="13" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="677"/>
+      <c r="A13" s="628"/>
       <c r="B13" s="591">
         <v>12</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="E13" s="626"/>
+      <c r="E13" s="682"/>
       <c r="F13" s="174">
         <v>0</v>
       </c>
@@ -11515,7 +11504,7 @@
       </c>
       <c r="H13" s="273"/>
       <c r="I13" s="111" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="J13" s="577" t="s">
         <v>303</v>
@@ -11530,7 +11519,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="P13" s="739"/>
+      <c r="P13" s="717"/>
       <c r="Q13" s="21" t="s">
         <v>336</v>
       </c>
@@ -11602,7 +11591,7 @@
       <c r="J14" s="576"/>
       <c r="K14" s="580"/>
       <c r="L14" s="588">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M14" s="330"/>
       <c r="N14" s="293">
@@ -11610,9 +11599,9 @@
       </c>
       <c r="O14" s="295">
         <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="P14" s="739"/>
+        <v>0</v>
+      </c>
+      <c r="P14" s="717"/>
       <c r="Q14" s="20"/>
       <c r="R14" s="202" t="s">
         <v>340</v>
@@ -11638,56 +11627,56 @@
       <c r="Z14" s="298"/>
       <c r="AA14" s="117">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB14" s="292">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC14" s="292">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD14" s="292">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AE14" s="296">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF14" s="302"/>
       <c r="AG14" s="298"/>
       <c r="AH14" s="298">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI14" s="377"/>
       <c r="AJ14" s="512">
         <v>1</v>
       </c>
-      <c r="AK14" s="564">
-        <v>1</v>
-      </c>
-      <c r="AL14" s="319"/>
+      <c r="AK14" s="564"/>
+      <c r="AL14" s="319">
+        <v>1</v>
+      </c>
       <c r="AM14" s="338">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN14" s="310">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="311">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP14" s="6" t="s">
-        <v>620</v>
+        <v>560</v>
       </c>
       <c r="AQ14" s="569" t="s">
         <v>563</v>
       </c>
       <c r="AR14" s="511" t="s">
-        <v>613</v>
+        <v>471</v>
       </c>
     </row>
     <row r="15" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11715,7 +11704,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="P15" s="739"/>
+      <c r="P15" s="717"/>
       <c r="Q15" s="20"/>
       <c r="R15" s="202" t="s">
         <v>340</v>
@@ -11801,13 +11790,13 @@
       </c>
       <c r="M16" s="330"/>
       <c r="N16" s="107">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O16" s="295">
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="P16" s="739"/>
+      <c r="P16" s="717"/>
       <c r="Q16" s="21" t="s">
         <v>336</v>
       </c>
@@ -11822,7 +11811,7 @@
       </c>
       <c r="U16" s="506"/>
       <c r="V16" s="495">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W16" s="496">
         <v>-3</v>
@@ -11830,7 +11819,7 @@
       <c r="X16" s="505"/>
       <c r="Y16" s="493">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="298"/>
       <c r="AA16" s="117">
@@ -11839,7 +11828,7 @@
       </c>
       <c r="AB16" s="292">
         <f t="shared" si="8"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC16" s="292">
         <v>1</v>
@@ -11858,7 +11847,7 @@
         <v>1</v>
       </c>
       <c r="AI16" s="377">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="512">
         <v>1</v>
@@ -11867,7 +11856,7 @@
       <c r="AL16" s="319"/>
       <c r="AM16" s="338">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AN16" s="310">
         <f t="shared" si="7"/>
@@ -11910,7 +11899,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="P17" s="739"/>
+      <c r="P17" s="717"/>
       <c r="Q17" s="20"/>
       <c r="R17" s="2" t="s">
         <v>342</v>
@@ -12010,7 +11999,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="P18" s="739"/>
+      <c r="P18" s="717"/>
       <c r="Q18" s="21" t="s">
         <v>336</v>
       </c>
@@ -12100,7 +12089,7 @@
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="P19" s="739"/>
+      <c r="P19" s="717"/>
       <c r="Q19" s="20"/>
       <c r="R19" s="2" t="s">
         <v>335</v>
@@ -12198,21 +12187,21 @@
       </c>
       <c r="K20" s="581"/>
       <c r="L20" s="589">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M20" s="329"/>
       <c r="N20" s="107">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O20" s="295">
         <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="P20" s="740"/>
+        <v>0</v>
+      </c>
+      <c r="P20" s="718"/>
       <c r="Q20" s="603" t="s">
         <v>336</v>
       </c>
-      <c r="R20" s="627"/>
+      <c r="R20" s="683"/>
       <c r="S20" s="538" t="s">
         <v>85</v>
       </c>
@@ -12221,7 +12210,7 @@
       </c>
       <c r="U20" s="506"/>
       <c r="V20" s="495">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W20" s="496">
         <v>-3</v>
@@ -12229,32 +12218,32 @@
       <c r="X20" s="507"/>
       <c r="Y20" s="185">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="298"/>
       <c r="AA20" s="117">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB20" s="292">
         <f t="shared" si="8"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AC20" s="292">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD20" s="292">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AE20" s="296">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF20" s="302"/>
       <c r="AG20" s="298"/>
       <c r="AH20" s="298">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI20" s="377"/>
       <c r="AJ20" s="512">
@@ -12264,15 +12253,15 @@
       <c r="AL20" s="319"/>
       <c r="AM20" s="338">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN20" s="310">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="311">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP20" s="6" t="s">
         <v>87</v>
@@ -12307,7 +12296,7 @@
       </c>
       <c r="M21" s="332"/>
       <c r="N21" s="107">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O21" s="295">
         <f t="shared" si="10"/>
@@ -12327,7 +12316,7 @@
         <v>1</v>
       </c>
       <c r="V21" s="495">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W21" s="496">
         <v>-1</v>
@@ -12335,7 +12324,7 @@
       <c r="X21" s="497"/>
       <c r="Y21" s="185">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="298"/>
       <c r="AA21" s="117">
@@ -12344,7 +12333,7 @@
       </c>
       <c r="AB21" s="292">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC21" s="292">
         <v>0</v>
@@ -12354,7 +12343,7 @@
         <v>0</v>
       </c>
       <c r="AE21" s="296">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF21" s="302"/>
       <c r="AG21" s="298"/>
@@ -12474,7 +12463,7 @@
     </row>
     <row r="23" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B23" s="24"/>
-      <c r="E23" s="682" t="s">
+      <c r="E23" s="633" t="s">
         <v>290</v>
       </c>
       <c r="F23" s="182"/>
@@ -12579,7 +12568,7 @@
       <c r="C24" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="E24" s="683"/>
+      <c r="E24" s="634"/>
       <c r="F24" s="174"/>
       <c r="H24" s="42"/>
       <c r="J24" s="576" t="s">
@@ -12604,7 +12593,7 @@
       <c r="Q24" s="603" t="s">
         <v>336</v>
       </c>
-      <c r="R24" s="627"/>
+      <c r="R24" s="683"/>
       <c r="S24" s="538" t="s">
         <v>250</v>
       </c>
@@ -13257,8 +13246,8 @@
       <c r="AR31" s="511"/>
     </row>
     <row r="32" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="630"/>
-      <c r="B32" s="630"/>
+      <c r="A32" s="650"/>
+      <c r="B32" s="650"/>
       <c r="J32" s="577" t="s">
         <v>310</v>
       </c>
@@ -13268,11 +13257,11 @@
         <v>0</v>
       </c>
       <c r="N32" s="252">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O32" s="295">
         <f t="shared" si="10"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q32" s="20"/>
       <c r="S32" s="17" t="s">
@@ -13283,7 +13272,7 @@
         <v>2</v>
       </c>
       <c r="V32" s="156">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W32" s="15">
         <v>-2</v>
@@ -13293,19 +13282,19 @@
       </c>
       <c r="Y32" s="185">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z32" s="65"/>
       <c r="AA32" s="117">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB32" s="64">
         <f t="shared" si="8"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AC32" s="64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD32" s="303">
         <f t="shared" si="4"/>
@@ -13318,27 +13307,27 @@
       <c r="AG32" s="357"/>
       <c r="AH32" s="318">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI32" s="377">
         <v>0</v>
       </c>
       <c r="AJ32" s="155">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK32" s="155"/>
       <c r="AL32" s="319"/>
       <c r="AM32" s="574">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN32" s="310">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO32" s="311">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP32" s="6" t="s">
         <v>450</v>
@@ -13485,7 +13474,9 @@
         <v>0</v>
       </c>
       <c r="AI34" s="377"/>
-      <c r="AJ34" s="155"/>
+      <c r="AJ34" s="155">
+        <v>1</v>
+      </c>
       <c r="AK34" s="155"/>
       <c r="AL34" s="319"/>
       <c r="AM34" s="574">
@@ -13687,7 +13678,7 @@
     </row>
     <row r="37" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B37" s="24">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D37" s="384">
         <v>1</v>
@@ -13790,15 +13781,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="Q24:R24"/>
-    <mergeCell ref="P4:P20"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="Q20:R20"/>
     <mergeCell ref="AM1:AO1"/>
     <mergeCell ref="X1:Y1"/>
     <mergeCell ref="AE1:AG1"/>
@@ -13809,6 +13791,15 @@
     <mergeCell ref="P2:P3"/>
     <mergeCell ref="W2:W3"/>
     <mergeCell ref="T1:T3"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="Q24:R24"/>
+    <mergeCell ref="P4:P20"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="Q20:R20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -13876,7 +13867,7 @@
       <c r="V1" s="603" t="s">
         <v>70</v>
       </c>
-      <c r="W1" s="627"/>
+      <c r="W1" s="683"/>
       <c r="X1" s="62" t="s">
         <v>101</v>
       </c>
@@ -13895,7 +13886,7 @@
       <c r="AC1" s="116" t="s">
         <v>190</v>
       </c>
-      <c r="AD1" s="752" t="s">
+      <c r="AD1" s="759" t="s">
         <v>212</v>
       </c>
       <c r="AE1" s="116" t="s">
@@ -13912,10 +13903,10 @@
       <c r="E2" s="39" t="s">
         <v>73</v>
       </c>
-      <c r="F2" s="751" t="s">
+      <c r="F2" s="790" t="s">
         <v>74</v>
       </c>
-      <c r="G2" s="779" t="s">
+      <c r="G2" s="747" t="s">
         <v>44</v>
       </c>
       <c r="H2" s="40" t="s">
@@ -13943,10 +13934,10 @@
       <c r="U2" s="60" t="s">
         <v>105</v>
       </c>
-      <c r="V2" s="719" t="s">
+      <c r="V2" s="726" t="s">
         <v>120</v>
       </c>
-      <c r="W2" s="720"/>
+      <c r="W2" s="727"/>
       <c r="X2" s="64" t="s">
         <v>109</v>
       </c>
@@ -13965,7 +13956,7 @@
       <c r="AC2" s="117" t="s">
         <v>98</v>
       </c>
-      <c r="AD2" s="753"/>
+      <c r="AD2" s="760"/>
       <c r="AE2" s="64" t="s">
         <v>98</v>
       </c>
@@ -13984,8 +13975,8 @@
       <c r="E3" s="39" t="s">
         <v>79</v>
       </c>
-      <c r="F3" s="679"/>
-      <c r="G3" s="780"/>
+      <c r="F3" s="630"/>
+      <c r="G3" s="748"/>
       <c r="H3" s="40" t="s">
         <v>80</v>
       </c>
@@ -13996,13 +13987,13 @@
         <v>81</v>
       </c>
       <c r="N3" s="44"/>
-      <c r="O3" s="789" t="s">
+      <c r="O3" s="757" t="s">
         <v>44</v>
       </c>
-      <c r="P3" s="771" t="s">
+      <c r="P3" s="778" t="s">
         <v>218</v>
       </c>
-      <c r="Q3" s="772"/>
+      <c r="Q3" s="779"/>
       <c r="S3" s="57" t="s">
         <v>219</v>
       </c>
@@ -14012,15 +14003,15 @@
       <c r="W3" s="59" t="s">
         <v>104</v>
       </c>
-      <c r="AD3" s="753"/>
+      <c r="AD3" s="760"/>
     </row>
     <row r="4" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G4" s="780"/>
+      <c r="G4" s="748"/>
       <c r="H4" s="6"/>
       <c r="L4" s="687" t="s">
         <v>82</v>
       </c>
-      <c r="O4" s="790"/>
+      <c r="O4" s="758"/>
       <c r="T4" s="55" t="s">
         <v>97</v>
       </c>
@@ -14034,8 +14025,8 @@
         <v>194</v>
       </c>
       <c r="Z4" s="605"/>
-      <c r="AA4" s="627"/>
-      <c r="AD4" s="753"/>
+      <c r="AA4" s="683"/>
+      <c r="AD4" s="760"/>
     </row>
     <row r="5" spans="1:31" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C5" s="52" t="s">
@@ -14050,21 +14041,21 @@
       <c r="F5" s="66" t="s">
         <v>84</v>
       </c>
-      <c r="G5" s="780"/>
+      <c r="G5" s="748"/>
       <c r="H5" s="46" t="s">
         <v>75</v>
       </c>
-      <c r="K5" s="758" t="s">
+      <c r="K5" s="765" t="s">
         <v>216</v>
       </c>
-      <c r="L5" s="773"/>
+      <c r="L5" s="780"/>
       <c r="M5" s="2" t="s">
         <v>214</v>
       </c>
       <c r="N5" s="61" t="s">
         <v>213</v>
       </c>
-      <c r="O5" s="790"/>
+      <c r="O5" s="758"/>
       <c r="P5" s="108" t="s">
         <v>215</v>
       </c>
@@ -14080,11 +14071,11 @@
       <c r="U5" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="Y5" s="761" t="s">
+      <c r="Y5" s="768" t="s">
         <v>283</v>
       </c>
-      <c r="Z5" s="762"/>
-      <c r="AD5" s="753"/>
+      <c r="Z5" s="769"/>
+      <c r="AD5" s="760"/>
     </row>
     <row r="6" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C6" s="109"/>
@@ -14094,16 +14085,16 @@
       <c r="E6" s="45" t="s">
         <v>85</v>
       </c>
-      <c r="G6" s="780"/>
+      <c r="G6" s="748"/>
       <c r="H6" s="46" t="s">
         <v>80</v>
       </c>
       <c r="I6" s="23">
         <v>15</v>
       </c>
-      <c r="K6" s="759"/>
-      <c r="L6" s="773"/>
-      <c r="O6" s="790"/>
+      <c r="K6" s="766"/>
+      <c r="L6" s="780"/>
+      <c r="O6" s="758"/>
       <c r="T6" s="2" t="s">
         <v>100</v>
       </c>
@@ -14113,23 +14104,23 @@
       <c r="V6" s="21">
         <v>-1</v>
       </c>
-      <c r="AD6" s="753"/>
+      <c r="AD6" s="760"/>
     </row>
     <row r="7" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C7" s="110"/>
-      <c r="G7" s="780"/>
+      <c r="G7" s="748"/>
       <c r="H7" s="6"/>
-      <c r="K7" s="759"/>
-      <c r="L7" s="773"/>
+      <c r="K7" s="766"/>
+      <c r="L7" s="780"/>
       <c r="N7" s="21" t="s">
         <v>119</v>
       </c>
-      <c r="O7" s="790"/>
+      <c r="O7" s="758"/>
       <c r="P7" s="73"/>
       <c r="U7" s="104" t="s">
         <v>20</v>
       </c>
-      <c r="AD7" s="753"/>
+      <c r="AD7" s="760"/>
     </row>
     <row r="8" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C8" s="130"/>
@@ -14142,7 +14133,7 @@
       <c r="F8" s="66" t="s">
         <v>86</v>
       </c>
-      <c r="G8" s="780"/>
+      <c r="G8" s="748"/>
       <c r="H8" s="50" t="s">
         <v>75</v>
       </c>
@@ -14152,41 +14143,41 @@
       <c r="J8" s="111">
         <v>115</v>
       </c>
-      <c r="K8" s="759"/>
-      <c r="L8" s="773"/>
-      <c r="O8" s="790"/>
+      <c r="K8" s="766"/>
+      <c r="L8" s="780"/>
+      <c r="O8" s="758"/>
       <c r="P8" s="49"/>
-      <c r="S8" s="755" t="s">
+      <c r="S8" s="762" t="s">
         <v>211</v>
       </c>
-      <c r="T8" s="756"/>
-      <c r="U8" s="756"/>
-      <c r="V8" s="756"/>
-      <c r="W8" s="756"/>
-      <c r="X8" s="756"/>
-      <c r="Y8" s="756"/>
-      <c r="Z8" s="756"/>
-      <c r="AA8" s="756"/>
-      <c r="AB8" s="756"/>
-      <c r="AC8" s="757"/>
-      <c r="AD8" s="753"/>
+      <c r="T8" s="763"/>
+      <c r="U8" s="763"/>
+      <c r="V8" s="763"/>
+      <c r="W8" s="763"/>
+      <c r="X8" s="763"/>
+      <c r="Y8" s="763"/>
+      <c r="Z8" s="763"/>
+      <c r="AA8" s="763"/>
+      <c r="AB8" s="763"/>
+      <c r="AC8" s="764"/>
+      <c r="AD8" s="760"/>
     </row>
     <row r="9" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C9" s="745"/>
-      <c r="G9" s="780"/>
+      <c r="C9" s="784"/>
+      <c r="G9" s="748"/>
       <c r="H9" s="6"/>
-      <c r="K9" s="759"/>
-      <c r="L9" s="783" t="s">
+      <c r="K9" s="766"/>
+      <c r="L9" s="751" t="s">
         <v>217</v>
       </c>
-      <c r="M9" s="784"/>
-      <c r="N9" s="785"/>
-      <c r="O9" s="790"/>
+      <c r="M9" s="752"/>
+      <c r="N9" s="753"/>
+      <c r="O9" s="758"/>
       <c r="P9" s="75"/>
-      <c r="AD9" s="753"/>
+      <c r="AD9" s="760"/>
     </row>
     <row r="10" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C10" s="746"/>
+      <c r="C10" s="785"/>
       <c r="D10" s="23"/>
       <c r="E10" s="45" t="s">
         <v>87</v>
@@ -14194,7 +14185,7 @@
       <c r="F10" s="66" t="s">
         <v>88</v>
       </c>
-      <c r="G10" s="780"/>
+      <c r="G10" s="748"/>
       <c r="H10" s="51"/>
       <c r="I10" s="21" t="s">
         <v>80</v>
@@ -14202,33 +14193,33 @@
       <c r="J10" s="3">
         <v>15</v>
       </c>
-      <c r="K10" s="759"/>
-      <c r="M10" s="748" t="s">
+      <c r="K10" s="766"/>
+      <c r="M10" s="787" t="s">
         <v>89</v>
       </c>
-      <c r="N10" s="749"/>
-      <c r="O10" s="749"/>
-      <c r="P10" s="749"/>
-      <c r="Q10" s="749"/>
-      <c r="R10" s="749"/>
-      <c r="S10" s="749"/>
-      <c r="T10" s="749"/>
-      <c r="U10" s="749"/>
-      <c r="V10" s="749"/>
-      <c r="W10" s="749"/>
-      <c r="X10" s="749"/>
-      <c r="Y10" s="749"/>
-      <c r="Z10" s="749"/>
-      <c r="AA10" s="749"/>
-      <c r="AB10" s="749"/>
-      <c r="AC10" s="750"/>
-      <c r="AD10" s="753"/>
+      <c r="N10" s="788"/>
+      <c r="O10" s="788"/>
+      <c r="P10" s="788"/>
+      <c r="Q10" s="788"/>
+      <c r="R10" s="788"/>
+      <c r="S10" s="788"/>
+      <c r="T10" s="788"/>
+      <c r="U10" s="788"/>
+      <c r="V10" s="788"/>
+      <c r="W10" s="788"/>
+      <c r="X10" s="788"/>
+      <c r="Y10" s="788"/>
+      <c r="Z10" s="788"/>
+      <c r="AA10" s="788"/>
+      <c r="AB10" s="788"/>
+      <c r="AC10" s="789"/>
+      <c r="AD10" s="760"/>
     </row>
     <row r="11" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C11" s="747"/>
-      <c r="G11" s="780"/>
+      <c r="C11" s="786"/>
+      <c r="G11" s="748"/>
       <c r="H11" s="6"/>
-      <c r="K11" s="759"/>
+      <c r="K11" s="766"/>
       <c r="R11" s="52" t="s">
         <v>44</v>
       </c>
@@ -14236,17 +14227,17 @@
       <c r="Y11" s="68" t="s">
         <v>120</v>
       </c>
-      <c r="Z11" s="769" t="s">
+      <c r="Z11" s="776" t="s">
         <v>120</v>
       </c>
-      <c r="AA11" s="770"/>
+      <c r="AA11" s="777"/>
       <c r="AB11" s="52" t="s">
         <v>44</v>
       </c>
       <c r="AC11" s="118" t="s">
         <v>120</v>
       </c>
-      <c r="AD11" s="753"/>
+      <c r="AD11" s="760"/>
     </row>
     <row r="12" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C12" s="129"/>
@@ -14259,7 +14250,7 @@
       <c r="F12" s="66" t="s">
         <v>91</v>
       </c>
-      <c r="G12" s="780"/>
+      <c r="G12" s="748"/>
       <c r="H12" s="128"/>
       <c r="I12" s="19" t="s">
         <v>80</v>
@@ -14267,8 +14258,8 @@
       <c r="J12" s="3">
         <v>15</v>
       </c>
-      <c r="K12" s="759"/>
-      <c r="L12" s="774" t="s">
+      <c r="K12" s="766"/>
+      <c r="L12" s="781" t="s">
         <v>92</v>
       </c>
       <c r="M12" s="21" t="s">
@@ -14299,25 +14290,25 @@
         <v>115</v>
       </c>
       <c r="Y12" s="6"/>
-      <c r="AA12" s="763" t="s">
+      <c r="AA12" s="770" t="s">
         <v>125</v>
       </c>
-      <c r="AB12" s="764"/>
+      <c r="AB12" s="771"/>
       <c r="AC12" s="21" t="s">
         <v>231</v>
       </c>
-      <c r="AD12" s="753"/>
+      <c r="AD12" s="760"/>
     </row>
     <row r="13" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C13" s="745"/>
-      <c r="G13" s="780"/>
-      <c r="K13" s="759"/>
-      <c r="L13" s="775"/>
+      <c r="C13" s="784"/>
+      <c r="G13" s="748"/>
+      <c r="K13" s="766"/>
+      <c r="L13" s="782"/>
       <c r="M13" s="47"/>
-      <c r="Q13" s="782" t="s">
+      <c r="Q13" s="750" t="s">
         <v>209</v>
       </c>
-      <c r="R13" s="644"/>
+      <c r="R13" s="639"/>
       <c r="S13" s="599"/>
       <c r="T13" s="6"/>
       <c r="U13" s="96" t="s">
@@ -14326,17 +14317,17 @@
       <c r="X13" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="AA13" s="765"/>
-      <c r="AB13" s="766"/>
-      <c r="AD13" s="753"/>
+      <c r="AA13" s="772"/>
+      <c r="AB13" s="773"/>
+      <c r="AD13" s="760"/>
     </row>
     <row r="14" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="C14" s="747"/>
+      <c r="C14" s="786"/>
       <c r="D14" s="23"/>
-      <c r="G14" s="780"/>
+      <c r="G14" s="748"/>
       <c r="H14" s="125"/>
       <c r="I14" s="99" t="s">
         <v>44</v>
@@ -14344,8 +14335,8 @@
       <c r="J14" s="111">
         <v>115</v>
       </c>
-      <c r="K14" s="759"/>
-      <c r="L14" s="775"/>
+      <c r="K14" s="766"/>
+      <c r="L14" s="782"/>
       <c r="M14" s="21" t="s">
         <v>110</v>
       </c>
@@ -14366,9 +14357,9 @@
       <c r="Y14" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="AA14" s="765"/>
-      <c r="AB14" s="766"/>
-      <c r="AD14" s="753"/>
+      <c r="AA14" s="772"/>
+      <c r="AB14" s="773"/>
+      <c r="AD14" s="760"/>
     </row>
     <row r="15" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C15" s="130" t="s">
@@ -14383,19 +14374,19 @@
       <c r="F15" s="66" t="s">
         <v>93</v>
       </c>
-      <c r="G15" s="780"/>
+      <c r="G15" s="748"/>
       <c r="H15" s="2" t="s">
         <v>80</v>
       </c>
       <c r="I15" s="53" t="s">
         <v>80</v>
       </c>
-      <c r="K15" s="759"/>
-      <c r="L15" s="776"/>
-      <c r="Q15" s="782" t="s">
+      <c r="K15" s="766"/>
+      <c r="L15" s="783"/>
+      <c r="Q15" s="750" t="s">
         <v>210</v>
       </c>
-      <c r="R15" s="644"/>
+      <c r="R15" s="639"/>
       <c r="S15" s="599"/>
       <c r="T15" s="6"/>
       <c r="V15" s="68" t="s">
@@ -14404,14 +14395,14 @@
       <c r="X15" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="AA15" s="765"/>
-      <c r="AB15" s="766"/>
-      <c r="AD15" s="753"/>
+      <c r="AA15" s="772"/>
+      <c r="AB15" s="773"/>
+      <c r="AD15" s="760"/>
     </row>
     <row r="16" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C16" s="132"/>
-      <c r="G16" s="780"/>
-      <c r="K16" s="759"/>
+      <c r="G16" s="748"/>
+      <c r="K16" s="766"/>
       <c r="N16" s="47"/>
       <c r="O16" s="61" t="s">
         <v>108</v>
@@ -14430,24 +14421,24 @@
       <c r="Z16" s="76" t="s">
         <v>126</v>
       </c>
-      <c r="AA16" s="765"/>
-      <c r="AB16" s="766"/>
-      <c r="AD16" s="753"/>
+      <c r="AA16" s="772"/>
+      <c r="AB16" s="773"/>
+      <c r="AD16" s="760"/>
     </row>
     <row r="17" spans="3:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C17" s="109"/>
       <c r="E17" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="F17" s="777" t="s">
+      <c r="F17" s="745" t="s">
         <v>95</v>
       </c>
-      <c r="G17" s="780"/>
+      <c r="G17" s="748"/>
       <c r="H17" s="54"/>
       <c r="I17" s="133" t="s">
         <v>80</v>
       </c>
-      <c r="K17" s="759"/>
+      <c r="K17" s="766"/>
       <c r="S17" s="599"/>
       <c r="V17" s="68" t="s">
         <v>44</v>
@@ -14455,9 +14446,9 @@
       <c r="X17" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="AA17" s="765"/>
-      <c r="AB17" s="766"/>
-      <c r="AD17" s="753"/>
+      <c r="AA17" s="772"/>
+      <c r="AB17" s="773"/>
+      <c r="AD17" s="760"/>
     </row>
     <row r="18" spans="3:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C18" s="130"/>
@@ -14467,15 +14458,15 @@
       <c r="E18" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="F18" s="778"/>
-      <c r="G18" s="780"/>
+      <c r="F18" s="746"/>
+      <c r="G18" s="748"/>
       <c r="H18" s="108" t="s">
         <v>75</v>
       </c>
       <c r="I18" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="K18" s="759"/>
+      <c r="K18" s="766"/>
       <c r="O18" s="64" t="s">
         <v>114</v>
       </c>
@@ -14486,42 +14477,39 @@
       <c r="X18" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="AA18" s="767"/>
-      <c r="AB18" s="768"/>
-      <c r="AD18" s="753"/>
+      <c r="AA18" s="774"/>
+      <c r="AB18" s="775"/>
+      <c r="AD18" s="760"/>
     </row>
     <row r="19" spans="3:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F19" s="64" t="s">
         <v>208</v>
       </c>
-      <c r="G19" s="781"/>
-      <c r="K19" s="760"/>
+      <c r="G19" s="749"/>
+      <c r="K19" s="767"/>
       <c r="Q19" s="68" t="s">
         <v>44</v>
       </c>
-      <c r="R19" s="786" t="s">
+      <c r="R19" s="754" t="s">
         <v>123</v>
       </c>
-      <c r="S19" s="787"/>
-      <c r="T19" s="788"/>
+      <c r="S19" s="755"/>
+      <c r="T19" s="756"/>
       <c r="V19" s="77" t="s">
         <v>114</v>
       </c>
       <c r="Y19" s="19" t="s">
         <v>124</v>
       </c>
-      <c r="AD19" s="754"/>
+      <c r="AD19" s="761"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="G2:G19"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="L9:N9"/>
-    <mergeCell ref="R19:T19"/>
-    <mergeCell ref="S12:S18"/>
-    <mergeCell ref="O3:O9"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="V2:W2"/>
+    <mergeCell ref="M10:AC10"/>
+    <mergeCell ref="F2:F3"/>
     <mergeCell ref="AD1:AD19"/>
     <mergeCell ref="S8:AC8"/>
     <mergeCell ref="K5:K19"/>
@@ -14533,11 +14521,14 @@
     <mergeCell ref="P3:Q3"/>
     <mergeCell ref="L4:L8"/>
     <mergeCell ref="L12:L15"/>
-    <mergeCell ref="C9:C11"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="V2:W2"/>
-    <mergeCell ref="M10:AC10"/>
-    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="G2:G19"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="L9:N9"/>
+    <mergeCell ref="R19:T19"/>
+    <mergeCell ref="S12:S18"/>
+    <mergeCell ref="O3:O9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/System_2.1.8.xlsx
+++ b/System_2.1.8.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Work_For_\Work\Running AppS\System_Work_RW\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75F0D74C-6617-4A66-AAD2-D1B6D0BE5154}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65E29407-FE45-4ADD-84E7-3AF45E4BCA98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BoardRW" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1115" uniqueCount="625">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1115" uniqueCount="624">
   <si>
     <t>Zone</t>
   </si>
@@ -1904,16 +1904,13 @@
     <t>3M8F</t>
   </si>
   <si>
-    <t>zee N</t>
-  </si>
-  <si>
     <t>polimer</t>
   </si>
   <si>
     <t>timesnow</t>
   </si>
   <si>
-    <t>2F Reserved</t>
+    <t>7F Reserved</t>
   </si>
 </sst>
 </file>
@@ -5036,6 +5033,159 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="49" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="49" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="49" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -5054,12 +5204,6 @@
     <xf numFmtId="0" fontId="18" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="13" fillId="27" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5114,169 +5258,61 @@
     <xf numFmtId="0" fontId="3" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="36" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="36" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="36" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="49" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="49" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="49" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="27" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5318,43 +5354,70 @@
     <xf numFmtId="0" fontId="3" fillId="36" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="36" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="36" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="36" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    <xf numFmtId="0" fontId="3" fillId="43" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="43" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="43" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="40" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="40" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="40" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="52" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="52" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="14" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="14" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="35" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5378,112 +5441,25 @@
     <xf numFmtId="0" fontId="29" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="43" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="43" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="43" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="40" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="40" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="40" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="52" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="52" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="14" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="14" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5561,25 +5537,46 @@
     <xf numFmtId="0" fontId="3" fillId="21" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -5878,7 +5875,7 @@
   <dimension ref="B1:X28"/>
   <sheetViews>
     <sheetView topLeftCell="B9" workbookViewId="0">
-      <selection activeCell="X14" sqref="X14"/>
+      <selection activeCell="X15" sqref="X15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6633,7 +6630,7 @@
       <c r="P22" s="315"/>
       <c r="T22" s="607"/>
       <c r="X22" s="19" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="23" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6952,7 +6949,7 @@
       <c r="H1" s="97" t="s">
         <v>344</v>
       </c>
-      <c r="I1" s="659" t="s">
+      <c r="I1" s="613" t="s">
         <v>370</v>
       </c>
       <c r="J1" s="2" t="s">
@@ -6988,7 +6985,7 @@
       <c r="X1" s="433" t="s">
         <v>155</v>
       </c>
-      <c r="Y1" s="653" t="s">
+      <c r="Y1" s="657" t="s">
         <v>530</v>
       </c>
       <c r="Z1" s="409">
@@ -7013,7 +7010,7 @@
         <v>499</v>
       </c>
       <c r="AM1" s="405"/>
-      <c r="AN1" s="635"/>
+      <c r="AN1" s="640"/>
       <c r="AO1" s="340" t="s">
         <v>470</v>
       </c>
@@ -7022,23 +7019,23 @@
       </c>
     </row>
     <row r="2" spans="1:43" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="617">
+      <c r="A2" s="666">
         <f ca="1">TODAY()</f>
         <v>45284</v>
       </c>
-      <c r="B2" s="619" t="s">
+      <c r="B2" s="668" t="s">
         <v>371</v>
       </c>
-      <c r="C2" s="615" t="s">
+      <c r="C2" s="645" t="s">
         <v>358</v>
       </c>
-      <c r="D2" s="621" t="s">
+      <c r="D2" s="670" t="s">
         <v>356</v>
       </c>
-      <c r="E2" s="669" t="s">
+      <c r="E2" s="609" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="640" t="s">
+      <c r="F2" s="619" t="s">
         <v>102</v>
       </c>
       <c r="G2" s="396" t="s">
@@ -7047,31 +7044,31 @@
       <c r="H2" s="80" t="s">
         <v>33</v>
       </c>
-      <c r="I2" s="660"/>
+      <c r="I2" s="614"/>
       <c r="J2" s="81" t="s">
         <v>76</v>
       </c>
-      <c r="K2" s="671" t="s">
+      <c r="K2" s="611" t="s">
         <v>343</v>
       </c>
-      <c r="L2" s="672"/>
-      <c r="M2" s="640" t="s">
+      <c r="L2" s="612"/>
+      <c r="M2" s="619" t="s">
         <v>102</v>
       </c>
       <c r="N2" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="O2" s="644" t="s">
+      <c r="O2" s="649" t="s">
         <v>102</v>
       </c>
       <c r="P2" s="85" t="s">
         <v>147</v>
       </c>
-      <c r="Q2" s="615" t="s">
+      <c r="Q2" s="645" t="s">
         <v>143</v>
       </c>
       <c r="R2" s="598"/>
-      <c r="S2" s="657" t="s">
+      <c r="S2" s="634" t="s">
         <v>148</v>
       </c>
       <c r="T2" s="89"/>
@@ -7081,7 +7078,7 @@
       <c r="X2" s="434" t="s">
         <v>156</v>
       </c>
-      <c r="Y2" s="654"/>
+      <c r="Y2" s="658"/>
       <c r="Z2" s="410">
         <v>1</v>
       </c>
@@ -7104,15 +7101,15 @@
         <v>464</v>
       </c>
       <c r="AM2" s="431"/>
-      <c r="AN2" s="636"/>
+      <c r="AN2" s="641"/>
     </row>
     <row r="3" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="618"/>
-      <c r="B3" s="620"/>
-      <c r="C3" s="616"/>
-      <c r="D3" s="622"/>
-      <c r="E3" s="670"/>
-      <c r="F3" s="641"/>
+      <c r="A3" s="667"/>
+      <c r="B3" s="669"/>
+      <c r="C3" s="646"/>
+      <c r="D3" s="671"/>
+      <c r="E3" s="610"/>
+      <c r="F3" s="620"/>
       <c r="G3" s="397" t="s">
         <v>28</v>
       </c>
@@ -7131,17 +7128,17 @@
       <c r="L3" s="203" t="s">
         <v>107</v>
       </c>
-      <c r="M3" s="641"/>
+      <c r="M3" s="620"/>
       <c r="N3" s="69" t="s">
         <v>146</v>
       </c>
-      <c r="O3" s="645"/>
+      <c r="O3" s="650"/>
       <c r="P3" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="Q3" s="616"/>
+      <c r="Q3" s="646"/>
       <c r="R3" s="600"/>
-      <c r="S3" s="658"/>
+      <c r="S3" s="636"/>
       <c r="T3" s="89"/>
       <c r="U3" s="124"/>
       <c r="V3" s="120"/>
@@ -7149,7 +7146,7 @@
       <c r="X3" s="434" t="s">
         <v>157</v>
       </c>
-      <c r="Y3" s="654"/>
+      <c r="Y3" s="658"/>
       <c r="Z3" s="411">
         <v>1</v>
       </c>
@@ -7158,7 +7155,7 @@
       <c r="AC3" s="100" t="s">
         <v>481</v>
       </c>
-      <c r="AD3" s="656" t="s">
+      <c r="AD3" s="631" t="s">
         <v>456</v>
       </c>
       <c r="AE3" s="259"/>
@@ -7170,16 +7167,16 @@
       <c r="AK3" s="259"/>
       <c r="AL3" s="16"/>
       <c r="AM3" s="431"/>
-      <c r="AN3" s="636"/>
+      <c r="AN3" s="641"/>
     </row>
     <row r="4" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="240" t="s">
         <v>183</v>
       </c>
-      <c r="B4" s="633" t="s">
+      <c r="B4" s="682" t="s">
         <v>374</v>
       </c>
-      <c r="C4" s="615" t="s">
+      <c r="C4" s="645" t="s">
         <v>154</v>
       </c>
       <c r="D4" s="349" t="s">
@@ -7188,7 +7185,7 @@
       <c r="E4" s="380">
         <v>2</v>
       </c>
-      <c r="F4" s="641"/>
+      <c r="F4" s="620"/>
       <c r="G4" s="383" t="s">
         <v>202</v>
       </c>
@@ -7205,11 +7202,11 @@
         <v>150</v>
       </c>
       <c r="L4" s="206"/>
-      <c r="M4" s="641"/>
+      <c r="M4" s="620"/>
       <c r="N4" s="176" t="s">
         <v>69</v>
       </c>
-      <c r="O4" s="645"/>
+      <c r="O4" s="650"/>
       <c r="P4" s="2" t="s">
         <v>191</v>
       </c>
@@ -7231,12 +7228,12 @@
       <c r="X4" s="434" t="s">
         <v>158</v>
       </c>
-      <c r="Y4" s="654"/>
+      <c r="Y4" s="658"/>
       <c r="Z4" s="412"/>
       <c r="AA4" s="309"/>
       <c r="AB4" s="211"/>
       <c r="AC4" s="16"/>
-      <c r="AD4" s="656"/>
+      <c r="AD4" s="631"/>
       <c r="AE4" s="259"/>
       <c r="AF4" s="259"/>
       <c r="AG4" s="16"/>
@@ -7246,37 +7243,37 @@
       <c r="AK4" s="259"/>
       <c r="AL4" s="16"/>
       <c r="AM4" s="431"/>
-      <c r="AN4" s="636"/>
+      <c r="AN4" s="641"/>
       <c r="AO4" s="340" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="659" t="s">
+      <c r="A5" s="613" t="s">
         <v>419</v>
       </c>
-      <c r="B5" s="634"/>
-      <c r="C5" s="616"/>
+      <c r="B5" s="683"/>
+      <c r="C5" s="646"/>
       <c r="D5" s="61" t="s">
         <v>153</v>
       </c>
       <c r="E5" s="381">
         <v>1</v>
       </c>
-      <c r="F5" s="641"/>
-      <c r="G5" s="625" t="s">
+      <c r="F5" s="620"/>
+      <c r="G5" s="674" t="s">
         <v>192</v>
       </c>
-      <c r="H5" s="625"/>
-      <c r="I5" s="625"/>
-      <c r="J5" s="625"/>
-      <c r="K5" s="625"/>
-      <c r="L5" s="626"/>
-      <c r="M5" s="641"/>
+      <c r="H5" s="674"/>
+      <c r="I5" s="674"/>
+      <c r="J5" s="674"/>
+      <c r="K5" s="674"/>
+      <c r="L5" s="675"/>
+      <c r="M5" s="620"/>
       <c r="N5" s="21">
         <v>8</v>
       </c>
-      <c r="O5" s="645"/>
+      <c r="O5" s="650"/>
       <c r="T5" s="89"/>
       <c r="U5" s="124"/>
       <c r="V5" s="120"/>
@@ -7284,7 +7281,7 @@
       <c r="X5" s="434" t="s">
         <v>159</v>
       </c>
-      <c r="Y5" s="654"/>
+      <c r="Y5" s="658"/>
       <c r="Z5" s="412">
         <v>1</v>
       </c>
@@ -7307,24 +7304,24 @@
       <c r="AK5" s="259"/>
       <c r="AL5" s="80"/>
       <c r="AM5" s="431"/>
-      <c r="AN5" s="636"/>
+      <c r="AN5" s="641"/>
     </row>
     <row r="6" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="660"/>
-      <c r="B6" s="631" t="s">
+      <c r="A6" s="614"/>
+      <c r="B6" s="680" t="s">
         <v>177</v>
       </c>
-      <c r="C6" s="661"/>
-      <c r="D6" s="662"/>
-      <c r="F6" s="641"/>
-      <c r="G6" s="627"/>
-      <c r="H6" s="627"/>
-      <c r="I6" s="627"/>
-      <c r="J6" s="627"/>
-      <c r="K6" s="627"/>
-      <c r="L6" s="628"/>
-      <c r="M6" s="641"/>
-      <c r="O6" s="645"/>
+      <c r="C6" s="628"/>
+      <c r="D6" s="629"/>
+      <c r="F6" s="620"/>
+      <c r="G6" s="676"/>
+      <c r="H6" s="676"/>
+      <c r="I6" s="676"/>
+      <c r="J6" s="676"/>
+      <c r="K6" s="676"/>
+      <c r="L6" s="677"/>
+      <c r="M6" s="620"/>
+      <c r="O6" s="650"/>
       <c r="T6" s="89"/>
       <c r="U6" s="124"/>
       <c r="V6" s="98" t="s">
@@ -7334,7 +7331,7 @@
       <c r="X6" s="434" t="s">
         <v>160</v>
       </c>
-      <c r="Y6" s="654"/>
+      <c r="Y6" s="658"/>
       <c r="Z6" s="410">
         <v>1</v>
       </c>
@@ -7348,16 +7345,16 @@
       <c r="AF6" s="259"/>
       <c r="AG6" s="259"/>
       <c r="AH6" s="259"/>
-      <c r="AI6" s="650"/>
+      <c r="AI6" s="630"/>
       <c r="AJ6" s="444" t="s">
         <v>459</v>
       </c>
-      <c r="AK6" s="650" t="s">
+      <c r="AK6" s="630" t="s">
         <v>252</v>
       </c>
       <c r="AL6" s="259"/>
       <c r="AM6" s="431"/>
-      <c r="AN6" s="636"/>
+      <c r="AN6" s="641"/>
       <c r="AO6" s="340" t="s">
         <v>471</v>
       </c>
@@ -7366,7 +7363,7 @@
       <c r="A7" s="234" t="s">
         <v>574</v>
       </c>
-      <c r="B7" s="632"/>
+      <c r="B7" s="681"/>
       <c r="C7" s="204" t="s">
         <v>375</v>
       </c>
@@ -7376,7 +7373,7 @@
       <c r="E7" s="267">
         <v>3</v>
       </c>
-      <c r="F7" s="641"/>
+      <c r="F7" s="620"/>
       <c r="G7" s="398">
         <v>0</v>
       </c>
@@ -7395,8 +7392,8 @@
       <c r="L7" s="214">
         <v>0</v>
       </c>
-      <c r="M7" s="641"/>
-      <c r="O7" s="645"/>
+      <c r="M7" s="620"/>
+      <c r="O7" s="650"/>
       <c r="R7" s="99" t="s">
         <v>44</v>
       </c>
@@ -7410,7 +7407,7 @@
       <c r="X7" s="434" t="s">
         <v>161</v>
       </c>
-      <c r="Y7" s="654"/>
+      <c r="Y7" s="658"/>
       <c r="Z7" s="410">
         <v>1</v>
       </c>
@@ -7420,18 +7417,18 @@
       <c r="AD7" s="16"/>
       <c r="AE7" s="259"/>
       <c r="AF7" s="259"/>
-      <c r="AG7" s="656" t="s">
+      <c r="AG7" s="631" t="s">
         <v>455</v>
       </c>
       <c r="AH7" s="259"/>
-      <c r="AI7" s="650"/>
+      <c r="AI7" s="630"/>
       <c r="AJ7" s="259"/>
-      <c r="AK7" s="650"/>
+      <c r="AK7" s="630"/>
       <c r="AL7" s="80" t="s">
         <v>497</v>
       </c>
       <c r="AM7" s="431"/>
-      <c r="AN7" s="636"/>
+      <c r="AN7" s="641"/>
       <c r="AP7" s="76" t="s">
         <v>472</v>
       </c>
@@ -7448,27 +7445,27 @@
         <f>SUM(G7:N9)</f>
         <v>15</v>
       </c>
-      <c r="F8" s="641"/>
-      <c r="G8" s="626">
-        <v>0</v>
-      </c>
-      <c r="H8" s="623" t="s">
+      <c r="F8" s="620"/>
+      <c r="G8" s="675">
+        <v>0</v>
+      </c>
+      <c r="H8" s="672" t="s">
         <v>104</v>
       </c>
       <c r="I8" s="598">
         <v>0</v>
       </c>
-      <c r="J8" s="623" t="s">
+      <c r="J8" s="672" t="s">
         <v>104</v>
       </c>
-      <c r="K8" s="629"/>
-      <c r="L8" s="663"/>
-      <c r="M8" s="642"/>
-      <c r="N8" s="666">
+      <c r="K8" s="678"/>
+      <c r="L8" s="632"/>
+      <c r="M8" s="647"/>
+      <c r="N8" s="637">
         <f>N5+N11</f>
         <v>15</v>
       </c>
-      <c r="O8" s="645"/>
+      <c r="O8" s="650"/>
       <c r="T8" s="103" t="s">
         <v>44</v>
       </c>
@@ -7478,7 +7475,7 @@
       <c r="X8" s="434" t="s">
         <v>162</v>
       </c>
-      <c r="Y8" s="654"/>
+      <c r="Y8" s="658"/>
       <c r="Z8" s="412"/>
       <c r="AA8" s="309"/>
       <c r="AB8" s="211"/>
@@ -7486,14 +7483,14 @@
       <c r="AD8" s="16"/>
       <c r="AE8" s="259"/>
       <c r="AF8" s="259"/>
-      <c r="AG8" s="656"/>
+      <c r="AG8" s="631"/>
       <c r="AH8" s="259"/>
-      <c r="AI8" s="650"/>
+      <c r="AI8" s="630"/>
       <c r="AJ8" s="259"/>
       <c r="AK8" s="259"/>
       <c r="AL8" s="259"/>
       <c r="AM8" s="431"/>
-      <c r="AN8" s="636"/>
+      <c r="AN8" s="641"/>
     </row>
     <row r="9" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="234" t="s">
@@ -7508,17 +7505,17 @@
       <c r="D9" s="350" t="s">
         <v>282</v>
       </c>
-      <c r="F9" s="641"/>
-      <c r="G9" s="628"/>
-      <c r="H9" s="624"/>
+      <c r="F9" s="620"/>
+      <c r="G9" s="677"/>
+      <c r="H9" s="673"/>
       <c r="I9" s="600"/>
-      <c r="J9" s="624"/>
-      <c r="K9" s="630"/>
-      <c r="L9" s="664"/>
-      <c r="M9" s="643"/>
-      <c r="N9" s="667"/>
-      <c r="O9" s="646"/>
-      <c r="S9" s="657" t="s">
+      <c r="J9" s="673"/>
+      <c r="K9" s="679"/>
+      <c r="L9" s="633"/>
+      <c r="M9" s="648"/>
+      <c r="N9" s="638"/>
+      <c r="O9" s="651"/>
+      <c r="S9" s="634" t="s">
         <v>61</v>
       </c>
       <c r="T9" s="89"/>
@@ -7530,7 +7527,7 @@
       <c r="X9" s="434" t="s">
         <v>163</v>
       </c>
-      <c r="Y9" s="654"/>
+      <c r="Y9" s="658"/>
       <c r="Z9" s="413"/>
       <c r="AA9" s="309"/>
       <c r="AB9" s="211"/>
@@ -7540,16 +7537,16 @@
       </c>
       <c r="AE9" s="259"/>
       <c r="AF9" s="259"/>
-      <c r="AG9" s="656"/>
+      <c r="AG9" s="631"/>
       <c r="AH9" s="259"/>
-      <c r="AI9" s="650"/>
+      <c r="AI9" s="630"/>
       <c r="AJ9" s="80"/>
-      <c r="AK9" s="650" t="s">
+      <c r="AK9" s="630" t="s">
         <v>252</v>
       </c>
       <c r="AL9" s="259"/>
       <c r="AM9" s="431"/>
-      <c r="AN9" s="636"/>
+      <c r="AN9" s="641"/>
       <c r="AP9" s="2" t="s">
         <v>509</v>
       </c>
@@ -7564,22 +7561,22 @@
       <c r="D10" s="142"/>
       <c r="E10" s="239">
         <f>Boat!W8</f>
-        <v>44</v>
-      </c>
-      <c r="F10" s="641"/>
+        <v>46</v>
+      </c>
+      <c r="F10" s="620"/>
       <c r="N10" s="421" t="s">
         <v>397</v>
       </c>
-      <c r="O10" s="678" t="s">
+      <c r="O10" s="622" t="s">
         <v>102</v>
       </c>
-      <c r="P10" s="647" t="s">
+      <c r="P10" s="652" t="s">
         <v>401</v>
       </c>
       <c r="R10" s="74" t="s">
         <v>44</v>
       </c>
-      <c r="S10" s="665"/>
+      <c r="S10" s="635"/>
       <c r="T10" s="89"/>
       <c r="U10" s="123" t="s">
         <v>176</v>
@@ -7591,7 +7588,7 @@
       <c r="X10" s="434" t="s">
         <v>164</v>
       </c>
-      <c r="Y10" s="654"/>
+      <c r="Y10" s="658"/>
       <c r="Z10" s="412">
         <v>0</v>
       </c>
@@ -7609,16 +7606,16 @@
       <c r="AF10" s="240" t="s">
         <v>312</v>
       </c>
-      <c r="AG10" s="656"/>
+      <c r="AG10" s="631"/>
       <c r="AH10" s="80"/>
-      <c r="AI10" s="650"/>
+      <c r="AI10" s="630"/>
       <c r="AJ10" s="259"/>
-      <c r="AK10" s="650"/>
+      <c r="AK10" s="630"/>
       <c r="AL10" s="259"/>
       <c r="AM10" s="445" t="s">
         <v>319</v>
       </c>
-      <c r="AN10" s="636"/>
+      <c r="AN10" s="641"/>
       <c r="AO10" s="206" t="s">
         <v>94</v>
       </c>
@@ -7636,18 +7633,18 @@
       <c r="D11" s="172" t="s">
         <v>356</v>
       </c>
-      <c r="F11" s="641"/>
+      <c r="F11" s="620"/>
       <c r="M11" s="6"/>
       <c r="N11" s="117">
         <v>7</v>
       </c>
-      <c r="O11" s="679"/>
-      <c r="P11" s="648"/>
+      <c r="O11" s="623"/>
+      <c r="P11" s="653"/>
       <c r="Q11" s="65"/>
       <c r="R11" s="120" t="s">
         <v>221</v>
       </c>
-      <c r="S11" s="665"/>
+      <c r="S11" s="635"/>
       <c r="T11" s="102" t="s">
         <v>44</v>
       </c>
@@ -7657,7 +7654,7 @@
       <c r="X11" s="434" t="s">
         <v>165</v>
       </c>
-      <c r="Y11" s="654"/>
+      <c r="Y11" s="658"/>
       <c r="Z11" s="412"/>
       <c r="AA11" s="309">
         <v>1</v>
@@ -7671,14 +7668,14 @@
       <c r="AF11" s="259" t="s">
         <v>477</v>
       </c>
-      <c r="AG11" s="656"/>
+      <c r="AG11" s="631"/>
       <c r="AH11" s="259"/>
       <c r="AI11" s="70"/>
       <c r="AJ11" s="259"/>
       <c r="AK11" s="259"/>
       <c r="AL11" s="259"/>
       <c r="AM11" s="431"/>
-      <c r="AN11" s="636"/>
+      <c r="AN11" s="641"/>
       <c r="AP11" s="76" t="s">
         <v>485</v>
       </c>
@@ -7697,7 +7694,7 @@
       <c r="E12" s="226">
         <v>3</v>
       </c>
-      <c r="F12" s="641"/>
+      <c r="F12" s="620"/>
       <c r="G12" s="339" t="s">
         <v>401</v>
       </c>
@@ -7706,16 +7703,16 @@
       </c>
       <c r="I12" s="605"/>
       <c r="J12" s="605"/>
-      <c r="K12" s="683"/>
+      <c r="K12" s="627"/>
       <c r="L12" s="205"/>
       <c r="M12" s="205"/>
       <c r="N12" s="205"/>
-      <c r="O12" s="679"/>
-      <c r="P12" s="648"/>
+      <c r="O12" s="623"/>
+      <c r="P12" s="653"/>
       <c r="R12" s="122" t="s">
         <v>180</v>
       </c>
-      <c r="S12" s="658"/>
+      <c r="S12" s="636"/>
       <c r="T12" s="101" t="s">
         <v>44</v>
       </c>
@@ -7725,7 +7722,7 @@
       <c r="X12" s="434" t="s">
         <v>166</v>
       </c>
-      <c r="Y12" s="654"/>
+      <c r="Y12" s="658"/>
       <c r="Z12" s="410">
         <v>1</v>
       </c>
@@ -7736,16 +7733,16 @@
       <c r="AC12" s="100" t="s">
         <v>482</v>
       </c>
-      <c r="AD12" s="668" t="s">
+      <c r="AD12" s="639" t="s">
         <v>241</v>
       </c>
       <c r="AE12" s="444" t="s">
         <v>240</v>
       </c>
-      <c r="AF12" s="656" t="s">
+      <c r="AF12" s="631" t="s">
         <v>229</v>
       </c>
-      <c r="AG12" s="656"/>
+      <c r="AG12" s="631"/>
       <c r="AH12" s="240" t="s">
         <v>260</v>
       </c>
@@ -7755,10 +7752,10 @@
       <c r="AJ12" s="259"/>
       <c r="AK12" s="259"/>
       <c r="AL12" s="259"/>
-      <c r="AM12" s="651" t="s">
+      <c r="AM12" s="655" t="s">
         <v>250</v>
       </c>
-      <c r="AN12" s="636"/>
+      <c r="AN12" s="641"/>
       <c r="AO12" s="340" t="s">
         <v>96</v>
       </c>
@@ -7770,17 +7767,17 @@
       <c r="E13" s="451">
         <v>-3</v>
       </c>
-      <c r="F13" s="641"/>
+      <c r="F13" s="620"/>
       <c r="G13" s="605" t="s">
         <v>431</v>
       </c>
       <c r="H13" s="605"/>
       <c r="I13" s="605"/>
-      <c r="J13" s="683"/>
+      <c r="J13" s="627"/>
       <c r="M13" s="6"/>
       <c r="N13" s="6"/>
-      <c r="O13" s="679"/>
-      <c r="P13" s="649"/>
+      <c r="O13" s="623"/>
+      <c r="P13" s="654"/>
       <c r="T13" s="105" t="s">
         <v>44</v>
       </c>
@@ -7790,7 +7787,7 @@
       <c r="X13" s="434" t="s">
         <v>167</v>
       </c>
-      <c r="Y13" s="654"/>
+      <c r="Y13" s="658"/>
       <c r="Z13" s="410">
         <v>1</v>
       </c>
@@ -7801,8 +7798,8 @@
         <v>501</v>
       </c>
       <c r="AC13" s="16"/>
-      <c r="AD13" s="668"/>
-      <c r="AF13" s="656"/>
+      <c r="AD13" s="639"/>
+      <c r="AF13" s="631"/>
       <c r="AG13" s="80"/>
       <c r="AH13" s="240" t="s">
         <v>309</v>
@@ -7813,8 +7810,8 @@
       <c r="AJ13" s="80"/>
       <c r="AK13" s="259"/>
       <c r="AL13" s="259"/>
-      <c r="AM13" s="651"/>
-      <c r="AN13" s="636"/>
+      <c r="AM13" s="655"/>
+      <c r="AN13" s="641"/>
     </row>
     <row r="14" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="453"/>
@@ -7822,18 +7819,18 @@
       <c r="C14" s="462"/>
       <c r="D14" s="455"/>
       <c r="E14" s="456"/>
-      <c r="F14" s="641"/>
+      <c r="F14" s="620"/>
       <c r="G14" s="605" t="s">
         <v>430</v>
       </c>
       <c r="H14" s="605"/>
       <c r="I14" s="605"/>
-      <c r="J14" s="683"/>
+      <c r="J14" s="627"/>
       <c r="K14" s="2">
         <v>12</v>
       </c>
       <c r="N14" s="6"/>
-      <c r="O14" s="679"/>
+      <c r="O14" s="623"/>
       <c r="Q14" s="61" t="s">
         <v>534</v>
       </c>
@@ -7847,24 +7844,24 @@
       <c r="X14" s="434" t="s">
         <v>168</v>
       </c>
-      <c r="Y14" s="654"/>
+      <c r="Y14" s="658"/>
       <c r="Z14" s="410">
         <v>1</v>
       </c>
       <c r="AA14" s="309"/>
       <c r="AB14" s="211"/>
       <c r="AC14" s="16"/>
-      <c r="AD14" s="668"/>
+      <c r="AD14" s="639"/>
       <c r="AE14" s="259"/>
-      <c r="AF14" s="656"/>
+      <c r="AF14" s="631"/>
       <c r="AG14" s="259"/>
       <c r="AH14" s="259"/>
       <c r="AI14" s="70"/>
       <c r="AJ14" s="259"/>
       <c r="AK14" s="259"/>
       <c r="AL14" s="259"/>
-      <c r="AM14" s="651"/>
-      <c r="AN14" s="636"/>
+      <c r="AM14" s="655"/>
+      <c r="AN14" s="641"/>
     </row>
     <row r="15" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="452" t="s">
@@ -7873,8 +7870,8 @@
       <c r="C15" s="598" t="s">
         <v>374</v>
       </c>
-      <c r="F15" s="641"/>
-      <c r="O15" s="679"/>
+      <c r="F15" s="620"/>
+      <c r="O15" s="623"/>
       <c r="R15" s="99" t="s">
         <v>44</v>
       </c>
@@ -7887,7 +7884,7 @@
       <c r="X15" s="434" t="s">
         <v>169</v>
       </c>
-      <c r="Y15" s="654"/>
+      <c r="Y15" s="658"/>
       <c r="Z15" s="412">
         <v>1</v>
       </c>
@@ -7896,8 +7893,8 @@
       <c r="AC15" s="76" t="s">
         <v>480</v>
       </c>
-      <c r="AD15" s="668"/>
-      <c r="AF15" s="656"/>
+      <c r="AD15" s="639"/>
+      <c r="AF15" s="631"/>
       <c r="AG15" s="80"/>
       <c r="AH15" s="240" t="s">
         <v>449</v>
@@ -7910,8 +7907,8 @@
       </c>
       <c r="AK15" s="259"/>
       <c r="AL15" s="259"/>
-      <c r="AM15" s="651"/>
-      <c r="AN15" s="636"/>
+      <c r="AM15" s="655"/>
+      <c r="AN15" s="641"/>
       <c r="AP15" s="76" t="s">
         <v>73</v>
       </c>
@@ -7933,13 +7930,13 @@
       <c r="E16" s="226">
         <v>1</v>
       </c>
-      <c r="F16" s="641"/>
+      <c r="F16" s="620"/>
       <c r="G16" s="339" t="s">
         <v>489</v>
       </c>
       <c r="I16" s="472"/>
       <c r="J16" s="20"/>
-      <c r="O16" s="679"/>
+      <c r="O16" s="623"/>
       <c r="R16" s="438" t="s">
         <v>184</v>
       </c>
@@ -7950,7 +7947,7 @@
       <c r="X16" s="434" t="s">
         <v>170</v>
       </c>
-      <c r="Y16" s="654"/>
+      <c r="Y16" s="658"/>
       <c r="Z16" s="410">
         <v>1</v>
       </c>
@@ -7971,18 +7968,18 @@
       <c r="AM16" s="431" t="s">
         <v>318</v>
       </c>
-      <c r="AN16" s="636"/>
+      <c r="AN16" s="641"/>
       <c r="AP16" s="76" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="17" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="80"/>
-      <c r="F17" s="641"/>
+      <c r="F17" s="620"/>
       <c r="I17" s="473"/>
       <c r="J17" s="20"/>
       <c r="N17" s="6"/>
-      <c r="O17" s="679"/>
+      <c r="O17" s="623"/>
       <c r="Q17" s="21" t="s">
         <v>532</v>
       </c>
@@ -8002,7 +7999,7 @@
       <c r="X17" s="434" t="s">
         <v>171</v>
       </c>
-      <c r="Y17" s="654"/>
+      <c r="Y17" s="658"/>
       <c r="Z17" s="412"/>
       <c r="AA17" s="309"/>
       <c r="AB17" s="211"/>
@@ -8027,7 +8024,7 @@
       <c r="AK17" s="259"/>
       <c r="AL17" s="80"/>
       <c r="AM17" s="431"/>
-      <c r="AN17" s="636"/>
+      <c r="AN17" s="641"/>
       <c r="AO17" s="206" t="s">
         <v>498</v>
       </c>
@@ -8051,21 +8048,21 @@
       <c r="E18" s="99" t="s">
         <v>44</v>
       </c>
-      <c r="F18" s="641"/>
+      <c r="F18" s="620"/>
       <c r="G18" s="339" t="s">
         <v>529</v>
       </c>
       <c r="I18" s="24"/>
       <c r="J18" s="20"/>
-      <c r="O18" s="679"/>
+      <c r="O18" s="623"/>
       <c r="Q18" s="112"/>
-      <c r="R18" s="673" t="s">
+      <c r="R18" s="615" t="s">
         <v>537</v>
       </c>
       <c r="T18" s="100" t="s">
         <v>44</v>
       </c>
-      <c r="U18" s="612" t="s">
+      <c r="U18" s="663" t="s">
         <v>44</v>
       </c>
       <c r="V18" s="120"/>
@@ -8075,7 +8072,7 @@
       <c r="X18" s="434" t="s">
         <v>172</v>
       </c>
-      <c r="Y18" s="654"/>
+      <c r="Y18" s="658"/>
       <c r="Z18" s="412">
         <v>1</v>
       </c>
@@ -8086,38 +8083,38 @@
       <c r="AC18" s="16"/>
       <c r="AD18" s="16"/>
       <c r="AE18" s="259"/>
-      <c r="AF18" s="650" t="s">
+      <c r="AF18" s="630" t="s">
         <v>476</v>
       </c>
       <c r="AG18" s="259"/>
       <c r="AH18" s="70"/>
       <c r="AI18" s="70"/>
-      <c r="AJ18" s="652" t="s">
+      <c r="AJ18" s="656" t="s">
         <v>316</v>
       </c>
       <c r="AK18" s="259"/>
       <c r="AL18" s="80"/>
       <c r="AM18" s="431"/>
-      <c r="AN18" s="636"/>
+      <c r="AN18" s="641"/>
       <c r="AP18" s="76" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="19" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F19" s="641"/>
+      <c r="F19" s="620"/>
       <c r="I19" s="221"/>
-      <c r="O19" s="679"/>
-      <c r="R19" s="674"/>
+      <c r="O19" s="623"/>
+      <c r="R19" s="616"/>
       <c r="S19" s="30" t="s">
         <v>535</v>
       </c>
-      <c r="U19" s="613"/>
+      <c r="U19" s="664"/>
       <c r="V19" s="146"/>
       <c r="W19" s="146"/>
       <c r="X19" s="434" t="s">
         <v>173</v>
       </c>
-      <c r="Y19" s="654"/>
+      <c r="Y19" s="658"/>
       <c r="Z19" s="410">
         <v>1</v>
       </c>
@@ -8126,17 +8123,17 @@
       <c r="AC19" s="16"/>
       <c r="AD19" s="16"/>
       <c r="AE19" s="259"/>
-      <c r="AF19" s="650"/>
+      <c r="AF19" s="630"/>
       <c r="AG19" s="259"/>
       <c r="AH19" s="259"/>
       <c r="AI19" s="70"/>
-      <c r="AJ19" s="652"/>
+      <c r="AJ19" s="656"/>
       <c r="AK19" s="463" t="s">
         <v>252</v>
       </c>
       <c r="AL19" s="80"/>
       <c r="AM19" s="431"/>
-      <c r="AN19" s="636"/>
+      <c r="AN19" s="641"/>
       <c r="AP19" s="76" t="s">
         <v>469</v>
       </c>
@@ -8157,24 +8154,24 @@
       <c r="E20" s="440">
         <v>-1</v>
       </c>
-      <c r="F20" s="641"/>
+      <c r="F20" s="620"/>
       <c r="G20" s="339" t="s">
         <v>492</v>
       </c>
       <c r="I20" s="221"/>
-      <c r="O20" s="679"/>
-      <c r="Q20" s="681" t="s">
+      <c r="O20" s="623"/>
+      <c r="Q20" s="625" t="s">
         <v>48</v>
       </c>
       <c r="T20" s="407" t="s">
         <v>44</v>
       </c>
-      <c r="U20" s="614"/>
+      <c r="U20" s="665"/>
       <c r="W20" s="408"/>
       <c r="X20" s="435" t="s">
         <v>174</v>
       </c>
-      <c r="Y20" s="654"/>
+      <c r="Y20" s="658"/>
       <c r="Z20" s="414">
         <v>1</v>
       </c>
@@ -8199,7 +8196,7 @@
       <c r="AM20" s="383" t="s">
         <v>250</v>
       </c>
-      <c r="AN20" s="636"/>
+      <c r="AN20" s="641"/>
       <c r="AO20" s="340" t="s">
         <v>461</v>
       </c>
@@ -8220,20 +8217,20 @@
       <c r="E21" s="267">
         <v>0</v>
       </c>
-      <c r="F21" s="641"/>
+      <c r="F21" s="620"/>
       <c r="I21" s="221"/>
-      <c r="O21" s="679"/>
-      <c r="Q21" s="682"/>
+      <c r="O21" s="623"/>
+      <c r="Q21" s="626"/>
       <c r="T21" s="425"/>
       <c r="U21" s="14"/>
-      <c r="V21" s="609"/>
+      <c r="V21" s="660"/>
       <c r="W21" s="429" t="s">
         <v>175</v>
       </c>
       <c r="X21" s="432" t="s">
         <v>186</v>
       </c>
-      <c r="Y21" s="654"/>
+      <c r="Y21" s="658"/>
       <c r="Z21" s="448">
         <v>3</v>
       </c>
@@ -8264,15 +8261,15 @@
       <c r="AM21" s="431" t="s">
         <v>546</v>
       </c>
-      <c r="AN21" s="636"/>
+      <c r="AN21" s="641"/>
     </row>
     <row r="22" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F22" s="641"/>
+      <c r="F22" s="620"/>
       <c r="G22" s="339" t="s">
         <v>490</v>
       </c>
       <c r="I22" s="221"/>
-      <c r="O22" s="679"/>
+      <c r="O22" s="623"/>
       <c r="R22" s="437" t="s">
         <v>44</v>
       </c>
@@ -8280,14 +8277,14 @@
         <v>44</v>
       </c>
       <c r="U22" s="15"/>
-      <c r="V22" s="610"/>
+      <c r="V22" s="661"/>
       <c r="W22" s="429" t="s">
         <v>175</v>
       </c>
       <c r="X22" s="432" t="s">
         <v>187</v>
       </c>
-      <c r="Y22" s="654"/>
+      <c r="Y22" s="658"/>
       <c r="Z22" s="418"/>
       <c r="AA22" s="10"/>
       <c r="AB22" s="418"/>
@@ -8298,7 +8295,7 @@
       <c r="AG22" s="6"/>
       <c r="AH22" s="6"/>
       <c r="AI22" s="6"/>
-      <c r="AJ22" s="650" t="s">
+      <c r="AJ22" s="630" t="s">
         <v>473</v>
       </c>
       <c r="AK22" s="259"/>
@@ -8306,7 +8303,7 @@
         <v>479</v>
       </c>
       <c r="AM22" s="302"/>
-      <c r="AN22" s="636"/>
+      <c r="AN22" s="641"/>
     </row>
     <row r="23" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="233" t="s">
@@ -8324,22 +8321,22 @@
       <c r="E23" s="227">
         <v>1</v>
       </c>
-      <c r="F23" s="641"/>
+      <c r="F23" s="620"/>
       <c r="I23" s="221"/>
-      <c r="O23" s="679"/>
-      <c r="Q23" s="681" t="s">
+      <c r="O23" s="623"/>
+      <c r="Q23" s="625" t="s">
         <v>144</v>
       </c>
       <c r="T23" s="17"/>
       <c r="U23" s="423" t="s">
         <v>44</v>
       </c>
-      <c r="V23" s="610"/>
+      <c r="V23" s="661"/>
       <c r="W23" s="148"/>
       <c r="X23" s="432" t="s">
         <v>188</v>
       </c>
-      <c r="Y23" s="654"/>
+      <c r="Y23" s="658"/>
       <c r="Z23" s="17"/>
       <c r="AA23" s="10"/>
       <c r="AB23" s="418"/>
@@ -8350,13 +8347,13 @@
       <c r="AG23" s="6"/>
       <c r="AH23" s="6"/>
       <c r="AI23" s="6"/>
-      <c r="AJ23" s="650"/>
+      <c r="AJ23" s="630"/>
       <c r="AK23" s="259"/>
       <c r="AL23" s="80" t="s">
         <v>508</v>
       </c>
       <c r="AM23" s="302"/>
-      <c r="AN23" s="636"/>
+      <c r="AN23" s="641"/>
     </row>
     <row r="24" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="443" t="s">
@@ -8374,23 +8371,23 @@
       <c r="E24" s="439">
         <v>1</v>
       </c>
-      <c r="F24" s="641"/>
+      <c r="F24" s="620"/>
       <c r="G24" s="61" t="s">
         <v>491</v>
       </c>
       <c r="I24" s="221"/>
-      <c r="O24" s="679"/>
-      <c r="Q24" s="682"/>
+      <c r="O24" s="623"/>
+      <c r="Q24" s="626"/>
       <c r="T24" s="17"/>
       <c r="U24" s="229" t="s">
         <v>44</v>
       </c>
-      <c r="V24" s="610"/>
+      <c r="V24" s="661"/>
       <c r="W24" s="148"/>
       <c r="X24" s="432" t="s">
         <v>185</v>
       </c>
-      <c r="Y24" s="654"/>
+      <c r="Y24" s="658"/>
       <c r="Z24" s="17"/>
       <c r="AA24" s="10"/>
       <c r="AB24" s="418"/>
@@ -8409,12 +8406,12 @@
         <v>464</v>
       </c>
       <c r="AM24" s="302"/>
-      <c r="AN24" s="636"/>
+      <c r="AN24" s="641"/>
     </row>
     <row r="25" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F25" s="641"/>
+      <c r="F25" s="620"/>
       <c r="I25" s="221"/>
-      <c r="O25" s="679"/>
+      <c r="O25" s="623"/>
       <c r="P25" s="206" t="s">
         <v>281</v>
       </c>
@@ -8427,12 +8424,12 @@
       <c r="U25" s="403" t="s">
         <v>44</v>
       </c>
-      <c r="V25" s="611"/>
+      <c r="V25" s="662"/>
       <c r="W25" s="148"/>
       <c r="X25" s="432" t="s">
         <v>189</v>
       </c>
-      <c r="Y25" s="654"/>
+      <c r="Y25" s="658"/>
       <c r="Z25" s="17"/>
       <c r="AA25" s="10"/>
       <c r="AB25" s="418"/>
@@ -8449,7 +8446,7 @@
       <c r="AK25" s="142"/>
       <c r="AL25" s="6"/>
       <c r="AM25" s="302"/>
-      <c r="AN25" s="636"/>
+      <c r="AN25" s="641"/>
     </row>
     <row r="26" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="233" t="s">
@@ -8467,17 +8464,17 @@
       <c r="E26" s="382">
         <v>1</v>
       </c>
-      <c r="F26" s="641"/>
+      <c r="F26" s="620"/>
       <c r="G26" s="339" t="s">
         <v>488</v>
       </c>
       <c r="I26" s="221"/>
-      <c r="O26" s="679"/>
-      <c r="P26" s="638" t="s">
+      <c r="O26" s="623"/>
+      <c r="P26" s="643" t="s">
         <v>527</v>
       </c>
-      <c r="Q26" s="639"/>
-      <c r="R26" s="675" t="s">
+      <c r="Q26" s="644"/>
+      <c r="R26" s="617" t="s">
         <v>536</v>
       </c>
       <c r="T26" s="180"/>
@@ -8489,7 +8486,7 @@
       <c r="X26" s="432" t="s">
         <v>181</v>
       </c>
-      <c r="Y26" s="654"/>
+      <c r="Y26" s="658"/>
       <c r="Z26" s="17"/>
       <c r="AA26" s="10"/>
       <c r="AB26" s="418"/>
@@ -8516,7 +8513,7 @@
       <c r="AM26" s="445" t="s">
         <v>457</v>
       </c>
-      <c r="AN26" s="636"/>
+      <c r="AN26" s="641"/>
     </row>
     <row r="27" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B27" s="21" t="s">
@@ -8528,13 +8525,13 @@
       <c r="E27" s="267" t="s">
         <v>44</v>
       </c>
-      <c r="F27" s="677"/>
+      <c r="F27" s="621"/>
       <c r="G27" s="61" t="s">
         <v>545</v>
       </c>
       <c r="I27" s="222"/>
-      <c r="O27" s="680"/>
-      <c r="R27" s="676"/>
+      <c r="O27" s="624"/>
+      <c r="R27" s="618"/>
       <c r="S27" s="424" t="s">
         <v>54</v>
       </c>
@@ -8547,7 +8544,7 @@
       <c r="X27" s="432" t="s">
         <v>531</v>
       </c>
-      <c r="Y27" s="655"/>
+      <c r="Y27" s="659"/>
       <c r="Z27" s="161"/>
       <c r="AA27" s="13"/>
       <c r="AB27" s="419"/>
@@ -8564,32 +8561,26 @@
       <c r="AM27" s="383" t="s">
         <v>320</v>
       </c>
-      <c r="AN27" s="637"/>
+      <c r="AN27" s="642"/>
     </row>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="R18:R19"/>
-    <mergeCell ref="R26:R27"/>
-    <mergeCell ref="F2:F27"/>
-    <mergeCell ref="O10:O27"/>
-    <mergeCell ref="Q20:Q21"/>
-    <mergeCell ref="Q23:Q24"/>
-    <mergeCell ref="G14:J14"/>
-    <mergeCell ref="G13:J13"/>
-    <mergeCell ref="H12:K12"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="AI6:AI10"/>
-    <mergeCell ref="AF12:AF15"/>
-    <mergeCell ref="AG7:AG12"/>
-    <mergeCell ref="L8:L9"/>
-    <mergeCell ref="S9:S12"/>
-    <mergeCell ref="N8:N9"/>
-    <mergeCell ref="AD12:AD15"/>
-    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="V21:V25"/>
+    <mergeCell ref="U18:U20"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="G5:L6"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="K7:K9"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B4:B5"/>
     <mergeCell ref="AN1:AN27"/>
     <mergeCell ref="P26:Q26"/>
     <mergeCell ref="Q2:Q3"/>
@@ -8606,22 +8597,28 @@
     <mergeCell ref="AD3:AD4"/>
     <mergeCell ref="S2:S3"/>
     <mergeCell ref="R2:R3"/>
-    <mergeCell ref="V21:V25"/>
-    <mergeCell ref="U18:U20"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="J8:J9"/>
-    <mergeCell ref="G5:L6"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="K7:K9"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="AI6:AI10"/>
+    <mergeCell ref="AF12:AF15"/>
+    <mergeCell ref="AG7:AG12"/>
+    <mergeCell ref="L8:L9"/>
+    <mergeCell ref="S9:S12"/>
+    <mergeCell ref="N8:N9"/>
+    <mergeCell ref="AD12:AD15"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="R18:R19"/>
+    <mergeCell ref="R26:R27"/>
+    <mergeCell ref="F2:F27"/>
+    <mergeCell ref="O10:O27"/>
+    <mergeCell ref="Q20:Q21"/>
+    <mergeCell ref="Q23:Q24"/>
+    <mergeCell ref="G14:J14"/>
+    <mergeCell ref="G13:J13"/>
+    <mergeCell ref="H12:K12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8658,12 +8655,12 @@
       <c r="B1" s="603" t="s">
         <v>311</v>
       </c>
-      <c r="C1" s="683"/>
+      <c r="C1" s="627"/>
       <c r="D1" s="206"/>
       <c r="J1" s="603" t="s">
         <v>69</v>
       </c>
-      <c r="K1" s="683"/>
+      <c r="K1" s="627"/>
       <c r="L1" s="197" t="s">
         <v>331</v>
       </c>
@@ -8997,8 +8994,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB54FD83-008D-4F8B-87AC-83E7F70047CB}">
   <dimension ref="A1:AL31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N12" workbookViewId="0">
-      <selection activeCell="Z27" sqref="Z27"/>
+    <sheetView topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="AC18" sqref="AC18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9037,7 +9034,7 @@
     <col min="33" max="33" width="4.28515625" customWidth="1"/>
     <col min="35" max="35" width="4.42578125" customWidth="1"/>
     <col min="36" max="36" width="1.140625" customWidth="1"/>
-    <col min="37" max="37" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="8.42578125" bestFit="1" customWidth="1"/>
     <col min="38" max="38" width="4.140625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -9066,7 +9063,7 @@
       <c r="P1" s="401" t="s">
         <v>398</v>
       </c>
-      <c r="Q1" s="714" t="s">
+      <c r="Q1" s="701" t="s">
         <v>180</v>
       </c>
       <c r="R1" s="100" t="s">
@@ -9090,7 +9087,7 @@
       <c r="AA1" s="521" t="s">
         <v>438</v>
       </c>
-      <c r="AB1" s="708" t="s">
+      <c r="AB1" s="695" t="s">
         <v>596</v>
       </c>
       <c r="AC1" s="99" t="s">
@@ -9112,32 +9109,32 @@
       </c>
     </row>
     <row r="2" spans="1:38" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="693">
+      <c r="A2" s="706">
         <f ca="1">TODAY()</f>
         <v>45284</v>
       </c>
-      <c r="B2" s="695" t="s">
+      <c r="B2" s="708" t="s">
         <v>380</v>
       </c>
-      <c r="C2" s="615" t="s">
+      <c r="C2" s="645" t="s">
         <v>358</v>
       </c>
-      <c r="D2" s="697" t="s">
+      <c r="D2" s="710" t="s">
         <v>102</v>
       </c>
-      <c r="E2" s="699" t="s">
+      <c r="E2" s="712" t="s">
         <v>64</v>
       </c>
       <c r="F2" s="193" t="s">
         <v>219</v>
       </c>
-      <c r="G2" s="659" t="s">
+      <c r="G2" s="613" t="s">
         <v>373</v>
       </c>
       <c r="H2" s="208" t="s">
         <v>219</v>
       </c>
-      <c r="I2" s="705" t="s">
+      <c r="I2" s="692" t="s">
         <v>102</v>
       </c>
       <c r="J2" s="399" t="s">
@@ -9161,10 +9158,10 @@
       <c r="P2" s="402">
         <v>40</v>
       </c>
-      <c r="Q2" s="715"/>
+      <c r="Q2" s="702"/>
       <c r="R2" s="21">
         <f>R7+R20</f>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="S2" s="21">
         <f>S7+S20</f>
@@ -9186,7 +9183,7 @@
         <f>IF((Z2+T2)&gt;0,0,-1)</f>
         <v>0</v>
       </c>
-      <c r="AB2" s="709"/>
+      <c r="AB2" s="696"/>
       <c r="AC2" s="35"/>
       <c r="AH2" s="6"/>
       <c r="AI2" s="472"/>
@@ -9199,14 +9196,14 @@
       </c>
     </row>
     <row r="3" spans="1:38" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="694"/>
-      <c r="B3" s="696"/>
-      <c r="C3" s="616"/>
-      <c r="D3" s="698"/>
-      <c r="E3" s="700"/>
-      <c r="G3" s="660"/>
+      <c r="A3" s="707"/>
+      <c r="B3" s="709"/>
+      <c r="C3" s="646"/>
+      <c r="D3" s="711"/>
+      <c r="E3" s="713"/>
+      <c r="G3" s="614"/>
       <c r="H3" s="6"/>
-      <c r="I3" s="706"/>
+      <c r="I3" s="693"/>
       <c r="K3" s="24">
         <v>2</v>
       </c>
@@ -9221,7 +9218,7 @@
       <c r="V3" s="473"/>
       <c r="W3" s="6"/>
       <c r="X3" s="473"/>
-      <c r="AB3" s="709"/>
+      <c r="AB3" s="696"/>
       <c r="AC3" s="35"/>
       <c r="AE3" s="100" t="s">
         <v>591</v>
@@ -9231,21 +9228,29 @@
         <f>IF((AE7-SUM(AL2:AL10)&lt;0),AE7-SUM(AI2:AI10),0)</f>
         <v>0</v>
       </c>
-      <c r="AH3" s="6"/>
-      <c r="AI3" s="473"/>
+      <c r="AH3" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="AI3" s="473">
+        <v>1</v>
+      </c>
       <c r="AJ3" s="558"/>
-      <c r="AK3" s="6"/>
-      <c r="AL3" s="24"/>
+      <c r="AK3" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="AL3" s="24">
+        <v>1</v>
+      </c>
     </row>
     <row r="4" spans="1:38" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="238" t="s">
         <v>381</v>
       </c>
       <c r="B4" s="245"/>
-      <c r="C4" s="701" t="s">
+      <c r="C4" s="714" t="s">
         <v>177</v>
       </c>
-      <c r="I4" s="706"/>
+      <c r="I4" s="693"/>
       <c r="R4" s="474" t="s">
         <v>591</v>
       </c>
@@ -9257,7 +9262,7 @@
       <c r="V4" s="473"/>
       <c r="W4" s="6"/>
       <c r="X4" s="473"/>
-      <c r="AB4" s="709"/>
+      <c r="AB4" s="696"/>
       <c r="AC4" s="35"/>
       <c r="AE4" s="20"/>
       <c r="AF4" s="100" t="s">
@@ -9284,7 +9289,7 @@
       <c r="B5" s="100" t="s">
         <v>358</v>
       </c>
-      <c r="C5" s="702"/>
+      <c r="C5" s="715"/>
       <c r="D5" s="224" t="s">
         <v>102</v>
       </c>
@@ -9300,7 +9305,7 @@
       <c r="H5" s="208" t="s">
         <v>219</v>
       </c>
-      <c r="I5" s="706"/>
+      <c r="I5" s="693"/>
       <c r="J5" s="400" t="s">
         <v>269</v>
       </c>
@@ -9327,7 +9332,7 @@
       <c r="V5" s="471"/>
       <c r="W5" s="6"/>
       <c r="X5" s="471"/>
-      <c r="AB5" s="709"/>
+      <c r="AB5" s="696"/>
       <c r="AC5" s="2" t="s">
         <v>594</v>
       </c>
@@ -9345,39 +9350,39 @@
       </c>
     </row>
     <row r="6" spans="1:38" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="690" t="s">
+      <c r="A6" s="703" t="s">
         <v>286</v>
       </c>
       <c r="B6" s="105" t="s">
         <v>198</v>
       </c>
-      <c r="C6" s="661"/>
-      <c r="D6" s="662"/>
+      <c r="C6" s="628"/>
+      <c r="D6" s="629"/>
       <c r="E6" s="96">
         <v>1</v>
       </c>
       <c r="G6" s="599"/>
-      <c r="I6" s="706"/>
+      <c r="I6" s="693"/>
       <c r="P6" s="61" t="s">
         <v>594</v>
       </c>
       <c r="R6" s="64">
         <f>R7-SUM(X2:X10)+R11</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S6" s="64">
         <f>S7+S11-SUM(V2:V10)</f>
         <v>3</v>
       </c>
-      <c r="AB6" s="709"/>
+      <c r="AB6" s="696"/>
       <c r="AC6" s="35"/>
       <c r="AE6" s="64">
         <f>AE7-SUM(AL2:AL10)+AE11</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF6" s="64">
         <f>AF7-SUM(AI2:AI10)+AF11</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AH6" s="6"/>
       <c r="AI6" s="529"/>
@@ -9385,7 +9390,7 @@
       <c r="AL6" s="112"/>
     </row>
     <row r="7" spans="1:38" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="691"/>
+      <c r="A7" s="704"/>
       <c r="B7" s="100" t="s">
         <v>154</v>
       </c>
@@ -9396,7 +9401,7 @@
         <v>135</v>
       </c>
       <c r="G7" s="599"/>
-      <c r="I7" s="706"/>
+      <c r="I7" s="693"/>
       <c r="M7" s="16" t="s">
         <v>348</v>
       </c>
@@ -9414,7 +9419,7 @@
       </c>
       <c r="R7" s="24">
         <f>3-R11</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S7" s="24">
         <f>3-S11</f>
@@ -9424,7 +9429,7 @@
       <c r="V7" s="472"/>
       <c r="W7" s="6"/>
       <c r="X7" s="472"/>
-      <c r="AB7" s="709"/>
+      <c r="AB7" s="696"/>
       <c r="AC7" s="99" t="s">
         <v>595</v>
       </c>
@@ -9433,24 +9438,24 @@
       </c>
       <c r="AE7" s="24">
         <f>8-AE11</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AF7" s="297">
         <f>8-AF11</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AH7" s="6"/>
       <c r="AI7" s="472"/>
       <c r="AJ7" s="558"/>
       <c r="AK7" s="6" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="AL7" s="553">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="692"/>
+      <c r="A8" s="705"/>
       <c r="B8" s="214" t="s">
         <v>28</v>
       </c>
@@ -9459,17 +9464,13 @@
         <v>3</v>
       </c>
       <c r="G8" s="599"/>
-      <c r="I8" s="706"/>
+      <c r="I8" s="693"/>
       <c r="N8" s="80"/>
       <c r="U8" s="6"/>
       <c r="V8" s="24"/>
-      <c r="W8" s="6" t="s">
-        <v>453</v>
-      </c>
-      <c r="X8" s="473">
-        <v>1</v>
-      </c>
-      <c r="AB8" s="709"/>
+      <c r="W8" s="6"/>
+      <c r="X8" s="473"/>
+      <c r="AB8" s="696"/>
       <c r="AC8" s="519"/>
       <c r="AH8" s="6" t="s">
         <v>619</v>
@@ -9479,7 +9480,7 @@
       </c>
       <c r="AJ8" s="558"/>
       <c r="AK8" s="6" t="s">
-        <v>619</v>
+        <v>453</v>
       </c>
       <c r="AL8" s="472">
         <v>1</v>
@@ -9500,7 +9501,7 @@
       </c>
       <c r="G9" s="599"/>
       <c r="H9" s="6"/>
-      <c r="I9" s="706"/>
+      <c r="I9" s="693"/>
       <c r="M9" s="19" t="s">
         <v>526</v>
       </c>
@@ -9509,7 +9510,7 @@
       <c r="V9" s="24"/>
       <c r="W9" s="6"/>
       <c r="X9" s="473"/>
-      <c r="AB9" s="709"/>
+      <c r="AB9" s="696"/>
       <c r="AC9" s="519"/>
       <c r="AE9" s="20"/>
       <c r="AF9" s="20"/>
@@ -9534,10 +9535,10 @@
       <c r="D10" s="108"/>
       <c r="E10" s="68">
         <f>Boat!W8</f>
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G10" s="599"/>
-      <c r="I10" s="706"/>
+      <c r="I10" s="693"/>
       <c r="J10" s="24" t="s">
         <v>373</v>
       </c>
@@ -9550,18 +9551,14 @@
       <c r="N10" s="80"/>
       <c r="U10" s="6"/>
       <c r="V10" s="473"/>
-      <c r="W10" s="6" t="s">
-        <v>621</v>
-      </c>
-      <c r="X10" s="473">
-        <v>1</v>
-      </c>
-      <c r="AB10" s="709"/>
+      <c r="W10" s="6"/>
+      <c r="X10" s="473"/>
+      <c r="AB10" s="696"/>
       <c r="AC10" s="519"/>
       <c r="AE10" s="20"/>
       <c r="AF10" s="20"/>
       <c r="AH10" s="6" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="AI10" s="473">
         <v>1</v>
@@ -9588,7 +9585,7 @@
         <v>266</v>
       </c>
       <c r="G11" s="599"/>
-      <c r="I11" s="706"/>
+      <c r="I11" s="693"/>
       <c r="J11" s="24" t="s">
         <v>194</v>
       </c>
@@ -9609,18 +9606,18 @@
         <v>44</v>
       </c>
       <c r="R11" s="24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S11" s="24">
         <v>3</v>
       </c>
-      <c r="U11" s="711" t="s">
+      <c r="U11" s="698" t="s">
         <v>559</v>
       </c>
-      <c r="V11" s="712"/>
-      <c r="W11" s="712"/>
-      <c r="X11" s="713"/>
-      <c r="AB11" s="710"/>
+      <c r="V11" s="699"/>
+      <c r="W11" s="699"/>
+      <c r="X11" s="700"/>
+      <c r="AB11" s="697"/>
       <c r="AC11" s="99" t="s">
         <v>597</v>
       </c>
@@ -9628,19 +9625,19 @@
         <v>44</v>
       </c>
       <c r="AE11" s="24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF11" s="24">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AG11" s="417"/>
-      <c r="AH11" s="711" t="s">
+      <c r="AH11" s="698" t="s">
         <v>608</v>
       </c>
-      <c r="AI11" s="712"/>
-      <c r="AJ11" s="712"/>
-      <c r="AK11" s="712"/>
-      <c r="AL11" s="713"/>
+      <c r="AI11" s="699"/>
+      <c r="AJ11" s="699"/>
+      <c r="AK11" s="699"/>
+      <c r="AL11" s="700"/>
     </row>
     <row r="12" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="229" t="s">
@@ -9651,7 +9648,7 @@
         <v>3</v>
       </c>
       <c r="G12" s="599"/>
-      <c r="I12" s="706"/>
+      <c r="I12" s="693"/>
       <c r="J12" s="24" t="s">
         <v>517</v>
       </c>
@@ -9684,7 +9681,7 @@
       </c>
       <c r="D13" s="20"/>
       <c r="G13" s="599"/>
-      <c r="I13" s="706"/>
+      <c r="I13" s="693"/>
       <c r="J13" s="108" t="s">
         <v>549</v>
       </c>
@@ -9728,7 +9725,7 @@
       <c r="H14" s="208" t="s">
         <v>219</v>
       </c>
-      <c r="I14" s="706"/>
+      <c r="I14" s="693"/>
       <c r="U14" s="67" t="s">
         <v>80</v>
       </c>
@@ -9755,7 +9752,7 @@
       <c r="H15" s="273">
         <v>0</v>
       </c>
-      <c r="I15" s="706"/>
+      <c r="I15" s="693"/>
       <c r="J15" s="108" t="s">
         <v>153</v>
       </c>
@@ -9786,7 +9783,7 @@
       <c r="D16" s="2" t="s">
         <v>493</v>
       </c>
-      <c r="I16" s="706"/>
+      <c r="I16" s="693"/>
       <c r="K16" s="100" t="s">
         <v>44</v>
       </c>
@@ -9826,7 +9823,7 @@
       <c r="G17" s="2" t="s">
         <v>424</v>
       </c>
-      <c r="I17" s="706"/>
+      <c r="I17" s="693"/>
       <c r="L17" s="2" t="s">
         <v>427</v>
       </c>
@@ -9844,13 +9841,13 @@
     </row>
     <row r="18" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G18" s="16"/>
-      <c r="I18" s="706"/>
+      <c r="I18" s="693"/>
       <c r="L18" s="16"/>
       <c r="M18" s="21"/>
-      <c r="O18" s="703" t="s">
+      <c r="O18" s="690" t="s">
         <v>518</v>
       </c>
-      <c r="P18" s="704"/>
+      <c r="P18" s="691"/>
       <c r="Q18" s="127" t="s">
         <v>44</v>
       </c>
@@ -9872,7 +9869,7 @@
       <c r="X18" s="24"/>
     </row>
     <row r="19" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I19" s="706"/>
+      <c r="I19" s="693"/>
       <c r="M19" s="21" t="s">
         <v>426</v>
       </c>
@@ -9904,7 +9901,7 @@
       <c r="G20" s="2" t="s">
         <v>424</v>
       </c>
-      <c r="I20" s="706"/>
+      <c r="I20" s="693"/>
       <c r="K20" s="19" t="s">
         <v>423</v>
       </c>
@@ -9935,7 +9932,7 @@
       <c r="X20" s="471"/>
     </row>
     <row r="21" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I21" s="706"/>
+      <c r="I21" s="693"/>
       <c r="M21" s="218" t="s">
         <v>412</v>
       </c>
@@ -9965,7 +9962,7 @@
       <c r="G22" s="2" t="s">
         <v>424</v>
       </c>
-      <c r="I22" s="706"/>
+      <c r="I22" s="693"/>
       <c r="P22" s="99" t="s">
         <v>593</v>
       </c>
@@ -9980,7 +9977,7 @@
       <c r="E23" s="285" t="s">
         <v>44</v>
       </c>
-      <c r="I23" s="706"/>
+      <c r="I23" s="693"/>
       <c r="Q23" s="24">
         <f>SUM(V23:V31)</f>
         <v>10</v>
@@ -9997,7 +9994,7 @@
       </c>
     </row>
     <row r="24" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I24" s="706"/>
+      <c r="I24" s="693"/>
       <c r="U24" s="35"/>
       <c r="V24" s="512">
         <v>2</v>
@@ -10025,7 +10022,7 @@
       <c r="H25" s="193" t="s">
         <v>267</v>
       </c>
-      <c r="I25" s="706"/>
+      <c r="I25" s="693"/>
       <c r="J25" s="400" t="s">
         <v>270</v>
       </c>
@@ -10070,7 +10067,7 @@
       <c r="H26" s="19" t="s">
         <v>219</v>
       </c>
-      <c r="I26" s="706"/>
+      <c r="I26" s="693"/>
       <c r="K26" s="24">
         <v>15</v>
       </c>
@@ -10105,7 +10102,7 @@
       </c>
     </row>
     <row r="27" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I27" s="706"/>
+      <c r="I27" s="693"/>
       <c r="O27" s="2" t="s">
         <v>98</v>
       </c>
@@ -10132,7 +10129,7 @@
       <c r="E28" s="217">
         <v>2</v>
       </c>
-      <c r="I28" s="706"/>
+      <c r="I28" s="693"/>
       <c r="Q28" s="6"/>
       <c r="R28" s="112"/>
       <c r="T28" s="142"/>
@@ -10154,7 +10151,7 @@
       <c r="H29" s="193" t="s">
         <v>268</v>
       </c>
-      <c r="I29" s="707"/>
+      <c r="I29" s="694"/>
       <c r="J29" s="326"/>
       <c r="L29" s="96" t="s">
         <v>274</v>
@@ -10212,13 +10209,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="O18:P18"/>
-    <mergeCell ref="I2:I29"/>
-    <mergeCell ref="AB1:AB11"/>
-    <mergeCell ref="AH11:AL11"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="Q1:Q2"/>
-    <mergeCell ref="U11:X11"/>
     <mergeCell ref="A6:A8"/>
     <mergeCell ref="G5:G14"/>
     <mergeCell ref="A2:A3"/>
@@ -10230,6 +10220,13 @@
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="G2:G3"/>
     <mergeCell ref="C2:C3"/>
+    <mergeCell ref="O18:P18"/>
+    <mergeCell ref="I2:I29"/>
+    <mergeCell ref="AB1:AB11"/>
+    <mergeCell ref="AH11:AL11"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="Q1:Q2"/>
+    <mergeCell ref="U11:X11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -10240,8 +10237,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2029A93E-B53C-4201-9F17-439C144F3CF1}">
   <dimension ref="A1:AT37"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="I34" sqref="I34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10341,14 +10338,14 @@
         <f ca="1">TODAY()</f>
         <v>45284</v>
       </c>
-      <c r="T1" s="742"/>
+      <c r="T1" s="735"/>
       <c r="U1" s="142"/>
       <c r="V1" s="6"/>
       <c r="W1" s="6"/>
-      <c r="X1" s="726" t="s">
+      <c r="X1" s="719" t="s">
         <v>442</v>
       </c>
-      <c r="Y1" s="727"/>
+      <c r="Y1" s="720"/>
       <c r="Z1" s="308">
         <f>68-(W8+Y3+X3+U3)</f>
         <v>0</v>
@@ -10364,23 +10361,23 @@
       <c r="AD1" s="304" t="s">
         <v>44</v>
       </c>
-      <c r="AE1" s="728" t="s">
+      <c r="AE1" s="721" t="s">
         <v>190</v>
       </c>
-      <c r="AF1" s="729"/>
-      <c r="AG1" s="730"/>
-      <c r="AH1" s="731" t="s">
+      <c r="AF1" s="722"/>
+      <c r="AG1" s="723"/>
+      <c r="AH1" s="724" t="s">
         <v>294</v>
       </c>
-      <c r="AI1" s="732"/>
-      <c r="AJ1" s="733"/>
+      <c r="AI1" s="725"/>
+      <c r="AJ1" s="726"/>
       <c r="AK1" s="555"/>
       <c r="AL1" s="555"/>
-      <c r="AM1" s="723" t="s">
+      <c r="AM1" s="716" t="s">
         <v>445</v>
       </c>
-      <c r="AN1" s="724"/>
-      <c r="AO1" s="725"/>
+      <c r="AN1" s="717"/>
+      <c r="AO1" s="718"/>
       <c r="AR1" s="142"/>
     </row>
     <row r="2" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10393,29 +10390,29 @@
       </c>
       <c r="J2" s="320">
         <f>K2+L2</f>
-        <v>23</v>
-      </c>
-      <c r="K2" s="721">
+        <v>17</v>
+      </c>
+      <c r="K2" s="743">
         <f>SUM(K4:K29)</f>
         <v>12</v>
       </c>
-      <c r="L2" s="719">
+      <c r="L2" s="741">
         <f>SUM(L4:L37)</f>
-        <v>11</v>
-      </c>
-      <c r="M2" s="734">
+        <v>5</v>
+      </c>
+      <c r="M2" s="727">
         <f>SUM(M5:M30)</f>
         <v>0</v>
       </c>
-      <c r="N2" s="736">
+      <c r="N2" s="729">
         <f>SUM(N4:N29)</f>
-        <v>2</v>
-      </c>
-      <c r="O2" s="738">
+        <v>0</v>
+      </c>
+      <c r="O2" s="731">
         <f>SUM(O4:O29)</f>
         <v>9</v>
       </c>
-      <c r="P2" s="666">
+      <c r="P2" s="637">
         <f>SUM(N30:N37)* (-1)</f>
         <v>0</v>
       </c>
@@ -10428,14 +10425,14 @@
       <c r="S2" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="T2" s="743"/>
+      <c r="T2" s="736"/>
       <c r="U2" s="541" t="s">
         <v>263</v>
       </c>
       <c r="V2" s="485" t="s">
         <v>220</v>
       </c>
-      <c r="W2" s="740" t="s">
+      <c r="W2" s="733" t="s">
         <v>235</v>
       </c>
       <c r="X2" s="486" t="s">
@@ -10507,12 +10504,12 @@
         <f>V3+X3+Y3+U3</f>
         <v>68</v>
       </c>
-      <c r="K3" s="722"/>
-      <c r="L3" s="720"/>
-      <c r="M3" s="735"/>
-      <c r="N3" s="737"/>
-      <c r="O3" s="739"/>
-      <c r="P3" s="667"/>
+      <c r="K3" s="744"/>
+      <c r="L3" s="742"/>
+      <c r="M3" s="728"/>
+      <c r="N3" s="730"/>
+      <c r="O3" s="732"/>
+      <c r="P3" s="638"/>
       <c r="Q3" s="174">
         <f>(M2+N2)-Y3</f>
         <v>0</v>
@@ -10520,23 +10517,23 @@
       <c r="S3" s="159" t="s">
         <v>245</v>
       </c>
-      <c r="T3" s="744"/>
+      <c r="T3" s="737"/>
       <c r="U3" s="542">
         <f>SUM(U4:U29)</f>
         <v>12</v>
       </c>
       <c r="V3" s="487">
         <f>SUM(V4:V29)</f>
-        <v>44</v>
-      </c>
-      <c r="W3" s="741"/>
+        <v>46</v>
+      </c>
+      <c r="W3" s="734"/>
       <c r="X3" s="488">
         <f t="shared" ref="X3:AC3" si="0">SUM(X4:X29)</f>
         <v>10</v>
       </c>
       <c r="Y3" s="488">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="59">
         <f t="shared" si="0"/>
@@ -10548,7 +10545,7 @@
       </c>
       <c r="AB3" s="66">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AC3" s="66">
         <f t="shared" si="0"/>
@@ -10580,7 +10577,7 @@
       </c>
       <c r="AJ3" s="407">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AK3" s="407"/>
       <c r="AL3" s="407"/>
@@ -10629,7 +10626,7 @@
         <f>AC4</f>
         <v>0</v>
       </c>
-      <c r="P4" s="716" t="s">
+      <c r="P4" s="738" t="s">
         <v>199</v>
       </c>
       <c r="Q4" s="20"/>
@@ -10715,7 +10712,7 @@
         <f>AC5</f>
         <v>0</v>
       </c>
-      <c r="P5" s="717"/>
+      <c r="P5" s="739"/>
       <c r="Q5" s="20"/>
       <c r="R5" s="2" t="s">
         <v>341</v>
@@ -10801,19 +10798,19 @@
         <v>2</v>
       </c>
       <c r="L6" s="589">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M6" s="328">
         <v>0</v>
       </c>
       <c r="N6" s="107">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O6" s="295">
         <f>AC6</f>
         <v>1</v>
       </c>
-      <c r="P6" s="717"/>
+      <c r="P6" s="739"/>
       <c r="Q6" s="19" t="s">
         <v>336</v>
       </c>
@@ -10827,7 +10824,7 @@
         <v>2</v>
       </c>
       <c r="V6" s="318">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W6" s="315">
         <v>-2</v>
@@ -10837,7 +10834,7 @@
       </c>
       <c r="Y6" s="185">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="298"/>
       <c r="AA6" s="117">
@@ -10846,7 +10843,7 @@
       </c>
       <c r="AB6" s="292">
         <f t="shared" si="8"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC6" s="292">
         <v>1</v>
@@ -10916,7 +10913,7 @@
         <f>AC7</f>
         <v>1</v>
       </c>
-      <c r="P7" s="717"/>
+      <c r="P7" s="739"/>
       <c r="Q7" s="20"/>
       <c r="R7" s="2" t="s">
         <v>336</v>
@@ -11030,7 +11027,7 @@
         <f t="shared" ref="O8:O37" si="10">AC8</f>
         <v>0</v>
       </c>
-      <c r="P8" s="717"/>
+      <c r="P8" s="739"/>
       <c r="Q8" s="21" t="s">
         <v>234</v>
       </c>
@@ -11051,7 +11048,7 @@
       </c>
       <c r="W8" s="24">
         <f>V3</f>
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="X8" s="500">
         <v>0</v>
@@ -11121,7 +11118,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="P9" s="717"/>
+      <c r="P9" s="739"/>
       <c r="Q9" s="21" t="s">
         <v>336</v>
       </c>
@@ -11226,7 +11223,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="P10" s="717"/>
+      <c r="P10" s="739"/>
       <c r="Q10" s="20"/>
       <c r="R10" s="2" t="s">
         <v>341</v>
@@ -11316,7 +11313,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="P11" s="717"/>
+      <c r="P11" s="739"/>
       <c r="Q11" s="21" t="s">
         <v>336</v>
       </c>
@@ -11381,14 +11378,14 @@
       <c r="AR11" s="511"/>
     </row>
     <row r="12" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="626" t="s">
+      <c r="A12" s="675" t="s">
         <v>55</v>
       </c>
       <c r="B12" s="30">
         <v>13</v>
       </c>
       <c r="C12" s="2"/>
-      <c r="E12" s="681" t="s">
+      <c r="E12" s="625" t="s">
         <v>56</v>
       </c>
       <c r="G12" s="264"/>
@@ -11413,7 +11410,7 @@
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="P12" s="717"/>
+      <c r="P12" s="739"/>
       <c r="Q12" s="21" t="s">
         <v>336</v>
       </c>
@@ -11488,14 +11485,14 @@
       <c r="AR12" s="512"/>
     </row>
     <row r="13" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="628"/>
+      <c r="A13" s="677"/>
       <c r="B13" s="591">
         <v>12</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="E13" s="682"/>
+      <c r="E13" s="626"/>
       <c r="F13" s="174">
         <v>0</v>
       </c>
@@ -11519,7 +11516,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="P13" s="717"/>
+      <c r="P13" s="739"/>
       <c r="Q13" s="21" t="s">
         <v>336</v>
       </c>
@@ -11601,7 +11598,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="P14" s="717"/>
+      <c r="P14" s="739"/>
       <c r="Q14" s="20"/>
       <c r="R14" s="202" t="s">
         <v>340</v>
@@ -11704,7 +11701,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="P15" s="717"/>
+      <c r="P15" s="739"/>
       <c r="Q15" s="20"/>
       <c r="R15" s="202" t="s">
         <v>340</v>
@@ -11796,7 +11793,7 @@
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="P16" s="717"/>
+      <c r="P16" s="739"/>
       <c r="Q16" s="21" t="s">
         <v>336</v>
       </c>
@@ -11899,7 +11896,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="P17" s="717"/>
+      <c r="P17" s="739"/>
       <c r="Q17" s="20"/>
       <c r="R17" s="2" t="s">
         <v>342</v>
@@ -11999,7 +11996,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="P18" s="717"/>
+      <c r="P18" s="739"/>
       <c r="Q18" s="21" t="s">
         <v>336</v>
       </c>
@@ -12089,7 +12086,7 @@
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="P19" s="717"/>
+      <c r="P19" s="739"/>
       <c r="Q19" s="20"/>
       <c r="R19" s="2" t="s">
         <v>335</v>
@@ -12197,11 +12194,11 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="P20" s="718"/>
+      <c r="P20" s="740"/>
       <c r="Q20" s="603" t="s">
         <v>336</v>
       </c>
-      <c r="R20" s="683"/>
+      <c r="R20" s="627"/>
       <c r="S20" s="538" t="s">
         <v>85</v>
       </c>
@@ -12463,7 +12460,7 @@
     </row>
     <row r="23" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B23" s="24"/>
-      <c r="E23" s="633" t="s">
+      <c r="E23" s="682" t="s">
         <v>290</v>
       </c>
       <c r="F23" s="182"/>
@@ -12476,7 +12473,7 @@
         <v>1</v>
       </c>
       <c r="L23" s="588">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M23" s="328">
         <v>0</v>
@@ -12568,7 +12565,7 @@
       <c r="C24" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="E24" s="634"/>
+      <c r="E24" s="683"/>
       <c r="F24" s="174"/>
       <c r="H24" s="42"/>
       <c r="J24" s="576" t="s">
@@ -12578,13 +12575,13 @@
         <v>2</v>
       </c>
       <c r="L24" s="588">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M24" s="328">
         <v>0</v>
       </c>
       <c r="N24" s="107">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O24" s="295">
         <f t="shared" si="10"/>
@@ -12593,7 +12590,7 @@
       <c r="Q24" s="603" t="s">
         <v>336</v>
       </c>
-      <c r="R24" s="683"/>
+      <c r="R24" s="627"/>
       <c r="S24" s="538" t="s">
         <v>250</v>
       </c>
@@ -12604,7 +12601,7 @@
         <v>2</v>
       </c>
       <c r="V24" s="495">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W24" s="530">
         <v>-2</v>
@@ -12612,7 +12609,7 @@
       <c r="X24" s="26"/>
       <c r="Y24" s="552">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="298"/>
       <c r="AA24" s="117">
@@ -12621,7 +12618,7 @@
       </c>
       <c r="AB24" s="292">
         <f t="shared" si="8"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC24" s="292">
         <v>1</v>
@@ -12644,7 +12641,9 @@
         <v>1</v>
       </c>
       <c r="AI24" s="377"/>
-      <c r="AJ24" s="512"/>
+      <c r="AJ24" s="512">
+        <v>1</v>
+      </c>
       <c r="AK24" s="564"/>
       <c r="AL24" s="319"/>
       <c r="AM24" s="338">
@@ -12780,7 +12779,7 @@
         <v>1</v>
       </c>
       <c r="L26" s="588">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M26" s="328">
         <v>0</v>
@@ -12815,7 +12814,7 @@
         <v>1</v>
       </c>
       <c r="Y26" s="552">
-        <f t="shared" si="2"/>
+        <f>SUM(M26:N26)</f>
         <v>0</v>
       </c>
       <c r="Z26" s="298"/>
@@ -13246,8 +13245,8 @@
       <c r="AR31" s="511"/>
     </row>
     <row r="32" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="650"/>
-      <c r="B32" s="650"/>
+      <c r="A32" s="630"/>
+      <c r="B32" s="630"/>
       <c r="J32" s="577" t="s">
         <v>310</v>
       </c>
@@ -13678,7 +13677,7 @@
     </row>
     <row r="37" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B37" s="24">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D37" s="384">
         <v>1</v>
@@ -13781,6 +13780,15 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="Q24:R24"/>
+    <mergeCell ref="P4:P20"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="Q20:R20"/>
     <mergeCell ref="AM1:AO1"/>
     <mergeCell ref="X1:Y1"/>
     <mergeCell ref="AE1:AG1"/>
@@ -13791,15 +13799,6 @@
     <mergeCell ref="P2:P3"/>
     <mergeCell ref="W2:W3"/>
     <mergeCell ref="T1:T3"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="Q24:R24"/>
-    <mergeCell ref="P4:P20"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="Q20:R20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -13811,7 +13810,7 @@
   <dimension ref="A1:AE19"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="AE15" sqref="AE15"/>
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13867,7 +13866,7 @@
       <c r="V1" s="603" t="s">
         <v>70</v>
       </c>
-      <c r="W1" s="683"/>
+      <c r="W1" s="627"/>
       <c r="X1" s="62" t="s">
         <v>101</v>
       </c>
@@ -13886,7 +13885,7 @@
       <c r="AC1" s="116" t="s">
         <v>190</v>
       </c>
-      <c r="AD1" s="759" t="s">
+      <c r="AD1" s="752" t="s">
         <v>212</v>
       </c>
       <c r="AE1" s="116" t="s">
@@ -13903,10 +13902,10 @@
       <c r="E2" s="39" t="s">
         <v>73</v>
       </c>
-      <c r="F2" s="790" t="s">
+      <c r="F2" s="751" t="s">
         <v>74</v>
       </c>
-      <c r="G2" s="747" t="s">
+      <c r="G2" s="779" t="s">
         <v>44</v>
       </c>
       <c r="H2" s="40" t="s">
@@ -13934,10 +13933,10 @@
       <c r="U2" s="60" t="s">
         <v>105</v>
       </c>
-      <c r="V2" s="726" t="s">
+      <c r="V2" s="719" t="s">
         <v>120</v>
       </c>
-      <c r="W2" s="727"/>
+      <c r="W2" s="720"/>
       <c r="X2" s="64" t="s">
         <v>109</v>
       </c>
@@ -13956,7 +13955,7 @@
       <c r="AC2" s="117" t="s">
         <v>98</v>
       </c>
-      <c r="AD2" s="760"/>
+      <c r="AD2" s="753"/>
       <c r="AE2" s="64" t="s">
         <v>98</v>
       </c>
@@ -13975,8 +13974,8 @@
       <c r="E3" s="39" t="s">
         <v>79</v>
       </c>
-      <c r="F3" s="630"/>
-      <c r="G3" s="748"/>
+      <c r="F3" s="679"/>
+      <c r="G3" s="780"/>
       <c r="H3" s="40" t="s">
         <v>80</v>
       </c>
@@ -13987,13 +13986,13 @@
         <v>81</v>
       </c>
       <c r="N3" s="44"/>
-      <c r="O3" s="757" t="s">
+      <c r="O3" s="789" t="s">
         <v>44</v>
       </c>
-      <c r="P3" s="778" t="s">
+      <c r="P3" s="771" t="s">
         <v>218</v>
       </c>
-      <c r="Q3" s="779"/>
+      <c r="Q3" s="772"/>
       <c r="S3" s="57" t="s">
         <v>219</v>
       </c>
@@ -14003,15 +14002,15 @@
       <c r="W3" s="59" t="s">
         <v>104</v>
       </c>
-      <c r="AD3" s="760"/>
+      <c r="AD3" s="753"/>
     </row>
     <row r="4" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G4" s="748"/>
+      <c r="G4" s="780"/>
       <c r="H4" s="6"/>
       <c r="L4" s="687" t="s">
         <v>82</v>
       </c>
-      <c r="O4" s="758"/>
+      <c r="O4" s="790"/>
       <c r="T4" s="55" t="s">
         <v>97</v>
       </c>
@@ -14025,8 +14024,8 @@
         <v>194</v>
       </c>
       <c r="Z4" s="605"/>
-      <c r="AA4" s="683"/>
-      <c r="AD4" s="760"/>
+      <c r="AA4" s="627"/>
+      <c r="AD4" s="753"/>
     </row>
     <row r="5" spans="1:31" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C5" s="52" t="s">
@@ -14041,21 +14040,21 @@
       <c r="F5" s="66" t="s">
         <v>84</v>
       </c>
-      <c r="G5" s="748"/>
+      <c r="G5" s="780"/>
       <c r="H5" s="46" t="s">
         <v>75</v>
       </c>
-      <c r="K5" s="765" t="s">
+      <c r="K5" s="758" t="s">
         <v>216</v>
       </c>
-      <c r="L5" s="780"/>
+      <c r="L5" s="773"/>
       <c r="M5" s="2" t="s">
         <v>214</v>
       </c>
       <c r="N5" s="61" t="s">
         <v>213</v>
       </c>
-      <c r="O5" s="758"/>
+      <c r="O5" s="790"/>
       <c r="P5" s="108" t="s">
         <v>215</v>
       </c>
@@ -14071,11 +14070,11 @@
       <c r="U5" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="Y5" s="768" t="s">
+      <c r="Y5" s="761" t="s">
         <v>283</v>
       </c>
-      <c r="Z5" s="769"/>
-      <c r="AD5" s="760"/>
+      <c r="Z5" s="762"/>
+      <c r="AD5" s="753"/>
     </row>
     <row r="6" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C6" s="109"/>
@@ -14085,16 +14084,16 @@
       <c r="E6" s="45" t="s">
         <v>85</v>
       </c>
-      <c r="G6" s="748"/>
+      <c r="G6" s="780"/>
       <c r="H6" s="46" t="s">
         <v>80</v>
       </c>
       <c r="I6" s="23">
         <v>15</v>
       </c>
-      <c r="K6" s="766"/>
-      <c r="L6" s="780"/>
-      <c r="O6" s="758"/>
+      <c r="K6" s="759"/>
+      <c r="L6" s="773"/>
+      <c r="O6" s="790"/>
       <c r="T6" s="2" t="s">
         <v>100</v>
       </c>
@@ -14104,23 +14103,23 @@
       <c r="V6" s="21">
         <v>-1</v>
       </c>
-      <c r="AD6" s="760"/>
+      <c r="AD6" s="753"/>
     </row>
     <row r="7" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C7" s="110"/>
-      <c r="G7" s="748"/>
+      <c r="G7" s="780"/>
       <c r="H7" s="6"/>
-      <c r="K7" s="766"/>
-      <c r="L7" s="780"/>
+      <c r="K7" s="759"/>
+      <c r="L7" s="773"/>
       <c r="N7" s="21" t="s">
         <v>119</v>
       </c>
-      <c r="O7" s="758"/>
+      <c r="O7" s="790"/>
       <c r="P7" s="73"/>
       <c r="U7" s="104" t="s">
         <v>20</v>
       </c>
-      <c r="AD7" s="760"/>
+      <c r="AD7" s="753"/>
     </row>
     <row r="8" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C8" s="130"/>
@@ -14133,7 +14132,7 @@
       <c r="F8" s="66" t="s">
         <v>86</v>
       </c>
-      <c r="G8" s="748"/>
+      <c r="G8" s="780"/>
       <c r="H8" s="50" t="s">
         <v>75</v>
       </c>
@@ -14143,41 +14142,41 @@
       <c r="J8" s="111">
         <v>115</v>
       </c>
-      <c r="K8" s="766"/>
-      <c r="L8" s="780"/>
-      <c r="O8" s="758"/>
+      <c r="K8" s="759"/>
+      <c r="L8" s="773"/>
+      <c r="O8" s="790"/>
       <c r="P8" s="49"/>
-      <c r="S8" s="762" t="s">
+      <c r="S8" s="755" t="s">
         <v>211</v>
       </c>
-      <c r="T8" s="763"/>
-      <c r="U8" s="763"/>
-      <c r="V8" s="763"/>
-      <c r="W8" s="763"/>
-      <c r="X8" s="763"/>
-      <c r="Y8" s="763"/>
-      <c r="Z8" s="763"/>
-      <c r="AA8" s="763"/>
-      <c r="AB8" s="763"/>
-      <c r="AC8" s="764"/>
-      <c r="AD8" s="760"/>
+      <c r="T8" s="756"/>
+      <c r="U8" s="756"/>
+      <c r="V8" s="756"/>
+      <c r="W8" s="756"/>
+      <c r="X8" s="756"/>
+      <c r="Y8" s="756"/>
+      <c r="Z8" s="756"/>
+      <c r="AA8" s="756"/>
+      <c r="AB8" s="756"/>
+      <c r="AC8" s="757"/>
+      <c r="AD8" s="753"/>
     </row>
     <row r="9" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C9" s="784"/>
-      <c r="G9" s="748"/>
+      <c r="C9" s="745"/>
+      <c r="G9" s="780"/>
       <c r="H9" s="6"/>
-      <c r="K9" s="766"/>
-      <c r="L9" s="751" t="s">
+      <c r="K9" s="759"/>
+      <c r="L9" s="783" t="s">
         <v>217</v>
       </c>
-      <c r="M9" s="752"/>
-      <c r="N9" s="753"/>
-      <c r="O9" s="758"/>
+      <c r="M9" s="784"/>
+      <c r="N9" s="785"/>
+      <c r="O9" s="790"/>
       <c r="P9" s="75"/>
-      <c r="AD9" s="760"/>
+      <c r="AD9" s="753"/>
     </row>
     <row r="10" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C10" s="785"/>
+      <c r="C10" s="746"/>
       <c r="D10" s="23"/>
       <c r="E10" s="45" t="s">
         <v>87</v>
@@ -14185,7 +14184,7 @@
       <c r="F10" s="66" t="s">
         <v>88</v>
       </c>
-      <c r="G10" s="748"/>
+      <c r="G10" s="780"/>
       <c r="H10" s="51"/>
       <c r="I10" s="21" t="s">
         <v>80</v>
@@ -14193,33 +14192,33 @@
       <c r="J10" s="3">
         <v>15</v>
       </c>
-      <c r="K10" s="766"/>
-      <c r="M10" s="787" t="s">
+      <c r="K10" s="759"/>
+      <c r="M10" s="748" t="s">
         <v>89</v>
       </c>
-      <c r="N10" s="788"/>
-      <c r="O10" s="788"/>
-      <c r="P10" s="788"/>
-      <c r="Q10" s="788"/>
-      <c r="R10" s="788"/>
-      <c r="S10" s="788"/>
-      <c r="T10" s="788"/>
-      <c r="U10" s="788"/>
-      <c r="V10" s="788"/>
-      <c r="W10" s="788"/>
-      <c r="X10" s="788"/>
-      <c r="Y10" s="788"/>
-      <c r="Z10" s="788"/>
-      <c r="AA10" s="788"/>
-      <c r="AB10" s="788"/>
-      <c r="AC10" s="789"/>
-      <c r="AD10" s="760"/>
+      <c r="N10" s="749"/>
+      <c r="O10" s="749"/>
+      <c r="P10" s="749"/>
+      <c r="Q10" s="749"/>
+      <c r="R10" s="749"/>
+      <c r="S10" s="749"/>
+      <c r="T10" s="749"/>
+      <c r="U10" s="749"/>
+      <c r="V10" s="749"/>
+      <c r="W10" s="749"/>
+      <c r="X10" s="749"/>
+      <c r="Y10" s="749"/>
+      <c r="Z10" s="749"/>
+      <c r="AA10" s="749"/>
+      <c r="AB10" s="749"/>
+      <c r="AC10" s="750"/>
+      <c r="AD10" s="753"/>
     </row>
     <row r="11" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C11" s="786"/>
-      <c r="G11" s="748"/>
+      <c r="C11" s="747"/>
+      <c r="G11" s="780"/>
       <c r="H11" s="6"/>
-      <c r="K11" s="766"/>
+      <c r="K11" s="759"/>
       <c r="R11" s="52" t="s">
         <v>44</v>
       </c>
@@ -14227,17 +14226,17 @@
       <c r="Y11" s="68" t="s">
         <v>120</v>
       </c>
-      <c r="Z11" s="776" t="s">
+      <c r="Z11" s="769" t="s">
         <v>120</v>
       </c>
-      <c r="AA11" s="777"/>
+      <c r="AA11" s="770"/>
       <c r="AB11" s="52" t="s">
         <v>44</v>
       </c>
       <c r="AC11" s="118" t="s">
         <v>120</v>
       </c>
-      <c r="AD11" s="760"/>
+      <c r="AD11" s="753"/>
     </row>
     <row r="12" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C12" s="129"/>
@@ -14250,7 +14249,7 @@
       <c r="F12" s="66" t="s">
         <v>91</v>
       </c>
-      <c r="G12" s="748"/>
+      <c r="G12" s="780"/>
       <c r="H12" s="128"/>
       <c r="I12" s="19" t="s">
         <v>80</v>
@@ -14258,8 +14257,8 @@
       <c r="J12" s="3">
         <v>15</v>
       </c>
-      <c r="K12" s="766"/>
-      <c r="L12" s="781" t="s">
+      <c r="K12" s="759"/>
+      <c r="L12" s="774" t="s">
         <v>92</v>
       </c>
       <c r="M12" s="21" t="s">
@@ -14290,25 +14289,25 @@
         <v>115</v>
       </c>
       <c r="Y12" s="6"/>
-      <c r="AA12" s="770" t="s">
+      <c r="AA12" s="763" t="s">
         <v>125</v>
       </c>
-      <c r="AB12" s="771"/>
+      <c r="AB12" s="764"/>
       <c r="AC12" s="21" t="s">
         <v>231</v>
       </c>
-      <c r="AD12" s="760"/>
+      <c r="AD12" s="753"/>
     </row>
     <row r="13" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C13" s="784"/>
-      <c r="G13" s="748"/>
-      <c r="K13" s="766"/>
-      <c r="L13" s="782"/>
+      <c r="C13" s="745"/>
+      <c r="G13" s="780"/>
+      <c r="K13" s="759"/>
+      <c r="L13" s="775"/>
       <c r="M13" s="47"/>
-      <c r="Q13" s="750" t="s">
+      <c r="Q13" s="782" t="s">
         <v>209</v>
       </c>
-      <c r="R13" s="639"/>
+      <c r="R13" s="644"/>
       <c r="S13" s="599"/>
       <c r="T13" s="6"/>
       <c r="U13" s="96" t="s">
@@ -14317,17 +14316,17 @@
       <c r="X13" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="AA13" s="772"/>
-      <c r="AB13" s="773"/>
-      <c r="AD13" s="760"/>
+      <c r="AA13" s="765"/>
+      <c r="AB13" s="766"/>
+      <c r="AD13" s="753"/>
     </row>
     <row r="14" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="C14" s="786"/>
+      <c r="C14" s="747"/>
       <c r="D14" s="23"/>
-      <c r="G14" s="748"/>
+      <c r="G14" s="780"/>
       <c r="H14" s="125"/>
       <c r="I14" s="99" t="s">
         <v>44</v>
@@ -14335,8 +14334,8 @@
       <c r="J14" s="111">
         <v>115</v>
       </c>
-      <c r="K14" s="766"/>
-      <c r="L14" s="782"/>
+      <c r="K14" s="759"/>
+      <c r="L14" s="775"/>
       <c r="M14" s="21" t="s">
         <v>110</v>
       </c>
@@ -14357,9 +14356,9 @@
       <c r="Y14" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="AA14" s="772"/>
-      <c r="AB14" s="773"/>
-      <c r="AD14" s="760"/>
+      <c r="AA14" s="765"/>
+      <c r="AB14" s="766"/>
+      <c r="AD14" s="753"/>
     </row>
     <row r="15" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C15" s="130" t="s">
@@ -14374,19 +14373,19 @@
       <c r="F15" s="66" t="s">
         <v>93</v>
       </c>
-      <c r="G15" s="748"/>
+      <c r="G15" s="780"/>
       <c r="H15" s="2" t="s">
         <v>80</v>
       </c>
       <c r="I15" s="53" t="s">
         <v>80</v>
       </c>
-      <c r="K15" s="766"/>
-      <c r="L15" s="783"/>
-      <c r="Q15" s="750" t="s">
+      <c r="K15" s="759"/>
+      <c r="L15" s="776"/>
+      <c r="Q15" s="782" t="s">
         <v>210</v>
       </c>
-      <c r="R15" s="639"/>
+      <c r="R15" s="644"/>
       <c r="S15" s="599"/>
       <c r="T15" s="6"/>
       <c r="V15" s="68" t="s">
@@ -14395,14 +14394,14 @@
       <c r="X15" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="AA15" s="772"/>
-      <c r="AB15" s="773"/>
-      <c r="AD15" s="760"/>
+      <c r="AA15" s="765"/>
+      <c r="AB15" s="766"/>
+      <c r="AD15" s="753"/>
     </row>
     <row r="16" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C16" s="132"/>
-      <c r="G16" s="748"/>
-      <c r="K16" s="766"/>
+      <c r="G16" s="780"/>
+      <c r="K16" s="759"/>
       <c r="N16" s="47"/>
       <c r="O16" s="61" t="s">
         <v>108</v>
@@ -14421,24 +14420,24 @@
       <c r="Z16" s="76" t="s">
         <v>126</v>
       </c>
-      <c r="AA16" s="772"/>
-      <c r="AB16" s="773"/>
-      <c r="AD16" s="760"/>
+      <c r="AA16" s="765"/>
+      <c r="AB16" s="766"/>
+      <c r="AD16" s="753"/>
     </row>
     <row r="17" spans="3:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C17" s="109"/>
       <c r="E17" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="F17" s="745" t="s">
+      <c r="F17" s="777" t="s">
         <v>95</v>
       </c>
-      <c r="G17" s="748"/>
+      <c r="G17" s="780"/>
       <c r="H17" s="54"/>
       <c r="I17" s="133" t="s">
         <v>80</v>
       </c>
-      <c r="K17" s="766"/>
+      <c r="K17" s="759"/>
       <c r="S17" s="599"/>
       <c r="V17" s="68" t="s">
         <v>44</v>
@@ -14446,9 +14445,9 @@
       <c r="X17" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="AA17" s="772"/>
-      <c r="AB17" s="773"/>
-      <c r="AD17" s="760"/>
+      <c r="AA17" s="765"/>
+      <c r="AB17" s="766"/>
+      <c r="AD17" s="753"/>
     </row>
     <row r="18" spans="3:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C18" s="130"/>
@@ -14458,15 +14457,15 @@
       <c r="E18" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="F18" s="746"/>
-      <c r="G18" s="748"/>
+      <c r="F18" s="778"/>
+      <c r="G18" s="780"/>
       <c r="H18" s="108" t="s">
         <v>75</v>
       </c>
       <c r="I18" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="K18" s="766"/>
+      <c r="K18" s="759"/>
       <c r="O18" s="64" t="s">
         <v>114</v>
       </c>
@@ -14477,39 +14476,42 @@
       <c r="X18" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="AA18" s="774"/>
-      <c r="AB18" s="775"/>
-      <c r="AD18" s="760"/>
+      <c r="AA18" s="767"/>
+      <c r="AB18" s="768"/>
+      <c r="AD18" s="753"/>
     </row>
     <row r="19" spans="3:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F19" s="64" t="s">
         <v>208</v>
       </c>
-      <c r="G19" s="749"/>
-      <c r="K19" s="767"/>
+      <c r="G19" s="781"/>
+      <c r="K19" s="760"/>
       <c r="Q19" s="68" t="s">
         <v>44</v>
       </c>
-      <c r="R19" s="754" t="s">
+      <c r="R19" s="786" t="s">
         <v>123</v>
       </c>
-      <c r="S19" s="755"/>
-      <c r="T19" s="756"/>
+      <c r="S19" s="787"/>
+      <c r="T19" s="788"/>
       <c r="V19" s="77" t="s">
         <v>114</v>
       </c>
       <c r="Y19" s="19" t="s">
         <v>124</v>
       </c>
-      <c r="AD19" s="761"/>
+      <c r="AD19" s="754"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="C9:C11"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="V2:W2"/>
-    <mergeCell ref="M10:AC10"/>
-    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="G2:G19"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="L9:N9"/>
+    <mergeCell ref="R19:T19"/>
+    <mergeCell ref="S12:S18"/>
+    <mergeCell ref="O3:O9"/>
     <mergeCell ref="AD1:AD19"/>
     <mergeCell ref="S8:AC8"/>
     <mergeCell ref="K5:K19"/>
@@ -14521,14 +14523,11 @@
     <mergeCell ref="P3:Q3"/>
     <mergeCell ref="L4:L8"/>
     <mergeCell ref="L12:L15"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="G2:G19"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="L9:N9"/>
-    <mergeCell ref="R19:T19"/>
-    <mergeCell ref="S12:S18"/>
-    <mergeCell ref="O3:O9"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="V2:W2"/>
+    <mergeCell ref="M10:AC10"/>
+    <mergeCell ref="F2:F3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
